--- a/output/Total_time_range_data/宁夏回族自治区/固原市_学习考察.xlsx
+++ b/output/Total_time_range_data/宁夏回族自治区/固原市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5854 +436,6405 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>292</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>灵武市审批局到我局考察交流学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-04-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202005/t20200518_2091716.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['4月23日下午，灵武市审批局党组书记、局长杨洪明同志带领考察组一行12人，到固原市审批局考察交流学习我市“163”政务服务模式先进经验和做法，市审批局分管负责同志和各科室负责同志介绍有关情况。', '考察组先后实地考察了固原“163”政务服务模式推进情况及一窗综合受理区、24小时自助服务区、“六多合一”审批区、“163”政务服务综合电子监察平台运行情况，在一窗综合受理区叫号体验无差别一窗综合受理服务。随后，召开座谈交流会，市审批局分管负责同志通报固原“163”政务服务模式运行情况，考察组成员和我局各科室（中心）负责同志结合各自工作进行了互动交流。', '通过交流学习，考察组对我市“163”政务服务模式取得的成效给予了充分肯定，并表示：固原市在推行“163”政务服务模式方面创新无差别一窗综合受理、模拟审批、要素审批、口述办证、全时办、“7090”审批服务和面向全国征集图审机构等做法，为其它市、县（区）提供了可学习可复制的宝贵经验，消除了在实际工作中的困惑，对提高政务服务工作的质量和水平具有促进作用，希望在下一步工作中能够继续加强学习交流沟通，互相帮助，推动固原市和灵武市政务服务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>292</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市招商小分队赴广东考察学习招商引资情况报告</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-03-29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201812/t20181226_1230788.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['３月１８日至２３日，市委常委、政府副市长，福建省第十批援宁工作队领队陆菁率市政府办、文体新广局、经合局相关负责人，西吉县、同心县第十批援宁工作队队员赴广东省深圳市、东莞市开展招商引资活动。', '拜访了深圳福建商会、广东宁夏商会、深圳永春商会、东莞永春商会等商协会，与商会负责人及会员企业家进行了座谈交流。会见了广东福建商会、深圳泉州商会、深圳南安企业协会负责人，洽谈对接了合作事宜。考察了深圳市茂雄实业有限公司、浙江星星科技股份有限公司全资子公司联懋集团、德津实业发展有限公司、东莞永林电子、中威纺织、广东唯一网络有限公司、富宝家居集团有限公司等８家企业。与深圳市茂雄实业有限公司、广东唯一网络有限公司达成了合作意向。', '拜访了深圳福建商会、广东宁夏商会、深圳永春商会、东莞永春商会等商协会，与商会负责人及会员企业家进行了座谈交流。会见了广东福建商会、深圳泉州商会、深圳南安企业协会负责人，洽谈对接了合作事宜。考察了深圳市茂雄实业有限公司、浙江星星科技股份有限公司全资子公司联懋集团、德津实业发展有限公司、东莞永林电子、中威纺织、广东唯一网络有限公司、富宝家居集团有限公司等', '拜访了深圳福建商会，深圳永春商会、东莞永春商会，与深圳福建商会常务副会长吴天转，常务副会长、秘书长陈加明，深圳永春商会会长周友智，东莞市永春商会会长陈政治及商会会员企业进行了座谈交流。陆菁同志介绍了闽宁协作二十年来取得的成绩，福建援宁工作队的使命和责任，介绍了我市的基本情况，重点发展产业，积极邀请商会组织企业家到我市考察，积极参与宁夏、固原的扶贫攻坚事业。各商会均表示，将在今年适当时候组织相关企业来我市考察，寻求合作商机，为闽宁协作做出应有的贡献。', '深圳市茂雄实业有限公司是一家集生产、加工、贮藏，配送为一体的绿色食品企业。拥有高标准，现代化的厂房面积１００００多平方米，冷库面积１００００多平方米，种植基地３００００多亩，在宁夏青铜峡市也建有种植基地。公司产品畅销国内，远销到美国、加拿大、英国、日本、新加坡、东南亚等十几个国家和地区，是输港蔬菜和水果的重要企业，也是近年来深圳市成长最为迅速企业之一。在听取我市的冷凉蔬菜优势后，企业负责人对在我市建设基地和加工厂表示了极大的兴趣，表示在适当时候来我市考察。', '深圳市茂雄实业有限公司是一家集生产、加工、贮藏，配送为一体的绿色食品企业。拥有高标准，现代化的厂房面积', '广东唯一网络科技有限公司是国内互联网ＩＤＣ业务综合服务提供商前十强。公司成立于２００５年８月，为客户提供高品质的', '等互联网增值业务解决方案。曾多次被评为电商示范单位，现有员工２００多人，总部位于东莞，目前在北京、广州、深圳、厦门等地设有分公司，服务范围遍布全国，现已拥有多个独立自主经营的电信级', '。公司董事长王宇杰先生表示正在寻求合适的地方建设一个总投资１亿元左右的云基地，固原市电力资源丰富，电力成本较低，符合建设条件，企业将进一步与我市沟通交流，商洽合作事宜。', '通过这次广东招商活动，学习了在广东的福建籍企业家精神，考察了电子、纺织等产业发展情况，开阔了眼界，拓展了思路，达成了合作协议，取得了良好成效，有以下几点启示。', '。在这次考察活动中，从在广东创业的福建籍企业家身上深刻的体会到了“善观时变、顺势而为；敢冒风险，爱拼会赢；合群团结，豪爽义气；恋祖爱乡、回馈乡梓”的“闽商”精神，很受感动。固原的脱贫攻坚工作要跨越，首先是人的精神的“脱贫”，通过学习，把人的内生动力激发出来，把先发优势和后发效应释放出来，缩短东西差距，这应该是闽宁协作更深层次的意义。', '我市具有劳动力资源丰富，投资成本低、政策优惠等优势，发展电子、纺织等创新型、创业型、劳动密集型产业优势明显。我市的冷凉蔬菜在广东等发达地区很受欢迎。但由于缺乏上下游配套产业，规模较小，引进项目落地较难。为了形成产业集聚效应，产生产业向心力，', '借鉴发达地区做法，围绕纺织产业、电子产业制定切实可行的产业链发展规划，加强现有产业链延伸、补缺，做大规模，做优配套、集中投入，提升产业聚集度。同时，做好园区配套，建好载体，完善配套服务，以便承接产业转移。', '扩大开放是改革的动力源，打好产业转型升级攻坚战，离不开开放的有力支撑。跟发达地区相比，我市无论开放的广度、深度，还是对外合作的层次、水平都存在明显的差距，干部思想观念较为陈旧，开放性人才缺乏等问题不同程度的存在。因此我们应该从比较中找差距，从发展中查不足，通过扩大开放，吸引外部资本、技术、人才来补短板。', '通过与一些企业家的座谈交流，明显感觉到，现在的企业不仅重视一个地方的基础设施等硬环境，更加重视服务、管理、生态、人员素质等软环境。我市虽然劳动力资源丰富，但是有一定劳动技能的产业工人很缺乏，不能满足企业需要，而职业教育也严重滞后，达不到未来工业发展要求。同时，我们主动服务客商的意识和水平也亟待提高。', '在坚决打赢脱贫攻坚战，全面建成小康社会的新常态下，企业不仅是经济社会发展的主力军，也是扶贫开发的重要力量，众多的企业家特别是有实力有社会责任心的企业家，将产业扶贫作为承担社会责任，贡献扶贫攻坚的主要渠道。因此，我们要抢抓机遇，打好六盘山集中连片特困地区这张牌，着力项目的论证规划，紧盯大企业大集团，积极对接洽谈，争取一批扶贫产业项目落地。', '由市经合局负责发函邀请深圳福建商会、深圳永春商会、东莞永春商会、福建泉州商会等商协会组团来我市考察，寻求投资机会。', '（二）市经合局、西吉县加强与深圳茂雄实业有限公司的对接，邀请企业考察。争取企业与我市的华林蔬菜等企业合作，提高现有产业规模，提升层次。', '（三）对广东唯一网络有限公司提出的信息产业园区规划、电价等事宜，由市经合局牵头，市工信局、供电局、开发区管委会等单位配合，积极为企业提供详实的资料，以便企业规划决策。同时，积极邀请企业来我市考察。', '（四）市文体新广局、经合局、经济技术开发区管委会等部门要抓紧与这次对接企业的联系，针对性拿出合作方案，争取引进建设。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>292</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>广西南宁市脱贫攻坚战前线指挥部考察组来固原考察学习脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019-05-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190702_1576338.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月15日—17日，以广西南宁市脱贫攻坚战前线指挥部办公室副主任黄春妹为组长的考察组一行10人，来固原市考察学习深度贫困地区脱贫攻坚、特色产业发展、金融扶贫、易地扶贫搬迁可持续发展、乡村旅游、激发贫困户内生动力等脱贫攻坚的', '人，来固原市考察学习深度贫困地区脱贫攻坚、特色产业发展、金融扶贫、易地扶贫搬迁可持续发展、乡村旅游、激发贫困户内生动力等脱贫攻坚的', '考察了原州区彭堡镇姚磨村万亩冷凉蔬菜基地，西吉县吉强镇龙王坝村乡村旅游、马莲乡张堡塬村向丰家庭农场，隆德县', '考察组一行认为，固原市的脱贫攻坚工作：一是党委政府高度重视；二是脱贫措施具体得力；三是特色产业突出多样；四是红色旅游底蕴深厚；五是脱贫成效非常显著，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>292</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>固原市地震局赴银川市地震局考察交流学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202302/t20230227_3976841.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实市委、市政府对防震减灾工作的部署要求，学习周边地（市）先进经验和好的工作做法，努力开创我市防震减灾事业高质量发展新局面。2月24日，固原市地震局领导带领相关业务人员一行4人赴银川市地震局考察交流学习。', '当日上午，固原市地震局考察组一行参观了银川市地震局办公环境，与相关人员开展了互促互进业务能力提升交流活动，就党建与业务融合、地震监测预报预警、防震减灾科普宣传、地震活动断层避让、地震应急避难场所建设等方面工作进行了深入探讨交流，双方表示，今后将继续加强工作交流、共享工作经验，共同推进新时代防震减灾工作取得新成效。交流活动结束后，在银川市地震局相关负责人的陪同下，先后考察学习了银川市人民广场地震应急避难场所、银川市应急指挥中心、地震公园地震科普宣传基地和银川永丰断层气观测站等亮点工作。', '通过本次考察学习交流，学习借鉴了银川市地震局在防震减灾工作方面的先进做法和经验，开阔了视野，拓宽了思路，将对固原市防震减灾工作高质量发展起到了推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>固原市委副书记西吉县委书记白学贵一行赴福清市考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/jzfp_1/xczxgzdt/202306/t20230621_4153525.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['6月18日至6月19日，市委副书记、县委书记白学贵带队赴福建省福清市考察企业、宣传西吉、学习经验。福州市委常委、福清市委书记叶仁佑，福清市领导吴永忠、陈存枫、翁芳明、陈国涛、林鹤志分别参加有关活动。', '在福清考察期间，白学贵一行应邀出席了福清市首届“龙江杯”传统龙舟比赛开幕式，先后深入福建光阳蛋业股份有限公司、天马科技集团鳗鲡特色产业园区、福清市人力资源服务产业园、国资小镇、福融新材料股份有限公司、宁夏六盘山特产福清馆等地实地考察学习。', '每到一处，白学贵一行进工厂、走车间、看产品、听介绍、询情况，详细了解企业的运营情况、生产规模和投资意向，并围绕西吉县区位优势、特色农业、商贸物流、农特产品销售等领域向企业家们详细介绍我县的基本情况，大力推介招商引资的优惠政策、投资环境，诚邀各位企业家到西吉县多走走、多看看，在更多领域开展务实合作，实现地区经济互利共赢、人文互通共融、感情互动共鸣。', '白学贵说，福建和宁夏在长期的对口支援和交流合作中结下了深厚情谊、取得了丰硕成果，这次福清之行深切感受到了“三福之地”和“西部福地”的山海之情。福清市区位优势突出，经济活力强劲，产业基础扎实，在城市建设管理、国有企业发展等方面，有很多先进经验，值得我们学习借鉴。当前，西吉县正加快建设农业强县、创建国家乡村振兴示范县，希望双方进一步加强交流、厚植友谊、携手共进，在更宽领域、更深层次开展务实合作，共同推动两地高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>292</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>固原市党政代表团在厦门市考察学习并召开两地领导见面会</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202306/t20230620_4151585.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['6月19日，固原市党政代表团在福建省厦门市考察，学习感悟习近平新时代中国特色社会主义思想的深厚伟力，并与厦门市召开党政领导见面会，深入贯彻落实习近平总书记关于深化闽宁协作的重要指示精神，共叙闽宁山海情，共话协作新愿景。厦门市委副书记、市长黄文辉，市委书记滑志敏参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>292</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>固原市农牧局事业单位公开招聘工作人员考察报告</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2017-12-27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201801/t20180110_665183.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['这次公开招聘事业单位工作人员考察工作，我局高度重视并组成考察组，严格按照《固原市201', '年市直单位公开招聘工作人员考察工作方案》的规定，坚持全面、客观、公正的原则，严肃公正纪律，坚决杜绝弄虚作假、徇私舞弊、以权谋私等违规违纪行为，具体分为三个步骤进行。', '其次，采取查询资料和谈话等形式，对学籍档案、身份证明、学历证明及专业、公安机关无违法行为证明、考察对象服务单位出具的个人现实表现总结等进行了考察。', '再次，对考察对象在德、能、勤、绩、廉等五个方面的现实表现进行了综合分析，经考察组认真研究，形成个人考察材料。', '在研究所一年的实践中，虎芳芳同志吃苦耐劳、团结同事、乐于助人，虚心向单位的老同志学习，结合自己在学校期间的学习成果，业务素质得到了很大的提升。', '在工作实践中，善于发现、学习、总结做好本职工作的方法、思路，日常工作中能够经常反思自己，自觉遵守政法干警的各项纪律和廉政准则。', '同志的思想政治素质、能力素质、道德品质、工作表现、遵纪守法、廉洁自律等方面的调查，参加谈话人员全部同意招聘使用。经户籍所在地公安机关调查核实，未发现有违法违纪行为。', '同志政治素养高，工作能力强，品行良好，遵纪守法，符合招聘条件，达到了基本素质标准，同意']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>292</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市投资促进服务中心年工作总结暨年工作打算</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-12-05</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202012/t20201231_2549686.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['2020年，市投资促进服务中心认真贯彻习近平总书记视察宁夏重要讲话精神和自治区党委十二届十次、十一次全会精神，全面落实市委四届七次、八次全会精神，聚焦培育壮大“十大产业链”，推动加快构建现代产业体系核心目标，认真履行项目招引和服务两大职责，在草畜、马铃薯、中药材、现代纺织产业链招大引强上取得新突破。', '围绕“十大产业链”建链延链补链，联合产业部门、县区组织实施了高质量发展招商项目库建设，论证编制招商项目100个，概算总投资315亿元，均达到预可研深度，优化充实了招商项目库。制作了全新的《固原投资指南》、《创新永固宜商之原》宣传片、项目电子书等宣传资料。紧盯重点区域和龙头企业，筛选整理出招商目标企业150多家，建立了招商企业库。', '联合产业部门、工业园区、工商联和县区招商力量，围绕龙头企业和重大项目，多频次开展领导高位推动招商、线上常态化招商、产业专题招商、小分队招商、以商招商，洽谈和引进产业龙头项目取得新突破。一是主动出击开展“不见面”线上招商。疫情期间，积极利用“固原招商”微信号、微博等媒介，宣传推介固原投资环境、重点产业、招商项目、公共政策。加强与自治区政府驻外办事处，驻宁和宁夏驻外商会联系，收集企业投资信息，洽谈达成了一批项目合作意向。二是多频次“走出去”精准对接。先后组织赴河南、福建、浙江、湖北、深圳等地开展小分队招商14次，其中，市委和市政府主要领导外出招商4次，考察企业130多家，对接达成重点产业项目合作意向30个，成功签约项目4个。三是积极跟进“请进来”考察洽谈。邀请来固考察企业和商协会50多批次，召开项目对接会40多场次，成功签约网龙网络“互联网+教育”、中广传媒文旅等项目5个，正在跟踪推进项目22个。四是巧借外力以商招商。加强与深圳纺织协会、中纺标检测公司、苏州纺织协会等单位合作，开展项目发布、信息收集、引荐企业。与碧桂园碧优选、永辉超市、闽宁特色产品馆等平台对接，积极推荐我市优质农特产品线上展销，拓宽宣传面和销售渠道。五是协作开展产业专题招商。按照十大产业链招商小组安排，落实产业精准招商百日行动，协同工信、教育、农业农村、开发区等单位开展产业专题招商，对接长源纺织、雪川农业、锦绣大地农业等企业，达成现代纺织、马铃薯全产业链、特色农业等合作意向。', '落实跟踪服务和全程代办制，优化提升服务实效，推动项目签约落地建设。一是跟踪在谈项目促签约。紧盯30个在谈项目，落实一对一包抓责任，促成在谈转协议项目9个，正在完善协议项目3个，正在推进项目18个。二是服务签约项目促投建。先后为锐捷网络西部网络运营中心、罗普特军民融合高端制造基地、网龙网络“互联网+教育”等签约项目全程代办落户手续，协调解决企业生活、办公用房、生产车间等困难问题50多项，服务保障项目落地。三是服务达产项目保运营。疫情期间，多方筹措为天楹集团、金田阳光等15家企业提供防疫口罩2000个。疫情缓解后，协助晨光实业、浙商国际等企业职工返岗，解决企业复工难问题。主动协调农发行固原分行、宁夏银行与金厚粮油、六盘珍坊、天楹环保、明德中药达成贷款意向。', '(四)全面加强全面从严治党，以党的建设统领中心工作。全面落实新时代党的建设总体要求，坚持以党的政治建设为统领，以“担当新使命、展现新作为”学习实践活动为抓手，严格落实党组主体责任，认真履行“一岗双责”，扎实开展党风廉政建设、意识形态、疫情防控等工作。一是强化“一岗双责”，狠抓责任落实。召开中心党组会议专题研究部署机关党建、党风廉政建设、意识形态等工作，制定了工作实施方案和全面从严治党“三个清单”，签订处级干部和科室负责人党建、党风廉政建设和意识形态等工作责任书，压实“一岗双责” ，扛牢党风廉政建设主体责任。二是强化学习教育，提高政治站位。深入开展“担当新使命、展现新作为”学习实践活动，严格落实党组中心组学习制度，召开中心组集中学习32次，集中研讨7次。三是强化规矩意识，严明党的纪律。贯彻落实民主集中制原则和执行“三重一大”事项集体决策机制，健全《党风廉政建设责任制实施意见》、《领导干部廉洁自律规定》等相关制度4项。四是强化意识形态，筑牢核心价值观。扎实开展“五个一”初心体验活动，召开2次专题会议和每季度分析研判中心意识形态领域风险。强化对招商引资相关微博、微信(群)、QQ工作群等网络的管理和监督，管好自媒体，自觉抵制错误言论，牢牢把握舆论导向。五是统筹做好疫情防控，创建卫生城市，精准扶贫等工作。', '全面落实新时代党的建设总体要求，坚持以党的政治建设为统领，以“担当新使命、展现新作为”学习实践活动为抓手，严格落实党组主体责任，认真履行“一岗双责”，扎实开展党风廉政建设、意识形态、疫情防控等工作。一是强化“一岗双责”，狠抓责任落实。召开中心党组会议专题研究部署机关党建、党风廉政建设、意识形态等工作，制定了工作实施方案和全面从严治党“三个清单”，签订处级干部和科室负责人党建、党风廉政建设和意识形态等工作责任书，', '。二是强化学习教育，提高政治站位。深入开展“担当新使命、展现新作为”学习实践活动，严格落实党组中心组学习制度，召开中心组集中学习32次，集中研讨7次。三是强化规矩意识，严明党的纪律。贯彻落实民主集中制原则和执行“三重一大”事项集体决策机制，健全《党风廉政建设责任制实施意见》、《领导干部廉洁自律规定》等相关制度4项。四是强化意识形态，筑牢核心价值观。扎实开展“五个一”初心体验活动，召开2次专题会议和每季度分析研判中心意识形态领域风险。强化对招商引资相关微博、微信(群)、QQ工作群等网络的管理和监督，管好自媒体，自觉抵制错误言论，牢牢把握舆论导向。五是统筹做好疫情防控，创建卫生城市，精准扶贫等工作。', '现代纺织产业全产业链打造上成功签约华人礼服服装加工、漳州明锋金银丝纺织项目;与长源纺织、源兴棉业、金源纺织等15家企业达成合作意向，与福州市长乐区达成合作共建绵纺织产业园意向;积极争取2021年中国纺织技术论坛年会、中国麻纺标委员会年会在我市举办，与中国麻纺标委员会就中国麻纺产品永久性发布中心项目达成初步合作意向。草畜产业上成功签约伊赛集团10万头固原黄牛养殖屠宰及万吨肉制品深加工基地项目，在建融侨肉牛生态产业园项目。马铃薯产业正在洽谈雪川农业集团马铃薯全产业链项目，成功签约亲亲食品马铃薯休闲食品生产基地项目。中药材产业上与湖北长江医药集团达成合作协议，打造集中药材种植、中药研发、深加工和销售于一体的现代中药大健康产业园项目。冷凉蔬菜产业正在洽谈深圳市农产品集团、碧桂园集团、江苏美润食品、北京锦绣大地农业等项目;与漳州孚美食品达成万亩冷凉蔬菜种植和初加工项目协议;在建水发(宁夏)10万吨蔬菜深加工项目。生态经济产业上正在洽谈中化集团元宝枫杜仲特种经济林、水发浩海苹果种植加工、成都一麻一米胡麻种植深加工等项目;成功签约六盘山亚麻产业融合发展项目，在建水发万亩梨树种植加工、艾草种植及深加工、富康源黑果花楸等项目。文化旅游产业上正在洽谈红星美凯龙城市客厅、水发浩海健康养老等项目;成功签约中广国际传媒文旅文创项目，开展固原人文地理、历史文化、自然风光、农特产品等全方位宣传推广;在建三石文化现代农业旅游观光、上海路鸣实业旅游综合体、法雅六盘山香水康养小镇项目。', '服务市委和市政府主要领导外出招商4次，考察企业30多家，洽谈对接项目11个，成功签约华人礼服服装加工、亲亲休闲食品项目等4个，推动长江医药现代中药大健康产业园、深圳博磊达钛酸锂电池生产项目达成合作协议，与福州市长乐区达成合作共建绵纺织产业园意向，与中燃集团、碧桂园、红星美凯龙、长源纺织等行业龙头企业达成合作意向项目。', '联合市工业和信息化局、开发区管委会，在福建省长乐区举办长乐·固原纺织产业专题推介会，与长乐区达成合作共建棉纺织产业园意向。联合苏州宁夏商会，在苏州市举办农业产业化专题推介会会，展示展销我市特优农产品。', '认真学习贯彻党的十九届五中全会精神、习近平总书记视察宁夏重要讲话精神和自治区党委十二届十一次全会精神，全面落实市委四届七次、八次全会决策部署，紧扣打基础、抓招引和优服务三大职责，抢抓构建新发展格局和黄河流域生态保护和高质量发展先行区建设带来的重大机遇，紧扣“十大产业链”建延补强，力争在引进产业龙头项目、配套项目上取得新突破。', '结合“十四五”总体规划、各产业专项规划，深度谋划储备50个以上高质量、促发展、有市场的产业龙头项目，充实优化招商项目库;按照产业发展需要，紧盯重点地区，以不低于入库项目1:3的比例筛选有发展潜力、投资外溢、产业转移的龙头企业，充实优化招商目标企业资源库;持续拓宽招商渠道，积极主动与重点区域产业商协会、工业园区，宁夏办事处、驻外和驻宁夏商会等建立友好合作关系，广泛收集投资信息。注重利用闽宁协作、区外展会和市内节会平台拓宽朋友圈、扩大交往面;修订制作与时俱进、亮点突出、能够全面展示新形象的高质量招商引资宣传片、投资指南、项目册、PPT等宣传推介资料。', '积极主动为产业部门、各县区和工业园区招商引资服务，联合现有招商力量多方式、高频次走出去开展精准招商、靶向招商活动，广泛宣传推介我市优势资源、优势产业和经济社会发展全面升级的新形象。年内组织小分队外出招商20批次以上，市外举办特色农产品加工、现代纺织、生态经济专题招商3场次以上;瞅准盯紧意向企业不放松，积极主动邀请来固实地考察，深度对接，跟踪推进，做优服务保障。年内邀请来固考察企业不少于50批次，举办市内产业专题对接会10场次以上，力争新签约产业项目20个以上，当年落地10个以上;创新利用节会招商、中介招商、以情招商、以商招商，尽最大努力扩大宣传面和影响力。年内组织召开固原籍在外成功人士家乡行座谈会，积极争取在我市召开中国纺织技术论坛年会、中国麻纺标委员会年会。', '建强队伍，健全机制，为所有招商引进项目提供无微不至的“妈妈式”全过程服务。二是开展主动上门服务。年内最少开展2次上门“送政策、听建议、解难题、帮发展”走访调研活动，主动为项目建设解难题，为企业发展献良策。主动在招商引进企业和与金融机构之间架起桥梁，协助解决信息不对称、融资难融资贵等问题。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>292</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>固原市地震局赴平凉市地震局和平凉地震监测中心站考察交流学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202302/t20230206_3945281.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实市委、市政府对防震减灾工作的部署要求，强化与周边地（市）之间的业务合作、信息共享，拓展我市防震减灾工作思路、创新工作方法，不断提高地震监测预报预警、应急准备、灾害防御、公共服务等方面的', '上午，在平凉市地震局、平凉地震监测中心站、平凉市崆峒区地震局负责人的陪同下，考察了崆峒地电台、崆峒区水氡观测点、西郊街道国家综合减灾示范社区、平凉市地震预警信息发布终端', '开阔了工作视野，拓宽了工作思路，达到优势互补，相互促进的效果，对下一步稳步推进固原市防震减灾事业向更高水平、更宽领域、更深层次发展奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>292</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>深化闽宁协作抢抓招商先机张学斌副市长带队赴福建省开展经贸洽谈活动</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202307/t20230720_4187409.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['深化闽宁协作 抢抓招商先机 ——张学斌副市长带队赴福建省开展经贸洽谈活动_固原市人民政府', '为认真贯彻落实市委五届五次、六次、七次全会和市“两会”精神，进一步深化闽宁协作，精准开展招商引资，2月7日至13日，政府副市长张学斌带领市工业和信息化局、经济开发区管委会、市投资促进服务中心主要负责人组成经贸考察组，赴福建省福州市、莆田市、龙岩市、厦门市开展经贸洽谈活动。', '考察组先后考察了百威雪津啤酒有限公司、春晖科技集团、长源纺织有限公司、飞毛腿电池有限公司、福州六和机械有限公司、福建亚明食品有限公司、厦门夏商集团、厦门金龙联合汽车工业有限公司等重点企业8家，召开项目对接座谈会6场次，洽谈对接了百威雪津啤酒加工、春晖科技服装加工、长源纺织纺织产业园建设、飞毛腿电子产品生产及组装、六和机械装备制造、亚明食品休闲食品加工、夏商集团饲料加工等项目合作事宜。', '2月10日，考察组一行还赴龙岩市永定区南江村和洪坑村实地考察学习，详细了解龙岩市文化旅游产业开发方面的先进经验和做法。考察组认为，龙岩市充分发挥红色文化、客家文化等资源优势，开发文旅融合、乡村旅游项目，文化旅游资源开发成效明显，有许多好的经验做法值得我市学习借鉴，希望两地继续加强沟通交流，延续良好的协作机制，加强产业协作，拓展合作领域，推进人才交流，持续提高协作实效。龙岩市领导表示，龙岩将牢记习近平总书记的殷切嘱托，强化责任担当，盯紧目标任务，与固原市一起奋力谱写互帮互助、优势互补、共同发展的新篇章，为深化新时代闽宁协作贡献力量。考察期间，考察组一行还瞻仰了古田会议会址，瞻仰了毛主席雕像并敬献鲜花。', '此次考察虽然行程紧、时间短，但准备充分、目标明确、安排紧凑，得到了相关方面的高度重视和积极配合，先后共考察对接重点企业8家，并与福州市、莆田市、龙岩市有关领导进行了座谈交流，增进了了解，深化了友谊，对接效果良好，达到了预期目的。闽宁协作27年来，两地交流频繁、产业优势互补，固原作为宁夏副中心城市，去年以来围绕“五特五新五优”产业，始终坚持大抓发展、抓大发展、抓高质量发展、实现“赶超式”发展。通过此次深入企业考察座谈，在闽企业纷纷表示将会结合各自的优势，开展项目合作，实现共赢，共同推进闽宁协作再创辉煌。', '下一步，市投资促进服务中心将进一步跟踪对接，在深化产业协作、壮大产业链方面继续加强与福州、厦门、莆田等地纺织服装、机械装备制造、文化旅游、休闲食品加工企业对接洽谈，积极推动厦门夏商集团、春晖科技签订合作协议，邀请福州六合机械、长源纺织、厦门金龙联合汽车工业有限公司和福建亚明食品有限公司来固考察，力争在机械装备制造、纺纱服装、休闲食品等项目方面实现合作。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>292</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>中共固原市经济技术合作局党组关于市委第二巡察组巡察反馈问题整改落实情况的报告</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019-12-10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201912/t20191210_1877854.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['中共固原市经济技术合作局党组关于市委第二巡察组巡察反馈问题整改落实情况的报告_固原市人民政府', '根据市委统一部署，２０１９年３月２０日至５月１７日，市委第二巡察组对市经济技术合作局党组进行了为期２个月的集中巡察２０１９年７月５日，市委第二巡察组反馈了巡察意见。按照巡察工作要求，现将巡察整改情况予以公布。', '对市委巡察组反馈意见中指出的四个方面问题，市经济技术合作局党组以高度的政治站位、坚定的政治自觉、严明的工作责任、严肃的整改态度，不折不扣地抓好巡察整改工作，各项整改任务取得阶段性成果。一是强化思想认识，增强整改落实主动性。市委第二巡察组反馈意见后，局党组立即召开党组（扩大）会议，传达学习《关于印发〈固原市委第二巡察组关于巡察市经济技术合作局党组的反馈意见〉的通知》（〔２０１９〕５号）精神，要求机关全体人员把巡察整改工作作为当前一项重要政治任务，把巡察整改与党组主体责任落实、制度机制长效管理、“高质高效招商引资年”活动等紧密结合，切实把班子成员和干部职工思想和行动统一到市委决策部署中来，严格按照市委巡察工作要求，高质量高标准完成整改落实工作。二是强化组织领导，压实整改主体责任。牢固树立“抓好整改是本职、不抓整改是失职、整改不力是渎职”的责任意识，成立由党组书记任组长，党组成员任副组长，科室负责人为成员的市投资促进服务中心巡察整改工作领导小组，全面统筹推进整改工作。局党组对巡察整改工作负总责，党组书记负“第一责任人”责任，分管党建、党风廉政建设和财务的分管领导负直接责任，其余党组成员按分工负领导责任，各科室负责人在职责范围内负领导责任，主动认领整改任务清单，切实抓好整改任务的落实。三是强化问题导向，切实抓好整改落实。局党组先后召开党组（扩大）会议３次、专题民主生活会１次，研究部署巡察整改工作，针对反馈问题深入查找根源，制定了《固原市经济技术合作局党组落实市委第二巡察组巡察反馈意见的整改方案》，提出具体整改措施，逐条明确牵头领导、责任科室和整改时限，确保整改责任压紧压实，各项整改措施全面落实到位。', '１．对自治区出台的优化营商环境２４条政策， 没有及时学习贯彻，没有提出具体的落实措施。一是利用党组中心组学习会、周一例会对自治区出台的优化营商环境２４条政策和《固原市优化营商环境总体方案》及子方案进行专题学习研讨，引导全体干部职工牢固树立“服务是第一投资环境”的理念，把“亲商、重商、安商”放在工作第一位，突出“四心服务”，凭敬业之情，用诚挚之心，帮项目之难，解企业之忧，为招商引资企业提供优质服务。二是结合“高质高效招商引资年”活动的深入开展，制定了《市经济技术合作局持续优化营商环境开展主动服务工作方案》（固经合发〔２０１９〕２５号），按照职责分工积极主动先后深入丰源纺纱有限公司、北京中亚恒一科技有限公司、金田阳光集团等２０多家企业开展上门服务，先后为丰源纺纱、七彩樱桃李智慧文旅医养田园综合体建设项目、宁夏拓明农业、金厚粮油等企业协调解决高管落户、子女教育、用水用地、税务服务、产品销售等实际困难和问题；三是强化企业服务中心职能，为招商引进企业东环路批发市场项目代办证照、五星级酒店及会展中心建设项目代办登记备案及选址、宁夏中达传置业有限公司注册成立的相关手续等，真正兑现落实“企业最多跑一次”的承诺。', '１．对自治区出台的优化营商环境２４条政策， 没有及时学习贯彻，没有提出具体的落实措施。一是', '２．在２０１８年“高质高效招商引资年”活动中，出台有关政策滞后。一是按照市委办 政府办《关于印发〈固原市优化营商环境总体方案〉的通知》（固党办〔２０１９〕８５号）中附件《优化招商引资２０１９年行动计划》，我局积极配合牵头部门开展各项工作，强化项目帮办代办服务，认真完成各项工作任务；二是按照市人民政府专题会议要求，起草并提请市委、市政府研究印发了《固原市深入开展“高质高效招商引资年”活动三年行动方案》（固党办〔２０１９〕１１０号），对《招商引资优惠政策》作了补充完善。', '３．个别招商引资项目推进缓慢。一是加大肉牛养殖加工项目协调服务力度。协同市农业农村局积极跟进落地项目，由福建融侨集团投资的宁夏固原融侨（丰霖）肉牛生态产业园项目８月２１日正式开工，流转土地１万亩，种植青储玉米０．８万亩。二是加大医养结合健康项目跟踪洽谈力度。市区医养结合项目正在与宁夏海天集团洽谈，泾源县与中英娜（北京）科技签订文旅康养项目协议，西吉县与安徽永兴科技在谈乡村旅游项目。三是加大树脂精细化加工、旅游开发项目招商力度。已委托深圳精准招商网咨询公司论证编制树脂精细化、旅游开发等产业链招商项目，下一步将作为全市招商的重点项目推进。', '４．对习近平新时代中国特色社会主义思想和党的十九大精神学得不深入不系统，存在学干“两张皮”现象。一是严格落实党组中心组学习制度和周一全体干部例会学习制度，把政治理论学习与“两学一做”、“三会一课”、和“干部素质提升年”活动紧密结合，把深入学习贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神与学习贯彻落实习近平来宁夏视察时的重要讲话、习近平在民营企业座谈会重要讲话、自治区第十二次党代会、自治区党委十二届五次、六次全会和市委四届二次、三次、四次全会精神等有机结合，注重创新学习形式和丰富学习载体，继续抓好《推荐与阅读》内部刊物，用好“学习强国”、宁夏干部教育培训学院、法宣在线等学习平台，精心组织开展学习交流活动，进一步引导班子成员和全体党员干部始终树牢“四个意识”、坚定“四个自信”，切实做到“两个维护”，提高党组的领导力、决策力、执行力、战斗力。截至目前，共召开党组中心组学习（扩大）例会１７次，干部职工理论学习１６次，开展讲党课活动４次（其中：道德模范讲党课１次），开展交流讨论３次，编印《推荐与阅读》１２期，编印《固原市经济技术合作局干部理论学习材料汇编》和印发《固原市党员干部应知应会学习手册》各１５本，收到了良好的效果。二是强化理论运用。利用党组中心组理例会等深入学习习近平总书记在民营企业座谈会上的重要讲话精神、全区商务工作会议精神等，积极开展“走出去 请进来”精准招商活动。７月份以来我局组织人员先后赴北京、福建、广东、深圳等地外出招商４次，拜访了北京汉能薄膜发电集团、福建跨越轻工、福建科晖集团、深圳市易讯物联科技等企业２４家，初步达成富民服装产业、永春添福雨具、闽宁投资固原地区特色农副产品消费扶贫等意向项目１０个；邀请厦门翔通动漫、厦门智联信通物联网科技、宁夏海天集团、宁夏申派服饰等企业来我市考察。８月１５日至２１日西交会期间邀请福建、浙江、甘肃、陕西等地宁夏商会组团来固考察，举办了经贸合作恳谈会暨项目签约仪式，召开了特色农业、生态友好型工业、全域旅游、现代服务业专场经贸对接会，组织开展了系列考察交流活动，达成旅游产业、消费扶贫、农产品加工、再生资源利用等方面达成合作意向１２个。', '对习近平新时代中国特色社会主义思想和党的十九大精神学得不深入不系统，存在学干“两张皮”现象。', '５．对于业务相关的知识学习研讨较少。一是加强平时业务学习。利用周一例会干部理论学习和党组理论中心组学习，有针对性地安排学习招商专业方面知识的学习，使党员干部对全市产业布局及市情概况深入了解，熟悉理解区市出台的招商引资政策，取得了很好的效果。二是举办专题培训班进行专题辅导。邀请深港澳联合会和深圳精准招商网对我局干部就论证规划项目、开展精准招商等方面进行了辅导，目前正在积极对接邀请专家举办全市招商系统干部专题培训班。三是积极参加自治区组织的专题学习和“节会”招商活动，边实践，边学习，边提高。６月２０日至２１日选派全市招商系统２０名干部参加了自治区商务厅组织的全区市县招商引资工作经验交流培训班，６月份至今先后组织参加了“中非博览会”、“中阿博览会”、“宁商大会”、“西交会”等重点节会，开展以会招商活动，积极学习借鉴招商引资工作经验，取得了很好的效果。', '６．党员活动阵地的内容和板块没有及时更新。一是按照“四有四上墙”（有标识、有必需的桌凳和电教设施、有资料书柜、有书报文件资料，党旗上墙、入党誓词上墙、党员权利义务上墙、党建工作制度上墙）等要求，已经重新设计党建活动墙，并布置完成，进一步完善和规范党支部阵地建设。二是根据市委办《关于深化“双评双定”活动 推动机关作风建设实施方案》精神，制定印发了《市经济技术合作局党支部深化“双评双定”活动 强化正向激励反向监督的实施方案》，坚持问题导向、积分累计原则和底线原则，主动上墙公示，以亮“黄星”的方式倒逼党建基本制度落实到每一位党员，推进党支部建设标准化、规范化。三是结合“不忘初心、牢记使命”主题教育和“两学一做”学习教育制度化常态化，我局已设计制作了一块内容为“深入开展‘不忘初心、牢记使命’主题教育”的宣传专版，待“不忘初心、牢记使命”主题教育正式开展后，将习近平新时代中国特色社会主义思想和党的十九大等内容制作专版进行宣传，进一步增强党支部凝聚力和战斗力。', '７．２０１６－－２０１８年度党组会议和行政会议记录混记。局党组研究制定了《固原市经济技术合作局印章管理和公文审核签发等制度》（固经合党组〔２０１９〕１１号），进一步规范了会议记录的适用范围、记录方式和记录要求，我局严格按照本制度，指定专人进行党组会议、党组中心组学习会议和行政会议记录，确保会后做到格式规范、内容清楚、记录完整。', '８．２０１７、２０１８年度党员组织生活会上，个别党员两个年度剖析材料中存在的问题和问题根源内容基本雷同。一是严格落实《关于新形势下党内政治生活的若干准则》和遵守组织生活会制度，认真围绕组织生活会主题，联系存在的问题，把自己、职责、思想和工作摆进去，进行党性分析，明确整改方向，进一步统一党员思想，增强党性和组织观念，加强党支部的自身建设。二是由党支部书记对当事人开展了谈心谈话。', '８．２０１７、２０１８年度党员组织生活会上，个别党员两个年度剖析材料中存在的问题和问题根源内容基本雷同。', '９．党组印制文件不严肃。一是组织干部职工尤其是文档人员和文件起草人员认真学习《党政机关公文处理工作条例》及公文格式标准，熟悉掌握党政机关公文种类、格式、拟制、办理、管理和行文要求，提高公文处理能力；二是严格执行单位新修订的公文审核签发制度，安排专人对我局的发文进行审核排号登记，待文件印制完成后指定专人进行校对，规范发文管理，坚决杜绝用行政文头印发党组文件等发文不规范行为。', '整改情况：一是修订完善了《市经济技术合作局财务管理制度》，对文件报销后附材料进行明确规定；二是严格执行财务管理制度，严格财务审批手续，对当事人开展了谈心谈话；三是８月２９日召开党组（扩大）会议，专题研究局党组落实市委第二巡察组巡察反馈意见中相关人员的处理意见。', '巡察问题整改工作虽然取得阶段性的成效，但很多措施还需要在今后的实际工作中进一步深化推进和长期坚持。下阶段，市投资促进服务中心将继续按照市委的要求，采取更加有力的措施，健全完善工作机制，加大制度执行力度，巩固巡察整改成果。一是提高政治站位，强化党的领导。牢固树立“四个意识”，做到“两个维护”，全力以赴抓好全面从严治党工作，推动党支部的建设进一步巩固提高，切实推进作风建设，认真落实党风廉政建设责任制主体责任，严格执行中央八项规定精神，积极营造风清气正良好氛围。严肃党内政治生活，强化党的建设。严格落实新形势下党内政治生活若干准则，扎实推进“不忘初心、牢记使命”主题教育和“两学一做”学习教育常态化制度化。认真落实《中国共产党支部工作条例（试行）》，抓实“三强九严”工程，抓在日常严在经常。规范组织生活，提升服务能力，着力增强党支部的凝聚力和战斗力。压实主体责任，抓好后续整改。主动扛起管党治党党组主体责任，切实管好班子，带好队伍，严格落实全面从严治党“三个清单”，抓实“一岗双责”，对巡察整改工作紧抓不放，做到整改不到位不罢手，整改不彻底不收兵。强化整改工作的督促检查，严格落实整改工作台账，做到整改一个销号一个，扎实推进整改工作任务按期有效完成。建立长效机制，强化成果运用。以本次巡察反馈问题整改落实为契机，不断推进建立和完善相关规章制度，加大制度的落实执行力度，进一步健全完善长效机制。把巡察整改工作与做好当前重点工作紧密结合起来，通过巡察整改，持续推进干部作风好转，激励经合干部拼搏赶超，积极营造干事创业的良好政治生态。', '欢迎广大干部群众对市经济技术合作局党组巡察整改落实情况进行监督。如有意见建议，请及时向我们反馈。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>292</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市人社局积极推动山川联动不断提升公共就业服务能力</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/zfgzbg/zfgzbg_guanche/202401/t20240125_4428949.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['3月22日，市人社局派出考察组实地走访银川市技工学校、石嘴山市公共实训基地建设工地、重点用工企业、人社经办大厅', '日，市人社局派出考察组实地走访银川市技工学校、石嘴山市公共实训基地建设工地、重点用工企业、人社经办大厅', '考察学习公共实训基地建设、公共就业服务标准化及公共就业服务业务经办等方面经验和做法。同时，看望慰问了今年我市集中输送到石嘴山市东方希望新能源、宁夏恒达纺织科技股份有限公司的35名务工人员。', '考察学习公共实训基地建设、公共就业服务标准化及公共就业服务业务经办等方面经验和做法。同时，看望慰问了今年我市集中输送到石嘴山市东方希望新能源、宁夏恒达纺织科技股份有限公司的', '月建成投入使用，依托银川市技工学校运营，开设智能制造、电子信息、现代服务3个系9个专业，开展中级工、高级工、预备技师培养、技能等级认定和技能竞赛，', '四级公共就业服务体系，推动83个服务窗口在业务受理、事项经办、结果反馈等全过程规范化，将就业服务延伸到网格和居民家中', '个服务窗口在业务受理、事项经办、结果反馈等全过程规范化，将就业服务延伸到网格和居民家中', '纷纷表示，将认真梳理兄弟市县与我市共同发展的契合点，将政策和资源等优势用足用活，提高基层就业服务能力和水平', '重点加强市级公共实训基地项目前期规划论证，做好市场前期调查和需求分析，为项目申报提供参考。', '借助宁夏人社一体化系统，完善全市就业政策经办和求职招聘系统，实现市、县（区）、乡、村四级公共就业服务信息网络互联互通，打通服务群众']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>292</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-03-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201903/t20190305_1298227.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['传达学习习近平总书记在中央政治局集体学习时重要讲话精神和中央、全国有关会议精神，通报自治区党政代表团考察学习情况，传达学习自治区有关会议精神，研究贯彻意见', '本报讯（记者崔一波）3月4日，市委常委会召开会议，传达学习习近平总书记在中央政治局第十二次集体学习时的重要讲话精神和全国、全区宣传部长会议精神，研究贯彻意见，通报自治区党政代表团赴浙江、上海、江苏考察学习情况。自治区党委常委、市委书记张柱主持会议并讲话。', '会议指出，习近平总书记在中央政治局第十二次集体学习时的重要讲话为我们深入推进媒体融合发展提供了遵循，全国宣传部长会议对做好今年宣传思想工作作了全面部署，各县区、各部门要认真学习贯彻，自觉承担起使命任务。要高举旗帜，抓好学习宣传贯彻习近平新时代中国特色社会主义思想首要任务，在求实求深、求新求效上下工夫；要聚焦主线，在新中国成立70周年之际，扎实做好理论武装、舆论引导等重点工作；要守正创新，结合固原实际用心、用力做好宣传思想文化工作；要加快推进媒体融合发展，做好市县两级媒体融合工作；要坚持党管宣传，把党的领导落实到宣传思想工作全过程。', '会议强调，自治区党政代表团赴浙江、上海、江苏考察学习成果丰硕，从思想观念、工作方法等方面深受触动。要学习发达地区行政审批改革、优化窗口服务、信息化建设、城市精细管理等方面的先进经验，切实提升我市服务管理水平。要加大招商引资工作力度，做好形象宣传，做到心里有底，有的放矢，主动出击；要健全完善招商引资工作考核机制，创新工作方法和机制，充分发挥援宁干部、工商联、六盘山干部学院等力量，推动招商引资工作取得突破。', '会议还传达学习中央、自治区党委政法工作会议精神，传达学习全国、全区统战部长会议，全区组织部长会议精神等，传达学习自治区党委巡视工作领导小组会议精神，对做好我市政法、统战、组织工作和迎接巡视工作提出要求。会议还通报自治区党委对我市检查考核情况反馈意见；传达自治区纪委、党委组织部相关通知精神；研究我市创建国家全域旅游示范市实施方案和“四个一”林草产业发展指导意见。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>292</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>福建省党政代表团来我市考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-10-18</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201910/t20191018_1805586.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['10月16日至17日，福建省委副书记、福州市委书记王宁来我市考察闽宁对口扶贫协作工作。福建省副省长郑建闽、省政协副主席王光远，福建省发改、农业农村、商务、人社等部门和福州市有关负责同志随团考察。自治区党委常委、市委书记张柱，自治区副主席王和山陪同。', '六盘山高、闽江水长。闽宁对口扶贫协作开展以来，福建省从资金、技术、人力等各方面深入开展产业扶贫、教育扶贫等工作，取得良好成绩。原州区中河中学校园内，福建飞毛腿集团借用一栋教学楼，投建开办福建省飞毛腿高级技工学校原州分校，为原州区及周边贫困学生提供三年“衣食住行”全免费的学习机会，入校即签订就业协议，第一年在原州教学点学习，第二年在福州总校重点学习技能实操，第三年公司总部顶岗实习，并安排在公司就业。去年开办以来，招生200多人。书声琅琅，学生学习劲头高涨，听取介绍后，王宁对助学就业扶贫做法充分肯定。', '王宁指出，教育扶贫是从根源上帮助贫困群众脱贫致富的重要手段，解决了人的问题，提升贫困人口内生动力。福建帮扶企业要更好地承担社会责任，加强创新，联合更多企业，再扩大助学规模，培养更多技术人才，同时通过搭建扶贫车间提供产业支撑，鼓励返乡创业就业，服务地方经济发展。', '原州区头营镇福马村是福州市马尾区援建的“十三五”易地扶贫搬迁就近安置点，安置移民148户。整齐划一的村居院落、配套完善的基础设施，环境优美，圈舍整洁，以校服加工为主的扶贫车间提供家门口就业岗位40多个，村民生活幸福，对福建的倾情帮扶由衷感恩。王宁为村庄面貌和群众生活发生的可喜变化感到欣慰，对扶贫车间把就业岗位送到家门口、肉牛在园区集中养殖保持村庄环境卫生的做法给予肯定，并走访看望困难群众，祝愿他们生活越来越好。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>292</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>固原市生态产品价值实现机制试点研究工作正式启动</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202305/t20230526_4123143.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['建立健全生态产品价值实现机制是贯彻落实习近平生态文明思想的重要举措，是践行绿水青山就是金山银山理念的关键路径，是从源头上推动生态环境领域国家治理体系和治理能力现代化的必然要求，对推动经济社会发展全面绿色转型具有重要意义。按照市委、市政府相关领导指示批示和自治区发展改革委工作部署要求，为积极做好我市生态产品价值实现机制试点相关工作，市发展改革委特聘请宁夏“双碳”经济信息咨询有限公司协助开展前期试点方案编制工作。', '3月中旬，报请市政府同意，市发展改革委、财政局、自然资源局、生态环境局组成调研组，赴浙江省丽水市、云南省昆明市、江西省南昌市开展考察学习。考察组就各地区开展生态产品价值实现机制有关工作的总体进展情况作了了解，重点围绕生态产品内涵、生态产品价值、生态产品价值核算、生态产品价值核算实现机制以及各地成功试点经验等方面进行学习，并就下一步工作开展征询了各地的意见建议。', '生态产品价值实现机制考察学习，标志着我市开展生态价值实现机制工作正式启动。下一步，固原市发改委将会同各有关部门，对试点方案进行进一步补充完善。积极寻找具有实力的', '合作，研究制定固原市生态产品总值核算技术规范，建立生态产品调查监测机制、生态产品价值评价机制和生态产品价值核算体系，制定生态产品价值实现机制政策，探索建立多元化的生态产品价值实现路径，形成生态保护、经济发展和居民增收致富的良性互动机制。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>292</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市政府党组召开中心组学习会</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2017-11-29</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201711/t20171129_606795.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['11月28日，市长马汉成主持召开市政府党组中心组学习会，集体自学《习近平谈治国理政》第二卷、党的十九大报告、党章，传达学习《李克强总理在推动中国制造强国建设，持续推进经济结构转型升级座谈会上的讲话》《李克强总理在科技部考察座谈会时的讲话》。', '会议指出，要通过深入学习十九大精神和党章，更加深入了解习近平新时代中国特色社会主义思想，坚决维护以习近平同志为核心的党中央权威和集中统一领导，始终在思想上、政治上、行动上同党中央保持高度一致。', '会议要求，要认识到《李克强总理在推动中国制造强国建设，持续推进经济结构转型升级座谈会上的讲话》《李克强总理在科技部考察座谈会时的讲话》，对助推我市产业升级的重要意义，要结合固原实际，为我市产业发展提出针对性举措，用项目支撑发展，用人才引领发展。要聚焦十九大找出我市发展的新目标、新任务，增强学习的实干性，在学懂弄通做实上下功夫。要结合分管工作把十九大精神入心入脑，切实用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动各项工作有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>292</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>关于印发固原市地震局公务员职业道德建设工作方案的通知</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018-08-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201809/t20180910_1036302.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为进一步规范我局公务员职业行为，根据市委组织部、市人力资源和社会保障局《关于印发&lt;公务员职业道德建设工程实施方案&gt;的通知》（固人社发〔2018〕191号）及相关规定，结合我局实际，制定本工作方案。', '公务职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体体现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论和“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德建设贯穿公务员队伍教育管理全过程，通过持续努力，使我局公务员队伍理想信念更加坚定，精神状态更加饱满，履职行为更加规范，工作作风更加务实，进一步树立地震工作者的良好形象，不断提高群众满意度，真正成为社会主义道德的示范者、诚信风尚的引领者、公平正义的维护者。 二、主要内容 公务员职业道德建设要突出政治性、示范性、约束性、可操作性，以“坚定信念、忠于国家、服务人民、恪尽职守、依法办事、公正廉洁”为主要内容。 “坚定信念”要求公务员坚定对马克思主义的信仰，坚定对社会主义和共产主义的信念，不断增强道路自信、理论自信、制度自信、文化自信；坚持中国共产党的领导，坚持党的基本理论、基本路线、基本纲领、基本经验、基本要求不动摇；把牢政治方向，坚定政治立场，严守政治纪律和政治规矩，增强党性修养，做到对党和人民绝对忠诚。 “忠于国家”要求公务员弘扬爱国主义精神，坚决维护国家安全、荣誉和利益，维护党和政府形象、权威，维护国家统一和民族团结；保守国家秘密和工作秘密，同一切危害国家利益的言行作斗争。 “服务人民”要求公务员坚持以人为本、执政为民，全心全意为人民服务，永做人民公仆；坚持党的群众路线，密切联系群众，以人民忧乐为忧乐，以人民甘苦为甘苦；坚持人民利益至上，把实现好、维护好、发展好最广大人民根本利益作为工作的出发点和落脚点，切实维护群众切身利益。 “恪尽职守”要求公务员服务大局、奋发有为、甘于奉献，为党和人民的事业不懈奋斗；坚持原则、敢于担当、认真负责，面对矛盾敢于迎难而上，面对危机敢于挺身而出，面对失误敢于承担责任，面对歪风邪气敢于坚决斗争；精通业务知识，勤勉敬业、求真务实，兢兢业业做好本职工作。 “依法办事”要求公务员牢固树立社会主义法治理念，努力提高法治素养，模范遵守宪法和法律；严格依法履职，做到权由法定、权依法使，法定职责必须为、法无授权不可为；坚持依法决策，严格按照法定的权限、程序和方式执行公务。 “公正廉洁”要求公务员坚持秉公用权、公私分明，办事出于公心，努力维护和促进社会公平正义；严于律己、廉洁从政，坚守道德法纪防线；为人正派、诚实守信，尚俭戒奢、勤俭节约。', '（一）建立公务员职业准入道德标准。对拟新录用、选调人员在考察中发现有违反政治纪律和政治规矩、违法乱纪、不遵守社会公德行为的，或者存在弄虚作假等不诚信记录的，不得调入本单位。', '（二）建立公务员诚信档案。建立统一的公务员诚信档案，把公务员档案填写登记情况、个人事项报告查核情况、廉政记录情况、遵守规定和承诺践诺情况等，列入诚信记录范围，将诚信记录情况作为干部考核、使用、奖惩的重要依据。', '（三）建立公务员职业道德行为规范。通过座谈交流等形式，广泛开展公务员职业道德大讨论活动，结合实际制定我局公务员守则，从严规范公务员履职行为，发挥行为规范对公务员的约束作用。', '（四）强化教育培训。组织干部职工深入学习党的十九大精神，深入学习习近平新时代中国特色社会主义思想，坚持用马克思主义中国化最新成果武装头脑，深入开展公务员理想信念教育、宗旨教育、法制教育、党规党纪和廉政教育，引导干部职工树立正确的世界观，人生观、价值观和权力观、地位观、利益观，增强政治意识，大局意识、核心意识，看齐意识。把中国特色社会主义核心价值体系作为根本价值取向，牢固树立中国特色社会主义共同理想，推动公务员职业道德建设。将职业道德教育纳入年度干部政治理论学习计划，每人每年接受职业道德培训或者参与职业道德主题实践活动时间总计不少于8学时。', '（五）加强公务员忠诚建设。开展新录用、新任职公务员忠于宪法宣誓活动，激励和教育公务员忠于宪法、忠于祖国、忠于人民。结合党支部主题活动，定期开展重温入党誓词活动，进一步增强党员公务员忠于党、忠于以习近平同志为核心的党中央的意识。', '（六）开展公务员职业道德创建活动。设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。深入推进争做人民满意公务员活动，积极开展公务员“职业道德标兵”“为民服务示范岗”创建活动。大力弘扬“奉献、友爱、互助、进步”精神，积极鼓励公务员开展“为民志愿服务”进企业、进社区、进农村活动。', '（七）推进公务员职业道德文化养成。积极组织全体干部职工参加市直机关有关部门组织的主题征文、演讲比赛、大讨论、诵读文化经典等活动，形成良好文化氛围。', '（八）加强公务员职业道德考核评价。结合公务员平时考核、年度考核、任职考察等工作，注重了解公务员职业道德表现情况。个人述职要述德，民主测评要测德，考察谈话要问德，综合分析研判要分析评价公务员的职业道德素养和表现情况。将公务员遵守职业道德情况列入民主生活会、组织生活会等重要内容。', '（九）健全公务员职业道德监督机制。结合党务、政务公开工作，畅通群众反映公务员职业道德方面意见的渠道。要高度重视网情、舆情对公务员职业道德方面问题的反映，主动回应群众关切的问题。', '（十）加大奖惩力度。强化公务员职业道德考核结果的运用，将职业道德考核情况作为公务员选拔任用、培养教育、管理监督的重要依据。对恪守职业道德、履职尽责、表现优秀的公务员，给予通报表扬。对存在违反职业道德、工作作风懈怠、工作态度恶劣、有严重失信行为等情况的公务员，按照有关规定给予批评教育，组织处理或者党纪、政纪处分。', '（一）加强组织领导。成立我局公务员职业道德建设工作领导小组，由支部书记、局长吴秉银同志任组长，副局长乔金龙同志任副组长，各科室负责人、支部委员为成员。领导小组下设办公室，办公室设在局办公室，负责我局公务员职业道德建设工作的组织实施和具体工作落实。', '（二）确保取得实效。要严格按照方案明确的任务，落实责任。积极与公务员主管部门定期沟通情况、协调推进该项工作。领导干部要率先垂范，带头践行公务员职业道德，把坚定理想信念、遵守政治纪律和政治规矩、廉洁自律、敢担当、作风正作为重点；要把树立宗旨意识、群众观念，办事公道作为重点，全面推进公务员队伍的职业道德建设。', '（三）营造良好氛围。提炼先进典型的核心价值，加大宣传力度，扩大正面影响，明辨是非，弘扬正气，营造良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>292</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组召开扩大学习会</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202207/t20220726_3634019.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['7月25日，市人大常委会党组副书记、主任李志达主持召开市人大常委会党组理论学习中心组扩大学习会，传达学习习近平总书记在新疆考察、在十九届中共中央政治局第四十次集体学习时的重要讲话精神，传达学习市委五届五次全会精神，并围绕学习贯彻自治区第十三次党代会和市委五届五次全会精神进行研讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>292</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>苏州市工商联苏州市总商会来固考察交流</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/201904/t20190401_1371415.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['日，苏州市委统战部副部长、市工商联党组书记谢正才带领苏州市工商联、苏州市总商会一行15人来固原考察', '日，苏州市委统战部副部长、市工商联党组书记谢正才带领苏州市工商联、苏州市总商会一行', '市工商联党组成员、副主席冯宝荣出席交流座谈会，开发区管委会领导班子成员、相关局室负责人及开发区投资发展公司参', '座谈会上，固原市工商联副主席冯宝荣致欢迎词。开发区管委会副主任梁振华副主任从固原人文优势、自然优势、交通优势和资源优势', '苏州市考察团成员分别交流发言。苏州市工商联党组书记谢正才等考察团表示，固原的发展与沿海发达地区存在差距，但差距就是机会，即将开通的动车是发展的核心机遇。要解放思想，减化办事程序，分析固原在发展中存在的人才、资金、交通等方面的短板，全力补齐短板。', '要发挥在外地工作的30多万固原人才优势，大力发展电商与旅游业，宣传固原红色文化、六盘山优势，打响六盘山干部学院品牌，吸引更多人来固原考察、学习、疗养，让全国更多的人了解固原。', '商机产生于交流，固原应该多组织企业外出考察交流；多研究、了解企业实际需求，掌握、细化企业投资目标、意向和意图，企业家考察交流和政府考察交流重心效果不一样，企业家更善于发现商机，以商招商效果好。', '要整理清楚明晰固原投资成本比较优势，吸引更多的企业家投资固原。考察人员表示，将带着固原市优势回苏州向企业进行推介，希望苏州与固原两地企业在服装纺织、特色旅游、农副产品加工、中药材加工等方面展开务实深度合作。', '乔晓安副秘书长建议，苏州市工商联发挥桥梁和纽带作用，多组织工商业界的精英来固原考察，参与到我市盐化工产业、纺织产业、智能装备制造、特色农产品开发，中药材加工、现代物流、文化旅游和康养产业等方面的发展中来；双方工商联在方便合适的时候，制定一个双方两地合作框架协议，便于双方加强长期合作，提高合作交流效果。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>292</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市委常委会扩大会议专题传达学习总书记考察宁夏重要讲话精神</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202406/t20240626_4575976.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['6月24日，市委常委会召开扩大会议，专题传达学习习近平总书记考察宁夏重要讲话精神，研究部署学习宣传贯彻工作。市委书记滑志敏主持会议并讲话。', '会议指出，总书记与宁夏的缘和情，源于对固原的深情牵挂。时隔4年，总书记再次亲临宁夏考察指导并发表重要讲话，为宁夏发展把脉定向、指路领航，充分体现了对宁夏大地念兹在兹的倾情牵挂、对宁夏人民情深似海的关心关怀、对宁夏发展一以贯之的高度重视。全市上下要从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，深刻认识总书记考察宁夏的重大意义，坚持把学习宣传贯彻总书记重要讲话精神作为当前和今后一个时期的头等大事和首要政治任务，坚定不移沿着总书记指引方向感恩奋进、团结奋斗，真抓实干、埋头苦干，为奋力谱写中国式现代化宁夏篇章作出固原贡献。', '会议指出，要坚持总书记怎么说、我们就怎么做，紧紧围绕铸牢中华民族共同体意识主线，坚定担当“建设先行区、固原作贡献”使命任务，全力推动总书记重要讲话精神在固原大地落地生根、开花结果。要深刻领会把握总书记对宁夏工作的鼓励鞭策，推动固原各项事业再上新台阶。要深刻领会把握总书记对新征程宁夏发展明确的目标任务，以跳出固原看固原、跳出固原发展固原的宏阔视野，主动入位全国全区发展大局。要深刻领会把握总书记大力发展特色优势产业的重要指示，坚定走好“一三二”产业发展新路子，因地制宜发展新质生产力。要深刻领会把握总书记积极谋划和推进新一轮全面深化改革的重要指示，探索推进固原特色改革，借力打造宁夏向南开放桥头堡，持续打好黄河“几字弯”固原片区攻坚战。要深刻领会把握总书记扎实推进各族人民共同富裕的重要指示，巩固拓展脱贫攻坚成果，全面推进乡村振兴，治理高价彩礼，抓好安全生产。要深刻领会把握总书记推动铸牢中华民族共同体意识走深走实的重要指示，加快建设铸牢中华民族共同体意识示范市，努力在宁夏铸牢示范区建设中走在前、出经验、作贡献。要深刻领会把握总书记关于党纪学习教育的重要指示，推动党纪学习教育取得实效，持续深化整治形式主义为基层减负，激励党员干部想干事、能干事、能干成事、不出事。', '会议强调，要精心组织、周密部署，坚持在学习领会上下真功、宣传宣讲上见真章、一体贯彻上求真效，迅速掀起学习宣传贯彻热潮，推动总书记重要讲话精神入脑入心、见行见效。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>292</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市政协召开四届次主席会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021-06-24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202106/t20210624_2899054.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['6月23日，市政协主席马玉芳主持召开市政协四届57次主席会议，传达学习市县换届政协委员协商提名工作座谈会精神，审议市政协四届二十五次常委会会议方案及《关于推进全面依法治市的系列调研报告》《关于赴江苏福建考察学习现代纺织服装产业发展和科技研发投入情况的报告》《关于赴江苏浙江考察学习提案办理协商和文史资料编纂工作情况的报告》。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>292</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>深学细悟强实效学做结合抓落实固原公安专题传达学习习近平总书记考察宁夏重要讲话精神</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/pagy/pagy_jwdt/202407/t20240704_4586348.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['深学细悟强实效 学做结合抓落实│固原公安专题传达学习习近平总书记考察宁夏重要讲话精神_固原市人民政府', '深学细悟强实效 学做结合抓落实│固原公安专题传达学习习近平总书记考察宁夏重要讲话精神', '6月25日，固原市公安局召开2024年第6次党委理论学习中心组（扩大）学习会议，专题传达学习习近平总书记考察宁夏重要讲话精神，研究贯彻落实意见。', '习近平总书记时隔4年再次亲临宁夏考察指导，看望各族干部群众，饱含着对宁夏人民的如山厚爱、似海深情，在宁夏发展历程中具有极其重要的历史性、标志性、里程碑意义。习近平总书记重要讲话从中国式现代化全局的高度，为宁夏发展把脉定向，是做好一切工作的指南针、破解一切难题的金钥匙，是宁夏当前和今后发展的总遵循、总纲领、总指针，为在新征程上谱写中国式现代化宁夏篇章提供了根本行动指引和强大思想武器。全市各级公安机关将从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，把学习宣传贯彻习近平总书记考察宁夏重要讲话精神作为当前和今后一个时期的首要政治任务，认真学习领会，把握精神实质，着力增强贯彻落实的政治自觉、思想自觉和行动自觉。', '要迅速掀起学习宣传热潮，坚决以习近平总书记重要讲话精神统一思想，扎实推进各项公安重点工作，为经济社会发展提供有力法治保障。要通过党委专题学习、理论学习中心组集体学习、党支部“三会一课”、主题党日等多种形式，认真学习原文，一字一句研读，吃透精神要义、领悟实践要求，持续深学细悟，做到入脑入心。要把学习习近平总书记重要讲话精神作为各类培训的首要课题，精心组织分层次宣讲和理论辅导，确保重要讲话精神传达到每一名党员民警、辅警。要把习近平总书记考察宁夏重要讲话精神与2016年、2020年视察宁夏时的重要讲话精神和近年来对宁夏工作、对公安工作的系列重要指示批示精神结合起来，深刻理解把握，以钉钉子精神推动习近平总书记重要讲话精神走深走实。要紧紧围绕习近平总书记明确的构建现代化产业体系、深化重点领域改革、加强民生事业建设、全面贯彻新时代党的民族工作大政方针、抓紧抓实党纪学习教育等方面的要求，进一步在巩固脱贫攻坚成果、推进各族人民群众共同富裕中找准职责定位，积极主动作为、勇于担当尽责，切实履行维护政治安全和社会稳定、打击违法犯罪、治安巡逻防控、公共安全管理、服务人民群众等职能，不断提高驾驭社会治安局势的能力和水平，为奋力谱写建设黄河流域生态保护和高质量发展先行区、全面建设社会主义现代化固原新篇章贡献公安力量。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>292</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市人民政府机关事务管理局科级领导干部竞争上岗实施方案的通知</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2012-05-18</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_383932.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市人民政府机关事务管理局科级领导干部竞争上岗实施方案》的通知_固原市人民政府', '固原市人民政府办公室关于印发《固原市人民政府机关事务管理局科级领导干部竞争上岗实施方案》的通知', '《固原市人民政府机关事务管理局科级领导干部竞争上岗实施方案》已经固原市人民政府机关事务管理局科级领导干部竞争上岗领导小组同意，现印发给你们，请认真组织实施。', '为深化干部人事制度改革，促使优秀人才脱颖而出，根据《党政机关竞争上岗工作暂行规定》，结合我单位实际，制定本实施方案。', '坚持党管干部原则；任人唯贤、德才兼备原则；群众公认、注重实绩原则；民主、公开、竞争、择优原则；民主集中制原则；依法办事原则；考试与考察相结合原则；个人意愿与组织安排相结合原则。', '”重要思想，努力用马克思主义的立场、观点、方法分析和解决实际问题，坚持讲学习、讲政治、讲正气，经得起各种风浪的考验。', '2、具有共产主义远大理想和中国特色社会主义坚定信念，坚决执行党的基本路线和各项方针、政策，立志改革开放，献身现代化事业，在社会主义建设中艰苦创业，做出实绩。', '3、坚持解放思想，实事求是，与时俱进，开拓创新，认真调查研究，能够把党的方针、政策同本地区、本部门的实际相结合，卓有成效地开展工作，讲实话，办实事，求实效，反对形式主义。', '4、有强烈的革命事业心和政治责任感，有实践经验，有胜任领导工作的组织能力、文化水平和专业知识。', '5、正确行使人民赋予的权力，依法办事，清正廉洁，勤政为民，以身作则，艰苦朴素，密切联系群众，坚持党的群众路线，自觉接受党和群众的批评和监督，做到自重、自省、自警、自励，反对官僚主义，反对任何滥用职权、谋求私利的不正之风。', '6、坚持和维护党的民主集中制，有民主作风，有全局观念，善于集中正确意见，善于团结同志，包括团结同自己有不同意见的同志一道工作。', '（一）动员部署（5月18日）。制定竞争上岗实施方案，经市委组织部审核同意后，召开全体干部职工会议进行动员部署，公布竞争上岗实施方案。', '（二）报名（5月18日）。拟参加竞争上岗人员，在规定期限内到指定地点报名，领取、填写《报名登记表》，并交', '（三）资格审查（5月18日）。单位竞争上岗工作领导小组按照有关规定及本次竞争上岗要求，对报名人员进行资格审查，审查结果予以公布。经资格审查合格参加笔试人数与竞争职位人数的比例不得低于', '（四）笔试（5月19日）。由单位竞争上岗工作领导小组组织实施。笔试采取闭卷方式进行，主要测试竞争者履行竞争职位职责所必备的基本知识以及调研综合、办文办事、文字表达等能力。笔试题目由竞争上岗领导小组组织命制，满分为', '（五）面试（5月20日）。由面试考官组组织实施，采取现场演讲的方式进行，主要测试竞争者履行竞争职位职责所必备的基本素质和能力，当场打分，当场公布成绩。面试顺序由本人抽签决定，每人答题时间为', '人，由主管部门、本单位领导、组织（人事）部门和相关单位领导及专家组成，其中本单位（系统）考官不超过', '（六）民主测评（5月20日）。对面试对象在本单位参公全体人员和中层以上干部中采取发放民主测评表的方式进行民主测评。', '民主测评结束后，按照拟选职位1:2的比例，从高分到低分确定考察对象进行组织考察。对于民主测评分数过低的人员，不列为考察对象。', '（七）组织考察（5月20日）。单位竞争上岗工作领导小组派出考察组对考察对象的德、能、勤、绩、廉等情况作全面考察，并进行考察评分。', '的比例，确定每个考察对象的最后得分，取各个职位得分最高者为拟任用人选，经领导小组研究，并经市委组织部同意后向本单位公示，公示期为', '7天。公示期间，没有发现问题的，报市委组织部研究决定；对群众反映有问题并经调查属实、不宜担任拟任用职务的，取消任用资格，同时在进入考察范围的人选中按照最后得分高低次序重新确定公示对象。', '（九）试用和任命。公示结束后，单位党委（党组）向市委组织部上报任职请示材料（包括任职请示、干部任免审批表、干部考察材料一式', '16开纸打印上报），由市委组织部研究后正式任命。竞争上岗的科级领导干部，除非选举产生和聘任的以外，实行一年的试用期。在试用期间受党内、行政警告以上处分的，或年度考核、民主测评不称职的，取消任职资格。试用期满，考核称职的，由市委组织部正式任命；考核不称职的予以免职，不保留试任职务职级待遇。不适用任职试用期制的干部，任职一年后经市委组织部考核不胜任的，予以免职。', '为切实做好竞争上岗工作，成立单位竞争上岗工作领导小组，负责竞争上岗的组织实施。领导小组在市委组织部领导下开展工作，组成人员如下：', '为保证竞争上岗工作的客观、公正，扩大群众在干部选拔任用工作中的知情权、参与权和监督权，邀请系统纪检组组长马耀发同志对竞争上岗工作全过程进行监督。竞争上岗期间，监督及公示电话为：0954-2088853', '竞争上岗工作领导小组成员及相关工作人员必须严格遵守纪律、保守秘密，不得泄露有关情况，并认真执行干部工作回避规定。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>292</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市政协召开五届十六次常委会会议</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202407/t20240715_4594577.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['7月12日，市政协召开五届十六次常委会会议，传达学习习近平总书记考察宁夏重要讲话精神，自治区党委书记李邑飞来固调研精神，自治区党委十三届七次全会精神和市委五届十一次全会精神。', '会议指出，要提高政治站位，用习近平总书记考察宁夏重要讲话精神武装头脑、指导实践。学习好、宣传好、贯彻好习近平总书记考察宁夏重要讲话精神，是当前和今后一个时期的首要政治任务，要从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，把学习贯彻习近平总书记考察宁夏重要讲话精神同党的十八大以来习近平总书记对宁夏系列重要讲话指示批示结合起来，按照“高质量落实”的要求，学出忠诚信赖，学出思路举措，学出责任担当。要把准履职定位，用区市党委全会精神统一思想、凝聚共识。全市政协系统要始终围绕区市党委中心大局，贯彻落实市委“12375”总体部署，按照市政协“1245”总体工作思路，把铸牢中华民族共同体意识融入政协履职实践，在常学常新中领会好铸牢主线的精髓要义，在思想引领中凝聚起团结奋进的强大合力，不断构筑中华民族共有精神家园。要深化协商议政，高质量推动专题协商，高质量推进基层协商，高质量开展民主监督，助力习近平总书记考察宁夏重要讲话精神和自治区、市党委全会精神落实落地。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>292</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>固原市优秀农村实用人才培训工作总结</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201812/t20181229_1237474.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['交流讨论等形式，使培训学习人员解放了思想，转变了观念，学到了技术。现将培训学习工作总结如下:', '固原地区是一个干旱少雨的贫困地区，自然资源贫乏，工业基础薄弱，经济文化落后，农村人口占全市总人口的85%，是一个典型的农业大市。长期以来，受传统思想的束缚和技术、资金等因素制约，农业生产始终没有摆脱传统的生产模式，耕作方式依然以各家各户的单耕独作为主，缺乏先进的生产经营理念，没有集约化、合作化、大农业的发展意识，农村种植大户少，规模小，种植技术落后，经营理念守旧，农产品附加值低，整体效益不高等严重制约了农业生产的提速增效，与发达地区相比，差距越来越大。因此，组织农村优秀实用人才外出培训学习，不仅使他们在观念上有大的转变，技术上有大的提高，生产发展上有大的突破，同时也是带动农村种植户提升素质，树立信心，增强发展后劲的有益探索，是推动全区农业大发展、大繁荣的有效途径。对我市农村经济拓展经营规模，发展现代农业，提高经营效益，具有十分重要的现实意义和指导作用。', '固原地区是一个干旱少雨的贫困地区，自然资源贫乏，工业基础薄弱，经济文化落后，农村人口占全市总人口的', '，是一个典型的农业大市。长期以来，受传统思想的束缚和技术、资金等因素制约，农业生产始终没有摆脱传统的生产模式，耕作方式依然以各家各户的单耕独作为主，缺乏先进的生产经营理念，没有集约化、合作化、大农业的发展意识，农村种植大户少，规模小，种植技术落后，经营理念守旧，农产品附加值低，整体效益不高等严重制约了农业生产的提速增效，与发达地区相比，差距越来越大。因此，组织农村优秀实用人才外出培训学习，不仅使他们在观念上有大的转变，技术上有大的提高，生产发展上有大的突破，同时也是带动农村种植户提升素质，树立信心，增强发展后劲的有益探索，是推动全区农业大发展、大繁荣的有效途径。对我市农村经济拓展经营规模，发展现代农业，提高经营效益，具有十分重要的现实意义和指导作用。', '坚持“因地制宜，按需培训”的原则。为推动全市设施农业发展，我们在选择培训对象上突出重点，突出特色，注重把种植大户、致富能手和具有号召力、带动性的人送出去培训，并通过他们把学到的技术加以消化，推广到实际工作中去，起到“传、帮、带”的作用。在设施农业村，重点把日光温室、拱棚技术，设施蔬菜、设施园艺等种植户和技术骨干选送出去培训;在大学生创业园区及种、养殖示范村，重点把优秀大学生和有一定种、养殖经验的技术能手及管理人才选送出去培训，使他们在标准化栽培、覆膜种植、配方施肥、病虫害防治、舍饲养殖、饲草料加工、疫病防治等方面有进一步的提高。', '的原则。为推动全市设施农业发展，我们在选择培训对象上突出重点，突出特色，注重把种植大户、致富能手和具有号召力、带动性的人送出去培训，并通过他们把学到的技术加以消化，推广到实际工作中去，起到', '的作用。在设施农业村，重点把日光温室、拱棚技术，设施蔬菜、设施园艺等种植户和技术骨干选送出去培训;在大学生创业园区及种、养殖示范村，重点把优秀大学生和有一定种、养殖经验的技术能手及管理人才选送出去培训，使他们在标准化栽培、覆膜种植、配方施肥、病虫害防治、舍饲养殖、饲草料加工、疫病防治等方面有进一步的提高。', '针对农民文化层次低，比较容易接受形象直观、简单明了、寓教于乐的教育培训方式的特点，培训人员将', '、电商培训学习优秀，技术成熟的技术能人组织起来，在农技推广人员的带引下，把农技服务舞台搬到田间地头、温室拱棚、农民家中，“想农民之所想，办农民之所盼”，将技术要领倾情相授，充分发挥示范带头作用。', '、电商培训学习优秀，技术成熟的技术能人组织起来，在农技推广人员的带引下，把农技服务舞台搬到田间地头、温室拱棚、农民家中，', '为使培训工作效能最大化，我们把农民培训与项目实施相结合，推广新技术、新品种、新方法，既加速了农业项目的高质量、高标准的实施建设，增强了培训的直观性、生动性和实效性，也提高了农民参加培训的积极性，起到了双促双推的作用。', '固原是一个农业大市，传统的种植技术和生产方式已不适应现代农业的发展需要，这就要求我们必须走出去，学习新知识，掌握新技术，借鉴区内外的先进技术和经验，实现由传统农业向现代农业的转变。', '我们把转变思想观念，提高农民自身素质作为一项基础性工作，突出重点，常抓不懈。同吴忠等农业生产示范区相比较，我们除了缺乏信息技术之外，更重要的是缺乏人才，缺乏一支头脑灵活，有文化', '有素质，意志坚定，信心百倍的农业技术推广带头人，因此加强对农民特别是农村种植大户的培训，不仅是我们缩小差距的必由之路，更是实现农业提速增效的有效途径。', '通过专家教授讲解和现场参观，使学员明确了搞农业不是不赚钱，不是效益低，而是我们的方法措施、思路及搞农业生产的手段落后，传统做法失去了竞争力、吸引力和创造力。', '通过学习参观，使学员学到、看到了农业生产新的方法，如“一村一品”、设施农业、农业废弃物有效利用、农业产业结构调整等。认识到农业规模化、产业化、工厂化，是新型农业和现代农业的特征和发展趋势。', '、设施农业、农业废弃物有效利用、农业产业结构调整等。认识到农业规模化、产业化、工厂化，是新型农业和现代农业的特征和发展趋势。', '通过培训使我市农村优秀实用人才眼界更加开阔，思路更加宽广，种、养殖技术进一步提高，广大种、养殖户将自己学习到的知识和经验，以及思想方面受到的启迪和转变做了认真总结并运用到实际工作中去，不但发展壮大了自己，提高了收入，而且对左邻右舍和周边村队起到了示范带动作用，涌现出了一批懂技术、善管理、会经营的技术骨干和农村致富带头人，推动了种植规模的不断扩大和产业化的初步形成。', '农技推广人员是推动农业现代化的主力军，建议今后加强对乡镇农技推广人员的培训，使他们能够及时学到新技术，接受新事物，更好地指导和推动本地种植业的发展。', '养殖业、草畜产业是我市产业发展的方向，也是薄弱环节，建议区厅加大培训力度，在培训基地选择、组织考察学习等方面有新的突破。', '固原市经济发展滞后，建议在培训名额、资金上给以倾斜，以确保更多的种、养殖户和经营能手外出考察学习，带动本地经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>292</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>我市赴江苏省徐州市宿迁市和浙江省嘉兴市考察不动产登记工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201904/t20190425_1426933.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['4月8日至13日，经市人民政府同意，由市自然资源局牵头，带领市住建、行政审批、税务及不动产登记相关单位组成的考察组，赴江苏省徐州市、宿迁市和浙江省嘉兴市就推进不动产登记“一窗受理，集成服务”工作，进一步深化部门合作、减少办事环节以及线上登记服务模式等进行学习考察。', '经市人民政府同意，由市自然资源局牵头，带领市住建、行政审批、税务及不动产登记相关单位组成的考察组，赴江苏省徐州市、宿迁市和浙江省嘉兴市就推进不动产登记“一窗受理，集成服务”工作，进一步深化部门合作、减少办事环节以及线上登记服务模式等进行学习考察。', '考察组一行分别参观了两地不动产登记窗口、后台审批、便民服务点等场所，详细听取了两地不动产登记工作的情况介绍，并就“一窗受理 集成服务”、线上登记、便民举措、电子证照等内容进行深入交流。', '通过考察学习，我们坚持以服务对象为导向，在现工作基础上提高服务“质量”，并借鉴两省的先进经验和成功做法，将好经验好做法应用到我市不动产登记的各个环节，深化“放管服”改革，推动一系列便民利民服务的新举措，提高我市不动产登记水平，为今后不动产登记服务效率奠定良好的基础。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>292</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-11-18</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202211/t20221118_3847628.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['11月17日，市委常委会召开会议，传达学习习近平总书记在陕西延安和河南安阳考察时的重要讲话精神，研究贯彻意见；深入学习贯彻习近平总书记在中央政治局常委会会议上的重要讲话精神，对进一步落实疫情防控二十条优化措施再部署再推进；传达学习自治区党委书记梁言顺来固调研讲话精神，安排部署有关工作。市委书记冼国义主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>292</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市政协召开四届次主席会议</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-11-08</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201811/t20181108_1155585.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['11月7日，市政协主席马玉芳主持召开市政协四届21次主席会议，市政协各副主席、秘书长参加会议，市政协各委办负责人列席会议。', '会议审议了《关于赴浙江、江苏两省考察学习小微企业发展情况的报告》（草案）《关于赴甘肃、云南考察学习中蜂产业发展的报告》（草案）和《关于全市“七五”普法工作情况的视察报告》（草案）；安排近期重点工作。', '会议强调，各委办要进一步统一思想、提高认识，为四届三次全会顺利召开做好充分准备。要按照市委和市政协党组的要求，切实加强领导，精心准备，高质量、高水平、高效率做好全会各项筹备工作。要切实做到在大会组织工作上下功夫，把工作落实到点，把责任分解到人，确保各项筹备组织工作有力有序有效推进。在大会文稿起草工作上提前谋划、精雕细刻，尤其对大会期间报告的起草，要反复推敲，精益求精。在大会提案工作上坚持质量第一、处理好数量与质量关系，要组织引导委员聚焦我市中心工作和群众关注的热点难点问题，深入基层、深入一线，真正把选题准、调研深、情况明、分析透、建议实的提案立起来，确保提案质量数量双提高。在大会发言工作上要做到有深度、有特色、有亮点。委员发言要在突出重点、优中选优、体现特色上下功夫，鼓励委员在深入调研基础上发表言之有据的独到见解，确保发言有特色有亮点。', '会议要求，各副主席、各委办要对照市政协2018年工作要点，就今年工作完成情况进行认真总结，同时要谋划好2019年工作思路，特别是要选准2019年协商、调研、视察、考察课题，为高质量做好明年政协工作打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>292</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市委召开常委会会议暨理论学习中心组学习会</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-07-07</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202207/t20220707_3602247.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['7月6日，市委召开常委会会议暨理论学习中心组学习会，传达学习习近平总书记在湖北武汉考察、在庆祝香港回归祖国25周年大会暨香港特别行政区第六届政府就职典礼上的重要讲话精神，研究贯彻意见；围绕开展习近平总书记视察宁夏重要讲话和重要指示批示精神“大学习、大讨论、大宣传、大实践”活动，开展交流研讨；研究市委五届五次全会有关文件。市委书记冼国义主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>292</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市政府党组会议暨理论学习中心组扩大学习会召开</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202204/t20220426_3470276.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['4月24日，市政府党组会议暨理论学习中心组扩大学习会召开，传达学习习近平总书记在北京冬奥会冬残奥会总结表彰大会、中央全面深化改革委员会第二十五次会议、参加首都义务植树活动、考察海南和视察文昌航天发射场时的重要讲话精神，研究贯彻意见，安排有关工作。市政府党组书记、代市长杨青龙主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>292</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市委召开常委会扩大会议暨应对新冠肺炎疫情工作领导小组会议</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-08-02</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202108/t20210802_2949925.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['8月1日，市委召开常委会（扩大）会议暨应对新冠肺炎疫情工作领导小组会议，传达学习习近平总书记在中央政治局会议、在西藏考察时的重要讲话精神，研究贯彻意见，并传达学习自治区党委常委会会议精神，安排部署我市疫情防控重点工作。自治区党委常委、市委书记、市委应对新冠肺炎疫情工作领导小组组长马汉成主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>292</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202105/t20210519_2843873.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['5月18日，市委常委会召开会议，传达学习中共中央政治局会议精神和习近平总书记在中共中央政治局第二十九次集体学习、在广西、河南考察时的重要讲话精神；传达学习汪洋同志在统一战线深入学习贯彻《中国共产党统一战线工作条例》研讨班开班式上的讲话精神，杨晓渡同志在宁夏调研时的讲话精神，研究贯彻意见。自治区党委常委、市委书记马汉成主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>292</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>全市名教师同台竞技</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202310/t20231031_4332458.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['10月28日至29日，市教育体育局开展第八届全市教师教学能力大赛，各县区教师经过初赛、复赛层层选拔，最终320名教师同台竞技。', '本次大赛分为学前教育组、小学文科组、小学理科组、中小学英语组等12个学科组别，涵盖学前教育、职业教育和中小学各学科。此次大赛主要通过选手试讲，考察教师的教学组织实施评价沟通能力、反思发展、教学设计能力，还借助选手现场限时书写钢笔字和毛笔字，考察教师的书写功底。各组别邀请宁夏师范学院相关学科教授对教师的教学表现和能力打分、点评。', '宁夏师范学院约2600名相关专业学生借此机会，作为观众参与听课，积极学习。“我毕业后也会成为一名教师，这次比赛是全市很多一线优秀老师切磋技艺，我学到了很多宝贵经验。”宁夏师范学院大四学生马言说。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>292</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市委常委会召开会议研究当前经济工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-06-21</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202206/t20220621_3579067.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['6月20日，市委常委会召开会议，学习习近平总书记在中央政治局第三十九次集体学习、在四川省考察时的重要讲话精神和致2022年六五环境日国家主场活动的贺信精神，研究贯彻意见；听取市政协党组工作汇报，听取五届市委首轮巡察情况汇报，听取市政府党组1至5月全市经济运行情况汇报，研究部署下一步经济工作。市委书记冼国义主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>292</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202106/t20210618_2890680.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['6月17日，市委常委会召开会议，传达学习中共中央政治局会议精神，习近平总书记在中共中央政治局第三十次集体学习、中国科学院第二十次院士大会、中国工程院第十五次院士大会、中国科协第十次全国代表大会和青海考察时的重要讲话精神，研究贯彻意见；传达学习习近平总书记对湖北十堰市张湾区艳湖社区集贸市场燃气爆炸事故作出的重要指示精神，听取全市安全生产工作汇报，安排部署下一步工作。自治区党委常委、市委书记马汉成主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>292</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>于伟国与固原市考察团座谈</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-09-22</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202009/t20200922_2239395.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['9月21日，福建省委书记于伟国在福州与自治区党委常委、市委书记张柱带领的固原市考察团一行座谈，他强调要深入学习贯彻习近平总书记关于扶贫工作的重要论述和东西部扶贫协作的重要讲话重要指示批示精神，秉承习近平总书记开创的闽宁对口协作事业的科学理念和重大实践，按照闽宁互学互助对口扶贫协作第二十四次联席会议的具体部署，坚持精准方略，携手打赢脱贫攻坚战，推动稳定脱贫与乡村振兴有效衔接，确保高质量完成闽宁对口扶贫协作重大政治任务。', '于伟国指出，闽宁对口扶贫协作，是习近平总书记在福建工作时亲自开创、亲自推动的重大战略。我们要进一步提高政治站位，强化政治担当，把闽宁对口扶贫协作作为分内事、重大事，与宁夏干部群众一道落实好脱贫攻坚这个共同的任务、共同的责任，让宁夏各族群众切身感受到党中央决策部署给老百姓带来的实惠。要坚持精准方略，瞄准薄弱环节，深入、具体、务实推进对口帮扶，继续加强劳务协作、人才支援、消费扶贫，全力帮助西吉县如期脱贫，确保小康路上一个都不能少。要聚焦巩固脱贫成果与乡村振兴有效衔接，加大产业帮扶力度，因地制宜、科学论证，把技术水平高、投资规模较大的企业引导到固原，让企业稳得住、能发展、可持续，增强当地经济社会发展的内生动力。要充分挖掘“时代楷模”闽宁对口扶贫协作援宁群体的时代意义，大力宣传他们具体践行习近平总书记亲自开创的闽宁协作事业的先进事迹，不断开创闽宁对口协作新局面。', '张柱对福建省多年来给予的支持帮助表示感谢。他说，我们将深入贯彻落实习近平总书记关于扶贫工作重要论述和视察宁夏重要讲话精神，落实闽宁扶贫协作联席会议精神，加强学习交流，深化拓展合作，积极对接协调，把产业作为脱贫致富和两省区深化合作的重点，在引龙头补链条上下功夫。全面总结闽宁扶贫协作经验做法，加大时代楷模宣传力度，充分展示社会主义制度优越性。固原有信心、有决心打赢脱贫攻坚战，向党中央、两省区党委和人民交出满意答卷。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>292</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>固原市公安机关年公开补充聘用辅警资格复审和政治考察公告</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/pagy/pagy_jwdt/202406/t20240625_4574761.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['按照《固原市公安机关2024年公开补充聘用警务辅助人员公告》《宁夏公安机关警务辅助人员招聘管理办法》（宁公政治〔2021〕175号），现将2024年补充聘用辅警资格复审和政治考察有关事项公告如下：', '报名固原市公安局（含开发区公安分局）、原州区公安分局、西吉县公安局、隆德县公安局、泾源县公安局、彭阳县公安局岗位的储备考生将相关证明材料报相应单位政工部门。', '资格复审和政治考察参照招录人民警察程序标准进行。具体包括审察考生的政治思想、道德品质、能力素质、学习和工作表现、遵纪守法、廉洁自律、征信情况等方面，考生本人须到审察现场填写《固原市公安机关公开补充聘用警务辅助人员资格复审和政治考察表》。', '6．毕业证书、学位证书、教育部《学历证书电子注册备案表》或《中国高等教育学历认证报告》；', '原件现场审察后退回本人，复印件留存，考生本人在审察截止当日18时30分前仍未到场确认信息，视为放弃补充聘用资格。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>292</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>固原市招商小组赴福建省开展招商引资活动</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2022-02-21</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/zfxxgk/fdzdgknr/202208/t20220810_3665654.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['是涉台企业，也是开展东西部协作扶贫企业，是全国唯一一家大陆医疗医药行业的驻台企业，从事中药材加工及出口贸易。考察组一行与企业董事长洪永四进行了深入座谈交流，洪董事长对参与闽宁协作作出企业贡献上充满期待，结合固原医药大健康产业发展现状，希望能在固原市开展道地中药材的种植、采购、销售，并带动出口，打算签订合作协议建设种植基地和中药材加工厂，本人确定将于3月初到我市考察投资事宜。', '是涉台企业，也是开展东西部协作扶贫企业，是全国唯一一家大陆医疗医药行业的驻台企业，从事中药材加工及出口贸易。考察组一行与企业董事长洪永四进行了深入座谈交流，洪董事长对参与闽宁协作作出企业贡献上充满期待，结合固原医药大健康产业发展现状，希望能在固原市开展道地中药材的种植、采购、销售，并带动出口，打算签订合作协议建设种植基地和中药材加工厂，本人确定将于', '是福建省超大现代农业集团子公司，主要从事家禽单体溯源科技软件开发与生产、销售。经与况巧董事长交流座谈，详细了解了“数字农业”在林下经济中的具体应用和价值体现，但存在消费终端需求及价格目标定位高的困难和问题。长乐区', '是福建省超大现代农业集团子公司，主要从事家禽单体溯源科技软件开发与生产、销售。经与况巧董事长交流座谈，详细了解了', '在林下经济中的具体应用和价值体现，但存在消费终端需求及价格目标定位高的困难和问题。长乐区', '是福建长源纺织集团旗下一家集研发、生产、销售、服务各种高档纺织品用纱为主业的现代化民营纺织企业，', '是国家高新技术企业、全国制造业单项冠军示范企业和中国短纤混纺纱特色产品生产基地。招商小组一行与企业董事长郑永光、副总经理雷现平进行了座谈交流，考察组一行将固原市产业发展和招商引资政策汇编呈送给企业并向董事长作了解释说明，就双方前期达成的初步合作意向和建设棉纺轻工产业“飞地”工业园的远景作了分析，诚挚邀请郑董事长再次到固实地考察推动项目。郑永光董事长在座谈中表示，', '是国家高新技术企业、全国制造业单项冠军示范企业和中国短纤混纺纱特色产品生产基地。招商小组一行与企业董事长郑永光、副总经理雷现平进行了座谈交流，考察组一行将固原市产业发展和招商引资政策汇编呈送给企业并向董事长作了解释说明，就双方前期达成的初步合作意向和建设棉纺轻工产业', '工业园的远景作了分析，诚挚邀请郑董事长再次到固实地考察推动项目。郑永光董事长在座谈中表示，', '黏胶纱、黏胶赛络纺、黏胶紧密赛络纺、涤纱、涡流纺等产品专业生产加工的公司，拥有完整、科学的质量管理体系。经过前期多次洽谈互动考察交流，董依鹏董事长与企业高层亲自陪同考察组一行深入到生产车间，详细介绍了生产设备、生产能力及产品，针对企业的发展现状和梯度转移打算，对', '坐落于厦门市翔安区新圩镇大帽山农场境内，是集休闲农业、文旅、居住于一体的田园综合体。该项目包含“寨仔尾里、罗田溪语、后炉林间、上廍雅境”四大主题旅游村落和营地，其中以五星级山景民宿及村落配套为主的“寨仔尾里”项目依托自然生态资源，结合大规模闽南传统古建筑群，以别具一格的绿色田园生活、浓郁的闽南民俗风情和优质的文旅管理服务，成为厦门市乡村振兴的标杆之作。通过考察了解，考察组一行认为对我市打造高档民宿有值得借鉴和参考的地方，尤其是在解决当地劳动力就业和接续乡村振兴产业发展上意义重大，需进一步深入交流学习和考察对接。', '坐落于厦门市翔安区新圩镇大帽山农场境内，是集休闲农业、文旅、居住于一体的田园综合体。该项目包含', '项目依托自然生态资源，结合大规模闽南传统古建筑群，以别具一格的绿色田园生活、浓郁的闽南民俗风情和优质的文旅管理服务，成为厦门市乡村振兴的标杆之作。通过考察了解，考察组一行认为对我市打造高档民宿有值得借鉴和参考的地方，尤其是在解决当地劳动力就业和接续乡村振兴产业发展上意义重大，需进一步深入交流学习和考察对接。', '主营业务为罐头食品、饮料生产经营，成功跻身中国罐头和饮料行业领先企业，位居全国农业产业化领域的领军企业之一。集团总部位于福建省厦门市，目前拥有厦门、山东、湖北、安徽、四川五个生产基地，年设计产能达600万吨。通过考察，银鹭食品集团副总经理刘凝对我市天然野生杏仁、野生核桃仁等农产品非常感兴趣，希望借助闽宁对口协作平台寻洽合作良机。', '主营业务为罐头食品、饮料生产经营，成功跻身中国罐头和饮料行业领先企业，位居全国农业产业化领域的领军企业之一。集团总部位于福建省厦门市，目前拥有厦门、山东、湖北、安徽、四川五个生产基地，年设计产能达', '万吨。通过考察，银鹭食品集团副总经理刘凝对我市天然野生杏仁、野生核桃仁等农产品非常感兴趣，希望借助闽宁对口协作平台寻洽合作良机。', '是一家集绿色农产品种植、保鲜、深加工及绿色食品研发、销售为一体，经农业农村部认定的“农业产业化国家级重点龙头企业”和“全国食品工业优秀龙头食品企业”。公司旗下拥有子分公司9家，自营基地超过10万亩，合作基地超过30万亩。', '是一家集绿色农产品种植、保鲜、深加工及绿色食品研发、销售为一体，经农业农村部认定的', '下一步，市投资促进服务中心将进一步跟踪对接，在深化产业协作、壮大产业链方面继续加强与']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>292</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>固原民营企业高层管理人员创新能力提升培训班在杭州举办</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202304/t20230421_4039895.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['大力弘扬企业家精神，构建亲清政商关系，推动我市民营企业家坚定发展信心、融入发展大局、增强发展本领，加强我市民营企业', '提升了中小企业高层管理人员的战略管理能力、领导决策能力、市场运作能力和创新发展能力，为增强中小企业管理水平，提高企业自主创新能力和竞争力，促进中小企业健康发展提供强有力的人才和智力保障。', '本期培训班学员一致反映良好，表示此次的培训收获良多，内容充实，针对性强，收获很大，将把学习成果转化为干事创业的动力，将所学所思所悟充分应用到生产经营当中，为固原高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>292</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市生态环境保护领导小组会议召开</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202306/t20230616_4147773.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['6月15日，市委常委会会议暨市生态环境保护领导小组会议召开，学习习近平总书记近期重要讲话精神，研究贯彻意见；部署开展市级领导包抓产业发展工作和全市生态环境保护工作。市委书记滑志敏主持会议并讲话。', '会议强调，要认真学习习近平总书记关于文化建设的新思想新观点新论断，深刻把握中华文明的突出特性，深化对文化建设的规律性认识，坚持以社会主义核心价值观引领文化建设，加强城乡公共文化设施建设，加强文艺精品创作，加强文物保护利用和文化遗产保护传承，繁荣发展全市文化事业和文化产业。要认真学习贯彻习近平总书记在内蒙古自治区考察、内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会重要讲话精神，责无旁贷、义不容辞担负起涵养生态水源、筑牢生态屏障、维护生态安全使命责任，坚持以先行区建设为牵引，统筹推进山水林田湖草沙一体化保护和系统治理，为筑牢我国北方生态安全屏障贡献更多力量。', '会议研究组建市级领导包抓旅游季文化旅游（民宿）产业发展和旅游服务工作专班有关事项，部署开展市级领导包抓产业发展、督查重点工作和领导干部担任重点企业联络员工作，强调要时刻保持争先进位、不甘落后的干劲冲劲，迅速行动起来，认真履职尽责，主动思考、谋划、推进工作，坚持通关节、疏堵点、破难题，抓一件成一件，推动各项重点工作落实。', '会议强调，要深入学习贯彻习近平生态文明思想和总书记视察宁夏重要讲话指示批示精神，坚决扛牢生态环保政治责任，抓好中央和自治区党委生态环境保护督察反馈问题整改，以生态环境部调研检查发现问题为警示，全面开展生态环境违法行为专项整治行动，坚持生态优先、绿色发展，巩固提升国家生态文明建设示范市创建成果，坚定担当起建设先行区、固原作贡献的使命任务。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>292</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>优化营商环境探索企业发展新理念</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2019-07-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190723_1625429.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['为了营造良好的营商环境，推动我市产业优化升级的步伐，经请示市委政府同意，近期，由市科技局和中药材产业协会组织我市12家企业共17人组成考察团，赴台湾对观光工厂的建设、管理及孵化等方面进行了考察学习，并与当地企业进行深层次文化交流。', '考察组建议：一是设立专门的管理和孵化机构。我市引进观光工厂，需要设立专门的管理和孵化机构，实行项目辅导制，在遵循市场机制的前提下进行项目孵化。既要强调项目的研发能力和孵化实力，合理打造“互联网+”模式，将先进技术与传统产业有效结合，更要重视研究工作，做好对具体项目的实际情况调研，建设一批具有地域特色、产业特色和消费特色的观光工厂，而不是简单的复制台湾模式。二是构建评价标准制度体系。首先因地制宜体现本地特征，同时满足科学全面的评价标准，切实做到有标准的个性和有品质的创新，在实践中总结符合我们实际情况的一套系统的评价体系。评价体系的指标既要借鉴台湾经验，又要考虑我市的文化背景；构建评价体系，旨在保证观光工厂可以快速复制，便于后续监督与改善，形成持续的考核机制。三是结合本地特色，因地制宜。结合实际情况，以企业为单位规划成为观光工厂体验园，形成交通、餐饮、游乐、教育为一体的观光载体。同时，让消费者了解该产业的安全形象，从而带动整个行业的健康发展，以中小微企业为对象，针对工厂实际情况，依据产业特性转型为观光工厂。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>292</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>冼国义会见浙江运达风电公司董事长高玲</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202209/t20220916_3782767.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['9月14日，市委书记冼国义会见来固考察的浙江运达风电公司党委书记、董事长高玲一行，双方就共同推动清洁能源领域合作项目加快落地深入交流。', '冼国义对高玲一行来固考察表示欢迎，他说，在习近平总书记亲切关怀下，固原市打赢脱贫攻坚战，踏上了全面推进乡村振兴、实现共同富裕的新征程。当前，全市上下正在深入学习贯彻习近平总书记视察宁夏重要讲话和重要指示批示精神，按照自治区第十三次党代会部署要求，奋力实施产业千亿倍增计划、投资千亿倍增计划、改革创新驱动计划，加快建设宁夏副中心城市，推动实现赶超式发展。固原风、光资源丰富，清洁能源产业作为“五特五新五优”产业之一，有很大发展潜力，希望浙江运达风电公司发挥企业优势，双方深化交流合作，共同推动协议项目加快落地。', '高玲介绍了企业发展情况，表示十分看好固原的发展前景和双方的合作潜力，企业要抓住机遇，全力以赴做好各项工作，加快推进项目合作，为固原高质量发展贡献“运达力量”。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>292</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>关于赴福建山东开展招商引资情况的报告</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018-04-08</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201812/t20181226_1230112.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['按照市委四届三次全会提出的构建高质量现代产业体系要求，务实开展产业招商，跟踪拜访意向企业，洽谈引进纺织服装、农产品精深加工项目，３月', '按照市委四届三次全会提出的构建高质量现代产业体系要求，务实开展产业招商，跟踪拜访意向企业，洽谈引进纺织服装、农产品精深加工项目，', '２８日—４月２日，市政协副主席杨彦文带领市经合局、开发区管委会有关人员，赴福建、山东开展考察学习和招商引资活动。现将有关情况报告如下。', '这次招商活动，重点围绕特色农业、生态友好型工业，选择纺织及服装加工知名企业和农产品加工意向企业，先后拜访了福州惠源食品、福建福特科光电、山东魏桥集团、西王集团、愉悦家纺、威海坤华集团６家企业和滨州市台湾同胞投资企业协会，宣传推介我市“无中生有”发展现代纺织产业，“接二连三”做强特色农业，初步达成牛羊肉休闲食品加工、精密光学元件生产、年产２００万件服装加工项目合作意向，与滨州市台湾同胞投资企业协会建立起合作关系。期间，与滨州市政协进行座谈交流，希望能够发挥政协力量，在两地现代纺织产业发展合作方面起到积极作用。', '这次招商活动，重点围绕特色农业、生态友好型工业，选择纺织及服装加工知名企业和农产品加工意向企业，先后拜访了福州惠源食品、福建福特科光电、山东魏桥集团、西王集团、愉悦家纺、威海坤华集团', '福州惠源食品有限公司是一家集研产销为一体的现代食品企业，专业加工生产肉松、香辛料调味品及休闲食品。２０１７年１１月，公司董事长傅周灿考察了我市草畜产业和开发区、隆德县工业园区规划建设情况，对我市优质的牛羊肉品质非常认同，与隆德县达成肉制品加工合作意向。目前，企业已用我市牛羊肉为原料，试加工成小包装熟食品，投放当地部分市场。招商小组针企业投资意向，有针对性的介绍了我市草畜产业发展规划和投资有关扶持政策。企业负责人表示，正在组织进行市场调研，将根据消费者认可度和市场销量情况，安排在我市投资计划。', '福州惠源食品有限公司是一家集研产销为一体的现代食品企业，专业加工生产肉松、香辛料调味品及休闲食品。', '一体的专业的精密光学元件制造商。２０１７年１１月，公司董事长黄恒标实地考察了开发区和隆德县工业园区，已对我市投资环境有了', '威海坤华集团是一家集户外休闲运动服装设计、海外市场开发、加工生产、国际贸易操作为一体', '进行了座谈交流，公司负责人表示已计划在宁南地区选址，分三期建设年产２００万件服装加工项目，近期将组织人员到固原进行实地考察，商谈具体合作事宜。', '订单日益增长的刚性需求，公司已经过长期的市场调研，确定在红寺堡、海源、固原等宁南地区选址建设，该项目符合我市建设劳动密集型服装加工产业要求。下一步，由市经合局和开发区管委会负责，主动邀请企业实地考察，做好洽谈具体工作，力促企业选择在我市投资建设。', '项目，已对我市资源和投资环境进行了考察，项目处在进一步调研论证阶段。下一步，由市经合局牵头，隆德县和开发区管委会配合，加强与企业联系，就项目投资具体事宜进行沟通，力推尽早落地建设。', '魏桥集团是世界上最大的棉纺织企业，涉及纺织、染整、服装、家纺等全产业链，纺纱规模已达到年产６５０万锭。', '魏桥集团是世界上最大的棉纺织企业，涉及纺织、染整、服装、家纺等全产业链，纺纱规模已达到年产', '已形成了纺织品研发设计、麻作物种植及纤维加工、中草药等功能纤维的研制、纤维纺纱、纱线织布、印染整理等居家产业串联的新型企业。两家企业与我市发展现代纺织产业关联度高，下一步，由市经合局、开发区管委会负责，加强与企业联系，建立长期友好关系，密切关注企业投资动向，寻找合作项目。同时，建议通过高层推动，与两家企业建立战略合作关系，力争在产业链项目外溢上与企业实现合作。', '联系，由市经合局负责，在第３２届陕甘川宁毗邻地区经联会期间，邀请协会组织台湾籍企业参会考察，在现代农业领域对接洽谈合作项目。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>292</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>福建省粮食和物资储备局来固考察调研</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202104/t20210428_2803543.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['4月的固原阳光明媚，春意盎然。福建省粮食和物资储备局局长孙建平一行4人来固考察调研，固原市副市长张立君', '宁储粮总公司固原储备库对经营管理、仓房实物管理、检化验设备投资利用及效益做了深入了解并进行座谈交流，对', '此次调研依托闽宁协作基础，进一步加深了闽宁在粮食产销协作及产学研合作上的发展，为推动我市粮食产业高质量发展提供了支撑。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>292</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>我市与重庆开展旅游合作暨项目恳谈活动</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018-12-29</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201812/t20181229_1237208.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['近日，市政府办、旅游委等部门负责人、部分旅游招商项目负责人及推介人员一行，准备了我市17个旅游招商引资项目，前往重庆市开展旅游合作、学习考察暨旅游项目恳谈活动。', '此次恳谈活动，进一步加强重庆、固原两地旅游交流与合作，促进两地资源共享、联动共赢，推进两地旅游产业共同发展。恳谈项目涵盖了固原长征胜地、丝路重镇、高原绿岛等特色旅游资源，涉及生态休闲度假、红色与民俗文化等多个方面。推介会上，推介人员就我市旅游资源、招商引资优惠政策作了整体推介，市政府与华夏航空，重庆名豪集团与宁夏六盘山旅游集团，重庆万观投资管理有限公司与宁夏六盘山旅游集团，重庆美德实业集团与原州区政府，重庆交运集团香满园西部农产品有限公司与西吉县伊尔德农业发展有限公司，重庆非屋旅游发展有限公司与隆德县五龙花卉有限公司，重庆中治旅游产业发展集团与泾源县政府分别签订了战略合作框架协议。', '在重庆期间，与会人员一行实地考察了重庆长寿区、渝北区旅游产业发展状况和万观文旅等投资企业经营管理情况，双方进行了深入的座谈交流，达成了进一步深化交流与合作的共识。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>292</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市投资促进服务中心对接华润五丰公司取得初步合作意向</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-05-13</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/zfxxgk/fdzdgknr/202208/t20220810_3665688.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为了更好推进肉牛产业规模化养殖、产业化屠宰加工和品牌化营销，市投资促进服务中心积极与华润五丰有限公司对接，初步达成一些合作意向。我中心将与市农业农村局、市商务和投资促进局负责人以及市内部分大型肉牛养殖企业组成考察组，赴海原县考察学习华润五丰六万头肉牛全产业链项目，详细了解该县肉牛养殖产业发展规模、养殖模式、饲料加工储备设施、经济效益等情况，力争与我市开展肉牛产业全方位合作，达到互利共赢、共同发展的目标。', '华润五丰负责人表示：企业将充分依托活牛交易市场，积极与固原养殖户达成合作意向或直接投资肉牛养殖项目，引领肉牛产业向高端、高附加值方向发展；充分发挥活牛供港优势，把固原肉牛打入港澳中高端肉牛市场，激发品牌效应；充分发挥精深加工优势，精细制定产品和分销策略，提升品牌竞争力；充分发挥龙头企业优势，与固原龙头企业和养殖大户联合成立肉牛协会，逐步扩大养殖规模，改善养殖结构，延伸产业链条，提高经济效益，促进农民增收致富。企业高层表示，华润五丰有技术、有市场，固原有资源、有潜力，“西海固”地缘相近，人缘相亲，合作空间广阔，是天然的合作伙伴，将尽快派团队来固实地考察，开展深入交流，达成合作。', '华润五丰负责人表示：企业将充分依托活牛交易市场，积极与固原养殖户达成合作意向或直接投资肉牛养殖项目，引领肉牛产业向高端、高附加值方向发展；充分发挥活牛供港优势，把固原肉牛打入港澳中高端肉牛市场，激发品牌效应；充分发挥精深加工优势，精细制定产品和分销策略，提升品牌竞争力；充分发挥龙头企业优势，与固原龙头企业和养殖大户联合成立肉牛协会，逐步扩大养殖规模，改善养殖结构，延伸产业链条，提高经济效益，促进农民增收致富。企业高层表示，华润五丰有技术、有市场，固原有资源、有潜力，', '地缘相近，人缘相亲，合作空间广阔，是天然的合作伙伴，将尽快派团队来固实地考察，开展深入交流，达成合作。', '旗下优秀的综合食品企业集团，集食品研发、生产、加工、批发、零售、运输和国际贸易于一体。主营大米、肉食、综合食品，同时负责运营华润希望小镇产业发展项目。业务区域覆盖中国内地及香港市场。公司旗下拥有五丰、曼泰吉、喜上喜、联合康康、五丰黎红、五丰富春、上口爱等多个知名品牌。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>292</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市五届人大常委会召开会议</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202407/t20240701_4581436.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['6月28日，市人大常委会主任李志达主持召开市五届人大常委会第十九次会议。“一府一委两院”负责人列席会议。', '会议传达学习习近平总书记考察宁夏重要讲话精神、自治区党委十三届七次全会及市委五届十一次全会精神等。听取和审议市政府关于建设铸牢中华民族共同体意识示范市、托育服务工作、2023年度全市及市本级政府债务管理情况的报告；听取和审议市人大常委会执法检查组关于检查道路交通安全“一法两条例”实施情况的报告；初审《固原市河道管理保护条例（草案）》；表决通过人事任免议案，举行宪法宣誓仪式。', '会议强调，习近平总书记在宁夏考察时的重要讲话，饱含着总书记对我区各族人民的深情厚爱和深切期望，为我们做好各项工作指明了前进方向、提供了根本遵循。全市各级人大要从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，带头把总书记重要讲话精神学习好、宣传好、贯彻好，全力以赴推动总书记重要讲话精神在我市落地落实。', '会议强调，要紧紧围绕铸牢中华民族共同体意识主线，用好三级人大、五级代表联动机制，落实落细自治区党委和市委全会部署要求。要充分发挥代表优势，当好加快建设铸牢中华民族共同体意识示范市的宣传宣讲者、实践推动者、法治监督者。', '会议要求，要强化政策支持引导、加强专业队伍建设、营造良好社会氛围，大力推动托育服务工作高质量发展。要树牢过紧日子思想，加强债务风险防范，积极争取资金项目，有序稳妥化解存量债务，牢牢守住不发生系统性风险的底线。要加大宣传教育，强化交通安全隐患排查治理，推进交通基础设施建设，切实保障和维护群众出行安全。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>292</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>固原市文广局关于开展年公务员职业道德建设工程工作计划的通知</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018-09-06</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201811/t20181114_1165445.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['固原市文广局关于开展2018年公务员职业道德建设工程工作计划的通知_固原市人民政府', '现将《固原市文广局2018年公务员职业道德建设工程工作计划》予以印发，请抓好落实。', '为进一步规范机关公务员职业行为，根据《中华人民共和国公务员法》《中共中央组织部 人力资源社会保障部 国家公务员局&lt;关于推进公务员职业道德建设工程的意见&gt;》（人社部发〔2016〕54号）、《中共宁夏区委组织部 自治区人力资源和社会保障厅关于印发&lt;宁夏回族自治区公务员职业道德建设工程实施意见&gt;的通知（宁人社发〔2018〕52号）》和《关于印发&lt;公务员职业道德建设工程实施方案&gt;的通知》（固人社发〔2018〕191号）要求，结合我局际，制定本工作计划。', '公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体体现，对引导和规范正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德培育贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '机关公务员职业道德建设突出政治性、示范性、约束性、可操作性，以“坚定信念、忠于国家、服务人民、恪尽职守、依法办事、公正廉洁”为主要内容。', '“坚定信念”要求公务员坚定对马克思主义的信仰,坚定对社会主义和共产主义的信念,不断增强道路自信、理论自信、制度自信、文化自信；坚持中国共产党的领导,坚持党的基本理论、基本路线、基本纲领、基本经验、基本要求不动摇；把牢政治方向,坚定政治立场,严守政治纪律和政治规矩,增强党性修养，做到对党和人民绝对忠诚。 “忠于国家”要求公务员弘扬爱国主义精神,坚决维护国家安全、荣誉和利益,维护党和政府形象、权威,维护国家统一和民族团结；保守国家秘密和工作秘密,同一切危害国家利益的言行作斗争。 “服务人民”要求公务员坚持以人为本、执政为民,全心全意为人民服务,永做人民公仆；坚持党的群众路线,密切联系群众,以人民忧乐为忧乐,以人民甘苦为甘苦；坚持人民利益至上,把实现好、维护好、发展好最广大人民根本利益作为工作的出发点和落脚点,切实维护群众切身利益。 “恪尽职守”要求公务员服务大局、奋发有为、甘于奉献,为党和人民的事业不懈奋斗；坚持原则、敢于担当、认真负责,面对矛盾敢于迎难而上,面对危机敢于挺身而出,面对失误敢于承担责任,面对歪风邪气敢于坚决斗争；精通业务知识,勤勉敬业、求真务实,兢兢业业做好本职工作。 “依法办事”要求公务员牢固树立社会主义法治理念,努力提高法治素养,模范遵守宪法和法律；严格依法履职,做到权由法定、权依法使,法定职责必须为、法无授权不可为；坚持依法决策,严格按照法定的权限、程序和方式执行公务。', '“公正廉洁”要求公务员坚持秉公用权、公私分明、办事出于公心,努力维护和促进社会公平正义；严于律己、廉洁从政,坚守道德法纪防线；为人正派、诚实守信、尚俭戒奢、勤俭节约。', '严格落实机关公务员遴选、选拔和调任人员的“个人诚信”道德标准审查，对在录用、调任等环节中，存在违反政治纪律、政治规矩、违法乱纪、不遵守社会公德、家庭美德等行为，或存在弄虚作假、个人诚信等失信记录的，不予录取、任用。', '年底前，逐一建立机关公务员诚信档案，内容包括公务员个人档案、领导干部个人事项报告、廉政承诺、遵守规定和个人承诺情况。将公务员个人诚信档案建设情况与干部考核、评先选优相结合，对隐瞒个人应报未报事项和本年度被上级纪检监察部门处分的公务员，取消当年评先选优资格。', '按照《国家公务员行为规范》、《固原市党和国家机关及其工作人员不当行为问责办法》，机关公务员要严格对照问责办法，从严规范个人言行和工作纪律，不断提高工作执行标准和工作效能，在机关上下形成浓厚的干事氛围。', '组织本单位公务员深入学习党的十九大精神，深入学习习近平新时代中国特色社会主义思想，坚持用马克思主义中国化最新成果武装头脑。深入开展公务员理想信念教育、宗旨教育、法制教育、党规党纪和廉政教育，引导公务员树立正确的世界观、人生观、价值观和权力观、地位观、利益观，增强政治意识、大局意识、核心意识、看齐意识。把中国特色社会主义核心价值体系作为根本价值取向，牢固树立中国特色社会主义共同理想，推动公务员职业道德建设。', '坚持机关党组中心组、干部职工集中学习制度不松懈，积极引导机关党员领导干部和公务员深入学习党的十九大精神、习近平新时代中国特色社会主义思想、自治区第十二届四次会议精神和市委四届二次、三次全会精神，引导梳理正确的世界观、人生观、价值观和权力观、地位观、利益观，不断增强政治意识、大局意识、核心意识和看齐意识，牢固树立中国特色社会主义共同理想，不断健全机关公务员职业道德和政治素质能力。', '结合实际认真落实宪法宣誓制度，开展新录用、新任职公务员忠于宪法宣誓活动，增强仪式感，强化责任意识，激励和教育公务员忠于宪法、忠于祖国、忠于人民。结合各种党组织活动，定期开展重温入党誓词活动，进一步增强党员公务员忠于党、忠于以习近平同志为核心的党中央的意识。', '设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。深入推进争做人民满意公务员活动，积极开展公务员“职业道德标兵”“为民服务示范岗”创建活动。大力弘扬“奉献、友爱、互助、进步”精神，积极鼓励公务员开展“为民志愿服务”进企业、进社区、进农村活动。组织主题征文、演讲比赛、大讨论、诵读文化经典等活动，充分挖掘中华优秀传统文化中道德的精华，大力弘扬井冈山精神、延安精神、焦裕禄精神等党的优良传统、形成促进公务员职业道德建设的良好文化氛围。', '结合开展公务员平时考核、年度考核、任职考察等工作，注重了解公务员职业道德表现情况。个人述职要述德，民主测评要测德，考察谈话要问德，综合分析研判要分析评价公务员的职业道德素养和表现情况。将公务员遵守职业道德情况列入民主生活会、组织生活会等重要内容，深入查找不足，切实加强整改。', '每半年开展一次“职业道德之星”评比活动，大力营造身边有先进、单位有榜样、行业有标兵的良好氛围。要开展“向楷模看齐”活动，组织广大公务员向人民满意的公务员、职业道德标兵等先进人物看齐，不断提升职业道德修养。', '强化公务员职业道德考核结果的运用，将职业道德考核情况作为公务员选拔任用、培养教育、管理监督的重要依据。对恪守职业道德、履职尽责、表现优秀的公务员，给予适当奖励。对存在违反职业道德、工作作风懈怠、工作态度恶劣、有严重失信行为等情况的公务员，按照《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党问责条例》等党纪党规和《行政机关公务员处分条例》等有关规定给予批评教育、组织处理或者党纪、政纪处分。', '公务员职业道德建设工作是加强机关公务员队伍建设和管理的重要抓手，局成立公务员职业道德建设工作领导小组，党组书记、局长李鹏同志为组长，分管领导为副组长，领导小组下设在办公室，负责机关公务员职业道德建设工作具体开展。', '局全体公务员要按照要求，在提高公务员道德能力提升和政策水平上下功夫，牢固树立“四个意识”，坚持学有所思、学有所获、学有所悟，把持之以恒的学习贯穿到工作开展的全过程。严格遵守《中国共产党廉洁自律准则》《中国共产党纪律处分条例》等党纪党规和《行政机关公务员处分条例》等有关规定，严以律己，恪尽职守。', '在日常工作中，要及时发现先进典型，加大公务员职业道德建设工作情况的宣传力度，不断加强对机关公务员中涌现出的先进人物、先进事迹要主动宣传、正面报道，充分发挥优秀公务员的模范示范作用。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>292</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>我市各县区认真学习贯彻落实梁言顺来固调研讲话指示精神</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-04-08</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202204/t20220408_3445328.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['4月4日至5日，自治区党委书记梁言顺在我市沿着习近平总书记2016年7月考察时的足迹，看望脱贫群众，调研脱贫攻坚成果巩固、乡村全面振兴、生态环境保护等工作。我市各县区及时传达学习梁言顺来固调研时的讲话指示精神，研究贯彻意见，切实把讲话指示精神贯彻到谋划发展中、落实到具体工作中、体现到实际行动中，以优异成绩迎接党的二十大和自治区第十三次党代会召开。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>292</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2016-05-20</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201605/t20160520_377595.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['5月19日，自治区党委常委、市委书记纪峥主持召开市委常委会会议，传达学习赵乐际同志来宁视察讲话精神，研究贯彻落实意见。', '会议指出，5月14日至15日，中共中央政治局委员、中组部部长赵乐际来宁考察调研，并在银川主持召开集中连片贫困地区抓党建促脱贫攻坚工作座谈会。5月 14日，赵乐际来我市考察六盘山红军长征纪念馆及六盘山闽宁扶贫产业园，对我市“两学一做”学习教育、闽宁扶贫产业园发展模式给予充分肯定，这充分体现了 党中央、中组部对固原的关心和支持。全市各级党委党组、组织部门、扶贫部门要认真学习、深刻领会，进一步统一思想，促进党建工作和精准脱贫融合共进。', '会议指出，要以县乡领导班子换届为契机，围绕脱贫攻坚，注重保持县乡两级班子相对稳定，选优配强领导班子。突出配强县级领导班子，大力选配信念坚定、专业 化能力强、敢于担当、勇往直前的优秀干部，切实把县级领导班子建设成为带领群众脱贫致富的坚强领导集体。要把工作能力强、熟悉“三农”工作的干部调配到乡 镇任职，确保乡镇党委坚强有力。进一步转变用人导向，从基层选拔使用优秀干部，激发基层干部干事创业的激情。', '会议指出，要加强基层组织建设，配强村支部书记，精准选派第一书记。第一书记要主动担当，又不包办代替，尊重、发挥村干部和党员的积极性，帮助村“两委” 理思路、跑项目、落实政策、提高发展能力等。派出单位要在各方面给予第一书记工作支持，做到与第一书记责任捆绑、项目捆绑、资金捆绑，使第一书记驻村与部 门结对、单位联村结合起来，把单位职能优势等用到精准帮扶上。要建立第一书记动态考核制度。', '会议指出，要充分发挥党员的先锋模范作用。鼓励和支持党员领办创办农民合作社、家庭农场，发展特色产业、农产品电子商务等。加大对党员带头致富、带领群众共同致富的支持力度。结合“两学一做”学习教育，推动广大党员在脱贫攻坚中当先锋、作贡献。', '会议指出，要全力抓好农村“两个带头人”工程。要对各村进行集中摸底，将致富带头人的人数落实、事情做实，扩大致富带头人的覆盖面，着力培育农村致富典型，建立农村致富带头人信息库，整合各类致富带头人资源，发挥能人带动作用，增强发展实力。', '会议指出，要认真学习借鉴先进省区的好经验、好做法，在抓党建、配班子等方面不断探索创新，为打赢脱贫攻坚战夯实组织基础、提供政治保障。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>292</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-08-31</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202108/t20210831_2997791.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['8月30日，市委常委会召开会议，传达学习习近平总书记在中央财经委员会第十次会议、在中央民族工作会议、在河北承德考察时的重要讲话精神，致第五届中阿博览会的贺信、对档案工作作出的重要批示精神和习近平总书记重要文章《总结党的历史经验，加强党的政治建设》，全区推进黄河流域生态保护和高质量发展先行区建设（重大项目建设）第五次推进会精神，研究贯彻意见。自治区党委常委、市委书记马汉成主持会议并讲话。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>292</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于重新申报市级文明单位的报告</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2011-09-14</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_383796.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['创建文明单位是进行社会主义精神文明建设的一项重要内容和基本形式。它对树立良好的单位形象，促进两个文明建设的协调发展，具有十分重要的意义。近年来，我办按照市委、政府的总体部署和要求，坚持以邓小平理论和“三个代表”重要思想为指导，以科学发展观为统领，以文明创建为第一抓手，深入推进市政府办公室精神文明建设各项工作，不断提高市政府办公室各项工作的水平。', '现根据市文明办《关于对任期届满的市级文明单位重新申报考核的通知》(固文明办﹝2011﹞17号)要求，将我办2007年以来精神文明建设情况汇报如下：', '精神文明建设是一项系统工程，近年来，我办始终把精神文明建设作为领导班子的重要职责，列入重要议事日程，同办公室重点业务工作同部署、同安排，成立了市政府创建精神文明单位领导小组。坚持细化量化任务目标，实行目标责任制管理，加强督办检查，严格考核，实行动态管理，不断总结经验，增强了对办公室文明创建工作的督导力度。', '市政府办公室始终坚持把加强理论武装、提高干部职工队伍素质作为精神文明建设的根本任务，采取多种形式，深入学习贯彻落实科学发展观，深刻领会其重大意义、科学内涵和精神实质;以学习贯彻十七大和十七届三中、四中、五中全会精神为重点，把思想和行动统一到中央的部署要求上来，把智慧和力量凝聚到贯彻落实市委、政府提出的目标任务上来，把精力和才智融汇到跨越式发展上来;以学习贯彻胡锦涛总书记在庆祝建党90周年大会上的重要讲话精神为重点，不断深化对讲话精神的理解和认识，牢牢把握正确的政治方向，进一步增强走中国特色社会主义政治发展道路的自觉性和坚定性;紧密联系我市经济社会发展实际，积极推进理论创新、制度创新、机制创新，坚持学以致用，用以促学，切实提高运用科学理论分析和解决问题的能力;深入学习和掌握党的基本路线方针政策，把思想和行动统一到中央和区、市党委、政府的决策部署上来;认真学习“不到长城非好汉”的六盘山精神，把六盘山精神转化为推动办公室工作的动力;学习反映当代世界发展的各种新知识，丰富知识内容，提高知识层次。', '学习实践科学发展观和“八荣八耻”荣辱观，广泛组织开展中国特色社会主义理论和社会主义核心价值体系等学习教育活动，干部职工贯彻党的路线、方针、政策的自觉性和坚定性不断增强;全面贯彻《公民道德建设实施纲要》，切实加强宗旨观念、职业道德和诚信教育，干部职工的思想道德素质明显提高。深入开展“思想道德年”建设活动，实施以礼仪、诚信、和睦、爱心为主要内容的“四大工程”，营造了“爱国守法、明礼诚信、团结友爱、勤俭自强、敬业奉献”的人际关系。', '学习中，以推进“学习型”机关建设为重点，结合“读书月”活动的开展，采取集中学习与个人自学相结合，适时组织专题讲座、重点发言、心得交流等形式进行学习。做到集体学习有计划、有记录、有检查、有落实，个人自学有笔记、有体会，机关领导干部以身作则，带头学习，做出表率，', '(一)“机关效能建设年”活动深入开展。按照市委、政府的安排，市政府办公室认真开展“机关效能建设年”活动，在开展活动过程中，加强学习教育，坚持学习制度，按照“武装头脑、指导实践、推动工作”的要求，认真组织全体干部职工学习政治理论和业务知识，通过学习，不断增强了干部职工的政治理论素质和业务能力，提高了机关干部职工的办事能力和办事效率。完善了工作制度，重点明确了岗位责任，细化了工作目标，落实了工作责任，严格对履行职责情况进行监督检查、考核。从制度上防范和约束机关工作效能和作风存在的问题，增强了服务意识。通过开展“机关效能建设年”活动，使广大干部职工充分认识了政府办公室的重要性，树立执政为民的理念，上传下达，沟通协调，确保各项工作任务得到及时的落实。改进办文、办事、办会工作，主动、高效地做好服务工作，为我市经济社会发展提供优质高效的政务服务。', '(二)解放思想主题实践活动取得重要成效。市委关于在全市开展解放思想主题实践活动的通知下发后，市政府办高度重视，及时成立领导小组，制定切实可行的实施方案，进一步明确目标任务，并分阶段制定了工作安排，认真完成规定内容。', '(三)开展深入实施西部大开发大学习活动。按照市委、政府的安排部署，在组织学习有关必读篇目的基础上，紧紧围绕“西部大开发、固原怎么办”这一主题，先后召开了办公室全体会议、专题座谈会和开展了“我为西部大开发建言献策”活动，重点就发展战略转型、推进城镇化建设、实施“一五五”工程、调整经济结构、转变经济发展方式、生态环境建设、保障和改善民生、促进社会和谐稳定等重大问题，通过提案、社情民意等形式，广泛征集各县(区)、各部门(单位)的意见和建议，就如何抢抓机遇，推进固原大发展、快发展、跨越式发展建言献策，共征集到意见建议45条，社情民意12条。', '(四)认真开展“思想大解放，树立新形象”活动。为了认真贯彻落实《中共固原市委关于开展“思想大解放，树立新形象”活动的实施意见》，研究制定了《市政府办公室开展“思想大解放，树立新形象”活动实施方案》，对政府办公室开展“思想大解放，树立新形象”活动进行了安排部署，把活动与深入贯彻党的十七大和十七届五中全会、自治区党委十届十一次、十二次全会、市委二届九次全会精神结合起来，与自治区党委、市委的决策部署结合起来，与建党90周年庆祝活动结合起来，与市委、政府的中心工作结合起来，与加强领导班子建设和党组织建设结合起来，集中解决影响和制约机关在服务发展中的突出问题。确定了“深入开展服务性机关建设，塑公仆形象，创新文明办公、文明接待、文明服务方式”的活动主题。通过开展形式多样的座谈、研讨、讲座等活动，干部职工思想观念不断更新，办公室整体服务水平明显提升。', '(五)积极开展联系沟通工作。上情下达、左右协调、渠道畅通是政府办公室的工作职责，也是推进各项工作的必然要求。办公室作为综合协调机构，把加强与市委、政府各部门和上下级政府工作机构之间的联系作为一项经常性工作，贯穿于各项工作之中，逐步建立起有效的协调联系机制。', '(六)“创先争优”活动为抓手，努力促进了机关党的建设和党风廉政建设上台阶上水平。按照市委的部署和安排，及时成立创先争优活动领导小组，制定活动安排，确定活动主题和载体，按照领导班子“五好”标准和“为民、务实、清廉”的总体要求，结合工作实际，积极开展创先争优和“五比五看”活动。同时，按照市纪委的总体要求，认真做好党员干部勤政廉政承诺和岗位风险排查、防控工作，确保了廉政建设和反腐败工作的有效开展。认真学习贯彻《固原市党政领导干部问责办法(试行)》和《固原市党和国家机关及其工作人员不当行为问责办法(试行)》，加强干部群众的管理教育。', '(七)深入开展“学树创”活动，群众性文明创建活动丰富多彩。紧紧围绕落实科学发展观和构建和谐单位两大主题，充实创建活动内容，拓展创建活动领域，单位文明程度得到了整体提高。一是继续深入开展“学先进、树新风、创一流”活动，组织开展了学习白志林、陈瑞祥等先进典型活动，注重选树身边的先进典型，激励干部职工立足岗位成才，争创一流业绩。二是继续开展创建文明行业、文明单位、文明机关等形式多样的文明创建活动，文明创建力度不断加大，文明创建领域不断拓展，文明创建目标向更高迈进。三是积极开展“送温暖、献爱心”活动。认真开展扶贫工作，为扶贫点捐资捐物，协调项目，努力把扶贫工作做实做好。“5.12”汶川大地震发生后，机关党支部组织干部职工伸出援助之手，向灾区人民献爱心，党员干部积极缴纳特殊党费。通过开展这项活动，既提高了党员的党性素养、干部职工的爱国热情，又帮助灾区群众解决了实际困难。四是积极开展机关精神文明创建、“以人为本执政为民”、创优经济发展环境等活动。五是积极组织党员干部职工参加了庆祝建党90周年系列活动，爱党热情进一步激发。六是完成了固原市春季造林暨市直机关义务植树任务。', '(八)注重办公环境卫生建设，树立政府办公室文明形象。近年来，我办把办公环境卫生建设作为精神文明建设的重要组成部分，建立制度，常抓不懈，树立了机关单位良好的文明形象。', '准确把握服务型机关的职能定位，不断增强机关干部职工为政府领导服务、为政府部门服务的意识和本领，着力提高服务质量和水平，推进办文规范化、办会程序化、办事制度化，为履行各项职能提供了保障。', '(一)加强综合协调，综合服务水平不断提高。紧紧围绕市委、政府确定的工作重点，积极协助政府领导抓好各项工作。召开了政府全体会议，对《政府工作报告》确定的重点工作任务和1大事实事进行任务分解和责任分工，市长与各副市长、各副市长与责任部门签订了大事目标管理责任书。努力发挥综合协调作用，加强与厅局、县(区)的联系衔接，把握重点工作和关键环节，确保市政府日常工作正常有序运转。组织有关部门，及时制定出台基础设施建设、民生事业改善、优势产业发展等一系列重大举措。', '(二)严格办文办会，政务服务质量明显提升。严格履行审核把关职能，按照“精文简会”的要求对市政府发文进行严格控制。认真起草政府领导讲话和各类公文，文稿质量明显提高，使政府各项决策部署及时准确地传达。文电处理、档案管理和保密工作规范有序，保证了政府文电工作的高效运转。加强会议服务和管理，严格执行会议审批制度，对以市政府名义召开的会议着力规范。加强会议议题的审核把关和会前协调，会议服务质量和效率明显提高，保证了政府全体会、常务会、市长办公会、专题会等各种会议顺利进行。及时办理领导批示，较好地保证了领导批示的贯彻落实和群众反映问题的有效解决。严格执行领导参与各项节庆活动的各项规定。', '(三)规范法制建设，依法行政工作稳步推进。充分发挥职能作用，依法审核行政规范性文件，加强政府规范性文件的起草、审查、修改，坚持对部门报送的规范性文件及时认真审查，确保政策措施的规范化和法制化。加强行政执法监督，认真处理行政复议案件，保证了制定各类规范性文件的合法性、准确性。积极探索行政审批环节和运行机制改革新途径，进行了市直规范性文件清理工作，提高了规范性文件制定、报送、备案的质量和效益。', '(四)强化督查督办，决策部署得到有效落实。对自治区党委、政府下达我市的各项目标管理考核指标和政府工作报告重点任务进行了全面分解下达，保证了各项重点工作目标有布置、有落实、有督查、有考核。加强对市委、政府决策部署和市政府全体会议、常务会议、市长办公会议、专题办公会议决定事项及领导批办、交办事项的跟踪督查督办，及时将工作进展情况反馈政府领导，并将督查结果予以通报。督办率(含逾期督办率)、督办事项登记率、督办及时率均达到100%。强化中心工作任务落实的督查，综合运用随机抽查、重点检查、跟踪督办等方法，先后组织开展了多次对全市经济社会发展大事实事以及生态移民、中心城市建设、解决民生问题等重点工作的专项督查，有力推动了各项目标任务的落实。做好人大代表议案、政协委员提案办理工作。', '(五)深入调查研究，参谋辅政作用充分发挥。围绕市委、政府确定的工作思路，加强信息的报送、调研和反馈，力求准确、及时、全面。向自治区政府办公厅和市委、政府领导报送了大量有情况、有分析、有建议的综合性信息，做到了下情上达,为领导的科学决策提供了依据。', '(六)优化应急管理，处突应急能力显著增强。在政府网站开通了应急管理栏目，大力开展应急科普知识宣传。深入开展应急管理工作，继续强化政府应急队伍建设，举办专业应急演练，督促有关部门建立专业应急救援队伍。坚持24小时值班制度，值班信息报送工作及时准确。深入开展应急管理“一网五库”和“一案三制”建设，切实提高了政府应对重大、紧急、突发事件的快速反应和正确处置能力。', '(七)规范审批接待，外事侨务工作扎实开展。加强因公出国(境)管理，严格审批程序和审核签字关口，有效遏止了公款出国旅游现象。审批办理因公出国(境)手续，涉及招商、水利、区域经济、参会参展等考察、访问和培训内容。认真做好外事接待工作，完成了科威特驻华大使、外交部机关党校代表团、日本星火朋友会代表团到固原考察接待任务，受到自治区外事办的好评。积极争取外援项目，向国际计划组织争取了外援扶贫项目资金100万元。', '(九)积极统筹协调，后勤服务保障能力增强。按照“热情周到、规范高效、安全节俭”的原则，截至目前，共完成了各级各类接待57批2526人次，圆满完成了李长春、刘延东等党和国家领导人的接待任务，受到了各级领导的好评。机关事务以管理科学化、保障有序化为目标，加强各项制度建设管理，工作效率明显提高。上半年完成了行政中心各种会务接待122场次，11000人次，就餐接待39批600人次。保障了3.2万人次职工食堂就餐工作。加强人民会堂管理，保证了各类会议和演出任务的顺利进行。', '(十)扎实推进精神文明建设。深入开展以“八荣八耻”为主要内容的社会主义荣辱观教育、国情教育、中国特色社会主义理论体系教育，社会主义核心价值体系牢固树立。政府各市长分别参加了各类学习研讨班，2名科级干部参加了区、市党校的培训班。组织干部职工积极参加各种文体活动，形成了昂扬向上的精神风貌，为推动办公室各项工作提供了精神保证。', '2007年以来，办公室在市委、政府的领导下，在自治区政府办公厅的指导下，全面完成了各项工作任务，在全市目标管理考核中，2008年、2009年度分别获得了第四名，2010年获得了第二名，并受到了市委、政府的表彰奖励。但对照市委有关精神文明创建的要求还有一定的差距，我们有决心、有信心在今后的工作中，坚持以党的十七大精神为指导，以开展“思想大解放，树立新形象”活动为契机，紧紧围绕政府办公室职能，通过继续深入开展精神文明创建活动，切实转变工作方式，拓展工作领域，努力在求新、求变、求进上狠下功夫，推动精神文明建设不断向纵深发展。', '获市级以上荣誉及时间在全市目标管理考核中，2008年、2009年度分别获得了第四名，2010年获得了第二名，并受到了市委、政府的表彰奖励。', '一、加强领导，不断完善创建机制。 精神文明建设是一项系统工程，近年来，我办始终把精神文明建设作为领导班子的重要职责，列入重要议事日程，同办公室重点业务工作同部署、同安排，成立了市政府创建精神文明单位领导小组。坚持细化量化任务目标，实行目标责任制管理，加强督办检查，严格考核，实行动态管理，不断总结经验，增强了对办公室文明创建工作的督导力度。', '二、加强理论学习，建设学习型机关。市政府办公室始终坚持把加强理论武装、提高干部职工队伍素质作为精神文明建设的根本任务，采取多种形式，深入学习贯彻落实科学发展观，深刻领会其重大意义、科学内涵和精神实质;以学习贯彻十七大和十七届三中、四中、五中全会精神为重点，把思想和行动统一到中央的部署要求上来，把智慧和力量凝聚到贯彻落实市委、政府提出的目标任务上来，把精力和才智融汇到跨越式发展上来;以学习贯彻胡锦涛总书记在庆祝建党90周年大会上的重要讲话精神为重点，不断深化对讲话精神的理解和认识，牢牢把握正确的政治方向，进一步增强走中国特色社会主义政治发展道路的自觉性和坚定性;紧密联系我市经济社会发展实际，积极推进理论创新、制度创新、机制创新，坚持学以致用，用以促学，切实提高运用科学理论分析和解决问题的能力;深入学习和掌握党的基本路线方针政策，把思想和行动统一到中央和区、市党委、政府的决策部署上来;学习“不到长城非好汉”的六盘山精神，把六盘山精神转化为推动办公室工作的动力;学习反映当代世界发展的各种新知识，丰富知识内容，提高知识层次。学习实践科学发展观和“八荣八耻”荣辱观，广泛组织开展中国特色社会主义理论和社会主义核心价值体系等学习教育活动，干部职工贯彻党的路线、方针、政策的自觉性和坚定性不断增强;全面贯彻《公民道德建设实施纲要》，切实加强宗旨观念、职业道德和诚信教育，干部职工的思想道德素质明显提高。深入开展“思想道德年”建设活动，实施以礼仪、诚信、和睦、爱心为主要内容的“四大工程”，营造了“爱国守法、明礼诚信、团结友爱、勤俭自强、敬业奉献”的人际关系。学习中，以推进“学习型”机关建设为', '重点，结合“读书月”活动的开展，采取集中学习与个人自学相结合，适时组织专题讲座、重点发言、心得交流等形式进行学习。做到集体学习有计划、有记录、有检查、有落实，个人自学有笔记、有体会，机关领导干部以身作则，带头学习，做出表率。', '三、以科学发展为主题，认真做好各项重点工作。(一)“机关效能建设年”活动深入开展。(二)解放思想主题实践活动取得重要成效。(三)开展深入实施西部大开发大学习活动。(四)认真开展“思想大解放，树立新形象”活动。(五)积极开展联系沟通工作。(六)“创先争优”活动为抓手，努力促进了机关党的建设和党风廉政建设上台阶上水平。(七)深入开展“学树创”活动，群众性文明创建活动丰富多彩。(八)注重办公环境卫生建设，树立政府办公室文明形象', '四、优化履职服务，建设服务型机关。准确把握服务型机关的职能定位，不断增强机关干部职工为政府领导服务、为政府部门服务的意识和本领，着力提高服务质量和水平，推进办文规范化、办会程序化、办事制度化，为履行各项职能提供了保障。(一)加强综合协调，综合服务水平不断提高。 (二)严格办文办会，政务服务质量明显提升。(三)规范法制建设，依法行政工作稳步推进。(四)强化督查督办，决策部署得到有效落实。(五)深入调查研究，参谋辅政作用充分发挥。(六)优化应急管理，处突应急能力显著增强。 (七)规范审批接待，外事侨务工作扎实开展。 (八)加强信息建设，政务信息公开不断推进。(九)积极统筹协调，后勤服务保障能力增强。(十)扎实推进精神文明建设。', '2007年以来，办公室在市委、政府的领导下，在自治区政府办公厅的指导下，全面完成了各项工作任务，在2009年、2010年度全市目标管理考核中分别获得了第三名、第四名的好成绩。但对照市委有关精神文明创建的要求还有一定的差距，我们有决心、有信心在今后的工作中，坚持以党的十七大精神为指导，以开展“思想大解放，树立新形象”活动为契机，紧紧围绕政府办公室职能，通过继续深入开展精神文明创建活动，切实转变工作方式，拓展工作领域，努力在求新、求变、求进上狠下功夫，推动精神文明建设不断向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>292</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>市政协四届十次主席会议召开</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-12-06</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201712/t20171206_624133.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['12月5日，市政协主席马玉芳主持召开市政协四届十次主席会议。市政协各副主席、秘书长参加会议，市政协各委办负责人列席会议。', '会议审议了《中国人民政治协商会议固原市第四届委员会常务委员会工作报告》（讨论稿）；《中国人民政治协商会议固原市第四届委员会常务委员会关于四届一次会议以来提案工作情况的报告》（讨论稿）、《政协固原市2018年协商工作计划、调研、视察、考察和界别活动课题》（草案）和《关于固原全域旅游工作情况的视察报告》（草案）等，听取了《关于赴苏州市考察学习情况的报告》。', '会议指出，当前正处于市政协四届二次会议筹备的关键时期，时间紧迫、任务繁重。各委办要统一思想，提高认识，加快会议筹备进度。各委办要认识到即将召开的市政协四届二次会议是贯彻十九大精神、习近平新时代中国特色社会主义思想、自治区第十二次党代会精神、市委四届二次全会和即将召开的市委四届三次全会精神的重要会议，是全市政治协商的最高形式，是政协委员参政议政的重要平台。', '会议要求，各委办要认真做好常委会工作报告、提案工作报告、协商计划的修改完善工作，同时要着力做好提案、大会发言等会议文件的征集修改工作，要按照既定的会议筹备方案，尽职尽责，扎实工作，全力以赴做好会前各项准备工作，确保会议如期召开。同时，还要做好自治区政协十一届一次会议大会发言和提案准备、市政协党组民主生活会准备、市政协班子和领导干部年终考核材料准备和机关年终考核的各项工作。要以十九大精神为引领，在全面总结、提炼各项工作特点的基础上，积极谋划明年工作，向市委、市政府建诤言、献良策，为加快脱贫攻坚、决胜全面小康献智出力。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>292</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>全区农村劳动力转移就业工作业务培训班在固原市举办</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202207/t20220718_3612637.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['7月15日－16日，全区农村劳动力转移就业工作业务培训班在固原市举办。各市、县（区）就业创业服务中心、重点乡镇从事农村劳动力转移就业工作业务人员100余人参加。自治区人社厅副厅长肖生勤、自治区就业与创业服务局翟嘉涛出席开班仪式并讲话。', '系统农村劳动力转移就业模块应用及全国农民工信息系统推广应用、农村劳动力转移就业统计报表及基础台账建立、', '2021年度巩固脱贫攻坚成果同乡村振兴有效衔接考核评估反馈就业帮扶方面问题整改落实等', '和服务水平，对于进一步强化就业帮扶政策落实、夯实基层数据统计基础、规范农村劳动力就业台账、提高人社一体化等信息系统运用水平、推进乡村振兴考核问题整改落实有很大促进作用。', '培训期间，还邀请了福建省劳动就业局副局长吴伟平及对口帮扶县（区、市）业务骨干参加，组织开展闽宁劳务协作座谈交流、实地考察、劳务输送对接等系列活动。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>292</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2016-03-22</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201603/t20160322_377469.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['3月21日，自治区党委常委、市委书记纪峥主持召开市委第6次常委会会议，研究市委统战部《关于召开市委统战工作会议有关事项的请示》；听取市委宣传部《关于举办纪念红军长征胜利80周年活动的请示》《关于赴银川、石嘴山学习考察新媒体建设与网络问政工作的报告》《关于赴江苏等地学习考察文明城市创建工作的报告》，研究我市贯彻意见；研究市委组织部《2016年固原市党的建设重点任务》；传达全区国有林场改革工作电视电话会议精神，研究我市贯彻意见。', '会议指出，各民主党派成员要凝聚思想共识，紧紧围绕脱贫攻坚统领全局这一主题，履职尽责、主动作为，为全市经济社会发展凝聚强大合力，为打赢脱贫攻坚战和全面建成小康社会贡献力量。突出“六盘儿女一家亲”这一特色，营造良好的社会氛围，深入推进民族团结进步创建活动。民主党派自身建设相对薄弱，要结合今年民主党派换届工作，加强市级组织、制度特别是领导班子建设。进一步加大对民主党派工作的支持，通过增加工作经费、支持举办活动等方式，为民主党派更好发挥作用创造良好条件。会议原则同意召开市委统战工作会议，同意成立市委统战工作领导小组。', '为隆重纪念红军长征西征胜利暨三大主力会师80周年，深入宣传党和人民军队的光荣历史，进一步传承我市红色基因，弘扬和践行伟大的长征精神，我市将举办纪念红军长征胜利80周年系列活动。会议指出，要通过活动的开展向全国介绍我市情况，引起更多人的关注，促进我市旅游产业、文化事业发展。', '会议指出，文明城市创建是一个日积月累、久久为功的过程。自治区文明城市创建，要制定切实可行的工作方案，细化职责分工，具体责任落实。要提高创建质量，通过开展创建活动，提升群众的文明素质。要紧盯重点领域、重点人群、重点范围，开展广泛的宣传教育活动，形成强大的舆论氛围，调动群众创建的积极性，实现全民创建、全面创建。', '3月14日，自治区党委、政府在银川召开了全区国有林场改革工作启动电视电话会议。在研究我市贯彻意见时会议指出，全区召开国有林场改革工作启动电视电话会议标志着我区国有林场改革工作全面启动，是自治区安排部署的一项重要工作，要充分认识重要意义，统一思想行动。我市作为国有林场改革的重要地区，涉及到体制机制、人员安置等诸多方面，市林业局、市委政研室等单位要积极配合，抓紧开展全市国有林场改革调研工作，摸清底数，理顺体制机制。改革工作中要结合我市实际，突出公益性，激发国有林场内部机制活力，将林业建设和产业发展结合起来，积极稳妥推进改革任务落实。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>292</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>固原市规划局参加固原市扶贫干部精准扶贫精准脱贫培训班</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018-11-22</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201811/t20181128_1184337.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['开班典礼上，固原市领导指出此次培训目的是通过组织全市扶贫干部实地学习兰考县脱贫生动实践，学习兰考县人民在精准扶贫精准脱贫等方面工作措施，学习焦裕禄艰苦奋斗改变贫困面貌的精神，有效提升固原市扶贫干部打赢脱贫攻坚战的能力和水平。', '此次培训紧紧围绕如何进一步提升当前固原市精准扶贫精准脱贫工作思路这一主题，采取现场教学+理论教学+经验交流的模式，学习了《脱贫攻坚工作考核评估的流程、内容及对策》《 河南省精准扶贫精准脱贫措施与主要做法》《“互联网+”精准扶贫》《习近平总书记精准扶贫战略思想解读》《区域性贫困与政府治理》等理论课程', '此次培训紧紧围绕如何进一步提升当前固原市精准扶贫精准脱贫工作思路这一主题，采取现场教学', '滑县自脱贫攻坚开展以来，实施精准扶贫、精准脱贫，大力推进产业扶贫、安居扶贫、教育扶贫、健康扶贫等脱贫工程，并出台长效帮扶政策，对全国脱贫攻坚具有示范和标杆价值。2017年10月23日，国务院扶贫办函告河南省脱贫攻坚领导小组，滑县脱贫摘帽通过国家专项核查评估。2018年8月2日，全国扶贫办主任座谈会在焦裕禄精神的发源地——河南兰考举行，国务院扶贫开发领导小组副组长、国务院扶贫开发领导小组办公室主任刘永富一行实地考察了兰考天地鸭业有限公司和丰产业园。刘永富对公司采取的“扶贫构树+绿色畜牧”的模式表示认可，希望公司在保证食品质量的同时，带动更多群众就业。', '滑县自脱贫攻坚开展以来，实施精准扶贫、精准脱贫，大力推进产业扶贫、安居扶贫、教育扶贫、健康扶贫等脱贫工程，并出台长效帮扶政策，对全国脱贫攻坚具有示范和标杆价值。', '本次培训安排内容丰富，时间紧凑。但我们相信，通过老师的悉心讲授，答疑解惑，加上学员们的广泛学习交流大家在理论上实务上一定会得到充实与提高，工作也一定会有新的突破，取得新的成绩']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>292</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>群策群力积极推进一窗受理集成服务工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-03-06</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201903/t20190306_1299788.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['为全面深化部门合作，减少办事环节，提高便民利民服务水平，通过“一个窗口排队，交一套资料，一次性缴纳税费”，全面实现不动产登记、房屋交易、税费缴纳 “一窗受理，集成服务”多部门联办的工作模式，打造便民利民的不动产登记服务体系。', '日下午，市住建局、财政局、税务局、不动产登记事务中心、原州区税务局召开了“一窗受理，集成服务”工作联席会议，各分管领导和相关科室负责人参加了会议。', '会上就“一窗受理，集成服务”工作倒计时间进行了安排部署，拟定工作方案，计划各相关单位抽调工作人员成立工作组专门负责“一窗受理，集成服务”技术平台招投标等事宜，尽快起草赴相关先进省市考察学习的请示上报市政府批准，加快推进“一窗受理，集成服务”工作。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>292</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>习近平在辽宁考察时强调在新时代东北振兴上展现更大担当和作为奋力开创辽宁振兴发展新局面</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202208/t20220819_3678545.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面_固原市人民政府', '习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面', '新华社沈阳8月18日电 中共中央总书记、国家主席、中央军委主席习近平近日在辽宁考察时强调，要贯彻党中央决策部署，坚持稳中求进工作总基调，统筹疫情防控和经济社会发展工作，统筹发展和安全，完整、准确、全面贯彻新发展理念，坚定不移推动高质量发展，扎实推进共同富裕，加快推进治理体系和治理能力现代化，深入推进全面从严治党，在新时代东北振兴上展现更大担当和作为，奋力开创辽宁振兴发展新局面，以实际行动迎接党的二十大胜利召开。', '8月16日至17日，习近平在辽宁省委书记张国清、省长李乐成陪同下，先后来到锦州、沈阳等地，深入革命纪念馆、河湖治理工程、企业、社区等进行调研。', '16日下午，习近平在锦州市首先考察了辽沈战役纪念馆。70多年前，中国共产党指挥人民军队取得辽沈战役胜利。习近平依次参观序厅、战史馆、支前馆、英烈馆，回顾东北解放战争历史和辽沈战役胜利进程，追忆广大人民群众支援前线的感人事迹和革命先烈不畏牺牲的英雄事迹。习近平指出，辽沈战役的胜利，充分体现了毛泽东同志等老一辈革命家高超的战略眼光和战略谋划。解放战争时期我们党同国民党的大决战，既是兵力火力之战，更是民心向背之争。辽沈战役胜利是东北人民全力支援拼出来的，淮海战役胜利是老百姓用小车推出来的，渡江战役胜利是老百姓用小船划出来的。民心是最大的政治，决定事业兴衰成败。只要我们党始终保持同人民群众的血肉联系，始终与人民同呼吸、共命运、心连心，就能拥有战胜一切艰难险阻的强大力量。习近平强调，学习党史是每一位党员的义务。要推动党史学习教育常态化长效化，引导广大党员、干部把学习党史作为必修课和常修课。', '这是16日下午，习近平在锦州市考察辽沈战役纪念馆时，亲切会见老战士老同志和革命烈士亲属代表。新华社记者 鞠鹏 摄', '习近平亲切会见了老战士老同志和革命烈士亲属代表，向他们表示诚挚慰问。习近平指出，东北人民不仅为辽沈战役胜利和东北解放付出了巨大牺牲，也为新中国建设和抗美援朝战争胜利作出了巨大贡献，党和人民永远不会忘记。我们的红色江山是千千万万革命烈士用鲜血和生命换来的。江山就是人民，人民就是江山。我们决不允许江山变色，人民也绝不答应。吃水不忘挖井人。新中国成立70多年来，经过一代又一代人艰苦奋斗，我们的国家发生了翻天覆地的变化，人民过上了全面小康生活，中华民族屹立于世界民族之林。我们要继续向前走，努力实现中华民族伟大复兴，以告慰革命先辈和先烈。各级党委和政府要关心老战士老同志和革命烈士亲属，让老战士老同志享有幸福晚年，让烈士亲属体会到党的关怀和温暖。红色江山来之不易，守好江山责任重大。要讲好党的故事、革命的故事、英雄的故事，把红色基因传承下去，确保红色江山后继有人、代代相传。习近平祝愿老战士老同志健康长寿、生活幸福、事事如意！', '随后，习近平来到锦州东湖森林公园，考察当地加强生态环境修复情况。公园位于小凌河和女儿河交汇处北侧。2014年起，锦州市对两河进行环境综合整治，并沿河修建了10余公里绿化带，形成了滨河健身休闲带状公园。习近平察看小凌河沿岸生态环境。他强调，良好生态环境是东北地区经济社会发展的宝贵资源，也是振兴东北的一个优势。要把绿色发展理念贯穿到生态保护、环境建设、生产制造、城市发展、人民生活等各个方面，加快建设美丽中国。生态文明建设能够明显提升老百姓获得感，老百姓体会也最深刻。要坚持治山、治水、治城一体推进，科学合理规划城市的生产空间、生活空间、生态空间，多为老百姓建设休闲、健身、娱乐的公共场所。', '这是16日下午，习近平在锦州市东湖森林公园察看小凌河沿岸生态环境时，同正在休闲、进行文化活动的群众亲切交流。新华社记者 燕雁 摄', '习近平现场听取了辽宁省防汛工作汇报。今年北方雨水偏多，辽宁入汛以来出现多轮强降雨过程，导致农作物受损、群众财产损失。辽宁省委和省政府在中央有关部门支持下，全力做好各项救灾救助工作，及时转移受灾群众近20万人，保证受灾群众有饭吃、有衣穿、有干净水喝、有临时安全住处、有病能及时就医，保持了社会大局稳定。习近平十分关心受灾群众的救援安置情况。他指出，8月仍是北方地区防汛关键期。各级党委和政府要坚持人民至上、生命至上，加强汛情监测，及时排查风险隐患，抓细抓实各项防汛救灾措施，妥善安置受灾群众，确保人民群众生命安全。要做好灾后恢复重建规划，帮助受灾群众尽早恢复正常生产生活。要健全体制机制，完善应对预案，加强对极端天气的预警和防范，提高洪涝地质灾害防御和应急抢险救援能力。当前，一些地方遇到严重干旱，要切实做好抗旱工作。', '这是16日下午，习近平在锦州市考察小凌河和女儿河环境综合整治情况，听取辽宁省防汛工作情况汇报，并就做好防汛工作、提高灾害防御能力作出重要指示。 新华社记者 燕雁 摄', '东湖文化广场上，正在休闲、进行文化活动的群众看到总书记来了，纷纷向总书记问好。习近平亲切地对大家说，中国式现代化是全体人民共同富裕的现代化，不能只是少数人富裕，而是要全体人民共同富裕；中国式现代化是物质文明和精神文明相协调的现代化，要弘扬中华优秀传统文化，用好红色文化，发展社会主义先进文化，丰富人民精神文化生活。党中央高度重视东北振兴。党的十八大以来，党中央实施深入推进东北振兴战略，我们对新时代东北全面振兴充满信心、也充满期待。锦州是一座英雄的城市，也是一座具有独特文化气质和深厚历史文化底蕴的城市。看到这里经过整治，生态环境、人居环境发生了巨大变化，感到很欣慰。希望大家增强保护生态、爱护环境的意识，共同守护好自己的家园。祝愿乡亲们今后生活更幸福更美好！', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，察看辽宁先进科技产品集中展示。新华社记者 鞠鹏 摄', '习近平17日在沈阳市考察调研。当天下午，他来到沈阳新松机器人自动化股份有限公司。在企业展厅，习近平听取辽宁新时代东北振兴整体情况介绍，察看辽宁先进科技产品集中展示，并考察了新松公司生产经营、自主创新情况。企业生产车间内，工业机器人、协作机器人、特种机器人等正在进行测试。习近平向技术人员和企业职工询问企业开展核心技术攻关等情况，对企业自主创新和产业化发展取得的成绩予以肯定，表示新松公司体现了中国速度、中国水平。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，了解公司生产经营、自主创新情况。新华社记者 鞠鹏 摄', '车间外，企业员工代表围拢在一起，习近平向大家挥手致意。习近平强调，党中央实施创新驱动发展战略，格外重视自主创新，格外重视创新环境建设，努力提升我国产业水平和实力，推动我国从经济大国向经济强国、制造强国转变。当前，经济全球化遭遇逆流，保护主义抬头，但我们要坚持敞开大门搞建设。我国发展既要扎扎实实、步步为营，又要开放包容、互利共赢，积极构建以国内大循环为主体、国内国际双循环相互促进的新发展格局。要坚持自力更生，把国家和民族发展放在自己力量的基点上，牢牢掌握发展主动权。全面建设社会主义现代化强国，实现第二个百年奋斗目标，必须走自主创新之路。要时不我待推进科技自立自强，只争朝夕突破“卡脖子”问题，努力把关键核心技术和装备制造业掌握在我们自己手里。青年人朝气蓬勃、充满活力，是企业发展希望所在。各级党委和政府要营造良好环境，充分激发青年人创新创造活力，鼓励他们在各领域勇于创新、勇攀高峰，为推动新时代东北振兴作出更大贡献。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司生产车间考察。新华社记者 鞠鹏 摄', '习近平随后来到皇姑区三台子街道牡丹社区。该社区建于上世纪80年代，共有3000多户居民，近年来经过基础设施改造和服务改善，成为基层治理示范社区。习近平先后走进社区党群服务中心、群众活动中心和养老服务中心，向社区工作者、幸福教育课堂的师生和老年志愿者了解当地加强基层党建、改善人居环境、开展为民服务等情况。在老年餐厅，习近平向正在用餐的老人们询问饭菜价格贵不贵、社区服务好不好、生活上还有什么困难。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区养老服务中心，向老年志愿者了解社区开展为民服务情况。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区群众活动中心，同幸福教育课堂的孩子们亲切交流。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区老年餐厅，同正在用餐的老人们亲切交流。新华社记者 鞠鹏 摄', '习近平走进居民李水家中，察看厨房、卫生间、卧室等，之后在客厅落座并同一家人亲切交谈。大家告诉总书记，社区经过改造，冬天屋里暖和多了，道路积水的问题也解决了，环境好，心情也好。现在孩子上学有着落，老人看病有托底，邻里和睦就像一家人。看到他们日子和美兴旺，习近平十分欣慰。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区，同居民李水一家拉家常。新华社记者 鞠鹏 摄', '离开社区时，居民们热情欢送总书记。习近平对大家说，小康梦、强国梦、中国梦，归根到底是老百姓的“幸福梦”。中国共产党的一切奋斗都是为人民谋幸福。他指出，老旧小区改造是提升老百姓获得感的重要工作，也是实施城市更新行动的重要内容。要聚焦为民、便民、安民，尽可能改善人居环境，改造水、电、气等生活设施，更好满足居民日常生活需求，确保安全。要加强社区服务，提升服务功能。老人和小孩是社区最常住的居民，“一老一幼”是大多数家庭的主要关切。我国已经进入老龄化社会。要大力发展老龄事业和老龄产业，有条件的地方要加强养老设施建设，积极开展养老服务。未成年人健康成长事关国家和民族未来，事关千千万万家庭幸福安康。社区要积极开展各种公益性课外实践活动，促进未成年人身体健康、心理健康、心灵健康。要加强社区基层党组织建设，加强和改进社区工作，推动更多资源向社区倾斜，让老百姓体会到我们党是全心全意为人民服务的，党始终在人民群众身边。习近平祝愿大家在新时代东北全面振兴发展中生活一天比一天好。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区考察时，同社区居民群众亲切交流。新华社记者 鞠鹏 摄', '这是17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。新华社记者 李刚 摄', '8月17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>292</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>关于报送固原市人民政府办公室二一一年上半年工作总结的报告</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2011-07-11</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_383761.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['按照市委办公室《关于报送2011年上半年工作总结和下半年工作打算的通知》（固党办发电[2011]62号）文件精神，现就市政府办公室2011年上半年工作开展情况和下半年工作打算汇报如下。', '上半年，在市委、政府的正确领导下，市政府办公室紧紧围绕全市中心工作，认真履行职能，充分发挥参谋助手、综合协调、督促检查等作用，与市委办、人大办、政协办积极协调，全面对接，圆满完成了上半年各项目标任务。', '（一）加强综合协调，综合服务水平不断提高。紧紧围绕市委、政府确定的工作重点，积极协助政府领导抓好各项工作。召开了政府全体会议，对《政府工作报告》确定的重点工作任务和14件大事28件实事进行任务分解和责任分工，市长与各副市长、各副市长与责任部门签订了14件大事目标管理责任书。努力发挥综合协调作用，加强与厅局、县（区）的联系衔接，把握重点工作和关键环节，确保市政府日常工作正常有序运转。组织有关部门，及时制定出台基础设施建设、民生事业改善、优势产业发展等一系列重大举措。围绕事关全市发展全局的工业、城市建设等重大基础设施项目，协助筹办了宁南区域中心城市暨大县城建设大会战动员大会。加大协调力度，完成了固原市部分供水及水处理管理权限的移交工作。', '（二）严格办文办会，政务服务质量明显提升。严格履行审核把关职能，按照“精文简会”的要求对市政府发文进行严格控制。认真起草政府领导讲话和各类公文，文稿质量明显提高，使政府各项决策部署及时准确地传达。上半年，严格按程序和规定及时处理各类来文来电680份，做到文电处理、档案管理和保密工作规范有序，起草制发政府各类文件、纪要432份，保证了政府文电工作的高效运转。加强会议服务和管理，严格执行会议审批制度，对以市政府名义召开的会议着力规范。加强会议议题的审核把关和会前协调，会议服务质量和效率明显提高，保证了政府全体会、常务会、市长办公会、专题会等各种会议顺利进行。及时办理领导批示，较好地保证了领导批示的贯彻落实和群众反映问题的有效解决。严格执行领导参与各项节庆活动的各项规定。', '（三）规范法制建设，依法行政工作稳步推进。充分发挥职能作用，依法审核行政规范性文件，加强政府规范性文件的起草、审查、修改，坚持对部门报送的规范性文件及时认真审查，确保政策措施的规范化和法制化。截止目前，已审查行政规范性文件草案7件,并按照自治区法制办要求，及时对规范性文件进行备案，2011年上半年报送备案规范性文件2件。加强行政执法监督，认真处理行政复议案件，共受理行政案件4件，调处行政纠纷2起。按照区法制办的要求，报送法制信息17篇。配合自治区有关部门立法调研工作10余次，保证了制定各类规范性文件的合法性、准确性。积极探索行政审批环节和运行机制改革新途径，进行了市直规范性文件清理工作，提高了规范性文件制定、报送、备案的质量和效益。', '（四）强化督查督办，决策部署得到有效落实。年初对自治区党委、政府下达我市的各项目标管理考核指标和政府工作报告重点任务进行了全面分解下达，保证了各项重点工作目标有布置、有落实、有督查、有考核。加强对市委、政府决策部署和市政府全体会议、常务会议、市长办公会议、专题办公会议决定事项及领导批办、交办事项的跟踪督查督办，及时将工作进展情况反馈政府领导，并将督查结果予以通报。督办率(含逾期督办率)、督办事项登记率、督办及时率均达到100％。强化中心工作任务落实的督查，综合运用随机抽查、重点检查、跟踪督办等方法，先后组织开展12次对2011年全市经济社会发展14件大事和改善民生28件实事以及生态移民、中心城市建设、解决民生问题等重点工作的专项督查，有力推动了各项目标任务的落实。做好人大代表议案、政协委员提案办理工作，年初将166件区、市两级人大代表议案、建议和政协提案、建议向各县(区)、各部门(单位)进行了分解,目前正在办理之中。', '（五）深入调查研究，参谋辅政作用充分发挥。围绕市委、政府确定的工作思路，加强信息的报送、调研和反馈，力求准确、及时、全面。截止目前，共编发政务信息346期，完成调研报告、理论文章15篇，向自治区政府办公厅和市委、政府领导报送了大量有情况、有分析、有建议的综合性信息，做到了下情上达,为领导的科学决策提供了依据。', '（六）优化应急管理，处突应急能力显著增强。在政府网站开通了应急管理栏目，大力开展应急科普知识宣传。深入开展应急管理工作，继续强化政府应急队伍建设，举办专业应急演练，督促有关部门建立专业应急救援队伍。坚持24小时值班制度，值班信息报送工作及时准确，及时完成了西吉1.29交通事故等突发事件处理工作。深入开展应急管理“一网五库”和“一案三制”建设，切实提高了政府应对重大、紧急、突发事件的快速反应和正确处置能力。', '(七）规范审批接待，外事侨务工作扎实开展。加强因公出国（境）管理，严格审批程序和审核签字关口，有效遏止了公款出国旅游现象。截止目前，审批办理因公出国（境）手续22人次，涉及招商、水利、区域经济、参会参展等考察、访问和培训内容。认真做好外事接待工作，完成了科威特驻华大使、外交部机关党校代表团、日本星火朋友会代表团到固原考察接待任务，受到自治区外事办的好评。积极争取外援项目，向国际计划组织争取了外援扶贫项目资金100万元。', '（九）积极统筹协调，后勤服务保障能力增强。按照“热情周到、规范高效、安全节俭”的原则，共完成了各级各类接待57批2526人次，圆满完成了李长春、刘延东等党和国家领导人的接待任务，受到了各级领导的好评。机关事务以管理科学化、保障有序化为目标，加强各项制度建设管理，工作效率明显提高。上半年完成了行政中心各种会务接待122场次，11000人次，就餐接待39批600人次。保障了3.2万人次职工食堂就餐工作。加强人民会堂管理，保证了各类会议和演出任务的顺利进行。', '（十）加强自身建设，整体形象提升明显。坚持以学促进，认真落实办公室各项学习制度，干部职工知识层次、思想境界不断提高。按照市委统一部署，扎实开展“思想大解放、树立新形象”活动，干部职工思想观念不断更新，办公室整体服务水平明显提升。深入推进党风廉政建设，年初签定责任书，严格遵守各项规定，认真执行申报制度，做到廉政工作与政务工作同部署、同检查、同落实。组织全体干部观看了廉政警示教育片，撰写了心得体会。继续开展勤政廉政承诺和廉政风险防范管理，组织全体干部结合自身实际进行了勤政廉政再承诺，廉政风险再查找，防范措施再完善。认真学习贯彻《固原市党政领导干部问责办法（试行）》和《固原市党和国家机关及其工作人员不当行为问责办法（试行）》，加强干部群众的管理教育，积极开展机关精神文明创建、“以人为本执政为民”、创优经济发展环境等活动。积极组织党员干部职工参加了庆祝建党90周年系列活动，爱党热情进一步发激发。完成了固原市春季造林暨市直机关义务植树任务。', '今年以来，政府办公室以机关运行和内部管理规范化建设为抓手，推动办公室“三服务”水平上台阶。特别是“思想大解放、树立新形象”活动开展以来，确立了以“深入开展服务性文明机关建设”为载体，以“塑公仆形象、创新文明办公、文明接待、文明服务方式”为目标的主题活动，办公室的整体形象得到了明显提升。一是形象更加良好。按照“思想大解放、树立新形象”活动的要求，干部职工干事创业、永争一流的作风得到有效发挥，形成了奋发有为、敢为人先、开放包容、勇于创新、激情干事的良好局面。二是运行更加规范。重细节、讲规范成为大家的自觉行动，各项政务服务质优效高，机关行政效能建设取得明显成效。三是素质更加提升。对干部职工的培训、教育和管理逐步走向规范化、制度化、经常化，干部职工的质量意识、服务意识、大局意识明显增强，干部队伍综合素质大幅提升。', '但还存在着一些问题和不足，主要是：参谋助手作用发挥得不够充分，对热点、难点问题研究得不够；政务工作质量和工作效率有待于进一步提高；机关行政事务管理和服务水平仍需要改进和加强。对于这些问题，需要我们在今后的工作中认真研究加以改进。', '下半年，市政府办公室将围绕市委、市政府的中心工作，进一步强化服务职能，加强综合协调，加大政府督查力度，提升政务事务服务水平，突出做好以下五个方面的工作：', '一是继续加强学习，进一步提升整体素质。在认真学习党的最新理论成果的基础上，注重学习事关全市经济社会跨越式发展的方针政策，全面领会精神实质，认真思考具体问题，不断学习与业务工作相关的经济、法律、科技、管理等方面的知识，切实提高办公室干部队伍的综合素质。树立雷厉风行、马上就办的工作作风，今天的事今天办，要紧的事跟踪办，使领导安排的工作事事有着落、件件有回音。进一步搞好廉政建设。大力弘扬艰苦奋斗、勤俭节约的优良作风，严格自律，勤政为民，干净干事，在机关努力营造风清气正的工作氛围。', '二是围绕中心工作，不断提高办文办会质量。围绕市委、政府中心工作，不断提高服务发展的质量和水平。树立精品意识，提高办文质量。严格执行公文处理办法，认真把好公文的起草关、审核关、运转流程关，使公文处理工作更加严谨、规范、精简、高效。努力提高文字写作水平，讲求精益求精，做到实事求是，进一步提高以文辅政的能力。切实从源头上精简会议、压缩文件，努力做到少发文、发短文，少开会、开短会，真正把工作精力和工作重点从文山会海中解放出来。加强会务服务，提高办会质量。', '三是加大督查力度，确保各项决策部署落实。加强对《2011年政府督查要点》确定的12项任务和市政府常务会议、市长办公会、专题会决定事项的督查工作，做好领导批示件、交办件的跟踪督办工作，尤其是要做好2011年事关全市经济社会发展14件大事和改善民生28件实事的督查、协调、落实工作。认真做好区、市两级23件人大代表议案建议和166件政协提案的办理工作。', '四是推进政务公开，全面加强电子政务和信息化建设。突出公开重点，深化公开内容，理顺公开流程，完善公开渠道，抓好载体建设，提升公开水平。继续实施电子政务网络安全技术应用示范工程，更新基础网络安全设备，完善政务信息公开系统，完成四级网上审批网络建设。加强政务信息采编工作，完成全年编发政务信息、信息参考任务。', '五是提高保障能力，扎实做好协调服务。把握协调重点，完善协调机制，确保各项任务顺利推进。对市委、政府决定的重点工作、重要事项，提前研究细化实施方案，明确责任、分解任务，严格质量标准和时限要求，确保工作及时跟进、措施落到实处。续做好规范性文件的审查、修改工作。建立政府与法检两院的联席会议制度。做好外事侨务工作，进一步推进对外开放。提高后勤服务保障水平，推进公务接待规范化管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>292</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>政务要闻</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/gyzzfgb/2018zfgb_37206/d8q/zwyw_56463/202111/t20211126_3167067.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['7月1日 自治区党委常委、市委书记张柱主持召开市扶贫开发领导小组会议，传达学习国务院扶贫开发领导小组《关于解决“两不愁三保障”突出问题的指导意见》精神、全区解决“两不愁三保障”突出问题和考核整改工作电视电话会议精神，听取各县区脱贫攻坚工作情况汇报，审定有关工作方案。自治区副主席、市长马汉成参加会议。', '7月2日 自治区副主席、市长马汉成在市区调研城市建设工作时强调，要坚持以人民为中心的发展思想，以新发展理念提升城市吸引力，城市让人民生活更美好。', '7月4日 市委财经委员会召开第二次会议，传达学习自治区党委财经委员会第二次会议精神，研究审议《2019年自治区新增债券及支持产业发展资金安排方案》和市本级政府债务化解工作。自治区党委常委、市委书记张柱主持会议并讲话。自治区副主席、市长马汉成出席会议，市委财经委员会委员参加会议。', '7月9日 自治区副主席、市长马汉成到市政务服务中心调研“163”政务服务模式运行情况。', '7月11日 市委常委会召开会议，传达学习习近平总书记在中央政治局第十五次集体学习时的重要讲话精神，传达学习中央纪委办公厅《关于贯彻习近平总书记重要批示精神深入落实中央八项规定精神的工作意见》和自治区党委书记石泰峰的批示精神，研究贯彻意见。自治区党委常委、市委书记张柱主持会议并讲话。', '7月12日至13日 自治区党委常委、市委书记张柱，自治区副主席、市长马汉成在泾源县、隆德县、西吉县、原州区调研脱贫攻坚、产业发展等重点工作时强调，要发挥基层党组织作用，发展壮大特色产业，带动困难群众增收致富，高质量打赢脱贫攻坚战。', '7月17日 我市召开创建国家卫生城市综合评审反馈问题整改任务分工会议，安排部署整改工作和创卫宣传工作，对标自治区综合评审反馈问题，压实整改责任，全面迎接国家暗访、综合评审工作。市委副书记杨刚参加会议。', '7月18日 西北中药材展销暨六盘山中药材发展学术研讨会在原州区开幕，全国中医药及相关行业专家汇聚一堂，为中药材产业发展出谋献策。自治区党委常委、市委书记张柱，自治区科技厅、市政府分管领导及相关部门负责同志出席开幕会。', '7月18日至19日 三北地区生态扶贫现场会在我市召开，参观学习我市生态扶贫的成功做法，总结交流三北地区生态扶贫的成就与经验，研究部署三北地区生态扶贫工作，全力推进三北地区生态扶贫再上新台阶。北京、天津、内蒙古、辽宁、陕西、宁夏、新疆等14个省市、自治区林业相关部门，高等院校、科研机构专家、教授，各界媒体70余人参加会议。自治区党委常委、市委书记张柱，国家林业和草原局三北局局长张炜、国家林业和草原局扶贫办副主任郝学峰，宁夏林业和草原局局长徐庆林，市委副书记杨刚出席会议。', '7月23日 参加六盘山片区政协精准扶贫交流推进会第五次会议的与会代表在我市开展分组讨论和考察活动。青海省政协主席多杰热旦、自治区政协主席崔波，国家有关部委，陕西、甘肃、新疆等省区政协有关领导和政府部门相关人员参加考察活动，自治区党委常委、市委书记张柱，自治区副主席、市长马汉成分别陪同。', '7月23日至24日 中国城镇供水排水协会副会长兼秘书长、国家住房和城乡建设部城建司原副司长章林伟带领国家专家组，对我市海绵城市建设试点工作进展情况进行现场督导，并召开汇总报告会。自治区副主席、市长马汉成，市发展改革委、财政局、自然资源局、生态环境局、住房城乡建设局等部门负责人参加报告会。', '7月26日至27日 中共中央政治局委员、国务院扶贫开发领导小组组长胡春华在宁夏回族自治区固原市调研脱贫攻坚工作。他强调，要深入学习贯彻习近平总书记关于扶贫工作的重要论述，按照党中央、国务院决策部署，针对“三保障”和饮水安全存在的薄弱环节，进一步强化责任担当，落实攻坚举措，加快补齐短板，确保如期打赢脱贫攻坚战。', '7月30日 “八一”建军节前夕,受自治区党委常委、市委书记张柱，自治区副主席、市长马汉成委托，市人大常委会主任罗永红、市政协主席马玉芳分别带队到武警固原支队、武警固原支队机动中队、固原消防支队、固原军分区等地，代表市委、人大、政府、政协看望慰问驻固部队官兵，感谢驻固部队在维护社会和谐稳定和促进地方经济建设方面作出的积极贡献，并向他们送上节日的祝福。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>292</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018-12-28</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201812/t20181228_1234663.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['12月27日，市委常委会召开会议，传达学习中央经济工作会议精神，研究贯彻意见；听取全市意识形态工作汇报，听取市扫黑除恶专项斗争考察组赴重庆、福建考察学习情况汇报，研究《关于召开中共固原市委四届四次全体会议的请示》、讨论《市委常委会工作报告》《固原市委2019年工作要点》。受自治区党委常委、市委书记张柱委托，自治区副主席、市委副书记、市长马汉成主持会议并讲话。', '会议指出，中央经济工作会议明确提出了明年经济工作的总体要求、主要目标、政策取向和重点任务，为我们做好明年经济工作指明了方向、提供了遵循。各级党政组织要认真组织学习领会，把会议要求贯彻落实到明年各项具体工作中。要坚决打好“三大攻坚战”，按照党中央和自治区党委的部署要求，巩固“三大攻坚战”已有成果，针对突出问题，精准施策、全力攻坚。要持续推进经济高质量发展，认真谋划一批高质量的大项目、好项目，大力培育具有引领能力的骨干企业和具有市场优势的新动能，着力构建现代产业体系。要坚定不移推进改革开放，聚焦突出矛盾和关键环节，统筹抓好重点改革任务落实落地。要着力保障和改善民生，下大力气解决群众反映强烈的突出问题，让群众有更多获得感幸福感。要做好岁末年初各项工作，做好效能考核、安全生产、矛盾纠纷化解、农民工工资发放等工作，安排好困难群众生产生活、生产供应保障，营造祥和稳定的社会环境。', '会议强调，全市各级党组织要履行好职责，切实做好新形势下意识形态工作。要旗帜鲜明把牢方向，坚持不懈用习近平新时代中国特色社会主义思想武装头脑、教育群众，增强“四个意识”，坚定“四个自信”。要守好意识形态阵地，从严从紧压实责任，宣传部门要加强对意识形态工作的指导、组织、协调、考核，纪委监委、巡察办要把意识形态工作作为政治巡察的重要内容，推动责任落到实处。要积极营造良好氛围，组织开展庆祝新中国成立70周年宣传教育活动，营造正能量充沛、主旋律高昂的浓厚氛围。', '会议强调，要对标党中央关于扫黑除恶专项斗争的具体要求，借鉴好经验好做法，明确主体责任，主动担责。要理清突出问题，找准发力点，在工作中形成长效机制。要加强督导，压实责任，聚焦重点领域，敢于动真碰硬，实打实开展好扫黑除恶专项斗争。', '会议审议并通过《关于召开中共固原市委四届四次全体会议的请示》《市委常委会工作报告》《固原市委2019年工作要点》，要求认真做好全会筹备各项工作。市委四届四次全体会议拟于2019年1月2日召开。', '会议还研究了2019年全市经济社会发展主要预期目标、递补市第四届委员会委员等事宜。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>292</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202307/t20230730_4199336.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察_固原市人民政府', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>292</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>深化闽宁协作巩固脱贫成果助推乡村振兴</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202207/t20220720_3616476.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['突出重点，抓住关键，深入实施“十四五”闽宁协作规划，持续加大协作力度，助力巩固拓展脱贫攻坚成果、助推乡村全面振兴。', '高度的政治自觉，把“两个确立”“两个维护”“四个意识”“四个自信”内化于心、外化于行，', '始终遵循习近平总书记提出的“优势互补、互惠互利、长期合作、共同发展”的原则，坚持不懈、久久为功', '。7月12至16日，市委书记冼国义同志带领党政代表团一行12人赴福建考察学习，先后到福州市、厦门市、龙岩市进行考察，招商引资。截止6月底，福建省各级领导来固考察调研7次', '我市五县（区）各选派2名干部到结对县（市、区）挂职锻炼。福建挂职干部紧扣我市巩固拓展脱贫攻坚成果同乡村振兴有效衔接具体工作，发挥自身资源优势，积极协调资金支持、精准谋划闽宁项目、加大招商引资力度，助推我市乡村全面振兴。', '积极推广福建飞毛腿技师学院“1＋1＋1”模式，支持福建用工企业和职业院校来固合作办校、定向培训、精准就业。', '推动实施乡村建设行动，进一步完善基础设施建设，围绕人居环境整治提升，抓好改厕、生活垃圾、污水治理等工作，助推乡村全面振兴。', '三、促进乡村全面振兴。不断拓展协作深度，创新协作方式，优化协作机制，携手助推乡村振兴。一是提升产业园区建设。共建产业园区7个（其中农业产业园2个），引导入驻园区企业13个，实际到位投资额2.766亿元，吸纳农村劳动力就业1417人（其中脱贫劳动力247人）。二是持续加大招商引资。引导更多闽籍企业入驻固原、投资闽宁产业园区，不断提升园区自我发展能力。截至6月底，引导新增落地投产闽籍企业23家，落地项目10个，实际到位投资额4.89亿元，吸纳农村劳动力就地就业313人（其中脱贫劳动力94人）。三是加强人才交流。加大优秀干部挂职和专业技术人才交流，帮助我市加快补齐社会事业发展短板，不断提升教育、医疗、养老等公共服务水平。选派专业技术人才（含教师、医生等）243人，其中帮扶7个月以上118人。四是加强干部培训。举办乡村振兴各级各类干部培训班10期3156人次；举办乡村振兴专业技术人才培训19场次557人次。五是动员社会力量参与。积极动员闽籍工会、共青团、妇联、工商联、科协、慈善机构、基金会等群团和社会组织，在捐资助学、医疗救助等领域开展帮扶。截至6月底，投入帮扶资金300多万元，捐物折款40万元。六是打造乡村振兴示范。集中优势资源打造闽宁乡村振兴示范村。通过示范引领，助推固原乡村全面振兴。今年，计划打造闽宁乡村振兴示范村17个、总投资1.9亿元，目前已启动15个。', '加大优秀干部挂职和专业技术人才交流，帮助我市加快补齐社会事业发展短板，不断提升教育、医疗、养老等公共服务水平。', '积极动员闽籍工会、共青团、妇联、工商联、科协、慈善机构、基金会等群团和社会组织，在捐资助学、医疗救助等领域开展帮扶。截至']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>292</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>固原市商务和投资促进局党组关于落实五届市委第五巡察组巡察反馈意见整改情况的报告</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202309/t20230904_4248465.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['固原市商务和投资促进局党组关于落实五届市委第五巡察组巡察反馈意见整改情况的报告_固原市人民政府', '根据市委巡察工作统一部署，2022年11月11日至2023年1月10日，市委第五巡察组对我局党组开展了常规巡察。2023年3月17日，巡察组向我局党组反馈了巡察意见。为全面做好巡察整改工作，确保巡察反馈意见真改实改改到位，局党组高度重视，认真制定整改方案，明确整改措施和时限，现将阶段整改情况汇报如下：', '坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻习近平总书记关于巡视工作的重要论述精神，全面落实《中国共产党巡视工作条例》和中央、区、市党委关于巡察工作的决策部署，深刻领悟“两个确立”的决定性意义，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，履行巡察整改主体责任，通过专题学习、建章立制等，切实将做好巡察整改工作融入日常、抓在经常。', '针对巡察反馈意见，局党组主动认领，照单全收，党组书记认真履行第一责任人职责，多次主持召开党组会及巡察整改专题会议，成立了以局党组书记为组长，党组成员、副局长为副组长，各科室（中心）负责人为成员的整改工作领导小组，制定了《中共固原市商务和投资促进局党组落实五届市委第五巡察组巡察反馈意见整改工作方案》等', '3个工作方案，明确整改任务、落实责任和整改时限，整改情况按要求报送市纪委监委第一监督检查室，并分别抄送至市委组织部、宣传部、巡察办和纪委监委派驻第三纪检监察组。', '把巡察整改作为全局一项重要政治任务抓紧抓好、抓细抓实。集中整改阶段，局党组书记带头深入各县（区）调研商务经济运行、招商引资、商务“三优”产业等，其他班子成员深入全市商贸流通企业，结合自身分管领域，因企施策、主动作为，以落实巡察整改任务推动职责范围内工作落到实处。党组成员通过党组理论学习中心组学习、干部理论学习等方式，在广泛征求意见的基础上，高标准召开巡察整改专题民主生活会。通过开展谈心谈话、主动查摆认领巡察指出的突出问题、撰写领导班子对照检查材料和个人对照检查材料等，深入检视剖析，明确今后的努力方向，班子成员之间逐一开展批评和自我批评，为做好巡察整改“后半篇文章”奠定了思想基础、明确了努力方向。', '根据巡察反馈意见，局党组深入剖析深层次原因，逐条逐项列出责任领导、责任科室及责任人、完成时限和整改措施，建立了巡察反馈意见整改台账，实行“动态管理、挂账销号”的方式督促各责任人压实责任。坚持“当下改”与“长久立”相结合，把制度建设贯穿巡察整改全过程，围绕短板弱项，坚持举一反三，优化完善《党组议事规则》《财务管理制度》等各项规章制度', '，对标对表巡察反馈高质量发展问题，以“全年乐享、全民盛惠”为主题，深入开展“消费需求促进年”系列活动121场次，切实打好促消费“组合拳”，升腾城市“烟火气”', '（一）贯彻落实党的理论和路线方针政策和党中央决策部署及区、市党委工作部署有差距方面', '1.学习贯彻习近平经济思想和党的二十大精神不够到位，对二十大报告中提出的加快构建新发展格局、着力推动高质量发展方面，缺少具体有效的落实措施。', '通过党组理论学习中心组、干部理论学习等集中学习了习近平经济思想和党的二十大精神等；', '》《固原市外贸外资“一计划五机制”工作实施方案》和现代物流、电子商务、特色餐饮、会展博览产业2023年工作方案，并责任到人抓落实；', '高质量举办了“固乡情意长·原汁原味香”经典美食大赛暨避暑文化旅游节等促进和扩大消费活动', '紧盯全年招商引资目标任务，及时更新储备项目库，积极对接洽谈项目，促成了闽泰纺织、中迪纺织、帝融集团预制菜产业园、宝鸡大地有机肥等一批重点项目落地建设；', '举办电商直播活动，加大电商经营主体培育，提升农产品上行能力，推进电子商务与特色产业融合发展。', '5%以上，批零住餐饮业额分别同比增长10%以上，招商引资到位资金增长20%以上，进出口总值增长150%以上，商务经济运行质量排名全区第一。', '修改完善党组会议“第一议题”制度，始终坚持在党组会议、理论学习中心组、干部集中学习中将习近平总书记系列重要讲话精神列为第一议题；', '制定并落实《党组理论学习中心组学习计划》，明确每月学习主题及学习内容，组织党组理论学习中心组学习6次，干部理论学习21次，党组会议学习11次', '，制定《2023年意识形态工作计划》，组织召开第一季度意识形态分析研判会议，对第一季度意识形态风险隐患进行了排查，并按要求将排查结果及时上报市委宣传部。', '加强顶层设计，先后制定了招商引资“11225工作计划”，印发《关于下达2023年全市招商引资指导性目标任务的通知》《长三角地区招商引资重点意向项目任务分工》等文件资料，盯着抓落实。', '党政“一把手”带队外出招商40批次，各级招商小分队外出招商66批次，共考察企业486家、对接洽谈合作项目364个。', '建立在谈项目、签约项目、开工项目三本台账，实行动态管理。开展招商引资“赛比促”活动，开展招商引资工作督查两次，以督查通报形式激励先进、督促后进，督促各招商引资责任主体和企业加快项目签约落实和建设进度。', '起草《商务发展项目管理制度》《商务项目资金管理实施细则》，规范项目管理，做到按制度办事；', '按照要求对2020年企业境外路牌宣传费项目资料补充完善，督促企业提高资金利用效率；', '。对宁夏东方安卓信用评级评估有限责任公司营业执照和环境管理体系、质量管理体系、信用管理体系认证证书等进行了查验，确认该公司具有项目实施资质和实施能力。制定项目实施和管理相关制度，确保以后再不发生此类问题。', '切实发挥产业专班作用，积极开展招商引资，先后赴上海、福建、西安等地开展招商活动4次；', '持续推进寄递物流体系建设，在西吉县、隆德县开展客货邮商融合发展试点，全市乡镇实现快递业务全覆盖，行政村快递进村覆盖率达93.3%。', '制定《固原市商贸服务业家政培训项目及资金管理办法》，严格按照要求精心组织，并对相关资料第一时间进行核实，确保培训效果。', '开展“新春归固里 欢乐过大年”“辞旧迎新·年味固原”“约惠春日·乐购固原”等主题等促消费活动51场次，实现社会消费品零售总额32.46亿元，同比增长5%，比全区高3.2个百分点，增速居五市第二；“五一”期间，', '以“固原好味道·醇香飘四海”为主题，全面开展商旅文体融合，线上线下互动，政银企联动的促消费活动，营造', '带动餐饮、零售、商场等消费场所客流量51万余人次，同比增长26%以上；举办“固乡情意长·原汁原味香”经典美食大赛暨避暑文化旅游节活动，', '经各县（区）初评推荐，50多家餐饮企业147道菜品参加十大必吃金牌菜、黄牛宴、全羊宴、土豆宴、杂粮宴、特色传统（创新）主题宴和面食（面点）、名小吃比赛，进行展评展销。网络投票阶段，累计投票26万多，访问量80万+，', '组织外贸企业积极参加第133届广交会，巩固主要贸易伙伴，开拓泰国、印尼、斐济等新的贸易伙伴。1-5月分实现进出口总值1.02亿元，同比增长243%。预计，全市可提前4年完成自治区外贸5年倍增计划。', '组织人员对2020年现代物流发展项目申报材料进行了复验，进一步查漏补缺，保证项目资料的完整性。', '深入学习、贯彻落实习近平总书记关于安全生产的重要论述精神，在重大节假日、重要时间节点前召开专题会议研究部署安全生产工作；', '常态化组织人员对行业领域商场、餐饮、住宿、加油站、市场等商贸服务业场所开展安全风险隐患排查、整治，确保人民群众生命财产安全和社会安全稳定；', '完成了2022年全市加油站年审工作，组织全市民营企业参加全区成品油流通行业培训班，督促民营加油站规范经营；', '组织各县（区）商务主管部门对餐饮场所安装燃气报警器情况进行了排查整治，督促企业规范经营。', '制定实施《2023年全面从严治党党风廉政建设和反腐败工作安排》《全面从严治党“三个清单”》，', '严格按要求召开全面从严治党党风廉政建设专题会议，从严部署和落实党风廉政建设责任制。', '制定了《“廉政警示教育月”活动实施方案》，主要负责人与班子成员、班子成员与各科室（中心）负责人层层签订了党风廉政建设责任书，盯着抓落实；', '结合形式主义官僚主义专项整治，开展了廉政警示教育主题党日活动，在节假日、重要时间节点前都组织召开专题会议，研究部署党风廉政建设工作并进行集体谈话。', '制定了《领导干部廉政风险防控一览表》，明确了班子成员、各科室（中心）及主要负责人责任；', '按照廉政风险排查工作要求，各班子成员、各科室（中心）主要负责人开展了党风廉政建设风险排查，形成了责任清单，并明确了防范措施、完成时限等。', '已完成，并长期坚持。组织学习了《关于实行党风廉政建设责任制的规定》、中央八项规定及其实施细则精神、自治区“若干规定”、固原市“十项规定”等，及时跟进学习了中央纪委监委，自治区、固原市委关于违规典型案例通报，通过观看警示教育片、传达忏悔录、交流研讨等形式，教育全体党员干部时刻用别人的案例警示自己，真正做到“以案促改”。', '对2019年以来召开的民主生活会查摆出的问题进行了重新梳理，对未整改完成的及时制定了责任清单，明确了责任人、责任科室和完成时限，现已全部整改完成；', '在广泛征求意见、专题学习、反复酝酿的基础上，高质量召开了2022年度民主生活会，严格按要求制定了整改清单，并按整改措施和完成时限有序推进。', '制定了《关于开展纠治形式主义官僚主义专项整治的实施方案》（固商投党组〔2023〕3号），严格按要求进行专题学习、交流研讨、查找问题不足等；', '制定了全年工作任务清单，制作作战图挂图作战，做到责任到人、按月督办、对账销号，截至目前，已基本完成上半年工作任务。', '修订完善《党组议事规则》，明确局党组议事基本原则、议事内容、议事规则、议事程序等；', '党组书记严格落实末尾表态制，截至目前召开的11次党组会议，资料提交、意见发表、会议记录、会议纪要等严格按规则执行；', '加强办公室人员配置，在单位人员力量极其紧张的情况下，为办公室配备了2人（其他科室仅有科长1人），保证了各项工作正常开展。', '制定《工会经费使用管理制度》，在开展工会各项活动和经费使用时，严格按照《中华人民共和国工会法》和工会经费管理要求进行；', '21.对资金使用情况不检查不问效，为完成任务委托第三方进行统计、评价，数据真实可靠性难以保证。', '制定《固原市商务投资促进局项目资金管理制度》《固原市商贸服务业家政培训项目及资金管理办法》，规范项目管理，做到按制度办事。', '对项目建设采取先建后补，以自审和委托第三方绩效审核相结合的方式，对项目实施情况全程跟踪，确保项目实施质量。', '安排党务工作人员参加由市直机关工委组织的全市党务工作者专题培训班，强化党建业务知识学习，提升党建工作水平。', '安排专人记录固原市机关党建工作纪实簿，强化党员管理和党务工作规范化建设，紧盯关键环节和关键节点，提前谋划做好2023年党支部换届准备工作。', '组织党员学习《中国共产党支部工作条例（试行）》《关于新形势下党内政治生活的若干准则》《中国共产党章程》等，熟练掌握支部换届流程，确保程序合规、环节完整。', '2022年4月经请示市直机关工委同意后，对市商务和投资促进局党支部进行补选，经支委会推荐、审议、党员大会投票，选举出党支部书记1名、副书记1名、组织委员1名、宣传委员1名，补选程序符合相关规定。', '24.2019年第一、二季度党员评星定格过程中未经过支部党员大会讨论；2021年第四季度党员评星定格缺少民主测评、结果统计、结果公开等资料，“双评双定”正向激励和反向监督作用发挥不够。', '加强党员学习教育工作，每季度召开一次党员学习教育会议，传达学习习近平总书记系列重要讲话和指示批示精神，区、市党委各次会议精神，集中学习党务知识，不断提升党员理论知识水平和党建业务能力，确保党建工作有序推进；', '2023年3月召开支部委员会研究一季度民主评议工作，召开党员大会开展民主测评，对民主测评结果在党员大会进行通报，并在全局范围内进行公示公开。', '对2019年和2020年组织生活会召开情况进行了重新查验，因相关工作人员均已调离本单位，已电话或当面告知今后党务工作注意事项；', '严格按照程序开展2022年组织生活会，从方案制定、理论学习、谈心谈话、征求意见、撰写发言提纲、总结报告等环节全过程监管，确保了组织生活会规范召开；', '结合主题党日活动安排，组织全体党员深入西吉县什字乡唐庄村、原州区人民法院开展主题党日活动。', '组织干部认真学习研讨《中国共产党机构编制工作条例》《党政领导干部选拔任用工作条例》《公务员职务与职级并行规定》《自治区党委组织部关于印发&lt;党政领导干部选拔任用工作全程纪实办法&gt;的通知》等文件精神；', '选派分管领导和业务骨干参加了全市干部工作政策专题培训会2次，提升干部选拔任用过程管理能力；', '对今年调入我局的2名同志，严格落实程序规定，在正式调入前组成考察组赴原工作单位开展考察谈话，各项程序符合规定。', '完善《干部平时考核办法》，每季度详实记录干部职工德、能、勤、绩、廉等方面情况，作为干部选拔任用的重要依据；', '在2022年度考核时，严格按照个人自评、民主推荐、党组会议研究的程序评选出优秀1人；', '以此次巡察反馈专题民主生活会为契机，将做好巡察整改“后半篇文章”作为检验对党忠诚、对人民负责的“试金石”，坚持把补短板、加速度、提效能、重实干贯穿工作始终，扎实做好巡察整改“后半篇文章”和下阶段重点工作，为全市经济社会高质量发展贡献商务力量。', '深入学习贯彻党的二十大精神和习近平总书记视察宁夏重要讲话指示批示精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”。对照党的二十大提出的新思想新论断、作出的新部署新要求，持续深入学习贯彻落实习近平总书记关于巡视工作的重要论述精神和区、市党委关于巡察整改工作的决策部署，以求真务实的态度，驰而不息把全面从严治党不断引向深入，切实推动全市商务工作高质量发展。', '严格按照谁主管谁负责、层层抓落实的原则，一级抓一级，层层抓落实，继续扛稳抓实巡察整改政治责任。将巡察整改工作与商务和投资促进作同部署、同推进、同落实，结合内贸促消费、外贸扩开放、全力抓招商、统筹谋产业等商务工作主责主业，将巡察整改融入到业务工作的每一个具体环节，为建设宁夏副中心城市和生态文旅特色市贡献商务力量。加强督促检查，全面推进各项工作落实，切实把巡察成果转化为推动发展的动力。', '坚持“当下改”和“长久立”相结合，坚决防止问题反弹。对已整改完成的工作任务适时开展“回头看”，坚决防止问题反弹，对长期推进的整改任务，持续跟踪问效。坚持用制度管人管事，运用已经优化完善的各项规章制度，真正使整改工作成为全面加强党的建设、落实全面从严治党、增强党组织战斗堡垒作用、强化党的领导能力，推动商务和投资事业提升、转变党员干部作风的落脚点，以规章制度的权威性、严肃性，营造人人遵规守纪、处处风清气正的良好商务环境。', '2023年3月17日，五届市委第五巡察组向我局党组和我个人反馈了巡察意见，按照《中共固原市委巡察工作领导小组印发&lt;市委第五巡察组关于巡察市商务和投资促进局党组的反馈意见&gt;的通知》（固巡发〔2023〕8号）要求，局党组高度重视，我作为党组书记，把巡察整改工作作为重要的政治任务，牵头抓整改，组织召开巡察整改工作党组（扩大）会议、专题民主生活会，逐条对照反馈问题，快速行动、压实责任、真抓实改。经过近三个月的集中整改，整改工作已取得初步成效，现就巡察反馈问题整改落实情况报告如下：', '市委第五巡察组向市商务投资促进局党组和我个人反馈的巡察意见，本人完全同意、照单全收，深刻反思，认真剖析问题根源，制定整改措施，做到即知即改、立行立改、全面整改。作为党组主要负责人，把巡察整改作为“一把手”工程，放在突出位置抓好落实，先后组织召开了党组（扩大）会议、巡察整改专题民主生活会，对巡察反馈问题整改工作进行专项安排部署、开展了批评与自我批评，进一步统一了思想。坚持把巡察问题整改看作是优化全局政治生态的重要机遇，积极引导班子成员和党员干部把思想统一到巡察组反馈问题整改上来。在自身做出深刻自我批评的基础上，督促其他领导班子成员认真履行好“一岗双责”，抓好职责范围内的各项工作，为积极整改奠定了良好基础。', '作为局党组主要负责人，我全面担负起整改工作“第一责任人”职责，切实把整改责任扛在肩上、放在心上。巡察反馈会召开以后，及时成立了由我任组长、党组成员为副组长和各科室（中心）负责人为成员的巡察整改工作领导小组，统筹推进巡察整改工作，为巡察整改工作有效落实提供组织保障。第一时间主持召开党组（扩大）会议，制定巡察整改方案，专题研究巡察整改工作，明确了党组成员和分管领导的责任和整改时限，确保整改工作有序推进。在整改过程中，属于我牵头整改的，我带头整改；属于班子成员的，要求按照职责分工，严格做到守土有责、守土尽责、靠前指挥，并对巡察组指出问题的整改进度进行跟踪督查，确保整改落实。整改工作在局党组统一领导下有序推进。', '对标巡察反馈的意见，市商务投资促进局党组集中精力、突出重点、精准发力，整改工作取得了阶段性成效。但还存在针对巡察反馈问题举一反三不够、细节把控还不够到位、推动商务工作高质量发展还有差距，在用巡察整改促进观念转变、增强工作能力、提升工作效能上，结合还不够紧密的问题。分析问题的根源，主要是把巡察整改与提升全局工作整体水平的统筹结合和融会贯通不够，需要进一步加强和改进。', '市商务和投资促进局是市政府工作部门，内设办公室、经济合作科、商贸流通科、消费促进科。核定行政编制11名，现实有在岗人员', '主要承担全市社会消费品零售总额、招商引资到位资金、进出口总额和批发业、零售业、住宿业、餐饮业营业额', '对外经济合作、市场体系建设、商务领域市场秩序规范和整顿、消费品市场调控和生活必需品流通管理、进出口商品管理、药品流通发展、成品油市场监管、外销窗口建设以及市场保供、商务领域安全生产等职责，其中对', '由于工作任务繁重多头，人员编制严重短缺，导致全市商务工作一直处于被动应付状态，全体工作人员虽长期加班加点、节假日无休', '以4个科室（其中3个科室只有1名工作人员，1人病事假一片工作瘫痪的情况时有发生）对应自治区商务厅18个处室、1个派驻机构、3个厅属机构和宁夏贸易促进委员会4个处室。市本级层面', '在全市65个议事协调机构中，我局承担主要职责的有28个，直接牵头负责的2个，在具体工作落实过程中往往力不从心、无暇顾及，导致工作质量不高。县（区）层面，商务工作职能均挂靠在发改或工信部门，只有1—2人应对简单的商务日常工作，市一级商务部门处在上面婆婆多、下面没有腿的尴尬境地', '我将严格落实整改工作“第一责任人”职责，进一步提升政治站位，深刻领悟“两个确立”的决定性意义，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”增强“四个意识”，对于巡察发现的问题做到即知即改、建章立制、长期坚持、巩固深化、形成长效，', '坚持以习近平新时代中国特色社会主义思想为指导，始终把政治建设摆在首位，对标党员标准和工作要求，结合', '教育，不断强化初心使命，坚定理想信念，自觉提高政治领悟力、政治判断力和政治执行力。深入学习习近平经济思想和党的二十大精神，对照党的二十大报告中提出的加快构建新发展格局、着力推动高质量发展，以开展“消费需求促进年”活动为抓手，开展好各类促消活动，积极赴长三角、京津冀等地开展招商引资，奋力开创消费促进、外经贸、招商引资等工作新局面。', '市政府各项决策部署，团结带领班子成员谋划抓主业，攻坚克难抓重点，俯下身子抓落实，一件一件出成效。聚焦“联通内外、贯通城乡、对接产销”的商务职能，勇于创新，千方百计扩消费、抓招商，多措并举稳外贸，全力以赴抓产业、保供应、保安全，为商务工作高质量发展增添新动能，做到久久为功。狠抓专业知识学习，熟悉法律法规，坚持依法办事，增强工作本领，以“功成不必在我、功成必定在我”的决心履职尽责，确保全面高质量完成市委巡察反馈意见整改工作和《政府工作报告》明确的各项目标任务。', '民主集中制，坚持把纪律和规矩挺在前面，坚持“三重一大”事项集体决策，落实全面从严治党和党风廉政建设党组主体责任，认真履行党组书记第一责任人职责，加强廉政教育，要抓好班子，带好队伍，夯实基层党建工作，高度重视意识形态工作，完善制度机制，加强意识形态阵地建设，自觉过好廉洁关，做到守土尽责。', '严格按照市委巡察组巡察反馈的10个方面28条具体意见，对标对表，全力以赴抓好巡察整改“后半篇文章”。结合整改建立健全各项规章制度，真正使整改工作成为全面加强党的建设、落实全面从严治党、增强党组织战斗堡垒作用、强化党的领导能力，推动商务和', '事业提升、转变党员干部作风的落脚点，以规章制度的权威性、严肃性，营造人人遵规守纪、处处风清气正的商务', '根据市委巡察工作统一部署，市委巡察办于2023年3月16日对我局党组下发了《督办函》（〔2023〕12号），按照要求，现将市委书记点人点事整改落实情况报告如下。', '一是在建设市级电子商务交易和公共服务平台，推进电商多业态、多领域融合发展工作中缺乏产业发展规划指导；二是换届程序不规范。', '针对提出的问题，局党组把市委书记点人点事问题整改作为一项重要政治任务，高度重视，主动认领，及时召开专题会议，安排部署整改工作，明确了责任领导、责任科室和完成时限，确保整改取得实实在在的效果。', '（一）针对“在建设市级电子商务交易和公共服务平台，推进电商多业态、多领域融合发展工作中缺乏产业发展规划指导”。', '制定了《固原市电子商务产业专班工作方案》《固原市2023年电子商务产业工作方案》，聚集发展电子商务服务企业、推动企业应用电商发展、健全农村电商服务体系、培育电商新业态新模式、加大电商人才培养等方面，指导全市电子商务产业高质量发展。', '先后赴上海、浙江、重庆等地开展产业招商活动4次，共邀请5家电商企业来我市考察对接，目前在谈项目2个，落地建设项目2个（闽宁特产馆电商运营中心、隆德县农产品电商直播基地项目）。', '培育六盘优选商城等电商平台12个、网红主播23名。原州区新培育电商企业5家，发放电商奖补资金46.1万元。西吉县打响“西吉好东西”品牌，隆德县培育孵化“幸福隆德”县域电商交易平台1家，泾源县建成网货共享车间1个、电商物流中心1个，彭阳县新培育电商企业4家，累计开展各类直播带货活动30余场次。', '经过近三个月的整改，市商务投资促进局全体党员干部自觉提升政治站位、深挖问题根源，工作上得到了鞭策，作风上得到了提升。下一步，局党组将继续紧盯反馈问题的整改成效，抓落实出成效、抓制度保运行、抓纪律转作风，为推动商务和投资各项事业高质量发展奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>292</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>关于印发固原市经济技术合作局财务管理制度的通知</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-11-27</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201911/t20191127_1863727.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['第一条 为贯彻落实中央八项规定精神和《党政机关厉行节约反对浪费条例》，进一步加强和规范本单位财务行为，特制订本制度。', '第二条 单位财务管理的基本原则是：量入为出、保障重点、兼顾一般、厉行节约，制止奢侈浪费，降低行政成本，注重资金使用效益。', '第三条 财务活动严格执行《宁夏回族自治区行政单位财务管理实施办法》，科学、合理、全面编制预算，严格预算执行，完整、准确、及时编制决算，真实反映单位财务状况。健全单位财务管理制度，规范工作程序。定期编制财务报表，进行财务活动分析。', '第四条 建立健全单位内部控制制度、经济责任制度，严格内部审批审核制度，强化内部约束，严格控制“三公经费”和商务接待支出。', '第五条 严格执行公务卡开支报账。特殊情况不能实行公务卡支出的，必须附有分管领导同意的书面文字说明。', '第六条 实行民主监督管理，杜绝不合理开支，报销票据实行会签制。单笔金额１００００元以下的开支（差旅费除外），由经办人签字，业务分管领导审核、分管财务领导签批。单笔金额１００００元以上的开支（差旅费除外），由经办人签字，业务分管领导、分管财务领导审核后，提交党组会议集体研究后报销。', '第七条 办公用品采购由办公室定期提出采购计划，经分管领导审核同意后，按照政府采购相关规定采购。大宗采购需要党组会议研究确定。', '第八条 费用发生后须由经手人按要求粘贴签字后，由财务审核，合规的按照流程报销（见附件１）。', '第九条 公务接待、派车、出差、学习、培训等审批审签前置，由单位主要负责人在事前进行签批后方可执行。公务接待由办公室统一管理，严格按照接待费用报销标准执行（见第１３条）。', '第十一条 重大财务决策事项党组会议集体研究决定。局党组会议定期听取和研究重大经费开支情况。', '第十二条 差旅费严格按照《固原市本级行政事业单位差旅费管理办法》（固财（行）发【２０１８】２８３号执行。报销费用须附会议通知、电话记录、考察报告、出差审批单、公务卡刷卡小票、车船票、机票、住宿费发票等原始文件材料。', '第十三条 接待费按照《关于转发＜自治区财政厅关于印发（宁夏回族自治区公务接待费管理暂行规定）的通知＞的通知》（固财（行）发【２０１９】１３４号）文件精神执行。接待国家工作人员以外的商务接待及其他因公来访接待，参照公务接待标准单独管理。接待费用须附来客函件、客情通报、接待审批单、公务卡刷卡小票、菜单等原始单据。', '第十四条 经正式批准到固原市区外挂职、学习、驻点工作、定点帮扶等期间所发生的交通费、伙食补助费用按照《关于印发（自治区本级党政机关公务人员赴外地挂职学习等期间伙食补助费、交通费管理办法＜暂行＞）的通知》（宁财＜行＞发［２０１４］５４２号）执行。', '第十五条 会议费、培训费、出国费分别严格按照《固原市本级行政事业单位会议费管理办法》（固财＜行＞发［２０１８］２８４号）、《固原市委组织部、市财政局、市人力资源和社会保障局关于转发＜自治区财政厅 自治区党委组织部 自治区人力资源和社会保障厅关于印发宁夏回族自治区本级党政机关培训费管理办法的通知＞的通知》（固财＜行＞发【２０１８】１９０号、《宁夏回族自治区外事经费管理实施细则＜暂行＞》（宁财＜外＞发【２０１４】８５９号）执行。', '第十六条 公务用车严格按照《固原市委、市政府办公室关于印发＜固原市公务用车制度改革总体方案＞及相关文件的通知》（固公车改办【２０１６】８４号）文件执行。租用车辆服务中心车辆外的其他租赁公司的车辆时，除按照车辆服务中心的要求办理手续外，须签订租赁合同。', '第十七条 按照《关于认真贯彻落实厉行节约八项要求的通知》（固纪发【２００９】４１号）、《关于贯彻落实＜自治区党委办公厅人民政府办公厅关于党政机关厉行节约坚决制止奢侈浪费的通知＞的意见的通知》（固党办【２００９】４５号） 文件精神，对违反规定，要依据党纪政纪和有关法律法规，严肃追究分管领导和直接责任人的责任。', '第十八条 对不按规定报销，弄虚作假的，一经发现，一律收回多报资金，并在单位内部通报批评。情节严重的，报市委监察局处理。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>292</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>一季度招商引资项目情况通报</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018-04-23</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201812/t20181226_1230017.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['一季度，全市招商引资工作以“招商引资年”活动为契机，全面开展“走出去精准对接、请进来考察洽谈”工作。', '市共派出小分队35批次，其中市级领导带队外出招商4次，各县区主要领导带队外出9次，', '共达成合作意向项目54个（特色农业项目17个，生态友好型工业项目13个，全域旅游项目6个，现代服务业7个）。', '市委常委、政府副市长陆菁带队赴广东考察学习、开展招商引资活动，与深圳市茂雄实业有限公司就优质农产品加工基地、广东唯一网络有限公司就云基地建设项目达成合作意向。', '市人大常委会副主任成世杰带领招商小分队先后赴银川市、包头市、北京市开展招商引资活动，洽谈对接合作项目，与江苏润恒物流发展集团、亿利资源集团、北京秋实农业集团、中地牧业科技集团等企业洽谈对接了固原“游养”基地建设、生物蛋白产业项目、秸秆及畜禽粪便开发利用等合作项目。', '市人大常委会副主任成世杰带领招商小分队先后赴银川市、包头市、北京市开展招商引资活动，洽谈对接合作项目，与江苏润恒物流发展集团、亿利资源集团、北京秋实农业集团、中地牧业科技集团等企业洽谈对接了固原', '固原市政协副主席杨彦文带领市经合局、开发区管委会有关人员，赴福建、山东开展考察学习和招商引资活动，先后拜访福州惠源食品、福建福特科光电、山东魏桥集团、西王集团、愉悦家纺、威海坤华集团6家企业和滨州市台湾同胞投资企业协会。初步达成牛羊肉休闲食品加工、精密光学元件生产、年产200万件服装加工项目合作意向。', '固原市政协副主席杨彦文带领市经合局、开发区管委会有关人员，赴福建、山东开展考察学习和招商引资活动，先后拜访福州惠源食品、福建福特科光电、山东魏桥集团、西王集团、愉悦家纺、威海坤华集团', '全市共邀请130多家企业来我市考察投资环境，洽谈对接合作项目。上海孙桥溢佳农业技术股份有限公司就纳米农业新型保温材料项目、宁夏农食互联农业有限公司就原州区农食互联项目、北京秋实农业股份有限公司就西吉县生物蛋白产业等重点项目签订了合作协议。新疆荣汇集团就年产500万件高档羊绒制品项目、世纪京杭大运河投资有限公司就农副产品物流园项目、西吉县与山东水发集团就马铃薯循环园项目、隆德县与汇源食品有限公司就牛肉系列食品加工项目、泾源县与宁夏汇鑫然生物科技有限公司就沙棘种植及深加工项目、彭阳县与山东友硕公司就食用菌种植加工等重点项目达成合作意向。', '一季度，虽在达成意向项目和重点项目推进上取得了一定成效，但由于我市总体尚处于发展空间小、产业基础弱、营商环境', '在建项目层次低、碎片化，投资结构单一、技术含量低，聚集效应未形成，对推动构建现代产业体系作用不够明显。', '我市四大产业大多处在产业链低端，链条短、链条断或未成链，特别是工业产业基础薄弱，引进工业项目难度大。', '高铁边缘化、用水矛盾突出、工业园区配套不完善、企业融资难和融资贵、科技型和技能型人才短缺、基层专业招商人员少等条件越来越成为制约引进大项目、好项目的硬短板', '建立全市招商引资在谈和意向项目库，及时替换增补新项目，制定跟踪对接台账，落实包抓责任单位。筛选重点意向企业和重大产业项目，对已经达成合作意向的54个项目进行任务分解，由市级领导包抓，明确责任领导和责任单位，高层推动项目落地。', '建立全市招商引资在谈和意向项目库，及时替换增补新项目，制定跟踪对接台账，落实包抓责任单位。筛选重点意向企业和重大产业项目，对已经达成合作意向的', '加大对招商引资联席会议研究问题落实的督查督办力度，对推诿扯皮、落实不力、进度缓慢等现象进行通报，形成倒逼态势。对20万锭纺纱纺织、年屠宰加工10万头肉牛项目、陕西海升万亩矮化苹果示范基地、上海医药中药材加工、秋实集团胶原蛋白肠衣生产等重点、重大签约项目、意向项目跟踪抓推进、抓落地、抓开工情况进行常态化督查督办，及时通报发现的问题和招商引资工作进展情况，推动形成各县区、开发区和各部门相互赶超的工作氛围。', '加大对招商引资联席会议研究问题落实的督查督办力度，对推诿扯皮、落实不力、进度缓慢等现象进行通报，形成倒逼态势。对', '万头肉牛项目、陕西海升万亩矮化苹果示范基地、上海医药中药材加工、秋实集团胶原蛋白肠衣生产等重点、重大签约项目、意向项目跟踪抓推进、抓落地、抓开工情况进行常态化督查督办，及时通报发现的问题和招商引资工作进展情况，推动形成各县区、开发区和各部门相互赶超的工作氛围。', '建立全市一盘棋的招商机制，把走出去开展精准招商和请进来对接洽谈作为重中之重，加强投资信息搜集整理，坚持市县高位推动、部门主动作为、业务单位常态开展，确保全市招商引资工作按计划有序开展、按期完成工作目标和任务，不断提高工作实效。', '始终把优化“项目服务”作为衡量营商环境的重要标尺，变被动服务为主动上门服务，全力做好项目代办服务、亲情服务、政策服务，打造多渠道、全方位服务的“升级版”。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>292</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>固原市多措并举推动闽宁协作工作再上新台阶</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019-01-23</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190701_1574879.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['2018年，固原市认真贯彻落实全国东西部扶贫协作座谈会和闽宁协作联席会议精神，紧扣自治区“三大战略”，持续深化“联席推进、结对帮扶、产业带动、互学互助、社会参与”的闽宁扶贫协作机制，多措并举推动闽宁协作取得新成效。', '2018年以来，固原市各级党政代表团、有关部门共22批、261人次赴福建开展工作对接，不断推动与福建的交流对接和学习考察。自治区党委常委、固原市委书记张柱带领固原市党政代表团到福建开展调研交流，自治区政府副主席、固原市长马汉成多次研究部署闽宁协作工作，市有关分管领导带队赴福建考察和招商引资；我市5县区的党政主要领导分别赴福建对口县（区）开展互访交流活动。福建省委副书记王宁、省政府副省长郑建闽先后率队到固原考察调研，协调推动工作落实。出台《固原市筹备闽宁对口扶贫协作第二十二次联席会议工作方案》《市党政代表团福建学习考察和对接闽宁对口扶贫协作确定事项落实分工方案》等文件，细化目标任务和工作责任，加强跟踪督查，落实工作责任。', '2018年，我市落实福建省财政帮扶资金1.612亿元、实施扶贫项目65个。引导61家企业在固原开展扶贫，实际投资额20.67亿元，带动3790名贫困人口脱贫。发展特色种养、农产品加工等增收产业，提高产业扶贫的精准度和可持续性。原州区瑞丹苑油牡丹产业项目，总投资5.8亿元，一二三产融合发展，吸纳5个村300多人就业，年人均增加收入2万多元。建设63个村级扶贫车间，吸纳732名建档立卡贫困人口实现就近就业稳定增收脱贫。在福州设立“宁夏六盘山特产馆”，帮助销售固原特色农产品1.4135亿元，直接带动2241名建档立卡贫困人口增收。', '坚持“劳务输转”与“就地就业”相结合，打好劳务培训和输转政策组合拳。2018年帮助11396名建档立卡贫困人口就业。对赴福建务工人员给予交通补贴、生活补贴、岗位补贴等，在闽建设劳务协作工作站等，鼓励贫困人口赴闽务工，引导用工企业加强人文关怀，为固原务工人员提供周到细致服务。举办多场招聘会，提供有针对性用工岗位1万多个。举办各类培训班62期，培训贫困人口1460人次，招收建档立卡贫困家庭学生390人到福建就读职业学校。在原州区成立飞毛腿高级技工学校原州分校，实现就学与就业“零距离”，已招收74名原州藉学生，其中建档立卡学生42名。', '紧抓携手奔小康这一闽宁协作特色工作，以贫困乡镇、贫困村和闽宁协作示范村为重点，向上提升，向下延伸，横向扩展，进一步扩大乡镇、村结对帮扶覆盖面，深化帮扶措施，开展形式多样的活动，增强帮扶实效。2018年，乡镇共结对62对、村结对32对、部门结对26对，村企结对46对、学校结对11对、医院结对4对，实现全市乡镇结对全参与、全覆盖。积极开展两地党政主要领导积互访交流，2018年共开展互访交流106人次，进一步明确帮扶任务，建立工作清单，推动各项工作任务、政策措施、资金项目等落实到位。', '推进36个闽宁示范村建设，安排专项资金4550万元，惠及贫困人口近3000人，做到了既“输血”又“造血”，既扶贫又扶志，有力促进了闽宁示范村经济社会发展，极大提高了闽宁示范村群众的幸福感和获得感。强化产业园平台功能，坚持一县一园区、一园一特色，采取闽商为主、以商招商，发挥当地资源、人力优势，实施“特色产业+精准扶贫”，2018年底，4个闽宁产业园共落户企业65家，总投资18.14亿元，吸纳贫困人口3000多人就业，闽宁产业园已成为当地社会经济发展新引擎。实施“四个一”林草产业试验示范工程，邀请福建农林大学、省农科院62位专家组成服务团来我市帮扶指导，帮助固原编制“四个一”工程总体规划和5项配套规划文件，举办9期培训班，培训1666名业务骨干，2018年固原市森林覆盖率达到25.1%，林草覆盖率达到73%，带动贫困人口近2000人脱贫，实现了生态效益和扶贫效益的有机统一。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>292</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>我市组成招商组赴福建省开展招商引资活动</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202106/t20210615_2884466.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为全面贯彻落实习近平总书记对深化东西部协作和定点帮扶工作的重要指示精神，认真落实自治区党委常委、市委书记马汉成', '2021年5月17日至20日，二级巡视员、市工业和信息化局局长高文斌带领市商务投资促进局、市投资促进服务中心', '日，二级巡视员、市工业和信息化局局长高文斌带领市商务投资促进局、市投资促进服务中心', '第四届21世纪海上丝绸之路博览会暨第二十三届海峡两岸经贸交易会（简称海丝博览会暨海交会）在福建福州海峡国际会展中心举办', '世纪海上丝绸之路博览会暨第二十三届海峡两岸经贸交易会（简称海丝博览会暨海交会）在福建福州海峡国际会展中心举办', '为充分利用海丝博览会暨海交会招商引资和商贸合作平台，开展商贸对接、投资合作和商品展销，扩大固原特色产品和我区“九大产业”的知名度，增进闽宁经贸合作交流，', '为充分利用海丝博览会暨海交会招商引资和商贸合作平台，开展商贸对接、投资合作和商品展销，扩大固原特色产品和我区', '。同时，在博览会现场召开了固原市名优产品海丝博览会媒体见面会，福建日报、福建电视台、福州日报、福州晚报、福州电视台、福州新闻网等近十家福建省主流媒体参会，对固原市参展企业和产品做了详细采访报道', '福州市长乐区达成强化产业扶贫的共识，提出了两地合作共建绵纺织产业园项目的合作计划，该项目规划用地1000亩，建设周期5年，概算总投资50亿元以上，计划引进国内外最先进的纺机设备，全自动化的纺纱生产线，先进智能化装备和新型纺纱技术，建设年纺纱80万锭以上产业园区。项目建成后，预计年销售收入30亿元，新增利税超亿元，安置就业1500余人。', '福州市长乐区达成强化产业扶贫的共识，提出了两地合作共建绵纺织产业园项目的合作计划，该项目规划用地', '亿元以上，计划引进国内外最先进的纺机设备，全自动化的纺纱生产线，先进智能化装备和新型纺纱技术，建设年纺纱', '赴固原投资的纺织企业一定比例的设备、物流等方面的财政支持。为跟进落实两地合作意向，', '再次赴福州市长乐区，深入各重点纺织企业考察学习、对接合作项目，并再次召开了固原·福州（长乐）纺织产业合作座谈会，双方围绕长乐区纺织企业组团赴固原投资', '负责人表示，将进一步深入研究制定固原项目投资计划，并组织有关重点企业负责人适时到固原考察，洽谈对接共建棉纺产业园项目合作事宜', '该公司是一家以生产经营各种高档纺织品用纱为主业，产业链连接针织、染整、服装和家纺产业的现代化大型民营纺织企业，注册资本金', '亿元。公司引进国内外最先进的纺纱装备配套建成融合信息化数据集成能力的纺纱生产线，具备', '万锭环纺和紧密赛络纺相结合的纺纱生产能力。是福建省纺织龙头企业和中国棉纺织行业最大的化纤短纤纱生产企业之一。', '进行了座谈交流，并向企业详细介绍了固原发展纺织产业的环境、优势、政策及重点招商项目。', '董事长表示，固原投资环境良好，发展纺织产业优势明显，企业对到固原投资项目很感兴趣，', '该公司是一家年产多品种高品质纤维混纺纱线的大型企业，公司拥有国内外先进的棉纺生产设备', '万纱锭，生产线上前纺设备采用目前国内最先进的棉纺设备，后纺设备采用意大利进口自动化，为目前国际最成熟的知名品牌设备。', '市工业和信息化局、经济开发区管委会配合，全方位展现和推介我市现代纺织产业方面比较优势，力争达成合作']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>292</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>年宁夏回族自治区选调生村干部招考公告</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2017-03-21</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/201703/t20170321_382161.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['为加强宁夏党政干部队伍源头建设，引导和鼓励优秀高校毕业生扎根基层，服务群众，锻炼成长，按照《中华人民共和国公务员法》《宁夏回族自治区公务员录用暂行办法》《宁夏回族自治区选调生工作办法（试行）》《关于进一步加强大学生村干部工作的实施意见》等，决定从2017年起，将大学生村干部选聘与非定向选调生招考有序并轨，组织开展宁夏选调生（村干部）招考工作。现将有关事项公告如下：', '1.招录范围：宁夏区内普通高校本科及以上学历应届毕业生，宁夏区外普通高校宁夏生源本科及以上学历应届毕业生，“985”“211”高校本科及以上学历应届毕业生。各类委培（不含无委培单位）、专升本、定向、民办高校和独立学院毕业生不在招录范围。', '（一）除符合《中华人民共和国公务员法》《宁夏回族自治区公务员录用暂行办法》资格条件外，报考人员还应符合以下条件：', '3.事业心、责任感强，自愿到基层一线和艰苦地区工作，具有较强的组织协调、文字写作和口头表达能力；', '5.具备下列条件之一：（1）中共党员（含中共预备党员）；（2）在院（系）及以上党（团）组织、学生会（研究生会）或班委会中担任过学生干部，且任职时间连续满1年以上（以聘书或任职文件为准）（3）获得院（系）及以上“三好学生”称号；', '2017年宁夏选调生（村干部）招考笔试与2017年宁夏全区公务员招考笔试合并进行，使用同一试卷，单独划线录取。', '符合2017年全区公务员报考资格条件的，可同时报考2017年全区公务员招考使用同类试卷的职位。笔试结束后，先行组织开展选调生（村干部）面试、体检、考察和录用；未被招录为选调生（村干部）的，只要取得公务员报考职位面试资格，可继续参加公务员招考后续程序。', '年全区公务员招考使用同类试卷的职位。笔试结束后，先行组织开展选调生（村干部）面试、体检、考察和录用；未被招录为选调生（村干部）的，只要取得公务员报考职位面试资格，可继续参加公务员招考后续程序。', '凡符合条件的考生均可填写《宁夏选调生（村干部）报名登记表》（一式两份）向所在院系党组织提出申请；院系党组织对照报考资格条件审核签署意见并加盖党组织印章送交学校党委组织部（或学生处、就业指导中心）审核；学校党委组织部（或学生处、就业指导中心）会同院系党组织对申请人资格条件进行审核，并签署审核意见、加盖印章。', '（1）提交报考申请。报考人员应按要求填写报考信息，并上传本人近期正面免冠2寸数码彩照（jpg格式，大小为20KB以下）。填报志愿时，实行分职位报考，每位考生限报一个职位。报名与考试使用的身份证件必须一致。', '报名时，考生须仔细阅读并签订《诚信承诺书》，对填报信息的真实性、准确性负责。凡提供虚假报考申请材料的，一经查实，即取消报考资格。对伪造、变造有关证件、材料、信息，骗取考试资格的，一经查实立即取消报考资格且计入公务员录用诚信档案，作为今后公务员录用考察的一项重要参考。', '24:00前通过网上银行进行缴费，报考费每人100元。逾期未缴费者视为自行放弃报考资格。', '同时报考选调生（村干部）和全区公务员招考职位的，只在选调生（村干部）报名系统中缴纳一次费用。', '选调生（村干部）笔试试卷为B卷，《行政职业能力测验》和《综合应用能力》，其中《综合应用能力》主要测查报考人在乡镇工作应具备的基本能力。', '5.笔试结束后，根据考试情况划定合格线，按计划招考人数与面试人数1:1.5的比例分别划线排序确定拟参加面试人员。因放弃面试资格出现的空缺名额，应在笔试成绩合格线以上人员中按相应职位要求由高分到低分依次递补。', '1.资格审查贯穿考录工作全过程。一旦发现不符合报考资格条件的，立即取消考试录用资格。', '2.面试前集中对拟参加面试人员进行资格复审。资格复审时，考生须提供以下材料：①准考证、学生证、本人身份证等证件；②经院（系）党组织和学校党委组织部（或学生处、就业指导中心）审核盖章的《宁夏选调生（村干部）报名登记表》；③在校期间成绩单；④毕业生就业推荐表；⑤中共党员（含中共预备党员）、学生干部或“三好学生”证明（其中之一）；⑥能如期毕业并取得相应学历、学位证书的证明。以上材料须提供原件及复印件各一份。资格复审结束后原件退还本人。', '不符合招考资格条件或未经学校党委组织部（或学生处、就业指导中心）推荐的，资格复审不合格。资格复审中出现名额空缺的，在笔试成绩合格线以上人员中由高分到低分依次递补。', '3.如考试总成绩相同，按笔试成绩由高到低确定体检、考察人选；如笔试成绩相同，则按《行政职业能力测验》成绩由高到低确定体检、考察人选。', '2.体检在指定医疗机构进行，严格按照《公务员录用体检通用标准（试行）》（2017年修订）有关规定执行。', '3.考生要认真完成规定体检项目，在规定时间内不按要求完成的，视为自动放弃体检资格。对弄虚作假或有意隐瞒影响录用疾病的，取消录用资格。', '4.对体检结果有疑问的，可按有关规定提出复检。复检在指定的医疗机构进行。复检只能进行一次，体检最终结果以复检结论为准。', '1.对体检合格考生进行考察。考察主要了解考生在校期间学习成绩、德才表现、遵章守纪等情况。', '对反映有影响录用问题并查有实据的，不予录用；对反映的问题一时难以查实的，暂缓录用，待查核清楚后再决定是否录用。如拟录用人员未能如期取得毕业证书和学位证书，自动解除录用关系。', '体检、考察过程中放弃资格的，将记入公务员录用诚信档案，作为今后公务员录用考察的一项重要参考。', '考生被正式录用后无正当理由逾期不报到的（自接到录用通知20日内），取消录用资格，并记入公务员录用诚信档案，作为今后公务员录用考察的一项重要参考。', '1.正式录用的选调生（村干部）根据考试成绩排名，自主选择由宁夏区党委组织部提供的乡镇（街道）岗位。', '正式录用的选调生（村干部）根据考试成绩排名，自主选择由宁夏区党委组织部提供的乡镇（街道）岗位。', '2.办理乡镇（街道）公务员录用手续后，试用期1年，并下派到村担任大学生村干部2年，原则上要下派到建档立卡贫困村或软弱涣散村工作。试用期满，由所在县（市、区）党委组织部考核，考核合格的，进行公务员登记，并予以任职定级；不合格的，取消录用资格。', '年，原则上要下派到建档立卡贫困村或软弱涣散村工作。试用期满，由所在县（市、区）党委组织部考核，考核合格的，进行公务员登记，并予以任职定级；不合格的，取消录用资格。', '加强大学生村干部工作的实施意见》（宁组通〔2013〕144号)进行管理，由县（市、区）党委组织部牵头负责，乡镇党委直接管理，村党组织协助实施。', '4.担任大学生村干部满2年后（女性在孕期、产假、哺乳期内不在村工作的，顺延至补足其不在村服务工作日后），回所在乡镇（街道）工作，保留选调生身份，其所在村任职时间计算工龄、计入乡镇最低服务年限。', '年后（女性在孕期、产假、哺乳期内不在村工作的，顺延至补足其不在村服务工作日后），回所在乡镇（街道）工作，保留选调生身份，其所在村任职时间计算工龄、计入乡镇最低服务年限。', '5.严禁乡镇（街道）、县（市、区）直属及以上部门违反规定截留、借用选调生（村干部）。对违反规定的，对截留、借用单位给予通报批评，追究单位主要负责人责任；对选调生（村干部），延长其在村服务时间1年。', '严禁乡镇（街道）、县（市、区）直属及以上部门违反规定截留、借用选调生（村干部）。对违反规定的，对截留、借用单位给予通报批评，追究单位主要负责人责任；对选调生（村干部），延长其在村服务时间', '2.本公告由宁夏区党委组织部负责解释。凡涉及本次招考的重大事项或本公告未尽事宜，均由宁夏区党委组织部研究决定。', '3. 公示、录用、试用期过程中放弃资格的，将记入公务员录用诚信档案，作为今后公务员录用考察的一项重要参考。', '4.本次招考中，如有违纪违规行为的，按《公务员录用考试违纪违规行为处理办法》（人社部令第30号）相关规定处理。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>292</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>固原市消防救援支队主官带队走访调研固原市市场监督管理局</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/xfzl/kqzlxx_37492/202311/t20231102_4336761.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['“开门搞教育”，大兴调查研究之风。10月31日，固原市消防救援支队党委书记、政治委员冶正成同志带领机关相关业务分管领导和党员干部代表深入固原市市场监督管理局开展调研，固原市市场监督管理局党组书记、局长翟敬军同志及其他党组成员、各科室负责人参加调研。', '在主题教育调研暨联学联建座谈会上，双方共同学习了习近平总书记在江西考察时关于第二批主题教育的重要指示要求和市委五届九次全会精神。冶正成政委和翟敬军局长分别介绍了本单位基本情况和亮点工作，交流了主题教育经验做法。', '双方党员干部代表就主题教育学习心得和业务融合发展作了交流发言。并组织市场监督管理局与会人员填写了主题教育调查问卷，征集了对消防救援支队在改进作风、改进工作、消防监督执法、为民服务、接处警、灭火救援等方面的意见建议。', '座谈会后，支队调研组一行来到了宁夏宏业建筑装饰有限公司，深入了解了市场监督管理局如何将党建工作融入企业生产经营管理，听取了', '“小个专”党建示范园创建工作汇报，观看了党建示范工作宣传片，参观了“红叶”党员活动阵地和车间生产情况。参观过程中，双方领导就如何开展主题教育、人才队伍建设、科学技术应用、监督执法、安全生产等方面进行了深入交流，并表示在今后工作中将进一步加强合作、相互支持，为全市构建“大安全”格局、护航经济社会高质量发展作出应有的贡献。', '“走出去”，以“跳出消防看消防”的视野格局学习各方先进经验，持续深入相关国家机关和企事业单位开展调查研究工作，切实把调研成果转化为解决问题、改进工作的实际举措，不断推动消防救援工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>292</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017-11-30</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201711/t20171130_611169.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['11月29日，自治区党委常委、市委书记张柱主持召开市委常委会会议，传达学习全国精神文明建设表彰大会精神，传达学习自治区党委第20次常委会会议精神，传达学习自治区全域旅游发展推进会精神，研究我市贯彻意见。会议还听取我市环保工作情况汇报，并对我市大气污染防治工作作出要求。', '会议强调，党中央对社会主义精神文明建设高度重视，我市精神文明建设工作要切实抓好学习宣传贯彻党的十九大精神首要政治任务，着力加强习近平新时代中国特色社会主义思想的学习教育和宣传阐释。同时要切实抓好培育和践行社会主义核心价值观战略工程，以培养时代新人为着眼点，发挥社会主义核心价值观对国民教育、精神文明创建、精神文化产品创作生产传播的引领作用。要抓好以人民为中心的根本目的，把人民对美好生活的向往作为工作导向，不断满足人民精神文化需求。要抓好改革创新的强大动力，挖掘典型事迹、典型人物，充分发挥先进典型的示范带动作用，形成良好社会风尚。要加大文明城市创建力度。', '听取全市环保工作情况汇报后，会议指出，自治区党委常委会会议听取全区环境污染治理情况，强调要紧盯突出问题，坚持铁腕整治，严肃追责问责，以高度的责任，向一切污染环境的行为亮剑，坚决打赢蓝天保卫战。石泰峰书记对做好大气污染防治工作作出明确部署和严格要求。我市要从讲政治的高度，深刻认识大气污染防治的极端重要性，紧盯中央和自治区要求，狠抓秸秆焚烧、工地扬尘、燃煤锅炉等关键环节，坚持铁腕整治，抓好工作落实。要明确责任人和时限，加强监督检查，严格执法，务求成效。', '会议强调，要全面贯彻自治区全域旅游发展推进会精神，坚持问题导向，在融会贯通上下功夫，推进产业联动，推动旅游与文化、生态、农业、服务业等业态深度融合。加大旅游产业招商引资力度，建立健全支撑配套服务。', '会议还听取我市赴苏州开展招商、教育考察学习报告，审议固原市贯彻自治区三大战略实施意见3个方案，研究其他有关事宜。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>292</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>大会即将开始全国知名蔬菜销售商陆续报到</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202307/t20230706_4169150.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['7月5日，宁夏冷凉蔬菜节暨全国知名蔬菜销售商走进宁夏活动拉开帷幕，来自全国各地的500多名嘉宾和客商陆续到达固原，在接下来的三天会期内，', '将参加冷凉蔬菜产业基地观摩、开幕式暨冷凉蔬菜产业高峰论坛等活动，共谋蔬菜产业发展、共商深化合作蓝图。', '李新旭是北京翠湖农业科技有限公司总经理，其公司是一家以优质西红柿单品为主的高科技农业企业，了解到固原这边气候冷凉、光照充足，适合冷凉蔬菜的培育，前来寻找合作新机遇。来自广州市钱大妈农产品有限公司政府事务经理谢洪对此次大会充满期待，“我们公司主要以农产品生鲜超市为主，这次来主要想考察一下有没有合适的蔬菜、水果进行合作。”', '这是上海源怡种苗股份有限公司总经理薛万新第二次来到宁夏，而他此行的目的也很明确，“之前，我们跟自治区农业农村厅有过合作，在上海推广销售过宁夏的冷凉蔬菜，取得了不错的成绩，这次希望借助平台，和同行们一起交流学习更多先进的经验。”']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>292</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>关于落实六盘山林业局普法责任制四清单一办法的通知</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201805/t20180514_753322.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['为认真贯彻固原市依法治市领导小组办公室《关于落实普法责任制工作的通知》（固市普法发〔2018〕3）文件精神，根据固原市委办公室《关于印发&lt;', '&gt;的通知》（固党办〔2017〕110号）文件要求，结合我局实际，特制定六盘山林业局普法责任制“四清单一办法”，请你们遵照执行，抓好落实。', '重点组织开展学习宣传宪法教育，广泛开展宣传中国特色社会主义法律体系和党内法规，突出党章宣传。', '重点宣传普及林业相关法律法规，深入学习宣传林业在生态文明建设中的首要地位。提升干部和群众的法律意识，提升林业法律的知晓度。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、森林采伐更新管理办法、建设项目使用林地审核审批管理办法等法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国自然保护区条例、等林业法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、林业行政处罚程序规定、中华人民共和国森林防火条例、宁夏回族自治区森林防火办法、中华人民共和国自然保护区条例等林业法律法规。', '重点开展与林业相关法律法规的学习宣传工作，提升职工法律意识，提升林业法律的知晓度，开展普法依法治理。', '落实领导干部学法制度。将法律法规学习纳入领导干部学习计划，利用党委中心组及中心组扩大学习会议开展集中学习法律法规。', '学习依法治国重要论述。经常组织局机关各科室召开学法和依法行政学习会议。深入学习宣传习近平总书记关于全面依法治国的重要论述，学习宣传林业在生态文明建设中的首要地位，了解和掌握全面依法治国的重大意义和总体要求，更好地发挥法治的引领和规范作用。', '突出学习宣传《宪法》。普遍开展《宪法》宣传教育，深入宣传《宪法》至上、依宪治国、依宪执政等理念，积极组织开展“12·4”国家宪法日宣传活动。', '深入宣传林业法律法规。利用多种载体，开展日常宣传林业法律法规。组织开展相关法律法规知识培训，宣传林业法规和规章，尤其在森林防火时间内，加大对森林防火法律法规的宣传，保障林业生态稳步发展。', '做好林业行政案件复议和应诉工作。广泛宣传相关法规，健全林业行政复议和应诉工作机制，受理和处理行政复议案件，充分发挥林业行政复议的积极作用，妥善化解争议，切实提升行政复议和行政诉讼工作水平。', '深入开展“法律八进”活动。坚持“谁执法、谁普法”和“系统抓、抓系统”的法治宣传教育原则，创新方式方法，落实工作措施，确保“法律八进”形式多样、内容丰富、效果明显。', '落实普法治理工作责任。将普法依法治理工作作为本单位的重要任务。加强依法治林的宣传和推进，确保普法和依法治理工作任务落到实处，收到实效。', '建立普法治理考核机制，将普法依法治理纳入绩效考核系统实行年度考核，每年组织开展法律知识考试。', '把普法依法治理工作纳入绩效管理，开展年度考核、阶段性检查和专项督查，确保普法治理实效。', '为了深入推进依法治林进程，不断增强全局干部职工法治意识，提高治林法治化水平，更好地发挥普法依法治理工作在服务经济社会发展、促进社会和谐稳定中的重要作用，结合我局工作实际,特制定本考核办法。', '以习近平新时代中国特色社会主义思想为指引，认真贯彻落实党的十九大精神，深入开展法治宣传教育，扎实推进林业系统依法治理和法治创建，推进林业法治宣传教育与法治实践相结合，充分发挥法治宣传教育在依法治林中的基础性作用，推动全社会树立和强化林业法治意识。以落实国家机关“谁执法谁普法”的普法责任制为契机，积极推动全局林业系统普法依法治理工作创新发展，全面提高依法治林水平。', '考核对象为局属各国有林场、育苗中心、森林公安分局、干休所；考核内容按照《六盘山林业局普法责任制考核细则》进行。', '主要包括普法治理工作开展情况、普法机构、各项制度建设、普法工作创新工作等证明资料，可提供书面、电子、声像等。', '根据工作开展情况，需要实地查看普法工作开展情况的，可根据单位数量抽查一定比例单位，考察平时普法工作的完成情况，考核直接计入被考核单位总分值。', '普法年初有安排、年中有小结、年底有总结的6分；将普法工作纳入本单位效能目标管理考核的4分。', '成立普法领机构，明确分管领导和1名门专（兼）工作人员的得5分；将法治宣传教育工作纳入重要议事日程，每年研究部署普法工作2次以上的得5分。', '建立本部门（单位）普法责任清单，细化量化工作，提出具体工作措施，扎实落实责任制的得10分；支持普法办工作，按时完成局2018年普法办安排的各项工作任务，及时报送文件、信息得10分。', '制定部门学法计划，认真学习习近平总书记系列重要讲话、宪法、中国法律体系、本部门职责紧密相关的法律法规、党内法规的得4分；集体学法4次以上的得4分。有普法对象花名册得2分，组织单位干部职工参加学法考试，参考率为100%、考试成绩优良（80分以上）率为80%以上的得10分，参考率不到70%、优良率为60%-80%的得8分；参考率、优良率为60%以下的得5分。', '广泛开展法治文化创建和阵地建设，办公场所悬挂法治书画牌匾、设置宣传栏等营造法治氛围。', '利用各种媒体，借助各类行业窗口面向公众经常性地开展行业法律法规宣传的得5分；积极参加“12•4”全国法治宣传日等集中宣传活动，积极开展专业法宣传的得5分；积极法治宣传，本年度开展2次以上有特点、有影响的宣传活动得10分。', '普法经费能确保普法依法治理工作正常运行、有开展各项活动的经费拨付凭据的得5分，没有普法经费财务凭据的不得分。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>292</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>固原市住房和城乡建设局年公开招聘建设工程消防设计审查验收技术服务人员公告</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-02-23</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202202/t20220223_3334163.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['固原市住房和城乡建设局2022年公开招聘建设工程消防设计审查验收技术服务人员公告_固原市人民政府', '为满足市区建设工程消防设计审查验收技术服务人员需要，经市政府第70次常务会议决定，按照市财政局《关于下达购买建设工程消防设计审查验收技术服务费预算指标的通知》固财（预）指标〔2022〕28号及《自治区财政厅关于印发&lt;宁夏回族自治区政府集中采购目录及标准（2021年版）&gt;的通知》的有关规定，固原市住房和城乡建设局面向全区公开招聘建设工程消防设计审查验收技术服务人员，现将有关事宜公告如下：', '2022年面向全区范围内自主公开招聘注册一级消防工程师2名，文档管理员（建筑类或消防中级职称）1名，业务受理员（建筑类或消防中级职称）1名。', '4.具有强烈的事业心、高度的责任感、业务能力突出、有一定的研究能力；具备良好的沟通能力，富有感染力和影响力，有团队合作精神。', '5.一级注册消防工程师岗位应聘人员必须具有5年以上（含5年）工作经验，年龄在45岁以下；文档管理员、业务受理员岗位应聘人员必须具有专科及以上学历，具有3年以上（含3年）工作经验，年龄在35周岁以下。', '1.特殊建设工程的消防设计审查。主要对消防设计文件和施工图审查机构图审意见进行技术复核，提出指导意见，限期整改，并出具消防设计审查意见。', '2.特殊建设工程的消防验收。主要对特殊建设工程消防安全状况进行抽测和现场评定，对发现的问题，指导建设单位及时整改。同时，出具消防验收评定意见。', '3.其他建设工程消防验收备案与抽查。主要对符合条件的备案材料出具备案凭证。对被确定为抽查对象的建设工程消防安全进行消防设施抽测和现场评定，制作检查记录，对发现的问题，指导建设单位及时整改。同时，出具消防验收评定意见。', '4.建设工程消防施工检查。主要组织开展建设工程消防施工技术指导服务，检查消防技术标准强制性条款执行情况，消防产品及具有防火性能要求的建筑材料、建筑构配件和设备质量及合格产品使用情况，检查消防设施安装、调试情况。', '6.业务受理与档案建立。开展业务申报资料的审查、受理及反馈，制作相关文书，规范存档工作。', '自招聘签订合同之日算起，服务期限三年，期限届满前双方是否续签，未续签的，期满自动终止。', '1.报名方式。本次报名采取电子邮箱报名：应聘者在规定的报名时间内将报名登记表（附件）、电子照片、身份证、户口本、注册证书、毕业证、职称证证书照片或扫描件等报名所需材料打包发送至电子邮箱gyszjj02@163.com（以“姓名+岗位+手机号”命名发送）。', '3.资格审查。应聘者的资格审查贯穿公开招聘全过程，市纪委监委派驻市住房和城乡建设局纪检组全程监督，凡发现应聘者不符合应聘条件的，取消应聘资格。报名人员，审核结果在报名日期截止后的一周内通知本人。', '4.报名确认。资格审查通过后，确定参加笔试人员。通过固原市人民政府网站公布参加笔试人员名单，公示时间为3天。', '考试采取笔试和面试相结合的方式进行，由固原市住房和城乡建设局自行组织。笔试、面试时间、地点提前3天电话通知应聘者。', '1.笔试内容。以岗位相关专业知识为主；岗位一、岗位二分别为两套试卷，试卷由市住房和城乡建设局公开招聘领导小组委托相关专家进行命题。本次招聘不举办、不委托任何机构举办考试辅导培训班，也不指定任何参考用书和资料。', '3.划定笔试合格线。笔试结束后，由固原市住房和城乡建设局招聘工作领导小组确定笔试合格分数线。', '1.面试人员的确定。所有招聘岗位按照笔试人数与招聘岗位招聘人数按照3:1的比例从高分到低分确定面试人员。达不到比例的经固原市住房和城乡建设局招聘小组研究后按照实际人数进行面试，面试成绩满分为100分。', '2.面试内容。采取结构化面试和非结构化面试相结合的方式进行。主要测试岗位知识、实际操作技能、工作能力和综合素质。', '根据应聘者的综合成绩（笔试成绩×60%+面试成绩×40%）由高分到低分的顺序，按照招聘岗位职数以1:1的比例确定拟聘用人选，经固原市住房和城乡建设局招聘领导小组研究，报固原市住房和城乡建设局党组会议审定。通过固原市人民政府网站公布拟聘用人员名单，公示时间为3天。', '由固原市住房和城乡建设局招聘领导小组组织实施。体检人员按考试成绩从高分到低分按招聘岗位招聘人数等额确定。体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行，体检不合格的人员取消应聘资格，同时按考试总成绩依次递补短缺名额参加体检。体检时间另行通知，体检费用自理。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法和廉洁自律等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录、弄虚作假等行为的，取消招聘资格。', '4.因放弃考察资格或考察不合格被取消资格等情况出现岗位空缺的，从报考同一岗位考试总成绩中从高分到低分依次递补。', '根据考试、体检、考察结果，由固原市住房和城乡建设局确定聘用人员，聘用人员名单固原市人民政府网站予以公示，公示期为5个工作日。公示期间，对反映问题经查实影响聘用的，取消聘用资格。', '新聘用人员见习期为3个月，见习期间工资待遇按固原市住房和城乡建设局有关规定执行，见习期满考察合格后签订劳动合同，缴纳“五险”。', '（一）凡涉及本次招考的重大事项或本公告未尽事宜，由固原市住房和城乡建设局招聘领导小组研究决定。', '（三）在招聘组织实施过程中，严格按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时电话通知。', '（四）应聘者报名所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（六）报考人员请密切关注固原市人民政府网站有关招聘考试、资格审核、体检、录用等相关通知。', '附件：1.固原市住房和城乡建设局公开招聘建设工程消防审查验收技术服务人员报名登记表.xls', '2.固原市住房和城乡建设局2022年公开招聘建设工程消防设计审查验收技术服务人员公告.pdf', '固原市住房和城乡建设局2022年公开招聘建设工程消防设计审查验收技术服务人员公告.pdf']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>292</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>关于印发六盘山林业局年普法责任制四清单一办法的通知</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-10-30</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201910/t20191030_1817664.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['关于印发《六盘山林业局2019年普法责任制 “四清单一办法”》的通知_固原市人民政府', '为顺利完成“七五”普法全面验收工作，确保我局普法各项工作任务落到实处，按照固原市依法治市领导小组办公室《关于进一步加强和完善普法责任制工作的通知》（固法办发〔2019〕7号）文件精神，结合我局实际，修订完善了我局2019年普法责任制“四清单一办法”，现予以印发，请你们遵照执行，抓好落实。', '1、组织开展学习宣传宪法教育，广泛开展宣传中国特色社会主义法律体系和党内法规，突出党章宣传。2、深入学习宣传林业在生态文明建设中的首要地位，提升干部和群众的法律意识，提升林业法律的知晓度。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、森林采伐更新管理办法、建设项目使用林地审核审批管理办法等法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国自然保护区条例等林业法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国自然保护区条例中华人民共和国退耕还林条例等林业法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、林业行政处罚程序规定、森林防火条例、宁夏回族自治区森林防火办法、中华人民共和国自然保护区条例等林业法律法规。', '重点开展与林业相关法律法规的学习宣传工作，提升职工法律意识，提升林业法律的知晓度，开展普法依法治理。', '落实领导干部学法制度。将法律法规学习纳入领导干部学习计划，利用党委中心组及中心组扩大学习会议开展集中学习法律法规；经常性组织局机关各科室召开学法和依法行政学习会议。深入学习宣传宪法、学习习近平总书记关于全面依法治国的重要论述，学习宣传林业在生态文明建设中的首要地位，了解和掌握全面依法治国的重大意义和总体要求，更好地发挥法治的引领和规范作用。', '突出学习宣传《中华人民共和国宪法》，普遍开展《中华人民共和国宪法》宣传教育，深入宣传《中华人民共和国宪法》至上、依宪治国、依宪执政等理念，积极组织开展“12·4”国家宪法日宣传活动。', '深入宣传林业法律法规。利用多种载体，开展日常宣传林业法律法规。组织开展相关法律法规知识培训，宣传林业法规和规章，做好植树节、爱鸟周、世界环境日相关法律法规宣传，尤其在森林防火期内，加大对森林防火法律法规的宣传，保障林业生态稳步发展。', '做好林业行政案件复议和应诉工作。广泛宣传相关法规，健全林业行政复议和应诉工作机制，受理和处理行政复议案件，充分发挥林业行政复议的积极作用，妥善化解争议，切实提升行政复议和行政诉讼工作水平。', '深入开展“法律八进”活动。坚持“谁执法、谁普法”和“系统抓、抓系统”的法治宣传教育原则，创新方式方法，落实工作措施，确保“法律八进”形式多样、内容丰富、效果明显。', '落实普法治理工作责任。将普法依法治理工作作为本单位的重要任务。加强依法治林的宣传和推进，确保普法和依法治理工作任务落到实处，收到实效。', '建立普法治理考核机制，将普法依法治理纳入绩效考核系统实行年度考核，每年组织开展法律知识考试。', '把普法依法治理工作纳入绩效管理，开展年度考核、阶段性检查和专项督查，确保普法治理实效。', '为了深入推进依法治林进程，不断增强全局干部职工法治意识，提高治林法治化水平，更好地发挥普法依法治理工作在服务经济社会发展、促进社会和谐稳定中的重要作用，结合我局工作实际,特制定本考核办法。', '以习近平新时代中国特色社会主义思想为指引，认真贯彻落实党的十九大精神，深入开展法治宣传教育，扎实推进林业系统依法治理和法治创建，推进林业法治宣传教育与法治实践相结合，充分发挥法治宣传教育在依法治林中的基础性作用，推动全社会树立和强化林业法治意识。以落实国家机关“谁执法谁普法”的普法责任制为契机，积极推动全局林业系统普法依法治理工作创新发展，全面提高依法治林水平。', '考核对象为局属各国有林场、林木良种繁育中心、森林公安分局、干休所；考核内容按照《六盘山林业局普法责任制考核细则》进行。', '（一）听取综合汇报。被考核单位向考核组汇报普法治理情况和落实普法规划等工作开展情况。', '（二）查阅档案资料。主要包括普法治理工作开展情况、普法机构、各项制度建设、普法工作创新工作等证明资料，可提供书面、电子、声像等。', '（三）平时考核。根据工作开展情况，需要实地查看普法工作开展情况的，可根据单位数量抽查一定比例单位，考察平时普法工作的完成情况，考核直接计入被考核单位总分值。', '普法年初有安排、年中有小结、年底有总结的6分；将普法工作纳入本单位效能目标管理考核的4分。', '成立普法领机构，明确分管领导和1名门专（兼）工作人员的得5分；将法治宣传教育工作纳入重要议事日程，每年研究部署普法工作2次以上的得5分。', '建立本部门（单位）普法责任清单，细化量化工作，提出具体工作措施，扎实落实责任制的得10分；支持普法办工作，按时完成局全年普法办安排的各项工作任务，及时报送文件、信息得10分。', '制定部门学法计划，认真学习习近平总书记系列重要讲话、宪法、中国法律体系、本部门职责紧密相关的法律法规、党内法规的得4分；集体学法4次以上的得4分。有普法对象花名册得2分，组织单位干部职工参加学法考试，参考率为100%、考试成绩优良（80分以上）率为80%以上的得10分，参考率不到70%、优良率为60%-80%的得8分；参考率、优良率为60%以下的得5分。', '广泛开展法治文化创建和阵地建设，办公场所悬挂法治书画牌匾、设置宣传栏等营造法治氛围。', '利用各种媒体，借助各类行业窗口面向公众经常性地开展行业法律法规宣传的得5分；积极参加“12•4”全国法制宣传日等集中宣传活动，积极开展专业法宣传的得5分；积极法治宣传，本年度开展2次以上有特点、有影响的宣传活动得10分。', '普法经费能确保普法依法治理工作正常运行、有开展各项活动的经费拨付凭据的得5分，没有普法经费财务凭据的不得分。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>292</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>固原市党政代表团在福州市考察对接</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201810/t20181016_1129148.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['10月12日至13日，自治区党委常委、市委书记张柱带领固原市党政代表团深入福建省福州市马尾区开展考察对接，共商对口扶贫协作大计。福建省委副书记、福州市委书记王宁，福州市市长尤猛军会见代表团，福州市委常委、政法委书记高明，福州市副市长严可仕随同考察。', '代表团一行先后来到马尾区福建上润精密仪器有限公司、福州·马尾基金小镇、飞毛腿集团有限公司、亭江镇亭头村，重点学习考察福州市经济社会发展中创造的好经验、好做法。在飞毛腿集团有限公司，张柱看望了该企业固原籍务工人员。', '座谈会上，结对帮扶的固原市原州区、隆德县和福州市马尾区、闽侯县分别介绍了对口扶贫协作、结对帮扶有关工作情况；福建企业代表作交流发言；代表团成员、固原市副市长何炜向会议作经贸合作推介；原州区与福州金泽科技有限公司，隆德县与中石化福建分公司分别签订项目协议。', '高明说，福州市委、市政府始终把闽宁协作作为最重要的政治任务来抓，2016年福州市马尾区、闽侯县与固原市原州区、隆德县确立帮扶关系，两年来共落实原州区帮扶资金6145.8万元、隆德县帮扶资金5045万元，实施了闽宁示范村、特色产业等项目。在今后的工作中，福州市将进一步强化责任担当，坚决贯彻落实习近平总书记关于闽宁协作的重要讲话精神，与固原干部群众一起，把东西部扶贫协作工作做得更深入，坚决打赢脱贫攻坚这场硬仗。要紧盯帮扶目标，增强协作实效。通过持续加强产业协作、持续开展劳务协作、持续深化项目帮扶、持续推进人才支援，做到精准聚焦、精准施策、精准发力。要完善工作机制，提升协作水平。今后福州市将进一步健全沟通对接机制、拓展对口帮扶机制、完善考核落实机制，把对口协作引向深入。', '张柱代表固原市委、市政府和全市各族人民，对福州市委、市政府及各级各界多年来给予固原的支持和帮助表示感谢。张柱说，六盘山连着闽江水，闽宁情深似兄弟情，22年来，闽宁协作已经成为东西部扶贫协作和对口支援的一个生动典范。多年来，福州、固原两市党委、政府牢固树立“四个意识”，全方位开展对口扶贫协作，双方共建了大爱之路，构筑了友谊之路，开拓了共赢之路。今后，要认真贯彻落实习近平总书记在东西部扶贫协作座谈会上的重要讲话精神，全面贯彻落实第22次闽宁对口扶贫协作联席会议精神，在精准帮扶上再深化，强化两市之间对接协调，深入推进乡镇、部门、村之间结对帮扶，持续强化项目投资、产业扶贫、劳务协作等重点工作，不断提高对口帮扶的精准度和实效性。要在携手小康上再聚焦，推动“携手奔小康”行动深入实施，把闽宁扶贫示范村与乡村振兴结合起来，增强造血功能，激发内生动力。要在产业协作上再发力，发挥福州和固原优势，搭建企业互动平台，让更多福州的企业到固原投资置业，互利共赢、共同发展。要在合作领域上再拓展，全面加强教育、文化、卫生、科技等领域协作发展，合力推进固原“四个一”林草产业试验示范工程建设，真正做到山绿与民富共赢、百姓富与生态美有机统一。要在人才支援上再强化，进一步深化互派干部等有效机制，有针对性地开展人才交流培训。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>292</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>固原市党政代表团在厦门市考察对接</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2018-10-18</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201810/t20181018_1130887.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['10月15日，自治区党委常委、市委书记张柱带领固原市党政代表团赴福建省厦门市开展考察对接，探索对口帮扶新途径。福建省委常委、厦门市委书记裴金佳出席座谈会并讲话，厦门市委副书记陈秋雄主持会议。厦门市领导林文生、李辉跃等分别参加座谈和考察活动。', '座谈会上，固原市泾源县、彭阳县和厦门市海沧区、思明区分别汇报了对口扶贫协作、结对帮扶等工作开展情况；福州籍企业家代表作交流发言；代表团成员、固原市副市长何炜向会议作经贸合作推介；泾源县、彭阳县分别与中食北山（福建）酒业有限公司、厦门鹦鹉纺织有限公司签订项目协议。', '裴金佳代表厦门市委、市政府对代表团的到来表示欢迎。裴金佳说，厦门与固原虽然远隔千山万水，但中央统筹区域发展、深化东西部对口协作的宏伟战略，把我们紧密相连。22年来，我们见证了宁夏、固原的发展变化，闽宁协作结出硕果、两地人民友谊日益深厚，这些成绩为今后两市更加深入开展对口帮扶奠定了坚实基础。我们要深入学习贯彻习近平总书记关于扶贫开发重要论述和关于东西部扶贫协作的重要讲话精神，按照两省区党委、政府的部署要求，紧紧围绕“两不愁三保障”目标，瞄准建档立卡贫困人口，精准务实地开展产业帮扶、劳务合作、人才支持等工作，帮助贫困群众就业、增收。着力促进两地优势互补，发挥厦门经济特区的“重要窗口”作用，协助固原开展招商引资等工作，支持固原特色农产品、特色旅游等开拓展销渠道，提高产业合作实效。广泛凝聚脱贫攻坚合力，把政府、市场、社会的力量充分调动起来，携手并进，共同完成中央交给的重大政治任务。', '张柱代表固原市委、市政府和全市各族人民，对厦门市委、市政府及各级各界多年来给予固原的倾情帮助表示感谢。张柱说，厦门市与固原市的结对帮扶跨越了22年的时空，闽宁协作更进一步向前推进，取得了突出成效。今后，我们要认真贯彻落实习近平总书记在东西部扶贫协作座谈会上的重要讲话精神，全面贯彻落实第22次闽宁对口扶贫协作联席会议精神，进一步深化结对帮扶关系，把帮扶工作做扎实。在市一级的层面，更进一步加强对接，为县区结对帮扶做好顶层设计。要进一步深化携手奔小康行动，以闽宁示范村建设为抓手，扎实开展“携手奔小康”行动，把厦门城市管理中的先进经验、规划、科技等方面的先进技术引进固原。要进一步深化产业扶贫协作，希望厦门发挥信息技术、生物医药等方面的优势，坚持市场化的合作方向，搭建企业互动平台。实施产业开发项目，推动优势互补产业互惠，引导更多的厦门企业来固投资建设，互利共赢。要进一步深化拓展协作领域，进一步拓宽协作思路，推进对口扶贫协作从政府主导向政府引导、以企业和社会为主体的方向转变，从经济扶贫合作为主向全方位合作转变，在卫生、教育等更高层次、更大范围交流合作上取得突破。要进一步深化干部交流，把人才、技术、经验等通过干部交流、企业家合作等方式，从东部地区带到西部地区来。', '座谈会结束后，代表团还考察了福建康众畅想信息科技有限公司、厦门互联科创企业管理有限公司、天马微电子有限公司、厦门生物医药港、海沧街道青礁村院前社，详细了解厦门科技创新、生物医药、社区建设等情况。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>292</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市政府召开党组会议暨理论学习中心组扩大学习会</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-09-15</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202209/t20220915_3780257.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['9月14日，市政府党组书记、市长杨青龙主持召开市政府党组会议暨理论学习中心组扩大学习会，传达学习《习近平谈治国理政》第四卷及习近平总书记近期重要讲话和重要指示精神，研究贯彻意见；传达学习近期自治区党委常委会会议和党委专题会议精神，研究贯彻意见；围绕“大学习、大讨论、大宣传、大实践”活动开展研讨交流。', '会议要求，要认真贯彻落实好习近平总书记关于“三农”工作的重要论述，充分认识“三农”工作始终是固原发展的头等大事和重要工作任务，全力推动农业农村高质量发展，促进农业高质高效、农村宜居宜业、农民富裕富足。', '会议指出，要按照“疫情要防住、经济要稳住、发展要安全”的要求，高效统筹好发展和安全、疫情防控和经济社会发展，全力抓实抓细抓好防风险保平安护稳定各项工作，以实际行动迎接党的二十大胜利召开。要健全完善科技人才支持体系，推动实施“揭榜挂帅”、“赛马制”等制度，争取相关重大科研项目落地固原。要全面加强资源节约力度，推动全市经济社会发展全面绿色转型。要做好深化农村集体经营性建设用地入市试点准备工作，确保取之于农、用之于农。要实施新一轮乡村医疗卫生服务能力提升工程，让广大农民群众能够就近获得更加公平可及的医疗服务。', '会议强调，要把习近平总书记考察辽宁的重要讲话精神和视察宁夏重要讲话精神结合起来，更加深刻领会党中央关于完整准确全面贯彻新发展理念、构建新发展格局的重大战略部署，努力在全方位推动高质量发展上取得新突破。要认真贯彻落实习近平总书记关于防震减灾的重要论述，坚持人民至上、生命至上，立足于防大震、防大灾，加强预警监测，完善防灾体系建设，切实守护好人民群众生命财产安全。', '会议强调，要全面进入维护安全稳定战时状态，时刻牢记安全稳定压倒一切、没有安全一切都无从谈起，始终保持睁眼睡觉的警觉、如履薄冰的警惕，想深谋实抓牢，全力抓实抓细生态环保、疫情防控、洪涝灾害等工作，确保社会稳定、人心稳定、大局稳定。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>292</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>经济技术开发区党工委专题研究贯彻落实市委市政府关于加快固原经济技术开发区发展的实施方案</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2017-03-30</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201703/t20170330_380051.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['经济技术开发区党工委专题研究贯彻落实市委、市政府《关于加快固原经济技术开发区发展的实施方案》_固原市人民政府', '经济技术开发区党工委专题研究贯彻落实市委、市政府《关于加快固原经济技术开发区发展的实施方案》', '3月27日，市委、市政府印发《关于加快固原经济技术开发区发展的实施方案》(固党发〔2017〕17号)。为尽快落实好《方案》提出的各项要求，3月29日，开发区党工委书记、管委会主任张汉斌主持召开党工委会议，专题研究了贯彻落实《方案》的具体措施。', '会议指出，市委、市政府出台《关于加快固原经济技术开发区发展的实施方案》，是开发区改革发展中的一件大事。抓好《方案》的贯彻落实，既是全市全面深化改革的具体任务，也是推动开发区理顺管理体制机制、加快发展的必然要求。', '会议围绕《方案》提出的发展思路、园区定位、园区管理、体制机制4个方面的内容，进行深入学习讨论，对每一项任务进行细化，明确责任分工。提出了加快园区规划修订编制、制定园区招商引资奖励办法、加强经济运行监测、制定决策事项工作流程、建立联审联办机制、理顺与职能部门关系、明确开发区管委会内设机构职责、采取竞争上岗和组织考察相结合的方式进行人员调配、制定平台公司内部管理制度和与开发区管委会内设机构工作衔接流程、理顺实施开发区新的财税体制、制定开发区管委会绩效考核办法、制定园区建设领导小组议事规则等23条贯彻落实措施。', '开发区管委会近期将组织召开改革推进会，动员开发区上下统一思想，强化认识，加快推进各项改革工作，确保开发区4月份按照新的管理体制机制运行。(撰稿人 张克亮)']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>292</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>固原市年自主公开招聘普通高中教师公告</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202109/t20210907_3008262.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔', '号）、《自治区党委编办 教育厅 人力资源和社会保障厅关于使用周转池编制组织自主公开招聘补充中小学教师有关事项的通知》（宁教函〔', '共招聘14个岗位40人，全部安排在固原市市直普通高中学校。具体招聘岗位、人数、资格条件及有关事项详见《固原市2021年自主公开招聘普通高中教师岗位计划一览表》。', '共招聘14个岗位40人，全部安排在固原市市直普通高中学校。具体招聘岗位、人数、资格条件及有关事项详见《固原市', '1.具有中华人民共和国国籍，拥护中华人民共和国宪法，拥护中国共产党领导和社会主义制度；', '具有中华人民共和国国籍，拥护中华人民共和国宪法，拥护中国共产党领导和社会主义制度；', '4.本科毕业生年龄40周岁以下（1980年9月7日以后出生），硕士研究生或取得高级职称者年龄可放宽至45周岁以下（1975年9月7日以后出生），年龄以报考人员有效身份证上的日期为准；', '5.符合《固原市2021年自主公开招聘普通高中教师岗位计划一览表》中各招聘岗位要求的资格条件；', '招聘公告在宁夏人事考试中心网、宁夏公共招聘网、宁夏高层次人才工作网、固原市人民政府网、固原市教育体育局官网公开发布。', '），将报名表（须本人签字）、本人有效身份证（正反面同一页）、学历证、学位证、教师资格证、高级教师职称证、《教育部学历证书电子注册备案表》、学位证书查询结果（以上八项资料扫描件）以及一寸白底正面免冠电子照片建立压缩包（以“姓名+应聘岗位”命名），须于报名终止时间前，发送至邮箱gysjyjrsk@163.com。每位应聘者只能报考一个岗位，报名与考试时使用的身份证必须一致。', '3.资格初审。按照招聘岗位条件及招聘要求，对应聘者报名资料进行资格初审，并通过打电话、发短信等方式向应聘者进行初审结果确认。', '5.同一岗位招聘人数与报名人数达不到1:3开考比例的，经招聘领导小组研究，可适当降低开考比例、减少招聘名额或取消招聘岗位（具体以变更岗位公告为准）。', ':3开考比例的，经招聘领导小组研究，可适当降低开考比例、减少招聘名额或取消招聘岗位（具体以变更岗位公告为准）。', '1.应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合报考条件的，随时取消应聘资格。', '应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合报考条件的，随时取消应聘资格。', '2.资格复审由固原市教育体育局负责。资格复审时间、地点在固原市教育体育局官网公布。', '3.参加资格复审者须提交以下资料：《固原市2021年自主公开招聘普通高中教师报名表》，本人有效身份证、学历证、学位证、高级中学教师资格证、高级教师职称证、《教育部学历证书电子注册备案表》、学位证书查询结果等原件及复印件。（具体要求以资格复审公告为准）。', '年自主公开招聘普通高中教师报名表》，本人有效身份证、学历证、学位证、高级中学教师资格证、高级教师职称证、《教育部学历证书电子注册备案表》、学位证书查询结果等原件及复印件。（具体要求以资格复审公告为准）。', '4.面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，经招聘领导小组研究，可在本招考岗位按笔试成绩从高分到低分依次递补。资格复审合格的面试人员名单在固原市教育体育局官网公布。', '面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，经招聘领导小组研究，可在本招考岗位按笔试成绩从高分到低分依次递补。资格复审合格的面试人员名单在固原市教育体育局官网公布。', '1.确定面试对象。依据笔试成绩，按照同一岗位招聘人数与进入面试人数1:3的比例，从高分到低分确定面试人选。不足1:3比例的，经招聘领导小组研究可适当降低比例。', '（1）面试提前一周发布公告，并采取打电话、发信息等方式，通知考生面试时间、面试地点、面试形式等相关要求。', '（2）面试采取试讲方式。面试人员按照抽签顺序依次到备考室备课20分钟后，进入考场进行试讲，试讲时间20分钟。', '考试总成绩=笔试成绩×40%+面试成绩×60%，按同一岗位招聘计划1:1的比例，从高分到低分确定体检和考察人选。如总成绩出现并列，以面试成绩高的排位在前。', ':1的比例，从高分到低分确定体检和考察人选。如总成绩出现并列，以面试成绩高的排位在前。', '1.体检和考察由固原市教育体育局负责组织实施，具体时间、地点在固原市教育体育局官网发布。', '体检和考察由固原市教育体育局负责组织实施，具体时间、地点在固原市教育体育局官网发布。', '2.体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。应聘者对体检结果有异议的，可按照有关规定提出复检；复检只能进行一次，体检结果以复检结论为准。体检费用由应聘者承担，申请复检的应聘者还需承担复检相关费用。应聘者如在规定时间不按要求完成体检项目的，视同自动放弃招聘资格。', '〕140号）和行业有关规定执行。应聘者对体检结果有异议的，可按照有关规定提出复检；复检只能进行一次，体检结果以复检结论为准。体检费用由应聘者承担，申请复检的应聘者还需承担复检相关费用。应聘者如在规定时间不按要求完成体检项目的，视同自动放弃招聘资格。', '3.体检合格的人员列入考察对象，考察参照《关于做好公务员录用考察工作的通知》等执行。体检或考察不合格的，经招聘领导小组研究，可在面试合格人员中按考试总成绩从高分到低分依次递补。', '根据考试、体检、考察结果，固原市自主公开招聘教师工作领导小组确定拟聘用人员，在固原市教育体育局官网公示5个工作日。公示期满无异议的拟聘用人员，按相关规定由固原市人力资源和社会保障局办理招聘手续。被聘用人员无正当理由逾期（自接到通知3个工作日内）不报到的，取消聘用资格。', '根据考试、体检、考察结果，固原市自主公开招聘教师工作领导小组确定拟聘用人员，在固原市教育体育局官网公示', '个工作日。公示期满无异议的拟聘用人员，按相关规定由固原市人力资源和社会保障局办理招聘手续。被聘用人员无正当理由逾期（自接到通知3个工作日内）不报到的，取消聘用资格。', '（一）严格落实区、市疫情防控工作相关规定，此次招聘工作各环节全面落实依法防控、科学防治、精准施策的要求，保证各考场开窗通风、清洁消毒，所有人员进入考试区需出示防疫健康码、行程码，接受体温监测，正确佩戴口罩，保持1米以上安全距离。如出现异常情况，执行考试期间疫情防控应急预案。', '（二）应聘者应当自觉服从疫情防控工作要求，提供健康码、行程码和48小时内核酸检测阴性报告。凡有境外和国内中高风险地区旅居史的人员，须提供隔离医学观察期满证明，经属地疫情防控部门审定后，方可参加考试。不服从工作安排的，取消应聘资格。', '（一）招聘工作全过程在自治区党委编办、人力资源和社会保障厅、教育厅等上级部门以及市委编办、人力资源和社会保障局的指导、监督和管理下进行。', '（二）招聘工作报名、笔试、资格审查、面试、体检、考察、公示、聘用等各环节，均在固原市纪委监委派驻第四纪检监察组的全程监督下进行。', '（三）凡涉及招聘工作的重大事项或本公告未尽事宜，由固原市自主公开招聘教师工作领导小组研究决定。', '（四）招聘相关工作人员、应聘者在办理自主公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》相关要求提出回避。', '（六）招聘过程中如出现提供虚假资料、冒名顶替等行为，一经发现，取消应聘资格；如果已经聘用的，解除聘用关系。应聘者报名时所留电话应保持畅通，因电话不畅通导致无法通知相关事宜的，责任由应聘者承担。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>292</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于转发市人力资源和社会保障局固原市十二五行政机关公务员培训规划的通知</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2012-06-18</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_383945.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于转发市人力资源和社会保障局《固原市“十二五”行政机关公务员培训规划》的通知_固原市人民政府', '固原市人民政府办公室关于转发市人力资源和社会保障局《固原市“十二五”行政机关公务员培训规划》的通知', '固原市人力资源和社会保障局制定的《固原市 “十二五”行政机关公务员培训规划》已经市人民政府同意，现转发给你们，请认真贯彻执行。', '为了全面加强我市行政机关公务员队伍建设，根据《中华人民共和国公务员法》、《干部教育培训工作条例（试行）》、《自治区党委办公厅关于印发2010—2020年宁夏干部教育培训改革纲要的通知》（宁党办发〔2011〕75号）及《自治区人民政府办公厅关于转发人力资源和社会保障厅“十二五”行政机关公务员培训规划的通知》（宁政办发〔2011〕142号）和《固原市贯彻〈2010-2020宁夏干部教育培训纲要〉的实施意见》（固党办发〔2011〕102号）等法律法规和政策文件的规定，结合我市实际,制定本规划。', '高举中国特色社会主义伟大旗帜，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，坚持整体推进、重点突出、按需施教，科学管理的方针，以改革为动力，以提高培训质量和效益为主线，实施全覆盖、多手段、高质量的培训，不断提升公务员培训工作的科学化、信息化水平，全面落实大规模培训干部、大幅度提高干部素质战略任务，努力培养造就一支政治坚定、业务精湛、作风过硬、人民满意的公务员队伍，为顺利实现我市“十二五”规划目标、建设新固原提供政治保证、人才保证和智力支持。', '一是服务大局，紧扣需求，强化针对性。适应我市经济社会发展需要，围绕市委、政府工作大局，针对工作岗位要求和公务员全面发展需要，确定培训内容和方式方法，为科学发展服务、为中心工作服务、为公务员成长服务。', '二是突出能力，确保质量，提高实效性。坚持理论联系实际、学以致用，把公务员能力建设和培训的目标、内容、方式等紧密结合起来，根据我市经济社会发展和公务员队伍建设的需要，探索新思路、新途径和新措施，注重控制培训成本，节约办学，提高培训效益，进一步实现培训规模的质量、效益有机统一。', '三是突出重点，均衡发展，提高统筹性。着力解决重复培训和多年不训的问题，重点加大对基层公务员培训力度，统筹推进培训工作，促进不同地区、不同部门、不同培训类别和不同层次公务员全面均衡发展，保障公务员接受培训的权利。', '四是依法培训，改革创新，增进科学性。全面贯彻落实《中华人民共和国公务员法》以及其他有关法律法规和政策规定，严格依法开展培训工作。创新培训内容，方式方法和机制，实现培训科学发展。', '到2015年，全市公务员整体参训率进一步提高，初任培训参训率达到100%，任职培训参训率达到80%以上，乡镇街道和公共服务部门基层公务员轮训一遍。通过培训，使公务员的道德水平、能力素质和作风修养进一步提升，政治鉴别力、贯彻执行力和创新服务力进一步增强，更好地服务于学习型机关建设、服务于和谐社会建设、服务于人民群众需要。', '1、思想政治理论。加强马克思列宁主义、毛泽东思想、邓小平理论和“三个代表”重要思想培训，重点进行中国特色社会主义理论体系特别是科学发展观培训，进行党的路线方针和国家法律法规、党的历史和优良传统、国情、区情、市情和形势培训，加强以爱国主义为核心的民族精神和以改革创新为核心的时代精神教育。深刻领会中国特色社会主义理论体系的根本立场、基本观点、科学方法，提高马克思主义理论水平和认识世界、改造世界的能力。', '2、推动科学发展、促进社会和谐能力。围绕实现“十二五”时期全市经济社会发展目标和科学发展这一主题，加快转变经济发展方式这一主线及深化改革开放、保障民生、改善民生等遇到的重点、难点、热点问题组织培训，提高公务员分析问题、把握规律、破解难题的能力，更好地推进科学发展、促进社会和谐。', '3、职业道德。“十二五”期间，在全市行政机关公务员中大力开展公务员职业道德教育培训和公务员职业道德建设实践活动，培训学习的内容是：忠于祖国，服务人民，恪尽职守，公正廉洁。培训的目标是：政治信念坚定、精神追求高尚、职业操守良好、人民群众满意。使广大公务员始终牢记忠于祖国是公务员立身之本，服务人民是公务员的本质要求，恪尽职守是公务员的基本义务，清正廉洁是公务员的基本品质。大力开展公务员职业道德建设活动，选送公务员职业道德楷模，把公务员职业道德作为公务员队伍建设和促进公务员培训工作发展的重要抓手。', '4、依法行政。围绕加快推进法治政治建设，深化和加强依法行政培训工作，把依法行政列为公务员新任培训、任职培训和在职培训的必修内容。大力开展自治区党委、政府及市委、政府在政治、经济、文化、社会等方面的重要政策、重大部署和要求的培训学习，开展社会主义法制教育，加强法律法规和公务员学法用法知识的培训。继续加强公务员法培训，提高公务员管理法制化水平和公务员依法履行岗位职责意识。', '5、专门业务。用现代科学文化知识和人类创造的优秀文明成果充实公务员头脑，加强科学知识、科学精神、科学方法的教育，继续开展公共管理核心内容、信息安全与保密、国防教育以及科技、文化、历史、心理等知识培训。强化专门业务知识和技能培训，提高公务员专业素质，帮助广大公务员完善知识结构，提高综合素质和能力。', '6、学历学位教育。鼓励公务员特别是年轻公务员，本着工作需要、学用一致的原则参加有关学历学位教育，稳步推进公共管理硕士（MPA）专业学位教育。进一步改善我市公务员队伍的学历学位结构。', '1、坚持和完善组织调训制度。制定全市公务员年度培训计划，各部门（单位）要结合行业特点和工作实际，加大对公务员重点业务培训，每年要制定相关培训计划并组织实施，培训计划及实施情况报市公务员主管部门备案。选调（送）公务员参加专题班、高研班、进修班等脱产培训。', '2、推行自主选学和网络培训。推行公务员自主选学，鼓励公务员积极参训，更好满足公务员多元化、个性化、差别化的培训需求。充分利用自治区干部网络培训平台开展在线自主选学；抓好“供、选、教、管”等关键环节和配套制度建设，提高自主选学质量，2012年在全市县处级干部中开展网络培训，到2015年基本实现全市网络培训全覆盖；同时，积极创造条件推进建设市级公务员培训网络。', '3、倡导自学和在实践中学习。引导公务员树立终身学习理念，激发学习内生动力，积极倡导自学，不断改善知识结构，提高自身修养。注重在工作中学习、在实践中学习。把公务员培训与建设学习型组织和创先争优活动等紧密结合起来，通过多种形式开展培训，营造学习氛围，提升公务员学习能力和学习效果。', '（一）进一步规范四类培训。初任培训，着力提高新录用公务员适应职位要求、胜任本职工作的能力，确保新录用公务员尽快适应行政机关工作需要。要加强监督检查，促进初任培训的科学化和规范化。任职培训，着力提高晋升领导职务公务员的领导能力。培训重点突出领导科学与领导艺术、依法治国与依法行政、突发事件应对与处理、人力资源开发与管理等。专门业务培训，着力提高公务员的业务工作能力。各部门各单位要加大与业务工作相关的新思想、新理论、新知识、新技能培训，围绕全市确定的重大项目、生态移民等重点工作，有计划地开展公务员专门业务培训，努力使公务员成为有知识、懂业务、胜任本职工作的行家里手。在职培训，围绕党的路线方针政策、法律法规、国际国内形势以及市委、政府重要决策等重要内容，拓宽培训渠道，创新培训形式，增强培训实效。落实新一轮大规模轮训培训公务员的战略任务，切实做好公务员在职培训工作。', '（二）做好东西部对口培训工作。积极争取自治区公务员主管部门的支持，选派公务员赴区（境）外培训，紧紧围绕我市经济发展急需紧缺的农业产业开发、经济管理、扶贫开发、人力资源开发、城市建设、文化产业开发、社会管理、环境旅游产业开发、政府公共管理、高新技术产业开发等专题。通过对口培训学习，借鉴东部地区先进的公共管理与社会服务理念和经验，提高决策能力、创新能力和公共服务能力。', '（三）抓好基层公务员培训。坚持务实、管用原则，全面实施基层公务员培训工程。重点加强乡镇、街道和执法部门基层公务员培训。要进一步充实完善本地区本部门基层公务员培训方案，切实提高基层公务员执行政策、服务群众、依法办事、社会管理等本领。基本要求是：乡镇、街道公务员培训围绕促进农村、社区各项事业协调发展的目标，加强依法行政、服务三农、服务社区、建设和谐农村、创建和谐社区等方面的培训；公安、司法、环保、土地等执法部门基层公务员，培训重点是提高公平执法、公正执法、文明执法的能力和水平。', '（四）加强培训基地建设。要充分发挥各级党校、行政学院培训公务员的主渠道、主阵地作用，突出培训特点，增强培训实效。要围绕市委、政府的中心工作和公务员队伍建设的实际开展培训工作。同时，要积极利用高等院校等资源为公务员培训服务。', '（五）建立严格的培训制度，健全激励约束机制。完善落实培训与使用相结合的制度，把公务员培训情况、学习成绩作为公务员年度考核的内容和任职、晋升的重要依据。没有参加初任培训或培训考试、考核不合格的新录用公务员，不能任职定级。没有参加任职培训、专门业务培训和在职培训，或培训考试、考核不合格的公务员，年度考核不得确定为优秀等次。全面落实《固原市干部教育培训学分制管理办法（试行）》，定期登记公务员学分获得情况，作为干部提拔和评先选优的依据之一。', '（六）保证培训经费的投入。按照《中华人民共和国公务员法》等法律法规的有关要求，将公务员培训所需经费列入各级财政预算，保证培训工作的需要。要加强培训经费管理，确保专款专用，提高培训经费的使用效益。', '（七）加强培训管理者队伍建设。采取有力措施，保证培训管理者优先培训和应训必训。通过开展跟班培训、专题研讨、经验交流、工作考察等方式，提高公务员培训管理者的综合素质和专业化水平，建设一支学习型、研究型、创新型公务员培训管理者队伍。五年内有计划地将全市公务员培训管理者轮训一遍。', '（八）加强培训管理和监督检查。建立健全举办培训班管理制度，严格审批程序，严禁举办以盈利为目的培训班，严禁以培训为名搞公款旅游，尤其是出国(境)旅游，坚决制止乱办班、乱收费、乱发证行为。加强和改进学风建设，认真落实《关于在干部教育培训工作中加强学风建设的暂行规定》，不断加强和改进学风。要将公务员学习态度、参与程度、互动效果、学习成果作为评价学风情况的重要内容。要加大监督检查力度，公务员主管部门每年要对各部门（单位）培训情况进行监督检查，对未按要求安排培训的部门（单位）年度考核不评优秀等次人员。坚决纠正违法违纪行为，对造成严重后果的，要追究所在单位领导和当事人的责任，维护公务员培训的严肃性。', '各县（区）各部门要从战略高度认识公务员培训工作的重要性，切实增强做好公务员培训工作的责任感和紧迫感。要把人才资源开发和公务员培训作为重要内容列入议事日程，同步考虑，统筹安排。市政府公务员主管部门负责指导协调全市行政机关公务员培训工作。各县（区）政府公务员主管部门负责指导协调本行政区域内行政机关公务员培训的综合管理和组织实施等工作。市、县（区）公务员主管部门要切实履行职责，加强对公务员培训工作的指导，抓好规划制定，改革研究，督促检查，质量评估，工作协调，宏观管理工作，及时发现和解决存在的问题，总结推广有益经验和做法。同时每年要对公务员培训工作情况进行检查评估，确保各项工作任务扎实推进，取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>292</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>年固原市科技政策落实年活动方案</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202202/t20220228_3338169.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记视察宁夏重要讲话精神，坚持科技创新', '针对我市整体创新意识薄弱，科技创新力量不足，创新活力仍需激发，加快科技创新仍然面临', '科技系统干部认真学习政策、熟练掌握政策、积极宣讲政策、扎实落实政策，并对学习情况进行测试，作为评价服务能力、干部素质的重要依据。', '县（区）要按照中央和自治区决策要求，建立完善财政研发经费投入刚性增长机制，健全政府投入为主、社会多渠道投入机制，增强对创新驱动发展战略的财力保障。要积极创新财政投入方式，充分发挥引导撬动作用，激励企业和其他创新主体进一步加大科技投入力度、提高研发投入占比。', '按照固原市科技创新全社会R&amp;D投入指标任务和工作要求，组织相关业务科室和科技中介机构，深入各县（区），对全市有研发活动的规上企业和规下科技型企业进行2021年度R&amp;D投入统计政策宣讲和现场指导，确保完成我市2021年', '积极组织全市已认定的国家高新技术企业、农业高新技术企业、科技小巨人企业开展互观互学活动，紧紧围绕企业生产经营现状、科技研发平台建设、科技创新工作思路、科技项目实施情况、科技研发投入情况等方面，以“成果展演、技能比拼、平台展示”等多种形式开展互观互学，以观促学、以学促进活动。', '大力培育发展高新技术企业、科技小巨人企业、农业高新技术企业和科技型中小企业，积极培育创新型示范企业，加快壮大科技型企业队伍，带动其他企业向科技型企业转型发展。', '引导和帮助企业家充分认清创新紧迫形势、掌握基本创新方法、增强创新发展能力，逐步把企业打造成强大的创新主体。', '组织我市有条件的高校、院所、科技型企业赴福建农林大学、福建省农业科学院、厦门市科技局开展东西部合作对接交流活动，', '区内外合作主体共建科技园区、联合开展攻关、引进转化科技成果，开展全链条、体系化协同创新，形成东西部科技合作新格局。支持', '进一步加大科技招商引资力度，拓展招商渠道，重点围绕宁夏长药良生大健康产业园引进康美药业等国内知名药企，建成固原市中药材（农副产品）交易市场和仓储物流中心，实现招商引资新突破，为产业高质量发展抢占先机。', '建立市科技局牵头、县（区）科技部门共同参与的工作机制，按期开展各项活动。各县（区）要积极配合，组织辖区内企业参加各项活动，协同推进活动开展。在组织政策宣讲上下功夫，在解决企业难题中求实效，确保各项工作落到实处。', '精神落实各项任务。各牵头责任人和责任科室要按照活动方案精心组织，合理安排时间，不能影响企业的日常生产经营活动。', '全市科技部门要对“科技政策落实年”活动进行全方位、多渠道宣传，广泛报道工作先进经验和活动中涌现出的典型事例，提高企业参与度和社会公众的知晓度，为活动开展营造良好社会氛围。', '将科技政策落实进企业工作纳入各县（区）科技局科技服务年度考核重要内容，对工作成绩突出的单位和个人进行通报表扬。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>292</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>吉强镇水岔村开展养殖产业技术培训班</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-07-24</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190724_1626047.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['7月22日，趁雨天放晴农户小闲时机，市科技局派驻水岔村扶贫工作队联合水岔村委会一班人、产业指导科技特派员，组织带领水岔村建档立卡、非建档立卡户养殖户一行32人，赴四丰绿源现代农业发展有限公司、宁夏固原国家农业科技园区肉牛良种繁育基地及宁夏荟峰农副产品有限公司进行现代养殖技术、良种引进育种、饲料配置加工技术现场观摩教学培训学习。', '首先，培训学员来到四丰绿源现代农业发展有限公司听取马存录董事长立家创业的养牛致富经验，他从为什么要养牛、怎样选牛、饲料的配制、粪便处理、出栏销售等方面进行了详细讲解。并从每头牛每天的食草量、食草次数及出栏时需要投入的成本及获得的利润进行算细账，让学员心里有一本明白账，通过算细账的方式给每位学员吃了定心丸。', '其次，学员来到宁夏固原国家农业科技园区肉牛良种繁育基地（该基地是西北农林科技大学科研实验基地），该基地技术负责人西北农林科技大学辛亚平教授重点从如何科学养殖、科学管理、科学配制饲料、肉牛育肥技术、国内外牛的优良品种、生产性能、杂交改良效果等方面进行了讲解，并给学员提供了西北农林科技大学养殖业技术咨询服务平台，学员可手机登陆提出养殖业技术疑问，辛亚平教授及其所带研究生随时解答。', '最后，学员来固原市最大的饲草料加工企业---宁夏荟峰农副产品有限公司，公司董事长邱雪峰对饲料加工的原料、流程、方法等方面进行了讲解，观看了主打饲草苜蓿生长及全市草产业发展情况的效果简介视频，使学员更好的理解全市饲草料的规模及发展前景，随后参观了饲草料加工流程及产品，讲解过程图文并茂，易学易董，收到了良好的效果。', '此次培训班，学习内容全面丰富，既有集中理论知识学习又有现场教学实际操作。培训方式采取理论讲授、现场考察、交流研讨等方式向培训学员传授牛养殖、疾病预防、饲料加工等方面的知识。学员高度集中，边听边记，认真领会。', '通过讲习所课堂理论学习和现场实践教学相结合的培训，使学员们开阔了眼界，增长了见识，进一步了解了科技带给养殖产业的巨大支撑，受益匪浅，在养殖理论、思维、方法等方面都有了较大提升，每位学员初步掌握了一定养殖技术，提升他们的养殖技能水平，增强了他们科学养殖、专业养殖及养殖商品化、产业化意识，达到了“学得会、做得好、有收入”效果。', '通过此次培训，为将养殖产业作为水岔村贫困人口脱贫致富的另一抓手打好良好的基础，从而有力助推该村贫困户快速脱贫致富的步伐。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>292</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>牢记总书记殷切嘱托加快固原发展振兴走好新时代赶考之路答好现代化时代考题</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022-04-06</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202204/t20220406_3417285.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['牢记总书记殷切嘱托加快固原发展振兴 走好新时代赶考之路答好现代化时代考题_固原市人民政府', '4月4日至5日，自治区党委书记梁言顺在固原市沿着习近平总书记2016年7月考察时的足迹，看望脱贫群众，调研脱贫攻坚成果巩固、乡村全面振兴、生态环境保护等工作，感悟习近平总书记对固原人民的深情大爱，强调要牢记总书记的殷切嘱托，在历届班子带领干部群众打下的良好工作基础上，以走好新的长征路的昂扬斗志，进一步发展固原、振兴固原，答好建设现代化美丽新固原的时代考题。', '泾源县的杨岭村曾是远近闻名的贫困村，2016年7月18日习近平总书记冒雨到这里考察脱贫攻坚情况。在总书记的亲切关怀下，经过6年的建设发展，杨岭村的村容村貌、生产生活发生了翻天覆地的变化。梁言顺来到村史馆了解杨岭村脱贫致富的历史变迁，走进总书记当年访贫问苦的马克俊家，学习感悟总书记亲民爱民的博大情怀。马克俊老人对着一家人与总书记合影留念的照片，动情地讲述当时的温馨场景，引导察看自家办的茶馆。梁言顺说，“小茶馆”诠释了总书记的“大恩情”，现在村里的生活面貌、村民的精神面貌大变样，看得见、摸得着，要用你的“小茶馆”和好日子向乡亲们和慕名而来的游客宣传好总书记对贫困地区的关心关怀和党的好政策，把总书记的恩情记在心里，接着干、好好干，把杨岭村建成乡村振兴的示范村，不辜负总书记的嘱托和期望。', '梁言顺来到西吉县水发浩海示范产业园、融侨（丰霖）肉牛生态产业园和总书记考察过的原州区姚磨村冷凉蔬菜示范园，听取企业负责人和市县同志介绍特色产业发展情况。他说，固原市发展农业有特色、有优势、有前景，要用好科技力量，开拓好市场，加快建设符合固原实际的农业产业体系、生产体系、经营体系，形成固原发展的后发优势。', '在隆德县渝河流域综合治理和彭阳县阳洼流域生态综合治理示范区，梁言顺实地察看了流域综合治理和生态建设情况，对他们的做法给予肯定。他说，听了你们的介绍和现场看的情况，以前让人皱眉头，现在令人身心愉悦，这就是总书记“绿水青山就是金山银山”理念的最好体现。希望你们巩固好来之不易的成果，把生态文明的种子播撒下去、代代相传，进一步把家园建设得更加美丽。', '彭阳县皇甫村是生态移民安置村。梁言顺调研了村里的就业帮扶车间、产业发展情况，随机走进1户人家与群众拉家常、问收入。“家里几口人，孩子在哪上学？”“收入来源有哪些，养了多少头牛，种了多少亩地？”“现在生活上还有什么困难？”听到农户说现在政策很好、生活上没有什么困难时，梁言顺叮嘱说，我们现在赶上了好时代，剩下的就是撸起袖子加油干，把日子越过越好。', '调研结束后，梁言顺主持召开座谈会，听取固原市工作情况汇报，对固原市经济社会发展成就给予肯定。他说，固原市翻天覆地的变化，是在党中央的坚强领导特别是习近平总书记的亲切关怀下取得的。现在，我们踏上了全面建设社会主义现代化的新征程，固原市作为红色地区，要坚定不移走好新的长征路，激扬“红军不怕远征难”的长征精神、“不到长城非好汉”的奋斗精神、“社会主义是干出来的”实干精神，继续发扬领导苦抓、干部苦帮、群众苦干的“三苦”精神，走好新时代的赶考之路，答好现代化的时代考题。固原市作为脱贫地区，要坚定不移推进高质量发展，完整准确全面贯彻新发展理念，抓住先行区建设的重大机遇，推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接，持续培育壮大特色产业，坚持不懈推进生态环境保护建设，不断增强发展内生动力、提升发展质量水平。固原市作为民族地区，要统筹发展和安全，坚定不移巩固发展和谐稳定局面，铸牢中华民族共同体意识，提升社会治理能力和水平。注重加强党的建设，引领全市干部群众进一步解放思想、进一步真抓实干、进一步奋力追赶，在全面建设社会主义现代化新征程上不断取得新的更大成绩。', '梁言顺强调，要慎终如始抓好疫情防控，提高政治站位，时刻保持警醒，坚持总策略不犹豫不动摇，进一步完善防控机制、梳理风险隐患、努力穷尽问题，看好我们的路口、我们的家门，细而又细、实而又实做好“外防输入、内防反弹”工作，坚决守住宁夏的“南大门”。要以高度的责任意识抓好安全生产，始终绷紧弦、瞪起眼，不要想着睡太平觉，坚决克服惰性思维、侥幸心理，警钟长鸣、负重前行，确保安全生产形势总体稳定。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>292</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202404/t20240428_4524048.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['4月26日，市委常委会召开会议，传达学习习近平总书记在新时代推动西部大开发座谈会、考察重庆时的重要讲话精神，研究贯彻意见；听取一季度全市经济运行情况汇报，研究部署下一步工作。市委书记滑志敏主持会议并讲话。', '会议指出，习近平总书记在重庆主持召开新时代推动西部大开发座谈会并发表重要讲话，对奋力谱写西部大开发新篇章作出全面部署，明确提出“六个坚持”的重点任务，具有很强的政治性、思想性、战略性、指导性。全市上下要从拥护“两个确立”、做到“两个维护”的政治高度，深入学习贯彻习近平总书记重要讲话精神，自觉把固原发展放在西部大开发战略全局中定位思考、统筹推进，一以贯之抓好党中央推动西部大开发政策举措的贯彻落实。要立足资源禀赋、发挥比较优势，走好“壮大一产、带动三产、撬动二产”的“一三二”产业发展新路子，因地制宜发展新质生产力。要抓好“山水工程”项目，打好黄河“几字弯”固原片区攻坚战和污染防治攻坚战，为筑牢西部生态安全屏障作出固原贡献。要用好闽宁协作、中央单位定点帮扶等有利平台，着力打造宁夏向南开放“桥头堡”，以大开放促进大开发。要更好统筹发展和安全，防范化解重点领域风险。要坚持民生为大，千方百计增加城乡居民收入，坚决守牢不发生规模性返贫的底线。要加快推进铸牢中华民族共同体意识示范市建设，坚决维护民族团结、宗教和顺，国家安全、社会稳定。要抓好党纪学习教育，持续整治形式主义为基层减负，激励干部担当作为，为谱写中国式现代化固原新篇章作出新的更大贡献。', '会议强调，今年以来，全市上下坚决贯彻党中央决策部署和自治区党委工作要求，齐心协力谋发展、抓发展、促发展，经济运行实现了“开门稳”，但总的来看“有喜有忧”。要牢固树立正确政绩观，按照市委五届十次全会作出的“12375”总体部署，紧盯目标真抓实干，以铁的纪律锻造铁的队伍、锤炼铁的作风、完成铁的任务。要抓紧抓实经济运行，稳住农业基本面，扭转工业下滑趋势，抓好项目投资，深挖市场消费潜力，促进经济持续健康发展，确保“半年双过半、全年上台阶”。要高效统筹高质量发展和高水平安全、高颜值生态、高品质生活，守牢安全底线、护牢生态底色、固牢民生底板。', '会议还研究了其他事项，并安排部署“五一”假期安全生产、矛盾纠纷排查化解、节日市场保供、值班值守等工作。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>292</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>谋思路强举措抓落实市地震局认真落实全区地震系统工作会议精神</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202303/t20230306_3986206.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为全面学习贯彻党的二十大精神，认真落实全区地震系统工作会议精神，全力做好防震减灾各项工作，市地震局积极谋划思路，强化落实举措，确保', '强站位，迅速传达学习。一是全区地震系统工作会议结束后，第一时间向市委、市政府分管领导进行了汇报，提出落实措施。二是召开专题会议，传达学习全区地震系统工作会议精神和宁夏地震局党组书记、局长张新基同志所作的工作报告，迅速在全市地震系统掀起学习宣传热潮。三是要求全市地震系统要', '有效化解地震灾害风险，为奋力描绘全面建设社会主义现代化美丽新宁夏固原新画卷提供更加坚实的地震安全保障', '2023年重点工作任务清单，进一步明确目标任务，细化工作措施，确定完成时限，确保各项工作落实落细落地、全年目标任务圆满完成。二是按照自治区防震减灾工作领导小组办公室《关于做好地震活动断层避让工作的意见》要求，制定《固原市地震活动断层避让工作实施方案》，', '全市地震活动断层避让工作进行了安排部署。三是按照市委关于加快自然灾害防治及重点部位隐患排查整治要求，', '提升应急处突综合保障能力，印发《关于做好全市地震应急救援力量调查摸底工作的通知》，组织', '对全市地震应急救援力量、物资装备进行调查摸底，建立台账，完善动态更新机制，确保平时底数清，震时拉得出、用得上。', '2023年震情监视和应急准备工作方案及措施清单》，对全市震情监视跟踪和应急准备工作进行了周密部署。二是加强重点时段地震安全服务保障，印发《关于做好2023年全国“两会”地震安全服务保障的通知》，实行周二、周五加密会商，做好地震宏观观测零报告，加强应急指挥系统和通信设备日常练兵，严格执行领导带班和24小时值班制度。三是', '“地震科普 携手同行”主题活动，积极筹备全市防震减灾科普讲解比赛，不断厚植防震减灾群众基础，充实防震减灾科普人才队伍，持续增强社会防震减灾综合能力。', '走出去，加强交流学习。组织科室负责人、业务骨干赴银川市地震局、平凉市地震局、平凉地震监测中心站等兄弟单位考察学习，在调研中启发思路、在学习中找准差距，不断探索防震减灾工作新思路，推动全市防震减灾工作上台阶、上水平。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>292</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察时强调建设黄河流域生态保护和高质量发展先行区在中国式现代化建设中谱写好宁夏篇章</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202406/t20240621_4572068.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['习近平在宁夏考察时强调 建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章_固原市人民政府', '习近平在宁夏考察时强调 建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在宁夏考察时强调，宁夏要深入贯彻新发展理念，坚持稳中求进工作总基调，以铸牢中华民族共同体意识为主线，以黄河流域生态保护和高质量发展先行区建设为牵引，统筹推进高质量发展和高水平保护、全面深化改革和扩大开放、新型城镇化和乡村振兴、民族团结和共同富裕等工作，加快建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏，奋力谱写中国式现代化宁夏篇章。', '6月19日，习近平结束在青海考察后，来到宁夏。当天下午，他在宁夏回族自治区党委书记梁言顺和自治区政府主席张雨浦陪同下，到银川市调研。', '银川市金凤区长城花园社区是个多民族聚居的大型社区。习近平首先来到社区党群服务中心，走进便民服务厅、社区卫生站、爱心超市，听取社区工作介绍，详细了解社区发挥基层党组织作用、开展邻里活动和便民惠民服务等情况。随后，他来到社区活动室，饶有兴致地观看居民剪纸创作、舞蹈排练，同大家亲切交流，鼓励退休居民既要老有所养、老有所乐，又要老有所为。习近平指出，社区党组织是党联系基层群众的神经末梢，要在社区中发挥领导作用。社区党组织建好建强了，社区工作就有了主心骨。要坚持党建引领，紧紧围绕解决居民的急难愁盼问题，把服务老百姓的各项工作做深做细做到位。', '习近平来到社区居民赵守成家中，同一家人围坐在一起拉家常，了解他们的就业、收入、医保报销、孩子上学等情况，为他们的幸福生活点赞，鼓励孩子德智体美劳全面发展。赵守成告诉总书记，当地党委和政府十分关心社区建设，特别是在改造老旧小区、丰富居民文体生活等方面做了很多实事，各族群众在社区里和睦相处，生活过得很舒心。习近平强调，我们党是全心全意为人民服务的党，各族群众、家家户户都是我的牵挂。希望你们把家庭建设搞得更好，让日子越过越红火。', '傍晚时分，社区广场十分热闹，居民们看见总书记来了，纷纷围拢过来，热烈鼓掌欢迎。习近平亲切地对大家说，时隔4年，我再次来宁夏看望各族干部群众，见到大家非常高兴！中华民族是一个大家庭，各族人民要像石榴籽一样紧紧抱在一起。要不断铸牢中华民族共同体意识，把各族人民的心紧紧连在一起，把各方面的力量广泛凝聚到一起，共同推进中国式现代化，共襄中华民族伟大复兴的盛举。', '20日上午，习近平听取宁夏回族自治区党委和政府工作汇报，对宁夏工作取得的成绩给予肯定。', '习近平指出，宁夏地理环境和资源禀赋独特，要走特色化、差异化的产业发展路子，构建体现宁夏优势、具有较强竞争力的现代化产业体系。宁夏的现代煤化工和新型材料产业，风电、光伏、氢能等清洁能源产业，葡萄酒、枸杞等特色产业，要精耕细作、持续发展。加强文化与旅游深度融合，积极发展特色旅游、全域旅游。强化科技创新和产业创新融合，加大科技成果转化应用力度，促进传统产业转型升级，培育战略性新兴产业，因地制宜发展新质生产力。宁夏北部引黄灌区、中部干旱带、南部山区各有特点，要把准各地产业发展基础、资源环境容量、开放开发潜力，加强统筹规划和产业合作，推动形成山川共济、城乡融合、区域联动的发展格局。', '习近平强调，宁夏要着力深化重点领域改革，探索具有本地特色的改革。完善市场经济基础制度，积极融入全国统一大市场建设，持续推进国资国企改革，认真落实促进民营经济发展政策，优化营商环境，激发社会投资活力。坚持对内对外开放相结合，积极参与共建“一带一路”和西部陆海新通道建设，深化与阿拉伯国家经贸合作，提高内陆开放水平。保护好黄河和贺兰山、六盘山、罗山的生态环境，是宁夏谋划改革发展的基准线，要深化资源环境要素市场化配置改革，完善生态产品价值实现机制和生态保护补偿机制，实施最严格的水资源管理制度。打好黄河“几字弯”攻坚战，统筹推进森林、草原、湿地、荒漠生态保护修复和盐碱地综合治理，让“塞上江南”越来越秀美。', '习近平指出，要加强普惠性、基础性、兜底性民生事业建设，着力解决人民群众急难愁盼问题，扎实推进各族人民共同富裕。要把就业摆在突出位置，扎实做好高校毕业生、农民工、退役军人等重点群体就业工作。积极推进城市更新，加强老旧小区改造。顺应人口流动趋势，推动城乡融合发展，促进城乡产业发展、基础设施、公共服务一体化。全面推进乡村振兴，实施好百万移民致富提升行动，建设美丽乡村，促进乡村移风易俗。巩固拓展脱贫攻坚成果，深化定点帮扶、社会帮扶，坚决防止发生规模性返贫。抓好安全生产，加强风险隐患排查和防控，切实维护人民群众生命财产安全。', '习近平强调，要全面贯彻新时代党的民族工作大政方针，努力创建铸牢中华民族共同体意识示范区。依法治理民族事务，着力构建互嵌式社会结构和社区环境，不断拓宽各民族全方位嵌入的实践路径。全面贯彻新时代党的宗教工作理论和方针政策，加强对宗教界思想政治引领。', '习近平指出，要把正在全党开展的党纪学习教育抓紧抓实、抓出成效，推动党员、干部认真学习党纪党规，在遵规守纪前提下，安心工作、放手干事，锐意进取、积极作为。要坚持党性党风党纪一起抓，完善作风建设常态化长效化制度机制，持续深化整治形式主义为基层减负，一体推进不敢腐、不能腐、不想腐，以优良党风凝聚人心、引领社会风气。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>292</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>关于印发固原市本级行政事业单位差旅费管理办法的通知</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-05-24</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201812/t20181228_1235803.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为了贯彻落实中央八项规定精神和《党政机关厉行节约反对浪费条例》，进一步加强和规范差旅费管理，固原市财政局重新修订了《固原市本级行政事业单位差旅费管理办法》，', '为了加强和规范市本级行政事业单位国内差旅费管理，推进厉行节约反对浪费，依照《宁夏回族自治区本级党政机关差旅费管理办法》（宁财行[2014]97号），结合我市实际，制定本办法。', '差旅费是指工作人员临时到常驻地以外地区公务出差所发生的交通费、住宿费和伙食补助费。', '因公出差审批制度。出差必须按规定报经单位有关领导批准，从严控制出差人数和天数；严格差旅费预算管理，控制差旅费支出规模；严禁无实质内容、无明确公务目的差旅活动，严禁以任何名义和方式变相旅游，严禁异地部门间无实质内容的学习交流和考察调研。', '审批制度。出差必须按规定报经单位有关领导批准，从严控制出差人数和天数；严格差旅费预算管理，控制差旅费支出规模；严禁无实质内容、无明确公务目的差旅活动，严禁以任何名义和方式变相旅游，严禁异地部门间无实质内容的学习交流和考察调研。', '差旅费标准按照分地区、分级次、分项目的原则制定。市财政局将根据经济社会发展水平、市场价格及消费水平变动等情况适时调整。', '交通费分城市间交通费和市内交通费。城市间交通费是指工作人员因公到常驻地以外地区出差乘坐火车、轮船、飞机等交通工具所发生的费用。市内交通费是指工作人员因公出差期间发生的市内交通费用。', '到出差目的地有多种交通工具可选择时，出差人员在不影响公务、确保安全的前提下，应当选乘相对经济便捷的交通工具。', '城市间交通费按乘坐交通工具的等级凭据报销。订票费、经批准发生的签转或退票费可以凭据报销。', '乘坐飞机、火车、轮船等交通工具的，每人次可以购买交通意外保险一份，凭据报销。所在单位统一购买交通意外保险的，不再重复购买。', '出差人员的市内交通费按出差自然（日历）天数计算，实行定额补助，包干使用。在固原市各县、区（不含', '公务交通补贴保障区域：东至东岳山，西至中河，北至沈家河水库和机场，南至九龙山和二十里铺', '）每人每天50元；固原市以外每人每天80元。出差人员往返机场的交通费在按规定发放的市内交通费内统筹解决，不再另外报销。', '出差人员由本单位派车不予发放市内交通费，出差人员由接待单位或其他单位提供交通工具的，应向接待单位或其他单位交纳相关费用。', '银川市：省（部）级干部每人每天800元、厅（局）级干部每人每天470元、其他公务人员每人每天', '在自治区以外地方出差的住宿费开支标准，参照财政部发布的中央和国家机关差旅住宿费限额标准执行。', '以上住宿费标准为最高限额。各类人员应当坚持勤俭节约原则，根据其职级对应的住宿费标准及单位具体情况自行选择住宿房间类型，在限额标准内据实报销。', '如果是住在自己家里或到边远地区出差，无法取得住宿费发票的，由出差人员说明情况并经所在部门领导批准，可以报销城市间交通费、伙食补助费和市内交通费，其他情况一般不予报销差旅费。', '当天往返的，原则上不报销住宿费。当天往返但公务活动超过半天的，可安排午休房，最高按全天房价的一半报销。', '出差人员应当在职务级别对应的出差目的地住宿费限额标准内，选择安全、经济、便捷的宾馆住宿。', '在自治区以外地方出差的伙食补助费标准，参照财政部发布的中央和国家机关差旅伙食补助费标准。', '出差人员应当严格按规定开支差旅费，费用由所在单位承担，不得向下级单位、企业或其它单位转嫁。', '工作人员出差结束后应当及时办理报销手续。差旅费报销时应当提供出差审批单、机票、车（船）票、住宿费发票等凭证。', '市本级各单位应加强本单位工作人员差旅活动和经费报销的内控管理。单位财务部门要严格按规定审核差旅费开支，对未经批准、不按规定开支的不予报销差旅费。', '出差人员不得向接待单位提出正常公务活动以外的要求，不得在出差期间接受违反规定用公款支付的宴请、游览和非工作需要的参观，不得接受礼品、礼金和土特产品等。', '工作人员外出参加会议、培训，举办单位统一安排食宿的，会议、培训期间的食宿费和市内交通费用由会议、培训举办单位按规定统一开支', '第三十条 党政机关公务人员赴外地挂职、学习等期间伙食补助费、交通费，按照《固原市财政局关于转发', '自治区本级党政机关公务人员赴外地挂职、学习等期间伙食补助费、交通费管理办法（暂行）', '市直各党政机关和参公管理的事业单位，经组织部门或单位批准，到常驻地车补保障区域以外地区交流任职、挂职、党校（含行政学院、干部学院）和高校脱产（半脱产）学习、驻点工作、定点帮扶、支援基层教育等人员，', '节假日、双休日往返常驻地与派驻地间的伙食补助费和交通费，按固财（行）发【2018】189号文件执行。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>292</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>关于做好年市人社系统普法工作的通知</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020-03-26</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202003/t20200326_2003044.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['按照市委依法治市办《关于印发〈2020年全市普法依法治理工作要点〉的通知》及《关于做好2020年度普法责任“四清单一办法”修订工作的通知》精神，特制定《固原市人社系统2020年度普法依法治工作安排》;同时，对固原市人社系统2020年度普法责任“四清单一办法”进行修订，现印发给你们，请结合工作实际，认真抓好落实，切实做好今年的普法工作，确保“七五”普法任务圆满完成。', '2020年，普法依法治理工作坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大、十九届二中、三中、四中全会、中央全面依法治国委员会第三次会议、自治区第十二次党代会、自治区党委十二届八次、九次全会、自治区党委全面依法治区委员会第三次会议精神和市委四届五次、六次全会及市委依法治市第二次会议精神，主动适应坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化的新要求，紧紧围绕中央、区、市工作大局，以提高全市干部群众法治素养为目标，以全面落实“谁执法谁普法”责任制为抓手，以做好“七五”普法总结验收和“八五”普法谋划为主线，以四项法治宣传教育活动为重点，大力加强法治文化建设，深化基层依法治理和法治创建活动，推动全社会形成尊法学法守法用法的浓厚氛围，确保“七五”普法规划各项任务全面完成，为我市人力资源社会保障事业发展营造良好的法治环境。', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大、十九届二中、三中、四中全会、中央全面依法治国委员会第三次会议、自治区第十二次党代会、自治区党委十二届八次、九次全会、自治区党委全面依法治区委员会第三次会议精神和市委四届', '精神，主动适应坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化的新要求，紧紧围绕中央、区、市工作大局，', '1.深入学习宣传习近平总书记全面依法治国新理念新思想新战略。把学习宣传习近平总书记全面依法治国新理念新思想新战略作为全民普法的首要任务。进一步推动习近平总书记全面依法治国新理念新思想新战略进入局党委中心组学习内容，推动领导干部发挥示范带头作用，增强走中国特色社会主义法治道路的自觉性和坚定性。', '2.深入学习宣传党的十九届四中全会精神。按照中央和自治区的部署要求，深入基层、深入群众，结合普法工作，大力宣传我国的根本制度、基本制度、重要制度，促进广大干部群众把思想和行动统一到全会精神上来。按照《自治区党委全面深化改革委员会办公室关于贯彻十九届四中全会&lt;决定&gt;的重要举措分工方案》中关于加大全民普法工作力度的要求，做好落实工作。', '3.深入学习宣传以宪法为核心的中国特色社会主义法律体系。坚持把学习宣传宪法摆在首要位置，深入宣传宪法至上、依宪治国、依宪执政等理念，大力宣传宪法基本原则和内容;大力学习宣传以国家基本法律为主要内容的中国特色社会主义法律体系，大力宣传对促进固原市经济社会发展、保障改善民生、维护社会稳定等密切相关，与维护市场经济秩序、劳动就业、社会保障、传染病防治、应急管理、环境保护、野生动物保护、扶贫救助、权益保障等相关的法律法规;加强扫黑除恶专项斗争和优化营商环境法治宣传教育;深入学习宣传党内法规，注重党内法规宣传与国家法律宣传的衔接和协调，教育引导广大党员作党章党规党纪和国家法律的自觉尊崇者、模范遵守者、坚定捍卫者。', '4.做好全市“七五”法治宣传教育终期验收工作。认真对照固原市“七五”普法规划及我局普法工作安排，全面自查，补齐短板，确保“七五”普法各项任务全面落实。同时，由办公室、社保科牵头制定验收方案、考评细则，开展验收活动,高标准完成我局“七五”法治宣传教育终期验收工作，高质量迎接全市、全区、全国验收。', '6.开展“助力脱贫攻坚和乡村振兴”法治宣传主题教育实践活动。围绕中央和自治区“三大攻坚战”、乡村振兴等战略部署，结合我局定点帮扶村的实际，按照全国普法办深入开展“服务大局普法行”主题实践活动安排，开展“助力脱贫攻坚和乡村振兴”法治宣传主题教育实践活动。各帮扶干部要与驻村第一书记及工作队员及时沟通，与各帮扶对象加强联系，认真落实《关于加强法治乡村建设的意见》，推进农村法治文化阵地建设着力为脱贫攻坚和乡村振兴提供法治保障。', '7.开展2020年“12·4”国家宪法日暨“宪法宣传周”系列宣传活动。大力弘扬宪法精神和社会主义法治精神，高标准、高质量组织好2020年“12·4”国家宪法日暨“宪法宣传周”系列宣传活动。推动宪法进企业、进农村、进机关、进网络、进万家，让宪法宣传天天见、处处见，形成共同学习宣传宪法的浓厚氛围，不断强化人社系统工作人员及全社会的宪法法律意识。', '8.积极参与普法大宣讲活动。围绕固原市人力资源和社会保障工作，紧盯群众关切的热点难点，邀请法律工作专家开展普法宣讲活动。同时深入机关、企业、乡村、等基层宣传人社法律法规政策，切实提升普法教育的精准性、针对性。', '9.开展应对防控新型冠状病毒感染的肺炎疫情法治宣传教育。学习宣传习近平总书记关于加强新型冠状病毒肺炎疫情防控重要讲话和指示批示精神和中央、区、市党委关于疫情防控工作的各项决策部署，加大疫情防控相关法律法规的解读，注重运用各种媒体，通过普法宣传海报、法律知识竞赛、微动漫、微视频、公益广告等方式强化宣传，积极引导广大人民群众增强法治意识，依法支持和配合疫情防控工作。', '”等重要节日和时间节点，开展法治宣传日、宣传周、宣传月等集中法治宣传公共服务活动，以形式多样、内容丰富的宣传活动和专题培训、讲座，大力传播法律知识，弘扬法治精神。', '11、开展“人社法治文化建设”活动。坚持把社会主义核心价值观融入“法治人社”宣传教育，会同相关部门(单位)策划主题活动，推动“法治人社”宣传教育与道德教育相衔接、相协调、相促进。广泛开展群众性“法治人社”文化活动，采取“法治人社”知识问答、考试等各类措施打造“法治人社”文化精品。充分利用政务服务网、固原人社公众号、“掌上12333”等各类服务平台和时机，将普法宣传贯穿于为社会公众提供政策咨询、业务查询、权益维护等全过程，增强普法宣传效果。', '12、深入学习宣传人力资源社会保障法律法规及惠民政策。加大农民工权益保护、拖欠工资追讨、劳动合同、社会保障、安全生产、劳动仲裁等法律法规的宣传，在全社会形成依法维权、关爱农民工群体的良好氛围。同时，围绕人民群众关心关注的热点问题，深入学习宣传就业创业、社会保障、人事制度改革、收入分配、劳动关系等相关法律法规。围绕普法和依法治理要求，深入开展突发事件处置和信访、投诉、调解等法律法规的学习宣传，妥善处理涉法涉诉信访问题，引导广大群众依法参与社会管理、依法表达利益诉求、依法解决矛盾纠纷。切实加强劳动保障诚信体系建设相关政策的学习宣传，加大对违反劳动保障法律法规失信行为的惩戒力度，引导规范用人单位用工行为。', '为进一步推进法治政府建设进程，增强我局工作人员法治意识，提高依法行政水平，切实将“谁执法谁普法”责任制落到实处，发挥普法依法治理工作在服务经济社会发展、促进社会和谐稳定中的重要作用，特制定本考核办法。', '根据我局《固原市人社系统2020年度普法工作安排》，重点检查以下方面法律法规学习宣传工作开展情况:', '1.平时考核:根据工作开展情况，需要实地查看普法工作开展情况的，深入到局属各单位、科室考察平时普法工作的完成情况，考核直接计入被考核单位总分值。', '2.听取汇报:被考核单位、科室向考核组汇报普法宣传工作进展情况，落实普法规划等工作开展情况。', '3.查阅台账:资料主要包括普法工作开展情况、普法机构和普法队伍建设、各项制度建设、普法笔记、普法工作创新工作等证明资料，可提供书面、电子、声像等资料。', '考核分值为100分，按照《固原市人社系统普法责任制工作考核细则》进行打分，最终得分按比例折算后计入绩效考核综合考核得分。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>292</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>五一假期全市接待游客余万人次实现经营收入多万元</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202105/t20210506_2820668.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['教育的深入开展，将台堡长征胜利会师纪念园、六盘山红军长征旅游区等红色景区成为固原新的', '“网红”。5月1日，中央广播电视总台新闻频道《沿着高速看中国》特别直播，沿着青银高速走进固原，登上六盘山红军长征旅游区，直播时间长达10分钟，“清平乐·六盘山”再一次响彻大江南北。固原市文化旅游广电局官方视频号转发的有关内容短视频阅读量已达70多万，点赞突破3万。中纪委网站、中国旅游报对六盘山红军长征旅游区也进行了专版报道，固原红色旅游的影响力进一步提升。开通了两条“固原市红色旅游直通车”专线，持续一周发布“五一”固原8条红色旅游线路和固原“五一”旅游攻略，形成与自治区发布的22条红色旅游精品线路宣传的同频共振，极大方便了游客出行。', '80%以上。乡村旅游、观光游览、探亲访友、休闲娱乐、文化体验等活动成为游客假日生活的重要组成部分，为了防止停车场发生拥堵现象，各景区普遍增设临时停车场，与属地公安交警部门紧密配合，加强现场指挥，有的景区还临时增加车辆，加大游客运送，保证游客出入顺畅，旅游舒心。', '22项系列活动，主要以须弥山民俗文化节和龙王坝浓情五一民俗节、神林山庄梨花节、老巷子民俗文化旅游节等为主的活动持续整个五一假期。全市开启文化广场及文艺进景区及秦腔展演活动，着力以活动吸引游客，提升游客获得感，各县（区）图、文、博场馆正常开放，为广大游客提供了良好的节日服务。', '为进一步激发文化旅游消费潜力，推动文化旅游市场复苏，节前，组织市内各重点景区负责人赴平凉、天水、宝鸡开展学习考察活动，学经验、拓市场，加强双方旅游合作；邀请陕甘宁重点旅游市场旅行社踩线团', '120余人考察固原精品线路，召开座谈交流会，签订合作协议，推介固原旅游资源及与旅行社合作政策。各重点景区组织宣传推介小分队先后赴固原周边省市开展宣传营销，积极拓宽客源市场，并集中捆绑抖音、微博、视频号等多媒体资源，形成大规模宣传推介矩阵，', '市委、市政府分管领导深入各县（区）及景区检查指导，市文旅系统节前召开安全生产部署会，节中', '24小时值班值守和信息上报制度。节日期间，各值班带班领导深入一线景区景点督查检查安全生产和游客接待工作，节后全面总结提升', '。节日期间，全市文化旅游市场秩序井然，无旅游投诉和安全事件发生，全市人民和广大游客过了一个欢乐祥和的五一假期。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>292</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>冼国义市长带队赴北京市开展招商引资工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2022-01-12</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202201/t20220114_3283165.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['是经中国证券投资基金业协会备案登记，专注于股权投资及投资管理的公司，为国内企业及各界人士提供股权投资、基金管理、财务顾问、上市策划等专业服务。', '是国内集资产管理、项目咨询等业务于一体的综合性私募基金管理机构。三家公司负责人分别在与招商组洽谈中表示，愿意与我市合作建立绿色食品产业和肉牛产业子基金。', '是一家专业从事生物肥料、水溶肥料、有机肥料、矿物土壤调理剂研发、生产、销售、服务为一体的高新技术企业、', '是滴灌技术的发明者，发展至今已成为全球最大的灌溉企业，主要从事灌溉服务、农业技术开发、咨询、转让等服务，公司设计、生产和建设的高效水肥一体滴灌设施和钢架智能温棚具有寿命长、造价低的特点。', '企业负责人表示，固原特色农业资源丰富，但降雨量偏少，建设高标准农田势在必行，企业有信心在固原', '子公司之一，也是北京市“菜篮子工程”重点保障企业之一，立足民生保障、产城融合和推动产业升级，打造区域农产品集散、批发、电商、冷链、配送、加工、仓储、检测、信息发布为一体的现代化农产品综合批发中心。在前期多次对接的基础上，', '重点保障企业之一，立足民生保障、产城融合和推动产业升级，打造区域农产品集散、批发、电商、冷链、配送、加工、仓储、检测、信息发布为一体的现代化农产品综合批发中心。在前期多次对接的基础上，', '是新型现代服务业综合运营商，专注于大中华区奥特莱斯研究、投资、开发及运营管理，凭借行业领先的开发理念及运营实力，以欧、美奥特莱斯模式为基础，结合中国国情，以奥特莱斯名品折扣店为龙头，融合城镇规划、文化旅游、商业运营、跨境贸易、电子商务、投融资等多领域，帮助地方政府优化发展思路，为城市引入同步全球的时尚生活。考察期间，招商组与公司总经理张海勇就企业在我市建设分店项目进行了对接交流，企业表示愿意来我市作进一步考察，洽谈对接具体合作事宜。', '是以蔬菜、果品、肉类批发为龙头的国家级农产品中心批发市场，是北京市交易规模最大的农产品', '可为客户提供高标准的仓储设施及多元化的冷链物流服务，核心业务覆盖全国47个主要城市，拥有146个物流园区，', '（一）建议由市金融工作局负责，研究提出合作建立政府产业引导基金的具体实施方案，积极主动与鼎新基金、北京丰图投资有限责任公司、北京顺鑫建投基金管理有限公司等3家基金公司做好对接，争取产业基金早日建成运营。', '（二）建议由市发展改革委负责，做好与国投电力控股股份有限公司对接，力促清洁能源规模化开发利用项目早日落地建设。', '（三）建议由市农业农村局负责，市发展改革委、市商务投资促进局配合，加快与中国振华集团、国家电投北京吉能新能源科技有限公司、北京清新环境技术股份有限公司、冻冻（北京）网络科技有限公司、根力多生物科技股份有限公司等5家企业洽谈推进肉牛全产业链和牧光互补园区建设项目、根力多生物科技生物有机肥加工项目，做好相关企业来固实地考察和项目前期选址等事宜，力促项目尽快落地。', '家企业洽谈推进肉牛全产业链和牧光互补园区建设项目、根力多生物科技生物有机肥加工项目，做好相关企业来固实地考察和项目前期选址等事宜，力促项目尽快落地。', '（五）建议由市商务投资促进局、投资促进服务中心负责，全力推动中泽惠农五星级智慧农贸商业综合体项目、奥特莱斯品牌店项目尽快落地建设，力促尽快与北京新发地农产品中心批发市场达成清凉蔬菜全产业链合作项目协议、与万纬冷链物流有限公司达成冷链物流基础设施建设项目合作协议，并抓好落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>292</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>我市创新推行审批模式进一步优化政务服务营商环境</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201905/t20190524_1518903.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为进一步优化政务服务营商环境，市审批服务管理局在全面调研、考察学习的基础上，聚焦全市营商环境问题，刀刃向内，自我革新，创新推行“163”审批模式。', '是推行“六多合一审批机制”，实行企业开办“多环一体”，注销“多站一统”和建设项目“多评一表”、“多图一审”、“多勘一踏”、“多验一联”。', '是健全三项服务保障机制，建立便民服务机制、创新模拟审批服务机制、健全监督评价机制。', '政府投资项目全流程审批时限压减到96个工作日以内、社会投资项目全流程审批时限压减到75个工作日以内']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>292</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>宁南山区冷凉蔬菜产业高级研修班在宁夏师院举办</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202310/t20231013_4307958.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['10月11日，由自治区人力资源和社会保障厅主办，宁夏师范学院资源环境与生命科学学院承办的宁夏南部山区冷凉蔬菜产业高级研修班在宁夏师范学院举办，全区从事冷凉蔬菜产业生产的相关人员58人参加。', '研修班以“宁夏南部山区冷凉蔬菜产业研发”为主题，邀请中国科学院西北水土保持研究所、宁夏大学等单位、院校的8位专家学者，围绕宁夏南部地区冷凉蔬菜种植环境监测和评估、种植管理技术等内容进行授课。研修学员还将前往冷凉蔬菜基地进行实地考察。“通过专家学者授课、实地参观、学习种植户的经验，我们能将先进的种植技术带回去，推动市、县区冷凉蔬菜产业发展。”参加研修的石嘴山市惠农区农业技术推广服务中心干部李芮说。', '此次研修班形式多样，涵盖内容丰富，旨在提升我区冷凉蔬菜产业专业技术人才的创新能力和理论知识水平。“我们按照高水平、小规模、重特色的要求组织授课，采取主题报告、专题研讨、学术交流、现场教学等多种方式，注重研修质量与效果，为全区冷凉蔬菜产业高质量发展培养人才。”宁夏师范学院资源环境与生命科学学院副教授陈治荣说。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>292</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市生态环境保护领导小组会议召开</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202403/t20240326_4495427.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['3月25日下午，市委常委会会议暨市生态环境保护领导小组会议召开，传达学习习近平总书记近期重要讲话重要批示精神，研究贯彻意见；听取全市生态环境保护有关情况汇报，研究部署下一步工作。市委书记滑志敏主持会议并讲话。', '会议指出，安全生产必须警钟长鸣、常抓不懈。全市上下要从拥护“两个确立”、做到“两个维护”的政治高度，深入学习贯彻习近平总书记关于安全生产的系列重要指示批示精神，坚持把安全发展作为永恒课题，以“时时放心不下”的责任感和“事事心中有底”的行动力，抓紧抓好抓实安全生产工作。要注重本质安全，全面落实自治区“1＋37＋8”系列文件，紧盯道路交通、森林草原防灭火等群众身边和重点行业、重点领域的安全，常态化开展排查整治，推动风险隐患动态清零，坚决防范安全事故发生。', '会议指出，要深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会和在湖南考察时的重要讲话精神，坚持与总书记视察宁夏重要讲话指示批示精神结合起来，准确把握、一体落实。要对标总书记关于科技创新、区域协调发展、改革开放、生态环境保护、乡村振兴、粮食能源资源安全、文旅融合、巩固拓展主题教育成果、基层减负、党纪学习教育等重点领域的重要要求，立足大局所需、固原所能，紧扣铸牢中华民族共同体意识主线，落实市委“12375”总体部署，以“看准了就抓紧干”的紧迫感，加快推进宁夏副中心城市和生态文旅特色市建设，奋力开创高质量赶超式发展新局面。', '会议强调，要深入践行习近平生态文明思想，全面落实自治区党委十三届五次全会部署要求和“1＋4”政策文件，坚定担当“建设先行区、固原作贡献”使命任务，更好统筹高质量发展、高水平安全、高颜值生态、高品质生活，持续擦亮“天高云淡望断南飞雁、绿水青山引来白鹭飞”的生态品牌。要巩固深化环保督察反馈问题整改成果，坚定不移推进污染防治，抓实抓好抓优“山水工程”项目建设，持续打好黄河“几字弯”固原片区攻坚战。要积极稳妥推进碳达峰、碳中和，加快推动新能源全产业链发展，着力打造宁南清洁能源转型基地。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>292</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>小岔乡率先实现所有村村集体经济收入万元以上</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/xqzw/201902/t20190218_1281565.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['彭阳县小岔乡在脱贫攻坚过程中，采取盘点“三资”、找准路子、严格考核管理等一系列措施,积极发展壮大村级集体经济,去年全乡村集体经济收入52万元，所有村村集体经济收入均达到5万元以上。', '明确目标，强化措施抓谋划。出台《关于扶持发展壮大村级集体经济的实施意见》，从资金投入、项目扶持、土地使用、信贷倾斜等方面,提出支持村级集体经济发展的硬政策强措施,为村集体经济营造良好的发展环境。并明确创收目标，排出计划表、路线图。将任务分解到村到年度。指导各村开展村集体“三资”清产核资，建立健全“三资”台账，摸清总量、明晰产权，注册成立股份经济合作社。在充分了解资产、资金和资源情况后，因村制宜，制定发展壮大村级集体经济实施规划。', '调研论证，集思广益找方向。为提高村党支部的带富能力,通过周例会学习各地典型经验；组织村党支部书记、第一书记和部分致富带头人到甘肃岷县、宁夏红寺堡等地考察观摩中药材产业，并邀请各地中药村企业实地考察土壤环境、气候状况，提供信息服务、品种选育和技术指导服务；同时组织召开座谈会、讨论会广泛宣传发展村级集体经济的政策机遇,发展优势,澄清对集体经济发展的模糊认识。', '因村制宜，齐心协力抓推进。乡党委、政府坚持因村制宜,一村一策,把脉定位,制定发展计划,规划方案，解决发展思路不明的问题。把7个村分为资产盘活型、入股分红型、服务增收型、休闲农业型等发展模式。针对外出人口多、撂荒地多的实际，7个村流转土地种植红花2900亩，小岔、柳湾两村集体种植黄芪400亩，柳湾、榆树引进企业种植黄芪300亩。米沟、吊岔、李渠、耳城村将剩余闲置资金入股企业，采取分红不分本的经营方式，10万元每年分红1万元。榆树村紧扣乡村振兴战略，围绕建成的农耕文化园发展手工作坊，培育发展壮大村集体经济新增长点。', '狠抓管理，齐抓共管保收益。为切实加强资金管理，确保注入的20万元村级集体经济发展启动资金保值增值，指导各村股份经济合作社统一聘用会计，加强对财务支出进行管理。按照“用钱必问效、无效必问责”的理念，确保村两委成员人人肩上有担子，将种植的红花、黄芪等中药材分别委托33名村“两委”成员经营管理，签订由法律顾问审核把关的《中药材委托经营合同》《借款合同》《资金入股分红协议》，并注入启动资金，年底每亩为村集体上缴150元收益。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>292</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>政务要闻</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-01-30</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/gyzzfgb/2018zfgb_37206/d1q_56425/zwyw_56430/202111/t20211126_3166298.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['市第五届基础教育论坛在宁夏师范学院举行。各县区教育局、高中学校、课改基地学校、部分幼儿园有关负责人，市级骨干教师培养对象及宁师教育科研人员共300余人参加论坛。', '市第五届基础教育论坛在宁夏师范学院举行。各县区教育局、高中学校、课改基地学校、部分幼儿园有关负责人，市级骨干教师培养对象及宁师教育科研人员共', '自治区党委宣传部调研组来我市，就新时代农民讲习所和移风易俗工作进展情况进行调研并召开座谈会。市委宣传部、各县区、部分市文明委成员单位和农民培训教育年活动领导小组成员单位相关负责人参加座谈会。', '12月3日至4日 中国铁路总公司党组书记、总经理陆东福带领调研组来我市，对中国铁路总公司定点帮扶原州区工作和宝中线固原至中宁南段扩能改造进行调研。自治区副主席刘可为，自治区副主席、市长马汉成陪同调研。', '中国铁路总公司党组书记、总经理陆东福带领调研组来我市，对中国铁路总公司定点帮扶原州区工作和宝中线固原至中宁南段扩能改造进行调研。自治区副', '受自治区党委常委、市委书记张柱委托，自治区副主席、市委副书记、市长马汉成主持召开市委常委会会议，传达学习自治区党委书记石泰峰在《关于固原市被国家民委拟命名为“全国民族团结进步创建示范市”的情况报告》上的批示精神，研究贯彻意见。', '加强农村公路养护的提案》。市政协注意马玉芳，市政协有关领导，提案承办单位负责人和部分提案委员参加。', '12月7日 自治区副主席、市长马汉成主持召开市政府专题会议，研究谋划2019年全市民生实事，安排部署有关工作。', '12月11日 全市扫黑除恶专项斗争领导小组召开会议，传达学习、贯彻落实中央和自治区开展扫黑除恶专项斗争有关会议精神，讨论审定相关制度和扫黑除恶线索受理流程、重点案件会商专家小组名单和宣传任务清单，安排部署近期扫黑除恶专项斗争工作。', '12月11日至12日 自治区党委副书记、自治区主席咸辉深入我市彭阳县、泾源县、隆德县，进园区到企业看发展，走村庄入农户访民生，对脱贫攻坚和困难群众生活保障工作进行调研。咸辉强调，要坚持以习近平总书记关于扶贫工作的重要论述为指引，践行以人民为中心的发展思想，用心用情用力做好各项工作，坚决打赢打好脱贫攻坚战。自治区副主席、市长马汉成参加调研。', '12月13日 自治区副主席、市长、市政府党组书记马汉成主持召开市政府党组(扩大)会议，通报自治区主席咸辉来固调研情况，研究贯彻意见；研究中央巡视反馈问题市政府党组牵头整改落实工作中存在的问题，听取中央环保督察“回头看”反馈问题整改、中央巡视组移交信访案件办理情况和全市安全生产工作情况汇报，安排部署有关工作。', '12月14日 固原军分区召开宣布命令大会，自治区党委常委、宁夏军区政委潘武俊宣读中央军委国防动员部命令和宁夏军区党委通知：固原军分区原政委宋晓国达到服现役最高年龄退休，张军任固原军分区党委书记、政委。受自治区党委常委、市委书记、固原军分区党委第一书记张柱委托，自治区副主席、市委副书记、市长马汉成出席大会并讲话。', '12月19日 自治区副主席、市长马汉成在西吉县调研中央环保督察“回头看”及水环境问题专项督察反馈意见整改落实情况时强调，要深入学习贯彻习近平生态文明思想，坚决扛起生态文明和环境保护的政治责任，坚定不移持续打好污染防治攻坚战，确保年底前中央环保督察反馈问题整改落实到位，并按照完成整改任务时间节点要求，抓紧做好验收销号工作，努力建设天蓝、地绿、水美的美丽固原。', '12月20日 受自治区党委常委、市委书记张柱委托，自治区副主席、市长马汉成主持召开市扶贫开发领导小组会议，传达自治区脱贫攻坚工作相关会议精神，传达自治区扶贫办督查隆德、泾源、彭阳三县脱贫工作座谈会精神；听取隆、泾、彭三县贫困村脱贫出列达标情况，听取市级复查复审工作组对三县贫困村脱贫出列复查复审工作情况；审议并通过隆、泾、彭三县贫困村脱贫出列请示。', '12月21日 市委理论学习中心组召开扩大学习会，专题学习习近平总书记在庆祝改革开放40周年大会上的重要讲话精神。受自治区党委常委、市委书记张柱委托，自治区副主席、市委副书记、市长马汉成主持会议并讲话。市在职厅级领导，市委各部委、市直各局委办、各人民团体、直属事业单位、市属国有企业党政主要负责同志参加学习会。', '12月25日 市委、人大、政府、政协主要领导分别主持会议，征求市级领导、各相关部门、社会各界代表对市委四届四次全体会议报告意见。', '12月26日 自治区副主席、市长、市政府党组书记马汉成主持召开市政府党组会议，传达学习中央经济工作会议和自治区党委常委会、自治区政府常务会精神，研究贯彻落实意见；传达学习习近平总书记在庆祝改革开放40周年大会上的重要讲话精神，研究贯彻意见；听取市政府班子成员落实党风廉政建设责任制情况汇报，安排部署下一步工作。', '听取全市意识形态工作汇报，听取市扫黑除恶专项斗争考察组赴重庆、福建考察学习情况汇报，研究《关于召开中共固原市委四届四次全体会议的请示》', '受自治区党委常委、市委书记张柱委托，自治区副主席、市委副书记、市长马汉成主持会议并讲话。', '全市脱贫攻坚“冬季充电”进一步激发群众内生动力大讲习活动在彭阳县启动。市委、人大、政府、政协相关领导，各县区党委有关负责人、市直相关部门负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>292</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>固原市高考改革专题培训班在宁波开班</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-10-30</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201910/t20191030_1818264.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['为深入贯彻落实党的十九大关于教育改革发展的精神要求，进一步推动我市新高考改革各项工作，按照市教育体育局年初工作安排，为期7天的全市高考改革背景下的学校教育变革专题培训班10月29日在浙江宁波启动。市、县（区）教育体育局分管局长、教育科（股）负责人、教研室主任、高中学校校长、教务主任、骨干教师等共60人参加培训。本次培训班是继2018年后的第二次全市高考改革专题培训班。', '浙江省是全国首轮启动高考综合改革的试点地区之一，2017年送走了第一批“新高考”学子，探索、创新、积累、总结了宝贵的改革经验。本次培训将围绕考试招生改革、学校管理变革、学校课程改革、课堂教学改革、学生发展指导、教育教学评价等六个模块，通过听取专家报告、现场教学、实地考察等方式，深入学校，学习新高考动态，全面提升我市教育行政管理部门、教研机构和学校相关负责人的高考改革理论素养和实践操作能力。', '开班仪式上，市教育体育局副局长张树宏向学员们提出三点要求：一要提高站位，深化思想认识。进入新时代，人民群众对公平而有质量教育的向往更加迫切，愿望更加强烈。今年，国家专门出台了基础教育改革意见，并召开了推进基础教育改革的大会，自治区将基础教育改革纳入国培计划，并举办培训班，邀请教育部基础教育司司长进行理论解读。高中教育要围绕“选课、走班制”教学等，全面推进普通高中课程改革、教学改革、评价改革等，开展好“课堂革命”。面对这一重大课题和历史责任，参加培训的人员要提高思想认识，充分认识此次研修学习的重要意义，带着责任和使命来研修学习，开阔眼界、解放思想、提升能力和水平，确保圆满完成学习任务。', '二要更新理念，做到学以致用。高考改革事关千家万户、事关广大家长学生的切身利益，容不得丝毫失误，来不得半点马虎，必须慎之又慎、重之又重。要用高考改革倒逼整个教育模式、教育理念的进步，彻底打破唯分数论思想，以学生为本，以学生全面发展为本，推动高中课程改革，由“招分”变“招人”。参加培训人员要把这次研修学习变成发现之旅、学习之旅、思考之旅，在新高考改革方面取得“真金”，用先进的教育理念和扎实的改革实践武装自己，指导实践，推进工作。', '三要遵守纪律，落实各项要求。无规矩不成方圆。本次培训时间短、任务重、要求高，培训人员要从严要求自己，落实各项纪律规定，树立良好的学习之风，做好角色转换，坚决服从培训班管理，自觉遵守研修各项规定安排，班委会成员要切实负起责任，做好学员培训考勤、学习效果考核、服务协调等工作，强化政治、人身、饮食、交通安全，圆满完成培训的各项任务。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>292</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202407/t20240712_4593534.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['7月11日，市委常委会召开会议，传达学习习近平总书记近期重要讲话重要指示重要贺信精神，研究贯彻意见；审议《固原市2023年黄河流域生态环境警示片披露问题整改工作方案》，研究部署相关工作。市委书记滑志敏主持会议并讲话。', '会议指出，习近平总书记近期重要讲话重要指示重要贺信，对做好固原工作具有重要指导意义。全市上下要把习近平总书记近期重要讲话重要指示和考察宁夏重要讲话精神贯通起来一体学习领会、贯彻落实，自觉转化为推动发展的强大动力、造福人民的务实行动、干事创业的进取精神，奋力开创固原高质量赶超式发展新局面。', '会议指出，要深入学习贯彻习近平总书记在中央政治局会议上的重要讲话精神，牢牢把握“六个坚持”重要原则，坚持问题导向，注重守正创新，深入调查研究，自觉在党中央改革大局下谋划和推进固原特色改革，精耕细作推进重点领域改革，以实际成效迎接党的二十届三中全会胜利召开。', '会议强调，当前我市已进入“七下八上”防汛关键期。各县区各部门要从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，认真学习贯彻习近平总书记对湖南岳阳市华容县团洲垸洞庭湖一线堤防发生决口的重要指示精神，坚持人民至上、生命至上，树牢底线思维、极限思维，扎实做好防汛防灾工作。要立足防在前，关口前移，压实责任，加强对病险水库、地质灾害隐患点、城市易涝点等重点部位的监测巡查，举一反三抓好防灾减灾、交通安全、生产安全、危化品安全、煤矿和非煤矿山安全等工作，切实保护好人民群众生命财产安全。要格外关注容易被忽视的小部位和不经意冒出来的“小隐患”，始终保持“时时放心不下”的责任感和“事事心中有底”的行动力，完善应急机制，提高响应效率，以有力有效措施防风险、除隐患、保安全。', '会议强调，要深入践行习近平生态文明思想，坚定担当“建设先行区、固原作贡献”使命任务，坚持把生态环境保护作为改革发展的基准线，动真碰硬坚决抓好黄河警示片披露问题整改工作，举一反三深入排查整治消除生态环境问题隐患，为保障黄河安澜健康美丽贡献固原力量。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>292</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>固原市产业技术创新研究院有限公司年引进招聘硕士研究生公告</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202301/t20230116_3918856.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['固原市产业技术创新研究院（有限公司）2023年引进（招聘）硕士研究生公告_固原市人民政府', '为进一步加强优秀青年人才引进和储备，优化我院（公司）人才队伍结构，服务我市重点产业高质量发展，根据市委、市政府《关于大力推进新时代人才强市战略的实施意见》精神，结合研究院（有限公司）经营发展需要，决定组织实施引进（招聘）生物工程专业硕士研究生工作。现将有关事项公告如下：', '。固原市产业技术创新研究院有限公司是由固原市人民政府国有资产监督管理委员会履行出资人权利和义务的市属国有独资企业，是研究院的日常运营管理和服务业务承接机构，与研究院实行', '“两块牌子，一套人员和机构”。固原市产业技术创新研究院主要职责是组织开展协同创新和集成攻关，履行好“打造创新平台、转化科技成果、提供咨询服务、引进技术人才和提供管理服务”等职责任务，助力我市重点产业高质量发展。', '坚持以习近平新时代中国特色社会主义思想和党的二十大精神为指导，全面贯彻落实自治区第十三次党代会、固原市第五次党代会、市委五届五次、六次、七次全会精神，坚持党管人才，加大人才引育力度，大力推进新时代人才强市战略，聚焦我市', '“五新五特五优”产业发展科技需求，推进研究院（有限公司）各项工作任务，为宁夏固原市食用菌产业技术创新中心和宁夏六盘山道地中药材资源开发产业技术创新中心精准引进一名生物工程专业硕士研究生，发挥科技人才创新活力和智力资源，服务我市重点产业和经济社会高质量发展。', '1．具有中华人民共和国国籍，拥护中华人民共和国宪法，拥护中国共产党领导和社会主义制度，遵守法律法规，维护国家利益；', '5．自愿加入招聘单位及组织、从事招聘岗位职业，认同接受招聘单位属性、文化价值理念、运营管理模式、岗位工作性质、薪资待遇保障；', '6．符合招聘岗位要求的资格条件，学历学位须经国家教育部学历电子注册，学历及学位证书须在2022年12月前取得。', '2．受过党纪政纪处分、被开除中国共产党党籍、正在党纪政纪处分期内及被辞退或开除公职的；', '5．在校期间因学术造假、行为不端、舞弊等各种违纪违法行为受过处分处理的人员，或在公务员招录、事业单位、国有企业招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '．与引进单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘本单位负责人员的秘书或者组织（人事）、纪检监察、审计、财务岗位，以及有直接上下级领导关系的岗位；', '、大学本科、硕士研究生学历及学位证书、学信网在线查询验证、各类职业资格证、职称证、荣誉证等相关证明材料扫描件（', '报名者要对填报信息的真实性、准确性负责。凡伪造有关证件、材料，隐瞒信息、填报虚假信息骗取报名资格的，一经查实，立即取消报名资格，并根据违规事实，依法依规追究相关责任。', '报名截止后进行第一轮筛选和资格初审，对通过的第一轮筛选的人员，电话通知进行现场资格复审。', '、大学本科、硕士研究生学历及学位证书、学信网在线查询验证、各类职业资格证、职称证、荣誉证等报考岗位要求的相关资料原件、', '4张2寸近期正面免冠照片以及本人签字的《固原市产业技术创新研究院（有限公司）2023年引进硕士研究生报名登记表》（', '资格审查贯穿引进（招聘）工作全过程，每一个环节均进行资格审查，任何环节发现应聘人员不符合招聘条件要求、存在违规报名情况或提供的应聘资料弄虚作假的，随时取消或终止相应的资格。', '1．面试计划于2月中下旬集中在研究院（有限公司）举行。面试内容根据实际和岗位需要，采取结构化形式，主要测试应聘者与岗位相适应的组织协调、分析判断、计划决策、逻辑思维、学习创新、语言表达、应变控制、专业素养、岗位匹配度等方面能力素质。时间为', '2．面试前一周在固原市产业技术创新研究院微信公众号发布面试公告，明确面试的具体时间、地点及面试方式，并通过打电话、发信息等方式通知应聘者；', '1．由研究院（有限公司）引进生物工程专业硕士研究生工作领导小组抽调工作人员组成考察组负责组织考察，主要通过个别谈话、查阅资料、走访调查、同考察对象面谈、征询函等方式，按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，撰写考察报告，并向领导小组提出人选建议方案。', '2．考察中对被考察者的应聘资格和报名材料进行再次复审，发现报名者存在本公告中所列不得（引进）应聘相关情形的；不具备招聘岗位所需资格条件的；政治品德、道德素质、', '方面有不良记录的；其他不宜进入本单位工作情形的，经领导小组研究确定后，取消应聘资格。', '3．体检者应在规定时间内完成全部体检项目。体检合格者确定为拟引进（招聘）人选。未按要求完成体检的，视为自动放弃体检资格；', '4．体检者对体检结果有疑问的，经领导小组同意，可以申请复检，复检只能进行一次，体检结果以复检结论为准；', '5．体检费用依据医院收费标准，费用由体检者个人承担；体检报告由我公司统一存档，实行保密管理。', '1．根据面试、体检、考察结果，经领导小组审定拟聘用人员名单，并在固原市产业技术创新研究院微信公众号等网站上公示不少于5个工作日，公示期满无异议的拟引进（招聘）人员按规定办理相关手续；', '2．被引进（招聘）人员无正当理由逾期（自接到聘用通知5个工作日内）不报到的，取消聘用资格；', '拟（引进）聘用人员可根据实际情况享受自治区、固原市高层次人才引进、培养的相关优厚待遇政策。', '在人才引进（招聘）工作实施过程中，将按照新冠肺炎疫情防控有关要求，落实必要防疫措施；必要时将对有关工作安排进行适当调整，并及时在研究院微信公众号发布补充公告或通知；', '“个人自愿放弃应聘资格承诺书”，未按规定及程序提交承诺书，随意放弃资格或不按规定按时参加（引进）招聘任一环节项目的，取消引进资格；应聘者所留电话应保持畅通，因电话不畅通导致无法通知相关事宜的，责任由应聘者承担；', '应聘者信息仅用于本次（引进）招聘工作。本单位承诺对应聘者个人信息予以保密，应聘引进人员报名时按要求填写的《应聘报名登记表》和提交的证件（证书）复印件、体检报告或相关证明、照片等根据有关规定作为存档资料，恕不退还；', '应聘人员通过互联网等各种渠道发布与招聘有关的不当言论及网络舆论，通过违法串联、集会、上访等形式干扰破坏招聘秩序的，取消应聘资格，并列入招聘', '应聘人员参加本次招聘任一环节项目或拟聘用人员参加岗前培训等过程中，须根据自身身体健康状况参加，注重防范各类安全事故，如发生身体意外伤害、突发疾病、交通等任何安全责任事故，均不属于工伤和我公司负责范围，一切责任由应聘人员自己承担；', '）应聘引进人员参加本次招聘，所占用的时间和产生的任何费用均属于个人自愿行为，由应聘人员自己承担；', '应聘引进人员在报名前与其他单位签订《劳动合同》及建立劳动关系者，如被确定为拟引进（聘用）人员，在公示期满办理入职手续', '，应及时先与有关单位或部门解除《劳动合同》及终止劳动关系，再办理入职手续。如因本人不如实告知或不按上述要求办理造成的一切后果由应聘者本人全部承担；', '本次硕士研究生引进（招聘）工作由固原市财政局（国资委）和固原市纪委监委派驻第五纪检监察组全程监督；']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>292</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>关于印发六盘山林业局年普法责任制四清单一办法的通知</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202004/t20200408_2015402.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['关于印发《六盘山林业局2020年普法责任制 “四清单一办法”》的通知_固原市人民政府', '确保我局普法各项工作任务落到实处，按照固原市依法治市领导小组办公室《关于做好2020年度普法责任“四清单一办法”修订工作的通知》文件精神，在总结上年度普法责任“四清单一办法”完成情况的基础上，根据各单位各部门机构职能调整变化、2020年度普法重点任务、普法责任、措施等清单，进一步修订完善了六盘山林业局2020年普法责任制“四清单一办法”，现予以印发，请你们遵照执行，抓好落实。', '1、组织开展学习宣传宪法教育，广泛开展宣传中国特色社会主义法律体系和党内法规，突出党章宣传。2、深入学习宣传林业在生态文明建设中的首要地位，提升干部和群众的法律意识，', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国野生植物保护条例、森林采伐更新管理办法、建设项目使用林地审核审批管理办法等法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国自然保护区条例、宁夏回族自治区六盘山、贺兰山、罗山国家级自然保护区条例等林业法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、中华人民共和国自然保护区条例中华人民共和国退耕还林条例等林业法律法规。', '重点宣传普及中华人民共和国森林法、中华人民共和国野生动物保护法、林业行政处罚程序规定、森林防火条例、宁夏回族自治区森林防火办法、中华人民共和国自然保护区条例等林业法律法规。', '重点开展与林业相关法律法规的学习宣传工作，提升职工法律意识，提升林业法律的知晓度，开展普法依法治理。', '落实领导干部学法制度。将法律法规学习纳入领导干部学习计划，利用党委中心组及中心组扩大学习会议开展集中学习法律法规；经常性组织局机关各科室召开学法和依法行政学习会议。深入学习宣传宪法、学习习近', '平总书记关于全面依法治国的重要论述，学习宣传林业在生态文明建设中的首要地位，了解和掌握全面依法治国的重大意义和总体要求，更好地发挥法治的引领和规范作用。', '突出学习宣传《中华人民共和国宪法》，普遍开展《中华人民共和国宪法》宣传教育，深入宣传《中华人民共和国宪法》至上、依宪治国、依宪执政等理念，积极组织开展“12·4”国家宪法日宣传活动。', '深入宣传林业法律法规。利用多种载体，开展日常宣传林业法律法规。组织开展相关法律法规知识培训，宣传林业法规和规章，做好植树节、爱鸟周、世界环境日相关法律法规宣传，尤其在森林防火期内，加大对森林防火法律法规的宣传，保障林业生态稳步发展。', '做好林业行政案件复议和应诉工作。广泛宣传相关法规，健全林业行政复议和应诉工作机制，受理和处理行政复议案件，充分发挥林业行政复议的积极作用，妥善化解争议，切实提升行政复议和行政诉讼工作水平。', '深入开展“法律八进”活动。坚持“谁执法、谁普法”和“系统抓、抓系统”的法治宣传教育原则，创新方式方法，落实工作措施，确保“法律八进”形式多样、内容丰富、效果明显。', '落实普法治理工作责任。将普法依法治理工作作为本单位的重要任务。加强依法治林的宣传和推进，确保普法和依法治理工作任务落到实处，收到实效。', '建立普法治理考核机制，将普法依法治理纳入绩效考核系统实行年度考核，每年组织开展法律知识考试。', '把普法依法治理工作纳入绩效管理，开展年度考核、阶段性检查和专项督查，确保普法治理实效。', '将学法用法及考试纳入各单位部门绩效管理，开展阶段性检查、督查。学习方式以购买学法书籍进行自学（有专门的学法笔记）。', '为全面落实“谁执法谁普法”普法责任制要求，客观考核评价责任制落实情况，按照“谁主管谁负责”的原则，结合我局工作实际，结合我局工作实际,特制定本考核办法。', '以习近平新时代中国特色社会主义思想为指引，认真贯彻落实党的十九大和十九届四中全会精神，深入开展法治宣传教育，扎实推进林业系统依法治理和法治创建，推进林业法治宣传教育与法治实践相结合，充分发挥法治宣传教育在依法治林中的基础性作用，积极推动我局普法依法治理工作创新发展，全面提高依法治林水平。', '考核对象为局属各国有林场、林木良种繁育中心、森林公安分局、干休所；考核内容按照《六盘山林业局普法责任制考核细则》进行。', '（一）听取综合汇报。被考核单位向考核组汇报普法治理情况和落实普法规划等工作开展情况。', '（二）查阅档案资料。主要包括普法治理工作开展情况、普法机构、各项制度建设、普法工作创新工作等证明资料，可提供书面、电子、声像等。', '（三）平时考核。根据工作开展情况，需要实地查看普法工作开展情况的，可根据单位数量抽查一定比例单位，考察平时普法工作的完成情况，考核直接计入被考核单位总分值。', '普法年初有安排、年中有小结、年底有总结的6分；将普法工作纳入本单位效能目标管理考核的4分。', '成立普法领机构，明确分管领导和1名门专（兼）工作人员的得5分；将法治宣传教育工作纳入重要议事日程，每年研究部署普法工作2次以上的得5分。', '建立本部门（单位）普法责任清单，细化量化工作，提出具体工作措施，扎实落实责任制的，购买学法书籍，干部职工有学法笔记得12分；支持普法办工作，按时完成局全年普法办安排的各项工作任务，及时报送文件、信息得8分。', '制定部门学法计划，认真学习习近平总书记系列重要讲话、宪法、中国法律体系、本部门职责紧密相关的法律法规、党内法规的得4分；集体学法4次以上的得4分。有普法对象花名册得2分，组织单位干部职工参加学法考试，参考率为100%、考试成绩优良（80分以上）率为80%以上的得10分，参考率不到70%、优良率为60%-80%得8分；参考率、优良率为60%以下的得5分。', '广泛开展法治文化创建和阵地建设，办公场所悬挂法治书画牌匾、设置宣传栏等营造法治氛围。', '利用各种媒体，借助各类行业窗口面向公众经常性地开展行业法律法规宣传的得5分；积极参加“12•4”全国法制宣传日等集中宣传活动，积极开展专业法宣传的得5分；积极法治宣传，本年度开展2次以上有特点、有影响的宣传活动得10分。', '普法经费能确保普法依法治理工作正常运行、有开展各项活动的经费拨付凭据的得5分，没有普法经费财务凭据的不得分。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>292</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市丝绸之路申报世界文化遗产第二批扩展项目工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2014-09-25</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384218.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市丝绸之路申报世界文化遗产第二批扩展项目工作实施方案》的通知_固原市人民政府', '固原市人民政府办公室关于印发《固原市丝绸之路申报世界文化遗产第二批扩展项目工作实施方案》的通知', '《固原市丝绸之路申报世界文化遗产第二批扩展项目工作实施方案》已经市人民政府研究同意，现印发给你们，请认真贯彻执行。', '丝绸之路是古代横跨欧亚大陆、举世闻名的国际贸易之路，是东西方文化传播、交流融合之路。两千多年来，丝绸之路的开辟与发展为人类文明繁荣发展做出了巨大贡献。固原是“丝绸之路”东段北道的必经之路，是古丝绸之路的重要节点。在“丝绸之路起始段与天山廊道”联合申报世界文化遗产中，我市北朝－隋唐墓地、须弥山石窟、固原古城、开城遗址4个点被列入申遗预选名单。为了切实做好我市丝绸之路申报世界文化遗产（以下简称“丝路申遗”）的各项工作，确保丝路申遗圆满成功，根据自治区党委、政府主要领导指示精神和国家文物局、自治区文化厅的部署要求，结合我市实际，特制定本方案。', '北朝－隋唐墓地、须弥山石窟、固原古城、开城遗址四个申遗点在丝绸之路跨国联合申报世界文化遗产项目中，具有得天独厚和不可替代的重要作用。申报世界遗产成功，能够极大地提升固原的文化地位和对外影响力，对保护固原文化遗产，推动“文化固原”建设，打造生态园林和文化旅游城市品牌，带动地方经济社会发展具有重大的现实意义和深远的历史意义。', '以党的十八大精神为指导，全面贯彻落实科学发展观，坚持“保护为主，抢救第一，合理利用，加强管理”的文物工作方针，以《保护世界文化和自然遗产公约》和《实施保护世界文化与自然遗产公约操作指南》为准则，完善工作机制，严格标准要求，全力做好固原丝路申遗工作，积极推进生态园林城市和文化旅游城市建设，为固原建设做出应有的贡献。', '根据国家文物局《关于推进丝绸之路申遗工作的通知》（文物保函〔2012〕342号）和自治区人民政府专题会议纪要（2014年7月19日·第48期）精神，结合实际，及时出台相关规章办法，编制文物保护和管理规划，全面实施须弥山石窟等四个遗产点的环境整治工程、遗产展示工程、本体保护工程、文物监测工程和基础设施建设等项目，做到文物本体保护和自然环境和谐一致，确保按期向联合国教科文组织提交丝绸之路申遗中国段第二批扩展项目申报文本，力争将须弥山石窟、北朝－隋唐墓地等遗产点列入2016年《世界遗产名录》。', '固政办发〔2014〕30号文件已调整成立了固原市丝路申遗工作领导小组，市长任组长，市委常委、宣传部部长，市委常委、原州区委书记，市政府分管副市长任副组长，相关副秘书长、市直部门及原州区政府负责人为成员，统一组织领导全市丝路申遗工作，研究解决丝路申遗工作中的重大问题，协调解决丝路申遗工作中的人员、项目和经费等问题。领导小组各成员单位各司其职、各负其责、通力协作，共同完成丝路申遗工作任务。', '领导小组下设办公室，办公室成立综合组、业务组、宣传组三个工作小组，具体负责丝路申遗各项工作。', '1、调整、成立各级丝路申遗工作领导小组和工作机构。调整固原市丝路申遗工作领导小组，成立原州区丝路申遗工作领导小组，原州区文管所、须弥山石窟文管所成立相应工作机构（组），为全面开展丝路申遗工作提供组织保障。', '1、编制固原市丝绸之路申报世界文化遗产项目并上报自治区发改委和国家发改委审核立项。', '（1）在完成文物本体保护、环境整治、展示工程和基础设施、监测工程等各项工作后，各相关责任单位开展全面自查、整改工作。', '（2）邀请国家文物局遗产专家和自治区文化厅、文物局专家进行现场检查指导和相关技术审查，针对专家提出的问题和意见，市申遗领导小组办公室制定整改方案，督促有关责任单位限期整改。', '市申遗领导小组办公室督促各申遗点完成申遗工作材料汇总，查漏补缺，完善申遗全部台账资料，做好迎检各项准备工作。', '向市申遗工作领导小组汇报申遗工作准备情况，以市政府和自治区文物局名义向国家文物局提交我市丝路申遗工作申请。', '全面完成丝路申遗各项准备工作，制作ppt汇报方案和迎检手册，开展模拟验收，认真做好迎检期间的各项工作；制作申遗宣传片，出版文物保护相关专著，进一步做好申遗宣传展示工作，配合验收；验收后，做好相关补充资料和丝路申遗总结工作。', '固原市丝绸之路申遗工作是一项艰巨的文化遗产保护与开发利用系统工程，时间紧、任务重、责任大，原州区政府和市直各相关部门要严格按照责任分工，实行分工负责制，攻坚克难，真抓实干，确保丝路申遗工作圆满成功。各主要责任单位和相关成员单位任务分解如下：', '1、领导小组办公室：（1）组织实施《固原市丝绸之路申报世界文化遗产第二批扩展项目工作实施方案》；（2）指导原州区制定申遗工作计划；（3）策划制定申遗工作考察方案；（4）协调和督促各责任单位实施申遗各项工作；（5）邀请丝路申遗专家，指导全市丝路申遗工作；（6）负责编制各申遗点文物管理规划；（7）督促原州区起草各遗产点文物保护管理办法；（8）组织开展申遗宣传活动。', '2、原州区：（1）编制各遗产点文物本体保护工程、环境整治工程、展示工程、基础设施建设和解说系统工程等项目，报市发改委向国家和自治区发改委申请立项等有关工作，争取专项资金支持；（2）委托专业文物保护设计单位编制固原遗产点文物本体保护规划；（3）起草遗产点文物保护规章及规范性文件；（4）按照申遗管理规划全面实施环境整治、本体保护、展示工程、基础设施建设、监测工程和解说系统等工程；（5）按照文物“四有”档案工作的要求，完善申遗资料档案，健全文本档案，建立电子档案平台；（6）申请国家文物局专项资金支持建立文物安保和文物本体环境电子监测平台；（7）按照申遗管理规划要求，建设游客服务中心，配置与遗产点相像的标牌标识。', '4、市发改委：负责向自治区、国家发改委申报遗产点环境整治、展陈利用工程、基础设施建设等项目，争取自治区、国家申遗专项资金支持。', '5、市财政局：按照固原丝路申遗阶段工作需要，及时向自治区财政申请工作经费，并及时安排、拨付本级申遗工作经费，保证申遗前期（保护管理规划编制、宣传、考察、专家咨询等）和申遗过程中各项工作的顺利进行。', '6、市公安局：负责打击处理破坏遗产的违法犯罪活动；指导原州区做好遗产点文物安全系统电子监测平台建设，配合原州区做好日常文物安全保卫工作。', '8、市国土资源局：负责遗产点保护范围和建设控制地带范围的测定及地质灾害监测；配合原州区做好遗产点内违法建筑查处和环境整治工作；向申遗文本设计单位提供申遗点核心区和缓冲区卫星遥感图等。', '9、市住建局：负责按照城建项目审批程序对各申遗点的环境整治概算进行审核，经市申遗领导小组确定后，将各申遗点的环境整治经费及文物保护展示经费列入城建专项投资计划。', '10、市交通局：负责确定遗产点道路建设项目方案；积极向交通厅争取项目，配合原州区实施遗产点道路建设工程。', '11、市环保局：负责遗产点和周边地区大气、水体质量及环境噪音的监测，提供评估报告；配合原州区做好遗产点环境监测系统电子平台建设。', '12、市水务局：负责遗产点和周边地区水文状况的监测，提供评估报告；配合原州区做好遗产点基础设施建设。', '13、市农牧局：负责遗产点及周边地区种养状况的监测，提供评估报告；配合原州区做好遗产点内的环境规划和整治工作。', '14、市城管局：负责城市规划区域内遗产点保护范围和建设控制地带违法建设的监管及查处工作；配合原州区开展遗产点环境综合治理工作。', '15、市规划局：负责城市规划区域内遗产点保护范围和建设控制地带界限的测定及基础设施建设规划编制。', '16、市经济开发区管委会：配合原州区做好其所辖区内遗产点保护管理规划的编制、环境整治和基础设施建设。', '17、市旅游局：负责对遗产点旅游活动的安全监测，提供评估报告；配合原州区做好遗产点内旅游基础设施建设。', '18、市林业局：负责遗产点内绿化监测及破坏林木行为的查处工作；配合原州区实施遗产点绿化工作。', '21、移动、电信、联通固原分公司：负责遗产点内通信设施建设和改、迁、建，确保设施符合申遗要求。', '（一）健全机构，高度重视。原州区政府及市直各相关责任单位要高度重视丝路申遗工作，将各申遗点环境整治、文物本体保护、展示工程、监测工程和基础设施建设等作为今明两年的重要工作来抓；迅速成立相应的申遗工作机构，主要领导负总责，抽调专人专门负责，强化组织领导，狠抓工作落实，确保丝路申遗工作顺利进行。', '（二）制定方案，通力配合。各相关责任单位要结合各自实际，主动作为，按照丝路申遗工作方案和管理规划要求，制定具体详细的工作方案，组织精干力量，全面落实工作任务，扎实推进申遗工作。', '（三）强化督查，狠抓落实。市申遗工作领导小组办公室要定期不定期督促检查各责任单位申遗工作阶段性开展情况，定期向申遗领导小组汇报申遗过程中存在的困难和问题，确保丝路申遗各项工作有序进行。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>292</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>固原市推进互联网教育工作进展情况通报二</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/201907/t20190716_1606513.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['固原市教育体育局印发了《固原市推进“互联网教育”行动方案(2019-2022年)》，确定了推进“互联网+教育”工作的时间表和路线图。积极推行“N+1+N”远程互助课堂应用试点，推动区域城乡、校际间课堂教学互联互通、优质教学资源共建共享，破解教学点和小规模学校及薄弱学校课程开设不齐、质量不高等问题。', '原州区成立了“互联网+教育”示范区建设工作领导小组，明确了各部门工作职责。建立了“一师一优课、一课一名师”晒课活动及教师“人人通”空间应用情况周通报、月通报制度，促进网络学习空间与教育教学的融合应用。在原州区第十五小学挂牌成立原州区微课制作中心，研究制定原州区微课教学推进计划，深入开展教学研究工作。组织技术人员对8所学校开展教育信息化应用培训，覆盖教师400余名。', '西吉县第二小学与结对学校依托宁夏教育云在线课堂开展教师教科研能力提升培训活动，邀请专家现场点评，指导如何高效地开展教育科研工作，300多名教师参加了培训。西吉县第一小学、西吉县第三小学分别与结对小学开展了在线互动教学与教研活动，480余名师生参与并在线交流评价。', '隆德县第四中学、隆德县洋河学区、隆德县神林学区等校区开展了宁夏教育云教学助手应用展示暨教学技能竞赛活动，充分调动了教师应用信息技术优化教学、提升教学技能的积极性，有55名教师参加了竟赛活动。', '彭阳县印发了《彭阳县教育体育局关于加强对宁夏教育云资源服务平台应用的通知》，推进宁夏教育云融合应用。组织工作人员赴银川市兴庆区回民第二小学、贺兰回民小学、青铜峡第五小学、吴忠盛元小学考察了教育信息化应用情况，学习先进工作经验，助力县级示范学校的创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>292</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市投资促进服务中心创新方式开展招商引资工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202211/t20221130_3864777.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['市投资促进服务中心认真学习贯彻党的二十大精神和自治区十三届二次全会、市委五届六次全会精神，', '认真对标自治区“六特六新六优”产业，立足全市产业基础和资源禀赋，紧扣“五特五新五优”产业发展方向和路径，突出龙头引领、延链补链壮链，科学谋划储备全市2023年重点招商引资项目104个，概算总投资428.42亿元。认真对标谋划储备重点招商引资项目，筛选有发展潜力、投资外溢、有产业转移趋势的重点目标企业300家，精准全市招商目标企业资源库。修改完善全市招商引资宣传片，印制重点产业宣传折页，编印招商引资政策汇编，制作分产业推介PPT等外宣资料。', '亿元。认真对标谋划储备重点招商引资项目，筛选有发展潜力、投资外溢、有产业转移趋势的重点目标企业', '家，精准全市招商目标企业资源库。修改完善全市招商引资宣传片，印制重点产业宣传折页，编印招商引资政策汇编，制作分产业推介', '紧盯重点区域、重点企业，紧扣“五特五新五优”产业，持续加大宣传推介和项目对接力度。一是积极开展“线上”宣传推介。利用“固原招商”公众微信号，宣传推介固原历史文化、区位优势、资源禀赋、营商环境、招商项目等信息。利用电话、微信、邮件、函件等方式，积极与自治区驻外办事处、宁夏异地有关商协会联系沟通，获取有价值的投资信息和目标企业。二是积极进行“线上”精准对接。与中车株洲电力机车研究所有限公司积极对接，并初步与企业达成部分合作共识，企业表示，将利用中车集团全国网络平台采购销售固原农特产品，并将六盘山作为企业红色教育基地，重点与我市在装备制造产业项目方面开展合作，同时有效带动固原新能源产业开发利用，目前正在商洽具体合作事宜。积极与航空工业新飞集团进行深入沟通，在气膜方舱生产组装及材料加工项目方面开展合作，待疫情好转后相互考察。同时，积极与西安美都房地产开发有限公司、新疆南湖实业集团等企业对接，并已初步达成商业综合体项目合作意向，待疫情好转后，将及时邀请企业来固考察洽谈具体合作事宜。三是扎实推动以商招商。不断创新招商方式，借梯上楼、借船出海、借力发展，注重借助外力开展以商招商，跟踪已引进落地建设的雪川农业、融侨集团等重点项目和龙头企业，围绕补链延链，借助产业优势，发挥企业“以商招商”的市场化作用。加强与北京新发地农产品中心批发市场、民天实业集团联系对接，借助企业原料采购、产品销售渠道，引荐与我市农特产品企业合作，拓宽特优农产品销售渠道。', '公众微信号，宣传推介固原历史文化、区位优势、资源禀赋、营商环境、招商项目等信息。利用电话、微信、邮件、函件等方式，积极与自治区驻外办事处、宁夏异地有关商协会联系沟通，获取有价值的投资信息和目标企业。二是积极进行', '精准对接。与中车株洲电力机车研究所有限公司积极对接，并初步与企业达成部分合作共识，企业表示，将利用中车集团全国网络平台采购销售固原农特产品，并将六盘山作为企业红色教育基地，重点与我市在装备制造产业项目方面开展合作，同时有效带动固原新能源产业开发利用，目前正在商洽具体合作事宜。积极与航空工业新飞集团进行深入沟通，在气膜方舱生产组装及材料加工项目方面开展合作，待疫情好转后相互考察。同时，积极与西安美都房地产开发有限公司、新疆南湖实业集团等企业对接，并已初步达成商业综合体项目合作意向，待疫情好转后，将及时邀请企业来固考察洽谈具体合作事宜。三是扎实推动以商招商。不断创新招商方式，借梯上楼、借船出海、借力发展，注重借助外力开展以商招商，跟踪已引进落地建设的雪川农业、融侨集团等重点项目和龙头企业，围绕补链延链，借助产业优势，发挥企业', '的市场化作用。加强与北京新发地农产品中心批发市场、民天实业集团联系对接，借助企业原料采购、产品销售渠道，引荐与我市农特产品企业合作，拓宽特优农产品销售渠道。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>292</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>公安部党委扩大会议召开坚持人民至上抓实重点工作切实保障人民群众生命财产安全和社会大局稳定</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2024-06-22</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/pagy/pagy_jwdt/202407/t20240704_4586102.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['公安部党委（扩大）会议召开 坚持人民至上 抓实重点工作 切实保障人民群众生命财产安全和社会大局稳定_固原市人民政府', '公安部党委（扩大）会议召开 坚持人民至上 抓实重点工作 切实保障人民群众生命财产安全和社会大局稳定', '公安部党委（扩大）会议6月21日在京召开，传达学习习近平总书记对防汛抗旱工作的重要指示和在中央全面深化改革委员会第五次会议上、在青海考察时的重要讲话精神，研究贯彻落实意见。会议强调，要深入学习贯彻习近平总书记重要指示重要讲话精神，坚定拥护“两个确立”、坚决做到“两个维护”，坚持人民至上，进一步强化风险意识、底线思维，全力抓实防风险、保安全、护稳定、促发展重点工作，切实保障人民群众生命财产安全和社会大局稳定。', '会议指出，要积极做好防汛抗旱工作。密切关注汛情、旱情变化，依托多部门协调联动机制，充分发挥公安机关职能作用，加强研判预警、指挥调度，做好防灾救灾、应急处置、社会面秩序维护等工作，把组织、预案、措施、力量落实到位。', '会议强调，要全力做好民族工作和宗教工作。以铸牢中华民族共同体意识为主线，坚持我国宗教中国化方向，同有关部门密切协作，进一步巩固民族和睦、宗教和顺、社会和谐的局面。', '会议指出，要有力维护生态安全。坚持以习近平生态文明思想为指导，深化与生态环境、自然资源、农业农村等部门的协作配合，健全信息共享、联动执法、行刑衔接等制度机制，持续开展“昆仑”等专项行动，依法严厉打击破坏生态环境犯罪，守护好绿水青山。', '会议强调，要进一步深化重点领域改革。在解决群众急难愁盼问题上做好“加减法”，多办暖民心、顺民意、惠民生的实事，切实保障和改善民生。围绕培育现代化产业体系，在治安户政管理、道路交通管理、出入境管理等方面推出更具针对性、实效性的政策举措，进一步加强知识产权保护等工作，依法严厉打击涉企违法犯罪，助力培育新质生产力，护航高质量发展。', '会议指出，要深入推进正风肃纪反腐。善始善终抓好党纪学习教育，以学纪知纪明纪促进遵纪守纪执纪。按照党性党风党纪一起抓、正风肃纪反腐相贯通的要求，紧密结合公安队伍特点，推进作风建设常态化长效化，持续深化整治形式主义为基层减负，在精文减会、规范督查检查考核等方面下更大功夫，严防老问题反弹、新问题发生。始终保持对腐败的“零容忍”，一体推进不敢腐、不能腐、不想腐，推动反腐败斗争取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>292</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>滑志敏调研地质灾害风险防治工作时强调全力抓好地质灾害防范工作切实保障群众生命财产安全</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202407/t20240701_4581485.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['滑志敏调研地质灾害风险防治工作时强调 全力抓好地质灾害防范工作 切实保障群众生命财产安全_固原市人民政府', '滑志敏调研地质灾害风险防治工作时强调 全力抓好地质灾害防范工作 切实保障群众生命财产安全', '6月30日，市委书记滑志敏调研地质灾害风险防治工作时强调，要深入学习贯彻落实习近平总书记考察宁夏重要讲话及关于防汛减灾和安全生产工作重要指示精神，坚持人民至上、生命至上，全力抓好地质灾害风险防治工作，切实保障人民群众生命财产安全。市委副书记、市长杨青龙一同调研。', '原州区官厅镇高红村二组背后山体属于典型山体滑坡隐患点，地质灾害风险高。滑志敏现场了解了地质灾害隐患监测预警、应急处置、责任落实、隐患排查等工作，实地察看隐患点的地形地貌、周边环境及防治工作措施。滑志敏强调，要紧盯灾害点位，坚持人防技防相结合，加强研判和科学调度，完善应急预案，做到职责明确、人员到位、责任到人，切实保障人民群众生命财产安全。', '随后，滑志敏主持召开座谈会，对地质灾害风险防治工作进行安排部署。滑志敏强调，要始终绷紧地质灾害防治这根弦，进一步完善预警、应急响应、救援、物资保障等机制，扎实做好风险研判、巡查排查、应急演练、值班值守等工作，确保一旦发生地质灾情，预案第一时间启动，人员第一时间到达，各项应急处置工作高效运转。要统筹好当前治理和长远根治，拓宽思路，结合实际统筹谋划，加快推进地质灾害隐患风险点治理工作，确保从根子上彻底消除风险隐患。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>292</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>江苏医疗专家服务团宁夏行活动在固原市举行</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202309/t20230905_4250075.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['为深入贯彻党的二十大、自治区第十三次党代会精神，落实自治区党政代表团赴江苏学习考察有关精神和苏宁人力资源社会保障协作协议，进一步提升基层医疗机构服务能力和水平，满足我市基层群众在家门口享受优质医疗资源的迫切需求，8月13日至19日，由', '宁夏回族自治区人力资源和社会保障厅、江苏省人力资源社会保障厅和固原市人民政府主办，', '自治区留学人员和专家服务中心、江苏省专家和留学人员服务中心、固原市人力资源和社会保障局承办的江苏医疗专家服务团宁夏固原行', '活动以固原市人民医院为中心，同步辐射原州区、西吉县、红寺堡区、海原县、同心县共5个国家乡村振兴重点帮扶县', '名。启动仪式结束后，专家们分赴基层服务单位，第一时间投入工作。专家们充分发挥专业优势，通过义诊、培训讲座、手术示教、教学查房等形式开展对口服务，围绕基层群众健康问题开展个性化诊疗和健康指导。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>292</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>市投资促进服务中心年上半年工作总结</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/zfxxgk/fdzdgknr/202211/t20221130_3864997.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['修订完成《投资固原》《固原市2022年重点招商引资项目册》《“5＋4”各产业链投资服务指南与招商项目》', '中能建“绿色能源＋产业”一体化、福州民天实业特色农产品产销一体化、跟力多生物有机肥', '等20个项目正在开展前期市场调研、论证等前期工作，福建龙旺文化旅游、银鹭饮品、以岭药业中药材等10个项目还需跟进商洽。截至6月底，中心对接引进永辉超市净菜入超项目1个，拟入超固原当地农特产品8种，资金5000万元；中能建新能源项目1个，概算投资75亿元，已完成公司注册，抽水储能和地热供暖项目正在开展前期规划设计工作。', '个项目正在开展前期市场调研、论证等前期工作，福建龙旺文化旅游、银鹭饮品、以岭药业中药材等', '建立“在谈、签约、服务”三类项目清单，落实具体包抓人责任，组织入企走访调研6次30多家，建立问题台账，逐一协调解决，先后为企业办理实事20多件，协同', '具体问题15件，重点促成雪川农业、长江医药等企业融资8.45亿元，服务纺织服装企业吸纳就业260多人，推动马铃薯种植大户和合作社通过订单收购、土地入股等模式与雪川农业开展合作。', '下半年，中心将认真学习贯彻自治区第十三次党代会精神，按照五届市委第五次全体会议安排部署，全面落实产业千亿倍增计划和项目千亿投资计划具体任务，全力做好四项重点工作，确保完成全年目标任务。', '聚焦“五特五新五优”产业，加强产业和市场调研，增补论证储备数字信息、现代物流、健康养老、电子商务、特色餐饮产业招商项目，筛选储备目标企业；修订招商宣传片、产业招商地图、宣传折页等资料。主动与国内关联产业行业协会建立合作关系，不断拓宽招商信息渠道。加大重点区域、目标企业研究，切实提高招商实效和项目质量。', '加强与融侨肉牛、雪川农业、长江医药等龙头企业合作，组织开展以商招商，洽谈对接休闲食品、饲料加工、有机肥生产、冷链物流等产业链、供应链延链补链项目。主动服务产业工作专班，策划组织在重庆、四川、河南等地开展专题招商活动，洽谈对接农机具制造、文化旅游、健康养老、特色餐饮项目。', '紧盯目前重点在谈和签约项目，加强对接力度、跟进邀请考察、落实合作条件，重点跟进落实北京、福建招商活动签约项目包抓责任，全力推动福建民天实业特色农产品产销一体化、中绿集团食品加工、宝鸡大地农业生物有机肥、南湖实业商业综合体等重点在谈项目实现签约，中能建“绿色能源＋产业”一体化、中泰盐化工、中泽惠农智慧农业等签约项目落地建设。', '严格落实重点招商项目“一人一企”包抓责任，紧盯项目落地关键环节、企业运营核心要素保障，创新方式开展全过程跟踪服务，常态化入企走访，畅通企业问题反映渠道，加大与要素部门协作力度，全力服务保障']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>292</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>冬闲变冬忙抓养殖技术培训激发内生动力提升脱贫能力</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201811/t20181127_1181644.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['固原市交通运输局以全市开展的“农民教育培训年”活动为抓手，围绕脱贫攻坚紧抓大部分农民冬闲在家的机会，紧密结合自治区农投集团帮扶的张湾村实施的养牛产业帮扶项目，于11月20日-21日，利用两天时间，邀请西吉县农牧局的2名专业技术人员在张湾村农民田间学校举办肉牛养殖技能培训班，扶贫扶志扶智，调动贫困户依靠内生动力打赢脱贫攻坚战。全村30余户贫困养殖户、专业合作社负责人参加了培训。', '在养殖技术理论培训班上，高级兽医师王平围绕牛羊养殖实用技术，从养殖基础母牛与育肥公牛的区别开始，就饲草料的配制、优良品种的繁殖、疫情疫病的防治、日常饲养的管理等关键环节，进行了深入浅出地讲解，使广大养殖户直观地了解掌握了牛羊养殖基本技术。随后，高级兽医师张文升重点就肉牛疫病疫情防治、常见疾病防治、日常养殖消毒等方面需要注意的问题进行了重点讲解。', '为了取得养牛真经，起到他山之石攻玉的效果，培训班又利用一天时间，先后到马莲乡的四丰绿源、红耀乡优质肉驴等大型养殖场、专业合作社及向丰农业循环基地进行了实地观摩学习。每到一处，大家就各自在养殖中存在的技术问题、疑问困惑踊跃向这些行家里手虚心请教。“通过养殖技术培训和实地考察，不但使让我学到了技术，开阔了眼界，更重要的找到了差距，增长了依靠发展养牛产业走上脱贫致富路的决心和信心”，贫困户张岩对将来通过发展养牛脱贫致富信心满满。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>292</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>固原市多举措推动闽宁对口扶贫协作工作再上新台阶</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2019-12-27</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201912/t20191227_1906406.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['2019年，固原市认真贯彻落实闽宁互学互助第二十三次联席会议精神，紧盯建档立卡贫困户脱贫退出、贫困村脱贫出列、贫困县脱贫摘帽目标，精准实施项目，各项工作取得了明显成效。', '年，固原市认真贯彻落实闽宁互学互助第二十三次联席会议精神，紧盯建档立卡贫困户脱贫退出、贫困村脱贫出列、贫困县脱贫摘帽目标，精准实施项目，各项工作取得了明显成效。', '市委、市政府和五县（区）高度重视闽宁对口扶贫协作工作，主要领导亲自部署亲自推动，闽宁协作工作深入健康发展。', '2019年，福建省帮扶县（市、区）和固原市、县（区）开展交流互访56次611人，其中县处级以上领导干部116人次。自治区党委常委、固原市委书记张柱多次对闽宁协作工作做出批示和指示，推动闽宁协作工作深入开展。4月22日至24日，自治区副主席、固原市委副书记、市长马汉成带队出席闽宁对口扶贫协作第23次联席会议，并参加相关活动，开展互访交流，考察招商引资企业，对接相关工作。10月16日至17日，福建省委副书记、福州市委书记王宁带队，福建省副省长郑建闽、省政协副主席王光远，福建省发改、农业农村、商务、人社等部门和福州市有关负责同志来我市考察闽宁对口扶贫协作工作。固原市五县（区）和福建省对口帮扶县（区）党委书记、县长分别带队开展互助交流13次，协商协作帮扶项目，签订帮扶协议，开展招商引资等活动。', '人次。自治区党委常委、固原市委书记张柱多次对闽宁协作工作做出批示和指示，推动闽宁协作工作深入开展。', '日，福建省委副书记、福州市委书记王宁带队，福建省副省长郑建闽、省政协副主席王光远，福建省发改、农业农村、商务、人社等部门和福州市有关负责同志来我市考察闽宁对口扶贫协作工作。固原市五县（区）和福建省对口帮扶县（区）党委书记、县长分别带队开展互助交流', '福建省向固原市选派挂职干部13名，其中固原市3名，各县（区）各2名，分别任党委、政府副职或县（区）长助理。固原市向福建省对口帮扶县（区）选派挂职干部共10名，分别担任县委、县政府副职或乡镇党委、政府副职。举办干部培训班14期培训532人。', '名，分别任党委、政府副职或县（区）长助理。固原市向福建省对口帮扶县（区）选派挂职干部共', '建立结对帮扶关系的医疗机构7对，其中福建对口医疗机构5个，固原五县（区）医疗机构9个，福建省共选派30名专家、教授和主治医师来固支援，开展医疗活动10余场次，接待患者300余人；选派65名主治医师开展结对帮扶。固原市选派5批169名医生赴福建交流学习。12对学校建立帮扶关系，其中福建省13个，固原市12个；福建省选派5批58人开展支教活动，固原市选派4批16人赴福建相关学校交流学习。', '建设项目6个、投入资金4028万元。投入995万元在贫困村改造危窑危房829户，解决贫困户住房安全问题，每户配套补贴1.2万元；投入2500万元建设或改造原州区、西吉县、彭阳县村级光伏扶贫发电站；隆德县改造提升张银村、倪套村、大水沟（水磨村）三处安全饮水点，保障2.7万余人饮水安全。', '万元建设或改造原州区、西吉县、彭阳县村级光伏扶贫发电站；隆德县改造提升张银村、倪套村、大水沟（水磨村）三处安全饮水点，保障', '发展特色产业项目67个、投入资金6324万元。在泾源县城关村建设“四个一”林草产业示范园，打造特色树种繁育基地50亩，改造设施温棚10000平方米；培育推广艾草、红梅树种植，种植公益林572亩；扶持发展食用菌蘑菇加工；在沙塘镇、观庄乡和陈靳乡建设乡级残疾人托养工厂3个。', '万元扶持建设扶贫车间，项目涵盖农产品加工、有机肥加工，中药材饮片加工、艾草种植，灯笼制作、服装加工等项目，解决就业岗位', '投入帮扶资金1579万元，加大对西吉、隆德、泾源、彭阳闽宁产业园区的扶持力度，推动入院企业扩大生产规模、开展新产品研发、员工培训等项目。2019年引导入驻园区企业达到65家（', '万元，加大对西吉、隆德、泾源、彭阳闽宁产业园区的扶持力度，推动入院企业扩大生产规模、开展新产品研发、员工培训等项目。', '落实特色产业项目67个、投入资金6324万元，扶持发展特色种植、养殖和托养、兜底项目。', '积极扶持发展“四个一”林草产业，扶持宁夏皇达生物科技股份有限公司，示范推广造型松培育修剪，集中繁育香荚蒾、天目琼花等优势树种；在开城镇上青石村种植生态公益林572亩，种植树苗8万株；培育推广艾草新兴产业。在彭阳县扶持种植3000亩太子参、党参、黄芪、黄芩等中药材，每亩补助500元；在泾源县试点种植当归204亩。', '林草产业，扶持宁夏皇达生物科技股份有限公司，示范推广造型松培育修剪，集中繁育香荚蒾、天目琼花等优势树种；在开城镇上青石村种植生态公益林', '以培育新型农民主体为重点，投入项目资金108万元，扶持合作社19家，带动建档立卡贫困户发展养殖业。扶持固原富民农业科技发展有限公司、宁夏绿色能源农业发展有限公司等带动贫困户发展养殖业。建成大湾乡杨岭村养羊场；隆德县采取“托养+扶贫车间+企业（合作社）”的模式发展养殖业，受益人口达3000余人，其中带动残疾人近1000人。', '家，带动建档立卡贫困户发展养殖业。扶持固原富民农业科技发展有限公司、宁夏绿色能源农业发展有限公司等带动贫困户发展养殖业。建成大湾乡杨岭村养羊场；隆德县采取', '扶持固原市原州区博源肉牛养殖农民专业合作社、宁夏海晟盛源农林科技有限公司有机肥锯末加工项目；投入补贴资金20万元，扶持固原富田有机肥有限公司有机肥改扩建项目。', '扶持固原市原州区博源肉牛养殖农民专业合作社、宁夏海晟盛源农林科技有限公司有机肥锯末加工项目；投入补贴资金', '。统筹政策支持、引进大型采购商、推荐消费扶贫示范企业等方式，拓展“特产馆+展会+工会+电商”等销售渠道，推动消费扶贫进福建机关、企业、社区、商超。共帮助固原销售农特产品超1亿元，带动贫困人口约5600人。建成宁夏六盘山特产馆宁德分馆，主要销售宁夏原产地、原生态的各种绿色名优土特产，助力固原农产品拓宽销售渠道、农户增收脱贫，实现两地双赢。', '人。建成宁夏六盘山特产馆宁德分馆，主要销售宁夏原产地、原生态的各种绿色名优土特产，助力固原农产品拓宽销售渠道、农户增收脱贫，实现两地双赢。', '强化“一把手”招商，“走出去、请进来”、委托招商等方式，发动158名福建企业家到固原考察投资兴业，鼓励支持在固闽籍企业以商招商、投资新项目，积极招引珠三角、长三角等地区企业到固原考察投资。全市共落地招商引资项目46个，计划投资约57亿元，实际投入资金13.3亿元，带动贫困人口20000多人。', '名福建企业家到固原考察投资兴业，鼓励支持在固闽籍企业以商招商、投资新项目，积极招引珠三角、长三角等地区企业到固原考察投资。全市共落地招商引资项目', '坚持把劳务输出作为脱贫攻坚工作的主要抓手，抢抓闽宁协作机遇，充分发挥部门优势，采取“加大对接、地企联动，企业到乡、岗位到人”的方式，加强闽宁劳务协作，持续扩大向福建省转移劳动力的规模。成立驻福建劳务管理服务机构7个，先后开展闽宁劳务互访交流22次，巩固拓展闽宁劳务基地24个。邀请福建用工企业来固参加“春风行动”、“就业援助”、“民营企业招聘周”各类专项招聘活动。举办专场招聘会19场次，培训贫困劳动力74期3487人次、贫困村致富带头人394人次；帮助19138人实现就业，组织到福建就业2972人次、组织区内就业13348人次。', '坚持把劳务输出作为脱贫攻坚工作的主要抓手，抢抓闽宁协作机遇，充分发挥部门优势，采取', '的方式，加强闽宁劳务协作，持续扩大向福建省转移劳动力的规模。成立驻福建劳务管理服务机构', '加大两地交流对接力度，构建党政机关、企业、学校、社会组织等多层次、组团式结对帮扶体系，推动携手奔小康行动向贫困村拓展延伸。共建成乡镇、村（社区）、企业、医院、学校结对帮扶关系207对，其中乡镇62对、村（社区）122对、学校13对、医院7对、部门3对。福建省共有44个乡镇帮扶我市62个乡镇，动员29个企业54个社会组织参与村企共建。共组织两地互访交流73批806人次。', '加大两地交流对接力度，构建党政机关、企业、学校、社会组织等多层次、组团式结对帮扶体系，推动携手奔小康行动向贫困村拓展延伸。共建成乡镇、村（社区）、企业、医院、学校结对帮扶关系']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>292</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>关于印发公务员职业道德建设工程实施方案的通知</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201812/t20181229_1237449.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体体现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德培育贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体体现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、', '重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德培育贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '——坚持职业道德建设与集中性和经常性学习教育相结合。根据不同阶段、不同行业的实际，针对突出问题，开展形式多样的公务员职业道德建设活动。', '坚持职业道德建设与集中性和经常性学习教育相结合。根据不同阶段、不同行业的实际，针对突出问题，开展形式多样的公务员职业道德建设活动。', '——坚持教育引导、行为规范、实践养成相统一。把教育引导作为塑造公务员道德习惯和提升公务员职业道德素养的重要环节，发挥行为规范对公务员的约束作用，推动公务员职业道德实践养成，使公务员职业道德内化于心、外化于行，贯穿到日常工作和言行中，成为广大公务员的自觉自愿行动。', '坚持教育引导、行为规范、实践养成相统一。把教育引导作为塑造公务员道德习惯和提升公务员职业道德素养的重要环节，发挥行为规范对公务员的约束作用，推动公务员职业道德实践养成，使公务员职业道德内化于心、外化于行，贯穿到日常工作和言行中，成为广大公务员的自觉自愿行动。', '——坚持整体推进与分类指导相衔接。在整体推进公务员职业道德建设的同时，根据不同类别、不同层级、不同行业公务员的特点，加强分类指导，进一步提高公务员职业道德建设的针对性、有效性。', '坚持整体推进与分类指导相衔接。在整体推进公务员职业道德建设的同时，根据不同类别、不同层级、不同行业公务员的特点，加强分类指导，进一步提高公务员职业道德建设的针对性、有效性。', '——坚持推进工作与完善制度相配套。认真贯彻落实中央、自治区、市关于从严管理干部的要求，把公务员职业道德建设与完善公务员制度结合起来，建立健全公务员职业道德建设的长效机制。', '坚持推进工作与完善制度相配套。认真贯彻落实中央、自治区、市关于从严管理干部的要求，把公务员职业道德建设与完善公务员制度结合起来，建立健全公务员职业道德建设的长效机制。', '坚持把职业道德建设贯穿于公务员管理的全过程，通过持续努力，建立健全公务员职业道德行为规范，完善职业道德建设体制机制，使全市公务员理想信念更加坚定，精神状态更加饱满，履职行为更加规范，工作作风更加务实，真正成为社会主义道德的示范者、专业化服务的提供者、诚信风尚的引领者和公平正义的维护者。', '要求公务员坚定对马克思主义的信仰，坚定对社会主义和共产主义的信念，不断增强道路自信、理论自信、制度自信、文化自信;坚持中国共产党的领导，坚持党的基本理论、基本路线、基本纲领、基本经验、基本要求不动摇;把牢政治方向，坚定政治立场，严守政治纪律和政治规矩，增强党性修养，做到对党和人民绝对忠诚。', '要求公务员弘扬爱国主义精神，坚决维护国家安全、荣誉和利益，维护党和政府形象、权威，维护国家统一和民族团结;保守国家秘密和工作秘密，同一切危害国家利益的言行作斗争。', '要求公务员坚持以人为本、执政为民，全心全意为人民服务，永做人民公仆;坚持党的群众路线，密切联系群众，以人民忧乐为忧乐，以人民甘苦为甘苦;坚持人民利益至上，把实现好、维护好、发展好最广大人民根本利益作为工作的出发点和落脚点，切实维护群众切身利益。', '要求公务员服务大局、奋发有为、甘于奉献，为党和人民的事业不懈奋斗;坚持原则、敢于担当、认真负责，面对矛盾敢于迎难而上，面对危机敢于挺身而出，面对失误敢于承担责任，面对歪风邪气敢于坚决斗争;精通业务知识，勤勉敬业、求真务实，兢兢业业做好本职工作。', '要求公务员牢固树立社会主义法治理念，努力提高法治素养，模范遵守宪法和法律;严格依法履职，做到权由法定、权依法使，法定职责必须为、法无授权不可为;坚持依法决策，严格按照法定的权限、程序和方式执行公务。', '要求公务员坚持秉公用权、公私分明，办事出于公心，努力维护和促进社会公平正义;严于律己、廉洁从政，坚守道德法纪防线;为人正派、诚实守信，尚俭戒奢、勤俭节约。', '。凡是在考录、调任等工作的各个环节中，发现有违反政治纪律和政治规矩、违法乱纪、不遵守社会公德行为的，或者存在弄虚作假等不诚信记录的，不得进入公务员队伍。', '年底前，各县(区)、各部门要建立统一的公务员诚信档案，把公务员档案填写登记情况、个人事项报告查核情况、廉政记录情况、遵守规定和承诺践诺情况等，列入诚信记录范围。', '通过调查研究、座谈交流等形式，广泛开展公务员职业道德大讨论活动，充分听取本行业系统、本地区广大公务员对职业道德行为规范的意见建议，', '《国家公务员行为规范》，结合实际，制定内容具体、易于操作的《固原市公务员守则》，从严规范公务员履职行为。各县(区)、各部门要充分发挥行为规范对公务员的约束作用，要组织广大公务员认真学习、严格遵守。', '各县(区)、各部门(单位)要组织广大公务员深入学习党的十九大精神，深入学习习近平新时代中国特色社会主义思想，坚持用马克思主义中国化最新成果武装头脑。深入开展公务员理想信念教育、宗旨教育、法制教育、党规党纪和廉政教育，引导公务员树立正确的世界观、人生观、价值观和权力观、地位观、利益观，增强政治意识、大局意识、核心意识、看齐意识。把中国特色社会主义核心价值体系作为根本价值取向，牢固树立中国特色社会主义共同理想，推动公务员职业道德建设。', '将职业道德教育纳入干部教育规划和年度计划，作为公务员初任、任职、在职培训的必修内容，纳入党校和行政学校等举办的培训班次，', '采取多种形式，对公务员开展全员培训。突出抓好领导干部、基层一线和窗口单位公务员的职业道德教育培训。要创新培训方式，利用好公务员特色实践教育基地和革命历史、党风廉政等现场教学基地，注重案例教学、现场教学，利用违反政治纪律和政治规矩、贪污受贿、失职渎职、滥用职权、参与或者支持迷信活动等反面典型，开展案例剖析，接受警示教育。全市公务员每人每年接受职业道德培训或者参与职业道德主题实践活动的时间总计不少于8学时。', '采取多种形式，对公务员开展全员培训。突出抓好领导干部、基层一线和窗口单位公务员的职业道德教育培训。要创新培训方式，利用好公务员特色实践教育基地和革命历史、党风廉政等现场教学基地，注重案例教学、现场教学，利用违反政治纪律和政治规矩、贪污受贿、失职渎职、滥用职权、参与或者支持迷信活动等反面典型，开展案例剖析，接受警示教育。全市公务员每人每年接受职业道德培训或者参与职业道德主题实践活动的时间总计不少于', '各部门要结合实际认真落实宪法宣誓制度，开展新录用、新任职公务员忠于宪法宣誓活动，增强仪式感，强化责任意识，激励和教育公务员忠于宪法、忠于祖国、忠于人民。结合各种党组织活动，定期开展重温入党誓词活动，进一步增强党员公务员忠于党、忠于以习近平同志为核心的党中央的意识。', '各部门要设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。要深入推进争做人民满意公务员活动，积极开展公务员“职业道德标兵”“为民服务示范岗”创建活动。大力弘扬“奉献、友爱、互助、进步”精神，积极鼓励公务员开展“为民志愿服务”进企业、进社区、进农村活动。', '各部门要设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。要深入推进争做人民满意公务员活动，积极开展公务员', '各部门要结合实际，组织主题征文、演讲比赛、大讨论、诵读文化经典等活动，充分挖掘中华优秀传统文化中道德的精华，大力弘扬井冈山精神、延安精神、焦裕禄精神等党的优良传统，形成促进公务员职业道德建设的良好文化氛围。', '各部门要结合开展公务员平时考核、年度考核、任职考察等工作，注重了解公务员职业道德表现情况。个人述职要述德，民主测评要测德，考察谈话要问德，综合分析研判要分析评价公务员的职业道德素养和表现情况。将公务员遵守职业道德情况列入民主生活会、组织生活会等重要内容，深入查找不足，切实加强整改。', '各部门要深入开展机关作风和行风评议监督工作，建立从同级党代会代表、人大代表、政协委员和各界群众代表中选聘公务员职业道德社会监督员制度。利用1至2年时间，在全市建立窗口单位和服务部门服务对象评价机制。建立健全投诉举报处理和问责机制。结合推进党务、政务公开工作，畅通群众反映公务员职业道德方面意见的渠道。高度重视网情、舆情对公务员职业道德方面问题的反映，主动回应群众关切。', '各部门要深入开展机关作风和行风评议监督工作，建立从同级党代会代表、人大代表、政协委员和各界群众代表中选聘公务员职业道德社会监督员制度。利用', '年时间，在全市建立窗口单位和服务部门服务对象评价机制。建立健全投诉举报处理和问责机制。结合推进党务、政务公开工作，畅通群众反映公务员职业道德方面意见的渠道。高度重视网情、舆情对公务员职业道德方面问题的反映，主动回应群众关切。', '各部门每半年开展一次“职业道德之星”评比活动，市公务员主管部门每年组织开展评选30名“职业道德标兵”和30个“为民服务示范岗”评比活动，大力营造身边有先进、单位有榜样、行业有标兵、全市有模范的良好氛围。要开展“向楷模看齐”活动，组织广大公务员向人民满意的公务员、职业道德标兵等先进人物看齐，不断提升职业道德修养。', '评比活动，大力营造身边有先进、单位有榜样、行业有标兵、全市有模范的良好氛围。要开展', '活动，组织广大公务员向人民满意的公务员、职业道德标兵等先进人物看齐，不断提升职业道德修养。', '强化公务员职业道德考核结果的运用，将职业道德考核情况作为公务员选拔任用、培养教育、管理监督的重要依据。对恪守职业道德、履职尽责、表现优秀的公务员，给予适当奖励。对存在违反职业道德、工作作风懈怠、工作态度恶劣、有严重失信行为等情况的公务员，按照《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党问责条例》等党纪党规和《行政机关公务员处分条例》等有关规定给予批评教育、组织处理或者党纪、政纪处分。', '成立纪委(监委)、市委督查室、组织、宣传、政法、市直机关工委、政府督查室、人社等部门组成的公务员职业道德建设工程领导小组，领导小组办公室设在市人社局公务员局，具体组织推进公务员职业道德建设工程的各项工作。各县(区)、各部门要充分认识推进公务员职业道德建设工程的重要意义，把公务员职业道德建设工程作为加强公务员队伍建设的重要抓手，切实把这项工作摆上重要位置，精心谋划，制定方案，周密部署，落实工作职责。市、县两级公务员主管部门要充分发挥牵头抓总作用，要认真履行好组织指导、协调推进、督促检查的职责。各牵头单位要各司其职，密切配合，形成工作合力，确保各项目标落实到位，推动我市公务员职业道德建设水平不断提升。各县(区)要结合实际，切实加强领导，明确工作职责，科学统筹谋划，认真研究部署，进一步细化、完善相关内容，制定本县(区)公务员职业道德建设工程实施方案，并按要求报送备案;市直各部门(单位)要按此方案精神，结合本部门行业实际，制定年度具体实施计划安排，按照管理权限于', '各县(区)、各部门要在坚持总体要求的基础上，紧密结合不同层级、不同行业特点，提出公务员职业道德建设的具体措施和要求。各级领导机关和领导干部要率先垂范，带头践行公务员职业道德，把坚定理想信念、遵守政治纪律和政治规矩、廉洁自律、敢担当、作风正作为重点;基层公务员要把树立宗旨意识、群众观念，办事公道作为重点;窗口单位和服务部门公务员要把强化服务意识，改进服务态度，打造服务品牌作为重点;执法一线公务员要把增强法治观念，严格规范公正文明执法作为重点，全面推进公务员队伍的职业道德建设。', '充分发挥报刊、广播、电视、网络等媒体作用，大力宣传公务员职业道德建设的新气象、新变化、新成就。大力宣传革命英烈和焦裕禄、谷文昌、廖俊波等先进人物事迹，选树一批模范践行公务员职业道德的先进典型，以及在我市一线攻坚、重大项目、急难险重等工作中表现突出、作出重大贡献的公务员，提炼先进典型的核心价值，加大宣传力度，发挥示范作用。举办主题征文、演讲比赛、大讨论、诵读文化经典等活动，弘扬中华优秀传统文化和党的优良传统，营造良好的社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>292</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>固原市年事业单位自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202304/t20230421_4039482.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['为进一步推进人才强市战略，大力引进急需紧缺高层次人才，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》', '为进一步推进人才强市战略，大力引进急需紧缺高层次人才，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔', '号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》', '等规定，现就固原市2023年事业单位自主公开招聘急需紧缺高层次人才有关事项公告如下。', '5．硕士研究生年龄一般为35周岁以下，博士研究生年龄可放宽到40周岁以下，具体年龄以招聘岗位年龄为准；', '6．符合《固原市2023年事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）中各招聘岗位要求的资格条件；', '5．在机关事业单位招（录）聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的；', '12．与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘该单位负责人员的秘书或者组织（人事）、纪检监察、审计、财务岗位，以及有直接上下级领导关系的岗位；', '与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘该单位负责人员的秘书或者组织（人事）、纪检监察、审计、财务岗位，以及有直接上下级领导关系的岗位；', '本次计划招聘硕士学历及以上研究生31人，具体招聘单位、招聘岗位、招聘人数、资格条件及有关事项详见《固原市2023年事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）。', '本次自主公开招聘，对博士研究生采取直接考核考察方式招聘。对硕士研究生采取免笔试直接面试的方式招聘。', '1．现场报名。应聘者携带本人有效身份证及岗位所需的材料原件和复印件、2张近期同底（6个月内）正面1寸免冠照片交由招聘单位审核，并填写《固原市2023年事业单位自主公开招聘急需紧缺高层次人才报名表》（附件2）。', '尚未取得毕业证、学位证的2023年应届毕业生，可持所在院校盖章的就业推荐表、学历和学位证明、学生证、身份证、户口簿原件及复印件报名。', '年应届毕业生，可持所在院校盖章的就业推荐表、学历和学位证明、学生证、身份证、户口簿原件及复印件报名。', '4．资格初审。资格初审工作由招聘单位和招聘单位主管部门负责。资格初审一般应在应聘者提交报名申请1个工作日内审核完毕。应聘者在提交完整报名信息1个工作日后，通过查询电子邮箱确认邮件或电话咨询方式确认资格初审是否通过。未通过资格初审的考生，可以改报其他岗位。未通过资格初审且没有改报其他岗位的考生视为放弃。', '资格初审。资格初审工作由招聘单位和招聘单位主管部门负责。资格初审一般应在应聘者提交报名申请', '个工作日后，通过查询电子邮箱确认邮件或电话咨询方式确认资格初审是否通过。未通过资格初审的考生，可以改报其他岗位。未通过资格初审且没有改报其他岗位的考生视为放弃。', '5．资格复审。资格复审工作由招聘单位会同其主管部门在同级纪检监察部门的监督下进行现场复审。未按规定时间进行资格复审的，视为自动放弃。', '资格复审。资格复审工作由招聘单位会同其主管部门在同级纪检监察部门的监督下进行现场复审。未按规定时间进行资格复审的，视为自动放弃。', '应聘人员现场资格复审须提供以下材料：身份证原件、复印件；本人户口簿原件、复印件；大学本科、硕士研究生毕业证、学位证的原件、复印件；大学本科、硕士研究生学历的《教育部学历证书电子注册备案表》；相关资格证书原件、复印件。资格复审时填写《', '年宁夏事业单位公开招聘工作人员面试应聘者资格复审表》一式两份，应聘者与招聘单位各留存一份。《', '应聘者的资格审查贯穿公开招聘工作全过程，凡发现应聘者不符合报考条件的，随时取消招聘资格。', '1．考试方式。考试采取免笔试直接面试的方式进行。通过资格审核后，由市组织、人社部门与用人单位主管部门及用人单位共同组织面试等有关事宜。如果报名人数与招聘人数达不到3︰1比例的，由用人单位公开招聘领导小组研究提出意见，报经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核同意后，可适当降低开考比例、减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或取消招聘岗位有关事项，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核后，在固原党建网（http：／／www．nxgydj．gov．cn／）和固原市人民政府网（http：／／www．nxgy．gov．cn／）进行公告。', '考试方式。考试采取免笔试直接面试的方式进行。通过资格审核后，由市组织、人社部门与用人单位主管部门及用人单位共同组织面试等有关事宜。如果报名人数与招聘人数达不到', '比例的，由用人单位公开招聘领导小组研究提出意见，报经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核同意后，可适当降低开考比例、减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或取消招聘岗位有关事项，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核后，在固原党建网（', '若招聘岗位报考人数超过30人，由固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究决定，可通过增加笔试的方式进一步确定面试人选，笔试的测评范围、测评形式提前公布并告知应聘人员。', '人，由固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究决定，可通过增加笔试的方式进一步确定面试人选，笔试的测评范围、测评形式提前公布并告知应聘人员。', '2．面试时间和地点。面试时间、地点及其他要求由招聘单位负责提前一周通知应聘者。应聘者提供的联络方式须有效、正确，便于随时联络，对于因提供的联络方式不准确有效而导致误考等问题，应由应聘者自己负责。', '面试时间和地点。面试时间、地点及其他要求由招聘单位负责提前一周通知应聘者。应聘者提供的联络方式须有效、正确，便于随时联络，对于因提供的联络方式不准确有效而导致误考等问题，应由应聘者自己负责。', '3．面试内容。面试主要对应试人员的综合分析能力、组织协调能力、逻辑思维能力以及招聘岗位所必需的专业知识、业务技能等进行测试，全面衡量应聘者的综合素质。根据用人单位不同岗位特点，教师岗位面试采取半结构化（试讲）方式，其他岗位面试采取半结构化（问答）方式。', '面试内容。面试主要对应试人员的综合分析能力、组织协调能力、逻辑思维能力以及招聘岗位所必需的专业知识、业务技能等进行测试，全面衡量应聘者的综合素质。根据用人单位不同岗位特点，教师岗位面试采取半结构化（试讲）方式，其他岗位面试采取半结构化（问答）方式。', '4．考试总成绩。考生面试成绩即为考生总成绩。考试总成绩相同的，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组同意后通过一定方式组织加试。', '考试总成绩。考生面试成绩即为考生总成绩。考试总成绩相同的，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组同意后通过一定方式组织加试。', '面试满分为100分，面试成绩达不到60分的，取消招聘资格。面试成绩向社会进行公布，接受监督。', '面试结束后，根据考试成绩由高分到低分，按照招聘岗位计划1∶1的比例确定参加体检人员。', '体检在同级纪检监察部门监督下，由招聘单位主管部门和用人单位负责组织在县级以上综合医院进行。体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）执行。体检费用由应聘者承担。', '体检在同级纪检监察部门监督下，由招聘单位主管部门和用人单位负责组织在县级以上综合医院进行。体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔', '应聘者对体检的结果有疑问要求复检的，由应聘者本人提出申请，经研究批准后，另行指定不低于原体检医院级别的其他医院进行复检，复检只进行一次，体检结果以复检结论为准。复检费用由应聘者承担。', '应聘者应在规定时间内完成全部体检项目。体检合格者确定为考察人选。未按要求完成体检的，视为自动放弃体检资格。', '体检合格的人员列入考察对象，由组织、人社会同用人单位及其主管部门，按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。考察不合格的，取消应聘资格。', '根据考试、体检、考察结果，固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究确定拟聘用人员名单，在固原党建网、固原市政府网站公示5个工作日。公示期满无异议的拟聘用人员，报固原市人力资源和社会保障局办理招聘手续。', '根据考试、体检、考察结果，固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究确定拟聘用人员名单，在固原党建网、固原市政府网站公示', '对反映有影响聘用的问题经查证属实的，不予聘用；对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消招聘资格。', '对反映有影响聘用的问题经查证属实的，不予聘用；对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知', '招聘单位与受聘人员签订聘用合同，确立人事关系，并按规定办理相关手续。聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，予以正式聘用，纳入事业单位在职在编人员管理，享受国家规定的工资、保险等福利待遇。不合格的，解除聘用合同。', '1．在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补；', '在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补；', '2．在体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '在体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '（一）凡涉及本次招聘工作的重大事项或本公告未尽事宜，由固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究决定。', '（二）应聘者报名时应根据本人条件，严格按照岗位资格条件要求选报岗位，并且如实填报个人信息。对于弄虚作假、隐瞒真实情况或不符合岗位资格条件要求的，一经发现，即取消其报名资格或宣布考试成绩无效，由此造成的一切后果由应聘者自负。应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（三）自主公开招聘工作做到信息公开、过程公开、结果公开。自主公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（三）自主公开招聘工作做到信息公开、过程公开、结果公开。自主公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》（人社部规〔2019〕1号）相关要求提出回避。', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》（人社部规〔', '附件1：固原市2023年事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表.xls']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>292</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>关于呈报全市年脱贫攻坚上半年工作总结和下半年工作要点的报告</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-10-13</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201801/t20180110_664847.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['关于呈报《全市2017年脱贫攻坚上半年工作总结和下半年工作要点》的报告_固原市人民政府', '。全市上下认真贯彻落实自治区和全市脱贫攻坚推进会精神，以脱贫攻坚统领全市经济社会发展，深入实施', '，坚持目标导向和问题导向，聚焦重点领域和薄弱环节，采取更准、更实、更硬的政策措施，集中力量补短板、挖潜力、抓落实，扎实推进精准扶贫、精准脱贫，各项工作顺利推进。', '把产业作为脱贫致富的主要抓手，出台扶持政策，着力加强培育。一是发展草畜产业。制定出台了《肉牛产业全产业链提质增效实施方案》、《安格斯高档肉牛繁育基地实施方案》，加快全国高端肉牛繁育基地和宁夏六盘山百万头肉牛养殖基地建设步伐。截止', '苗木发展模式，出台扶持政策、补助标准等，明确绿化工程使用本地苗木和建档立卡贫困户苗木。完成苗木新育苗', '万只（箱）。三是加大旅游扶贫。深入贯彻落实发展新理念，积极拓展农业多功能，以生态旅游为突破口，以乡村旅游为抓手，充分利用农村田园景观、民俗文化、现代农业等优势，发展以休闲观光、民俗体验等为主要形式的休闲农业，成功打造了六盘山山花节、龙王坝休闲度假村、老巷子休闲养生度假区等休闲农业和乡村旅游品牌和基地，带动贫困户增收。目前，固原市休闲农业经营主体达到', '亿元，有效的促进了产业扶贫，精准脱贫。四是建设示范园区。开工建设市国家农业科技园区一期工程，', '把劳动力素质提升工程作为提高技能、扩大就业、增加贫困群众收入的根本之策，以精准脱贫能力培训助推工程提升，精准发力。围绕产业发展和市场需求，瞄准建档立卡贫困户劳动力和', '套，正在办理建设用地审批手续，准备由移民自建；与开发商签订代建回购意向协议，在市区', '套，安置点选址已确定，“三通一平”已完成，正在编制建设方案，计划由移民自建；与开发商签订回购意向协议，在县城', '月底交工。县外移民方面主要是搬迁对象遴选慢、遴选难，兴庆区劳务移民住房还未建成，正在与金凤、灵武、宁东三地对接落实搬迁对象。隆德县：“十三五”任务已于', '，强力推动驻村帮扶工作。一是优化帮扶力量。根据贫困村的大小，对应部门（单位）综合实力合理安排帮扶单位，帮扶单位选派由分管领导为队长的扶贫工作队，驻村开展帮扶工作。调整充实第一书记，按照因村派人、精准派人的原则，新选派驻村第一书记', '实行第一书记与派出单位定点帮扶责任、项目、资金落实情况捆绑，并将考核结果与派出单位定点帮扶工作考核挂钩。建立第一书记实绩台账，落实季度汇报工作制度和季度考核制度，对于作用发挥不好的第一书记直接发函到派出单位动态化进行调整。全市区、市、县各级帮扶单位为帮扶村投入各类帮扶资金', '项专项工作和主题活动。原州区与福州市马尾区、西吉县与莆田市涵江区、隆德县与福州市闽候县、泾源县与厦门市海沧区、彭阳县与厦门市思明区分别签订了对口帮扶协议。', '原州区与福州市马尾区、西吉县与莆田市涵江区、隆德县与福州市闽候县、泾源县与厦门市海沧区、彭阳县与厦门市思明区分别签订了对口帮扶协议。', '亿元，项目涉及特色农业、轻工产品制造、文化旅游、农副产品加工及服务业等领域，其中合同项目', '活动，进一步梳理问题、研究问题，实现因人因户分类施策、靶向治疗。二是扎实整改扶贫开发考核反馈问题。', '日，市委、市政府召开全市扶贫开发成效考核反馈问题整改专题会议，对国家和自治区脱贫攻坚反馈', '个问题整改进行安排部署，逐项明确整改要求和责任分工。目前，各县（区）正在抓紧整改。其中精准识别与退出、资金整合', '个问题已基本完成，产业扶贫、精准项目帮扶、干部驻村帮扶、金融政策落实、住房保障、易地搬迁、光伏计划、扶贫领域违规违纪和激发内生动力等', '人。同时，按照市委、市政府主要领导的要求，整合各县（区）建立的明白卡、清单等台账，建立全市统一规范的建档立卡贫困人口《精准扶贫收入台账》。', '同时，按照市委、市政府主要领导的要求，整合各县（区）建立的明白卡、清单等台账，建立全市统一规范的建档立卡贫困人口《精准扶贫收入台账》。', '通过内外并举的办法，采取在本乡本村现有能人中培育扶持一批、在外出创业成功人员中召回一批、依托特色产业引进一批的措施，大力培养农村致富带头人。今年制定了《关于开展', '工程的通知》，持续壮大致富带头人群体。特别是建立“两个带头人”互促转化机制，把村党支部成员和党员培育成致富带头人，在致富带头人中发展党员和培养村干部。结合村“两委”换届，固原市', '把涉农扶贫资金领域作为监督执纪的重点，加大扶贫资金监管力度。一是建立扶贫资金监管机制。', '等方式方法，规范涉农惠农资金管理，确保涉农惠农资金阳光运行。二是加强重大项目预防监督。市检察院、发改委、扶贫移民办、财政局、住建局、农牧局联合下发了《关于对扶贫等重大工程建设项目实施同步预防监督的意见》（固检', '号），加大对扶贫重大项目的编制、规划、立项、招投标、资金管理、项目实施等进行同步预防监督，确保新建扶贫项目安全高效实施。', '把脱贫攻坚作为政治任务、头等大事和第一民生工程，全力推进。自治区党委、政府主要领导先后两次来固原就脱贫攻坚进行理专题调研并召开座谈会，听取意见。市四套班子主要领导和分管多次到县区、乡村调研指导工作，其他厅级干部到各自联系点指导工作，解决问题。自治区扶贫办每月召开一次全区扶贫办主任会议总结工作、查找问题、部署任务，推进工作。', '推进。自治区党委、政府主要领导先后两次来固原就脱贫攻坚进行理专题调研并召开座谈会，听取意见。', '自治区扶贫办每月召开一次全区扶贫办主任会议总结工作、查找问题、部署任务，推进工作。', '项专项规划推进计划，明确责任领导、责任单位、具体责任人和完成时限，将责任落实到县（区）、到单位、到人。重新调整了厅级领导包抓联系点，优化了部门（单位）帮扶村和干部联户结对帮扶，明确责任任务，做到部门帮扶贫困村、干部联户全覆盖，不脱贫不脱钩。强化县（区）主体责任，与乡镇签订责任状，一村一案，以村为单位，突出基础设施、主导产业等重点，分别制定了贫困村销号实施方案，将项目落实到村到户、责任落实到单位到人，竭尽全力推进脱贫攻坚。', '万元奖励资金。进一步强化对脱贫攻坚的督查，成立由市人大、政协主要领导及相关分管领导为组长的', '，推进效果非常明显。市委督查室、政府督查室和扶贫部门也结合全市重点工作推进情况进行专项督查，确保了各项工作的顺利推进。', '进一步创新精准扶贫模式和机制，扎实推进脱贫攻坚，涌现出了一些亮点和典型。在产业扶贫中西吉县通过订单式服务确保农户精准受益，隆德县', '三带”：龙头企业、产业大户、合作社等经营主体对兜底贫困户带动增收；“四联”：帮扶企业等经营主体与贫困户拥有的土地、劳动力、集体资产及国家扶持资金项目合理联接起来，形成联业、联股、联产、联营四种利益联接方式，实现贫困户增收', '利用养殖专业企业的场地、技术、管理等优势与国家扶持贫困户的扶贫资金相结合，共同撬动银行贷款，通过肉牛集中养殖的模式带动农户脱贫，形成政府、银行、企业、农户的多赢局面', '按乡镇建立12个一级网格，按照“地域相邻、产业相近、便于联系”原则，建立30个二级网格，分级指派网格长，一级网格长协助县委组织部、县扶贫办和乡镇党委做好全县第一书记管理、组织、联络工作，二级网格长协助乡镇党委和一级网格长做好本级网格内第一书记管理、考核工作', '），推动乡与乡、村与村相互监督，相互交流，发挥成效作用；在“两个带头人”中西吉县通过配强“发展型”班子、培育 “带富型”标兵、树立“看齐型”典型和搭建学习培训平台、技术转化平台、市场营销平台、产业带动平台、政策扶持平台、创业创新平台，选优育强“两个带头人”，带领农民脱贫致富。', '坚持专项扶贫、行业扶贫、社会扶贫一起抓，一起推进，构建多方力量有机结合的“三位一体”大扶贫格局。在加大专项扶贫的基础上，', '个专项规划的牵头单位，认真履行职责，结合各自行业实际，充分发挥行业优势，加大行业扶贫力度，助推精准扶贫。', '深化闽宁对口扶贫协作，重点在基础设施、生态移民、产业开发、教育卫生、人才交流等方面开展对口协作。加强与国家部委帮扶单位的对接，商定扶贫事宜，落实扶贫项目。', '全市开展整治干部作风优化发展环境活动，调动干部干事创业积极性，推进“两学一做”学习教育常态化制度化，有效解决脱贫攻坚工作中认识不足、措施不力，工作标准不高、要求不严，联系群众不密、作风漂浮等问题。市、县干部深入基层，走村窜户调查摸底，座谈交流，帮助贫困村和贫困村出谋划策，出点子、想办法，帮助发展脱贫致富产业。特别是第一书记和驻村工作队员把贫困村当作第二家乡，跑项目、争资金，积极为帮扶村办实事，解决一些生产生活中急需的问题。乡村两级和扶贫干部工作没有节假日，“白加黑”“五加二”，付出了极大的心血，得到了群众的认可，保证了各项工作的顺利开展。', '大力开展扶贫励志教育，广泛宣传扶贫脱贫典型经验，树立一批群众身边的脱贫先进典型，大力弘扬艰苦奋斗、自力更生的光荣传统，增强和坚定贫困人口发展生产、勤劳致富的脱贫信心；', '充分发挥贫困户的主观能动性和积极性，让贫困群众积极投入到脱贫攻坚之中，参与扶贫项目的管理、监督和实施，确保其知情权、监督权，真正成为脱贫的主体；从提高技能入手，实施劳动力素质提升工程，开展精准脱贫能力培训和就业创业扶贫，帮助创收脱贫；', '从加强民风建设入手，制定了《固原市进一步推进农村移风易俗加强民风建设的指导意见》，以', '遏制大操大办婚丧嫁娶、高额彩礼、低龄婚育等陋习，减轻群众负担，进一步推进移风易俗，实现贫困户思想转变，精神面貌焕然一新。', '有些市、县部门及乡（镇）党政一把手和贫困村干部对脱贫攻坚不够重视，对精准扶贫的认识不到位，部门与乡镇之间、部门与部门之间配合不力。特别是有些乡、村两级作为脱贫攻坚最基层的主体，责任履职不够，主动作为不够，只等上面给项目、给资金。', '一些干部特别是领导仍缺乏对中央和区、市脱贫攻坚政策的深入学习和研究，对政策掌握还不够精准透彻，在制定脱贫攻坚具体措施和细节上仍然缺乏精准把控，缺乏针对性、操作性、灵活性和可持续性。加之，有些对扶贫政策宣传不够精准、不够到位，农户对政策知晓率低，致使一些政策不能很好地落实到户，影响扶贫项目的实施和精准扶贫效果。', '有些乡村产业培育不够精准，没有做到因户施策，到村到户的项目措施不精准；有些没有落实到位，增收效果不明显。对贫困户发展什么产业、如何脱贫缺乏针对性，没有做到“量体裁衣”，', '还存在一刀切和一哄而上的现象。贫困户如何依靠产业扶贫增收致富，办法不多、路子不宽。', '等惠民政策不了解。有的政策执行不到位，存在扶贫小额信贷额度小、期限短、申贷周期较长等问题；“扶贫保”家庭意外伤害保险和大病补充医疗保险还没有完全覆盖，借款人意外伤害保险和优势特色产业保险的覆盖面小、推动不平衡。', '驻村帮扶责任落实不够到位，有些驻村第一书记和驻村工作队员未脱离原单位工作，存在单位和驻村“两头跑”和“走读”问题。有的帮扶措施不精准，多数还局限在走村串户、统计数据、填表照相，怎么帮扶还心中无数。有的仅限于送温暖式的帮扶，没有把主要精力用于谋划贫困村的产业发展和脱贫致富上，驻村作用发挥不够，政策宣传不到位。有的干部联户工作不扎实，驻村工作队和帮扶责任人在群众中的知晓度还不高，一人帮多户（', '搬迁对象遴选慢，有的县（区）没有把“精准确定搬迁对象”工作放到第一位，没有及时摸准弄清每一户移民到底愿意选址何种安置方式，造成搬迁对象标注工作滞后；协调落实不到位，有的县（区）从遴选移民对象、选址、建设用地调整、编制审批建设方案到开工建设，所有环节几乎全部由扶贫办单干，严重影响了工程进度；政策标准掌握不严，有的县（区）移民住房面积超过“人均住房面积', '平方米”政策红线，造成部分举债搬迁；脱贫措施跟进不及时，就近安置的移民产业配套措施还没有落实，后续脱贫措施不明确。', '认真贯彻落实自治区第十二次党代会精神，全力实施脱贫富民战略，按照打造全国脱贫攻坚示范区的要求，坚持把脱贫攻坚与巩固提高同步推进，精准扶贫与区域发展相结合，发展产业与保障兜底相结合，把贫困村作为区域攻坚重点，把贫困老年人、残疾人作为群体攻坚重点，把因病致贫返贫和住房作为工作攻坚重点，进一步强化', '加大涉农资金整合力度，大力实施基础设施到村、产业项目和小额信贷到户、培训转移到人、帮扶责任到单位的', '工程，切实改善贫困村的基础设施条件，培育发展脱贫致富产业，优化生态环境和人居环境，提升贫困人口综合素质和贫困村的公共服务能力，', '万建档立卡贫困人口精准搬迁。同步落实好搬迁群众的培训就业、产业扶持等脱贫措施，确保移民贫困群众如期脱贫。', '个共性问题，逐项对标销号，确保整改效果。并根据各县（区）实际，查找个性问题，列出清单进行整改，提高脱贫成效。二是认真组织实施好', '个脱贫村脱贫户巩固提高项目，对照存在的弱项和困难，整合专项资金和行业资金，补齐短板，全面巩固提高脱贫成效，确保稳定脱贫。', '进一步完善督查指导机制，坚持督查与巡查相结合，明查与暗访相结合，综合督查与专项督查相结合，月度督查与平时督查相结合，多维度督促检查各项脱贫指标完成情况。在市脱贫攻坚督导组调研督导的基础上，督查部门和扶贫部门给阶段性工作加强督查，特别是把暗访作为一种常态，督促整改落实自治区反馈的问题，随时发现脱贫攻坚中存在的突出问题和矛头性问题，及时进行整改落实，盯着不落实的事，处理不落实的人。', '通过督导督查层层压实扶贫责任，切实发挥好督查巡查的倒逼作用，传导压力、推动落实，确保各级各部门扶真贫、真扶贫、真脱贫。', '高度重视，及早着手对今年的脱贫攻坚认真自查自验，查漏补缺，做好国家和自治区今年扶贫开发考核。二是严格对照年初精准扶贫项目包责任清单、县（区）脱贫攻坚责任清单和部门（单位）精准扶贫攻坚责任清单“三大清单”，结合平时任务推进情况，加大年终脱贫攻坚考核。三是委托相关单位对今年', '个脱贫退出贫困村，开展科学、系统、全面的第三方评估，确保脱贫成效真正获得群众认可、经得起实践和历史检验。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>292</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>关于印发城市运行安全专项整治三年行动巩固提升工作方案的通知</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202206/t20220616_3573120.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['为认真贯彻落实党中央、国务院和区、市党委、政府关于加强安全生产决策部署，扎实推进巩固三年行动提升年各项工作落实，有效防范化解安全生产重大风险，全力打好城市运行安全专项整治三年行动收官战，保障人民群众生命财产安全，全力维护社会稳定，依据市安委会《全市安全生产专项整治三年行动巩固提升工作方案》（固安办〔2022〕26号）文件精神，结合我局实际，提出如下工作方案。', '为认真贯彻落实党中央、国务院和区、市党委、政府关于加强安全生产决策部署，扎实推进巩固三年行动提升年各项工作落实，有效防范化解安全生产重大风险，全力打好城市运行安全专项整治三年行动收官战，保障人民群众生命财产安全，全力维护社会稳定，依据市安委会《全市安全生产专项整治三年行动巩固提升工作方案》（固安办', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记关于安全生产重要论述和指示批示精神，全面落实党中央、国务院和区、市党委、政府决策部署，以“3.21”东航MU 5735航空器飞行事故为警示，统筹抓好经济发展、疫情防控和安全生产，持续完善和落实“从根本上消除事故隐患、从根本上解决问题”的责任链条、制度成果、管理办法、重点工程和工作机制，全面推进安全生产专项整治三年行动巩固提升，着力健全长效机制，努力形成一套较为成熟科学的安全生产制度体系，坚决防范遏制各类事故发生，为党的二十大和自治区第十三次党代会胜利召开营造安全稳定环境。', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记关于安全生产重要论述和指示批示精神，全面落实党中央、国务院和区、市党委、政府决策部署，以', '东航MU 5735航空器飞行事故为警示，统筹抓好经济发展、疫情防控和安全生产，持续完善和落实“从根本上消除事故隐患、从根本上解决问题”的责任链条、制度成果、管理办法、重点工程和工作机制，全面推进安全生产专项整治三年行动巩固提升，着力健全长效机制，努力形成一套较为成熟科学的安全生产制度体系，坚决防范遏制各类事故发生，为党的二十大和自治区第十三次党代会胜利召开营造安全稳定环境。', '紧紧围绕全市2022年度全市安全生产工作目标和工作要点，严格落实安全生产责任，按照“已有成效的要巩固提升、已经破题的要深入攻坚、没有破题的要重点突破”的总体原则和要求，全面梳理专项整治共性问题和突出矛盾，针对前期工作存在的问题和弱项立行立改，在确保城市运行安全生产专项整治三年行动各项任务落地落实的基础上，进一步健全完善有关制度和措施，为从根本上消除隐患、解决问题提供有力的制度保证，全力防范化解重大安全风险，坚决遏制各类事故灾害发生，切实维护人民群众生命财产安全，以优异成绩迎接党的二十大和自治区第十三次党代会胜利召开。', '年度全市安全生产工作目标和工作要点，严格落实安全生产责任，按照“已有成效的要巩固提升、已经破题的要深入攻坚、没有破题的要重点突破”的总体原则和要求，全面梳理专项整治共性问题和突出矛盾，针对前期工作存在的问题和弱项立行立改，在确保城市运行安全生产专项整治三年行动各项任务落地落实的基础上，进一步健全完善有关制度和措施，为从根本上消除隐患、解决问题提供有力的制度保证，全力防范化解重大安全风险，坚决遏制各类事故灾害发生，切实维护人民群众生命财产安全，以优异成绩迎接党的二十大和自治区第十三次党代会胜利召开。', '1．将习近平总书记关于安全生产重要论述纳入局党组理论学习中心组和各单位理论学习中心组学习内容，年度内组织学习不少于4次；结合城市运行安全各单位职责开展专项安全培训，年度内组织培训不少于1期；持续将观看学习《生命重于泰山一习近平总书记关于安全生产重要论述》电视专题片向行业管理企业单位延伸。', '将习近平总书记关于安全生产重要论述纳入局党组理论学习中心组和各单位理论学习中心组学习内容，年度内组织学习不少于4次；结合城市运行安全各单位职责开展专项安全培训，年度内组织培训不少于1期；持续将观看学习《生命重于泰山一习近平总书记关于安全生产重要论述》电视专题片向行业管理企业单位延伸。', '2．市城管局党组及各单位党支部会议必须及时跟进学习习近平总书记关于安全生产重要指示批示精神，引导党员干部清醒认识复杂严峻安全生产形势，始终保持高度警觉，坚决杜绝麻痹思想、侥幸心理，自觉扛起“促一方发展、保一方平安”的政治责任。', '市城管局党组及各单位党支部会议必须及时跟进学习习近平总书记关于安全生产重要指示批示精神，引导党员干部清醒认识复杂严峻安全生产形势，始终保持高度警觉，坚决杜绝麻痹思想、侥幸心理，自觉扛起“促一方发展、保一方平安”的政治责任。', '3．利用第21个全国“安全生产月”“5.12”防灾减灾日、防灾减灾宣传周等活动载体，深入推进安全生产宣传“五进”活动，通过线上线下宣传相结合，加大安全生产公益宣传力度，举办一次部门、企业相关人员的安全生产培训活动，普及安全生产法律法规以及安全防范知识、技能，进一步夯实人人要安全、个个会防范的安全生产基层基础。', '利用第21个全国“安全生产月”“5.12”防灾减灾日、防灾减灾宣传周等活动载体，深入推进安全生产宣传“五进”活动，通过线上线下宣传相结合，加大安全生产公益宣传力度，举办一次部门、企业相关人员的安全生产培训活动，普及安全生产法律法规以及安全防范知识、技能，进一步夯实人人要安全、个个会防范的安全生产基层基础。', '4．加大安全生产等约束性指标在效能目标管理考核体系中的权重，将党员领导干部安全生产工作履职情况，作为局党组领导班子、局属各单位领导班子干部考核、提拔任用人选考察的重要内容。', '加大安全生产等约束性指标在效能目标管理考核体系中的权重，将党员领导干部安全生产工作履职情况，作为局党组领导班子、局属各单位领导班子干部考核、提拔任用人选考察的重要内容。', '5．把安全生产纳入局党组议事日程和向党组会议报告工作的内容，局党组每年召开4次会议专题研究安全生产工作，分析安全生产形势，随时协调解决重大问题。', '把安全生产纳入局党组议事日程和向党组会议报告工作的内容，局党组每年召开4次会议专题研究安全生产工作，分析安全生产形势，随时协调解决重大问题。', '6．研究制定《城管局安全生产领导小组会安全生产职责》《市城管局局领导班子成员安全生产责任清单》并严格落实，局领导班子成员按照职责分工支持保障安全生产工作，切实履行“一岗双责”职责，抓好分管行业领域、单位的安全生产工作落实。', '研究制定《城管局安全生产领导小组会安全生产职责》《市城管局局领导班子成员安全生产责任清单》并严格落实，局领导班子成员按照职责分工支持保障安全生产工作，切实履行“一岗双责”职责，抓好分管行业领域、单位的安全生产工作落实。', '7．将安全生产责任落实情况纳入局重点工作、年度工作报告、领导班子成员述职述责重要内容，及时组织制定安全生产规划。', '将安全生产责任落实情况纳入局重点工作、年度工作报告、领导班子成员述职述责重要内容，及时组织制定安全生产规划。', '8．局务会议每季度研究安全生产工作不少于1次，局主要负责人以及领导班子其他成员每季度带队检查安全生产工作不少于1次，领导班子其他成员每季度召开专题会议研究分管行业（领域）安全生产工作不少于1次。', '局务会议每季度研究安全生产工作不少于1次，局主要负责人以及领导班子其他成员每季度带队检查安全生产工作不少于1次，领导班子其他成员每季度召开专题会议研究分管行业（领域）安全生产工作不少于1次。', '9．负有安全监管职责单位严格落实“三管三必须”要求，依法依规编制安全生产权力和责任清单，主动在政府网站、城管局微信号等媒介公开并接受社会监督。', '负有安全监管职责单位严格落实“三管三必须”要求，依法依规编制安全生产权力和责任清单，主动在政府网站、城管局微信号等媒介公开并接受社会监督。', '10．全市管辖区域的企业法定代表人、实际控制人、实际负责人，严格履行安全生产第一责任人责任，加强安全生产管理，建立健全全员安全生产责任制、安全风险分级管控和隐患排查治理双重预防机制，严格落实安全投入、安全培训、安全检查和重大危险源安全包保责任、领导现场带班等制度规定，及时消除生产安全事故隐患。对弄虚作假、逃避安全责任的，依法追究企业实际控制人的责任，发生重特大事故的，同时追究集团公司主要负责人、分管负责人的责任。对发生重特大事故负有主要责任的，依法追究刑事责任，明确终身不得担任本行业单位主要负责人。', '全市管辖区域的企业法定代表人、实际控制人、实际负责人，严格履行安全生产第一责任人责任，加强安全生产管理，建立健全全员安全生产责任制、安全风险分级管控和隐患排查治理双重预防机制，严格落实安全投入、安全培训、安全检查和重大危险源安全包保责任、领导现场带班等制度规定，及时消除生产安全事故隐患。对弄虚作假、逃避安全责任的，依法追究企业实际控制人的责任，发生重特大事故的，同时追究集团公司主要负责人、分管负责人的责任。对发生重特大事故负有主要责任的，依法追究刑事责任，明确终身不得担任本行业单位主要负责人。', '11．在生产经营单位注册时向生产经营单位法人和实际控制人印发落实主体责任“告知书”，并签订安全生产“承诺书”；排查发现问题隐患或同类行业发生生产安全事故后向属地主管部门和企业印发“警示书”；对生产经营单位法人注册和变更实行“实名制”管理。', '在生产经营单位注册时向生产经营单位法人和实际控制人印发落实主体责任“告知书”，并签订安全生产“承诺书”；排查发现问题隐患或同类行业发生生产安全事故后向属地主管部门和企业印发“警示书”；对生产经营单位法人注册和变更实行“实名制”管理。', '12．对照“问题清单、任务清单、责任清单”和整改责任单位、整改负责人、整改完成时限、整改成果绩效、整改评估主体“五定措施”，动态更新突出问题、重大隐患和制度措施“两个清单”，逐项梳理巩固责任链条、制度成果、管理办法、重点工程和工作机制“五类”整治行动成果，健全“五本台账”，健全完善安全生产责任体系。', '对照“问题清单、任务清单、责任清单”和整改责任单位、整改负责人、整改完成时限、整改成果绩效、整改评估主体“五定措施”，动态更新突出问题、重大隐患和制度措施“两个清单”，逐项梳理巩固责任链条、制度成果、管理办法、重点工程和工作机制“五类”整治行动成果，健全“五本台账”，健全完善安全生产责任体系。', '13．推进危险化学品安全整治及城镇燃气安全整治。深入开展以危险化学品从业单位安全生产主体责任、监管责任、属地责任落实和隐患排查，认真汲取湖北十堰“６•1３”燃气爆炸事故及近期全国燃气事故教训，严厉打击瓶装液化气市场违规违法存储、销售、经营行为以及超期未检钢瓶、违规检验钢瓶等行为，做细瓶装液化气瓶全过程监管工作。推动瓶装液化气气瓶、车辆、人员全过程可溯源监管信息系统工作，加强燃气燃烧器具、液化石油气气瓶及调压阀、连接管等配件产品质量管理。从严从细查治各类餐饮场所燃气使用安全风险隐患，整治重点组织推进。', '推进危险化学品安全整治及城镇燃气安全整治。深入开展以危险化学品从业单位安全生产主体责任、监管责任、属地责任落实和隐患排查，认真汲取湖北十堰“６', '燃气爆炸事故及近期全国燃气事故教训，严厉打击瓶装液化气市场违规违法存储、销售、经营行为以及超期未检钢瓶、违规检验钢瓶等行为，做细瓶装液化气瓶全过程监管工作。推动瓶装液化气气瓶、车辆、人员全过程可溯源监管信息系统工作，加强燃气燃烧器具、液化石油气气瓶及调压阀、连接管等配件产品质量管理。从严从细查治各类餐饮场所燃气使用安全风险隐患，整治重点组织推进。', '14．推进自建房安全专项整治。按照固原市自建房安全专项整治工作方案，紧盯老旧小区等重要点位，围绕房屋主体功能和消防安全、燃气管道安全等方面，认真全面开展排查，确保不遗漏任何角落、任何细节、任何隐患。对暂时没有条件采取除险措施的，立即停止使用、停止经营，切实做到“危房不住人，人不住危房”。对拒不配合整改、未按期整改的要依法坚决从严处理，形成有力震慑。', '推进自建房安全专项整治。按照固原市自建房安全专项整治工作方案，紧盯老旧小区等重要点位，围绕房屋主体功能和消防安全、燃气管道安全等方面，认真全面开展排查，确保不遗漏任何角落、任何细节、任何隐患。对暂时没有条件采取除险措施的，立即停止使用、停止经营，切实做到“危房不住人，人不住危房”。对拒不配合整改、未按期整改的要依法坚决从严处理，形成有力震慑。', '15．推进城市运行三年专项整治。对照实施方案确定的重点任务，动态更新突出问题、重大隐患和制度措施“两个清单”，统筹国务院安委会考核巡查反馈问题、自治区安委办第四巡查督查组反馈问题以及市安委会历次督查检查发现的问题，全面开展整改、形成制度化可推广的成果，推动各生产经营单位本质安全水平真正得到提升。', '推进城市运行三年专项整治。对照实施方案确定的重点任务，动态更新突出问题、重大隐患和制度措施“两个清单”，统筹国务院安委会考核巡查反馈问题、自治区安委办第四巡查督查组反馈问题以及市安委会历次督查检查发现的问题，全面开展整改、形成制度化可推广的成果，推动各生产经营单位本质安全水平真正得到提升。', '（一）强化组织领导。各单位要把城市运行安全生产专项整治三年行动作为一项重要工作抓紧抓实，制定各单位的巩固提升工作方案，局办公室要积极发挥牵头抓总、统筹协调作用，健全协同配合机制，认真梳理城市运行安全生产专项整治三年行动方案明确的各项工作任务，细化工作分工，落实责任主体，拉单列表，逐项推进城市运行安全生产专项整治三年行动各项工作任务落实，确保全市安全生产专项整治三年行动圆满收官。', '（二）加强督查检查。局党组将加强对安全整治工作的督促指导，对问题突出的行业领域或生产经营单位，要综合运用督办、考核通报、约谈警示、媒体曝光等方式系统治理。要持续加强重点地区、重点行业、重点企业、重要时段的执法检查力度，认真制定年度执法检查计划，坚持严执法、重处罚，严打非法违法行为。', '（三）做好评估验收。局办公室开展综合督查检查，采取听取汇报、查阅资料、现场检查等形式开展评估验收准备工作，按照评估验收职责和程序，接受评估验收，推动工作取得实效。', '（四）强化巩固提升。要坚持问题导向、目标导向、结果导向，结合实际制定各自工作方案，明确巩固提升的任务书、时间表、路线图，及时总结推广交流经验做法。安全生产专项整治三年行动工作情况纳入局系统年度考核范围，对工作不负责、不作为，分工责任不落实、措施不得力，重大问题隐患悬而不决，逾期没有完成目标任务的要通报批评。各单位要将安全生产专项整治三年行动总结于2022年10月10日前报送局办公室。', '（四）强化巩固提升。要坚持问题导向、目标导向、结果导向，结合实际制定各自工作方案，明确巩固提升的任务书、时间表、路线图，及时总结推广交流经验做法。安全生产专项整治三年行动工作情况纳入局系统年度考核范围，对工作不负责、不作为，分工责任不落实、措施不得力，重大问题隐患悬而不决，逾期没有完成目标任务的要通报批评。各单位要将安全生产专项整治三年行动总结于']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>292</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2016-04-11</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201604/t20160411_377501.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['传达全区市县乡领导班子换届工作会议精神研究《关于在全体党员中开展“学党章党规、学系列讲话，做合格党员”学习教育实施方案》《关于召开基层党风廉政建设推进会实施方案及有关文件的请示》等。', '本报讯（记者马瑞）4月8日，自治区党委常委、市委书记纪峥主持召开市委常委会会议，传达全区市县乡领导班子换届工作会议精神，研究贯彻意见；研究市委组织部《关于在全体党员中开展“学党章党规、学系列讲话，做合格党员”学习教育实施方案》《关于成立固原市“两学一做”学习教育协调小组及巡回督导组的建议方案》；研究市纪委《关于召开基层党风廉政建设推进会实施方案及有关文件的请示》《固原市关于落实从严治党要求切实把纪律挺在前面的实施意见》《固原市各级领导干部在脱贫攻坚中“不作为、慢作为、乱作为”问题监督检查暂行办法》等。', '会议强调，今年是市县乡三级党委、人大、政府和市县政协领导班子集中换届年，任务重，政治性强，又是全面建成小康社会决胜阶段的开局之年，做好换届工作意义重大，是今年党建工作和组织工作的重中之重。各级组织要认真学习领会、坚决贯彻落实好中央和自治区党委下发的一系列文件中对换届工作的指导思想、政策措施、纪律要求，确保换届工作高标准高质量完成。要把握好换届时间、严格执行政策规定，严把干部提名、推荐、考察、酝酿、选举等关键环节，选好干部配强班子。严明换届纪律，营造风清气正的换届工作环境。各级党委要把加强党的领导贯穿于换届工作的全过程，发挥好党委总揽全局、协调各方的作用，统筹谋划、精心组织、有序推进，确保换届工作顺利进行。要统筹好换届与改革发展稳定各项工作，注重工作的整体衔接，保障换届期间思想不松、秩序不乱、队伍不散、工作不断，确保换届平稳开展、工作有序推进，真正做到“两手抓、两不误、两促进”。', '会议强调，全党深入开展“学党章党规、学系列讲话，做合格党员”学习教育，是深化党内教育的又一次重要实践，是推动党内教育从“关键少数”向广大党员拓展、从集中性教育向经常性教育延伸的重要举措。各县区、各部门要认真学习习近平总书记重要讲话精神，切实把思想和行动统一到中央的决策部署上来。把党章党规与习近平总书记系列重要讲话贯通起来学习、统一起来领会，注意区分层次、区分对象，增强针对性和实效性。开展“两学一做”学习教育，要把全面从严治党落实到每个支部、每名党员。“两学一做”学习教育，基础在学，关键在做，党员领导干部要学得更多更深一些，深刻领会系列讲话的丰富内涵和核心要义，深刻领会党中央治国理政新理念新思想新战略。要坚持以学促做，引导广大党员增强政治意识、大局意识、核心意识、看齐意识，按照党员标准严格要求自己，做合格共产党员。要强化问题导向，带着具体问题学，针对具体问题改，把解决问题贯穿学习教育全过程。各级党委（党组）要加强对学习教育的组织领导，推动领导机关、领导班子、领导干部走在前列、当好表率。要紧密结合脱贫攻坚战，突出新发展理念、“三苦”精神，在全市开展“短板在哪里、怎么补短板”的研讨，提振干部群众的精气神。', '会议指出，今年党风廉政建设要突出抓好基层干部作风建设，着力解决发生在群众身边的不正之风和腐败问题。强化制度建设，在加强教育、健全法制、强化监督等各方面建立起长效制度机制，广泛开展宣传活动，增强基层党员干部廉洁自律意识。紧盯薄弱点和风险点，市级部门要抓好涉农惠农资金的监管，有效预防职务犯罪，夯实基层反腐“最后一公里”。切实把纪律挺在前面，严管“绝大多数”，通过健康的相互批评，红红脸、出出汗，达到相互提醒、相互监督的目的，严肃查处一批损害群众利益的违纪违法案件，使守纪律、讲规矩成为新常态。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>292</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>固原市市场监督管理局关于印发全市市场监管部门第八个五年年法治宣传教育实施方案的通知</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202112/t20211221_3240374.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['固原市市场监督管理局关于印发《全市市场监管部门第八个五年（2021-2025年）法治宣传教育实施方案》的通知_固原市人民政府', '固原市市场监督管理局关于印发《全市市场监管部门第八个五年（2021-2025年）法治宣传教育实施方案》的通知', '现将《全市市场监管部门第八个五年（2021－2025年）法治宣传教育实施方案》印发给你们，请结合工作实际，认真贯彻落实。', '为深入学习宣传贯彻落实习近平法治思想，弘扬法治精神，扎实推进市场监管部门第八个五年法治宣传教育，增强广大市场监管执法人员法治意识，提升各类市场主体诚信守法意识，提高广大消费者依法维权意识，根据中共固原市委、市人民政府《印发＜关于在全市开展第八个五年法治宣传教育实施意见＞的通知》（固党发［2021］25号）、自治区市场监督管理厅《关于印发＜全区市场监管部门第八个五年（2021－2025年）法治宣传教育实施意见＞的通知》（宁市监〔2021〕94号）精神，结合全市市场监管实际，制定本实施方案。 一、总体要求 （一）指导思想 坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，全面贯彻落实习近平法治思想和习近平总书记视察宁夏重要讲话精神以及自治区全面依法治区委员会、固原市委全面依法治市委员会决策部署，充分发挥法治宣传教育在市场监管法治建设中的基础性作用，以提高市场监管法治化水平为目标，以提升市场监管执法人员、市场主体和消费者法治素养为主线，以增强市场监管普法工作针对性、实效性为抓手，突出普法重点内容、重点对象和重点任务，全面落实“谁执法谁普法”责任制，为建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏的固原画卷营造良好的法治化环境。 （二）基本原则 ——坚持党的全面领导。把党的领导贯穿到普法全过程各方面，充分发挥党总揽全局、协调各方的领导核心作用，在各级党组织的统一领导下推进普法，始终保持普法的正确方向。 ——坚持以人民为中心。树立以人民为中心的普法理念和工作导向，以满足各类市场主体不断增长的法治需求为出发点和落脚点，以群众喜闻乐见的形式和易于接受的方式开展法治宣传教育。 ——坚持服务大局。紧紧围绕“十四五”时期全市经济社会发展目标任务，聚焦服务黄河流域生态保护和高质量发展先行区建设，突出市场监管工作重点，有针对性地组织开展普法。 ——坚持与法治实践融合。以习近平法治思想为指引，将普法融入市场监管执法、执法监督、复议、投诉处理等法治实践全过程，全方位开展普法工作。 ——坚持创新发展。践行““谁执法谁普法”、谁管理谁普法、谁服务谁普法”理念，适应新形势发展变化，创新工作机制，创新工作载体和方式，探索新举措新办法，不断提高普法的实效性。 （三）主要目标', '到2025年，围绕树立“大市场、大质量、大监管”理念，实现市场监管普法宣传教育机制进一步健全，法治宣传教育针对性和实效性进一步增强，市场监管工作法治化水平进一步提升，市场监管干部依法行政意识和能力显著增强，各类市场主体和广大消费者法治素养进一步提高，对市场监管法律知识的知晓度、遇事找法的自觉性和法治实践的参与度不断提升。', '1、深入学习宣传习近平法治思想的重大意义、丰富内涵、精神实质和实践要求。建立和完善长效学习机制，将习近平法治思想作为局党组理论学习中心组和各级党组织以及各类业务培训班学习培训的重点内容。充分利用“周二集中学习日”、“学习强国”、干部网络教育平台、执法资格证培训及学习交流、研讨班等形式，不断加大学习宣传力度，推动领导干部带头学习，模范践行，教育引导党员干部切实做到学思用贯通、知信行统一。（牵头单位：组织人事科、政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '（二）突出宣传《中华人民共和国宪法》 2、深入持久开展宪法宣传教育活动。学习宣传依宪治国、依宪执政理念、国家的根本制度和根本任务、公民的基本权利和义务等宪法基本内容。加强国旗法、国歌法等宪法相关法的学习宣传，增强市场监管干部宪法意识。结合“12·4”国家宪法日，开展“宪法宣传周”集中宣传活动。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室） （牵头单位：政策法规科；责任单位：各县（分）局，直属事业单位，机关各科室） （三）突出宣传《中华人民共和国民法典》 3、深入学习宣传习近平总书记关于《中华人民共和国民法典》的重要指示精神，阐释好民法典的基本原则、基本要求和一系列新规定新概念新精神。广泛开展《中华人民共和国民法典》中与市场监管工作密切联系的市场准入、知识产权保护、合同管理、反不正当竞争等方面的法律宣传和培训，推动领导干部做学习、遵守、维护民法典的表率，提高市场监管干部运用民法典维护人民权益、化解矛盾纠纷、促进社会和谐稳定的能力和水平。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室） （四）深入宣传与推动高质量发展密切相关的法律法规 4、深入学习宣传市场监管改革创新相关法律法规。大力宣传有关平等保护、公平竞争、激发市场主体活力、防范风险的法律法规。深入学习宣传反垄断法、反不正当竞争法等促进充分竞争相关法律法规，不断完善竞争治理，构建高标准市场体系，为经济发展营造公平竞争的市场环境。大力宣传知识产权保护、科技成果转化等方面法律法规，促进实施创新驱动发展战略。深入学习宣传质量、计量、标准化、认证认可相关法律法规，加强质量基础设施建设，深入开展质量提升行动，持续优化高质量发展环境。（责任单位：各县＜分＞局，直属事业单位，机关各科室） （五）深入宣传与构建市场监管体系密切相关的法律法规 5、深入学习宣传网络平台监管、广告监管、价格监管以及规范直销与打击传销等法律法规。加强企业信用监管和智慧监管，为市场主体提供更加公正、透明、规范、便捷、可预期的制度环境。统筹发展和安全需要，深入学习宣传食品药品、特种设备、工业产品安全监管相关法律法规，持续推进安全监管改革创新，防范化解安全风险，坚守安全底线，营造安全放心消费环境。深入学习宣传行政许可、行政处罚、行政强制、行政复议、行政诉讼等相关法律法规，规范市场监管行政执法行为，推动严格规范公正文明执法。（责任单位：各县＜分＞局，直属事业单位，机关各科室） （六）深入宣传党内法规 6、以学习宣传党章为重点，教育广大党员以党章为根本遵循，尊崇党章、遵守党章、贯彻党章、维护党章。大力宣传《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党组织工作条例》等各项党内法规。把学习掌握党内法规作为合格党员的基本要求，列入党支部“三会一课”内容，促进党内法规学习宣传常态化、制度化。（牵头单位：组织人事科；责任单位：各县＜分＞局，直属事业单位，机关各科室） 三、主要任务 （一）全面开展市场监管法治宣传教育', '7、加强市场监管系统工作人员法治教育。落实领导干部学法用法制度，将宪法学习宣传教育放在普法工作首位，引导各级市场监管执法人员牢固树立宪法法律至上、法律面前人人平等、权由法定、权依法使等基本法治观念。把法治素养和依法履职情况纳入考核评价干部内容，让尊法学法守法用法成为领导干部自觉行为和必备素质。重点抓好“关键少数”，提高各级领导干部运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险能力。着力提高基层干部依法办事意识和依法治理能力，加强各县（分）局及市场监管所等基层组织负责人学法用法工作。（牵头单位：组织人事科、政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '8、对各类市场主体和消费者开展法治教育。加强对各类市场主体和从业人员的法治教育，依托行业协会、社团组织，开展法治教育培训，强化企业守法诚信经营意识，促进依法诚信经营管理。根据消费者特点，开展有针对性的法治宣传教育活动，提高广大消费者依法维护权益的意识和能力。（责任单位：各县＜分＞局，直属事业单位，机关各科室） （二）着力提高普法针对性实效性 9、加强对新修订法律的学习宣传。组织开展新颁布法律法规的宣传培训工作，通过举办知识竞赛、专题培训班、业务研讨会等形式对新颁布法律法规进行专题宣传培训，保障顺利实施。（责任单位：各县＜分＞局，直属事业单位，机关各科室）', '10、把普法融入执法过程。在执法办案中开展普法宣传，加强行政许可、行政处罚、行政强制、行政复议、行政诉讼等相关法律的普法宣传，把向行政相对人和社会公众的普法融入执法办案过程中，实现执法办案的全员普法、全程普法。在全面落实行政执法公示、执法全过程记录、重大执法决定法制审核三项制度中加强普法宣传，增进社会公众对市场监管执法的认同感。（责任单位：各县＜分＞局，直属事业单位，机关各科室）', '11、加大以案普法力度。落实以案释法制度和典型案例发布制度，健全以案普法长效机制。开展以案说法，通过食品药品安全、假冒伪劣产品、反不正当竞争、侵害消费者合法权益等典型案例发布、行政处罚决定公开、微普法等形式，推动个案处理变成普法公开课，使行政执法和法律服务的过程成为普法的过程。（责任单位：各县＜分＞局，直属事业单位，机关各科室）', '（三）推进普法与依法治理有机融合 12、深化依法治企。以食品药品安全、工业产品质量安全、特种设备安全相关企业为重点，深化“法律进企业”。引导和支持食品、特种设备等相关行业协会依法制定规约、章程，发挥行业自律和专业服务功能，实现行业自我约束、自我管理。督促经营管理人员落实学法用法制度，提高经营管理人员依法经营、依法管理能力。建立健全企业员工法治教育制度，推动企业合法合规经营，防范法律风险，提升企业管理法治化水平。（责任单位：各县＜分＞局，直属事业单位，机关各科室）', '13、深化“法律进网络”。推进网络交易平台依法治理，加强对网络交易经营者和从业人员法治教育，推动网络交易经营主体自觉履行市场主体责任，做到依法依规经营。完善网络交易管理制度规范，培育符合互联网发展规律、体现公序良俗的网络交易规则。加强互联网消费安全教育，提高消费者互联网消费法治意识。（牵头单位：市场与网络监管科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '四、工作措施 （一）健全普法工作体制机制 14、加强组织领导。各县（分）局、直属事业单位要加强对“八五”普法工作的组织领导，主要负责人要履行法治建设第一责任人的职责，认真履行普法领导责任。要加强统筹协调，发挥工作合力，推动形成法制工作机构牵头协调、各业务部门分工负责、各司其职、齐抓共管的普法工作格局。要充分发挥法律顾问、执法业务骨干在法治宣传教育工作中的作用。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室） 15、制定普法方案。各县（分）局、直属事业单位要结合各自实际制定“八五”普法工作方案并报市局备案，要明确重点宣传的法律法规规章和责任部门，细化任务分工。要将法治宣传教育工作作为法治建设年度计划的重点内容，明确年度普法工作重点任务，做到普法计划、内容、人员、时间、效果五落实。（责任单位：各县＜分＞局，直属事业单位，机关各科室） 16、加强经费保障。根据年度工作需要，安排工作经费，并建立动态调整机制，保障法治宣传教育工作的正常开展。（责任单位：各县＜分＞局、直属事业单位） （二）落实普法责任制 17、落实“谁执法谁普法”的普法责任制。各县（分）局、直属事业单位、机关各科室要明确普法责任分工，在日常监管执法工作中，推行说理式执法，实现普法与执法有机融合。完善市场监管普法责任清单制度，细化普法内容、措施标准和责任，逐步形成清单管理、跟踪提示、督促指导、评估反馈的管理模式。（责任单位：各县＜分＞局，直属事业单位，机关各科室） 18、推行“谁管理谁普法”“谁服务谁普法”。鼓励和推动市场监管部门直属单位以及其他组织加强本行业本单位人员学法用法，加大对管理和服务对象普法力度，落实普法责任。鼓励、支持协会、技术机构结合实际为企业、从业人员和消费者提供形式多样的法律宣传教育服务。（责任单位：各县＜分＞局，直属事业单位，机关各科室） 19、落实党组织普法责任。各级党组织要坚持全面从严治党、依规治党，切实履行学习宣传党内法规的职责，把党内法规作为学习型党组织建设的重要内容，充分发挥正面典型倡导和反面案例警示作用，为党内法规的贯彻实施营造良好氛围。（牵头单位：组织人事科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '20、健全党组理论学习中心组学法制度。坚持领导干部带头学法尊法守法，把宪法法律和党内法规列入局党组理论学习中心组年度学习计划，领导干部要做学法表率。各基层党组织要建立学法制度，利用“三会一课”“主题党日”定期开展学法活动。（牵头单位：办公室、组织人事科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '25、培育市场监管法治文化。开展好法治宣传教育培训和实践活动，通过知识竞赛、交流研讨等方式，组织开展丰富多彩的法治文化活动，引导市场监管执法人员不断提升公正文明执法理念，倡导各类市场主体不断提升诚信守法意识。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '五、工作步骤 市场监管部门第八个五年法治宣传教育分三个阶段实施。 （一）宣传发动阶段（2021年下半年）。市场监管局制定第八个五年（2021－2025年）法治宣传教育实施方案。分局、直属事业单位研究制定本单位“八五”普法实施方案，做好宣传发动和启动实施工作。（牵头单位：政策法规科；责任单位：各县＜分＞局、直属事业单位） （二）组织实施阶段（2022年至2025年上半年）。各级市场监管部门和直属事业单位依据本意见或本单位实施方案所确定目标、任务和要求，结合自身实际，制定年度工作计划并组织实施。市局将每年对各县（分）局的普法情况进行督导检查，对成绩突出、成效显著的单位予以表扬，对普法工作重视不够、落实不力的单位通报批评。同时，配合各级市普法办开展普法工作自查、检查、抽查，2023年开展中期评估和督导工作，重在发现问题，推动解决问题。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '（三）总结验收阶段（2025年下半年）。市场监管局在做好局机关“八五”普法工作总结的同时，组织对各县（分）局、直属事业单位“八五”普法工作进行验收，组织参加市场监管厅和固原市普法办“八五”普法先进集体及个人的评比、表彰等工作。（牵头单位：政策法规科；责任单位：各县＜分＞局，直属事业单位，机关各科室）', '通过各种形式、运用各类媒体和平台宣传习近平法治思想，推动习近平法治思想入脑入心、走深走实。', '开展宪法宣传教育活动，结合党史学习教育“三知三强”实践“感恩、认同、法治”三项教育，阐释好“中国之治”的制度基础，阐释好新时代依宪治国、依宪执政的内涵和意义。', '深入学习宣传习近平总书记关于《中华人民共和国民法典》的重要指示精神，推动领导干部做学习、遵守、维护民法典的表率，各级党组每年分别开展领导干部专题学习。', '提高市场监管干部运用民法典维护人民权益、化解矛盾纠纷、促进社会和谐稳定的能力和水平。各单位每年组织举办干部职工法治专题讲座。', '广泛开展《中华人民共和国民法典》中与市场监管工作密切联系的市场准入、知识产权保护、合同管理、反不正当竞争等方面的法律宣传和培训。', '统筹发展和安全需要，深入学习宣传食品药品、特种设备、工业产品安全监管相关法律法规。', '深入学习宣传行政许可、行政处罚、行政强制、行政复议、行政诉讼等相关法律法规，规范市场监管行政执法行为，推动严格规范公正文明执法。', '以学习宣传党章为重点，教育广大党员以党章为根本遵循，尊崇党章、遵守党章、贯彻党章、维护党章。', '大力宣传《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党组织工作条例》等各项党内法规。', '把学习掌握党内法规作为合格党员的基本要求，列入党支部“三会一课”内容，促进党内法规学习宣传常态化、制度化。', '落实领导干部学法用法制度，重点抓好“关键少数”，提高各级领导干部运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险能力。', '把法治素养和依法履职情况纳入考核评价干部内容，让尊法学法守法用法成为领导干部自觉行为和必备素质。', '将宪法学习宣传教育放在普法工作首位，引导各级市场监管执法人员牢固树立宪法法律至上、法律面前人人平等、权由法定、权依法使等基本法治观念。', '着力提高基层干部依法办事意识和依法治理能力，加强各县市场监管局（分局）及市场监管所等基层组织负责人学法用法工作。', '加强对各类市场主体和从业人员的法治教育，强化企业守法诚信经营意识，加强对消费者法治宣传教育活动，提高广大消费者依法维护权益的意识和能力。', '组织开展新颁布法律法规的宣传培训工作，通过举办知识竞赛、专题培训班、业务研讨会等形式对新颁布法律法规进行专题宣传培训，保障顺利实施。', '在执法办案中开展普法宣传，加强行政处罚、行政强制、行政复议、行政诉讼等相关法律的普法宣传，把向行政相对人和社会公众的普法融入执法办案过程中，实现执法办案的全员普法、全程普法。在全面落实行政执法公示、执法全过程记录、重大执法决定法制审核三项制度中加强普法宣传，增进社会公众对市场监管执法的认同感。', '落实以案释法制度和典型案例发布制度，健全以案普法长效机制。开展以案说法，通过食品药品安全、假冒伪劣产品、反不正当竞争、侵害消费者合法权益等典型案例发布、行政处罚决定公开、微普法等形式，推动个案处理变成普法公开课，使行政执法和法律服务的过程成为普法的过程。', '深化“法律进网络”。推进网络交易平台依法治理，加强对网络交易经营者和从业人员法治教育，推动网络交易经营主体自觉履行市场主体责任，做到依法依规经营。完善网络交易管理制度规范，培育符合互联网发展规律、体现公序良俗的网络交易规则。加强互联网消费安全教育，提高消费者互联网消费法治意识。', '加强组织领导。各县（分）局、直属事业单位主要负责人要履行法治建设第一责任人的职责，认真履行普法领导责任。要充分发挥法律顾问、执法业务骨干在法治宣传教育工作中的作用，大力提升干部队伍的法律素质和业务能力。', '制定普法方案。各县（分）局、直属事业单位要结合各自实际制定“八五”普法工作方案并报市局备案，每年制定年度普法计划。', '落实“谁执法谁普法”的普法责任制。各县（分）局、直属事业单位、机关各科室要明确普法责任分工，完善市场监管普法责任“四个清单”细化普法内容、措施、标准和责任，并以适当形式向社会公布。', '推行“谁管理谁普法”“谁服务谁普法”。加大对管理和服务对象普法力度，落实普法责任。', '落实党组织普法责任。各级党组织要坚持全面从严治党、依规治党，切实履行学习宣传党内法规的职责，把党内法规作为学习型党组织建设的重要内容。', '健全完善新进人员法律学习考核、执法人员资格培训考试等制度，着力推动以考促用。通过各类业务培训班、“干部网络培训学院”、“执法监督平台”等加强对市场监管干部法治教育培训。', '完善考核评估机制。要把学法用法情况列入公务员年度考核内容。领导班子和领导干部在年度考核述职中要围绕法治学习情况、重大事项依法决策情况、依法履职情况等进行述法。', '打造市场监管普法品牌。利用“3·15”国际消费者权益保护日、“4·26”世界知识产权日、“5·20”世界计量日、“6·9”世界认可日、食品安全宣传周、质量月、“10·14”世界标准日、“12·4”国家宪法日等活动载体，增加法治宣传内容，形成市场监管特色法治宣传品牌。深化法治宣传教育进机关、进乡村、进社区、进学校、进企业、进单位等“六进”活动，通过现场执法说理、案后回访教育、个案行政指导等多种方式，将法治宣传教育融入日常监管工作过程。', '培育市场监管法治文化。开展好法治宣传教育培训和实践活动，通过知识竞赛、交流研讨等方式，组织开展丰富多彩的法治文化活动，引导市场监管执法人员不断提升公正文明执法理念，倡导各类市场主体不断提升诚信守法意识。', '各级市场监管部门和直属事业单位依据本意见或本单位实施方案所确定目标、任务和要求，结合自身实际，制定年度工作计划并组织实施；组织开展普法工作自查、检查、抽查，2023年开展中期评估和督导工作。', '市局组织对各县（分）局、直属事业单位“八五”普法工作进行督查，组织开展“八五”普法先进集体及个人的评比、表彰等工作。', '图解：固原市市场监管局关于印发《全市市场监管部门第八个五年（2021-2025年）法治宣传教育实施方案》的通知']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>292</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>政务要闻</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2019-03-29</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/gyzzfgb/2018zfgb_37206/d4q_56443/zwyw_56446/202111/t20211126_3166678.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['市委常委会召开会议，传达学习习近平总书记在中央政治局第十二次集体学习时的重要讲话精神和全国、全区宣传部长会议精神，研究贯彻意见，通报自治区党政代表团赴浙江、上海、江苏考察学习情况。自治区党委常委、市委书记张柱主持会议并讲话。', '受自治区副主席、市长、市政府党组书记马汉成委托，市政府党组副书记、副市长李志达主持召开市政府2019年第五次党组会议，传达学习习近平总书记在省部级主要领导干部坚持底线思维着力防范化解重大风险专题研讨班开班式上的重要讲话精神和全区领导干部坚持底线思维着力防范化解重大风险专题学习班精神，习近平总书记在中央党校中青年干部培训班开班式上的重要讲话精神，《中共中央关于加强党的政治建设的意见》《中国共产党重大事项请示报告条例》《地方党政领导干部食品安全责任制规定》精神，研究贯彻意见。', '受自治区副主席、市长、市政府党组书记马汉成委托，市政府党组副书记、副市长李志达主持召开市政府', '全区扫黑除恶专项斗争第四督导组督导固原市工作动员会召开。自治区党委常委、市委书记张柱作动员讲话。督导组组长，自治区社科院党组副书记、院长张廉，督导组副组长、自治区纪委监委驻公安厅纪检监察组组长谢永春安排部署督导工作。', '自治区党委常委、市委书记张柱分别出席市政府与宁夏建设投资集团、国网宁夏电力公司战略合作签约仪式，并与各企业就加强合作开展深入交流。宁夏建设投资集团董事长华光荣，国网宁夏电力公司董事长马士林参加签约仪式。', '我市召开扫黑除恶专项斗争领导小组暨边督边改部署会，传达学习郭声琨、陈一新等同志关于扫黑除恶专项斗争讲话精神，传达学习自治区扫黑除恶专项斗争领导小组暨督导工作推进会议精神，审议《固原市扫黑除恶专项斗争自查问题整改责任清单(讨论稿)》《固原市公安机关涉黑涉恶违法犯罪线索举报奖励办法(讨论稿)》，安排部署边督边改有关工作。', '我市召开扫黑除恶专项斗争领导小组暨边督边改部署会，传达学习郭声琨、陈一新等同志关于扫黑除恶专项斗争讲话精神，传达学习自治区扫黑除恶专项斗争领导小组暨督导工作推进会议精神，审议《固原市扫黑除恶专项斗争自查问题整改责任清单', '自治区党委常委、自治区副主席张超超来我市调研脱贫攻坚、乡村振兴和重点项目建设等工作，并在原州区官厅镇阳洼村召开脱贫攻坚工作座谈会。自治区党委常委、市委书记张柱一同调研。', '2019年全区重大项目集中开工现场推进会在宁东举行，我市重大项目集中开工建设。自治区党委常委、市委书记张柱，自治区副主席、市长马汉成，市领导罗永红、马玉芳、杨刚等在固原分会场参加开工仪式。', '△ 我市召开领导干部大会，传达学习全国两会精神，安排部署贯彻落实工作。自治区党委常委，市委书记张柱主持会议并讲话，自治区副主席，市长马汉成结合履职感受和固原实际，传达两会精神。', '全国人大代表、自治区副主席、市长马汉成在西吉县宣讲全国两会精神。西吉县县级干部、各单位负责人等在主会场，19个乡镇和41个村的部分干部群众在视频分会场聆听宣讲。', '全国人大代表、自治区副主席、市长马汉成在西吉县宣讲全国两会精神。西吉县县级干部、各单位负责人等在主会场，', '自治区党委副书记、自治区主席咸辉到我市隆德县、泾源县、彭阳县，实地调研督导脱贫攻坚推进情况以及乡村振兴工作，强调要深入贯彻落实全国两会特别是习近平总书记参加有关团组审议讨论时的重要讲话精神，切实把脱贫攻坚同乡村振兴战略有机结合起来，集中精力抓重点、补短板、强弱项，坚决打赢打好脱贫攻坚战，为乡村全面振兴打下坚实基础。自治区党委常委、市委书记张柱，自治区副主席、市长马汉成参加调研。', '自治区副主席、市长、市政府党组书记马汉成主持召开市政府2019年第6次党组会议，传达学习全国两会精神，研究贯彻意见；传达学习中共中央办公厅印发《关于解决形式主义突出问题为基层减负的通知》精神和自治区主席咸辉在我市调研脱贫攻坚和乡村振兴时的讲话精神，研究贯彻意见。', '自治区副主席、市长马汉成在原州区调研脱贫攻坚工作时强调，原州区委、政府和各级干部要切实把思想统一到以脱贫攻坚为统揽，进一步压实靠实责任，围绕“两不愁、三保障”标准，将问题整改和推进工作相结合相促进，精准补短板强弱项，做实做细各项工作，打赢打好脱贫攻坚战。', '自治区副主席、市长马汉成在原州区调研脱贫攻坚工作时强调，原州区委、政府和各级干部要切实把思想统一到以脱贫攻坚为统揽，进一步压实靠实责任，围绕', '自治区副主席、市长、市政府党组书记马汉成主持召开市政府2019年第7次党组会议，传达学习习近平总书记在王勇同志关于赴江苏响水“3˙21”特别重大爆炸事故现场察看指导抢险救援工作情况报告上的重要批示精神及石泰峰、咸辉同志在中共中央办公厅值班室《中央领导同志批示通知》上的批示；传达学习习近平总书记关于党风廉政建设和反腐败斗争论述摘编，听取市政府党组成员落实党风廉政建设责任制情况汇报，安排部署下一步工作；传达学习习近平总书记在学校思想政治理论课教师座谈会上的重要讲话精神，安排部署市政府系统意识形态工作；安排部署2019年重点工作。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>292</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>彭阳县着力锻造高素质年轻干部队伍</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202301/t20230131_3936597.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['1月28日，记者从彭阳县组织部门获悉，去年以来，彭阳县坚持思想引领“铸魂”、教育培养“塑型”、实践锻炼“赋能”、严管厚爱“固本”，着力锻造素质优良、担当有为的年轻干部队伍，为全面巩固脱贫攻坚成果、推进乡村振兴注入了强大动能。', '彭阳县深入实施年轻干部政治能力和专业能力提升两大工程，按照“干什么学什么、缺什么补什么”的原则，围绕乡村振兴、基层治理等中心工作，实行分级分类分批分岗位的“菜单式”培训。建立“1＋1”、“1＋N”导师帮带制，采取“老带新、熟带生、强带弱”帮带模式，讲政策、教方法、传经验，引导年轻干部用理论指导实践，提升能干事、干成事的本领。采取下派任职一批，上挂学习一批，外派锻炼一批，压担培养一批等方式为年轻干部“搭梯子”，让年轻干部“小步快跑”，多岗位、多维度增长才干、淬炼能力。去年8月，毕业于西安交通大学马克思主义学院的研究生苏小梅通过公务员选调生招考进入县发展和改革局，随后被组织派往草庙乡赵洼村担任党支部书记助理锻炼。像苏小梅一样，彭阳县相关部门先后选派34名选调生到村“蹲苗”历练，2名年轻干部到福建厦门挂职锻炼，抽调45名干部到乡村振兴、社区治理、重点工作督查专班，推动党的惠农政策“传”入万家、“播”进田间地头，积极推动各项工作落地见效。', '此外，彭阳县还坚持严管与厚爱结合、激励与约束并重，常态化开展日常监督，坚持抓早抓小、防微杜渐，发挥谈心谈话、考核考评、专项整治、关心关爱作用，对出现倾向性、苗头性问题及时提醒、告诫、纠正。建立“定性评价＋量化打分”、“平时考核＋年度考核”、“调研谈话＋延伸考察”、“个性分析＋综合研判”、“问题查核＋责任追究”的考核评价体系，以考核评价促监督管理、促担当作为，完善选人用人动态管理机制。建立容错纠错机制，落实好乡镇干部“三优”政策，全面落实干部体检、休假等保障制度，激发年轻干部一线岗位干事动力。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>292</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2018-06-27</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201806/t20180627_850405.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['传达中纪委有关环保追责典型问题通报，传达孙春兰批示精神，听取我市“四个一”建设汇报，听取全市招商引资及城市建设等工作汇报', '6月26日，自治区党委常委、市委书记张柱主持召开市委常委会会议，传达中纪委《关于六起生态环境损害责任追究典型问题的通报》；传达孙春兰副总理批示精神，听取全市生态建设及“四个一”工程专题培训班学习情况汇报；听取上半年全市招商引资情况和赴福建学习考察和招商引资情况汇报；听取上半年城市建设重点工作情况汇报。', '会议强调，要进一步提高政治站位，坚持以习近平生态文明思想为指导，将生态环境保护工作摆在首位，坚决贯彻落实好环境保护各项决策部署。要认真做好中央环保督察组反馈意见整改工作，坚决按照督察组反馈意见和自治区党委要求，实事求是，及时彻底整改，铁腕治理环境污染。', '会议指出，6月11日，孙春兰就福建农林大学兰思仁校长的一封信函作出了重要批示，充分体现了对我市开展生态建设和“四个一”工程的高度重视和亲切关怀，全市各级各部门要深刻领会批示精神，切实将批示精神贯彻落实到具体工作中，实事求是、加强对接、抓出成效。会议强调，“四个一”贵在试验，要有不怕“试错”的精神，找准生态美与百姓富的绿色富民产业。要及早谋划制定指导意见，动员群众和社会力量投入到“四个一”工程建设当中；要与福建科研院校主动对接，加强沟通；要明确任务，抓好落实，选择方向性、代表性强的主推品种，提早谋划推广；要专题策划宣传，将各级领导关怀、要求与“四个一”工程进展情况全面、准确宣传。同时，“四个一”建设要科学论证、稳步推进，避免“一刀切”和“大冒进”。', '会议指出，要从做实老百姓工资性收入和经营性收入角度，从区域经济发展角度，高度重视招商引资工作。要坚持“走出去”招商，实行领导带队制度，多跑企业、争项目；要营造良好的服务环境，构建新型政商关系，领导包抓、跟踪服务；要制定优厚的公共政策，提供公平的营商环境；要培育专业团队，提供精细的市场分析和服务保障，推动项目落地见效，带动脱贫产业发展，推动区域经济发展。', '会议强调，城市建设要进一步明确思路、突出重点，按照“1411”总体思路，聚焦市区和4个县城，改善城市面貌，提升城市服务功能；要坚持规划先行、整体推进，谋划到位、分步实施，不能简单“填空”。要突出城市风貌、完善城市功能；要加强管理、提升城市品位，持续整治好环境卫生，科学布局业态，提升美化、绿化、亮化水平；要依法规范土地出让、拆迁征收等行为，探索理顺市和辖区管理机制，保障城市建设高效推进；要结合实施乡村振兴战略抓好城乡环境综合整治。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>292</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市委召开常委会会议</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2016-06-14</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201606/t20160614_377641.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['6月13日，自治区党委常委、市委书记纪峥主持召开常委会会议，传达学习中共中央办公厅《关于部分人大代表、政协委员涉法涉罪问题问责情况及其教训的通报》精神等。', '会议要求，人大代表是国家权力机关的组成人员，政协委员是人民政协履行职能的主体。做好人大代表、政协委员工作，是坚持中国特色社会主义政治发展道路的基 础工程。在今年的换届工作中，各级党委一定要强化政治意识、大局意识、核心意识、看齐意识，将党委换届作为党的政治生活中的一件大事，把人大、政协换届工 作作为民主政治建设的大事，认真贯彻落实党中央的要求和有关法律、章程规定，切实担负起人大代表选举和政协委员协商提名工作的领导责任，把好政治关、素质 关和结构关。各级党委要高度重视，坚持党的领导、人民当家做主，加强组织领导，做好换届选举工作;要严格把关人大代表和政协委员人选。按照中央的部署要 求，严格人选标准和条件，对存在问题、损害国家和人民利益的，一律不得推荐提名或继续提名为人大代表人选。在重大原则问题上要头脑清醒、立场坚定，坚决杜 绝人选推荐提名中出现打招呼、批条子等“暗箱操作”不正之风和违纪违法行为。要准确认定人选身份，避免出现身份失真失实。要严格人选结构要求，控制领导干 部人选比例。由组织部门牵头，建立责任倒查和追究机制，坚持谁推荐谁负责，谁考察谁负责，谁管理谁负责。', '会议要求，要严守政治纪律和政治规矩，严格工作程序、组织人事纪律等，落实责任，严肃查处拉票贿选、弄虚作假和跑官要官、托关系、找门路等违纪行为，保证 选举工作风清气正。按照中央要求，组织、统战等部门要明确职责分工，形成各司其职、齐抓共管的工作格局，把各项工作做细做实。紧盯重要领域、重点人群，加 强对换届和换届风气的监督。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>292</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>闽宁对口扶贫协作调研座谈会在固原市召开</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190702_1576364.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['6月10日，福建省郑建闽副省长带队在固原市召开闽宁对口扶贫协作调研座谈会。会议深入学习贯彻习近平总书记在东西部扶贫协作座谈会上的重要讲话和闽宁对口扶贫协作第23次联席会议精神，调研交流互学互助经验，共同推进闽宁对口扶贫协作工作。福建省农业农村厅副厅长黄书荣、商务厅副厅长黄德智、文化旅游厅副厅长林守钦、工商联副主席刘军；自治区政府副秘书长、固原市委常委、政府副市长黄水木，扶贫办主任梁积裕，固原市委副书记杨刚，市委常委、组织部长余剑雄，政府副市长周文贵及福建省第十一批援宁工作队等参加会议。福建省政府办公厅副主任林依钦主持会议。黄水木同志就福建省第十一批援宁工作队工作开展情况做了详细汇报；福建省农业农村厅副厅长黄书荣、工商联副主席刘军及自治区扶贫办梁积裕主任、固原市委杨刚副书记、余剑雄常委等做了汇报发言。最后，郑建闽副省长讲话。', '用好人才资源，通过干部交流、人才培训、劳务输出等，用好、用活人才资源；加强项目前期考察、规划、论证，切实提高扶贫资金使用效率。', '结合脱贫攻坚和乡村振兴战略，打造闽宁协作示范村、推进生态扶贫建设，带动贫困群众脱贫致富。', '围绕精准扶贫强化精准施策，资金项目要精准安排，干出实效；产业扶贫要重点推进，抓出品牌。', '积极抓好扶贫协作工作创新，全力推动闽宁镇的发展，继续推动固原市“四个一”林草产业发展；大力推动消费扶贫。', '推动更好地形成工作合力，建立闽宁对口扶贫协作工作台账，加强与国务院扶贫办的汇报沟通，加强高位推进，建立健全联络协调机制。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>292</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>关于呈报年全市林业工作总结及年工作要点的报告</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2017-11-13</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201801/t20180110_665085.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['一年来,在市委、市政府的正确领导下，在自治区林业厅的精心指导下，全市林业系统围绕脱贫攻坚大局，凝心聚力，多措并举，强力推进，狠抓各项工作任务落实，取得了较好成效。', '“三精”要求，坚持以点带面、整体推进的总原则，认真落实抓实施、抓规划、抓抗旱、抓苗木、抓机制、抓示范“六抓”举措，全市共完成', '将造林绿化与精准扶贫紧密结合，下发了《在全市精准造林工程中推广“三个一批”模式推进脱贫攻坚的通知》和《关于做好针叶类苗木市内统筹调配的通知》，', '通过使用建档立卡贫困户的苗木和劳力，努力增加贫困户收入。大力推广泾源县“三个一批”、彭阳县专业造林队、原州区融资贷款造林、隆德县贫困户包干造林、西吉县经济林造林等模式。', '造林面积10.1万亩，其中7个示范点造林规模达到万亩以上。使用建档立卡贫困户苗木3172万株，苗木收入达1.065亿元，贫困户劳力参与造林10万人（次），劳务收入达3883.5万元。造林绿化呈现出了精准化、规模化、区域化推进的良好势头，实现了大苗化造林、大幅提升造林质量、加速成林转化的新突破，开创了实施造林绿化与发展苗木产业、推进生态脱贫的“多赢”新局面。', '。使用建档立卡贫困户苗木3172万株，苗木收入达1.065亿元，贫困户劳力参与造林10万人（次），劳务收入达3883.5万元。造林绿化呈现出了精准化、规模化、区域化推进的良好势头，实现了大苗化造林、大幅提升造林质量、加速成林转化的新突破，开创了实施造林绿化与发展苗木产业、推进生态脱贫的“多赢”新局面。', '委托中林公司聘请专家团队调研2次，邀请自治区林业专家服务团调研指导，为我市林业产业发展提出了指导性意见和建议。围绕市委提出的找准适宜我市发展的“一棵树、一株苗，一棵草、一枝花”的要求，积极与陕西海升集团、', '北京克劳沃草业公司、宁夏宁苗生态园林集团公司等企业对接洽谈，初步确定与陕西海升集团合作在彭阳县红、茹河流域建设1万亩的矮化密植苹果基地。', '完成以杏为主的特色经济林6.6万亩，占任务4.65万亩的142%，在西南新区建立了优新经济林新树种引进驯化园，引进试栽经济林树种18种、品种30个。完成林下种植面积5.54万亩', '东岳山森林公园、龟山森林公园全面建成，茹河森林公园、西吉北山森林公园、泾河源森林公园全部完成主体绿化。完成隆德渝河、清凉河，原州沈家河等生态综合治理工程，清水河国家湿地公园建设试点通过了国家林业局验收。', '古雁岭北端山体绿化、上海路与S101线十字东南角绿化、309国道汽车城段绿化、体育馆扩建项目移植树木、', '精心整形修剪绿化植物，对16个公园广场、50多条道路绿地和市政广场周边的10万多棵树木、3100亩草坪、13万平方米绿篱进行整形修剪；实施绿化树木病虫害防治，', '集中整治绿地环境，清理杂草、拉运积存垃圾和渣土1.5万平方米；委托7家园林企业对重点公园、广场、街道实施高标准养护管理绿地1075亩', '单位（小区）庭院绿化200个。通过全社会三年的共同努力，9月份我市国家园林城市创建工作通过住建部验收，荣获“国家园林城市”称号。', '加强森林防火工作，多措并举狠抓“春节”“清明”“五一”等重要节点森林火灾防控，确保了无重大森林火灾的发生。选聘安排3250名生态护林员和3000多名“天保”护林员，森林管护力量得到充实。年底又争取到生态护林员指标800人。', '实开展林木检疫、监测和防治，全面加强外调苗木检疫。认真开展2013年以来各类使用林地项目的梳理自查。完成全市国有林场改革任务，启动实施湿地确权试点。严格查处涉林违法案件8起，', '积极与国家、自治区林业（局）厅汇报对接，争取项目支持。全市争取到位林业专项资金及指标6.37亿元，主要有清水河城镇产业带市区绿化项目、宁夏六盘山土石质山区和黄土丘陵区森林火灾高风险区综合治理项目、400毫米以上区域造林绿化工程自治区级补助、中央天保工程森林资源管护及社会保险补助、中央森林生态效益补偿、中央财政造林及森林抚育补贴、清水河湿地公园、国有林场改革补助、中央防护林建设工程、自治区生态迁出区造林绿化工程、建档立卡贫困护林员报酬等。同时，积极组织编报固原市长城梁生态休闲植物园建设项目方案、市区近郊绿化项目林业政策贷款和PPP合作项目清单及实施方案、固原市三山森林生态区和森林保护红线重点项目规划；编制完成', '按照区、市党委、政府总体要求，认真开展党的十九大、自治区第十二次党代会和市委四届二次全会的学习宣传贯彻，推进“两学一做”学习教育常态化制度化工作，扎实开展“转变干部作风，优化发展环境”活动。组织开展全市重点工作检查督查6次，开展全市观摩评比1次。市、县林业部门认真抓好部门帮扶、第一书记和联系扶贫工作，市局筹措资金150多万元，帮助西吉县平峰村、西坡村2个包扶村发展生产、改善基础条件、改善民生。认真开展涉农资金自查，严格“三公经费”管理，', '积极开展“群众评议机关和干部作风”活动，接受群众监督。加强全市林业项目招投资、施工建设、验收核算方面的管理监督，', '切实规范权力运行。加强林业宣传工作，林业部门良好形象全面树立。狠抓干部作风建设，坚决整治“三不为”，全市林业干部作风明显好转。市局荣获“自治区级文明单位”称号。', '一年来，通过全市林业系统不懈努力，各项工作推进有力，取得可喜成绩。同时，我们也要清醒地认识到工作存在的问题和不足：', '造林树种配置不优，造林普通使用油松、云杉等针叶树种，树种过于单一，没有形成针阔灌混交林分；造林与全域旅游、脱贫攻坚结合不够。森林管护力量不足，森林抚育不到位，造林成林缓慢。林业产业发展滞后，规模化产业基地未形成，没有主导品牌；招商引资难度大，引进企业难，缺乏龙头企业带动，对各类林业合作社、家庭农场、大户培育不够；对符合本市气候环境条件的新树种、新品种等引进不够，试验推广不够。城乡园林绿化建设档次不高，景观效果差，后期管护长效保障机制未建立，经费投入严重不足，管护人员缺少，精细化管理程度不高。', '年，全市林业工作将以党的十九大为指引，认真贯彻落实自治区第十二次党代会精神和市委四届二次、三次全体会议精神，全力实施全域绿化、生态富民、城镇美化、生态保护“四项行动”，加快全市生态林业建设转型升级，', '推进大生态与大扶贫、大产业、大旅游融合发展，努力将生态资源转化为富民资本，实现生态与经济、山绿与民富有机统一。', '实施好400mm降水线造林绿化、月亮山水源涵养林建设、新一轮退耕还林、百万亩规模化林场建设等林业重点工程，', '突出抓好水源涵养林和水土保持林建设，坚持新造林与补植补造、改造提升并重并举，注重优先使用当地苗木与经济林树种造林相结合，按流域分年度整块推进规模化、区域化、大苗化造林，', '继续坚持抓点带面、区域推进的思路，每县（区）建设2个3000亩以上集中造林绿化示范点。', '按照针阔混交、乔灌草搭配的原则，注重营造混交林，科学设计造林密度，促进林木成林转化。在造林工程中更加注重在提高经济效益、推进可持续发展上下功夫，根据立地条件，加大经济林树种造林比例，推行造纯经济林、或经济林与生态林混交、或造林与林下种植立体复合，达到兼顾生态效益与经济效益的目的，实现', '从营造纯生态林向营造生态经济林的转变，2018年完成经济林造林7万亩，占全年造林绿化总面积10%以上。', '围绕开展全域旅游，提高城乡绿化建设标准，充分考虑景观季相变化，选择观叶、观花、观果树种，实行多样化配置，使不同季节有一定的景观效果和视觉冲击效果，与旅游景点、线路相结合，分重点区域精心打造，', '建设各具特色的生态景观和城乡园林景观，为休闲观赏旅游打好基础。2018年力争建设各类生态景观5处。', '各县（区）要编制本县（区）中长期多功能林业发展规划、年度营造林实施方案和作业设计，合理确定造林林种、树种和工程措施等。要', '继续推广“三个一批”模式，坚持造林工程优先使用本地苗木、劳力。推行专业队造林、贫困户“包干”造林、林苗一体化造林、“以育代造”、引进企业大户造林等多元化造林模式，实现由林业部门单一造林向社会力量逐步参与造林的转变，不断解决苗木销售问题，提高群众参与度，促进农民增收。', '全市林业产业要坚持政府主导、企业带动、群众参与、市场运作、科技支撑的发展思路，以引进企业、示范带动为突破口，突出抓好六盘山景观苗木、特色经果林和林下经济的培育发展，到2020年，力争实现林业产业“两个100万亩”目标（即建立特色经果林基地100万亩，建立六盘山景观苗木及林下经济基地100万亩）。一是大力发展景观苗木。坚持“控量、调优、增效”的原则，全市苗木总量稳定控制在40万亩。根据市场导向，通过调整结构，引种、实验、推广六盘山特色花卉苗木和城市景观苗木，实现由生态苗木向景观苗木、特色苗木、设施苗木的转变。2018年完成阔叶树、花灌木育苗1.5万亩。二是大力发展特色经济林。通过引种实验，选育出适合固原地区既有生态效益又有经济效益的树种。争取2018年发展苹果、文冠果、红梅杏、油用牡丹、核桃等特色经果林6.5万亩，实现生态林业向生态林业和经济林业相结合的转变。三是大力发展林下经济。在创新林下经济发展模式上下功夫，在往年以林下养鸡为主的模式上，创新思路，全力发展林家乐，把中蜂养殖作为主要发展方向，加大林下养蜂和特种养殖力度；在林下种植上，除了林下种药外，结合全域旅游，增加林下种花模式，实现由单纯发展生态林向发展林下经济的转变。2018年建立林下种植基地2.2万亩，完成林下养鸡68万只、养蜂1.5万箱、特种养殖1000只。', '紧盯市场选准适宜我市的“一棵树、一枝花、一棵草、一株苗”的要求，引进陕西海升集团在彭阳县红河、茹河流域建设1万亩以上矮化密植苹果示范基地及110亩的果品分级分捡项目。同时，要求各县（区）建立规模500亩以上的“四个一”示范园至少1个以上；市林业局在西南新区建立500亩新品种示范展示园区1个。', '积极争取中央和区、市政府支持，加大林业产业扶持力度。各县（区）积极培育林业大户、林业合作社，带动群众脱贫致富。抓好龙头企业引领作用，通过“企业-农民-企业”发展模式，群众提供产品、在企打工，企业就近取材加工，实现企业、农民共赢的目标，增加农民收入，助力脱贫攻坚。每县（区）引进林产企业1家，培育合作社、大户等社会组织5个。', '着力巩固国家园林城市创建成果，邀请国内园林专业设计机构，对市区园林绿化分街道、公园、广场做好改造提升的规划设计，提升园林绿化、彩化、美化水平，形成一街一品、一园一景，争取用三年时间完成市区所有街道、公园、广场改造提升任务。2018年完成北京路、上海路、六盘山路、安康路和人民公园的改造提升。', '对公园、广场、道路绿地养护实行定人、定岗、定责，制定完善的绿化养护管理标准，明确各项养护活动的技术规程和时间节点，探索建立绿化管护常态化长效机制，确保绿地树木健壮生长、园林景观效果良好。积极推行绿化养护市场化运作模式，采取政府购买服务方式，将部分绿地、公园广场养护管理工作承包给专业绿化企业实行精细化管理，实现政府由以费养人向以费养事的转变。', '分发挥森林资源优势，合理选择重点区域，分区精心打造，建设一批城郊森林公园，因地制宜打造湿地景观。围绕旅游观光线路，推进多彩通道绿化工程建设，采取新建与扩建相结合，因地制宜地确定绿化带宽幅，进行高标准景观绿化提升。结合五河流域生态综合治理，建设清水河、葫芦河、渝河、泾河、茹河', '护岸景观绿化带。围绕一区四县城、中心镇和美丽村庄、移民新村、销号扶贫村建设，全面推进生态县城、绿色乡镇、美丽村庄建设，建设各具特色的生态景观。', '坚持保护优先的原则，按照多规合一和生态红线划定要求，严格征占用林地报批、林评等工作，坚决守住自然保护区、森林和林地、湿地保护红线，加强有害生物防治，全面完成森防“四率”指标，严厉打击涉林违法案件。全年完成林业资源保护30万亩，森林抚育100万亩。', '严格落实森林火灾防控责任制，积极开展防火应急演练，认真组织实施好六盘山土石山区、黄土丘陵区森林火险综合治理2个项目，不断夯实防火基础设施建设，提升防火能力。', '继续抓好国有林场改革和巩固提升，完善林场内部管理、绩效分配、林场经营等制度，活化林场管理。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>292</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>关于印发固原市本级政府采购诚信管理暂行办法的通知年月日起废止</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/wjxgfz/bmwi_46184/201810/t20181015_1127708.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['关于印发《固原市本级政府采购诚信管理暂行办法》的通知（2021年4月6日起废止））_固原市人民政府', '关于印发《固原市本级政府采购诚信管理暂行办法》的通知（2021年4月6日起废止））', '第一条 为了维护政府采购市场秩序，规范政府采购行为，促进诚信经营和公平竞争，根据《中华人民共和国政府采购法》及实施条例、《政府采购货物和服务招标投标管理办法》财政部令第87号)等规章制度，结合我市实际，制定本办法。', '(六)采购人可以根据采购项目的特殊要求，规定供应商的特定条件,但不得以不合理的条件对供应商实行差别待遇或者歧视待遇；', '(二)接受和配合政府采购监督管理部门的监督检查、审计机关的审计监督和监察机关的监察；', '(一)采购代理机构应当建立完善的政府采购内部监督管理制度，具备开展政府采购业务所需的评审条件和设施；', '(二)遵守有关政府采购的法律、法规和政策，严格按照政府采购运行规程从事政府采购代理业务；接受政府采购监督管理部门的监督管理并按要求参加业务培训；', '(三)对从事政府采购代理业务中获知的依法不能公开的资料、信息和商业秘密承担保密义务；', '(一)依照法律法规规定进行独立评审,任何单位、组织和个人不得以任何方式干扰、妨碍评审专家依法独立履行职责；', '(一)按照相关法律法规规定，坚持客观、公正、审慎的原则,依据采购文件规定的评审程序、评审方法和评审标准等评审规则，对供应商的投标（响应）文件是否符合要求以及供应商的技术实现能力、商务服务水平和履约能力等，作出客观公正、明确有效的评审意见，不得有引导性、倾向性、歧视性和排他性言行；', '(二)发现采购文件内容违反国家有关强制性规定或者采购文件存在歧义、重大缺陷导致评审工作无法进行时,应当停止评审，并向采购人或者采购代理机构书面说明情况；', '(五)参加和接受财政部门组织的政府采购培训，主动学习和掌握政府采购法律法规、规章制度以及相关政策；', '(六)发现采购人、采购代理机构、供应商在采购活动中具有行贿受贿、提供虚假材料或者串通等违法违规行为的，应予以提醒和劝告，并及时向财政部门报告；', '(七)配合采购人、采购代理机构答复供应商提出的询问、质疑，配合财政部门处理投诉及行政复议和行政诉讼等事项；', '(一)未按照规定编制政府采购实施计划或者未按照规定将政府采购实施计划报固原市行政审批局备案；', '(九)未按照规定在评标委员会、竞争性谈判(磋商)小组或者询价小组推荐的中标或者成交候选人中确定中标或者成交供应商；', '(十一)政府采购合同履行中追加与合同标的相同的货物、工程或者服务的采购金额超过原合同采购金额10%；', '(四)向采购人、采购代理机构及评标委员会、竞争性谈判 (磋商)小组或询价小组成员行贿或提供其他不正当利益的；', '(八)被确定为中标或成交候选供应商后无正当理由放弃中标或成交资格，影响采购人采购工作的；', '(十)不按照招标文件(采购文件)和中标或成交供应商的投标文件(响应文件)签订合同，或者与采购人另行签订背离合同实质性内容协议的；', '(十一)将中标、成交项目转让给他人，或者违反招标文件或采购文件规定，将中标、成交项目分包给他人的；', '(十六)一年内三次以上投诉均查无实据的或供应商在投诉活动中捏造事实、提供虚假投诉材料的；', '第十六条 政府采购当事人发现不诚信行为后,应与7个工作日内，以书面形式向本级财政部门报告。报告内容应当载明：不诚信当事人姓名或名称以及不诚信行为的具体表现和事实依据。报告人为自然人的,应当由本人签字并提供身份证明；报告人为法人或者其他组织的,加盖法人或者其他组织印章并由主要负责人签字。', '(二)对代理机构、评审专家和供应商不诚信行为由财政部门计入不良记录，并在“中国政府采购网”、“宁夏公共资源交易网”予以通报。', '(三)对供应商不诚信行为由财政部门计入不良记录，对供应商存在违法失信行为,在作出处理处罚决定后5日内将处理处罚信息报送至财政厅政府采购处,由自治区财政厅统一在中国政府采购网“政府采购严重违法失信行为记录名单”专栏中进行发布。', '（四）对政府采购当事人不诚信行为，造成不良后果，情节严重的，按照《中华人民共和国政府采购法》及实施条例规定予以处罚。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>292</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>固原市应对新型冠状病毒感染肺炎疫情工作指挥部公告</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202108/t20210803_2953412.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['近期，疫情在境外多国多点爆发，持续蔓延，国内部分地区先后发生聚集性疫情，疫情防控形势异常严峻。为有效应对境外及国内中高风险地区疫情输入风险，筑牢疫情防控防线，现就有关事项公告如下：', '一、请广大市民持续关注国内疫情动态变化，近期如无特殊情况，勿前往国内中高风险地区。确需前往的，要及时向所属社区（村组）、单位报备，并做好个人防护。', '二、入境解除隔离人员或14天内有国内中高风险地区旅居史的人员，应主动向所在社区（村组）、单位报告，配合落实防控措施。', '三、广大市民要当好自身健康第一责任人，按照《公民防疫基本行为准则》，坚持做好个人防护，科学佩戴口罩，尽快接种新冠病毒疫苗。', '四、个人或家庭成员如出现发热、咳嗽、腹泻、乏力等症状，要及时前往就近的二级及以上医疗机构发热门诊进行排查和诊疗。', '五、农贸（集贸）市场、商场超市、宾馆酒店、影剧院、体育场馆、KTV、棋牌室等重点聚集场所，医疗机构、儿童福利院、养老院、监管场所、学校、托幼机构、培训机构等重点机构要从严落实测温、验码、佩戴口罩等措施。', '六、各旅游景区（景点）要落实景区（景点）“限量、预约、错峰”要求，严格落实测温、验码、室内场所佩戴口罩等措施，调控进入景区（景点）游客数量，接待量不得超过最大承载量的75%，严防人群聚集。', '七、社区（村组）要实行网格化、精准化管理，对外来人员要严格查验行程，扫码登记，做好入境解除隔离人员、国内中高风险地区来返人员排查和健康管理工作。', '八、党政机关、事业单位、国有企业暂缓举办线下大型会议、大型培训和大型演出、体育比赛等聚集活动；暂缓组团外出考察、学习、培训等活动，确需举办或外出的，应提前向当地疫情防控指挥部报备，并严格落实疫情防控措施。', '九、积极倡导喜事缓办、丧事简办、宴会不办，确需举办的，要提前向社区（村组）、单位报备，按照“谁举办、谁负责”原则，严格控制人数，落实测温、验码等防控措施。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>292</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>自治区党委政府召开新冠肺炎疫情防控工作视频会议贯彻落实习近平总书记重要讲话精神通报当前疫情形势部署疫情防控工作</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202002/t20200214_1954464.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['自治区党委政府召开新冠肺炎疫情防控工作视频会议 贯彻落实习近平总书记重要讲话精神 通报当前疫情形势部署疫情防控工作_固原市人民政府', '自治区党委政府召开新冠肺炎疫情防控工作视频会议 贯彻落实习近平总书记重要讲话精神 通报当前疫情形势部署疫情防控工作', '2月13日，自治区党委政府召开新冠肺炎疫情防控工作视频会议，学习贯彻习近平总书记在中央政治局常委会会议上的重要讲话精神，通报当前全区疫情形势，部署下一步疫情防控工作。自治区党委书记、自治区党委应对新冠肺炎疫情工作领导小组组长陈润儿出席会议并讲话，强调要坚决贯彻习近平总书记重要讲话精神，清醒认识当前疫情的严峻复杂形势，严格落实早发现、早报告、早隔离、早治疗措施，全面强化疫情防控统一领导，确保打赢疫情防控阻击战。', '国务院应对疫情联防联控工作机制第29工作指导组组长衣梅出席。自治区主席、自治区应对新冠肺炎疫情工作领导小组第一副组长咸辉主持并讲话，自治区领导张超超、赵永清、张韵声、杨培君、杨东、马秀珍出席。', '陈润儿指出，习近平总书记对新冠肺炎疫情形势极为关注，对防控工作极为重视，对人民群众极为牵挂。在疫情防控工作最吃劲的关键阶段，习近平总书记2月12日主持召开中央政治局常委会会议并发表重要讲话，充分肯定了全党全国上下开展疫情防控工作取得的积极成效，深刻分析了疫情防控面临的严峻形势，客观指出了疫情防控工作存在的突出问题，明确提出了做好下一步工作的重点任务和具体要求，充分彰显了以习近平同志为核心的党中央坚决打赢疫情防控的人民战争、总体战、阻击战的顽强意志和坚定决心，为我们做好疫情防控工作注入了强大动力、提供了科学方法、提出了严格要求。我们一定要认真学习、深刻领会、坚决贯彻落实，切实把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来，既要有责任担当之勇、又要有科学防控之智，既要有统筹兼顾之谋、又要有组织实施之能，切实抓好工作落实，在大战中践行初心使命，在大考中交出合格答卷。', '陈润儿通报了全区疫情防控工作情况。他指出，疫情发生以来，自治区党委政府和各地各部门坚决贯彻落实习近平总书记的重要指示和党中央的决策部署，全面部署早行动，压实责任早隔离，精准施策早治疗，全区疫情总体可控。全区上下齐动手、干部群众齐上阵，广大基层工作者吃盒饭、睡帐篷，冲锋在战斗一线，坚守在战疫关口，广大医护人员挺身而出、舍生忘死，守护了敬佑生命、救死扶伤的神圣职责。陈润儿代表自治区党委政府，向奋战在基层一线的工作人员和广大医护人员表示衷心感谢和崇高敬意。', '陈润儿指出，现在疫情防控正处于胶着对垒状态，各地各部门既要看到当前疫情的严峻复杂形势，也要看到战胜疫情的有利条件，坚定必胜信心，广泛动员群众，坚持同舟共济，注重统筹谋划，抓住有利时机，严格压实责任，积极主动作为，落实科学防控，做到精准施策，确保不发生社区疫情传播、不发生医护人员感染、不发生死亡病例。', '陈润儿指出，要持续严格压实疫情防控责任，切实抓好“三早”。要全面防、早发现。要控制面，重点是控制好社区、厂区、校区、园区，农贸市场、大型商场、文化广场、宗教活动场所一律暂停交易和活动，引导群众减少朋友聚会、家庭聚会、人员聚集。要管好人，重点是管理好“三大人群”，即管好重点人群，对来自疫情较重地区的人员和返乡人员、与确诊病例和疑似病例的密切接触者、来自其他地区有不适症状的“三种人”要集中隔离医学观察，对来自疫情较重地区以外人员无不适症状的、与确诊病例和疑似病例一般接触的“两种人”要居家隔离医学观察；管好“三返”人群，对返程、返工、返校的人员要严格管理；管好商务人群，对因企业开工复工、经济活动增多进出宁夏的人员要逢车必检、逢人必查，检必严、查必细。要早筛查，重点是对“三种人”及早筛查、及时找出疑似病例，减少感染传播的风险。要找出点，重点是运用好大摸排、大起底、大筛查成果，建立台账、实时监测、动态管理，精准找出感染源、感染点。要严格控、早隔离。严格落实隔离措施，有效防范交叉感染，及时切断传播渠道，特别是要解决好隔离场所、隔离经费、隔离保障、隔离防护问题。要科学治、早治疗。坚持分类施治、对症下药，发热门诊要24小时轮班值守、及时提供诊疗服务，重症病人、危重病人要一人一策、精准治疗，做到应检必检、应管必管、应收必收、应治必治。', '陈润儿强调，各级领导干部在疫情防控工作中要切实扛起责任，经受疫情考验。要坚持靠前指挥，保持斗志，一级带一级、一级抓一级、一级盯一级，坚定有力、毫不懈怠地把疫情防控工作抓得紧而又紧、实而又实、细而又细。要坚持在疫情防控一线考察识别干部，把疫情防控工作作为对各级领导班子和领导干部政治担当、领导能力、工作作风的一次特别考察。要严格依法防控，充分运用法律武器做好疫情防控工作，对经过教育劝导拒不履行法律责任甚至危害公共安全的行为，要依法严肃处理，特别是对明知自己感染、仍然参加聚会的，要依法追究法律责任。要加强物资保障，全力保障医用防护物资、公共服务产品、居民生活必需。要维护大局稳定，做好群众心理疏导、舆论引导等工作，及时防范化解各类风险。', '咸辉指出，各地各部门要切实把思想和行动统一到习近平总书记的重要讲话精神上来，统一到党中央、国务院的决策部署上来，统一到自治区党委政府的工作要求上来，认清形势、保持定力，精准聚焦重点地区、重点人群、重点环节，果断迅速落细落实各项防控措施，坚决遏制疫情蔓延。各级领导干部要全面落实责任，靠前指挥、依法防控、强化保障、维护稳定，以实际行动守护好人民群众的生命安全和身体健康。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>292</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>办好人民满意的教育助力固原赶超式发展</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/zfxxgk/fdzdgknr/202208/t20220805_3659780.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['历届市委、市政府高度重视教育发展。固原撤地设市至党的十八大召开这十年，全市累积教育投入', '党的十八大以来，在习近平新时代中国特色社会主义思想的指引下，固原深化教育改革，坚持', '“全面改薄”、教育现代化推进工程、城乡幼儿园建设、职业教育产教融合工程，整体搬迁固原一中，新建固原八中，扩建固原二中、宁夏师范学院附属中学、固原职业技术学院等一批教育重点建设工程。一幢幢现代化教学楼拔地而起，一间间宽敞教室传出琅琅书声，一条条塑胶跑道环绕绿色草坪，学校实验室、图书馆（室）、信息技术、劳动技术，音乐、体育、美术、卫生室等都按照各级示范学校教育技术装备标准配备。', '2008年秋季学期开始，我市全部免除城乡义务教育阶段学杂费。小学实现划片就近入学，初中基本实现对口招生，普通高中质量持续提升，高考上线率不断提升。', '“县管校聘”改革，健全教师工资联动增长机制。组织开展全市“四课”比赛，以专题培训、考察学习、访学研修、论坛交流等形式到发达地区学校跟岗学习，打造“名师”、“名学校”、“名校长”。', '健全完善学生资助体系，为各类特殊群体学生开展扶危济困活动，帮助家庭经济困难学生完成学业。', '2011年9月率先在全国启动了营养改善试点，2012年2月农村义务教育学生营养改善计划在我市全面实施广大群众享受到了教育发展带来的红利。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>292</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>固原市人民政府关于做好第三次全国土壤普查工作的通知</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-10-19</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/202210/t20221019_3807864.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['号）精神，全面掌握我市土壤资源情况，现就做好我市第三次全国土壤普查工作有关事项通知如下：', '以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的十九大和十九届历次全会精神，深入学习贯彻习近平总书记考察宁夏重要讲话和重要指示批示精神，弘扬伟大建党精神，完整、准确、全面贯彻新发展理念，加快构建新发展格局，推动高质量发展，遵循全面性、科学性、专业性原则，衔接已有成果，按照', '的要求，全面查清我市土壤类型及分布规律、土壤资源现状及变化趋势，真实准确掌握土壤质量、性状和利用状况等基础数据，提升土壤资源保护利用水平，为守住耕地红线、优化农业生产布局、确保国家粮食安全奠定坚实基础，为加快我市农业农村现代化、全面推进乡村振兴、促进生态文明建设提供有力支撑。', '包括全市耕地、园地、林地、草地等农用地和部分未利用地的土壤。其中，林地、草地重点调查与食物生产相关的土地，未利用地重点调查盐碱地等与可开垦耕地资源相关的土地。', '一是土壤性状普查，包括野外土壤表层样品采集、理化和生物性状指标分析化验等。二是土壤类型普查，包括对主要土壤类型的剖面挖掘观测、采样化验等。三是土壤立地条件普查，包括地形地貌、水文地质等。四是土壤利用状况普查，包括基础设施条件、植被类型等。', '年）。根据国家统一布设的样点和调查任务，完成外业调查采样和内业测试化验，开展技术实训指导和抽查校核，建设土壤普查数据库与样品库，形成阶段性成果。外业调查采样时间截至', '年）。上半年，完成普查成果整理、数据审核，汇总形成固原市第三次全国土壤普查基本数据；下半年，完成普查成果验收、汇总与总结，建成土壤普查数据库与样品库，形成全市耕地质量报告和土壤利用适宜性评价报告，并向第三次全区土壤普查领导小组提交普查成果。', '土壤普查是一项重要的国情国力调查，涉及范围广、参与部门多、工作任务重、技术要求高。为加强组织领导，成立固原市第三次全国土壤普查领导小组（以下简称领导小组），负责普查组织实施中重大问题的研究和决策。领导小组办公室设在固原市农业农村局，负责组织和协调全市土壤普查工作。领导小组成员单位要各司其职、各负其责、通力协作、密切配合，加强技术指导、信息共享、质量控制、经费物资保障等工作，并明确专人负责，确保高质量完成普查任务。各县（区）人民政府要成立相应的普查领导小组，负责本地区普查工作的组织实施和督导检查，按照统一的工作要求，结合本地区实际编制实施方案，报固原市领导小组办公室备案。', '本次土壤普查经费按照分级负担的原则，由中央、自治区和市县财政共同分担。全市的外业调查采样、内业测试化验、技术培训、专家指导服务、数据分析、成果汇总和数据库样品库建设等经费由市、县（区）财政按照承担的工作任务和进度安排，纳入相应年度预算予以保障。要实行专款专用，强化经费使用管理和监督审计。', '各县（区）和市直各有关部门要加强专家技术指导、专业技术人员配置、普查队伍培训，严格按照土壤普查技术规程开展工作，确保土壤普查专业化、标准化、规范化。要强化质量控制，建立普查工作质量管理体系和普查数据质量追溯机制，层层压实责任。各级普查机构及其工作人员必须严格按要求报送普查数据，确保数据真实、准确、完整。任何地方、部门、单位和个人都不得虚报、瞒报、拒报、迟报，不得弄虚作假和篡改普查数据。各县（区）和各有关部门要充分利用全国统一的土壤普查工作平台等现代化技术手段，提高信息化水平，科学、规范、高效推进普查工作。各县（区）人民政府要对本地区的土壤普查成果质量及真实性负责。', '各县（区）和市直各有关部门要结合工作实际，围绕阶段任务内容，充分利用报刊、广播、电视、互联网等媒体，有计划、有重点地开展形式多样、内容丰富的宣传活动，广泛宣传土壤普查的重要意义和目标要求，让社会各界了解土壤普查、支持土壤普查、配合土壤普查，为普查工作顺利开展营造良好社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>292</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>精心打造三个课堂推动机关事务部门成为在共同思想政治基础上向高质量发展的新引领</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202307/t20230721_4189361.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['精心打造“三个课堂” 推动机关事务部门成为在共同思想政治基础上向高质量发展的新引领_固原市人民政府', '精心打造“三个课堂” 推动机关事务部门成为在共同思想政治基础上向高质量发展的新引领', '为深入学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，全面贯彻落实习近平总书记对机关事务工作重要指示、视察宁夏重要讲话重要指示批示精神，引导干部职工把认识与实践相结合、理论与实际相联系，真正在以学铸魂、以学增智、以学正风、以学促干方面取得实实在在的成效，市机关事务管理局搭建起理论学习“研讨课堂”“讲学课堂”“调研课堂”，旨在进一步固本强基、充电蓄能、激发活力、争先创优，', '为深入学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，全面贯彻落实习近平总书记对机关事务工作重要指示、视察宁夏重要讲话重要指示批示精神，引导干部职工把认识与实践相结合、理论与实际相联系，真正在以学铸魂、以学增智、以学正风、以学促干方面取得实实在在的成效，市机关事务管理局搭建起理论学习', '实现学思用“三联强化”、知信行“三位一体”，切实推动机关事务部门成为用党的创新理论教育引导干部职工的新标杆、成为在共同思想政治基础上向高质量发展的新引领。', '，切实推动机关事务部门成为用党的创新理论教育引导干部职工的新标杆、成为在共同思想政治基础上向高质量发展的新引领。', '坚持把习近平新时代中国特色社会主义思想作为党组会议第一议题学习、理论学习中心组（扩大）会议集中学习、干部职工政治理论学习的“第一内容”，作为全体干部职工拥护“两个确立”、践行“两个维护”的“第一责任”，在学思践悟基础上，通过提前预约、重点安排、随机点名、口头交流、书面提交等方式，引导干部职工围绕中国式现代化本质要求和实现路径、以自我革命引领社会革命、“两翼一体”融合创新发展、法治化标准化信息化建设增速提质、文化传承创新等专题谈体会、谈认识、谈思考，分享履职心得、交流工作举措，自觉把对总书记重要讲话、重要批示指示转化为破解瓶颈、推动工作、向优发展的实绩成效。', '坚持把习近平新时代中国特色社会主义思想作为党组会议第一议题学习、理论学习中心组（扩大）会议集中学习、干部职工政治理论学习的', '，在学思践悟基础上，通过提前预约、重点安排、随机点名、口头交流、书面提交等方式，引导干部职工围绕中国式现代化本质要求和实现路径、以自我革命引领社会革命、', '融合创新发展、法治化标准化信息化建设增速提质、文化传承创新等专题谈体会、谈认识、谈思考，分享履职心得、交流工作举措，自觉把对总书记重要讲话、重要批示指示转化为破解瓶颈、推动工作、向优发展的实绩成效。', '结合局党支部、退休干部职工党支部讲党课、主题党日活动，开设“理论政策大讲堂”“宪法法律我来讲”“清廉故事比着讲”“机关事务大家讲”等讲学平台，局党组书记先后围绕“学习贯彻党的二十大精神、提高依宪依法行政能力”“树牢绿色发展理念，当好低碳引领、节能降耗主力军”深入讲解了新时代机关事务工作在法治化建设和绿色发展示范引领方面的努力方向。班子成员分别围绕“做好新形势下意识形态工作”“铸牢中华民族共同体意识”讲了党课。各科室、中心负责同志采取培训讲、户外讲、督查讲相结合方式，到社区、广场、行政中心各区域、各公共机构宣讲低碳引领、节能减排、生态环保、垃圾分类、反食品浪费和“智', '深入讲解了新时代机关事务工作在法治化建设和绿色发展示范引领方面的努力方向。班子成员分别围绕', '讲了党课。各科室、中心负责同志采取培训讲、户外讲、督查讲相结合方式，到社区、广场、行政中心各区域、各公共机构宣讲低碳引领、节能减排、生态环保、垃圾分类、反食品浪费和', '慧机关事务”数字化系统运行等方面的政策、知识，集合众智、集众之长让机关事务引领力、凝聚力、创造力更加强劲。', '数字化系统运行等方面的政策、知识，集合众智、集众之长让机关事务引领力、凝聚力、创造力更加强劲。', '深入贯彻中央和区、市党委关于大兴调查研究的部署要求，把调查研究贯穿巡查、督查、检查全过程，打造了探索路子的前瞻性调研、攻坚难题的对策性调研、掌握进度的督导式调研、推动落实的跟踪式调研。结合党建“双报到、双报告”，组织干部职工到联系的长城社区了解群众“急难愁盼”，面对面心贴心与群众拉家常、聊家事，既听群众讲，也向群众讲市委、市政府出台的各项惠民政策，同时把机关事务“衣食住行”“柴米油盐”的后勤经验推送分享。在日常巡查、抽检、测评、审核工作中，树立提前调研意识，以“空杯”心态查阅资料、列出提纲、预设问题、制', '深入贯彻中央和区、市党委关于大兴调查研究的部署要求，把调查研究贯穿巡查、督查、检查全过程，打造了探索路子的前瞻性调研、攻坚难题的对策性调研、掌握进度的督导式调研、推动落实的跟踪式调研。结合党建', '，面对面心贴心与群众拉家常、聊家事，既听群众讲，也向群众讲市委、市政府出台的各项惠民政策，同时把机关事务', '作问卷，确保掌握情况全面、发现问题及时、应对措施精准。2023年建设“智慧机关事务”数字化系统前，针对“十三五”时期拉起的信息化架构多次进行调研，并分赴银川、中卫等市考察学习机关事务信息化建设先进经验，明确了政企合作研发、一网统管通办、多元特色服务、数控分析提效的总思路，为系统后续顺利推行打下了坚实基础。', '时期拉起的信息化架构多次进行调研，并分赴银川、中卫等市考察学习机关事务信息化建设先进经验，明确了政企合作研发、一网统管通办、多元特色服务、数控分析提效的总思路，为系统后续顺利推行打下了坚实基础。', '“三个课堂”既是干部职工深学笃行习近平新时代中国特色社会主义思想的集中体现，也是开展主题教育、贯彻落实党中央和区、市党委各项决策部署的有效载体，市机关事务管理局将在创新教学模式、丰富教学内容、延伸教学方式上下功夫，增强吸引力、感染力和带动力，激发思想共鸣，凝聚更为坚实的思想政治共识。', '既是干部职工深学笃行习近平新时代中国特色社会主义思想的集中体现，也是开展主题教育、贯彻落实党中央和区、市党委各项决策部署的有效载体，市机关事务管理局将在创新教学模式、丰富教学内容、延伸教学方式上下功夫，增强吸引力、感染力和带动力，激发思想共鸣，凝聚更为坚实的思想政治共识。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>292</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>闽宁协作创新推出固原模式群众办事更方便了</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202305/t20230524_4119517.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['年初，时任福建省第十批援宁工作队队长、宁夏回族自治区政府副秘书长、固原市委常委、副市长黄水木分管审批服务管理工作后，经常深入市政务服务大厅调研，与办事企业及群众面对面交流，了解企业和群众办事过程中的堵点、难点和痛点问题，多次组织审批局和政务服务中心领导班子成员及业务骨干座谈交流，在全面掌握固原市审批服务工作现状的基础上，先后派工作人员赴漳州、厦门政务服务中心跟班学习先进典型经验，到上海、江苏等地考察学习。', '，就是推出三项机制，创新模拟审批机制、健全监督评价机制、完善便民服务机制，实现最周到的服务。', '“真的方便很多，只要来一趟就能把所有的事情办理完了！”袁恒是一名房产中介人员，他对这样的变化感受颇深，“所有的流程都简化了，以前有时要跑好几趟，现在只要一趟就够了，即使材料没带全，也可以先办理业务，后续再把材料补齐。”他说，这项改革真正使群众获利，为他们节省了很多时间精力。', '所有的流程都简化了，以前有时要跑好几趟，现在只要一趟就够了，即使材料没带全，也可以先办理业务，后续再把材料补齐。', '政务服务模式一些便民利企做法还被纳入了《国务院关于加快推进政务服务标准化规范化便利化的指导意见》向全国推广。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>292</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>固原支队四个聚焦筑牢队伍冬季作战训练安全防线</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/ztzl/xfzl/kqzlxx_37492/202402/t20240227_4468984.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['为全面贯彻总队关于作战训练安全的相关要求，扎实做好队伍安全管理和执勤战备工作，全面提升队伍灭火救援实战能力，压实安全责任落实，确保冬季作战训练安全。', '力争主动、不等不靠、凝魂聚力、科学部署、全方位、多角度严格落实上级指示精神。结合冬季天气特点，采取多项有效措施，加强当前队伍管理和灭火救援工作，利用', '支队结合冬季执勤备战特点，全面加强对指战员的安全知识教育，要求指战员从思想上，行动上筑牢执勤备战的意识，打牢执勤备战工作的思想基础。定期组织学习《', '针对气候特点，制定各项安全防事故措施，定期组织安全检查、分析研究，认真查找安全漏洞，将事故苗头消灭在萌芽状态，最大限度地杜绝和减少指战员伤亡。', '支队结合辖区冬季灾害事故特点，有针对性地开展人员密集、公共娱乐场所、高层建筑等场所的实战灭火演练、学习水域救援技战术，并开展水域救援拉动演练，演练中带训干部讲解了水域救援基本动作要领以及抢救人员时应注意的安全事项，在学习水域救援相关知识的基础下组织开展对应训练，旨在熟悉掌握水域救援装备的性能和操作，做到把装备练熟、技能练精、战术练实。切实提升指战员实战能力。同时，根据辖区情况，组织指战员深入重点单位，实地考察收集地理位置、交通道路、周边环境、可用水源、建筑结构、生产性质、灭火力量、作战方案等各类基础数据，及时修订完善预案，确保指战员对辖区重点场所有清晰的认识，做到心中有数。', '针对辖区冬季气候干燥、节日火灾多发、夜间接警较多的特点，在队伍内部掀起以指挥训练、夜间拉动、装备训练，体能训练和战术操法演练等为重点的训练热潮。', '“五知一能”学习，确保指战员熟练掌握本单位执勤车辆和主要装备器材的适用范围、技术参数和作战效能，结合冬季气候特点，对执勤车辆装备采取防寒防滑措施并进行维护保养。', '针对冬季火灾扑救难度加大，火场事故隐患增加的实际，认真分析冬季队伍安全形势，查找事故隐患，制定针对性措施，切实增强指战员安全意识。切实加强冬季训练安全管理，精心组织，科学施训，循序渐进，合理安排训练进度和强度，落实各项训练安全措施，严格执行操作规程，严守作战安全规定，开展业务训练前，就训练安全进行讲解、提示与检查，从源头预防各类训练事故的发生。', '支队以冬季练兵为契机，以时不我待、只争朝夕的姿态，攻坚克难、奋勇争先，从严从难锤炼队伍，切实提高消防救援人员在恶劣天气下执行任务的综合能力，确保能够随时拉得出、冲得上、打得赢']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>292</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>固原市年事业单位自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202107/t20210726_2941665.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['为了进一步推进人才强市战略，大力引进急需紧缺高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就固原市2021年事业单位自主公开招聘急需紧缺高层次人才有关事项公告如下。', '为了进一步推进人才强市战略，大力引进急需紧缺高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔', '06〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔', '号)等规定，现就固原市2021年事业单位自主公开招聘急需紧缺高层次人才有关事项公告如下。', '采取公开报名方式，面向全国自主公开招聘应、往届硕士研究生学历以上人员，应届毕业生取得毕业证、学位证日期截止到2021年7月31日。', '采取公开报名方式，面向全国自主公开招聘应、往届硕士研究生学历以上人员，应届毕业生取得毕业证、学位证日期截止到', '6.符合《固原市2021年事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》(附件1)中各招聘岗位要求的资格条件;', '本次计划招聘硕士及以上研究生21人，具体招聘单位、招聘岗位、招聘人数、资格条件及有关事项详见《固原市2021年事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》(附件1)。', '1.现场报名。应聘者携带本人有效身份证及岗位所需的材料原件和复印件、2张近期同底(6个月内)正面1寸免冠照片交由招聘单位审核，并填写《固原市2021年事业单位自主公开招聘急需紧缺高层次人才报名表》(附件2)。', '尚未取得毕业证、学位证的2021年应届毕业生，可持所在院校盖章的就业推荐表、学历和学位证明、学生证、身份证、户口簿原件及复印件报名。', '21年应届毕业生，可持所在院校盖章的就业推荐表、学历和学位证明、学生证、身份证、户口簿原件及复印件报名。', '4.资格初审。资格初审工作由招聘单位或招聘单位主管部门负责。资格初审一般应在应聘者提交报名申请1个工作日内审核完毕。应聘者在提交完整报名信息1个工作日后，通过查询电子邮箱确认邮件或电话咨询方式确认资格初审是否通过。未通过资格初审的考生，可以改报其他岗位。未通过资格初审且没有改报其他岗位的考生视为弃考。', '5.资格复审。资格复审工作由招聘单位会同其主管部门在同级纪检监察部门的监督下进行现场复审。未按规定时间进行资格复审的，视为自动放弃。', '应聘者的资格审查贯穿公开招聘工作全过程,凡发现应聘者不符合报考条件的，随时取消招聘资格。', '1.考试方式。考试采取免笔试直接面试的方式进行。通过资格审核后，由市组织、人社部门与用人单位主管部门及用人单位共同组织面试等有关事宜。如果报名人数与招聘人数达不到3︰1比例的，由用人单位提出意见，报固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核同意，可适当降低开考比例、减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或取消招聘岗位有关事项，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组审核后，在固原市人民政府网(http://www.nxgy.gov.cn/)进行公告。', '若招聘岗位报考人数超过30人，由固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究决定，可通过增加笔试的方式进一步确定面试人选，笔试的测评范围、测评形式提前公布并告知应聘人员。', '2.面试时间和地点。面试时间、地点及其他要求由招聘单位负责提前一周通知应聘者。应聘者提供的联络方式须有效、正确，便于随时联络，对于因提供的联络方式不准确有效而导致误考等问题，应由应聘者自己负责。', '3.面试内容。面试主要对应试人员的综合分析能力、组织协调能力、逻辑思维能力以及招聘岗位所必需的专业知识、业务技能等进行测试，全面衡量应聘者的综合素质。根据用人单位不同岗位特点,教师岗位面试采取半结构化(试讲)方式，其他岗位面试采取半结构化(问答)方式。', '4.考试总成绩。考生面试成绩即为考生总成绩。考试总成绩相同的，经固原市事业单位自主公开招聘急需紧缺高层次人才领导小组同意后通过一定方式组织加试。', '面试满分为100分，面试成绩达不到60分的，取消招聘资格。面试成绩向社会进行公布，接受监督。', '面试结束后，根据考试成绩由高分到低分，按照招聘岗位计划1∶1的比例确定参加体检人员。', '体检在同级纪检监察部门监督下，由招聘单位主管部门和用人单位负责组织在县级以上综合医院进行。体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行。体检费用由应聘者承担。', '应聘者对体检的结果有疑问要求复查的，由应聘者本人提出申请，经研究批准后，另行指定医院进行复查，复查只进行一次。体检结果以复查结论为准。', '应聘者应在规定时间内完成全部体检项目。体检合格者确定为考察人选。未按要求完成体检的，视为自动放弃体检资格。', '体检合格的人员列入考察对象，由用人单位与其主管部门负责，按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。考察不合格的，取消应聘资格。', '根据考试、体检、考察结果，固原市事业单位自主公开招聘急需紧缺高层次人才领导小组确定拟聘用人员名单，在固原市政府网站公示5个工作日。公示期满无异议的拟聘用人员，报固原市人力资源和社会保障局办理招聘手续。', '对反映有影响聘用的问题经查证属实的，不予聘用;对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的，取消招聘资格。', '招聘单位与受聘人员签订聘用合同，确立人事关系，并按规定办理相关手续。聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，予以正式聘用，纳入事业单位在职在编人员管理，享受国家规定的工资、保险等福利待遇。不合格的，解除聘用合同。', '1.递补情形。在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且面试成绩达到60分以上应聘者中，按照成绩由高到低的顺序依次递补。', '2.不递补情形。应聘者体检不合格或考察不合格，取消应聘资格，出现的空缺岗位不再递补;体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补;人力资源社会保障部门聘用批复文件印发之日起，出现的空缺岗位不再递补。', '(一)凡涉及本次招聘工作的重大事项或本公告未尽事宜，由固原市事业单位自主公开招聘急需紧缺高层次人才领导小组研究决定。', '(二)在招聘组织实施过程中，将按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在固原市人民政府网站发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '(三)应聘者报名时应根据本人条件，严格按照岗位资格条件要求选报岗位，并且如实填报个人信息。对于弄虚作假、隐瞒真实情况或不符合岗位资格条件要求的，一经发现，即取消其报名资格或宣布考试成绩无效，由此造成的一切后果由应聘者自负。应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '(四)自主公开招聘工作做到信息公开、过程公开、结果公开。自主公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '(五)招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '附件1固原市2021年自主公开招聘急需紧缺高层次人才岗位计划一览表（汇总）.xls']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>292</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>自治区总工会经审会主任闫灵一行来固调研我市工会经审工作</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2019-03-04</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201903/t20190304_1296698.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['近日，自治区总工会经审会主任闫灵一行来固调研我市工会经审工作，并在市总工会召开座谈会，市总工会领导班子成员及县（区）总工会经审工作负责人等参加座谈。', '座谈会上，市总及五县（区）总工会经审委负责人分别就本级经审会学习贯彻落实中国工会十七大、自治区总工会十二大精神和2019年经审工作安排及近年来经审工作的经验做法和存在问题进行了汇报。市总工会党组副书记、常务副主席王世明结合汇报内容就支持做好固原市工会经审工作作了表态。一是严格预算编制，各项费用的支出要严格按照预算执行，并切实做好预算调整和年末决算；二是严控“三公”经费支出，严格按照八项规定要求管理执行；三是调整配备专职经审工作人员，聘请专业会计师常年担任特邀审计员，进一步加强工会经审队伍建设；四是加强基层工会组织规范化建设，坚持工会经审组织与工会委员会同时考察、同时报批、同时选举，为推动经审工作开展提供坚实的组织保证。王世明还就基层工会经审工作专业人才缺乏、在岗人员业务不精等问题，向自治区总工会经审会提出了加大对基层工会经审人员有重点、有针对的业务培训力度，不断提高基层工会经审队伍素质的建议。', '在听取了汇报后，自治区总工会经审会主任闫灵对固原工会经审工作开展情况给予了充分肯定，要求各级经审组织要主动作为，积极争取党政的大力支持。她强调加强党的领导是做好经审工作的首要政治任务，2019年工会经审工作要围绕中心、服务大局，认真做到“五个着力加强”。一是着力加强思想政治建设；二是着力加强审计监督理念创新；三是着力加强审计规范化建设；四是着力加强审计质量提高；五是着力加强审计干部队伍建设。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>292</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>固原市科技局关于印发科技扶贫项目管理办法试行的通知</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2018-03-21</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201803/t20180321_712714.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['第一条 为深入贯彻落实固原市委市政府《关于贯彻自治区脱贫富民战略建设全国脱贫攻坚示范市实施方案》《固原市关于贯彻党的十九大精神实施脱贫富民战略坚决打好精准脱贫攻坚战行动方案》，充分发挥科技创新在精准扶贫、精准脱贫中的支撑引领作用，推进乡村振兴战略，经与自治区、县（区）科技管理部门共同协商，切实推进科技扶贫项目管理的科学化，规范化、制度化，结合工作实际，特制定本办法。', '第二条 本办法适用于固原市科学技术局主管的整合自治区、市、县（区）三级科技扶贫财政资金的科技扶贫项目（以下简称项目）的立项、《XXX村科技扶贫项目实施方案》的制定、实施监管、资金拨付、验收评估等管理工作。', '第三条 项目通过聚集科技、人才、信息、资源、管理等先进生产要素，强化新品种、新技术、新设备、新成果的引进示范推广和科技服务，推进“科技特派员+公司+合作社+基地+农户”科技扶贫模式，培育一批科技扶贫示范户，力促粮食和草畜、马铃薯、冷凉蔬菜、特色种养“1+4”特色农业产业升级、农业增效和农民脱贫致富。项目重点支持固原市深度贫困县（区）所属的贫困村，原则上重点支持“一村一品”产业培育。', '第四条 项目是在所在县（区）扶贫、农牧、科技主管部门推荐基础上，经市科技局调研筛选，联合财政、纪检监察组研究立项后组织实施。', '（一）实施方案要明确实施文件、实施对象、实施内容、实施措施、资金预算和验收标准等，做到“五个精准”，即精准识别扶贫对象、精准制定实施计划、精准落实技术措施、精准使用资金、精准评价扶贫绩效，确保项目按计划有序实施。', '（二）技术措施要根据各产业技术示范内容，集成《技术标准操作规程》，以其为主要教材对农民实施技术培训，确保技术措施落实到生产过程。', '第六条 项目实施团队包括市、县（区）项目负责人，经县（区）农牧（科技）局推荐，选聘的科技特派员、三区人才、科技扶贫指导员、龙头企业（合作社），乡镇村组干部（驻村工作队）和农户。', '（一）市科技局是科技扶贫项目的管理部门，根据职能及相关规定单独或会同其他职能部门对项目进行综合协调管理，每个科（室）负责1—2个村。职责包括：项目组织、管理、服务、监督和评价；对项目推荐部门、项目承担单位、项目负责人、专业机构进行协调指导；委托评估验收机构进行工作评估验收；协调解决项目管理中的其他事项。', '（二）县（区）农牧（科技）局、乡镇、村组各安排1名负责人，职责包括：协助市科技局及委托的评估验收机构工作，负责本地区、本单位项目审核、推荐和管理工作；对项目承担单位和科技特派员进行指导、监督和服务；协调解决项目实施中的困难和问题。', '（三）各科技特派员（三区人才、科技扶贫指导员）职责包括：负责编制并按照《科技扶贫项目实施方案》组织实施项目；根据需要外出考察学习，引进示范推广新品种、新技术、新设备、新成果和开展定制化科技服务；实施科技培训与咨询服务，收集项目实施的各类资料；定期要向市科技局、各县（区）农牧局专题汇报项目实施进展情况及总结工作中的做法经验。', '（四）龙头企业（合作社）职责包括：负责组织科技扶贫户落实耕地、劳动力、饲草料等基本生产资料投入；落实技术措施；开展生产经营，收购科技扶贫户的特色农产品，引领产地加工，延伸产业链条，拓展产品销路。', '第七条 项目资金实施管理由市科技局、县（区）科技管理部门和所在村分级管理。项目资金重点用于引进示范推广优良品种、先进适用技术和相关生产资料、支持开展农村科技培训与咨询服务、农村信息化、科技示范基地建设等。', '（一）市科技局经局务会议研究后审批下达项目资金，并邀请和接受财政、纪检监察组对项目资金的监督检查。', '（三）龙头企业（合作社）及所在乡（镇）负责项目资金的具体开支，经费要经科技特派员、乡镇村组干部（驻村工作队）、龙头企业（合作社）负责人会议研究审定在村组公开后开支。', '（四）科技特派员服务经费从科技特派员项目以项目形式拨付县（区）科技管理部门，具体按《自治区科技特派员创业行动项目资金管理暂行办法》（宁财（教）发〔2014〕373号）执行。', '（五）对弄虚作假、截留、挪用和挤占项目资金等违纪违法行为的项目实施主体，将依照有关规定取消有关组织今后三年内实施项目的资格，并向社会公告。', '第七条 项目的日常检查、中期评估、结题验收的组织工作由市科学技术局委托相关机构开展。', '（一）评估验收时，由项目主管科室委托第三方从固原市科技咨询专家库、中介机构抽取相关人员成立项目评估验收小组，进行评审，并形成项目验收意见。', '（二）评估验收采取会议汇报、材料核查和现场验收等方式。提供验收资料主要包括：项目实施方案和总结、绩效评估材料、涉及技术经济指标的有关证明材料、项目经费决算表、验收专家组意见等。 （三）验收结论分为通过验收、不通过验收和延期。未通过验收的项目，在一年内经整改完善后，可再次提出验收申请；申请延期的项目必须由承担单位向市科技局递交申请延期报告，作为以后项目立项审查的重要依据。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>292</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>市人力资源和社会保障局开展主题宣讲活动深入学习贯彻习近平总书记视察宁夏重要讲话和重要指示批示精神</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/hygk/bmhy/202212/t20221201_3868652.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['市人力资源和社会保障局开展主题宣讲活动 深入学习贯彻习近平总书记视察宁夏重要讲话和重要指示批示精神_固原市人民政府', '市人力资源和社会保障局开展主题宣讲活动 深入学习贯彻习近平总书记视察宁夏重要讲话和重要指示批示精神', '为持续深入学习贯彻习近平新时代中国特色社会主义思想，认真学习领会习近平总书记视察宁夏重要讲话和重要指示批示精神，6月6日，市人力资源和社会保障局开展主题宣讲活动，邀请固原市委讲师团团长刘东同志作习近平总书记视察宁夏重要讲话和重要指示批示精神主题宣讲。局系统全体干部、职工参加会议。', '会上，刘东同志围绕习近平总书记视察宁夏重要讲话和重要指示批示精神，从“深切感恩习近平总书记对宁夏的深情厚爱，衷心拥戴人民领袖”、“深刻感悟习近平总书记视察宁夏重要讲话和重要指示批示精神的真理力量和实践伟力”、“以高度的政治自觉推动习近平总书记视察宁夏重要讲话和重要指示批示精神进一步落地生根、开花结果”三个方面深入浅出地进行了宣讲。宣讲过程脉络清晰、语言通俗，通过鲜活的事例和精辟深刻的见解进一步加深了局系统干部职工对习近平总书记视察宁夏重要讲话和重要指示批示精神丰富内涵的理解和把握。', '会议强调，习近平总书记视察宁夏重要讲话和重要指示批示，从政治的、战略的、全局的高度，科学回答了宁夏各项事业发展的一系列重大理论和实践问题，擘画了建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏的宏伟蓝图、重大战略、实践路径，是宁夏发展的总遵循、总原则、总纲领。人社部门全体干部职工一要不断提高政治站位和思想高度，更加紧密地团结在以习近平同志为核心的党中央周围，以习近平新时代中国特色社会主义思想为指导，继续深入学习贯彻习近平总书记视察宁夏重要讲话和重要指示批示精神。二要深入学习领会习近平总书记视察宁夏重要讲话和重要指示批示的重大意义、深刻内涵和实践要求，深学细学、入脑入心，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”、捍卫“两个确立”，始终沿着习近平总书记指引的方向前进，真正学习好、领会好、把握好习近平总书记视察宁夏重要讲话和重要指示批示的精神实质。三要切实把学习成效转化为推进工作落实的具体行动，抢抓机遇、乘势而上，只争朝夕、苦干实干，为谱写建设黄河流域生态保护和高质量发展先行区、全面建设社会主义现代化固原新篇章贡献人社力量，以优异成绩迎接党的二十大及自治区第十三次党代会胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>292</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>市委市政府深入贯彻落实习近平总书记来宁视察重要讲话精神</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2016-08-05</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201608/t20160805_377757.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['市委、市政府深入贯彻落实习近平总书记来宁视察重要讲话精神。8月4日，自治区党委常委、市委书记纪峥，市长马汉成带领市扶贫、财政、住 建、交通、农牧、旅游、规划等部门单位负责人深入泾源县大湾乡杨岭村，与干部群众座谈交流，“把脉”该村未来发展。纪峥强调，各级领导干部及广大群众要切 实把总书记的重要讲话精神和对群众的亲切关怀转化为决战脱贫攻坚的强大精神动力，树立新观念，建设新村庄，发展新产业，创造新生活，把杨岭村打造成为宁夏 新农村的样板村。', '7月18日，习近平总书记来到泾源县大湾乡杨岭村看望父老乡亲，实地考察精准扶贫情况。总书记察看村容村貌，向当地干部了解村子脱贫情况，叮嘱当地干部： “把基层党组织和基层政权建设好，团结带领广大群众奔小康。我们还要更上一层楼!”为此，自治区党委、政府高度重视，要求我市一定不能辜负总书记的关怀与 重托，要把杨岭村建设好，让当地群众过上好日子。', '座谈会上，纪峥、马汉成与县、乡、村干部及党员代表、致富带头人和村民代表座谈交流，听取了无锡市现代新农村规划发展有限公司、银川市规划建筑设计研究院有限公司就美丽乡村建设的规划思路，听取我市相关部门就杨岭村未来发展提出的意见建议。', '纪峥强调，广大干部群众要充分认识总书记重要讲话精神的重大意义，切实把党中央对民族贫困地区的深厚感情和总书记的亲切关怀转化为激发干部群众对美好生活的向往、打赢脱贫攻坚战的强大动力。', '纪峥强调，要把杨岭村建成宁夏新农村的样板村。树立新观念，转方式、变思路，拓宽眼界和视野，组织村干部、党员、村民代表外出学习先进的理念和经验，以新 的精神风貌、新的姿态、新的作为推动发展。建设新村庄，将水、电、路、通信、集污等基础设施与养老、教育、卫生等统筹规划建设，着力打造看得见山、望得见 水、记得住乡愁的美丽乡村。', '发展新产业，借助自然资源、地理优势、文化资源、交通资源、产业优势等，大力发展乡村旅游业。创造新生活，进一步改善民生，提升群众的文化素养，加强民风 建设，加强和创新社会治理。打造样板村的过程中，积极探索政府、市场、群众力量共同发力的结合点，通过村企互助等方式，建立科学规范的体制机制，探索可复 制的经验做法;要统筹谋划长远发展，准确定位杨岭村未来发展方向，高标准制定美丽乡村旅游规划，跨村连片集中开发，分步实施基础设施建设、产业发展;加强 基层党组织建设，配强班子，带好队伍，抓好落实，带领当地群众脱贫奔小康。', '马汉成指出，杨岭村发展旅游业潜力很大，要做好规划，基础设施建设要先行，增强自我发展能力。对标市场需求，调结构、转方式，促进产业升级。引进大型企 业，引领产业发展与高端市场的对接，把产业做大做强。同步推进社会治理，强化社会化服务功能，通过系统化的建设与发展，力争走出一条生态美、产业强、百姓 富的转型发展之路。(记者 马瑞)']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>292</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>李邑飞在吴忠市固原市调研时强调用心感悟总书记深厚革命情怀和为民情怀全面加强全区当前防灾减灾保安全工作</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202407/t20240701_4581564.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['李邑飞在吴忠市固原市调研时强调 用心感悟总书记深厚革命情怀和为民情怀 全面加强全区当前防灾减灾保安全工作_固原市人民政府', '李邑飞在吴忠市固原市调研时强调 用心感悟总书记深厚革命情怀和为民情怀 全面加强全区当前防灾减灾保安全工作', '6月29日至30日，自治区党委书记李邑飞到吴忠市红寺堡区和固原市隆德县、西吉县，调研粮食安全、农作物受灾减灾、地质灾害隐患点防治等安全防范情况，参观六盘山红军长征纪念馆和将台堡红军长征会师纪念园，强调要深入学习贯彻习近平总书记考察宁夏重要讲话精神，用心感悟总书记深厚革命情怀和真挚为民情怀，缅怀革命先烈、不忘初心使命，坚持人民至上，把安全生产治本攻坚三年行动与保安全工作紧密结合起来，加强当前防灾减灾、交通安全、矿山危化等安全生产工作，全力保障群众生命财产安全，坚决扛起历史重任，绝不辜负总书记和人民重托。', '近日我区部分地区遭受暴雨、冰雹、山洪灾害，造成农作物不同程度受损。李邑飞首先来到红寺堡区柳泉乡柳泉村，实地察看玉米、黄花菜受灾情况，指出要全面摸清灾情影响，加强作物抢收、应急补种，强化预警监测、防范应对，及时兑现保险赔偿，尽可能把损失降到最低，帮助受灾农户渡过难关。在隆德县陈靳乡民联村，李邑飞详细询问滑坡、泥石流等地质灾害防治情况，现场抽查应急响应并针对问题杀“回马枪”。他强调，人命关天，不能有一点形式主义，更不能有丝毫麻痹大意。要高度警惕“黑天鹅”事件，严密防范“灰犀牛”事件，尤其要关注那些容易被忽视的小部位和不经意冒出来的“小隐患”，有针对性采取系统治理、综合防范措施，全面加强各项安全工作，全力保障群众生命财产安全。要坚持问题导向，以科学求实的态度精准抓好风险排查、预警监测、值班值守、应急处置、安全评估等工作，严格落实预案，加强疏散演练，一旦出现险情迅速响应、高效处置。要在提高技防水平的基础上，强化人防力量、发挥人防作用，在岗在位、各负其责，确保万无一失。要整合资金和项目，按照轻重缓急，下决心把重点风险区群众搬出去，保质保量完成搬迁安置工程。', '6月30日，李邑飞在固原市隆德县陈靳乡民联村，详细了解滑坡、泥石流等地质灾害防治情况。', '在中国共产党成立103周年之际，李邑飞冒雨来到六盘山红军长征纪念馆和将台堡红军长征会师纪念园，瞻仰纪念碑，向革命烈士敬献花篮，表达对革命先烈的无限追思，重温波澜壮阔的长征史诗，深刻感悟伟大长征精神。他动情地说，无数革命先烈前赴后继开辟了长征路，要缅怀先烈、不忘初心，大力弘扬不到长城非好汉的革命精神和长征精神，赓续红色血脉，汲取奋斗力量，加快建设美丽新宁夏，继续走好我们这一代人新的长征路。李邑飞还专程走访慰问了原州区三营镇安和村党支部、泾源县大湾乡杨岭村党支部和原州区彭堡镇惠德村58年党龄的老党员单玉英，感谢她为党奉献了一辈子、付出了一辈子，勉励她继续发挥先锋模范作用，带领党员群众感党恩、听党话、跟党走，把日子过得红红火火。李邑飞代表自治区党委，向全区广大共产党员致以节日问候。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>292</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>习近平发展新质生产力是推动高质量发展的内在要求和重要着力点</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202406/t20240603_4556707.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['今天进行二十届中央政治局第十一次集体学习，内容是扎实推进高质量发展，目的是结合学习贯彻党的二十大和中央经济工作会议精神，总结新时代高质量发展成就，分析存在的突出矛盾和问题，探讨改进措施，推动高质量发展取得新进展新突破。', '2024年3月5日，中共中央总书记、国家主席、中央军委主席习近平参加他所在的十四届全国人大二次会议江苏代表团审议。新华社记者 鞠鹏/摄', '党的十八大以来，我们全面贯彻新发展理念，不断深化对我国经济发展阶段性特征和规律的认识，更加强调发展的高质量，党的十九大报告宣告“我国经济已由高速增长阶段转向高质量发展阶段”，党的二十大报告强调“高质量发展是全面建设社会主义现代化国家的首要任务”。新时代以来，党中央作出一系列重大决策部署，推动高质量发展成为全党全社会的共识和自觉行动，高质量发展成为主旋律。近年来，我国科技创新成果丰硕，创新驱动发展成效日益显现；城乡区域发展协调性、平衡性明显增强；改革开放全面深化，发展动力活力竞相迸发；绿色低碳转型成效显著，发展方式转变步伐加快，高质量发展取得明显成效。', '同时，制约高质量发展因素还大量存在。从外部环境看，世界百年未有之大变局全方位、深层次加速演进。从内在条件看，我国一些领域关键核心技术受制于人的局面尚未根本改变，城乡区域发展和收入分配差距依然较大，掣肘经济社会高质量发展。从工作推进情况看，有的领导干部认识不到位，实际工作中一遇到矛盾和困难又习惯性回到追求粗放扩张、低效发展的老路上；有的领导干部观念陈旧，名曰推动高质量发展、实际上“新瓶装旧酒”；有的领导干部能力不足，面对国内外新环境新挑战，不知如何推动高质量发展，等等。对这些问题，要高度重视，切实解决。我们必须牢记高质量发展是新时代的硬道理，完整、准确、全面贯彻新发展理念，把加快建设现代化经济体系、推进高水平科技自立自强、加快构建新发展格局、统筹推进深层次改革和高水平开放、统筹高质量发展和高水平安全等战略任务落实到位，完善推动高质量发展的考核评价体系，为推动高质量发展打牢基础。', '发展新质生产力是推动高质量发展的内在要求和重要着力点。这里，我重点就此谈一些认识。', '去年7月以来，我在四川、黑龙江、浙江、广西等地考察调研时，提出要整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。12月中旬，在中央经济工作会议上，我又提出要以科技创新推动产业创新，特别是以颠覆性技术和前沿技术催生新产业、新模式、新动能，发展新质生产力。我提出新质生产力这个概念和发展新质生产力这个重大任务，主要考虑是：生产力是人类社会发展的根本动力，也是一切社会变迁和政治变革的终极原因。高质量发展需要新的生产力理论来指导，而新质生产力已经在实践中形成并展示出对高质量发展的强劲推动力、支撑力，需要我们从理论上进行总结、概括，用以指导新的发展实践。', '什么是新质生产力、如何发展新质生产力？我一直在思考，也注意到学术界的一些研究成果。概括地说，新质生产力是创新起主导作用，摆脱传统经济增长方式、生产力发展路径，具有高科技、高效能、高质量特征，符合新发展理念的先进生产力质态。它由技术革命性突破、生产要素创新性配置、产业深度转型升级而催生，以劳动者、劳动资料、劳动对象及其优化组合的跃升为基本内涵，以全要素生产率大幅提升为核心标志，特点是创新，关键在质优，本质是先进生产力。', '新质生产力的显著特点是创新，既包括技术和业态模式层面的创新，也包括管理和制度层面的创新。必须继续做好创新这篇大文章，推动新质生产力加快发展。', '第一，大力推进科技创新。新质生产力主要由技术革命性突破催生而成。科技创新能够催生新产业、新模式、新动能，是发展新质生产力的核心要素。这就要求我们加强科技创新特别是原创性、颠覆性科技创新，加快实现高水平科技自立自强。要深入实施科教兴国战略、人才强国战略、创新驱动发展战略，坚持“四个面向”，强化国家战略科技力量，有组织推进战略导向的原创性、基础性研究。要聚焦国家战略和经济社会发展现实需要，以关键共性技术、前沿引领技术、现代工程技术、颠覆性技术创新为突破口，充分发挥新型举国体制优势，打好关键核心技术攻坚战，使原创性、颠覆性科技创新成果竞相涌现，培育发展新质生产力的新动能。', '2024年5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照港察看全自动化集装箱码头作业场景。新华社记者 鞠鹏/摄', '第二，以科技创新推动产业创新。科技成果转化为现实生产力，表现形式为催生新产业、推动产业深度转型升级。因此，我们要及时将科技创新成果应用到具体产业和产业链上，改造提升传统产业，培育壮大新兴产业，布局建设未来产业，完善现代化产业体系。要围绕发展新质生产力布局产业链，推动短板产业补链、优势产业延链、传统产业升链、新兴产业建链，提升产业链供应链韧性和安全水平，保证产业体系自主可控、安全可靠。要围绕推进新型工业化和加快建设制造强国、质量强国、网络强国、数字中国等战略任务，科学布局科技创新、产业创新。要大力发展数字经济，促进数字经济和实体经济深度融合，打造具有国际竞争力的数字产业集群。要围绕建设农业强国目标，加大种业、农机等科技创新和创新成果应用，用创新科技推进现代农业发展，保障国家粮食安全。', '第三，着力推进发展方式创新。绿色发展是高质量发展的底色，新质生产力本身就是绿色生产力。我们必须加快发展方式绿色转型，助力碳达峰碳中和。要牢固树立和践行绿水青山就是金山银山的理念，坚定不移走生态优先、绿色发展之路。加快绿色科技创新和先进绿色技术推广应用，做强绿色制造业，发展绿色服务业，壮大绿色能源产业，发展绿色低碳产业和供应链，构建绿色低碳循环经济体系。持续优化支持绿色低碳发展的经济政策工具箱，发挥绿色金融的牵引作用，打造高效生态绿色产业集群。同时，在全社会大力倡导绿色健康生活方式。', '第四，扎实推进体制机制创新。生产关系必须与生产力发展要求相适应。发展新质生产力，必须进一步全面深化改革，形成与之相适应的新型生产关系。新质生产力既需要政府超前规划引导、科学政策支持，也需要市场机制调节、企业等微观主体不断创新，是政府“有形之手”和市场“无形之手”共同培育和驱动形成的。因此，要深化经济体制、科技体制等改革，着力打通束缚新质生产力发展的堵点卡点，建立高标准市场体系，创新生产要素配置方式，让各类先进优质生产要素向发展新质生产力顺畅流动。同时，要扩大高水平对外开放，为发展新质生产力营造良好国际环境。', '第五，深化人才工作机制创新。要按照发展新质生产力要求，畅通教育、科技、人才的良性循环，完善人才培养、引进、使用、合理流动的工作机制。要根据科技发展新趋势，优化高等学校学科设置、人才培养模式，为发展新质生产力、推动高质量发展培养急需人才。要着力培养造就战略科学家、一流科技领军人才和创新团队，着力培养造就卓越工程师、大国工匠，加强劳动者技能培训，不断提高各类人才素质。要健全要素参与收入分配机制，激发劳动、知识、技术、管理、资本和数据等生产要素活力，更好体现知识、技术、人才的市场价值，营造鼓励创新、宽容失败的良好氛围。', '※这是习近平总书记2024年1月31日在二十届中央政治局第十一次集体学习时的讲话。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>292</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>乘坐包机去就业</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202402/t20240228_4470356.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['“外出务工可以学到更多技能，对自己也是一种锻炼，我可以照顾好自己，你们放心吧！”2月26日，宁夏飞毛腿技工学校学生王彤彤打电话向家人报平安。', '当天，在原州区，王彤彤和宁夏飞毛腿技工学校的其他59名学生及原州区10名返岗人员一样，带着家人的期望，怀揣着梦想，乘坐免费大巴车前往福建，开启新一年的就业之路、学习之旅。这是原州区春节后向福建输送的第二批务工人员。其中，来自宁夏飞毛腿技工学校的60名学生平均年龄18岁，今年即将毕业，此次赴闽务工为他们提供实习岗位和就业机会。登记信息、购买“铁杆庄稼保”，办理好各项手续后，大家有序登上大巴，准备启程。“去福建的车票是免费的，我觉得特别暖心。”王彤彤说。', '就业是最基本的民生，增收是百姓最关注的问题。市委五届十次全会提出的“更加突出就业优先导向，完善落实稳就业政策措施，推动‘山海联动、山川联动、市县联动’就业促进机制”为我市就业工作指航定向。市委、市政府也将“就业创业”列为10大民生实事的一号工程，为全年就业工作“把脉开方”。', '同一天，43名务工人员在彭阳县人社部门的组织下，前往福建厦门新凯复材科技有限公司、信华科技（厦门）有限公司等公司从事一线操作工作。“感谢政府的大力支持，我是第二次去福建厦门务工，希望通过自己努力，事业能蒸蒸日上。”对此次务工，伏旭充满期待。', '为抢抓春节前后劳动者换岗流动高峰期和企业复工复产关键期，我市提早谋划，成立工作专班，与福建省福州市、厦门市人社部门开展座谈，组织闽籍企业深入乡镇、村（社区）摸底，与当地企业进行用工登记，提供就业岗位。组建考察组，与中卫、吴忠、宁东管委会等地人社部门联系对接，深入企业车间“访企探岗”，精准开展区内劳务对接，签订劳务合作意向协议。', '“年初，人社部门工作人员为我们讲解了福建企业的薪资待遇和外出务工的利好政策，这次还包机免费送我们到务工地点，心里感到特别温暖。”2月19日，我市160余名务工人员乘坐包机“点对点”直达福建省务工，务工人员马春雷说。', '自“春风行动”开展以来，我市全力开展务工人员赴闽就业“点对点”输送工作，发挥劳务站职能，联系优质企业，组织召开劳务协作专场招聘会，以线上微信公众号宣传、抖音直播等方式发布各类招聘信息，组织工作人员以村（社区）为单位，深入开展政策入户、送岗入户等工作。同时，积极扩展企业范围，密切关注务工人员的需求，以赴闽就业为中心，不断向其他地区拓展，为务工人员提供更多的优质岗位和企业选择。去年，全市务工创收75亿元，在闽稳定就业1万人以上。今年截至目前，全市“点对点”输送务工人员返岗623人。', '“我们将继续在‘山海联动’上拓展运用，建立‘校企合作、订单培训、精准就业’人才培养模式，深化宁夏飞毛腿技工学校校企合作办学模式，在原州区公共实训基地和闽宁电子产业园中实现‘校中厂’，定向培养输送技能人才。探索‘政府引导、市场运作、能人带动’转移就业形式，落实跨省奖补政策，最大限度释放政策红利，持续开展‘就业援助月’等‘10＋N’公共就业专项服务活动，动员更多‘三类’监测对象等劳动力前往东部沿海和长三角、珠三角地区就业致富。”市人社局相关负责人说。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>292</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>海归群体从两会感受奋进力量我们赶上了一个伟大时代</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202005/t20200527_2101496.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['兼具中外教育背景的海归群体，将个人梦想融入中华民族伟大复兴事业之中，成为中国建设与发展中不可或缺的一支重要力量，他们既是见证者、受益者，也是参与者、推动者。今年全国两会上传递出催人奋进的信号，让他们得到更大的鼓舞和动力。“我们赶上了一个伟大时代”，这是海归们共同的心声。', '今年政府工作报告提出，推动教育公平发展和质量提升。扩大高校面向农村和贫困地区招生规模。这让13年前回国投身民办教育事业的杨保成，看到了更清晰的发展方向。他认为，中国高等教育正处于从量变到质变的转型期，为海归提供了广阔的发展空间。“扩大高校面向农村和贫困地区招生规模，此举有利于推动教育公平进一步发展，发挥教育扶贫的独特作用。”杨保成说。', '武汉协和医院感染科主任医师赵雷，曾是美国哈佛大学医学院麻省总医院博士后。“在医学领域，对比国内外医疗条件和技术条件，国内有宽广的发展平台，而且这个平台越来越好。”赵雷认为，海归其实非常看重回国之后能否有用武之地，“从这方面来说，如今正是海归施展拳脚的大好时机。”', '自主创业是不少海归的选择。2017年底，28岁的陈安迪开启了创业之路，他和同学创立了帷幄匠心科技（杭州）有限公司。“中国创新创业浪潮为年轻人提供了难得的机会。”一路走来，陈安迪的感受是，如果希望在创业方面有所成就，那么国内有非常好的创业土壤，相关投资机构对创新的支持度也很高，更有来自政府实实在在的帮助。', '今年1月起，赵雷就一直奋战在抗疫一线，全力救治新冠肺炎患者。他也在不断思考，如何把抗疫中形成的好经验好做法总结出来、推广开来。', '“政府工作报告提出，加强公共卫生体系建设。坚持生命至上，改革疾病预防控制体制，完善传染病直报和预警系统，坚持及时公开透明发布疫情信息。”赵雷认为，这话说到他心坎上了，“放眼未来，我们应树立大健康理念，为人民群众提供全方位、全周期、高质量的公共卫生服务，加快推进健康中国建设。这对我们医疗领域的海归提出了新要求。”', '“创新无止境，数字化转型推进教育变革大有可为。”目前已担任黄河科技学院副校长的杨保成说，中西教育经历是海归的优势，将这一优势用于教育领域，不仅可以将国外先进的教育理念、学校运营经验等引进国内，还可以将国外的很多资源带回国内。', '作为帷幄匠心的联合创始人，陈安迪带领的是一支平均年龄27岁的团队，核心成员几乎都有海外留学背景。公司致力于提出基于人工智能和物联网的数字化解决方案，主要针对零售业。“今年政府工作报告提出，深入推进大众创业万众创新。”陈安迪说，“我们要用好相关政策，在发展事业的同时，为祖国建设尽一份力。”', '作为中外交流的桥梁和纽带，海归正成为民间外交的重要力量之一，在中国走向世界、世界了解中国的过程中有着特殊作用。', '“无论是科教领域还是其他领域，文化交流、人文交流必不可少。”杨保成认为，在经济全球化背景下，通过文化交流、文明互鉴，可以消除误解，推动社会及人类的进步。“架设交流沟通桥梁，让世界读懂中国，让中国融入世界，海归可以起到纽带作用，减少双方的误读。”', '“正如政府工作报告所说，积极参与全球治理体系建设和改革，推动构建人类命运共同体。其中，经济交流发挥着重要作用，中外企业互动是一个有效的沟通方式。”陈安迪说，“我们带客户参观一些知名的互联网公司，让他们和这些公司的高管一起探讨。我们也借助公司核心成员的海外学习背景牵线搭桥，带中国客户到国外考察当地企业。这正是中西方企业理念融合的有效方式。”', '“作为海归医务人员，可以搭建双向交流平台，既将国外先进医疗技术及理念带回国内，也将中国的医疗经验介绍到国外，推动国内医学领域发展与国际接轨。”赵雷说，“我们赶上了一个伟大的时代，承担新使命，作出新贡献，海归大有可为。”（记者 赵晓霞）']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>292</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>关于市属国企国有资产管理工作的报告</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202201/t20220113_3282018.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['。为进一步增强国企国有资产监管力量，今年在新一轮机构改革中将市国资委单独设立，成为市政府工作部门，国资国企监管机构基本完善。', '制定出台《市属国有企业“三重一大”事项报告制度》，对“三重一大”事项从决策原则、决策程序、报告程序等方面进行详细规范，明确审批事项', '；出台《固原市属国有企业负责人履职待遇业务支出管理暂行办法》，规范市属国企负责人履职待遇、业务支出行为。', '制定《关于固原市属国有企业功能定位经营范围运营机制的通知》，明确市属国企的功能定位、企业分类等，实行分类监管、分类定责、分类考核；出台《固原市属国有企业负责人经营业绩考核暂行办法》，并于', '年度经营业绩考核目标责任书》，进一步靠实国有资本保值增值责任；印发《固原市属国有企业负责人薪酬实施方案》，建立与企业功能定位相适应、与负责人选任方式相匹配、与企业职工收入分配关系相协调的企业负责人薪酬制度。', '《固原市属国有资本收益收取管理暂行办法》，确保市属国有企业国有资本收益及时足额上缴。', '始终坚持市场导向，紧紧围绕增强国有企业活力、优化国有经济布局、提高国有资本效率，持续深入推进国有企业改革。', '月，在充分调研、论证的基础上，印发了《固原市属国有企业监管体系建设工作实施方案》，将部门属', '以来，对建设、劳动就业、房管等部门所属企业进行清产核资，逐步与所属部门脱钩移交，理顺国有企业隶属关系，国有企业监管体系基本建立。', '为实施棚户区改造项目和城市拆迁改造工程，组建了九龙城市建设集团公司，作为城市基础设施建设的主体；整合公交、公路勘测、设计、施工企业组建了交通集团公司，作为公共交通基础设施投融资主体和政府公益性公共交通服务平台；以辖区六盘山等几个景区为主组建了旅游集团公司，作为推动文化旅游产业融合的投融资主体；以担保、小额贷款等为主组建了产业扶贫集团公司，作为实施脱贫攻坚战略的投融资主体；为推动新型工业化园区开发建设，组建了固原开发区投资发展公司。市属国有企业由原来的', '家集团公司董事会（决策）、经理层（执行）、监事会（监督）三大权力运行体系基本建立。', '结合市属国企实际，拟对固原市水利勘测设计院进行员工持股混合所有制改革试点，逐步推行国有企业混合所有制改革。', '制定市属国有企业公务用车制度改革方案，确定市属国有企业公务用车制度改革的范围和补贴标准，完成了市属国有企业公务用车制度改革。', '。成立以来，始终把加强党对国有企业的领导作为国有企业监管的根本，充分发挥党的领导核心作用。', '深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，推动党中央、区、市各项决策部署在国有企业落实落地。', '督促企业将党建工作要求写入公司章程，落实企业党组织在企业治理结构中的法定地位；制定完善党委会、董事会、总经理办公会议事规则，确保党组织讨论是董事会、经理层决策重大问题的前置程序；开展党支部标准化建设，组织国企党务工作者赴区属国企考察党建工作，制定《国有企业党支部标准化建设实施方案》，印发《指导手册》，开展党支部标准化建设，并组织对标准化建设成果进行观摩，互学互比。', '家集团公司党组织反馈意见，组织企业原原本本学，统一思想、深刻反思、诚恳接受，制定问题整改清单，一项盯着一项整改销号。', '一些企业董事会没有设立相应的投资委员会和内部审计委员会，或设立了相应机构，但作用发挥不够，企业运行风险较大，管控能力不强。', '少，行政化管理色彩较浓，管理链条过长，对市场研判不够、把握不准、反应不灵敏、应对能力不足', '近年来，受经济下行和市场环境影响，企业普遍经营困难，尽管部分行业市场回暖，效益逐步好转，但经营形势依然严峻，稳增长压力依然很大。', '党的十九大对“完善各类国有资产管理体制、深化国有企业改革”提出了明确要求。下一步，', '紧盯国有企业风险管控，从制度建设、内控机制、风险防范等层面精准施策，不断优化国资监管，全面加强国企党建，着力推进国资国企监管再上台阶。', '以习近平新时代中国特色社会主义思想和党的十九大精神为指导，坚持党对国有企业的领导，认真贯彻落实全国、区、市党建工作会议精神，实施“国企党建质量提升工程”，用三年时间，以一年“规范”、两年“推进”、三年“提升”着力破解国有企业党建工作存在问题，全面落实党建和党风廉政建设各项工作任务，为市属国有企业健康发展提供坚强组织保证。', '规范各类用工管理，实行与市场经济相适应的企业薪酬分配制度，建立完善考核评价体系，加强对子公司业绩考核，形成管理人员能上能下、员工能进能出、收入能增能减的市场化用人和分配机制，充分调动广大职工积极性和创造性。', '建立企业投融资风险评估和预警机制，实施动态跟踪监控，防范债务风险，对负债规模和资产负债率实行双重管控。制定《固原市属国有企业投融资及担保监督管理暂行办法》，明确单笔和全年投融资资金额度，规范市属国有企业投融资及担保行为', '建立市属国有企业监管权力清单、责任清单和负面清单“三个清单”，准确把握出资人职责定位，实施清单监管，重点管好国有资本布局、规范资本运作、提高资本回报、维护资本安全', '出台《市属国有企业领导班子和领导人员综合评价考核办法》，对国有企业领导班子和领导人员进行综合评价考核；制定企业经营业绩考核指标，对国有企业进行经营业绩考核；突出战略规划引领，紧紧围绕全市打好“六场硬仗”、建设“四个示范市”的总体思路制定企业发展战略规划，确定目标任务，合理确定主业，聚焦发展主业，加快内部资源整合，推动国有资本合理流动，不断优化国有资本布局结构，提高国有资本收益。', '《关于推进固原市属国有企业混合所有制改革的实施意见》和《固原市国有控股混合所有制企业开展员工持股试点的实施意见》，深化混合所有制改革和员工持股试点', '；开展国有企业内部人事、劳动、分配制度改革，优化集团内部组织架构及人员配备，建立现代企业人力资源制度体系。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>292</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市国资委党委关于巡察整改情况的通报社会公开稿</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2021-03-16</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202103/t20210316_2628294.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['根据市委统一部署，2020年8月12日至2020年9月30日，市委第十轮巡察第三巡察组对市国资委党委进行了巡察。2020年11月18日，巡察组向市国资委党委反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将截至2021年2月18日巡察整改进展情况予以通报。', '市国资委高度重视市委巡察反馈问题整改工作，对巡察指出的问题诚恳接受、主动认领、照单全收', '二是强化组织领导。党委高度重视，成立了市委第三巡察组巡察市国资委反馈问题整改工作领导小组，保证巡察整改工作有抓手、有落实。三是明确责任落实。党委', '条整改措施，建立了巡视反馈问题责任清单，逐一明确牵头领导、牵头单位、责任单位、整改措施和完成时限。', '四是强化监督检查。将巡察整改方案问题清单、责任清单和时间节点，纳入重点督办事项，定期督办、定期汇报，保证整改措施的有效落实。', '一是修订完善了《市国资党委理论中心组学习制度》，对学习时间、内容、方法、责任和要求等作了进一步细化和明确，落实情况每月进行一次督导检查。二是研', '月份印发的《国资国企系统学习宣传贯彻习近平总书记视察宁夏重要讲话精神实施方案》（固国资党发〔', '号）上报市委巡察办、督查室备案，持续推进学习贯彻落实措施。三是对年内党委需重点研究部署的工作要点、计划、事项和重点学习的方针政策、法律法规、文件讲话等一一列出清单，进一步明确目标要求、阶段性报送时限和具体责任人，对标落实、按点报送、定期检查，进行督办管理', '上党委班子及成员就落实意识形态工作责任，进行了重点剖析，认真研究制定整改措施。二是修订完善《市国资委网络意识形态工作制度》，于', '创建了“固原国资”微信公众号，着力强化意识形态工作。微信公众号创建以来，信息发布及时准确，国企国企系统及社会面关注人数多，各方面反响较好。', '年中共中央印发《深化党和国家机构改革方案》明确指出将国务院国有资产监督管理委员会的国有企业领导干部经济责任审计和国有重点大型企业监事会的职责划入审计署', '中央属企业不再设立外派监事会。同年，自治区属国有企业也撤销外派监事会，将对应的职能和人员划转自治区审计厅。', '年固原市机构改革中，将固原市属国有企业领导干部经济责任审计和企业监事会的职责划入市审计局。', '指导保安公司、水利勘测设计院、白马山陵园公司依法依规成立董事会，制定董事会章程；国资委党委考察任命了董事会、经理层等班子成员，配齐配强了企业班子。', '制定了《固原市属国有企业党委研究讨论重大经营管理事项清单示范文本》和《固原市属国有企业党建工作责任制实施办法（试行）》，指导企业建立权力清单和责任清单。四是', '》和《市属国有企业财务预算和决算管理办法》，指导督促企业根据业务性质制定“三重一大”决策制度。', '以国资国企“制度建设年”活动为抓手，要求九龙集团、交通集团、水利勘测设计院、保安公司对企业内控制度全面梳理，结合业务实际修订、完善各类制度，并建立了内控制度动态调整机制。惠泽公司已结合实际业务工作对', '《惠泽公司固定资产管理办法》进行修订，交通集团指导各子公司完成了对《安全生产工作制度》的修订完善。', '指导九龙集团设立投资委员会和内部审计监察室，其他未发生对外投资业务企业暂时还未成立投资委员会，今后根据企业业务实际设立相关部门。', '。此问题受制于多种因素，短时间内难以见效，需要一定的时间来扭转。目前，市国资委已起草了《国企改革三年行动方案》，固原市属国有企业“十四五”规划正在编制中，其中都将改善国有资产运营效率作为一项主要工作，同时市国资委将加强对', '增强主业规模实力，创新盈利模式，提升企业核心竞争力，使总资产报酬率指标得到持续改善。', '年“春节”期间防范非法集资宣传教育活动实施方案的通知》，组织各成员单位通过悬挂宣传条幅、张贴宣传海报、制作专题宣传公益广告、案例等方式开展线上、线下宣传。利用广播、电视、报纸和新媒体网络、微信、移动客户端，在政府网站、行业网站上和“固原金融”微信公众号等新媒体平台，开展预防和打击非法集资宣传和金融知识宣传。在全市金融网点开展常态化宣传。二是金融示范村已全部完成建设。下发了《关于组织对全市金融扶贫示范村建设情况进行验收的通知》，并于', '个金融扶贫示范村进行了验收。三是调整结余资金用途。扫黑除恶专项斗争开展以来，全市清理注销小额贷款', '家，公司受疫情和经济下行影响，多数公司没有业务，为节约和有效使用资金，将结余的小货公司审计费', '严格对照责任清单落实党委抓党风廉政建设、意识形态工作等目标任务和责任要求，认制定研究工作和听取工作情况清单，', '月部署开展了为期一个月的“机关作风整顿月”活动，集中整治机关学风、工勤纪律、工作态度、责任意识、办事效能以及“庸、懒、散、慢”等方面的问题。二是', '，进一步理顺工作机制。三是定期对机关党支部党员干部“学习强国”等学习情况进行检查通报，将其纳入公务员（职工）平时考核、年终考核。', '严格落实党委领导班子成员联系党支部制度，结合党委人事调整和基层党支部“软弱涣散”工作，经会议研究调整', '指导督促指导九龙集团建立完善集团公司党委与集团下属重点子公司党支部“双联系”制度，印发《九龙集团党委建立党员领导联系党支部工作制度》，已达到党委班子成员联系子公司党支部全覆盖。', '督促指导水利勘测设计院党支部加强党务工作者的培训教育，切实提升党务工作者的业务能力。坚持问题导向，举一反三，完善制度、健全机制，严肃党员发展程序，认真落实“双评双定”制度。督促指导保安公司党支部进一步强化主体责任落实，强化政治意识，健全完善主题党日制度。', '标准规范》《中国共产党国有企业基层组织工作条例（试行）》规定等，尽快依法依规撤销支部委员会，并选举支部书记、副书记。目前此项工作正在进行中，拟于', '规定等，尽快依法依规撤销支部委员会，并选举支部书记、副书记。目前此项工作正在进行中，拟于', '总之，市国资委将坚持以习近平新时代中国特色社会主义思想为指导，切实担负起巡视整改的政治责任，坚持问题导向和目标导向，以坚决的态度、坚定的决心、扎实的举措持续抓好整改，确保改到位、改彻底。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>292</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>住泾源民宿这里有你想要的诗和远方</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tpxw/202309/t20230920_4275581.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['如果你只为寻一处民宿小憩，领略乡村风貌、体验乡村民俗、品尝乡村美食，你可以来泾源。', '或者，你想看看蓝天晒晒太阳，吃吃烧烤吹吹风，在露台上数星星，你也可以来泾源，这里的质朴自然和细致服务，都会让你觉得不虚此行。', '泾源县依六盘山而居、临泾河水而立，县域内生态资源富集，自然环境优美，人文史承厚重，民俗文化久远，春暖夏凉，空气湿润，山清水秀，被誉为宁夏的“后花园”，优良的生态环境和深邃的人文资源，为发展民宿经济提供了得天独厚的先决条件，吸引了当地村民和投资者青睐，香水风情堡民宿就是其中之一。', '夜幕降临，华灯初上。在泾源县香水河与泾河交汇处，初秋的香水风情堡民宿青砖屋脊、土石墙体、卵石铺道，小溪潺潺流经院前，站立其中，可仰望蔚蓝星空、可远眺山峦盛景、可听风观烟雨，一壶好茶、三五好友，悠闲宁静，好不惬意。', '“竟然有这么美的民宿，住一次就会爱上这里。孩子很喜欢这种院落式民宿，坐在院子里很是惬意。”', '“寻到这里后满心欢喜，关上汉唐风的院落门，打开厢房的木格门，无丝竹之乱耳，无案牍之劳形。”……', '香水风情堡民宿为了打造高端民宿院落，聘请专业设计师规划建设了摩登民国风、汉唐复古风、现代工业风等27个风格迥异的院落，当你打开院落的一扇门便进入了自己的小世界，品茶谈心，体验生活。', '“我们民宿的建设填补了泾源县高端旅游住宿产品的短板，风格不同的院落可以满足不同的审美喜好和不同年龄段游客需求。”香水风情堡民宿运营经理唐昭旭介绍说。', '香水风情堡民宿是泾源县重点打造的精品民宿之一，由树木环绕花景和大田花海组成，是集旅游观光、休闲避暑、旅游扶贫于一体的乡村旅游示范点，基础设施建设项目实现了村容绿化、环境美化，使乡村蕴含的生态美景、田园风光、民俗风情的价值得以体现和开发，乡村特有的传统工艺、农耕文化得到传承和发扬，真正实现了“望得见山、看得见水、记得住乡愁”。', '如果你想寻找原汁原味烟火气的民宿，可以来到泾河源镇河北村，这里依山临水、气候宜人，在这里既能饱览泾源生态之美，感受泾源乡愁与乡情，又能品尝特色小吃，体验乡村旅游之乐。', '走进河北村，一排排整齐划一的农家小院极具民俗特色，院落粉刷一新，干净整洁，新铺的彩虹步道平整宽敞，尽显美观。在村里有一家以村民自建房为主，颇具农家气息的红云民宿，由当地村民李云一手打造。', '李云在外打拼多年，出于对家乡的感情，回到河北村在自家房子基础上改造了农家乐。随着消费升级，传统农家乐已经不能满足消费者的乡村度假需求，意识到这一点的李云外出考察、学习，将农家乐改造升级为颇具烟火气的红云民宿，民宿主打的泾源蒸鸡、金枝玉叶等特色菜一度成为各大网络平台热议的话题。“平时会在各个网络平台做推广，从开业以来也积累了一些客源，不管是哪里来的顾客，我们的特色美食一直很受欢迎。”李云说，目前民宿有11间客房，欢迎四面八方的朋友来泾源县吃泾源美食、看泾源美景，让泾源特产填满你的后备箱。', '大乐山生态园等民宿，星罗棋布地分布在泾源县胭脂峡、野荷谷、小南川、老龙潭、六盘山国家森林公园等景区周边。民宿的悠闲、宁静、简朴都深深地刻在了当地的一花一草']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>292</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>宁夏固原经济开发区党工委关于巡察整改情况的通报社会公开稿</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202209/t20220901_3730041.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['2022年3月8日至4月29日，第一巡察组对宁夏固原经济开发区党工委进行了巡察。5月25日，巡察组向宁夏固原经济开发区党工委反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。', '对反馈问题照单全收、主动认领、举一反三，从党工委层面抓起、从党工委班子成员带头改起，进一步', '3次召开专题会议安排部署，成立了整改工作领导小组，研究制定了详细的整改方案，明确了责任领导、责任局室和整改时限。8月29日，党工委组织召开了巡察整改专题民主生活会，深入查摆问题，剖析问题根源，在政治上、思想上进行深层次整改，进一步巩固巡察整改工作成效。', '确保巡察反馈问题件件有着落、事事有回音。同时，把反馈的问题作为一面镜子，坚持治当前与管长远相结合，完善各项规章制度，强化执行落实，形成相互衔接配套的长效工作机制。', '自治区第十三次党代会和市委五届五次全会精神，巩固拓展党史学习教育成果，推动党史学习教育常态化长效化', '15次，组织党工委中心组学习10次、集体研讨4次、干部集体学习30余次、领导干部讲党课6次，交流发言20余人次', '查阅档案资料，梳理出未上交学习党的十九届六中全会心得体会的人员名单，要求认真撰写补交，已进行归档。', '积极推进运达风电储能设备制造、风机塔筒制造两个项目和一道新能源集中式光伏发电项目签约落地；在金昱元化工循环经济产业项目基础上，加快盐化工下游延链工程，积极与金昱元化工集团商洽建设年产', '20万吨1—4丁二醇、10万吨ADC发泡剂项目；争取自治区批复化工园区，落地建设中祁新材料绿色循环经济一体化项目；', '雪川固原马铃薯绿色高质量综合加工开发项目已建成投产，长江医药项目正在加快建设，年底建成投产。', '积极推进南通中迪、博达等纺织服装印染企业参与纺织服装产业园建设，通过入股或收购盘活现有纺织企业。', '始终将意识形态工作作为一项极端重要的工作与党建工作和业务工作同安排、同部署、同落实', '2．关于“学习贯彻落实市委、市政府关于全面开展预算绩效相关政策不够到位”1个问题的整改。', '认真组织传达学习《中共固原市委 市人民政府关于印发＜固原市全面实施预算绩效管理实施方案＞的通知》（固党发〔2020〕14号），成立预算绩效管理工作领导小组，制定了《固原经济开发区管委会关于全面实施预算绩效管理实施方案》，经党工委会议研究审定并印发执行。', '＜固原市全面实施预算绩效管理实施方案＞的通知》（固党发〔2020〕14号），成立预算绩效管理工作领导小组，制定了《固原经济开发区管委会关于全面实施预算绩效管理实施方案》，经党工委会议研究审定并印发执行。', '3个项目，目前，枸杞深加工项目正在办理前期建设手续；羊绒深加工项目土地已由市担保公司收回，正在通过以商招商方式替换原有项目，盘活土地资源；欣正蓝天天然气综合利用项目已提请市自然资源局依法依规收回土地。', '2021年10月开工，预计一期项目年底建成投入使用，届时将可提供311个大小车位，同时兴工大道人行道外侧停车场改扩建工程将改造640个车位，现已改造完成并投入使用，将集中解决', '金昱元公司门口车辆乱停乱放、堵塞交通等问题；新材料园区污水处理厂再生水循环利用项目、新材料园区雨污分流、轻工业园区雨污分流、智慧园区（二期）、新材料产业园供热提升改造工程等项目已进入施工阶段。', '“一区三园”基础设施短板弱项，谋划了事关经开区长远发展的6大类35个项目，争取更多项目进入', '“门前三包”专项治理行动，加强建筑工地施工现场监督管理，督促企业严格落实“六个100％”的要求，园区环境卫生大幅改善。', '6月底全面承接“一区三园”入园项目安全质量监督登记、消防设计备案审查验收审批事项，基本实现了“园区的事园内办、企业的事园区办”。', '“四种形态”，特别是用足用好第一种形态，常“咬耳朵”、勤“扯袖子”，持之以恒正风肃纪，', '研究制定专项整治工作实施方案，组织集中学习，召开阶段推进会、专题检视研讨会，严格按照学习动员、自查自纠、深化整改三个阶段推进专项整治工作，着力营造风清气正的政治生态。', '制定了《固原经济开发区（工业园区）工程建设项目监督管理制度》《固原经济开发区管委会政府采购内部控制管理制度》《固原经济开发区管委会国有资产使用管理规定》《固原经济开发区管委会国有资产处置管理规定》《固原经济开发区管委会国有资产进场交易暂行规定》等内控管理制度，经党工委会议研究并印发执行，', '严格按照《自治区招商引资项目推进考核办法实施细则》有关规定和标准，核定招商引资到位资金，去除了企业原料、人员工资发票等。目前，已将双文绒业', '台笔记本电脑，对照退休人员和资产管理系统追根溯源，已全部收回，并对达到报废年限的，及时报废，进行账面核销。', '7．关于“开发区投资发展公司存在经营性亏损1个问题的整改。一是承接工程项目增加收益。', '“管委会＋公司”管理模式改革为契机，通过精简组织架构、优化整合资源等方式，推动经营管理提质增效。以振兴园建设工程公司为主体，通过承接新材料产业园雨污分流项目、智慧园区项目、中小企业创业园基础设施提升改造项目等，积累业绩，拓展对外业务，增加公司收益。', '以公司位于新材料产业园所属土地作价参股，与陕西智诚运势实业集团成立合资公司，建设新材料产业园物流配送综合服务中心项目。', '加强经营性资产管理，除预留招商引资企业厂房外，其余厂房按照园区产业规划租赁给符合条件的中小微企业，提高资产收益。', '对投资公司国有资产管理情况进行全面梳理，分析存在问题并提出措施，形成国有资产管理情况报告，梳理公司', '2018年－2021年的资产租赁信息，建立健全台账。结合实际，制定了《固原经济技术开发区投资发展有限公司企业信息公开管理办法（试行）》，规范信息公开程序，按规定对相关信息进行公示。', '深化拓展“三强九严”工程，机关党支部严格落实“三会一课”、主题党日、党员“评星定格”和“积分制”管理等制度，完整记录“三会一课”，收集归档各类资料。目前，召开支委会8次，党员大会4次，主题党日8次。', '指导非公企业党组织落实“三会一课”、主题党日等制度，指导员定期向党工委汇报工作开展情况。', '“五强五促”行动，探索总结出非公企业党建“353”工作模式，推动非公企业党组织规范化、标准化开展党建工作', '按照流动党员管理有关规定，金昱元化工集团固原基地党委已对所有流动党员编入所在公司支部，由支部进行管理。', '《中国共产党发展党员工作细则》进行了详细解读，并组织学习了习近平总书记视察宁夏重要讲话精神、自治区第十三次党代会精神等政治理论，', '落实干部任前档案审核、全程纪实等制度，准确把握动议、推荐、考察、讨论决定、公示、任职等环节，客观公正评价干部，真实、准确撰写考察材料', '“持续推动解决历史遗留问题不够有力”、“重点建设项目推进缓慢”和“往来款项长期挂账”', '下一步，宁夏固原经开区党工委将坚持以习近平新时代中国特色社会主义思想为指导，按照市委统一部署，保持整改态度不变、标准不降、尺度不减，持续用力、久久为功，依法依规推动巡察反馈问题整改和长效机制建立，确保巡察整改取得实实在在的成效。', '始终把学习贯彻习近平新时代中国特色社会主义思想和党的十九大、十九届历次全会精神作为首要政治任务，深入学习习近平总书记视察宁复重要讲话精神、自治区第十三次党代会和市委五届五次全会精神。充分认识巡察工作是一次', '“政治体检”，发现问题不是目的，整改问题才是最终目的；正确认识巡察发现的问题，高度重视，诚恳接受，扎实有力的推进整改工作。', '坚持目标不变、力度不减，落实落细整改任务，压紧压实整改责任，抓紧抓准整改时效。对已完成的整改任务，适时组织', '“回头看”，巩固整改成效；对已初见成效的整改工作，长期坚持，紧盯不放；对需要长期坚持的，加强跟踪问效，确保整改取得效果。', '问题整改坚持阶段性与长期性相结合，建立健全务实管用的制度机制，做到既有当下改的举措、又有长久立的机制，不断巩固和提升整改工作成效。同时强化制度机制的执行和落实，真正做到以制度管人管事。', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>292</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>不断扩大融的领域</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202306/t20230612_4141868.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['政务服务是评价一个地区营商环境的重要指标，也关乎人民群众的幸福感和满意度。近日，记者在固原市政务服务大厅，体验', '39个“一窗受理”窗口，市本级1298个事项中，1165个事项统一进驻政务服务中心办理，1085个事项被纳入一窗无差别综合受理窗口受理，一窗综合受理率达93.1％，实现了企业和群众找一个窗口、办成所有事。', '2019年初，时任福建省第十一批援宁工作队领队，挂职宁夏回族自治区政府副秘书长，固原市委常委、副市长的黄水木同志在调研中发现，群众办事过程中有诸多难点堵点，随即带领相关人员到漳州、厦门、上海、江苏等地考察学习。其中，漳州市“多评一表、多图一审、模拟审批”“秒批”等有关创新举措给宁夏干部留下了深刻印象。整个创新改革中，漳州将行政审批与互联网、大数据、人工智能等信息技术深度融合，并始终坚持“能免就免、能简就简”“服务智能化、审批标准化、机构法定化、事项清单化”的理念。', '两地干部之间的深度交流，保证了双方需要信息的及时获取以及先进管理等理念的交互更新。最终，固原找到了改革创新的支点', '——“一门一窗一网”，经过反复模拟推演，仅用了4个月时间，于2019年6月初推出了固原“163”政务服务模式。24个部门的审批事项划到审批局统一审批，实现一枚印章管审批。以前企业、群众办业务可能要跑五六个部门，现在只需到审批局统一办理。', '“163”审批服务模式来看，可以看到闽宁两地正在不断扩大“融”的领域、丰富“扶”的形式，从以产业互补，逐渐延伸到人员互动、技术互学、观念互通、作风互鉴，完善工作体制机制，固原“放管服”一些便民利企的做法甚至青出于蓝而胜于蓝，走在了全国前列，作为典型经验在宁夏全区甚至全国推广。', '闽宁协作重在持续，重在提升。我们乐见闽宁协作能够在贸易投资、生态环保、乡村振兴等领域展开全方位、多层次的合作，让', '“爱拼才会赢”与“宁夏川，两头尖，天下黄河富宁夏……”合作曲相得益彰，书写新的华章。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>292</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于推荐全区优秀农民工和关爱农民工优秀企业暨农民工工作先进集体的通知</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2012-03-01</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_383874.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于推荐全区优秀农民工和关爱农民工优秀企业暨农民工工作先进集体的通知_固原市人民政府', '固原市人民政府办公室关于推荐全区优秀农民工和关爱农民工优秀企业暨农民工工作先进集体的通知', '根据自治区人民政府办公厅《关于推荐全区优秀农民工和关爱农民工优秀企业暨农民工工作先进集体的通知》(宁政办发[2012]30号)精神，为认真做好全区优秀农民工和关爱农民工优秀企业暨农民工工作先进集体推荐工作，现就有关事项通知如下：', '1、拥护党和国家的路线、方针、政策，遵纪守法，严格遵守国家计划生育政策。具有良好的职业道德，爱岗敬业、勤奋工作、团结互助，在工作单位起到表率和模范带头作用。', '2、在本县(区)或固原市试验区管委会行政区域内从事非农产业工作的具有农村户籍的工人。', '3、年满18周岁，稳定就业1年以上(外省户籍农民工需在本县(区)或固原市试验区管委会连续工作2年以上)，依法签订书面劳动合同，缴纳社会保险的在岗劳动者。', '4、积极进取，刻苦学习，钻研技术，精通业务，具有相应技能的国家职业资格证书，在某一行业和自治区级职业技能竞赛中获得名次的，可以优先推荐。', '5、恪守社会公德，尊老爱幼，助人为乐，品德高尚。在思想道德和精神文明建设方面，有比较突出的事迹和较好的社会影响。', '2、依法与农民工签订并认真履行劳动合同，劳动合同签订率达到100%。及时足额为农民工支付工资并缴纳各项社会保险费，各项社会保险参保率均达到90%以上。', '3、遵纪守法、诚信经营，具有良好的社会形象和信誉度，为自治区经济建设和社会发展做出了突出贡献。', '4、为农民工提供符合国家规定的劳动安全卫生条件和必要的劳动防护用品，对从事有职业危害作业的农民工定期进行健康检查。', '5、建立健全工会组织，依法保障农民工合法权益;职代会机构健全，并有农民工代表参加，正常履行职能职责。', '6、积极开展农民工职业技能培训，为农民工提供良好的居住、饮食环境，设立农民工活动场所，开展多种形式的业余文化活动。', '1、保障和解决农民工在促进就业、社会保障、技能培训、权益维护、保障住房、子女教育、医疗卫生、计划生育、安全生产、户籍管理、法律援助等方面，取得突出成绩的固原市及各县(区)相关职能部门;在工作生活等关心和帮助农民工的工会、共青团、妇联组织。', '2、坚持科学发展观，认真贯彻党的路线、方针、政策，团结务实，开拓进取，勤政廉洁，在为农民工提供管理服务工作中发挥示范带头作用。', '3、贯彻执行党中央、国务院和自治区、市党委、政府关于农民工工作的政策法规和工作部署，认真履行职责，充分发挥职能作用，服务意识强，办事程序便捷，长期为农民工办实事，取得突出成绩，在社会上和农民工群体中具有良好声誉。', '坚持公开、公平、公正的原则，严格按照评选条件和程序进行评选、公示和审核，确保评选过程的真实性和客观性;坚持面向基层的原则，在一线岗位工作的农民工应占80%以上，并有一定比例的女性农民工。', '为加强对此次活动的组织领导，固原市成立由市政府副市长李守银任组长，市政府副秘书长王伦、市人力资源和社会保障局党组书记、局长张志鹏、市总工会副主席陈胜远为副组长，市发展劳务产业领导小组成员单位组成的“固原市评选自治区优秀农民工、关爱农民工优秀企业和农民工工作先进集体表彰工作领导小组”(以下简称固原市评选表彰工作领导小组”)，领导小组办公室设在市人力资源和社会保障局，具体组织工作由市人力资源和社会保障局、总工会负责。各县(区)也要成立相应机构，制定工作方案，细化评选条件，明确工作程序，落实领导责任，确保评选工作顺利进行。', '(一)宣传发动。各县(区)人民政府和固原市发展劳务产业工作领导小组各成员单位暨固原市试验区管委会(以下简称“各级评选机构”)要按照评选要求，安排部署推荐工作，深入基层，广发宣传，充分发动属地各企、事业单位和社会各界了解并参与评选推荐活动，动员广大农民工以自荐或互荐形式积极参与到评选活动中来。', '(二)推荐申报。各级评选机构按照确定的分配名额、评选条件和工作要求推荐申报。评选工作要充分发扬民主，自下而上，层层推荐，广泛征求公安、税务、住房城乡建设、人口计生、纪检监察等有关部门的意见，对拟推荐人员、企业和单位进行必要的考察，初评后进行公示，公示结束无异议后按程序报送。评选优秀农民工、关爱农民工优秀企业和农民工工作先进集体申报材料请于3月5日前报市评选表彰办公室。', '(三)组织评审。2012年3月5日至3月10日前，市评选办公室对推荐的优秀农民工、关爱农民工优秀企业和农民工工作先进集体申报材料进行审查，报自治区评选表彰工作领导小组审定。', '(一)严格把关，及时上报。要按照要求，认真核实申报材料的真实性和准确性，填报相关材料。', '(三)认真撰写先进事迹。“优秀农民工”先进事迹材料在1000字左右，“关爱农民工优秀企业”、“农民工工作先进集体”先进事迹材料在2000字左右，并打印30份与申报表一并上报。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>292</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>固原市脱贫攻坚年工作总结</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202101/t20210107_2564976.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['深入学习贯彻落实习近平总书记视察宁夏重要讲话和在决战决胜脱贫攻坚座谈会上的重要讲话精神，', '全市上下紧紧围绕打赢脱贫攻坚这一关键之战、决胜之举，一鼓作气、乘势而上，保持攻坚态势，强化攻坚责任，一手抓剩余贫困人口脱贫、一手抓全市域巩固提升。', '动员市直部门、县乡村以及第一书记、驻村工作队和2.3万帮扶责任人，逐乡逐村逐户开展“回头看”，逐条逐项逐个进行“过筛子”。', '在贫困群众就业务工、产品销售等方面强化政策保障，统筹推进疫情防控和脱贫攻坚,把疫情耽误的时间抢回来，把疫情造成的损失补回来。', '重点安置因疫情影响滞留在家的农村建档立卡贫困劳动力、移民村群众和边缘户劳动力8510人，其中新增护林员1220人，新增护路员1310人，新增保洁员等5980人，累计公益性岗位达到18064人。', '目前，全市认定消费扶贫供应商126家，认定568家农副产品进入国家贫困地区“832”网络销售平台，', '全市建档立卡贫困人口基本医疗保险参保率和边缘户参保率均达到100%，建档立卡户和边缘户家庭成员全部缴纳医疗保险，全部实现“应保尽保”，全市行政村均建有村卫生室，且至少配备65种基本药品，能够满足基本公共卫生服务和常见病、多发病的初级诊治。', '紧扣全面建成小康社会，查找和补齐公共服务、基础设施等方面的短板。新建（改建）村组道路535.6公里，硬化巷道308.3公里。解决了4个村网络信号不稳定和4个村水压不稳、供水不稳定的问题。改善35所基本义务教育薄弱学校基本办学条件。通过建立发展壮大集体经济联席会议制度、专题调研解决瓶颈问题、建立绩效奖励制度、召开全市现场观摩推进会等有效推动，所有村村经济集体收入达到5万元以上。用好新时代文明实践中心等平台，发挥7067名致富带头人作用，促进贫困群众比学赶超，提振精气神。', '紧扣全面建成小康社会，查找和补齐公共服务、基础设施等方面的短板。新建（改建）村组道路', '所基本义务教育薄弱学校基本办学条件。通过建立发展壮大集体经济联席会议制度、专题调研解决瓶颈问题、建立绩效奖励制度、召开全市现场观摩推进会等有效推动，所有村村经济集体收入达到', '根据农民增收情况，补强薄弱环节，把产业做强，提高群众增收致富能力。加大农业结构调整力度，调减过剩的、低效的，调增短缺的、高效的，提高农业比较效益。全市马铃薯稳定在100万亩，调减小麦25万亩、籽粒玉米80万亩，调增青贮玉米87万亩、蔬菜5万亩、小杂粮13万亩。针对建档户养殖产业规模小而弱的问题，为建档户补栏基础母牛82087头、羊116404只。目前全市建档立卡户养殖业覆盖率达到66%、种植业覆盖率71%。对剩余的“三类特殊人群”中有发展产业能力的推广“社会保障+产业扶持”“双兜底”做法，提高兜底保障能力。整合资金38.3亿元实施到村到户精准扶贫项目7060个。做好扶贫小额信贷发放工作，截止9月底为32219户建档立卡户发放扶贫小额信贷15.2亿元，完成下达任务17.4亿元的87.4%。', '根据农民增收情况，补强薄弱环节，把产业做强，提高群众增收致富能力。加大农业结构调整力度，调减过剩的、低效的，调增短缺的、高效的，提高农业比较效益。全市马铃薯稳定在', '聚焦西吉县脱贫摘帽，原州、隆德、泾源、彭阳巩固提升，挂牌督战，助力攻坚和鼓劲加压，把督导与帮扶结合起来，处理好“督”和“战”的关系、', '聚焦西吉县脱贫摘帽，原州、隆德、泾源、彭阳巩固提升，挂牌督战，助力攻坚和鼓劲加压，把督导与帮扶结合起来，处理好', '制定了《固原市脱贫攻坚“四查四补”帮扶方案》和《固原市“大干200天确保西吉县脱贫摘帽”行动方案》，四', '主要负责人和市委副书记分别督战5县区，9名市级领导督战原州区9个薄弱村；19名市级领导干部每人包抓帮扶西吉县1个乡镇、1个贫困村、5户贫困户，30个市直部门帮扶西吉30个贫困村、班子成员每人联系帮扶3户贫困户，39家企业帮扶西吉39个深度贫困村。西吉县对295个行政村全部实行网格化包抓责任，其中对30个基础薄弱村由县级领导牵头进行挂牌督战，剩余265个村分别由1名科级干部包抓。原州区对9个挂牌督战村，在原来包抓领导、帮扶单位不变的基础上，再安排9名县级领导、9个涉农部门、9家优秀企业包抓帮扶。', '下发了《关于扎实做好脱贫攻坚挂牌督战及“四查四补”和挂牌督战调度工作的通知》，对挂牌督战工作进展进行月调度、月分析，及时发现问题，及时解决问题。', '和挂牌督战调度工作的通知》，对挂牌督战工作进展进行月调度、月分析，及时发现问题，及时解决问题。', '市扶贫开发领导小组先后召开6次会议和2次专题会议，传达学习脱贫攻坚政策和研究部署脱贫攻坚工作议题35个，市委、市政府主要领导和挂牌督战厅级领导多次深入', '五县（区）贫困村，对“四查四补”、挂牌督战、问题整改和年度脱贫攻坚工作任务完成情况进行了督导调研，对发现的问题提出整改建议，督促进行整改。按照市委、市政府安排，市扶贫办选派1名副主任作为自治区派驻西吉县挂牌督战协调组成员，从5月6日开始，督战协调组常驻西吉县督促指导做好脱贫攻坚工作，解决西吉县脱贫摘帽中自身难以解决的突出困难和问题，定期向区、市党委、政府相关领导汇报西吉县脱贫攻坚工作推进情况。', '、挂牌督战、问题整改和年度脱贫攻坚工作任务完成情况进行了督导调研，对发现的问题提出整改建议，督促进行整改。按照市委、市政府安排，市扶贫办选派', '日开始，督战协调组常驻西吉县督促指导做好脱贫攻坚工作，解决西吉县脱贫摘帽中自身难以解决的突出困难和问题，定期向区、市党委、政府相关领导汇报西吉县脱贫攻坚工作推进情况。', '下发了《关于建立脱贫不稳定人口与边缘易致贫人口防止返贫致贫监测预警和动态帮扶机制的通知》，及时掌握全市已脱贫建档立卡户和非贫困户因病、因灾、因突发事故导致易返贫致贫的基本信息，实行动态监测、动态预警、动态帮扶，防止已脱贫人口返贫或出现新的贫困人口。', '按照村组日常监测、乡镇研判预警和县（区）调度帮扶等程序，进一步排查摸底脱贫不稳定户和边缘易致贫户。按照自治区确定的“脱贫不稳定人口和边缘易致贫人口‘两类人口’监测对象规模一般为建档立卡人口的5％左右”的指标及界定标准，对上一年度家庭人均可支配收入低于国家扶贫标准1.5倍左右（2019-2020年参考值5000元）的农户为重点，在去年2202户8461人边缘易致贫人口、1563户6314人脱贫易返贫人口的基础上，新摸排出边缘易致贫户533户2522人，脱贫易返贫户256户1367人。', '按照村组日常监测、乡镇研判预警和县（区）调度帮扶等程序，进一步排查摸底脱贫不稳定户和边缘易致贫户。按照自治区确定的', '脱贫不稳定人口在继续落实扶持政策的基础上，做好动态监测，发现一旦有返贫的迹象，根据返贫原因及时采取社会综合保障、产业就业等措施做好帮扶，防止返贫。对边缘易致贫人口建立完善“一户一档”，落实“一户一策”，做好动态帮扶。市扶贫开发领导小组办公室下发了《关于认真做好扶贫对象动态管理和信息采集等工作的通知》和《固原市精准扶贫数据质量管理细则（试行）》，按照自治区统一安排部署，各县（区）对所有建档立卡户的家庭基本信息、成员基本情况、家庭收入情况、致贫原因、“两不愁三保障”情况、帮扶和脱贫措施等6个方面，所有贫困村的基本信息', '脱贫不稳定人口在继续落实扶持政策的基础上，做好动态监测，发现一旦有返贫的迹象，根据返贫原因及时采取社会综合保障、产业就业等措施做好帮扶，防止返贫。对边缘易致贫人口建立完善', '，做好动态帮扶。市扶贫开发领导小组办公室下发了《关于认真做好扶贫对象动态管理和信息采集等工作的通知》和《固原市精准扶贫数据质量管理细则（试行）》，按照自治区统一安排部署，各县（区）对所有建档立卡户的家庭基本信息、成员基本情况、家庭收入情况、致贫原因、', '驻村工作队情况3个方面进行全面核查修正。同时，严格按照脱贫退出程序，对剩余7339人贫困人口脱贫退出进行了动态调整。', '认真贯彻习近平总书记视察宁夏重要讲话精神和陈润儿书记督战西吉县脱贫攻坚座谈会精神，市委常委会、政府常务会分别专题研究移民搬迁工作，对存在的问题进行了认真梳理。6月下旬市扶贫办下发了《关于进一步做好移民有关工作的通知》，9月上旬市扶贫开发领导小组办公室下发了《关于印发&lt;固原市政策性移民工作遗留问题整改方案&gt;的通知》，认真解决我市“十二五”、“十三五”政策性移民工作遗留问题，认真落实移民搬迁扶持政策，全力做好搬迁移民产业、就业、社会融入等方面的工作。', '认真贯彻习近平总书记视察宁夏重要讲话精神和陈润儿书记督战西吉县脱贫攻坚座谈会精神，市委常委会、政府常务会分别专题研究移民搬迁工作，对存在的问题进行了认真梳理。', '政策性移民工作遗留问题，认真落实移民搬迁扶持政策，全力做好搬迁移民产业、就业、社会融入等方面的工作。', '对生态移民，将后续产业纳入县（区）产业发展总体规划，坚持安置区选址与产业、就业有效结合，在全市182个就近安置点建设养殖暖棚或设施蔬菜暖棚4012座，着力发展设施养牛、设施种植和中药材、林果等优势产业，先后发放政府贴息小额扶贫贷款约1.2亿元用于发展壮大产业，增加移民群众收入。', '对生态移民，将后续产业纳入县（区）产业发展总体规划，坚持安置区选址与产业、就业有效结合，在全市', '座，着力发展设施养牛、设施种植和中药材、林果等优势产业，先后发放政府贴息小额扶贫贷款约', '对劳务移民，动员和鼓励企业、合作社在全市39个城区回购安置点建设各类扶贫车间21个，已解决移民就业594人', '围绕扶贫车间就业岗前培训、家政服务、刺绣编织、中式烹饪、居家养老、保洁护理等内容举办形式多样的培训班，共培训移民1711人次，确保户均有1-2人能够熟练掌握一门实用技能，同时针对移民群众开发公益性岗位1434个，实现一人就业，全家脱贫。', '围绕扶贫车间就业岗前培训、家政服务、刺绣编织、中式烹饪、居家养老、保洁护理等内容举办形式多样的培训班，共培训移民', '认真落实移民各项政策性保障措施，积极对接迁入县（区），全力做好移民户籍迁转等相关工作，确保搬迁劳务移民与当地居民享有同等的教育、医疗卫生、基本医疗保险、养老保险、社会救助、培训就业等社会保障政策，并为符合条件的劳务移民及时办理农村和城市低保，落实高龄人口补贴和移民家庭中残疾人生活补贴及护理补贴。同时，重点加强对城区安置移民在思想观念、生活习惯、邻里相处和社居民约等方面的教育引导，不断增强移民群众社会融入意识和能力。', '把解决当务之急和长远之计结合起来，按照自治区的统一安排，市委常委会第21次（扩大）会议专门进行了研究部署。各县（区）组织人员，按照全面普查不漏一户，完善信息台账不错一户，落实帮扶责任不落一户的要求，进行了大排查、大起底，全力解决移民中的人户分离底数不清、信息不准、帮扶不实问题。同时积极引导群众增强内生动力，提高创业能力，通过自身努力脱贫致富。', '次（扩大）会议专门进行了研究部署。各县（区）组织人员，按照全面普查不漏一户，完善信息台账不错一户，落实帮扶责任不落一户的要求，进行了大排查、大起底，全力解决移民中的人户分离底数不清、信息不准、帮扶不实问题。同时积极引导群众增强内生动力，提高创业能力，通过自身努力脱贫致富。', '。发挥政府和市场两方面力量作用，着力完善闽宁协作、国家部委、部门单位、企业商会、慈善组织、军警部队参与的“1+6”联动社会扶贫体系，构建政府、市场、社会协同推进的大扶贫格局，形成了全社会广泛参与脱贫攻坚的强大合力。', '。发挥政府和市场两方面力量作用，着力完善闽宁协作、国家部委、部门单位、企业商会、慈善组织、军警部队参与的', '联动社会扶贫体系，构建政府、市场、社会协同推进的大扶贫格局，形成了全社会广泛参与脱贫攻坚的强大合力。', '认真落实闽宁协作第24次联席会议精神，加大闽宁对口扶贫协作的联系对接，开展“携手奔小康”行动，县、乡、村企业和部门单位、学校医院等开展结对帮扶，形成了多层次结对帮扶格局。自治区党委常委、市委书记张柱带领固原市考察团利用5天时间赴福建考察学习、对接项目，特别对闽宁对口扶贫协作第24次联席会确定的7个签约项目、9个意向合作项目进行深入对', '行动，县、乡、村企业和部门单位、学校医院等开展结对帮扶，形成了多层次结对帮扶格局。自治区党委常委、市委书记张柱带领固原市考察团利用', '接洽谈，进一步深化了闽宁对口扶贫协作。今年福建各级共援助我市各类资金2.75亿元（包括闽宁协作发展资金2.66亿元），重点支持特色产业培育、闽宁示范村巩固提升、消费扶贫、贫困家庭劳动力培训与转移就业、贫困户危房改造、贫困村基础设施和社会事业建设、扶贫车间、旅游扶贫、电商扶贫、生态扶贫、残疾人帮扶、创业致富带头人培训等方面和新冠肺炎疫情防控等。', '亿元），重点支持特色产业培育、闽宁示范村巩固提升、消费扶贫、贫困家庭劳动力培训与转移就业、贫困户危房改造、贫困村基础设施和社会事业建设、扶贫车间、旅游扶贫、电商扶贫、生态扶贫、残疾人帮扶、创业致富带头人培训等方面和新冠肺炎疫情防控等。', '、宋庆龄基金会、厦门大学、中国商用飞机有限责任公司、中国建筑材料有限公司5个中央定点扶贫单位为我市5个县（区)共投入帮扶资金0.68亿元，围绕产业发展、创业就业、消费扶贫、电商扶贫、基础设施、社会事业等方面开展定点扶贫。', '亿元，围绕产业发展、创业就业、消费扶贫、电商扶贫、基础设施、社会事业等方面开展定点扶贫。', '市扶贫开发领导小组制定下发了《关于印发&lt;国务院扶贫办调研督导组反馈意见整改方案&gt;的通知》和《关于印发&lt;2019年脱贫攻坚成效考核反馈问题整改方案&gt;的通知》，坚持问题导向，严格按照“统筹一体抓整改、聚焦重点抓整改、强化责任抓整改、严实作风抓整改”的要求，抓好各类反馈问题的整改。国家2019年脱贫攻坚成效考核反馈36个问题、2020年脱贫攻坚督查反馈的5个方面13个问题、国务院扶贫办调研督导组反馈6条意见和国家各类抽查检查等反馈的问题均已全部整改完成，继续巩固提升。同时，各县（区）结合“四查四补”，对今年自治区脱贫攻坚专项巡视“回头看”反馈的问题进行了全面整改，对历年国家扶', '条意见和国家各类抽查检查等反馈的问题均已全部整改完成，继续巩固提升。同时，各县（区）结合', '我市第一批脱贫攻坚普查对象为原州、隆德、泾源、彭阳4县（区）， 涉及43个乡镇、507个村、57988户建档立卡户。市委、市政府成立了“固原市脱贫攻坚普查工作领导小组”，制定了《固原市脱贫攻坚普查实施办法》，明确了普查工作职责、阶段性工作任务和具体要求，对普查工作进行详细具体安排。5月下旬开始，选调了市直有关部门（单位）40多名业务工作人员，组建了综合协调组、督查检查组、数据审核处理组，按照工作进度扎实开展普查各项工作。7月15日前完成了前期的工作业务培训、工作人员信息导入、普查数据审核、相关视频课程和集中面授业务培训及现场登记数据采集处理前的各项准备工作。积极配合相关县区（', '，制定了《固原市脱贫攻坚普查实施办法》，明确了普查工作职责、阶段性工作任务和具体要求，对普查工作进行详细具体安排。', '多名业务工作人员，组建了综合协调组、督查检查组、数据审核处理组，按照工作进度扎实开展普查各项工作。', '日前完成了前期的工作业务培训、工作人员信息导入、普查数据审核、相关视频课程和集中面授业务培训及现场登记数据采集处理前的各项准备工作。积极配合相关县区（', '）。普查的内容包括建档立卡户基本情况、“两不愁三保障”实现情况、主要收入来源、获得帮扶和参与脱贫攻坚项目情况，以及县和行政村基本公共服务情况等。8月10日前完成了现场登记数据填报工作，8月底前全面完成了市县普查和审核工作，将数据上报自治区。并对普查中发现的问题，边查边改，及时进行了整改落实和“回头看”。', '实现情况、主要收入来源、获得帮扶和参与脱贫攻坚项目情况，以及县和行政村基本公共服务情况等。', '月底前全面完成了市县普查和审核工作，将数据上报自治区。并对普查中发现的问题，边查边改，及时进行了整改落实和', '布设了固原脱贫攻坚成就展，通过影像、图片、文字等形式，全方位、系统性展示新中国成立70年来，特别是党的十八大以来全市脱贫攻坚取得的巨大成就。', '布设了固原脱贫攻坚成就展，通过影像、图片、文字等形式，全方位、系统性展示新中国成立', '编辑《中国脱贫的固原实践》一书，系统展现固原脱贫攻坚具体实践和效果，从中折射和反映中国脱贫攻坚的发展历程和取得的伟大成就', '。在《固原日报》开设“决战决胜脱贫攻坚”“固原脱贫故事”等专栏大力宣传固原脱贫攻坚。', '获得国家脱贫攻坚奖，其中固原农村商业银行股份有限公司信贷部经理袁相鼎获创新奖、隆德县扶贫办主任宋保童', '扶贫日系列活动。举办了全市脱贫攻坚事迹报告会，组织党员干部职工参观了固原扶贫展、观看了脱贫攻坚', '将脱贫攻坚工作纳入市委、市政府2020年重点工作任务落实清单和全市今年60个高质量发展重点建设项目之列，明确责任领导、责任单位和完成时限，清单管理、挂牌督战。印发了《固原市2020年脱贫攻坚工作要点》《固原市2020年脱贫攻坚责任清单》、制定了《固原市打好脱贫富民决胜战2020年作战图》，精心谋划、全力推进。', '个高质量发展重点建设项目之列，明确责任领导、责任单位和完成时限，清单管理、挂牌督战。印发了《固原市', '制定了《固原市决战脱贫攻坚决胜全面建成小康社会考核办法》，依据目标任务书和专项工作要求，年终将对五个县（区）的减贫成效、专项扶贫、行业扶贫、社会扶贫、问题整改及“三落实”五大方面17项指标目标任务的完成情况进行考核；对22个市直行业部门（单位）行业扶贫目标任务完成情况分别考核，确保2020年脱贫摘帽，与全区全国同步建成全面小康社会。', '制定了《固原市决战脱贫攻坚决胜全面建成小康社会考核办法》，依据目标任务书和专项工作要求，年终将对五个县（区）的减贫成效、专项扶贫、行业扶贫、社会扶贫、问题整改及', '聚焦脱贫攻坚，围绕推进“三落实”，持续深入开展了扶贫领域腐败和作风问题专项治理，深化涉农惠农项目资金“三级备案、三级审核、一个平台监管”的“331”监管机制，精准发现扶贫领域问题，保持高压态势，严查快处扶贫领域腐败问题。持续深化“干部作风转变年”活动，在全市开展“担当新使命、展现新作为”学习实践活动，大力弘扬长征精神，发扬“三苦”作风，进一步巩固', '“不忘初心、牢记使命”主题教育成果，改进了干部作风，提振了干部精气神，形成了干事创业的良好局面，坚决把中央和区、市党委的决策部署抓实抓细抓', '主题教育成果，改进了干部作风，提振了干部精气神，形成了干事创业的良好局面，坚决把中央和区、市党委的决策部署抓实抓细抓']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>292</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>做好统筹协调凝聚专班力量扎实开展产业招商</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202211/t20221130_3864740.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['今年以来，市投资促进服务中心认真学习贯彻党的二十大和自治区第十三次党代会、十三届二次全会精神，全面贯彻落实市委五届五次、六次全会精神，按照市委、市政府关于“五特五新五优”产业发展安排部署，认真履行产业专班统筹协调领导小组办公室职责，在摸清产业基本底数、把准产业发展优势、精准谋划项目储备、开展产业招商、全要素服务项目签约落地上持续发力，全力做好产业专班统筹协调服务工作。主动加强与“五特五新五优”各产业专班汇报沟通，建立专班联络机制，充分发挥产业专班力量，凝聚起招商工作合力。配合中药材、轻工纺织、新材料、清洁能源、健康养老产业专班开展招商活动15次，对接洽谈以岭药业、中车株洲、龙旺文化旅游等产业项目。专人跟进服务宝鸡大地、中国能建、闽泰纺织等项目完成注册、备案、选址等手续，协调解决企业生活、办公用房；借助福建舒紫制药落实紫苏种源育苗和种植用地，中成药苏子油软胶囊生产、功能性健康食品等紫苏全产业链项目入驻宁夏长药良生大健康产业园。', '次，对接洽谈以岭药业、中车株洲、龙旺文化旅游等产业项目。专人跟进服务宝鸡大地、中国能建、闽泰纺织等项目完成注册、备案、选址等手续，协调解决企业生活、办公用房；借助福建舒紫制药落实紫苏种源育苗和种植用地，中成药苏子油软胶囊生产、功能性健康食品等紫苏全产业链项目入驻宁夏长药良生大健康产业园。', '学习宣传贯彻党的二十大精神作为首要政治任务，认真贯彻落实自治区第十三次党代会精神，按照', '能力，全力推动建立信息互通、协调配合、专班服务、整体推进、要素保障、督查落实六项机制，', '整合中心内部力量，落实专人专职负责，扎实做好周动态、半月统计、月度通报、季度专报、定期督查等基础工作，全面准确反映各专班工作成效。坚持问题导向，提出有针对性建议。', '《固原投资指南》《固原招商引资政策汇编》，编制15个产业招商地图和宣传折页，重新制作招商宣传片。各类资料第一时间分送各产业专班。', '畅通各产业专班信息互通、资源共享渠道，发挥招商资源优势，多渠道收集整理各类有效投资信息，定期了解掌握各专班工作好经验好做法，以“招商动态”形式推送各专班。', '借助我市产业龙头企业供应链、产业链渠道，策划组织市内肉牛精细加工、高档休闲食品、冷链物流、饲料加工专题推介招商活动4场次，市外开展冷凉蔬菜、', '农机具制造、文化旅游、特色餐饮专项招商活动5场次；组织全市特色农业种养大户和合作社“走出去”考察学习，寻找合作企业，拓宽销售渠道。', '场次；组织全市特色农业种养大户和合作社“走出去”考察学习，寻找合作企业，拓宽销售渠道。', '坚持“要素跟着项目走”原则，加强与土地、人力、资金、政策、技术、水电气等要素部门加强协同联动、提前谋划、无缝衔接、高效服务。实行项目精细化管理、专业化服务，落实重大项目洽谈、签约、落地、建设、达产全过程专人包抓服务，推动建立解决引进企业招工、子女入学等难点热点问题的长效机制，营造诚信招商环境。', '加强与国有资产管理部门的沟通对接，充分利用近年来收缴、抵扣的土地、房屋、厂房等资产，精准谋划、主动对接，落实项目通过入股、转让等方式进一步盘活国有资产，确保其保值增值。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>292</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>凝聚共识担使命建言资政促发展市政协年工作综述</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202401/t20240110_4411823.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['2023年是全面贯彻落实中共二十大精神的开局之年，是新冠疫情防控平稳转段后经济恢复发展的一年，也是市政协履职抓深化求拓展的关键之年。', '一年来，在市委坚强领导和自治区政协精心指导下，市政协党组按照市委“四盯两提一见效”和“思想上同心、政治上同向、行动上同步、事业上同力”的要求，紧扣“1245”总体工作思路，深化组织体系、体制机制“两项建设”和抓党组、抓专委、抓基础、抓学习“四抓”举措，推动各项工作取得明显成效。', '灼灼韶华，笃行致远。翻开2023年固原市政协的履职记录，一份份务实精准的建言书，体现了服务大局的担当作为；一个个奋楫笃行的身影，映照了履职为民的初心底色；一次次创新发展的实践，标注了市政协事业新的高度……市政协工作得到了自治区党委、政府、政协和市委、市政府主要领导同志指示批示28次，5项工作被《宁夏政协简讯》转发交流。', '主题教育扎实推进。按照“学思想、强党性、重实践、建新功”的总要求，明确需要重点把握的10个问题，定期召开领导小组会议，一体推进五项重点措施，开展专题研讨7次，大兴调查研究之风，形成调研成果25篇，自治区党委第四巡回督导组给予充分肯定。班子成员带头走访慰问困难群众263人，组织委员和机关干部认领“微心愿”慰问困境儿童308名，多渠道筹措资金178.85万元，为基层群众办实事解难题，被自治区党委第四巡回督导组作为亮点工作上报自治区主题教育办公室，并得到市委主要领导同志批示肯定。', '思想根基更加牢固。严格落实“第一议题”制度，深入学习中共二十大精神、习近平新时代中国特色社会主义思想、习近平总书记关于加强和改进人民政协工作的重要思想、视察宁夏重要讲话指示批示精神等34次，带动机关党组、各委办党支部学习研讨64次，以党的创新理论武装头脑、指导实践、推动工作。', '政治底色更加鲜明。深入开展“大学习、大讨论、大宣传、大实践”活动，及时跟进学习习近平总书记最新重要讲话、中央和区、市党委重要会议及文件精神，班子成员深入基层联系点宣讲习近平新时代中国特色社会主义思想、铸牢中华民族共同体意识等16场次，讲专题党课23次，教育引导委员和干部群众忠诚捍卫“两个确立”，坚决做到“两个维护”。', '党的领导切实加强。严格落实请示报告制度，向市委请示报告41次、向自治区政协报告21次。党组会议听取“三重一大”事项和党建、党风廉政建设、意识形态工作汇报2次。', '党的建设不断深化。坚持“两建两入两联系”机制，以办公室党支部创建“市直机关标准化规范化党支部示范点”工作为引领，带动各专委会党支部打造契合职能、特色鲜明的党建载体。', '机关效能持续提升。开展“制度落实年”活动，新建和修订制度11项，累计达到43项，以制度管人、管事、管履职，扎实开展纠治形式主义、官僚主义专项整治，比学赶超的良好氛围日益浓厚。', '协商议政更加聚焦。坚持市内外结合、区市县联动，聚焦生态文旅特色市、民宿经济、林业碳汇试点、节水灌溉和再生水利用等课题，扎实组织开展调研协商，形成高质量协商报告7篇、考察报告4篇。', '民主监督更加有力。认真制定并落实民主监督方案和监督议题清单，对32个市直部门33项重点工作开展协商式监督，提出安全生产、营商环境等方面监督性意见建议39条。', '提案质效更加凸显。交办提案103件，其中党政领导领衔督办重点提案15件。2023年年初向自治区政协提交提案96件，立案59件，提案数量和立案数量分别比2020年增加123.3％和126.9％；通过自治区政协向全国政协提交提案5件，其中“加快定西经固原和平凉至庆阳铁路建设、支持建立六盘山区跨省域生态补偿机制”2件提案被立案，提案数量和立案数量均创历届之最。', '社情民意信息更加务实。先后采编《社情民意》82期，市委、市政府主要领导作了批示，被自治区政协采用16期，其中，“深挖红色资源‘富矿’、推广红色研学‘铸魂’”以及“提高养殖业资源化利用水平”的建议分别被自治区党委书记梁言顺、自治区主席张雨浦批示；“关于支持建设‘引黄通彭’工程”“加快推进燃气便民缴费服务”等建议得到区市相关部门高度重视并采纳，市政协在全区反映社情民意信息工作座谈会上作了交流发言。', '协商平台更加健全。坚持“哪里离界别群众最近，哪里便于委员履职尽责，就在哪里建设委员履职平台”，建设委员联络小组71个、委员会客室27个、界别委员工作室31个，走在全区前列，推动了政协协商与基层协商有效衔接，组织体系和体制机制建设进一步完善。开展全市政协系统“两项建设”现场观摩，得到自治区政协主席陈雍批示肯定，被《人民政协报》、新华网、人民网等媒体宣传报道20多次。', '助力中心工作更加有为。班子成员积极参与全市产业专班、督查专班、包抓乡村振兴等中心工作。制定《关于充分发挥全市政协系统在安全生产工作中作用的“十条措施”》，收到良好效果。组织委员排查安全风险隐患356条，开展安全知识宣讲21场次，提交社情民意信息18篇。积极穿针引线，协调自治区科技厅、卫健委和宁夏医科大学总院、银川市口腔医院在我市建立临床医学研究分中心和实践基地等5个。', '“两支队伍”建设更加有效。主动加强与纪检、组织、宣传、统战等部门对接，建立履职情况定期通报、委员退出和暂停履职等常态化沟通机制。举办协商民主专题培训班、提案工作专题培训班，先后对政协系统50名干部、市县两级643名政协委员进行履职能力培训，进一步提升了“两支队伍”履职水平。', '画好最大“同心圆”。班子成员深入基层开展“铸牢中华民族共同体意识”等主题宣讲16场次，组织宗教界委员开展“看变化、谈发展、促和谐”民族团结进步创建工作视察活动，在全区率先出台《贯彻落实的若干措施》，推动委员更好联系服务界别群众，把更多的人团结到党的周围。', '汇聚发展“正能量”。走访各民主党派、市工商联等政协组成单位，举办全市重大项目建设调研视察活动，常态化联系走访委员，广泛凝聚各党派、各团体和各界人士合作共事、参与政事。积极对接九三学社宁夏区委会，争取实施“智汇宁夏同心科创工程”“泾河支流颉河（泾源段）水生态修复工程”，助力全市经济高质量发展。', '打好宣传“主动仗”。积极与《人民政协报》《宁夏日报》《华兴时报》《固原日报》和人民网、新华网等各级各类媒体联系对接，宣传报道政协工作和委员履职风采293条，比2022年增加了13.2％，进一步激发了委员履职积极性。编纂出版《固原文史资料》第六辑，以“红色足迹、绿色田野、古色萧关、和谐家园”四大版块对标市委五届九次全会部署要求。先后高质量完成29批次各级政协来固调研考察接待工作，充分展示了固原良好形象。', '在中国式现代化的新“赶考”路上，人民政协责任重大、使命光荣。市政协常委会将更加紧密地团结在以习近平同志为核心的党中央周围，高举习近平新时代中国特色社会主义思想伟大旗帜，在市委的坚强领导下，扎实做好建言资政和凝聚共识工作，知责奋进、勇毅前行，为加快建设宁夏副中心城市和生态文旅特色市，奋力开创高质量赶超式发展新局面，谱写全面建设社会主义现代化美丽新宁夏固原新篇章而团结奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>292</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>市统计局围绕三个一全面推进公务员平时考核工作</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2020-10-19</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202010/t20201019_2259169.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['公务员平时考核是考核制度的重要组成部分，是落实从严管理干部要求的有效手段，实施平时考核有利于进一步加强干部管理，有利于工作抓实、抓细、抓牢。按照习近平总书记“考察识别干部，功夫要下在平时”的要求，固原市统计局党组围绕“三个一”，', '不断强化公务员平时考核力度，以科学精准的日常管理，推动各项工作高效落实，努力实现平时考核工作考准考实、考出成效。', '全方位了解公务员政治立场、大局观念、理论学习、日常言论、斗争意识等情况，确保考准考实干部政治素质。', '深入了解公务员在贯彻市委和政府重大决策部署和服务推动全局中心工作中工作推进情况、遇事担当意识、处理复杂问题能力以及提高统计服务能力，全方位近距离见人见事地为公务员“画像”。', '，坚持依法依规、公开透明，做到考核办法公开、过程公开、结果公开。每月建立“日记账”，每季度召开工作汇报会，主动“晒”成绩，背靠背交叉填写量化测评表，不参与考核人员计分，领导点评，当场结果反馈，防止打“人情分”、“面子分”，力求程序规范、组织放心、干部服气。', '坚持定性与定量相结合，结合年初工作计划、中心工作、干部职务职责、责任书等量化数据，科学设置政治素质（', '建立个人每月自评、领导季度点评、全员评议“三评”评价机制，与各项工作紧密结合，合理确定考核对象每个考核周期的考核结果，不搞简单的论资排辈，不搞平均主义，真正凭能力论英雄，以实绩定等次。', '把考核结果与职务职级晋升、评先树优等结合起来，做到区分优劣、激励担当，激发公务员干在平时、比在平时、优在平时的积极性，']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>292</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>中国对外开放年的三点启示</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2018-11-06</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201811/t20181106_1150453.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['首届中国国际进口博览会于11月5日在上海青浦拉开帷幕。来自130多个国家的3000多家企业接踵而至，从中东椰枣到哥斯达黎加菠萝，从法国创新药到德国粉碎机，从巴基斯坦时尚展到芬兰儿童主题乐园……琳琅满目的产品与服务，勾绘出一幅流光溢彩的中国开放图景。', '改革开放40年给中国与世界关系带来翻天覆地的变化。从面向美欧日等发达国家到开拓亚非拉等新兴市场，从“全球卖”到“全球买”，从向西方学习到他国来华“取经”，从国际体系的旁观者到国际体系的参与者、建设者，中国与世界的接触互动“更加深入和精细”。', '以历史的眼光看，中国对外开放40年，当是百余年来中国与世界互动最精彩的一章。它不但成就了中国作为世界第二大经济体的地位，更塑造了一支对世界和平发展极重要的力量。回顾这段成功历程，有三点重要启示。', '第一点启示是“融入”。中国开放进程的开启与中国同西方国家关系改善之间的同步并非偶然。我们打开大门，把西方的资金、技术、管理请进家门；我们也走出国门，一批批考察团、一波波留学生，把世界上关于国家治理、社会发展以及科学进步的先进理念带回来。学习、借鉴、吸收、创新，中国以敏而好学的姿态、时不我待的心态，投入到经济全球化的滚滚大潮，不断迈出坚实的时代步伐。', '难能可贵的是，在与世界的交融互动中，中国始终保持着自身发展道路和文化传统的独立性。很多人在探究新自由主义实验在东欧、拉美以及非洲遭遇阻力、失败但中国的改革开放能够成功的原因。正如俄罗斯高等经济学院东方学教研室主任阿列克谢·马斯洛夫所言，中国从西方借鉴一切对自己有利的东西，同时保持经济上的独立性，“中国人并未放弃自己的遗产，而是将其发扬光大”。', '第二点启示是“定力”。中国对外开放的40年里，国际形势并非风和日丽，中国与外部世界关系也并非一帆风顺。然而，尽管有冷战结束和“9·11”两次大事件的震撼，以及亚洲金融危机和国际金融危机两次大危机的考验，中国始终坚持“和平与发展仍然是时代主题”的判断，始终坚持独立自主的和平外交政策，始终坚持走改革开放这条“必由之路”。', '当下，世界政治中民粹主义、保护主义等逆流迎面而来，美国大范围挑起的经贸摩擦侵扰人心，但中国始终按既定节奏推进改革开放事业，始终高举构建人类命运共同体旗帜，推动世界发展与合作的进程。举办进博会，既彰显中国坚持扩大开放的决心，也表明中国为世界各国打造国际贸易合作平台的善意。这正是中国开放合作初心不改的生动例证。', '第三点启示是“担当”。法国知名汉学家高大伟曾说：“开放不仅让中国了解世界，也是中国在影响世界的过程。”随着体量更大、分量更重，中国以更积极姿态参与国际对话与合作，推动建立更加公正合理的国际新秩序，并为此向世界贡献了“一带一路”、亚投行等一系列公共产品。', '在历史前进的逻辑中前进，在时代发展的潮流中发展。随着进博会大幕开启，新时代中国与世界关系必将写下新的精彩一页。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>292</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>自治区党委常委市委书记张柱深入深度贫困县区调研督导脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201909/t20190904_1720593.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['自治区党委常委、市委书记张柱 深入深度贫困县(区)调研督导脱贫攻坚工作_固原市人民政府', '9月2日至3日，自治区党委常委、市委书记张柱带领分管扶贫工作副市长周文贵和市政协副主席、市委秘书长杨自平，以及市委办、市水务局、市扶贫办负责人，先后深入原州区、彭阳县、隆德县、西吉县调研脱贫攻坚等有关工作。特别是2日上午和3日下午，采取不打招呼、不作安排、暗访的形式，先后深入深度贫困县（区）原州区和西吉县，专题调研脱贫攻坚工作。', '日，自治区党委常委、市委书记张柱带领分管扶贫工作副市长周文贵和市政协副主席、市委秘书长杨自平，以及市委办、市水务局、市扶贫办负责人，先后深入原州区、彭阳县、隆德县、西吉县调研脱贫攻坚等有关工作。特别是', '日下午，采取不打招呼、不作安排、暗访的形式，先后深入深度贫困县（区）原州区和西吉县，专题调研脱贫攻坚工作。', '张柱书记先后在原州区河川乡明川村、西吉县马莲乡陆家沟村，与“两委”成员、第一书记等进行交谈，详细询问“两不愁三保障”完成情况、特殊困难群众生产生活情况、村级产业发展情况、群众增收情况等；考察了解基层干部对精准扶贫精准脱贫政策掌握情况。还随机走访农户，进牛棚、看住房，了解基本医疗保障、义务教育阶段控辍保学等情况。', '完成情况、特殊困难群众生产生活情况、村级产业发展情况、群众增收情况等；考察了解基层干部对精准扶贫精准脱贫政策掌握情况。还随机走访农户，进牛棚、看住房，了解基本医疗保障、义务教育阶段控辍保学等情况。', '，原州区、西吉县今年以来切实加强领导、精心谋划部署，上下齐心协力、工作扎实推进，脱贫攻坚取得了显著成效。', '第一书记（驻村干部）驻村帮扶、干部联户帮扶和社会扶贫，以及村级阵地建设等各项工作，下足绣花功夫、压紧压实责任，把工作做细做实做好。', '脱贫攻坚工作进入攻坚拔寨的关键时期，原州区要在今年达到脱贫摘帽目标要求、西吉县脱贫攻坚要取得决定性进展，任务艰巨、责任重大，不能有丝毫松懈情绪，尽锐出战、苦干实干，务求全胜。', '县乡村干部要加强学习，精准掌握政策、紧盯目标任务，明确工作标准、压实工作责任，从严从实逐村逐户摸底排查，不漏一户、不留死角，切实抓好整改落实。', '紧紧围绕“两不愁三保障”目标任务，彻底解决好基本医疗、义务教育、饮水安全、住房安全以及户籍管理、精准识别精准退出等问题，坚决避免漏评错退，决不能想当然、口说无凭搞虚假脱贫。要以过硬的本领、扎实的作风，确保打赢打好脱贫攻坚战。', '目标任务，彻底解决好基本医疗、义务教育、饮水安全、住房安全以及户籍管理、精准识别精准退出等问题，坚决避免漏评错退，决不能想当然、口说无凭搞虚假脱贫。要以过硬的本领、扎实的作风，确保打赢打好脱贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>292</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>市投资促进服务中心年工作汇报</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/zfxxgk/fdzdgknr/202211/t20221130_3865019.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['全面落实全市产业发展和招商引资大会、扩大有效投资狠抓项目建设大会安排部署，主动应对疫情不利影响，扎实开展', '强基础、抓招商、优服务三项重点工作，项目洽谈对接取得了新成效，成功引进落地产业项目3个，当年实际到位资金1.2亿元。', '中能建“绿色能源＋产业”一体化、宝鸡大地年产100万吨微生物有机肥、湖南达嘉维康医药与德立信医药', '中能建“绿色能源＋产业”一体化项目完成实施方案，宝鸡大地年产100万吨微生物有机肥项目完成注册、备案、选址和设计，湖南达嘉维康医药注资1.2亿元与德立信医药开启', '建立“在谈、签约、服务”三类项目清单，明确包抓责任人和服务事项，落实洽谈、签约、落地全过程服务。', '先后为顺鑫建投、华润五丰、新希望等20余家企业提供政策、土地等咨询服务，协助盈昌集团、浩海集团完成环保和耗能评估、清洁能源项目申报，服务中能建、新疆中泰、西安科汇开展项目考察和市场调研。', '余家企业提供政策、土地等咨询服务，协助盈昌集团、浩海集团完成环保和耗能评估、清洁能源项目申报，服务中能建、新疆中泰、西安科汇开展项目考察和市场调研。', '专人跟进服务宝鸡大地、中国能建、宁夏闽泰项目完成注册、备案、选址等手续，协调解决企业生活、办公用房；借助福建舒紫制药落实紫苏种源育苗和种植用地，中成药苏子油软胶囊生产、功能性健康食品等紫苏全产业链项目入驻宁夏长药良生大健康产业园。', '促成雪川农业、长江医药等企业融资8.45亿元。落实雪川农业进出口设备及马铃薯产品出口相关补贴政策，', '农业节水灌溉工程施工和蓄水问题。协助长江医药与各县区中药材种植合作社签订15.6万亩框架合作协议、办理中药材产业信息化两个平台、一个中心域名备案。服务纺织服装企业吸纳就业260多人次。', '万亩框架合作协议、办理中药材产业信息化两个平台、一个中心域名备案。服务纺织服装企业吸纳就业', '先后为碧桂园、水发浩海、明德中药、丰霖农业、兴百业、华人礼服等20多家企业提供防疫口罩37箱7.4万只，协调企业办理通行证130多个，返岗证明300多人次。专人下沉雪川农业助力企业防疫。', '主动承担产业专班统筹协调领导小组办公室工作职责任务，加强与“五特五新五优”各产业专班汇报沟通，对接工作，提供服务，建立起专班联络机制，配合中药材、轻工纺织、新材料、清洁能源、健康养老产业专班开展招商活动15次，对接洽谈以岭药业、中车株洲、', '年，中心虽在对接洽谈和引进落地项目上取得了一定成效，但在实际工作中仍存在：一是获取有效高质量投资信息渠道较窄；二是创新灵活运用各类招商方式，开展项目精准招商和有效对接上还需进一步提高；三是跟进对接意向企业，协调服务项目要素保障，解决企业落地卡脖子、堵点痛点问题力度还需进一步加大。', '）规定职责，紧盯做好产业专班统筹协调服务、产业精准招商、服务企业三项任务，持续在夯实基础、项目招引、创新服务上精准发力，全力做好五项重点工作，力争全年引进投资亿元以上产业类项目2个，促成落地建设1个。', '聚焦“五特五新五优”产业发展路径方向和现实需求，扎实开展产业调研，协同产业部门高质量论证招商项目，确保每个产业储备龙头项目5个以上，延链补链项目10个以上，编制《固原市2023年“五特五新五优”产业招商引资项目册》，积极通过各类渠道和资源对外推介发布。对标储备项目，精选编制招商目标企业目录，重新编制15个产业招商地图、招商宣传片、宣传折页，编印招商引资政策汇编。', '年“五特五新五优”产业招商引资项目册》，积极通过各类渠道和资源对外推介发布。对标储备项目，精选编制招商目标企业目录，重新编制', '持续深化与自治区政府驻外办事处合作，主动对接定点帮扶我市的央企和国有企业，加强与招商重点区域宁夏商会、产业协会协作，积极参加国内大型商洽会，扩宽招商新渠道，扩大交流朋友圈。', '等龙头企业供应链、产业链渠道，策划组织开展肉牛精细加工、高档休闲食品、冷链物流、饲料加工专题推介招商活动4场次；组织全市特色农业种养大户和合作社“走出去”考察学习，寻找合作企业，拓宽销售渠道。做好市主要领导外出招商活动策划组织。', '场次；组织全市特色农业种养大户和合作社“走出去”考察学习，寻找合作企业，拓宽销售渠道。做好市主要领导外出招商活动策划组织。', '推动建立信息互通、协调配合、专班服务、整体推进、要素保障、督查落实六项工作机制，扎实做好周动态、半月统计、月度通报、季度专报、定期督查等基础工作，提升服务产业专班开展小分队招商和项目对接能力，策划组织冷凉蔬菜、', '一企”包抓责任，全力推动福建民天实业特色农产品产销一体化、中绿集团食品加工、南湖实业商业综合体等重点在谈项目实现签约，服务中能建“绿色能源＋产业”一体化、宝鸡大地有机肥、中泰盐化工、中泽惠农智慧农业等签约项目落地建设。常态化开展入企服务，持续关注', '产业”一体化、宝鸡大地有机肥、中泰盐化工、中泽惠农智慧农业等签约项目落地建设。常态化开展入企服务，持续关注', '企业用工、融资、子女入学等热点、难点问题。推动建立企业联络机制，搭建落地企业交流平台，凝聚起强大招商合力。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>292</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>年固原市直属学校自主公开招聘普通高中教师公告</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202307/t20230731_4201310.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['下载、打印准考证。应聘者须携带准考证和有效居民身份证（过期身份证、户籍证明等不作为有效证件）参加考试。逾期未打印准考证或丢失准考证影响参加考试的，责任由应聘者承担。', '应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合报考条件的，随时取消应聘资格', '统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，在本招考岗位按笔试成绩从高分到低分依次', '学信网出具的学历、学位证明，取得国（境）外学历学位证书的应当提供国家教育部门出具的学历认证报告。参加资格复审时需填写', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。因体检或考察不合格的或者自愿放弃出现的空缺岗位，在面试合格人员中按考试总成绩从高分到低分依次递补。', '对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '）招聘相关工作人员、应聘者在办理自主公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》相关要求提出回避。', '应聘者报名时所留电话应保持畅通，因电话不畅通导致无法通知相关事宜的，责任由应聘者承担。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>292</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发马汉成市长黄湘宁常委在固原市人民政府勤政廉政会议上的讲话通知</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2013-01-15</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384028.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发马汉成市长、黄湘宁常委在固原市人民政府勤政廉政会议上的讲话通知_固原市人民政府', '固原市人民政府办公室关于印发马汉成市长、黄湘宁常委在固原市人民政府勤政廉政会议上的讲话通知', '现将马汉成市长、黄湘宁常委在固原市人民政府勤政廉政会议上的讲话印发给你们，请结合工作实际，认真学习领会，抓好贯彻落实。', '议精神，分解任务、细化方案、明确责任，统一思想，坚定信念，开好局、起好步，强化责任抓落实，确保干成事不出事。为什么叫勤政廉政会议而不是政府全体会，主要考虑新一届政府组成部门主要负责人配备还有一个过程，但工作不能等、不能拖。市委对开好今天会议非常重视，非常支持。会前，我邀请湘宁常委参加会议并讲话，湘宁常委作了认真准备，讲话语重心长，希望大家学习领会。会议邀请人大、政协、军分区和法、检两院领导参加，对大家的支持表示感谢。按照会议安排，原州区围绕加快建设小康社会，交通局围绕重点项目实施，分别代表县(区)、部分作了表态发言，讲得非常好，这既代表了大家的心声，更代表了你们向全市人民的承诺。 下面，围绕今天会议的主题，我主要讲两方面意见，与大家共勉。 一、', '经济社会发展的思路、目标、任务，体现了全市人民的意志和心声，包括我代表市人民政府向299名代表、155万人民承诺：誓拔穷根，迈向小康。要兑现这个承诺，必须要勤政。勤政是前提，为民是落脚点、是根本目的。勤政，重点要把握好五个关键环节。 第一，勤学。学什么，要学习政治理论、廉政纪律、法律法规和业务知识，', '做到思想上始终保持清醒、政治上始终坚定、作风上始终务实、业务上精益求精;要学习党的十八大、自治区第十一次党代会、市第三次党代会精神和市三届人代一次会议通过的《政府工作报告》，不仅领导干部要带头深刻理解掌握指导我市未来五年发展的战略、纲领、措施，还要组织团队、集体中每一个成员深学、学透;要外出学习，增长见识。我到固原工作两个月，先后布置了几个课题研究，深深的感到：我们干部学习的深度不够，不论是理论，还是业务，包括多个方面，对政策的学习、理解、把握还很欠缺。比如，让拿出小康攻坚计划，结果把一个简单的事弄的很复杂，没有抓手，老虎吃苍蝇没处下爪。又比如，实施宁夏内陆开放型经济试验区方案，起草时就把底子打坏了，路子也走偏了。所以，我觉得学习是终身的任务，通过学习提高认识。我的理解认识由五个“识”构成：第一是常识。这是人与生俱来就有的本能。第二是知识。要通过老师教授、自己学习获得的基本知识、基本技能，在中学、大学阶段需要完成的积累。第三是见识。就是见多识广，在工作中能力的提升;前面我讲要增长见识，主要是我发现我们的干部出去的太少，部门、单位负责人出去的少，一般干部更少，甚至有些干部连飞机都没有坐过，坐井观天怎么能有见识呢?所以，在《政府工作报告》里加了一句话：鼓励外出考察，增长见识。第四是胆识，在前三个阶段的基础上经过历练，形成的决策能力，没有一定的见识和驾驭能力，就不敢做决策。第五是共识，大凡成就一番伟业、大事，必须有共识，所以要干成事业，必须统一思想。人一生的认识必经这五个阶段，前两个是在学校必须完成的，第三个要在工作中不断提升，第四、第五必须要历练，而且要多个岗位历练，多个地方锻炼。 第二，勤思。“学而不思则罔” 。“思”不是背或记什么东西，而是思考', '。第一要思考自己的思想(人生观)。要反省、反思自己的行为、观点和想法是否符合人民的期盼，符合党的要求。第二要思考做好自己岗位上的事。在其位谋其政，心无旁骛，不能老想着别人的事到处品头论足。第三要思考对人民事业的忠诚。静心安心，尽职尽责，尽心尽力，办好人民的事，用自己的实绩给地方一个交代。有一位专家曾说：什么是国力，国力就等于国家的经济强盛和国民对国家的忠诚度。这句话很有道理，我国在明清时代，论经济实力、国际地位诸多方面都处于领先地位，为什么坚船利炮袭来时，我们的国门就轻而易举被叩击开来，因为国民对国家失去了信心;为什么中国共产党能够以少胜多，用小米加步枪战胜了飞机大炮，最终建立了新中国，就是因为共产党人怀着对人民群众实现共同富裕的坚定信念，舍生忘死，义无反顾，这就是忠诚。结合固原，我们为什么发展慢、为什么穷，同样的自然环境、人文环境，难道是老百姓的错?我认为是当官的责任。所以，大家要在深入学习的基础上多思，忠于事业、忠于人民，对地方负责、对百姓负责。 第三，勤谋。谋什么，要谋固原发展的政策，谋固原百姓幸福的出路，要谋', '一批固原跨越发展、强市富民的重大项目。与川区及周边地区比较，我们几乎没有相对优势，论资源，总量少;论劳动生产力，经济发达地区一人顶我们十人;论生产成本，电价一度七毛七分，比银川高三毛钱，黄河水价三毛钱，川区的几分钱，而且还严格限额，运输以公路为主，运价高。所以，我们必须谋政策、谋项目，降低生产成本，这是各级组织、各级干部必须要做的事情。当前，重点谋好三件事。一要抓住自治区“两区”建设这个机遇和平台，加快制定我市落实“两区”建设实施方案，出台一批具有优势和竞争力的政策、项目，打通固原发展的通道，吸引各种优质资源向我市集聚。二是谋划在2013年争取自治区召开第五次固原工作会议，提出支持产业发展、财政金融税收等方面政策，与自治区厅局积极对接，力争批复，形成固原的政策洼地、投资热土;以上两项很多是可以共用的，请旭辉、志宏副市长，发改、财政等相关部门抓紧起草准备。三是谋划建设六盘山生态补偿示范区。党的十八大提出，要建设美丽中国，把生态文明建设写进了指导思想，与经济建设、政治建设、社会建设、文化建设并列为“五位一体”;最近，国家部委正在研究生态补偿政策，对我市而言这是机遇，祖祖辈辈种树给我们留下了非常宝贵的资源，我们一定充分利用资源，争取国家将六盘山区列为生态补偿示范区，促进固原快发展。 第四，勤跑。跑什么，跑国家部委，跑自治区厅局，跑经济发达区，实现争', '政策、争项目、争资金、招商引资大丰收。固定资产投资是拉动我市经济发展的决定性“马车”，在全市固定资产投资中，近60%是国家、自治区投资，社会投资不到40%，而全国经济发达地区社会投资达70%，有的地区则占到90%以上，这充分说明，我市经济发展对国家、自治区投资的依赖度高，无论是从国家的支持力度讲，还是从市场经济发展规律看，这样的发展支撑力是十分有限的、不可持续的。一个地区先进生产力的代表是企业，对贫困地区而言，招商引资既是资金、理念的输入，更是生产力的形成。要多跑北京，多跑银川，要政策支持、产业支持;多跑经济发达地区，多与经济发达地区的人士交朋友，引进企业自主发展，才能够真正解决强市富民的问题。昨天，我在彭阳与21位福建第八批援宁挂职干部一起座谈，他们不仅带来了资金，更多的是带着感情、带着经济发达地区的发展理念来帮扶当地百姓脱贫致富，他们谋划用社会资金办十个系列工程，让我非常感动。别人尚能如此，我们自己更应倍加努力，今天签订的招商引资任务，各个部门、单位必须完成。 第五，勤干。一要做好本职工作，敢拼敢闯，不甘落后，争先进位，创先争', '优，奋勇争先，各部门、单位要在自治区系统内争创一流。尽管我市是国家级贫困地区，但在工作的很多方面我们在全区是率先的，用于民生的财政支出达到85%以上，自治区才73%。所以，只要我们做好本职工作，把钱用到老百姓生活改善、生产发展上，保证不会引起人们的反对，就能赢得老百姓的信任和拥护，就能树立政府良好形象。二要抓好大事、实事、重点项目，要落实在前，负责到底。各位市长要带头把中央关于改进作风、密切联系群众的规定坚决贯彻到工作之中，管好分内的事，管好自己的人。多深入实际研究解决问题，我有一个判断：绝大多数群体上访几乎都是因为工作失误造成的，凡是通过集体上访能够解决的事，说明我们工作与群众的要求有差距，能办的事要早办、要办好。要从喜欢坐在办公室里，不愿意深入基层开展调研，不愿意登门走访普通百姓家的误区中走出来，带头深入基层调查研究，带头密切联系群众，带头解决实际问题，把市委、市政府确定的事情办的漂漂亮亮，让老百姓满意。今天与大家签订的目标管理责任书是战书、军令状，这不是独出心裁，而是基于新形势新任务的巨大压力。干事，绝不能按部就班，必须要以超常的思维谋划，以超常的举措落实。干事，要讲究投入产出，一个杯子十块钱，我们花了一百块钱干成了，这既不科学更不经济，这样的事我们不能干。干事，要攻坚克难出亮点，我们是贫困地区，基础条件与经济发达地区不一样，干成事难，但是潜力也不一样，只要干成事就是亮点。比如闽宁产业园，在川区很平常，但在西吉就是亮点，领导评价很高。 所以，只要我们做到五勤，就一定能够把群众关心的事，老百姓期盼的事，', '就是耽误别人，什么事都不干，虽然犯不了什么错误，但是误国、误民，这就是庸，庸比贪更可怕。这个方面我讲三层意思： 一要做到不想。古代讲，当官之法唯有三事：曰清、曰慎、曰勤，就是清廉', '、谨慎、勤勉，明白这三个法则，就知道该怎样要求自己了。我们的境界应该更高，以身作则，自严自律，把好钱权情，做到公正廉，立党为公、执政为民。当官别想发财。尤其在固原当官，就别想发财，为官一任，勤勉务实，干出一番实绩，让老百姓满意，造福一方百姓，清正廉洁，体现自己的价值，体现自己的成就感。钱是工具，不能做钱的奴隶，人最大的幸福是精神上的成就感，过去缺钱的时候，吃一碗面，骑着自行车，烦恼少幸福多;现在工资高了，小车有了，房子有了，反而烦恼多了，我们被物欲所左右，必须要警惕，要提高精神境界。当官要用好权。权是高悬在头上的一把双刃剑，要用在为民谋利上成就事业，绝不要想着用人民赋予的权力满足自己私欲，那是在给自己挖坑。必须时刻修正思想，知足常乐。当官要处理好“情感”。回顾近年来发生的一些贪污腐化的大案要案，可谓触目惊心、不寒而栗，归结为一点，就是没有处理好自己与亲人、亲戚、同学、朋友的感情，没有把住原则，导致犯错。关于情，一句话，就是要处理好自己的工作圈、生活圈、人际圈，不要被各种糖衣炮弹吸引迷惑、拉拢腐蚀，不要贪欲甚重、蛇吞大象，不要把持不住自己，沉湎于钱色交易、纸醉金迷。所以，我讲第一个就是不想，把好思想总开关，坚定理想信念，管理好人财物，做到公道、正派、清廉。 二要做到不能。突出制度建设，制定不是只挂在墙上看的，而是要在实际工', '作中执行的。在市政府第一次常务会上，成立了固原市规划委员会、固原市土地和矿产资源决策委员会、固原市本级财经领导小组。就是把大家关注的、容易出问题的重点部位和关键环节，通过制度规范约束，让各级干部重规矩、守规矩，从源头上规范权力运行，让大家不能越轨行事办事。 三要做到不敢。扁鹊三兄弟的故事告诉我们，事后控制不如事中控制，事中', '控制不如事前控制。廉政建设，第一要教育。通过纪律教育防止犯错误。中央提出改进作风八项规定是有所指、有实质性内容的，关于廉政建设也是有实质性举措的，我们一定要学习好、贯彻好、执行好，构筑反腐倡廉坚固防线。其次要监督。加强对政府监督，自觉接受法律监督、社会监督和媒体监督，规范权力运行，让公权在阳光下运行，让干部始终感觉到身边有好多眼睛看着，自觉养成接受监督、严于律己的习惯。第三要惩治。始终保持惩治腐败的强劲势头，对滥用职权、贪污贿赂、腐化堕落、失职渎职等群众最关注、最深恶痛绝的违法违纪问题，不论涉及到谁，都要一查到底，决不手软，营造不敢腐败的环境。 最后，再强调三件事：一是元旦、春节将至，各县(区)、各部门切实帮助', '群众解决各类实际困难，抽出足够的时间和精力，深入到群众中去，帮助群众解决实际困难，让群众都能感受到党和政府的关心和温暖，让全市人民过上欢乐祥和的节日。二是做好安全生产各项工作。进入冬季以来，气候变化难测，要牢固树立安全意识，切实做好森林防火、道路交通、人员密集场所、易燃易爆物品等方面安全隐患排查整治，切实做到防微杜渐、防患于未然。三是作风建设。要按照中央八项规定和市委要求，从抓工作、发文、接待做起，不要烟酒齐上、大吃大喝;会要少开，开现场会，开解决问题的会;文要少发，发有用的文，这方面我们一定要作出表率，腾出精力、资金，解决好困难群众生活生产问题，为更多的人谋更多的福。 以上我谈了一点自己的认识和看法，不一定正确，希望大家能理解，也希望', '通过我的一席话，对大家有所触动，能引人思考。 谢谢大家。 在固原市政府勤政廉政会议上的讲话 黄湘宁 (20', '康社会的关键时期，在市三届一次人代会胜利闭幕之际，市政府及时召开勤政廉政会议，是有效落实市委三届三次全会精神的具体体现，是建设责任政府、法治政府、服务政府、廉洁政府的具体体现，对于加强领导班子建设、改进工作作风，全面推进“三个转变”、“实施六大战略”，具有十分重要的意义。下面，马市长还要作讲话，我们一定要抓好贯彻落实。借此机会，我就加强勤政廉政建设、改进工作作风，先讲两点意见： 一、深入学习贯彻党的十八大精神，充分认识勤政廉政、改进作风的重要性', '势，党的十八大强调，要“坚定不移反对腐败，永葆共产党人清正廉洁的政治本色”，要做到“干部清正、政府清廉、政治清明”，要“严明党的纪律，自觉维护党的集中统一”;习近平总书记提出了“打铁还需自身硬”的新要求，强调要切实解决自身存在的突出问题，切实改进工作作风;中央政治局制定了《十八届中央政治局关于改进工作作风、密切联系群众的八项规定》，向全党发出了转变作风、改进党风的新号召，充分体现了中央从严治党的坚定决心和鲜明态度。市委把明年作为全市“作风建设推进年”，着力治理“庸懒散软奢”等突出问题，切实提高执行力，符合中央和自治区精神，符合固原实际。今天召开政府勤政廉政会议，目的就是要求广大党员干部切实贯彻落实中央和区市关于勤政廉政、改进作风的新要求，进一步统一思想、统一行动，在加快推进固原发展的进程中，坚持勤勉务实、清正廉洁，开创工作新局面。 勤政廉政、改进作风，是实现固原跨越发展、强市富民的迫切需要。市第三', '次党代会确立了“把握一个主题、推进三个转变、实施六大战略”的发展思路，市三届三次全会确立了“五加快五统筹”的目标任务，市三届人大一次会议确立了“五抓五提升”的政府工作总要求。全市经济社会发展思路更加清晰，目标更加明确，重点更加突出，措施更加有力。将宏伟蓝图变为现实，是对全市各级组织执政能力和水平的考验，也是对各级领导干部工作责任和作风的考验，需要有一种风清气正、认真负责、踏实干事的好风气，需要有一支勤政廉洁、勤奋努力、勤勉尽责的好队伍，需要有一个上下齐心、层层负责、真抓实干的好局面。否则，再宏伟的目标，再科学的决策，都会落空。勤政廉政是对党员干部的政治要求，我们要坚持从党员干部特别是领导干部抓起，从解决不勤政、不廉政的问题抓起，从转变工作作风做起，从群众不满意的地方改起，认真履行好政府职能和领导责任，切实做到敢干事、会干事、干成事、不出事，在全市上下形成思发展、谋发展、促发展的强大合力。 勤政廉政、改进作风，是加强自身建设的有力举措。近年来，市委、市政府始', '终高度重视勤政廉政建设、改进工作作风。特别是2011年5月开展“思想大解放、树立新形象”活动以来，市委、市政府大力加强作风建设，制定了改进干部作风“十项规定”和“八办要求”，先后出台了“五个问责”办法，下大气力治理“庸懒散软”等突出问题，全市党员干部树立了“奋发有为、敢为人先、开放包容、勇于创新、激情干事”的新形象，以作风大转变促进了经济社会大发展，2011年全市地区生产总值、全社会固定资产投资、规模以上工业增加值、地方财政一般预算收入四项主要经济指标增幅位居全区第一，城镇居民人均可支配收入、农民人均纯收入增幅位居全区第二。但是，在一些党员干部尤其是领导干部中仍然存在思想解放不够、服务意识不强、纪律观念淡薄、工作作风不实的问题，仍然存在为政不勤、执行不力、效率不高、联系群众不务实、不深入等问题。如果这些问题得不到彻底改变，势必会损害党群干群关系，影响固原形象，阻碍固原发展。对此，我们必须要有清醒的认识，切实增强责任感和紧迫性，把勤政廉政建设、改进作风作为加强自身建设的有力抓手，摆在更加突出的位置来抓，下大气力解决存在的问题，以勤政廉政、改进作风的成效推进发展、破解难题、改善民生、促进和谐。 二、坚持勤政廉政、改进作风，切实形成敢干事、会干事、干成事、不出事', '干部最起码的要求，是领导干部的天职。廉政，是指办事公正廉洁，不以权谋私，清廉为官，廉洁从政是党员干部从政的前提条件。“勤生明，廉生威。”“勤而不廉要出事，廉而不勤要误事。”当前和今后一段时期，我市处于全面建成小康社会的决定性阶段，处于中央和自治区扶持政策密集倾斜的关键阶段，项目多、资金大，为全面建成小康社会带来了千载难逢的机会。全市各级党员干部特别是领导干部，是推进固原发展的中坚力量，思想观念、精神状态、工作作风和成效如何，直接关系到固原的发展。因此，一定要以“敢干事、会干事、干成事、不出事”为根本要求，加强勤政廉政建设和作风建设，既做到勤政，勤于思，敏于行;又做到廉政，干净干事，清白做人。 要敢干事。敢干事，是一种气魄，一种勇气，是干成事的基础。全市各级领', '导干部要带头深入开展“思想大解放、树立新形象”活动，对照“五个破除，五个树立”的要求，在更高层次、更深领域上推进思想解放、观念转变、作风改进，着力破除封闭保守、因循守旧、安于现状、不思进取的思想，着力摒弃怕担风险、怕负责任、消极怠慢的意识，着力增强创新意识和机遇意识，在想问题、做决策、办事情、推工作时，在抓事关全局的大事、重大项目、战略任务、决策部署中，要有超前意识和创新意识，善于研究，大胆探索，敢想敢干，敢为人先，敢于突破，敢于碰硬，做到困难面前不畏缩，问题面前不回避，形成敢于干事、敢于担当的浓厚氛围。 要会干事、干成事。会干事，是一种能力、一种胆识;干成事是一种效率、', '一种结果，是对干部的基本要求。会干事、干成事，必须加强学习，改进作风，勤于政事，甘愿奉献。要强化学习。要以“学”为先，争做学习型领导干部，建设学习型领导班子，认真学习研究中央和区、市一系列重大决策和政策措施，学习政治理论、业务知识，提高科学发展的能力、履行职责的能力、为民谋利的能力。重点要学习《廉政准则》等党纪政纪条规和法律法规、政策规定，增强法律意识、纪律意识，把握政策界线，明确规定要求，清楚哪些应该做，哪些不该做。要严格制度。要“严”字当头，严格遵守各项规章制度和廉洁自律各项规定，严格执行中央“八项规定”、市委改进干部作风“十项规定”和“八办要求”，要求别人做到的自己首先做到，要求别人不做的自己坚决不做。要坚持民主集中制，注意听取不同的意见，不搞“一言堂”、“小圈子”，不搞个人说了算，对于重大事项、重要人事安排、重大项目、大额度资金使用，要集体研究决定，严格按规定、按程序办理，做到用制度管权、按制度办事、靠制度管人。要改进作风。要从自身做起，带头严格执行中央和区、市党委、政府关于改进工作作风、密切联系群众的有关规定，以良好的党风带动政风民风。要按照市委“作风建设推进年”的部署要求，以治理“庸懒散软奢”和提高执行力为重点，制定具体措施办法，重点解决一些党员干部能力不足、履职不力、作风不实、精神状态不佳、干劲不足、执行不力、效率不高等问题，更好地把市委、市政府确定的发展思路、主要目标和重点工作落到实处。要带头勤政。全市各级领导干部要带头加强勤政建设，抓好班子，带好队伍，干好本职工作。要强化勤政警示教育，把勤政的要求渗透到思想深处，明确不勤政也会犯错误。要以实干为先。习近平总书记强调“空谈误国，实干兴邦”。市委李书记要求干部要“实干、公道、廉洁”。各级领导干部要从点滴入手，从具体事情做起，抓实质问题，用心想事、用心谋事、用心干事，高标准、高效率、快节奏。干事前，搞好调研，认真思考，抓好谋划，明确干事的目标、措施和要求;干事中，抓好组织协调，强力推动落实，针对发现的新情况、新问题，及时提出新对策、新办法;干事后，及时反馈情况，听听群众反映，看看办事效果，抓好总结提高。要乐于奉献。领导就是责任，有职就有责，职位越高，责任越大。各级领导干部要充分认识到“官”是为人民服务的岗位，“权”是为人民服务的工具。要不断强化党性教育、宗旨教育，强化责任意识，弘扬奉献精神，以身作则、率先垂范，识大体、顾大局，不计较、不攀比、不懈怠，做到在其位、谋其政、尽其责，对安排部署了的工作，对决定了的事情，要尽职尽责，一抓到底，保证事情布置一个落实一个，工作抓一项成一项，事业干一件成一件。 要不出事。不出事，是一条底线、一种坚守，是干成事的保障。要认真履行', '党风廉政建设职责，在座的都是领导干部，是部门工作的组织者、领导者、决策者，也是抓党风廉政建设的主体。对于每个领导干部来说，搞好本单位及职责范围内的党风廉政建设，不仅是完成任务的问题，而且是履行好职责，从政治上关心爱护干部的问题。因此大家在履行职责时要做到“一岗双责”，既要抓好经济工作、业务工作，也要担负起抓党风廉政建设的责任，切实落实好党风廉政建设责任制，自觉地把党风廉政建设融入到业务工作之中。必须切实认识到，忽视党风廉政建设，肯定会出事，相反，只要领导班子的主要负责人敢抓敢管，一个班子就不容易出问题。要按照“干部清正、政府清廉、政治清明”的新要求，强化对党员干部特别是领导干部的监督管理，保证干成事、不出事。要严明纪律。纪律面前没有特权，纪律约束没有例外。各级党员干部在贯彻落实中央和区市重大决策部署，推进市委、市政府中心工作、重点任务、重大项目建设中，一定要自觉遵守党章，自觉遵守各项政治纪律，严格按照规定和准则办事，在重大问题上头脑清醒，在重大事件中经得起考验，坚决维护政令畅通。对发现的“上有政策、下有对策”、“ 有令不行、有禁不止”等违反政治纪律的行为，要严肃追究有关人员的责任。要严格监督。权力是一把“双刃”剑，既可以用来为人民服务，也可以用来为个人、为小团体谋私利。市城管局私设“小金库”的案件表明，我们有些领导干部法纪意识淡薄，没有很好地利用手中的权力为群众谋福利，而是为本单位谋私利，两位局长均被免职，并给予党政纪处分，令人惋惜。各级领导干部一定要从市城管局的案件中吸取经验教训，始终牢记“两个务必”， 时刻做到看“权”要自重，掌“权”要自省，用“权”要自律。当前和今后一段时期，支持我市发展的普惠性、特惠性政策多，落地的重大项目多，在实施和管理中，每一名党员干部特别是领导干部，握有一定权力，一定要明白，职务越高、权力越大，责任也就越重。怎样才能做到工程优质、干部优秀、服务优良?要从严格教育、严格管理、严格监督抓起，加强对重点部位、重点领域、关键环节特别是管人、管钱、管物等岗位的监管，保证执行好政策，实施好项目，管理好资金，坚决防止事情没干成干部却出事，项目未上马干部却倒下的问题发生。要严以律己。一个人的身体只有固本强身，增强免疫力，才能抵抗病菌的侵入，防止疾病缠身。一位领导干部能否做到清正廉洁、健康成长，道理也如此。组织和人民既然把我们放到了领导岗位，我们就必须负起历史赋予的使命和任务。一方面要有过人的能力、过人的才识和过人的组织能力真正具备领导者的素质;另一方面要不断完善自我，增强廉洁自律意识，提高拒腐防变的能力，自觉做清正廉洁、勤政为民的模范。因此，全市各级领导干部要始终把清正廉洁作为执政之要、立身之本，自觉加强党性锻炼，强化道德养成，时时处处讲党性、重品行、作表率，纯洁社交圈，规范工作圈，管住活动圈。要树立正确的事业观、政绩观、工作观，珍惜组织提供的干事平台，从严要求和约束自己，任何情况下，都要稳得住心神、耐得住寂寞，经得住诱惑、管得住手脚，坦坦荡荡做人，清清白白从政，干干净净干事，以高尚的人格魅力创造一流的工作业绩，树立为民务实清廉的良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>292</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案年年的通知</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2016-12-19</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384663.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案（2016年—2020年）的通知_固原市人民政府', '固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案（2016年—2020年）的通知', '《固原市全民科学素质行动计划纲要实施方案(2016年—2020年)》已经固原市人民政府同意，现印发给你们，请认真贯彻执行。', '自2006年实施全民科学素质行动计划纲要以来，特别是“十二五”期间，在自治区党委、人民政府的正确领导下，我市围绕全市经济社会发展大局，履职尽责，联合协作，扎实推进了未成年人、农民、城镇劳动者、领导干部和公务员、社区居民等重点人群科学素质行动，带动了全民科学素质水平整体提高;科技教育、传播与普及工作广泛深入开展，科普资源不断丰富，大众传媒科技传播能力明显增强，科普基础设施建设持续推进，人才队伍不断壮大，公民科学素质建设的公共服务能力进一步提升;公民科学素质建设共建机制基本建立，大联合大协作的局面逐步形成，为全民科学素质工作顺利开展提供了保障。2015年，我市公民具备科学素质的比例达到 1.9 %，较2007年的1.02%提高了0.88个百分点，为“十三五”全民科学素质工作奠定了坚实基础。', '但是，也应清醒地看到，目前我市公民的科学素质总体上仍处于全区较低水平与自治区(自治区2015年4.01%)平均水平相比仍有较大差距，全民科学素质工作发展还不平衡，不能满足新常态下经济社会发展的总体要求。主要表现在：县城，乡村差距明显，面向农民、中老年人和妇女的全民科学素质工作仍然薄弱;科普基础设施不完善，科普供给不足;科普技术手段相对落后，科普信息化程度低，均衡化、精准化服务能力亟待提升，科普人才队伍建设有待加强;科普事业投入不足，全社会参与的激励机制不完善，科普产业培育和发展落后。“十三五”时期是我市实施创新驱动发展战略的关键时期，也是与全区同步实现全面建成小康社会的决胜阶段。进一步加强公民科学素质建设，不断提升人力资源质量，对于增强自主创新能力，推动大众创业、万众创新，引领经济社会发展新常态，注入发展新动能，助力全面建成小康社会具有重要战略意义。', '深入贯彻党的十八大和十八届三中、四中、五中，六中全会和习近平总书记系列重要讲话精神，认真落实自治区党委、政府和固原市委、市政府的决策部署，围绕“五位一体”总体布局和“四个全面”战略布局，牢固树立创新、协调、绿色、开放、共享的发展理念，以脱贫攻坚为统领，以改革开放和科技创新为动力，以提高人的素质为核心，围绕‘六大工程’。坚持“政府推动、全民参与、提升素质、促进和谐”的工作方针，围绕“节约能源资源、保护生态环境、保障安全健康、促进创新创造”的工作主题，继承创新、拓展提升，开放协同、普惠共享，精准发力、全面跨越，推动科技教育、传播与普及，扎实推进全民科学素质工作，激发大众创业创新的热情和潜力，为深入实施创新驱动发展战略，实现全面建成小康社会的目标筑牢公民科学素质基础。', '到2020年，社会化大科普工作机制更加完善，科学技术教育、传播与普及显著发展，基本形成适应经济社会发展需求的现代公民科学素质组织实施、基础设施、条件保障、监测评估等体系，公民科学素质建设的公共服务能力显著增强，全市公民具备科学素质的比例达到3.8%。', '——促进创新、协调、绿色、开放、共享的发展理念深入人心。围绕经济社会发展新常态的需求，突出工作主题，弘扬创新创业精神，更加关注保障和改善民生，大力宣传普及高新技术、绿色发展、健康生活等知识和观念，在全社会形成崇尚科学的社会氛围和健康文明的生活方式。引导社会力量多渠道多形式参与科学素质工作，推动全民科学素质提升与实施创新驱动发展战略有机融合。', '——以重点人群科学素质行动带动全民科学素质整体水平持续提升。青少年的科学兴趣、创新意识、学习实践能力明显提高，农民和城镇劳动者的科学生产生活能力快速提高，领导干部和公务员的科学意识和决策水平显著提升，城乡居民之间科学素质差距逐步缩小。', '——公民科学素质建设的公共服务能力显著增强。科学教育与培训体系不断完善，社区科普益民服务机制逐步建立，科普信息化建设水平显著提高，大众传媒科技传播能力和科普基础设施保障能力增强，科普资源不断丰富，科普人才队伍发展壮大，公民提升自身科学素质的机会与途径显著增多。', '——公民科学素质建设长效机制不断完善。公民科学素质建设的共建、社会动员、考核评估等机制进一步完善，社会各方面参与公民科学素质建设的积极性明显增强。“大联合、大协作、共推进”的工作机制更加完善，政府推动、部门实施、全社会广泛参与的工作格局基本形成。公民科学素质建设的政策措施和监测机制不断完善，经费投入不断增加，形成多渠道、社会化投入机制。科普工作与科研、教育、卫生,文化、生态等事业紧密结合，全民科学素质工作的合力不断增强，社会化工作氛围更加浓厚。', '1.宣传创新、协调、绿色、开放、共享的发展理念，重点围绕节约能源资源、保护生态环境、保障安全健康、促进创新创造等内容，普及科学知识和科学方法，激发青少年科学兴趣，培养青少年科学思想和科学精神。', '2.完善基础教育阶段的科技教育，加强科技教育教师队伍培养，完善基础教育阶段的科学教育课程，开展形式多样的科普活动和社会实践，加强科技场馆与学校的有机结合，发挥互联网等信息技术在科技教育和科普活动方面的作用，促进校内外、城乡科普及教育资源的合理分配和公平普惠，使学校科技教育与社会科普活动有效衔接，不断增强中小学生的创新意识、学习能力和实践能力，培养青少年对科学技术的兴趣爱好，促进中小学阶段科技教育水平大幅提升。', '3.完善高等教育阶段科技教育，培养大学生崇尚科学道德，弘扬科学精神，提高大学生科学研究、创新创造创业的能力。', '4.巩固农村义务教育普及成果，提高农村特别是农村中小学科技教育质量，为农村青少年提供更多接受科技教育、培训和参加科普活动的机会，培养农村青少年独立学习和自我发展的能力。', '1.推进义务教育阶段的科技教育。按照学生发展核心素养框架要求，完善中小学科学课程体系，建立科学课程标准，并依据中小学科学学科素养要求，更新中小学科技教育内容，加强对探究性学习的指导。完善中小学科技教育内容和考核评价制度，培养学生的创新意识和创新精神。提高科学课程和数学、物理、化学、生物等课程的教学质量，帮助学生掌握基本的科学知识与技能。创新科学教育方法，鼓励学生通过参与、体验、实践和动手制作等方式提高科学素质。开展市级科普示范学校评选活动，“十三五”期间新增科普示范学校10所。', '2.推进高中阶段的科技教育和实践。鼓励普通高中开设科学教育选修课，拓宽学生的知识面。发挥各类科普教育基地、科普示范基地的作用，支持开展研究性学习和科学实践、社区服务与社会实践活动，提高学生的探究能力。加强中等职业学校科技教育，推进科技教育进教材、进课堂，系统提升学生科学意识和综合素养，培养学生的职业技能和就业创业能力。加强对农村高、初中生的职业教育，提高其自身生活能力和生产技能，使他们成为农村科普生力军和未来致富带头人。', '3.丰富校外和课外科技教育活动。动员和组织科技和教育工作者开展与青少年面对面的科技交流活动，开展“大手拉小手”科技传播行动、科技专家进校园、科技夏(冬)令营等活动，学校每学年科普讲座不少于4次，参与科普活动的在校学生不少于80%，开展防灾避险应急演练师生参与率达到80%以上，普及节约资源、保护环境、防灾应急、身心健康等知识，加强珍爱生命、远离毒品和崇尚科学文明、反对愚昧迷信的宣传教育。开展科技馆活动进校园、科普大篷车进校园、流动科技馆巡展等科学教育和科普活动，探索科技教育校内外有效衔接的模式，推动科技教育活动向所有中小学延伸覆盖。面向农村学生、农民工子女开展科学普及、学业辅导等志愿服务，帮助他们提高科学素质、丰富生活阅历。加大科技辅导员队伍建设，扩大学生参加课外科技活动的渠道和机会，到2020年，全市科技辅导员总量达到300人以上。', '4.推进信息技术与科技教育、科普活动融合发展。充分利用信息技术手段，推进优质科技教育信息资源共建共享。加强信息素养教育，帮助青少年正确合理使用互联网。大力开展青少年科学节、中小学生五项学科竞赛、青少年科技创新大赛、机器人竞赛、科技创意大赛和校园科学节等活动，组队参加全国性各类科技活动，加强青少年数字技能学习教育，不断满足青少年对科技、教育信息的个性化需求。加强高校与科技创新单位(部门、企业)的联系合作，支持在校大学生开展创新性实验、创业训练和创业实践项目，为青少年提供将科技创意转化为实体成果的渠道和平台。', '5.营造未成年人健康成长的良好环境。开展“家庭教育进社区”活动，举办家庭教育知识讲座，教育引导广大家长更新观念，树立正确的教育观，掌握正确的家庭教育知识和方法。加强对农村科普教育资源的倾斜，关注关爱农村留守青少年科技教育，开展面向农村留守青少年的科技辅导、心理疏导、安全培训等方面的志愿服务活动。积极开展面向青少年的公益性科技传播活动，建立健全青少年科学教育评价和科学素质评估机制，客观反应和评价青少年的科学素质。', '1.宣传创新、协调、绿色、开放、共享的发展理念，围绕农业现代化、加快转变农业发展方式、保护生态环境等，贯彻党和国家强农富农政策，普及资源节约、环境友好、乡村文明等知识和观念，在广大农村形成讲科学、爱科学、学科学、用科学的良好风尚。', '2.充分利用互联网技术，加强农村科普信息化建设，促进农业服务现代化，强化农民技能培训，提高农村富余劳动力向非农产业和城镇转移就业以及适应现代科学文明生活的能力。', '3.将普及实用技术与提高农民科学素质结合起来，着力培养2万名具有科学文化素质、掌握现代农业科技、具有一定经营管理能力的新型职业农民，全面提升农民的生活水平。', '4.进一步加大对贫困地区科普工作的支持力度，大力提高农村妇女和农村留守人群的科学文化素质。', '1.大力开展形式多样的新型农民科技教育培训。全面实施《农民科学素质教育大纲》，鼓励各类培训机构大力开展面向农民的科学教育活动，建立适应需求的农村科学教育培训体系。持续深入开展农业从业人员培训，提高农民职业技能水平。依据就业市场需求和企业岗位需求，对农村转移就业劳动者开展订单、定岗培训，使其掌握初级以上职业技能或达到上岗要求。充分发挥农村党员干部远程教育网络、农业广播电视学校、社区科普活动站、农村科普服务站、农村专业技术协会、农业技术推广站、农村专业合作社等作用，面向农民开展科技教育培训。以产业发展和新型职业农民培育需求为导向，以农民专业合作社、农业龙头企业等农业经营主体为依托，“十三五”期间建设农民田间学校20所，90%以上的乡镇(含县级以下涉农企业)农技人员、80%以上的村干部和农民党员劳动力每年接受科技培训，90%的农村基层干部和农村青年党员至少掌握2门以上实用技术。深入实施农村青年创业致富“两个带头人”培养计划，促进农村青年创新创业。实施“巾帼脱贫行动”，培养一支综合素质高、生产经营能力强、主体作用发挥明显的新型职业女农民队伍。加强对生态移民村农民的科技培训，每人每年度受训2次以上。', '2.广泛开展形式多样的农村科普活动。组织开展文化科技卫生“三下乡”、科技活动周、科普日、世界粮食日等各类科普活动，积极组织参加全国农民科学素质网络知识竞赛，大力普及绿色发展、安全健康、耕地保护、防灾减灾、绿色殡葬等科技知识和观念，传播科学理念，反对封建迷信、反对非法宗教、远离“黄赌毒”，帮助农民养成科学健康文明的生产生活方式，提高农民健康素养，建设美丽宜居村庄。总结推广科技专家服务团、科普惠农服务站等有效经验做法，形成长效服务机制。', '3.加强农村科普公共服务体系建设。深入实施“基层科普行动计划”，加强农村科普“站、栏、员”和电子科普宣传栏建设，推进科普中国农村e站落地应用。将科普设施纳入农村社区综合服务设施、基层综合性文化中心等建设中，提升农村社区科普服务能力。建立以农村实用人才为主体的专家咨询服务团和志愿者队伍，发展壮大基层科普队伍，市建立由专家组成的科技服务团(讲师团)，县(区)、乡镇(街道)、村(社区)建立科普志愿者队伍，积极开展各种科普活动。到2020年，80%以上的乡镇建有农村专业技术协会，80%以上的行政村有科技示范户、科技带头人、科普员，形成以科技致富能手为主体的农民科普队伍。开展国家、自治区级科普示范县(市、区)创建活动，在2016年—2020年周期内，创建全国科普示范县(市、区)2个、自治区科普示范县(区)2个。', '4.加强对薄弱地区的科普工作。实施科普精准帮扶，加强回族群众聚集区、边远地区、集中连片贫困地区公众科技传播体系和科普服务能力建设，建立更加广泛的科技传播渠道，加大对农村妇女和农村留守人群及南部山区、中部干旱带农民的科普服务力度。结合“民族团结月”、回族传统节日，开展科普进宗教场所等内容丰富、形式多样的科普宣传活动。', '1.宣传创新、协调、绿色、开放、共享的发展理念，弘扬创新创业精神，引导更多劳动者积极投身创新创业活动。', '2.坚持科学素质和专业技能提升相结合，立足服务民生、助力产业升级、推动结构调整，建立面向全体劳动者的职业技能培训体系，加强对城镇企业职工、专业技术技能人才、进城务工及失业人员的培养培训。', '3.围绕贯彻落实创新驱动发展战略，以专业技术人才、高技能人才、进城务工人员及失业人员的培养培训为重点，营造大众创业、万众创新的氛围。', '4.以城镇劳动者的全面发展需求为重点，推动安全生产、信息技术、职业技能等相关的知识和观念在城镇劳动者中广泛普及，提高城镇劳动者科学生产和健康生活能力，提升城镇劳动者科学素质整体水平。', '1.广泛开展各种形式的职业技能培训。构建以企业为主体、职业院校为基础，各类培训机构积极参与的职业培训和技能培训体系。面向城镇全体劳动者，突出从业技能和新知识、新技术的学习，开展订单、定岗、定向等多种形式的就业技能培训、岗位技能提升培训、安全生产培训和创业培训。围绕提升职工职业技能，每年组织开展一定规模的技术比武、技能比赛、岗位练兵及青年职业技能大赛活动， “十三五”期间，每年90%以上的街道、社区干部接受各类科技培训和科普教育，城镇80%以上的各类从业人员接受在岗培训、继续教育，每年培训各类技能人才8000人。', '2.加强专业技术人员继续教育工作。以创新创造创业能力建设为核心，健全完善专业技术人员继续教育制度。围绕固原市经济社会发展和关键领域科技需求，深入实施专业技术人才知识更新工程，加强专业技术人员继续教育和少数民族专业技术人才特殊培养。充分发挥科技社团在专业技术人员继续教育中的重要作用，帮助专业技术人员开展技术攻关、解决技术难题，参加跨行业、跨学科的学术研讨和技术交流活动。“十三五”期间，每年培训160名左右重点行业领域高层次骨干专业技术人才，各县(区)每年培训1000名左右急需的紧缺人才和专业人才。', '3.开展日常性职工科普教育活动。深入开展“讲理想、比贡献、比创新”“创建学习型组织·争做知识型职工”“安全教育行动”等活动，举办面向职工的专题讲座，组织职工技能竞赛和同业竞赛交流活动，开展小革新、小发明、小创造等群众性技术革新活动，组织专家服务团队深入企业开展送科技活动。加大面向企业科技工作者的科普宣传，组织专家服务团队深入企业开展送科技活动。加大面向科技工作者的健康知识科普宣传，组织开展健康讲座、心理培训等宣传教育活动。关注进城务工青年的情感需求和心理问题，加强对务工青年的培训和人文关怀，提高进城务工人员在城镇的稳定就业和科学生活动能力。', '1.着眼于提高领导干部和公务员的科学执政水平、科学治理能力、科学生活素质，加强马克思列宁主义、毛泽东思想和中国特色社会主义理论体系和习近平总书记系列重要讲话精神等科学理论的教育，宣传创新、协调、绿色、开放、共享的发展理念。', '2.充分利用现代信息技术，加强科技知识、科学方法的培训和科学思想、科学精神的培养，使领导干部和公务员的科学素质在各类职业人群中位居前列，推动领导干部和公务员更好地贯彻实施创新驱动发展战略，提升科学决策与管理水平。', '1.加强领导干部和公务员现代科学知识教育。认真贯彻落实《干部教育培训工作条例》有关规定，严格执行《2013—2017年全国干部教育培训规划》部署要求，将科学素质建设列入各级行政机关和企事业单位教育培训规划和各级党委(党组)中心组理论学习内容，在组织培训、自主选学和在职学习中，突出科学理论、科学方法和科学知识的学习培训以及科学思想、科学精神的培养，强化对马克思主义基本原理、习近平总书记系列重要讲话精神等内容的学习。加强对县(区)党政领导、科技行政管理干部、国有企业、高新技术企业技术负责人等限性的科学教育培训。', '2.充分发挥党校、行政学院开展教育培训的阵地作用，将科学素质教育列入教学计划，加强领导干部和公务员科学素养课程体系建设，帮助领导干部和公务员不断提升科学管理能力和科学决策水平。鼓励和引导各级干部培训机构设立或增加领导干部、公务员科普体验实践课。充分利用宁夏干部教育培训网络等网络化、智能化、数字化教育培训手段，扩大优质科普信息覆盖面，丰富干部科学教育学习内容，满足领导干部和公务员多样化学习需求。', '3.在选拔录用、综合评价工作中充分体现对领导干部和公务员科学素质的要求。在党政领导干部、企事业单位负责人任职考察、年度考核中，强化与科学素质要求有关的具体内容。在公务员录用考试中，强化对科学素质的测评。在完善领导干部和领导班子综合考评体系时，注重对科学素养的考察。加大宣传力度，为领导干部和公务员提高科学素质营造良好氛围。', '4.举办面向领导干部和公务员的各类科普活动。有计划地组织领导干部和公务员到高等院校、科研院所、厂矿企业实地参观学习，引导各级领导干部带头参加各类科普活动。有针对性地举办科普报告会，固原市每年不少于2场次，县(区)每年不少于1场次。编发针对领导干部和公务员应知必读的科普读本。积极组织专家学者开展咨询服务活动，着力提升广大基层干部和公务员的科学素质。', '3.改进教学方法，推行创新型教育方式，满足不同对象的科学教育与培训要求，着力培养参加对象的科学精神、创新思维和创新能力。', '4.完善科技教育培训基础设施，不断提高科技教育培训基地、场所的利用效率，保障科技教育与培训有效实施。', '1.加强教师科学素质教育能力建设。完善科技教育体系，鼓励师范院校开设科技教育等专业和相关课程，培养更多科技教育师资。定期开展以“新理念、新课程、新技术和师德教育”为重点的教师培训工作，举办各类科学教育培训班、研讨会，加强对中小学各学科教师新知识、新技能、新技术的培训，提高教师科技教育的能力和水平，实现一线科学教师和骨干科技辅导员培训全覆盖。加强职业教育、成人教育和各类培训机构科学教育教材建设，结合不同人群的特点和需求，以科学发展观、先进适用技术、职业技能、现代科技知识等为主要内容，更新课程内容，改进教学方法，完善科学课程，增强培训效果。各级党校、高等院校、科研院所、职业学校、函授学校等机构，积极开展多种形式的科技培训和进修活动，有计划地组织在职科技教育、传播与普及人员参加进修培训，提高科学素质和业务水平。积极组织教学改革经验交流、科普讲座等活动，帮助教师在实践中不断提高专业水平，提升科学教育质量。鼓励科技场馆、科普示范教育基地等开展专题科技培训和讲座。', '2.加强科技教育与培训的基础设施建设。根据实际需求，因地制宜建设科技教育培训基础设施，重点加强农村中小学科技教育基础设施建设。合理规划布局现有科技教育培训基地、场所，不断提高使用效率。依据科学课程的需要，建立健全科学教育实验室(或学校科技活动中心)和中小学科普教育基地，充实科技教育实验仪器、教具、音像设备、计算机等教学器材和图书。推进宁夏教育网和其他网络媒体建设，加快数字科技馆开发建设，使中小学科学教师和中小学生能方便快捷地从网络、图书馆获得高质量的教学资源和学习支持。', '3.优化整合社会科技教育资源。发挥现代信息技术的作用，建立广覆盖、多层次的科技教育网络，不断丰富网络教育内容，促进优质教学资源广泛共享。动员高等院校、科研院所、科技场馆、职业学校、成人教育培训机构、社区学校等公共机构积极参与科技教育和培训工作，为各类人群提升科学素质提供更多机会和途径。支持中小学校以科普教育特别是防灾减灾知识教育为重点，积极推进科普示范学校建设，带动和促进广大中小学校科普教育活动广泛开展。', '4.健全科教结合、共同推动的科技教育模式。推动高等院校、科研院所的科技专家参与科学教师培训、中小学科学课程教材建设和教学方法改革。推动有条件的中学科学教师到高等院校、重点实验室参与科研实践。加强高校科学道德和学风建设，推动高校师生广泛树立科学道德和科学精神。', '1.坚持科普益民和科普育人相结合，宣传创新、协调、绿色、开放、共享的发展理念，普及尊重自然、绿色低碳、科学生活、安全健康、应急避险等知识和观念，提升社区居民应用科学知识解决实际问题、参与公共事务的能力，提高居民健康素养，促进社区居民全面形成科学文明健康的生活方式。', '2.围绕建设文明和谐学习型社区，大力提升社区科普公共服务能力，促进基层社区科普服务设施融合发展，推动城镇常住人口科普基本公共服务均等化，全面提升居民科学素质，助力以人为核心的新型城镇化发展。', '1.广泛开展社区科技教育、传播与普及活动。深入开展科技、文化、卫生、安全、健康、环保进社区等活动，持续开展科技培训、科普讲座活动，社区每年举办培训、讲座、报告会、咨询服务不少于5次，社区居民、劳动人口或外来务工人员的参与率累计在50%以上，进一步提高社区居民崇尚科学、反对迷信、科学生活、健康生活的科学素质。组织开展社区气象、防震减灾、燃气用电安全、电梯安全以及社区居民安全技能、老年人急救技能培训等各类应急安全教育培训活动，深入开展行业为民服务联动活动，实施各种便民利民科普惠民工程，健全完善科普资源的共建共享机制，实现社区工作融合发展。', '2.改善社区科普基础条件。依托社区公共服务场所和设施，完善社区科普活动室、图书室、科普画廊等基础设施，拓展科普功能。发挥互联网、移动通信等新兴传媒功能，推动社区科普信息化建设。将科普工作列入社区工作议事日程，积极推进科普设施整合利用。实施社区科普益民计划，支持有条件的社区建设社区电子科普显示屏，设立科普益民服务站，将科普与文化、体育活动等有机结合，把科学知识的普及宣传、娱乐融为一体，丰富科普活动内容，营造浓厚的科普氛围。', '3.加强社区科普组织和队伍建设。搭建社会化的社区科普工作格局，有效整合社区及周边科普资源，建立共建共享机制，鼓励学校、科技社团、科普场馆、科普教育基地、企事业单位支持和参与社区科普活动，助力和谐社区、美丽社区建设。围绕社区 “站、栏、员”建设，建立社区科普宣传员和科普志愿者队伍，每个社区建立具有10名以上相对稳定的兼职科普志愿者，每人每年参加科普志愿服务时间累计不少于15小时。发挥社区干部、离退休科技工作者的作用，加快推进社区科普活动室，积极开展科学生活、社区矫正、心理疏导、人文关怀等宣传教育活动。', '1.以科普信息化为核心，推动科普观念、科普内容、传播方式、组织动员、运行和运营机制等服务模式的全面创新。', '2.推进优质科普内容资源供给，运用群众喜闻乐见的形式，实现科普与艺术、人文有机结合，推出有知有趣有用的科普精品，让科学知识在网上和生活中流行。', '3.推动传统媒体与新兴媒体的深度融合，发挥报刊、广播、电视等传统媒体和互联网等新兴媒体在科技传播中的作用，开展多渠道全媒体传播，提升大众传媒的科技传播水平。', '4.推动科普信息在社区、学校、农村等落地应用，提升科技传播精准服务水平，定向、精准推送科普信息。', '1.实施“互联网+科普”行动。广泛动员社会各方力量开展科普信息化建设，推动信息技术和手段在科普中的广泛深入应用。探索建立“科普固原”体系，引导建设众创、众包、众扶、众筹、分享的科普生态圈，打造科普新格局。以满足公众对科普信息化需求为导向，发挥市场的引导、优化和调节作用，推动科普产品的研发、生产、集散和服务。着力开发原创性和贴近生活、贴近群众、贴近基层的优秀科普展教品，整合全市数字科普资源，实现全市科普信息资源网站联网、上下互动、信息共享。', '2.拓宽科普传播渠道。落实广播、电视、报刊、网络等大众传媒传播科学知识、科学方法、科学思想、科学精神的社会责任，努力打造科学传播品牌栏目，提高报刊、广播电视、网络的科技专栏、专题质量。开办固原新闻网“科普固原”网页、固原广播电视台“固原科普” 电视和广播专题，不断打造具有广泛影响的媒体科学传播精品。鼓励报刊和网站增加科普内容或增设科普专栏。推动县级以上电视台、广播电台普遍开设科教栏目。推动传统科普渠道与新媒体深度融合，大力推广科普内容一次创作、多次开发、全媒体呈现的融合模式，实现科普的跨媒体、跨终端传播。结合“智慧宁夏”建设，开辟手机、视频、微信等新媒体科技传播途径，力争到2020年实现公民通过互联网有效获取科技信息的比例达到70%以上，城镇社区、学校的科普信息到达率90%以上，乡村社区的科普信息到达率70%以上。', '3.构建实体科普展教资源平台。加强科普展教内容设计，围绕公众关注的科学热点，开发、引进科教影视节目、科普图书、挂图等展教资源，提高资源利用率和活动效果。推动旅游景区、绿色生态园等结合自身优势，开展特色科普展教活动。围绕不同人群的心理特点和个性化需求，设计开发互动式、体验式科普展览和教育活动。继续做好“科技馆活动进校园”和“流动科技馆”巡展活动，促进科普展教活动与学校科学课程教学、综合社会实践和研究性学习相衔接，推动高校、科研机构和企业的优质科普资源向社会开放。', '4.推动科普信息的落地应用。依托中国科协科普中国服务云、科普中国V视快递、科普中国乡村e站、社区e站、科普中国校校通等方式，实施“科普文化进万家”活动，推进科普信息在社区、学校、农村等落地应用。鼓励社会各界开办有影响力的科普公众号，采取线上线下相结合、科普中国应用包分发等方式，加大对全市特别是贫困地区、回族群众聚集区的科普信息定制化推送服务。', '1.加强对全市科普基础设施建设与运行的宏观指导、系统设计和前瞻布局，逐步拓展科普基础设施的科普服务功能，开发利用好科普资源，构筑公民科学素质建设的物质支撑体系。', '2.注重科普基础设施功能和作用的发挥，增强科普基础设施整体服务能力，增加公众提高自身科学素质的机会与途径。', '3.优化科普资源配置，形成数量适当、布局合理的科普基础设施发展格局，切实满足日益增长的公众科普文化需求。', '1.统筹科普基础设施建设发展。实施固原市科普基础设施发展规划，将科普基础设施建设纳入各县(区)基本建设计划。加强对科普基础设施建设的宏观指导，制定完善全区科普基础设施建设与管理的规范标准和运行机制，加大对公益性科普设施建设和运行经费的公共投入。研究建立科普基础设施的评估体系，开展监测评估工作。', '2.加强基层科普设施建设。依托现有资源，因地制宜建设一批科技教育、培训、展示等多功能的开放性、群众性科普活动场所和科普设施，加快对现有科普设施进行更新改造，满足公众参与科普活动的需求。加快建设农村中学科技馆，在各级科普示范学校中建设青少年科学工作室，利用信息化手段扩大科技场馆和科普教育基地的辐射带动作用。县(区)均拥有综合性科普活动场馆或青少年科技活动中心，科普服务能力进一步增强，公众参观数量有较大增长。', '3.巩固发展各类科普教育基地。积极发展农村实用技术型科普教育基地、科学研究与创新型科普教育基地、现代工业技术型科普教育基地，依托现有资源建设国土资源、环境保护、安全生产、食品药品、质量监督、林业、地震、气象等行业科普教育基地。', '4.广泛发展基层科普活动阵地。加强科技场馆及基地与少年宫、文化馆、博物馆、图书馆等公共文化基础设施的联动，拓展科普活动阵地。在农村、社区积极发展科普活动站(服务站、活动室)和科普宣传栏(画廊)，推进网络信息站点建设。拓展农业科技服务车、计划生育宣传车等现有资源的科普功能。到2020年，建设科普服务站(活动室、活动站)500个以上，建设科普宣传栏(画廊)1600个以上。', '责任分工：固原市科协、发改委、科技局牵头，市委宣传部、教育局、宗教局、民政局、财政局、人力资源社会保障局、', '环境保护局、农牧局、卫计局、林业局、总工会、团委、妇联、地震局、气象局等单位参与配合。', '1.注重科普资源共建共享机制建设，集成区内外科普资源，建立共享交流平台，为社会公众提供资源支持和公共科普服务。', '2.引导、鼓励、支持科普产品和信息资源开发，注重科学与艺术、自然科学与人文社会科学的结合，创作开发一批优秀科普作品。', '3.增强科普产品制作能力，加大数字化科普资源建设力度，推进科技成果转化为科普资源。', '1.提升科普资源开发能力。围绕全市经济社会发展总体目标和要求，创作一批紧扣时代脉搏、适应市场需求、公众喜闻乐见的优秀科普作品并推向市场。支持全市广大科技人员，以及从事科普编创、科技传播等专业机构和社会力量，共同策划、制作、出版科普挂图、科普图书等出版物。以评奖、作品征集等方式，加大对优秀原创科普作品的扶持、奖励力度。', '2.健全科普资源共享机制。集成区市科普信息资源，建立全市科普信息资源共享和交流平台。促进各地、各部门开展科普资源开发共享协作，优化配置科普资源，提高使用效能。加大科普资源数字化建设力度，搭建数字科普资源共享平台，推动市内科普、科技、教育、传媒有效融合。整合校外科普教育资源，利用科技类博物馆、青少年科技活动中心和社区科普活动室等资源提高青少年科学素质服务。围绕节能减排、生态保护、医疗健康、食品安全、防灾减灾、安全生产等主题，引导全社会开发科普资源，集成一批内容丰富、形式多样的科普资源包，为学校、农村、城镇社区等共享使用。', '3.推进科技成果转化为科普资源。加快各类科技、教育资源开发转化，积极发挥科技社团和科技工作者的作用，探索学术交流与科普活动的紧密结合，促进学术资源向科普资源转化。推动高等院校、科研机构、工程中心(实验室)、高新技术企业等向公众开放实验室、展示室等科技类设施，促进科技创新资源向科普资源转化。到2020年，全市高等院校、科研院所科技类设施对外开放率达80%以上。探索科技创新和科普产业结合的有效机制，培育科普产业市场。搭建科普创客空间，支持创客参与科普产品的创新、创造、创业。鼓励有条件的地方建立科普产业园区和产业基地，鼓励科技项目承担者传播科技成果，加大政府购买科普产品和服务的力度。', '1.加强科普人才队伍建设，培养和选拔一批高水平科普人才，壮大专兼职科普人才队伍，推动科普志愿者队伍建设，优化科普人才结构。', '2.建立完善科普人才激励机制，推动科普人才知识更新和能力培养，增强适应现代科普发展的能力。', '3.培育一批高水平的科普创作与设计、科普研究与开发、科普活动组织策划、科普传媒、科普产业经营管理等方面人才。', '1.完善科普人才培养、使用和评价制度。落实国家和自治区中长期科技、教育、人才发展规划纲要，加强科普人才培养、使用和评价的政策研究，完善人才培养和动员机制，推动制定科普学科发展、科普专业设置、科普人才评价标准、技术职务等相关制度，建立激励机制，充分调动科普人员积极性。', '2.加强科普人才培养和继续教育。依托高等院校、科研院所、科普组织、企业与相关机构建立完善科普人才继续教育基地，以科普组织管理、科技教育、科技传播、科普活动组织、科普经营管理等从业者为重点，围绕科普的新理论、新方法、新手段等，及时更新补充新知识、扩展新视野、提升创新能力，以适应科技发展、社会进步和现代科普发展的新形势新要求。', '3.加强科普专业队伍建设。充分发挥科技社团、高等院校、科研机构等作用，搭建科学传播服务平台，发展壮大科学传播专家团队，建设一支专职青少年科技辅导和校外科技辅导员队伍。稳定和发展壮大农村、偏远山区科技辅导员队伍。依托基层各类组织，动员科技特派员、大学生村官、农村致富带头人、中小学教师和科普志愿者等担任科普宣传员，实现乡村社区科普宣传员全覆盖。依托基层各类农村专业技术协会、农民合作社组织、科普示范基地、科普活动站等科普组织，积极发展农村科普员队伍。开展社区科普服务站(活动站)、社区科普大学等各类社区科普设施创建活动，发展壮大社区科普工作者队伍。开展职工技能培训、继续教育和各类科普活动，培养和造就企业实用科普人才。到2020年，培养各类科普专业人才3600人。', '4.大力发展科普志愿者队伍。建立完善科普志愿者组织管理制度，推动各级各类科普志愿者队伍建设。建立科普志愿者社团组织，开展科普志愿者交流、培训、经验推广等工作。搭建科普志愿活动服务平台，充分发挥科普志愿者在各类科普活动中不可替代的作用，规范记录科普志愿者的服务信息，建立完善科普志愿服务激励机制。鼓励老科技工作者、高校师生、中学生、传媒从业者参与科普志愿服务。建立健全应对重大突发事件的科普志愿者动员机制，发展应急科普志愿者队伍。到2020年，发展各类科普志愿者8000人。', '5.巩固发展科协组织系统科普工作者队伍。在巩固提高科协组织系统科普工作者队伍的基础上，把各级科协组织的会员发展成为科普工作者，通过加强培训提高其整体素质，促进专职科普人才队伍不断壮大、能力不断提高。加大对基层科协组织科普人才的选拔和培养力度。落实科协组织系统的机构、人员编制及经费等政策，为科普工作者的发展和成长创造有利条件。', '6.加快高端和专门科普人才培养。围绕科普场馆建设与运行管理，重点培养科普创作与设计、科普研究与开发、科学实验等高端人才，大力培养科普传媒、科普产业经营、科普活动组织策划等专门人才。鼓励高等院校、科研院所、科普组织、大型企业与相关机构建设高端科普人才培训、实践基地。到2020年，发展高端和专门科普人才200人。', '责任分工：固原市科协、科技局、人力资源社会保障局牵头，市委组织部、宣传部、教育局、财政局、人力资源社会保障局、环境保护局、农牧局、卫计局、林业局、安监局、总工会、团委、妇联、地震局、气象局和固原师范参与配合。', '固原市人民政府负责领导全市全民科学素质行动计划纲要的实施工作。各有关部门要按照本实施方案的分工安排，将有关任务纳入本部门本系统的工作规划和计划，充分履行工作职责，发挥各自优势，密切配合，形成合力。固原市科协要发挥综合协调作用，做好日常沟通联络工作，会同有关方面共同推进公民科学素质建设。', '各县(区)人民政府负责领导当地全民科学素质行动计划纲要的实施工作。要建立健全实施工作领导组织，切实把公民科学素质建设作为推动地区经济社会发展的一项重要工作，纳入本地区经济社会发展总体规划，将重点任务列入年度工作计划，纳入目标管理考核，因地制宜地制定本县(区)“十三五”全民科学素质行动实施方案。要完善公民科学素质建设工作机制，加大政策支持和投入，全面推进本地区公民科学素质建设。加强科学素质纲要实施工作的督促检查，推动各项工作任务和目标的落实。', '1.建立完善共建机制。固原市全民科学素质纲要实施工作办公室(设在固原市科协)与各县(区)人民政府建立公民科学素质建设共建责任机制，签定目标责任书，加强工作指导和联络协调，形成一级带一级、层层抓落实的工作局面。', '2.建立科研与科普相结合的机制。继续落实在符合条件的国家和自治区科技计划项目中增加科普任务，将科普工作作为科技创新工作的有机组成部分，提高科普成果在科技考核指标中所占比重。固原市高等院校、科研机构、企事业单位的专家带头面向公众开展科普活动。', '3.建立完善监测评估机制。依据自治区科协制定的评估监测体系，定期对各县(区)开展公民科学素质调查和科普统计工作，客观反映我市公民科学素质建设情况，为科学素质纲要实施和监测评估提供依据。创新公民科学素质建设的评估方法，适时开展我市公民科学素质建设第三方评估。', '4.建立完善社会动员机制。结合全国科普示范县(市、区)、科普教育基地等创建活动，进一步形成政府推动、社会参与的良性机制。发动社会力量开展各类科技周(日)和主要纪念日主题科普活动，推进科普常态化。按照固原市有关规定，对在公民科学素质建设中作出突出贡献的集体和个人给予奖励和表彰，大力宣传先进人物和典型经验，营造浓厚的社会氛围。', '1.政策法规。在国民经济和社会发展规划、相关专项规划以及有关科技教育、传播与普及的政策法规中，体现公民科学素质建设的目标和要求。研究制定激励政策，解决专兼职科普工作者的工作、生活等方面的问题，使科普工作者的劳动成果与科研成果、学术成果同样得到社会的承认和尊重。充分调动科技、教育、传媒以及大学生、离退休工作者等社会群体参与科学素质建设的积极性，发挥其优势和作用，不断壮大科学素质工作队伍。', '2.经费投入。各级政府要按照本实施方案提出的目标，加大财政支持力度，强化政府财政投入的导向作用。要根据公民科学素质建设发展的实际需要，逐步提高科普经费的投入水平，并将科普经费列入同级财政预算。到2020年，市、县(区)财政人均科普经费均达到1元以上。固原市各有关部门要根据承担的工作任务，统筹考虑和落实所需经费。要通过众筹众包、项目共建、捐款捐赠、政府购买服务等方式，鼓励和吸引社会资本投入公民科学素质建设。', '1.启动实施。2016年，推动和指导各县(区)制定 “十三五”全民科学素质工作实施方案并启动实施工作。做好“十三五”全民科学素质行动计划纲要实施动员和宣传工作。', '2.深入实施。2017年到2020年，突出重点，分步推进，针对薄弱环节和工作“短板”，制定政策措施，解决突出问题，全面推动各项重点任务的落实。', '3.总结评估。2020年，在各县(区)、各成员单位自查基础上，组织开展实地督查，对“十三五”期间全民科学素质工作进行总结和全面评估，按照国家和自治区有关规定开展表彰奖励。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>292</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>固原市财政局关于印发固原市本级行政事业单位差旅费管理办法暂行的通知</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202402/t20240222_4463583.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['固原市财政局关于印发《固原市本级行政事业单位差旅费管理办法（暂行）》的通知_固原市人民政府', '为了加强和规范市本级行政事业单位国内差旅费管理，推进厉行节约反对浪费，依照《宁夏回族自治区本级党政机关差旅费管理办法》（宁财行〔', '号）和自治区、市过紧日子要求，结合我市实际，重新修订了《固原市本级行政事业单位差旅费管理办法（暂行）》，经固原市人民政府', '为了加强和规范市本级行政事业单位国内差旅费管理，推进厉行节约反对浪费，依照《宁夏回族自治区本级党政机关差旅费管理办法》（宁财行〔2014〕97号）和自治区、市过紧日子要求，结合我市实际，制定本办法。', '“各单位”）。本办法所称市本级党政机关，是指市委各部门、市政府各部门、各直属机构，市人大常委会办公室、市政协办公室，各人民团体，各民主党派和工商联。', '差旅费是指工作人员临时到常驻地以外地区公务出差所发生的交通费、住宿费和伙食补助费。', '市直各单位应当建立健全因公出差审批制度。出差必须按规定报经单位有关领导批准，从严控制出差人数和天数；严格差旅费预算管理，控制差旅费支出规模；严禁无实质内容、无明确公务目的的差旅活动，严禁以任何名义和方式变相旅游，严禁异地部门间无实质内容的学习交流和考察调研。', '差旅费标准按照分地区、分级次、分项目的原则制定。市财政局将根据经济社会发展水平、市场价格及消费水平变动等情况适时调整。', '城市间交通费是指工作人员因公到常驻地以外地区出差乘坐火车、轮船、飞机等交通工具所发生的费用。', '出差人员应当按照规定等级乘坐交通工具，凭据报销城市间交通费。未按规定等级乘坐交通工具的，超支部分由个人自理。', '（二）出差人员乘坐飞机要从严控制，出差路途较远、出差任务紧急或主办方统一要求的，经单位负责同志批准方可乘坐飞机。', '到出差目的地有多种交通工具可选择时，出差人员在不影响公务、确保安全的前提下，应当选乘相对经济便捷的交通工具。按乘坐交通工具的等级凭据报销。', '城市间交通费按乘坐交通工具的等级凭据报销。经批准发生的签转或退票费可以凭据报销。乘坐飞机的，民航发展基金、燃油附加费可以凭据报销。', '乘坐飞机、火车、轮船等交通工具的，每人次可以购买不高于30元交通意外保险一份，凭据报销。所在单位已购买内容相同保险的，不再重复购买。', '市内交通费是指工作人员因公出差期间发生的市内交通费用，出差人员出差期间按规定领取市内交通费。', '出差人员的市内交通费按出差自然（日历）天数计算，实行定额补助，包干使用。在自治区外出差，每人每天不超过80元；在银川、石嘴山、吴忠、中卫四市（含所辖市、县、区）出差，每人每天不超过60元；在固原市所辖四县、原州区（不含公务交通补贴保障区域：东至东岳山东环路，西至中河大营河，北至沈家河水库和机场，南至九龙山和二十里铺）各乡镇出差，每人每天40元。', '出差人员的市内交通费按出差自然（日历）天数计算，实行定额补助，包干使用。在自治区外出差，每人每天不超过', '元；在固原市所辖四县、原州区（不含公务交通补贴保障区域：东至东岳山东环路，西至中河大营河，北至沈家河水库和机场，南至九龙山和二十里铺）各乡镇出差，每人每天', '出差人员由所在单位派车（含租车）不发放市内交通费，出差人员由接待单位或其他单位提供交通工具的，应向接待单位或其他单位交纳相关费用。', '住宿费是指工作人员因公出差期间入住宾馆（含具有住宿功能的各类场所）发生的房租费用。执行分地区、分级别住宿费限额标准。', '出差人员应在规定的住宿费标准限额内选择入住安全、经济、便捷的宾馆等场所。坚持厉行节约原则，提倡两人一间。', '（二）在自治区以外地方出差的住宿费开支标准，参照财政部发布的中央和国家机关差旅住宿费限额标准执行。以后中央标准调整按调整后的标准执行，不再另行发文。', '以上住宿费标准为最高限额。各类人员应当坚持勤俭节约原则，根据其职级对应的住宿费标准及单位具体情况自行选择住宿房间类型，在限额标准内据实报销。', '伙食补助费是指对工作人员因公出差期间给予的伙食补助费用，出差人员出差期间按规定领取伙食补助费。', '在自治区以外地方出差的伙食补助费标准，参照财政部发布的中央和国家机关差旅伙食补助费标准。在途期间的伙食补助费按当天最后到达目的地规定标准报销。', '（一）在自治区内银川市、石嘴山市、吴忠市、中卫市以及所辖县（区）出差的工作人员，伙食补助费标准为每人每天', '到常驻地以外参加或举办会议、培训的，会议、培训期间执行会议费、培训费相关制度。往返会议、培训地发生的城市间交通费、伙食补助费和市内交通费按照本办法规定报销。', '举办单位统一安排食宿的，会议、培训期间的食宿费由会议、培训举办单位按规定统一开支；会议、培训期间承办单位不承担食宿费用的，食宿费按照本规定执行。', '根据组织安排，到常驻地以外地区单位实（见）习、工作锻炼、支援工作、异地挂职、到党校和大、中院校脱产（半脱产）学习的公务人员以及参加各种工作组的人员相关费用按以下规定报销：', '（一）节假日、双休日期间，往返常驻地与派驻地的城市间交通费由派出单位自行选定以下方式予以核报：', '（二）驻村期间伙食费按实际驻村天数发放（驻村天数与在途天数不能重复计算），每人每天补助', '工作人员经所在单位批准出差期间回家省亲办事的，城市间交通费按不高于往返单位与出差目的地按规定乘坐相应交通工具的票价予以报销，伙食补助费和市内交通费按往返单位与出差目的地天数（扣除回家省亲办事的天数）和规定标准予以报销。', '出差人员无住宿费票据的，可按批准的实际出差天数报销城市间交通费、伙食补助费和市内交通费，其他情况一般不予报销差旅费。', '实际出差，无城市间交通费发票的，由出差人员书面说明情况并经所在部门领导批准，可以报销住宿费、伙食补助费和市内交通费（出差人员搭乘公务车及平台租用车辆不得报销市内交通费）。', '当天往返但公务活动超过半天，可安排午休房。每日最多安排一次午休房，房费在不超过出差目的地住宿费限额标准的', '当天往返未住宿的工作人员，城市间交通费凭据报销，按规定报销伙食补助费和市内交通费。', '工作人员出差结束后应当及时办理报销手续。差旅费报销时应当提供出差审批单、机票（航空运输电子客票行程单）、机票查验单、车（船）票和住宿费发票等凭证作为报销凭据。单独凭订票单位开具的发票不作为报销凭证。', '住宿费、机票费等支出按规定用公务卡结算。采用网络订票的，应提供相应订票、支付信息截屏做凭证。', '出差人员应当严格按规定开支差旅费，费用由所在单位承担，不得向下级单位、企业或其它单位转嫁。', '经费报销的内控管理，对本单位差旅审批制度、差旅费预算及规模控制负责，相关财务负责同志、财务人员对差旅费报销进行把关。未经批准擅自出差、不按规定开支和报销差旅费的，要严肃处理。', '本办法自发布之日执行。转发《关于印发〈自治区本级党政机关公务人员赴外地挂职学习等期间伙食补助费交通费管理办法（暂行）〉的通知》（固财行发〔', '号）、转发《自治区财政厅自治区人力资源和社会保障厅关于自治区本级公务人员异地往返费用事项的通知》（固财行发〔', '号）、转发《自治区财政厅自治区机关事务管理局关于规范差旅伙食费和市内交通费收交管理有关事项的通知》（固财发〔', '号）《关于〈固原市本级行政事业单位差旅费管理办法〉有关问题的补充通知》（固财行发〔']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>292</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>关于转发自治区人力资源和社会保障厅关于做好年享受自治区政府特殊津贴人员选拔工作的通知的通知</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/201904/t20190401_1371333.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['关于转发《自治区人力资源和社会保障厅关于做好2019年享受自治区政府特殊津贴人员选拔工作的通知》的通知_固原市人民政府', '关于转发《自治区人力资源和社会保障厅关于做好2019年享受自治区政府特殊津贴人员选拔工作的通知》的通知', '现将《自治区人力资源和社会保障厅关于做好2019年享受自治区政府特殊津贴人员选拔工作的通知》(宁人社函〔2019〕149号)转发给你们，请按要求和程序认真组织推荐，并将纸质材料及电子版于4月30日前报市人力资源和社会保障局专业技术人员管理科。', '各市、县(区)人力资源社会保障(劳动保障)局，区直有关部门、直属事业单位，各大中型企业:', '根据自治区人民政府办公厅《转发人事厅〈关于改革和完善自治区政府特殊津贴制度的意见〉的通知》(宁政办发〔2005〕236号)和自治区党委、人民政府《关于进一步发挥现有人才作用和引进急需紧缺人才的若干规定(试行)》(宁党发〔2009〕47号)精神，现就做好2019年享受自治区政府特殊津贴人员选拔工作有关事宜通知如下:', '根据自治区人民政府办公厅《转发人事厅〈关于改革和完善自治区政府特殊津贴制度的意见〉的通知》(宁政办发〔', '〕236号)和自治区党委、人民政府《关于进一步发挥现有人才作用和引进急需紧缺人才的若干规定(试行)》(宁党发〔2009〕47号)精神，现就做好2019年享受自治区政府特殊津贴人员选拔工作有关事宜通知如下:', '(二)选拔范围:在我区自然科学、社会科学、教育、文化、卫生等领域以及在工农业生产第一线做出重大贡献和取得突出业绩的高层次人才和高技能人才。重点选拔在我区经济和社会发展优势产业、重大项目、重点工程、重点学科建设和关键技术领域中涌现出来的优秀人才。(同一人在同一年度不得同时申报两个以上自治区重大人才选拔项目)。', '(三)选拔条件:拥护中国共产党的领导，深入学习习近平新时代中国特色社会主义思想，热爱祖国，遵纪守法，品行良好，有较强的事业心和责任感。刻苦钻研技术，专业基础扎实，自主创新能力强，有高尚的学术道德，严谨的科研作风和科学、求实、团结、协作精神。', '(1)在自然科学研究中具有较高学术造诣，对学科建设、人才培养、社会发展做出突出贡献或者研究成果有创新性和重大科学价值，得到区内外同行专家公认，居区内领先或国内先进水平，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')在自然科学研究中具有较高学术造诣，对学科建设、人才培养、社会发展做出突出贡献或者研究成果有创新性和重大科学价值，得到区内外同行专家公认，居区内领先或国内先进水平，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(2)在工程技术研究与开发中具有重大发明创造、重大技术革新或解决了关键性技术难题，取得较大经济和社会效益，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')在工程技术研究与开发中具有重大发明创造、重大技术革新或解决了关键性技术难题，取得较大经济和社会效益，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(3)在哲学社会科学研究中有较高学术造诣、成绩显著，对社会发展和学科建设做出突出贡献。在基础理论研究领域中取得重大突破或重大原创性研究成果，以第一作者出版或发表过在学术界和社会上有较大影响的学术著作、学术论文或在应用研究中，承担国家或自治区级社会科学基金项目，科研成果处于区内外领先水平，获得省(部)级社会科学成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')在哲学社会科学研究中有较高学术造诣、成绩显著，对社会发展和学科建设做出突出贡献。在基础理论研究领域中取得重大突破或重大原创性研究成果，以第一作者出版或发表过在学术界和社会上有较大影响的学术著作、学术论文或在应用研究中，承担国家或自治区级社会科学基金项目，科研成果处于区内外领先水平，获得省(部)级社会科学成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(4)在信息、金融、财会、外贸、旅游、法律等现代社会管理和服务领域，为解决我区经济社会发展的重大问题提出基础性、前瞻性、战略性理论或对推动科技进步、技术创新和促进生产力发展做出突出贡献，取得显著的经济、社会效益。所创新的管理方法，经省(部)级相关部门鉴定并推广，并为社会和业内所公认的人员。', ')在信息、金融、财会、外贸、旅游、法律等现代社会管理和服务领域，为解决我区经济社会发展的重大问题提出基础性、前瞻性、战略性理论或对推动科技进步、技术创新和促进生产力发展做出突出贡献，取得显著的经济、社会效益。所创新的管理方法，经省(部)级相关部门鉴定并推广，并为社会和业内所公认的人员。', '(5)长期工作在教育教学一线，教学水平、教学效果为同行公认，在学科建设、人才培养、教育发展方面发挥重要作用，获得省(部)级以上优秀教师荣誉称号;教学、科研成果突出，所创新的教育方法经省(部)级教育行政部门鉴定并推广，获得省(部)级教学科研成果奖一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')长期工作在教育教学一线，教学水平、教学效果为同行公认，在学科建设、人才培养、教育发展方面发挥重要作用，获得省(部)级以上优秀教师荣誉称号;教学、科研成果突出，所创新的教育方法经省(部)级教育行政部门鉴定并推广，获得省(部)级教学科研成果奖一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(6)长期工作在农业生产和科技推广一线，有重要技术突破，在科研成果转化和技术推广服务等方面，有效地推动了行业技术进步和社会经济发展，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')长期工作在农业生产和科技推广一线，有重要技术突破，在科研成果转化和技术推广服务等方面，有效地推动了行业技术进步和社会经济发展，获得省(部)级以上科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(7)长期工作在医疗卫生领域一线的学科带头人，医术水平高，多次成功治愈疑难、危重病症;或在较大范围多次有效预防、控制、消除疾病，社会影响较好，业绩为同行所公认;科研成果有重大科学价值，获得省(部)级科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')长期工作在医疗卫生领域一线的学科带头人，医术水平高，多次成功治愈疑难、危重病症;或在较大范围多次有效预防、控制、消除疾病，社会影响较好，业绩为同行所公认;科研成果有重大科学价值，获得省(部)级科技成果一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(8)在宣传思想、文化艺术、新闻出版等领域做出突出贡献，能力、水平和业绩为社会和业内认可。主创、主演、主编(导)的艺术作品、科研成果获得省(部)级政府奖励一等奖1项或二等奖2项或三等奖3项的主要完成者。', ')在宣传思想、文化艺术、新闻出版等领域做出突出贡献，能力、水平和业绩为社会和业内认可。主创、主演、主编(导)的艺术作品、科研成果获得省(部)级政府奖励一等奖1项或二等奖2项或三等奖3项的主要完成者。', '(9)在教练执训工作中，直接培养的运动员在全国和全区比赛中取得名次和奖励，为发展我区体育事业做出重要贡献的职业体育教练员。', ')在教练执训工作中，直接培养的运动员在全国和全区比赛中取得名次和奖励，为发展我区体育事业做出重要贡献的职业体育教练员。', '具有国家一级职业资格(高级技师)，且长期工作在生产服务一线，近5年内须取得以下业绩成果之一:', '(1)获得过中华技能大奖、高技能人才楷模、全国技术能手等荣誉或省(行业)技能人才表彰，业绩突出，影响广泛。', ')获得过中华技能大奖、高技能人才楷模、全国技术能手等荣誉或省(行业)技能人才表彰，业绩突出，影响广泛。', '(3)在本企业、同行业中具有领先的技术技能水平，并在某一生产工作领域总结出先进的操作技术方法，取得重大经济社会效益。', ')在本企业、同行业中具有领先的技术技能水平，并在某一生产工作领域总结出先进的操作技术方法，取得重大经济社会效益。', '(5)在本职业(工种)中具有某种绝招绝技，在国际国内产生重要影响，并在带徒传技方面成效显著。', ')在本职业(工种)中具有某种绝招绝技，在国际国内产生重要影响，并在带徒传技方面成效显著。', '按照《宁夏回族自治区优秀高层次专业技术人才和高技能人才选拔办法》(宁党办〔2010〕78号)规定，采取自下而上、逐级推荐的方式申报。', '(一)个人申报、部门(单位)推荐。各市、县(区)、各部门(单位)组织人事部门按照选拔条件，及时公布推荐评选方案，组织本地市、本部门(单位)符合条件人员进行申报。非公有制经济组织人员的申报工作，按照属地管理原则，由所属地市人力资源和社会保障局组织进行。各地市人力资源社会保障局和区直部门(单位)对所属部门(单位)申报人员业绩、成果和贡献等情况进行审查核实，经各地市人才工作领导小组和区直部门(单位)党组(党委)会议研究同意后进行公示，公示无异议的分类报送自治区党委宣传部、教育厅、工业和信息化厅、农业农村厅、卫生健康委等行业主管部门。各地市、各部门(单位)推荐的人员须征求同级组织、纪检监察、审计、卫生健康等部门(单位)意见。', '(二)行业评审。对各地市、各部门(单位)上报的推荐人选，自治区行业主管部门应按照评选条件和评选程序，组织本行业专家进行评选，签署专家评审意见，并经行业主管部门党组(党委)研究后以正式函件形式，送自治区人力资源社会保障厅。', '(三)专家评审。由自治区人力资源社会保障厅会同有关部门组织召开专家评审会，对推荐人选进行评审排序。', '(四)组织考察。根据行业和专家评审结果，自治区人力资源社会保障厅会同有关部门研究提出考察人选并进行组织考察。考察以民主测评、个别谈话等方式进行。', '(五)确定人选。根据考察情况，自治区人力资源社会保障厅会同有关部门研究提出各行业人选建议名单，提请自治区人才工作领导小组会议审定。', '(六)社会公示。审定的人选建议名单在新闻媒体进行公示，广泛接受社会和群众的监督。公示无异议的，报自治区人民政府审定。', '(七)公布人选。经自治区人民政府审定的享受自治区政府特殊津贴人选，由自治区人民政府公布人选名单，并按相关规定颁发荣誉证书，落实相关待遇。', '开展享受自治区政府特殊津贴人员选拔工作，是加强高层次人才和高技能人才队伍建设的重要举措，对实施人才强区工程助推创新驱动战略、加快转型升级、提升自主创新能力具有重要意义。各地各有关部门(单位)要高度重视，精心组织，确保选拔工作顺利进行。', '(一)严格条件。各地市、各有关部门(单位)要严格按照规定的选拔条件推荐人选，坚持好中选优，切实把长期辛勤工作在一线、业绩成果突出、社会贡献大、业内认可的高层次人才和高技能人才选拔上来。', '(二)规范程序。推荐选拔工作由各地市人力资源社会保障局和区直部门人事(干部)处负责组织实施。基层单位按照隶属关系逐级向上级推荐人选。要充分发挥自治区科协、文联、社科联及所属学会、协会的推荐作用和渠道。各地市、各部门(单位)要进一步增强工作透明度，将选拔对象、条件、程序予以公开，确保推荐选拔工作公开、公平、公正。', '(三)及时报送。各市、县(区)所属单位、区属有关单位于2019年4月底前，将推荐人选报送所在地市人力资源社会保障部门和自治区行业主管部门，五个地级市于2019年5月底前将推荐人选报送自治区行业主管部门，自治区各行业主管部门于2019年6月底前将以下书面材料及电子文档报送自治区人力资源社会保障厅专业技术人员管理处。呈报主要材料有:', '年4月底前，将推荐人选报送所在地市人力资源社会保障部门和自治区行业主管部门，五个地级市于2019年5月底前将推荐人选报送自治区行业主管部门，自治区各行业主管部门于2019年6月底前将以下书面材料及电子文档报送自治区人力资源社会保障厅专业技术人员管理处。呈报主要材料有:', '3.与登记表、申报表内容相对应的证明材料1套。证明材料只需提供复印件，复印件须经推荐单位审核，由核实人签名，并加盖单位公章。证明材料以图书样式统一装订(著作另附)。', '与登记表、申报表内容相对应的证明材料1套。证明材料只需提供复印件，复印件须经推荐单位审核，由核实人签名，并加盖单位公章。证明材料以图书样式统一装订(著作另附)。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>292</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>关于印发六盘山林业局工作人员管理制度六盘山林业局工作人员病事假规定试行的通知</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2018-03-05</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201803/t20180314_704012.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['关于印发《六盘山林业局工作人员管理制度》《六盘山林业局工作人员病 事假规定》（试行）的通知_固原市人民政府', '关于印发《六盘山林业局工作人员管理制度》《六盘山林业局工作人员病 事假规定》（试行）的通知', '各单位、各科室： 《六盘山林业局工作人员管理制度》《六盘山林业局工作人员病、事假规定》（试行）经第5次党委会议研究通过，现予以印发，请各单位、各科室认真学习，严格贯彻执行。 附件：1.六盘山林业局工作人员管理制度 2.六盘山林业局工作人员病、事假规定（试行） 固原市六盘山林业局 2018年3月5日 （此件公开发布） 附件1 六盘山林业局工作人员管理制度 第一条为充分体现单位法人的主体责任，规范人事管理，建设高素质职工队伍，促进全局林业事业更好、更快发展，根据《中华人民共和国事业单位人事管理条例》（中华人民共和国国务院令第652号）、《自治区党委组织部、人力资源和社会保障厅、监察厅、财政厅关于进一步落实机关事业单位带薪年休假制度的通知》（宁人社发〔2011〕315号）和《六盘山林业局年度（聘期）考核管理制度》等有关规定，制定本制度。 第二条人事管理坚持党管干部、党管人才的原则，全面准确贯彻民主、公开、竞争、择优方针。 第三条各单位应当按要求建立健全人事管理制度，工作人员实行日考勤制度，对工作人员实行分级管理。局人力资源和社会保障科负责全局各单位人事综合管理工作；局属各单位具体负责本单位的人事管理工作。 第四条各单位可根据林业生产和护林防火工作需要采取轮流值班的形式享受周末及各种法定节假日，值班安排报两办及人力资源和社会保障科备案；护林防火高火险期，按《六盘山林业局高火险期管理制度》执行。 第五条工作人员事假实行定额管理。全年事假不得超过二十天（一次事假不能超过十五天）；全年事假累计超过二十天（一次事假超过十五天），扣发全年奖励性绩效工资。 第六条全局工作人员请假实行层级审签制度。 （一）各单位（科室）主要负责人请假由局分管领导、主要领导审批。请假及轮休安排报党委办公室、人力资源和社会保障科备案，护林防火高火险期同时报防火办存档备查。 （二）各单位（科室）副科级干部请假3天（含3天）以内由单位（科室）负责人审批；3天至5天由单位（科室）负责人签字后再由局分管领导审批；6天（含6天）以上单位（科室）负责人、局分管领导签字后，由局主要领导审批；一般职工请假由单位（科室）负责人审批。 （三）各单位干部职工日常管理严格执行本单位管理制度，请假（十五天以上）手续报局人力资源和社会保障科、防火办（高火险期）存档备查。 （四）干部职工离开本局开会、学习、培训、考察、参加社会活动要向本单位履行备案手续。局机关工作人员向行政办公室履行备案手续。 第七条工作人员旷工与绩效工资挂钩。连续旷工时间超过十五天，或者一年内累计旷工超过三十天的，给予解除劳动合同。 第八条工作人员病假实行请假制度。病假在两个月以内（不含公休节假日，下同）的，原工资照发。病假超过两个月不足六个月的，从第三个月起按下列标准发给病假期间工资：工作年限10年以下的，发给本人基本工资和基础性绩效的90%（按天计发，下同）；工作年限10年及以上的，原工资照发。病假超过六个月的，从第七个月起按下列标准发给病假期间工资：工作年限10年以下的，发给基本工资和基础性绩效的70%；工作年限10年及以上的，发给基本工资和基础性绩效的80%。按月支付到能工作时为止。 第九条病假十天以上（含十天）三十天以下的，必须持有县级以上人民医院的诊断证明，由所在单位（科室）负责人审批；三十天以上的需持有县级以上人民医院开具的住院证明、住院病历（复印件）等辅助诊断证明材料，由所在单位（科室）负责人审批并报局人力资源和社会保障科备案。 第十条工作人员享受产假、护理假，婚丧假，探亲假。 第十一条全局工作人员管理实行层级法人负责制。 第十二条本制度由六盘山林业局人力资源和社会保障科负责解释。 第十三条本制度自发文之日起执行，与本制度相抵触的，以本制度为准。 附件2 六盘山林业局工作人员病、事假规定 （试行） 为进一步加强我局工作人员病、事假管理，根据《中华人民共和国事业单位人事管理条例》（中华人民共和国国务院令第652号）、《国家机关工作人员病假期间生活待遇的规定》（国发〔1981〕52号）、《自治区党委组织部、人力资源和社会保障厅、监察厅、财政厅关于进一步落实机关事业单位带薪年休假制度的通知》（宁人社发〔2011〕315号）、《六盘山林业局工作人员管理制度》等有关规定，结合我局实际，现对工作人员病、事假作如下规定。 一、病假规定 （一）工作人员病假期间工资待遇 1、病假在两个月以内（不含公休节假日，下同）的，原工资照发。 病假超过两个月不足六个月的，从第三个月起按下列标准发给病假期间工资： （1）工作年限10年以下的，发给本人基本工资和基础性绩效的90%（按天计发，下同）； （2）工作年限10年及以上的，原工资照发。 3、病假超过六个月的，从第七个月起按下列标准发给病假期间工资： （1）工作年限10年以下的，发给基本工资和基础性绩效的70%； （2）工作年限10年及以上的，发给基本工资和基础性绩效的80%。 4、上述工作人员中享受省部级及以上劳动模范待遇的人员，其病假在六个月以内的，原工资照发；病假超过六个月的，从第七个月起，其病假期间工资可在相应工作年限计发病假工资基础上提高10%—15%，但最多不得超过本人原工资数额。', '1、病假工资每月按21.5天折算，折算后的尾数四舍五入。 2、本规定中“基本工资”指“职务岗位工资+级别薪级工资”；“原工资”指“职务岗位工资+级别薪级工资+基础性绩效+国家艰苦边远地区补贴+岗位工资+浮动工资”；“基础性绩效”指“工作性津贴”。 3、工作人员计发病假期间工资待遇的工作年限，仍按现行工龄计算有关规定执行，即从参加工作之当年起计算。 4、工作人员病愈后要求恢复工作的，经相关医疗机构证明身体确已康复方可恢复工作；身体恢复后在两个月内能够坚持正常工作，以后再休病假的，其病假时间可以重新计算；两个月内不能坚持正常工作且又休病假的，应将恢复工作前后的病假时间累计计算。 5、工作人员在病假期间经查实从事有偿活动的，即停发病假期间工资。 6、工作人员在病假期间可享受国家艰苦边远地区补贴和浮动特效工资，不再享受乡镇补贴、误餐补助等其它福利性待遇。 7、新录用人员在见习（试用，下同）期间休病假的，试用期间工资比照工作人员病假工资发放，其休病假时间超过两个月及以上的，试用期时间相应顺延。 8、工作人员因公负伤或因公受伤部位复发休病假的，其休病假期间工资照发。 9、工作人员因病确实不能坚持正常工作，本人应向医务鉴定委员会提出鉴定申请，经鉴定确属完全丧失工作能力的，应按有关规定及时办理病退手续。 10、下列情形之一的不享受当年带薪年休假。 （1）累计工作满1年不满10年的，一年内请病假累计2个月以上的； （2）累计工作满10年不满20年的，一年内病假累计超过3个月的； （3）累计工作满20年以上的，一年内请病假累计4个月以上的； （4）工作人员中已享受当年的年休假，年内又出现下列情形之一的，不享受下一年的年休假。 （a）累计工作满1年不满10年的，一年内请病假累计2个月以上的； （b）累计工作满10年不满20年的，一年内病假累计超过3个月的； （c）累计工作满20年以上的，一年内请病假累计4个月以上的； 11、奖励性绩效工资按《固原市六盘山林业局绩效工资管理办法》（六林局发〔2017〕99号）执行。 二、事假规定 （一）工作人员除国家及单位已明确规定的各种公休节假日和假期以外，如遇特殊情况本人必须离开工作岗位的可请事假。 （二）事假期间的工资待遇', '1、工作人员请事假全年累计未超过20天或一次性事假未超过15天（不含公休节假日，下同）的，原工资照发（奖励性绩效工资按《固原市六盘山林业局绩效工资管理办法》（六林局发〔2017〕99号）执行，下同）。 2、工作人员请事假全年累计超过20天或一次性事假超过15天的，其超过天数的工资按本人基本工资和基础性绩效的70%计发。 3、工作人员请事假全年累计超过30天的，其超过天数的工资按本人基本工资和基础性绩效的50%计发。 4、工作人员全年事假累计超过60天的，超过天数停发本人全部工资。 5、工作人员凡未经请假擅自离开工作岗位，或者假满未经续假而逾期不归的，按旷工论处。旷工6天及以下的，扣除本人旷工天数的基本工资；旷工7天以上的停发本人当月全部工资。 （三）有关事宜 1、事假工资将本人的基本工资折算成日工资（每月按21.5天计算）计发，折算后的尾数四舍五入。 2、本规定中“基本工资”指“职务岗位工资+级别薪级工资”；“原工资”指“职务岗位工资+级别薪级工资+基础性绩效+国家艰苦边远地区补贴+岗位工资+浮动工资”；“基础性绩效”指“工作性津贴”。 3、工作人员按比例计发事假工资期间，可享受国家艰苦边远地区补贴和浮动特效工资不再享受乡镇补贴、误餐补助等其它福利待遇。 4、工作人员因私事出国（境）请事假的,其事假及事假期间的工资待遇按有关规定执行。 5、新录用人员在见习（试用，下同）期间事假工资比照工作人员事假工资执行，请事假超过两个月及以上的，从第３个月起，停发见习工资，并相应延长见习期。 6、工作人员按有关规定在探亲假期满又因本人特殊原因请事假的，需提前向单位领导申请，经批准后可按本规定执行。 7、工作人员请事假超过6个月的，超过的时间不能计算工作年限。 8、工作人员在一年内请事假累计超过20天的或一次性请事假超过15天的，不再享受当年的职工休假待遇。 9、旷工或者因公外出、请假期满无正当理由逾期不归，连续超过15个工作日，或者一年内累计超过30个工作日的，按照国家《事业单位人事管理条例》规定可以解除聘用合同。 三、其它事宜 1、本规定自发文之日起执行。职工病事假与本规定有冲突的，按本规定执行。 2、本规定由局人力资源和社会保障科负责解释。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>292</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案的通知</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2013-05-20</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384074.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案（2011--2015）的通知_固原市人民政府', '固原市人民政府办公室关于印发固原市全民科学素质行动计划纲要实施方案（2011--2015）的通知', '深入贯彻落实科学发展观，坚持“政府推动、全民参与、提升素质、促进和谐”的方针，围绕“节约能源资源、保护生态环境、保障安全健康、促进创新创造”的主题，以提升服务能力为核心，以资源共建共享为抓手，完善机制、提升能力，开拓创新，推动科学技术教育、传播与普及，不断提高全民科学素质。', '到2015年，科学技术教育、传播与普及在“十一五”基础上有显著发展，全市公民具备基本科学素质的比例达到2.5%。', '1、宣传科学发展观，重点宣传节约能源资源、保护生态环境、保障安全健康、促进创新创造等内容，使未成年人不断提高科学认知水平，树立人与自然和谐相处和可持续发展的理念。', '2、完善基础教育阶段的科学教育，提高学校科学教育质量，着力提高学生积极主动的学习能力、善于解决问题的实践能力和勇于探索的创新能力，使中小学生掌握必要的科学知识和基本的科学方法，体验科学探究活动的过程与方法，培养良好的科学态度与兴趣。', '3、巩固农村义务教育普及的成果，提高农村中小学科学教育的质量，推进教育均衡发展，为农村未成年人特别是女童、农民工子女提供更多参与科学教育与培训和科普活动的机会，培养独立学习和自我发展的能力。', '4、开展多种形式的科普活动和社会实践，增强未成年人对科学技术的兴趣和爱好，树立科学意识、崇尚科学精神，养成运用科学知识和方法思考、解决问题的习惯。', '1、在幼儿园日常教育中融入科学启蒙教育。结合幼儿年龄特点，利用身边的事物与现象，通过游戏、活动等方式激发幼儿的认知兴趣和探究欲望，养成良好的行为习惯。', '2、推进义务教育阶段科学素质教育。提高现有课程的教学质量，帮助学生掌握基本的科学知识与技能，体验科学探究活动的过程与方法，培养良好的科学态度。加强数字技能学习教育，培养学生运用互联网学习和获取信息的能力。开展科学实践活动，创新教育方法，鼓励学生通过参与、体验、实践和动手制作等方式提高科学素质。', '3、推进高中阶段的科学教育。鼓励普通高中开设科学教育选修课，拓宽学生的知识面。支持开展研究性学习、社区服务和社会实践，提高学生的探究能力。大力发展中等职业教育，推进基础能力建设，培养学生的职业道德、职业技能和就业创业能力。加强对农村高、初中生的职业教育，提高其自身生活能力和生产技能，使他们成为农村科普的生力军和未来农村致富的带头人。', '4、丰富校外和课外科学教育活动，加强校外科技活动与学校科学课程相衔接。开展大手拉小手科技传播行动、科技专家进校园(社区)、科技夏(冬)令营等活动。积极参加宁夏青少年科技创新大赛、学科奥林匹克竞赛，组队参加全国性、全区性、全市性科技活动，提高各类科技竞赛的质量。面向乡村学生、农民工子女组织开展学业辅导、自护教育等各类志愿服务，帮助他们提高科学素质、丰富生活阅历、增长见识。鼓励中小学校利用科技类博物馆、大专院校和科研院所实验室、自然保护区和农业科技园、科普教育基地、青少年科技教育基地等资源，开展科学教育和科普活动。继续开展科普大篷车进校园等活动。建立和培养一支高素质的科技辅导员队伍，扩大学生参加课外科技活动的渠道和机会。', '5、营造崇尚科学的校园文化氛围。在创建平安校园、文明校园、绿色校园、和谐校园活动过程中，普及保护生态环境、节约能源资源、心理生理健康、安全避险自救等知识，加强珍爱生命、远离毒品和崇尚科学文明、反对愚昧迷信的宣传教育。定期开展学校科技节、科技周等常规教育活动，鼓励学生进行小制作、小发明、小创作，开展防灾避险应急演练，设立科普教育长廊、板报，营造师生自由讨论的文化氛围。', '6、发挥家庭教育在提高未成年人科学素质中的作用。鼓励中小学校利用家长会、家校联系会议等形式，对未成年人父母或其他监护人的育儿观念、方法给予指导，提高其科学育儿水平。鼓励父母或其他监护人为未成年人进行科学实践活动提供条件，引导未成年人广泛接触自然、社会，培养亲近自然的情感。', '1、面向农民宣传科学发展观，重点开展保护生态环境、节约资源、保护耕地、发展现代农业、建设生态家园，应对突发事件，倡导健康卫生、移风易俗，反对愚昧迷信、反对邪教和转变陈规陋习等内容的宣传教育，促进在广大农村形成讲科学、爱科学、学科学、用科学的良好风尚，促进社会主义新农村建设。', '2、提高农民掌握和运用先进适用技术发展生产、增产增收致富的能力，引导他们发挥主动性和创造性，将普及实用技术与提高农民科学素质结合起来，着力培养有文化、懂技术、会经营的新型农民。', '1、大力开展形式多样的新型农民科技培训。开展农业从业人员培训，提高农民职业技能水平，对农村转移就业劳动者开展的订单式培训或定岗培训初步达到上岗要求，发挥农村党员干部远程教育、三农网络书屋、科特派、村信息站等在农村科技培训中的作用，面向农民开展科学教育活动。继续开展农民创业就业培训、绿色证书、星火科技、双学双比、巾帼科技致富等农业科技培训和信息化知识培训，重点开展生态移民村农民的科技培训。加大对农业生产专业户、科技示范户、农村经纪人的科技培训，培养一批“留得住、用得上、干得好”的农村基层管理人才和科技致富带头人。', '2、广泛开展群众性农村科普活动。深入持久开展全国科普日、科技活动周、文化科技卫生“三下乡”等活动，总结推广科技专家服务团、科技特派员、科技入户、科普大集、科普惠农服务站、科技专家和致富能手下乡、“三农”网络书屋等行之有效的做法，形成长效服务机制。实施环保科普行动，开展节约资源和综合利用农业废弃物等宣传，开展反对封建迷信、反对非法宗教、远离“黄赌毒”等科普活动。', '3、加强农村科普示范体系建设。继续实施“科普惠农兴村计划”，充分发挥农村专业技术协会、农村科普示范基地、科普带头人和科普工作队等示范带动作用，探索建立科普服务“三农”的长效机制。深入开展创建全国科普示范县(区)活动，创建全国科普示范县(区)3个。', '4、加强回族群众的科普工作。贯彻落实自治区民委等四部门《&lt;关于进一步加强少数民族和民族地区科技工作的若干意见&gt;的实施意见》，加强科普基础设施建设，提高回族群众的科学素质。利用广播电视网站开展面向回族群众的科普教育、传播与普及。以宁夏师范学院、固原民族职业技术学院为依托，组建回族学生科普志愿者队伍，结合回族传统节日，组织开展内容丰富的科普宣传活动。', '1、宣传科学发展观，重点普及节约资源、保护环境、节能降耗、安全生产、低碳健康生活等知识，促进经济发展方式的转变和科学文明健康生活方式的形成。', '2、围绕工业强市战略和发展现代服务业的需求，以学习能力、职业技能和技术创新能力为重点，提高第二、第三产业从业人员的科学素质，更好地适应经济社会和自身发展的要求。', '3、根据宁南区域中心城市和大县城建设需要，提高进城务工人员的职业技能水平和适应城市生活的能力。', '1、广泛开展各种形式的职业技能培训，职业院校、职业培训机构要将科学素质课程纳入培训内容，承担相关再就业培训，提高农民工、城市失业人员和新增劳动力的就业能力。', '2、加强专业技术人员继续教育工作。发挥市级培训教育基地的作用，加强专业技术人员继续教育工作和少数民族专业技术人才特殊培养工作。鼓励职工在职学习，形成用人单位和从业人员共同投资职业培训的机制。充分发挥科技社团在专业技术人员继续教育中的重要作用，帮助专业技术人员开展技术攻关、解决技术难题，参加跨行业、跨学科的学术研讨和技术交流活动。', '3、开展日常性职工科普教育活动。深入推进“讲理想、比贡献”活动，广泛开展小革新、小发明、小创造等群众性技术革新活动，组织专家服务团队深入企业开展送科技活动。', '1、深入贯彻落实科学发展观，加强科学素质与领导科学发展能力的教育培训工作，着力培养领导干部和公务员的执政能力，提升科学决策与管理水平。', '2、完善国家机关工作人员终身学习制度，领导干部和公务员带头学习，带头参与和促进学习型机关建设，使自身科学素质在各类职业人群中位居前列。', '3、重视科学素质建设，创造加强科学素质建设的保障条件，营造提高全民科学素质的良好氛围。', '1、加强领导干部和公务员的现代科学知识教育。将科学素质建设列入各级行政机关和企事业单位教育培训规划。在各级党委(党组)中心学习组，将科学发展观、国家科技发展战略、建设创新型固原以及我市科技发展规划等，作为理论学习的重要内容。在组织培训、自主选学和在职学习中，强化科学知识、科学方法、科学思想、科学精神的学习。加强对县(区)党政分管领导、科技行政管理干部、科研机构技术负责人等的科学教育与培训。举办面向领导干部和公务员的各类科普活动。', '2、充分发挥市、县党校、行政学院培训的阵地作用，将科学素质教育的内容列入教学计划，着力提高干部的科学素质。', '3、在公务员录用考试中，强化对科学素质的测评。在完善对领导干部和领导班子综合考评体系时，注重对科学素养的考察。', '责任分工：由组织部、人社局牵头，宣传部、科技局、环保局、卫生局、团委、妇联、科协、宁夏师范学院参与配合。', '1、宣传科学发展观，重点倡导和普及节约资源、保护环境、节能减排、健康生活、反对邪教等观念和知识，促进社区居民形成科学文明健康的生活方式。', '2、提升社区居民应用科学知识解决实际问题、改善生活质量、应对突发事件的能力，激发社区居民提升自身素质的主动性和积极性。', '3、围绕建设文明和谐的学习型社区，提升社区科普服务能力，发展完善社区公共服务体系。', '1、开展多种形式的科普宣传和教育活动。围绕安全健康、节能环保、防灾减灾等内容，开展科教进社区、卫生科技进社区、全民健康科技行动、节能减排家庭行动、心理健康咨询等活动。发挥社区教育在提高劳动者科学素质、服务民生和促进社会和谐方面的作用。', '2、提升社区科普能力。实施社区科普益民计划。充分依托社区公共服务场所和设施，建立完善社区科普活动室、科普图书室、科普画廊等基础设施，拓展和发挥科普功能。建立健全社区科普宣传员和科普志愿者队伍。开展科普示范街道、社区、楼宇、家庭等创建活动。', '3、搭建社会化的社区科普工作格局。有效整合社区内及周边科普资源，建立共建共享机制，鼓励学校、科研院所、企事业单位积极参与社区的科普活动。', '3、加强教学基础设施建设，充分利用现有的教育培训场所、基地，配备必要的教学仪器和设备，为开展科学教育与培训提供基础条件支持。', '1、加强教师科学素质教育培训工作。组织实施中小学科学骨干教师培训，举办各类科学教育培训班、研讨会等，加强对中小学各学科教师新知识、新技能、新技术的培训，提高整体素质和水平。围绕九年义务教育，采取多种途径，开展中小学科普教育教师培训工作，提高学历层次和实施科学教育的能力和水平。组织教学改革经验交流、科普讲座等活动，帮助教师在实践中不断提高专业水平，提高科学教育的质量。', '2、加强中小学特别是农村中小学科学教育基础设施建设。加强中小学特别是边远农村中小学图书馆建设，扭转我市中小学图书馆规模偏小和科技、科普类图书数量严重不足的现状。根据科学课程的需要，建立健全实验室，充实实验仪器、教具、音像设备、计算机等教学器材，支持和鼓励为中小学科学教育提供高质量服务网站的建设。', '3、优化整合社会科技教育资源。建立广覆盖、多层次的科技教育网络，实现资源共享，为劳动者提高科学素质提供更多机会和途径。支持中小学校以科普教育特别是防灾减灾知识教育为重点，积极推进各类科普示范学校建设，带动和促进广大中小学校科普教育活动的开展。', '责任分工：由市教育局、人社局牵头，宣传部、发改委、科技局、农牧局、气象局、地震局、总工会、团委、妇联、科协、宁夏师范学院参与配合。', '1、繁荣科普创作，引导、鼓励和支持科普产品和信息资源的开发。注重科学与艺术、自然科学与人文社会科学的结合，创作开发一批优秀科普作品。', '2、集成市内外科普资源与信息，建立共享交流平台，为社会和公众提供资源支持和公共科普服务。', '3、培育发展专业性科普产品生产制作机构，建立高水平的科普产品创作队伍，加大数字化科普资源建设力度，增强科普产品制作能力。', '1、繁荣科普创作。鼓励支持科技工作者，针对公众生产生活的实际需求，组织编制简明生动的科普资料，以公众易于获得的方式送达基层。', '2、构建实体科普展教资源平台。引进科教影视节目、科普图书、挂图等展教资源，并与各类科普基础设施的展教活动有机结合起来，提高资源利用率和活动效果。推动旅游景区、农业产业园、绿色生态园等结合自身优势，开展特色科普展教活动。推动挖掘具有鲜明固原特色和回族特点的科普展教资源，形成全社会力量参与科普展教品开发的局面。', '责任分工：由市科技局、教育局牵头，宣传部、民政局、人社局、农牧局、广电局、林业局、科协、固原民族职业技术学院参与配合。', '1、加大各类媒体科技传播力度。电视台、广播电台科技节目增设科技专题，综合性报纸增设科技专栏。各媒体要配备一定数量的科技记者，专门负责科技宣传报道。', '2、提升大众传媒从业者的科学素质与科技传播能力。加强对科技宣传报道的记者、编辑等的科学素养教育，提高他们弘扬科学精神、传播科学知识、坚持科学态度的主动性与责任感。推动科技社团与媒体交流互动，提高媒体从业者客观准确报道最新科技成果、具有科技背景的社会热点话题以及各种突发事件的能力。', '4、提高各类媒体面对公共应急事件和重大自然灾害等重大突发事件的科学反应、指导公众以科学的行为和方式应对突发事件。', '责任分工：由宣传部牵头，教育局、科技局、农牧局、广电局、气象局、地震局、团委、科协参与配合。', '1、统筹协调科普基础设施建设。加强对全市科普基础设施建设与运行加强宏观指导、系统设计和前瞻布局，建成一批科普基础设施，逐步拓展其科普服务功能，开发利用好科普资源，不断创新科普展览和教育活动，壮大科普人才队伍，推进科普基础设施的全面发展。加大对公益性科普设施建设和运行经费的公共投入。加快对现有科普设施进行更新改造，满足公众参与科普活动的需求。', '2、积极推进各类科普场馆建设。多渠道筹集资金，到2015年，争取建设固原市科技馆，其他县(区)拥有综合性科普活动场馆或青少年科技活动中心达到3个;发展建设行业类、专业性科普场馆达到4个，科普服务能力进一步增强，公众参观数量有较大增长。', '3、巩固发展各类科普教育基地。积极发展农村实用技术型科普教育基地、现代工业技术型科普教育基地，培育建立保护生态环境及其他各类科普教育基地。', '4、广泛发展建立基层科普活动站(服务站、活动室)和科普宣传栏(画廊)。在农村、社区积极发展建设科普活动站(服务站、活动室)和科普宣传栏(画廊)，同时，发展和不断完善提高网络信息站点建设，全市60%的乡镇(街道)、社区(村)的公共活动场所建有科普服务站(活动室、活动站)和科普宣传栏(画廊)，并能定期更新科普内容，电子科普画廊等新型科普设施得到发展。', '5、配备基层科普服务车(科普大篷车、科普宣传车)。积极管好用好现有科普车，充分发挥其功效。积极配齐并逐步更新科普服务车。争取中国科协配备多功能科普大篷车，提高科普巡展和服务能力。各县(区)、各有关部门要采取部门联合共用共享的方式，拓展农业科技服务车、乡村流动图书车、计划生育宣传车等现有资源的科普功能，推动全市科普车的发展。到2015年，为县(区)配齐科普服务车(科普大篷车、科普宣传车)。', '1、提升科普人才队伍的整体素质，培养和造就一支规模适度、结构优化、素质优良的科普人才队伍。', '2、优化科普人才队伍结构，稳定专职科普人才队伍，不断壮大兼职科普人才队伍，积极发展科普志愿者队伍。大力培养面向基层的科普人才。', '1、巩固发展科协组织系统科普人才队伍。在巩固提高科协组织系统科普工作者队伍的基础上，把市(县)科协组织的学会会员发展为科普工作者，通过加强培训提高其整体素质，促进专职科普人才队伍不断壮大，能力不断提高。加强科协组织系统的机构、人员编制及经费等政策支持，为科协科普工作者的发展和成长创造有利条件。', '2、大力培养农村实用科普人才。依托农业技术推广机构、农民合作经济组织、农村专业技术协会、农村科普示范基地、科普活动站等，采取培训、示范与实践相结合的方式，大力培养农村实用科普人才，提高科普服务能力。', '3、着力壮大城镇社区科普人才队伍。结合文化科技卫生进社区、全民健康科技行动等活动，培养造就根植基层的社区科普人才。鼓励学校、学会、科普场馆、科普教育基地、企事业单位、部队的专业人才积极参与社区的科普活动，壮大社区科普员队伍。定期对社区科普人才进行培训，组织其参与科普实践。', '4、积极培育青少年科技辅导员队伍。结合中小学科学课程和课外科普活动，建立发展中小学科技辅导员队伍、青少年科技辅导员队伍。', '5、全面发展企业科普人才队伍建设。充分发挥企业科协的作用，结合专业技术人员继续教育、加强企业科普人才的技能培训。', '6、发展科普志愿者队伍。重点发展学会等科技社团的科普志愿者队伍、大学生科普志愿者队伍。', '责任分工：由市人社局、科协牵头，组织部、科技局、工信局、农牧局、卫生局、广电局、林业局、团委、妇联、宁夏师范学院、固原职业技术学院参与配合。', '1、完善人才培养和动员机制。落实国家和区、市中长期科技、教育、人才发展规划纲要，建设好专职和兼职科普工作队伍。通过学校培养、在职培训、外派进修、交流和实践锻炼等方式，培养适应我市科普事业发展需要的专门人才。研究制定激励措施，充分调动社会各界参与科普创作、传播科学知识和科技成果。', '2、建立科研与科普密切结合机制。研究制定在市科技发展计划中相应增加科普任务的措施与办法。市重大工程项目、科技计划项目在立项时增加相应科普任务，验收时对科普效果进行评价。推动承担自治区和固原市科技项目的科研团队、企业、高校和广大科技专家在科研与科普工作的结合上发挥示范和带头作用，为广大科技工作者作出表率。', '3、健全监测评估体系和考核激励机制。定期开展公民科学素养调查和全市科普统计工作，为我市公民提高自身科学素质提供衡量尺度，为科学素质纲要的实施和监测评估提供依据。制定固原全民科学素质工作年度目标管理考核办法，对在公民科学素质建设中作出突出贡献的集体和个人给予奖励和表彰。', '责任分工：由组织部、人社局、科技局牵头，宣传部、发改委、财政局、教育局、工信局、农牧局、科协、宁夏师范学院参与配合。', '固原市人民政府负责领导科学素质纲要的实施工作。各有关部门按照科学素质纲要要求和本实施方案，将有关任务纳入相应工作规划和计划，充分履行工作职责，发挥各自优势，密切配合，形成合力。市科协要发挥综合协调作用，会同有关方面共同推进公民科学素质建设。市全民科学素质工作实行工作例会和联系协调制度。市全民科学素质纲要实施工作办公室适时向市人民政府汇报科学素质纲要实施情况，每年召开一次实施工作会议，每季度召开一次联络员会议，推动科学素质建设各项任务的落实。', '各县(区)政府负责领导当地的科学素质纲要实施工作。要把加强公民科学素质建设工作作为推动当地经济社会发展的一项重要工作，纳入本县(区)经济社会发展总体规划，把实施科学素质纲要的重点任务列入年度工作计划，纳入目标管理考核。要因地制宜，制定本县(区)“十二五”全民科学素质工作的实施方案。要继续完善公民科学素质建设的工作机制和制度，制定具体政策措施，加大投入，为实施科学素质纲要提供保障。加强科学素质纲要实施情况的督促检查，推动工作任务的落实。', '1、政策保障。在有关科学技术教育、传播与普及的政策中，体现公民科学素质建设的目标和要求。研究制定激励政策，解决专兼职科普工作者的工作、生活、进修、职称、待遇等方面存在的问题，使科普工作者的劳动成果与科研成果、学术成果同样得到社会的承认和尊重。将科普工作作为科研院所和科技工作者评价考核的重要内容，纳入相应科学技术进步奖社会公益类项目的奖励范围。落实有关鼓励科普事业发展的科普税收优惠等相关政策，繁荣科普创作、提升大众传媒科技传播能力、加强科普基础设施建设、科普资源共建共享、科普人才队伍建设。', '2、经费投入。各县(区)人民政府要根据公民科学素质建设发展的实际需要，逐步提高教育、科普经费的增长速度，并将科普经费列入同级财政预算。“十二五”期间，市财政列支的科普经费全市人均达到0.6元以上。此外，各级政府要安排一定的工作经费用于公民科学素质建设。市直有关部门要根据承担的科学素质纲要实施任务，统筹考虑和落实所需经费。', '2、全面推进。2012-2014年，完善工作机制，加强监测评估，针对薄弱环节，解决突出问题，全面推进和落实各项重点任务。按照自治区全民科学素质工作年度目标管理考核办法，加强年度目标管理考核。', '3、总结评估。2015年，组织开展全面督查，在各县(区)开展实地督促检查，并对“十二五”期间全民科学素质工作进行总结和评估，继续推进组织实施工作。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>292</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>市水务局召开专题会议安排部署防汛关键期水旱灾害防御及安全生产工作</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201907/t20190730_1636467.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['7月28日至29日，我市出现中到大雨天气过程，部分乡镇暴雨，泾源县大湾绿塬林场降雨量达78.5毫米，市气象局和水务局分别发布了暴雨橙色预警和山洪灾害气象风险黄色预警。当前，已进入“七下八上”的防汛关键期，为全力做好水旱灾害防御及安全生产工作，确保人民群众生命财产安全，最大程度减少洪水灾害损失，7月29日，市水务局召开“七下八上”防汛关键期水旱灾害防御及安全生产工作会议，分析研判当前水旱灾害防御工作形势，对进一步加强主汛期防汛抗洪和安全生产工作进行了安排部署。', '“七下八上”的防汛关键期，为全力做好水旱灾害防御及安全生产工作，确保人民群众生命财产安全，最大程度减少洪水灾害损失，7', '“七下八上”防汛关键期水旱灾害防御及安全生产工作会议，分析研判当前水旱灾害防御工作形势，对进一步加强主汛期防汛抗洪和安全生产工作进行了安排部署。', '会议传达学习了李克强总理在应急管理部考察并召开防汛抗旱会议上的讲话精神和全区安全生产电视电话会议精神，以及近期水利部、水利厅对主汛期水旱灾害防御工作的有关要求。会议强调，近期气候复杂多变，面临的防汛形势十分严峻，市县（区）各级水务部门要提高政治站位，树立底线思维，切实增强防大汛、抗大灾的紧迫感和责任感，进一步强化措施，落实责任，加强预防预警。一要强化责任担当意识。全市水利部门干部职工要全面进入主汛期防汛临战状态，各库坝工程技术责任人和巡查责任人要切实强化责任担当，上岗到位，履职尽责，全力以赴做好各项防范工作；二要加强水利安全生产工作。强化水利主管部门的监管责任和企业的主体责任落实，建立安全风险管控和隐患排查治理双重预防体系，确保生产安全；三要强化监测预警和信息报送。要根据天气、水雨情发展变化和水工程运行状况，努力提高洪水预报精度。加强与应急、气象等部门沟通合作，及时发布预警信息，做好汛情预防和处置。坚持24小时应急值守和领导带班制度，及时报送水旱灾害防御工作信息；四要科学调度水利工程。加强水库汛期管理，严禁违规超汛限水位运行，科学实施水库联合调度，联调联蓄，充分发挥水库防洪与兴利作用，特别要围绕固原市产业发展布局，做好水资源保障工作；五要强化巡查防守，确保水库安全度汛。要加强水库、淤地坝和重要山洪易发区的巡查防守，要以水库防汛“三个责任人”和“三个重点环节”为重点，持续开展隐患排查治理工作，发现险情及时报告、及时处理，做到抢早抢小。对前期检查中发现的问题隐患，要抓紧完成整改任务，确保安全度汛；六要突出抓好山洪灾害防御。要进一步明确各乡镇、村组山洪防御责任人，切实发挥山洪灾害监测预警系统作用，扎实做好群测群防工作，提前发布灾害风险预警，及时组织群众转移避险，努力避免人员伤亡；七要防汛抗旱两手抓。各级水务部门要根据预测预报和实时雨水情，综合考虑防洪保安和蓄水兴利，按照风险可控、效益最大的原则进行水库运行调度。最大限度满足城乡生活用水、工农业生产用水和生态用水需求。', '五县（区）水务局主管局长、水旱灾害防御工作负责人和市水务局所属各单位负责人参加了会议。（防汛办供稿）']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>292</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市湿地保护修复制度工作方案的通知</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/202111/t20211125_3153793.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市湿地保护修复制度工作方案》的通知_固原市人民政府', '号）文件精神，切实加大湿地保护修复力度，全面提升湿地生态系统服务功能，结合全市实际，制定本工作方案。', '，大力推进生态文明建设，深入实施生态立市战略，建立湿地保护修复制度，全面保护湿地，强化湿地利用监管，推进退化湿地修复，提升全社会湿地保护意识，为打造西部地区生态文明建设先行区、筑牢西北地区重要生态安全屏障、建设天蓝地绿水美的美丽宁夏提供保障。', '坚持全面监管、分级保护的原则。将辖区所有湿地纳入监管范围，重点加强自然湿地及重要湿地的保护与修复；', '坚持政府主导、社会参与的原则。各级人民政府要全面履行湿地保护主体责任，对本行政区域内湿地保护负总责，鼓励社会各界参与湿地保护与修复；', '坚持综合协调、分工负责的原则。充分发挥自然资源、生态环境、水务、农业农村等湿地保护管理相关部门的职能作用，协同推进湿地保护与修复；', '坚持注重成效、严格考核的原则。将湿地保护修复成效纳入市、县（区）、乡（镇）各级领导干部生态文明建设考评体系，实行自然资源考核追究责任制，严明奖惩制度。', '建立系统完善、科学规范、运行有效的制度体系，基本形成保护管理制度完善、科技支撑有力、责任主体明确的湿地保护新机制，最大限度保障湿地生态系统的自然性、完整性、稳定性，增强湿地生态功能。实行湿地面积总量管控，到', '科学划定湿地生态保护红线。根据全市湿地资源情况，落实纳入生态保护红线的湿地范围，具体到湿地地块，明确保护职责。将宁夏固原清水河国家湿地公园、卧龙湖自治区级湿地公园、颉河自治区级湿地公园的保育区、恢复区；党家岔（震湖）自治区级湿地自然保护区的核心区、缓冲区以及泾河、汝河、葫芦河等自治区级重要湿地纳入红线范围。', '、自然资源局、水务局、农业农村局、六盘山林业局等单位配合，各县（区）人民政府落实）', '开展湿地产权确权试点改革。按照中央、自治区党委全面深化改革领导小组的部署，深化湿地产权确权试点工作，按要求和时间节点完成任务。开展湿地所有权、使用权调查，明确湿地范围和界线，建立湿地资源数据库，为开展湿地保护恢复提供依据。', '（市自然资源局牵头，水务局、农业农村局、六盘山林业局等单位配合，各县（区）人民政府落实）', '建立湿地分级管理体系。依据国家重要湿地名录、地方重要湿地和一般湿地名录，结合生态区位、生态系统功能和生物多样性等因素，将全市湿地划分为国家重要湿地、自治区级重要湿地、市县级重要湿地和一般湿地，建立不同级别的湿地名录，实行动态管理，定期更新。县级自然资源部门会同有关部门更新县级重要湿地名录，报县人民政府发布，并报自治区林业主管部门、市自然资源局备案。认定后的重要湿地要设立界碑、界标，标明湿地面积、类型、主要保护物种、主管部门和管理单位等，做好分类管理。', '（市自然资源局牵头，生态环境局、水务局、农业农村局、六盘山林业局等单位配合，各县（区）人民政府落实）', '探索开展湿地管理事权划分改革。按照权、责、利相统一的要求，探索开展湿地保护管理中央与地方财政事权和支出责任划分改革，明晰国家重要湿地、自治区级重要湿地和一般湿地的事权划分。自治区级重要湿地和一般湿地的保护修复等相关支出由市财政和各县（区）财政承担。', '完善湿地保护管理体系。编制固原市湿地保护发展规划。各县（区）人民政府具体负责实施本行政区域湿地保护修复工作，编制本行政区域湿地保护发展规划。对生态敏感和脆弱区的重要湿地，通过设立湿地自然保护区、湿地公园、水产种质资源保护区等方式加强保护。加强各级湿地保护管理机构建设，夯实保护基础。', '、财政局、生态环境局、水务局、农业农村局、编办等单位配合，各县（区）人民政府落实）', '建立湿地用途管控机制。根据宁夏湿地二类调查数据，将全市湿地面积管控目标逐级分解落实到县（区），确保湿地面积总量管控。按照湿地生态功能和所在地的主体功能区定位，确定各类湿地的用途，并实施负面清单管理。禁止擅自征收、占用湿地，禁止开垦、填埋、排干湿地和永久性截断湿地水源，禁止向湿地超标排放污染物，禁止对湿地野生动植物栖息地和鱼类通道造成破坏。进一步加强对湿地区域挖砂、取土、开矿、引进外来物种和涉外科学考察等活动的管理。在保护的前提下合理利用湿地，合理设立湿地利用的强度和时限，避免对湿地生态要素、生态服务功能等方面造成破坏，保持湿地范围和用途的长期稳定。国家或自治区重大工程建设确需征占湿地，按照原国家林业局《湿地保护管理规定》等有关政策和《宁夏湿地保护条例》执行。', '（市自然资源局牵头，生态环境局、水务局、六盘山林业局等单位配合，各县（区）人民政府落实）', '的原则，负责恢复或重建不少于所占湿地面积和质量相当的湿地，确保湿地面积不减少、生态功能不降低。对未经批准将湿地转为其他用途的，按照', '的原则实施恢复和重建，并追究相关人员的责任；对因历史原因或公共利益造成湿地破坏的、因重大自然灾害受损的湿地，经科学论证确需恢复的，由所属县（区）人民政府承担修复责任，所需资金列入财政预算。', '提升和完善湿地自然保护区、湿地公园功能。编制各湿地公园、湿地自然保护区保护修复工程规划，明确目标、任务、措施。加强湿地自然保护区、湿地公园基础设施建设和能力建设，提高保护管理水平。强化落实生态补水、植被恢复、生物链修复等措施，逐步改善湿地生态环境，丰富生物多样性，确保湿地健康发展。', '、财政局、生态环境局、农业农村局、水务局、六盘山林业局等单位配合，各县（区）人民政府落实）', '开展境内五河流域重要湿地恢复与治理。落实河长制相关要求，积极开展污染清理、地形地貌修复、河湖水系连通、植被恢复、野生动物栖息地恢复，加强（泾河、清水河、葫芦河、渝河、茹河）等湿地综合治理，采取自然恢复与人工修复相结合的方式，加大河流及两侧滩涂湿地保护与修复力度，开展河流及两侧滩涂湿地现状详查，提出科学保护与修复湿地的方向、目标、措施和模式，创新修复机制和政策措施，逐步恢复湿地生态功能，维持湿地生态系统健康。', '完善生态用水机制。湿地保护要与水资源统筹管理紧密结合，将水资源保护、水域岸线管理、水污染防治、水环境保护等与湿地用水协调统一。建立湿地生态补水机制，确定湖泊、沼泽湿地生态补水指标，完善湿地生态补水措施，加大湿地生态补水量，明确技术路线、资金投入以及有关部门的责任和义务。', '、财政局、生态环境局、农业农村局、六盘山林业局等单位配合，各县（区）人民政府落实）', '强化湿地修复成效监督。根据国家制定的湿地修复绩效评价标准，定期开展湿地修复工程绩效评价。由第三方机构开展湿地修复工程竣工评估。建立湿地修复公示制度，依法公开湿地修复方案、修复成效，接受社会公众监督。', '完善湿地监测评价体系。开展湿地监测评价，按照湿地监测技术规程或标准，加强部门间湿地监测评价协调。健全固原市全域湿地生态监测评价体系及网络，实现自然资源、生态环境、水务、农业农村、气象等部门湿地资源相关数据互联共享。加强湿地生态预警监测，消除湿地生态系统退化隐患。建立监测评价与监管执法联动机制，使监测评价体系与管理有效结合。', '强化监测信息发布和应用。制定湿地监测评价信息发布制度，规范发布内容、流程、权限和渠道，定期向社会公布全区湿地生态环境质量状况，主动接受社会监督。建立湿地保护修复信息逐级报送制度，动态跟踪和定期上报进展情况。将监测评价信息作为考核市、县（区）人民政府落实湿地保护责任的主要依据。', '（市自然资源局牵头，生态环境局、农业农村局、水务局等单位配合，各县（区）人民政府落实）', '制定完善政策制度。制定全市《湿地公园管理办法》《湿地公园管理评价制度》《湿地分级管理制度》《湿地红线管理制度》等制度办法，提高全市湿地管理科学化、法制化水平。', '（市自然资源局牵头，市委政策研究室、市司法局、生态环境局、农业农村局、水务局等单位配合，各县（区）人民政府落实）', '等政策法规的落实力度，各县（区）要根据实际情况制定落实《宁夏湿地保护条例》的具体措施。各相关单位、部门要依法对湿地利用进行监督，加强对湿地资源利用者的监管，遏制各种破坏湿地生态的行为。以森林公安、林政、水政、渔政执法为主体，建立相对集中行政处罚权的执法机制，严厉查处违法利用湿地的行为，造成湿地生态系统破坏的，由湿地保护管理部门责令限期恢复原状，情节严重或逾期未恢复原状的，依法给予相应处罚，涉嫌犯罪的，移送司法机关处理。', '、生态环境局、农业农村局、水务局、六盘山林业局等单位配合，各县（区）人民政府落实）', '制定湿地保护修复技术规范。制定湿地保护、恢复、监测、评价、风险评估等技术规范，有序推进湿地保护与恢复标准化工作，提升湿地保护修复的科技支撑能力。', '、生态环境局、农业农村局、水务局、质监局、六盘山林业局等单位配合，各县（区）人民政府落实）', '加强湿地保护科学技术研究。加强全市湿地产业、生态补偿机制、监测评估技术、生态服务功能、生物多样性、湿地水安全、湿地植被恢复等重点领域科学技术研究，为湿地保护恢复提供科技支撑。加强对影响湿地生态系统健康的因子进行科学分析评价，采取针对性措施做好湿地修复工作。', '加快技术成果推广应用。加快湿地重点领域先进、适用、成熟技术成果引进和转化，重点推广应用湿地保护修复、湿地监测、湿地植被恢复、湿地污染治理、湿地动植物保护等适用技术。', '（市自然资源局牵头，市财政局、生态环境局、农业农村局、水务局、六盘山林业局配合，各县（区）人民政府落实）', '建立湿地专家技术咨询平台。成立市级湿地专家咨询委员会，开展湿地保护管理重大理论和政策研究，为湿地保护修复工作提供技术咨询，进一步提高湿地保护科学决策水平。开展湿地保护恢复技术培训，学习先进技术和经验，加强湿地专业技术人才培养。', '（市自然资源局，市人社局、生态环境局、农业农村局、水务局、科技局、六盘山林业局配合，各县（区）人民政府落实）', '固原市及各县（区）人民政府要把湿地保护修复纳入重要议事日程，制定本行政区域湿地保护修复制度方案，加强湿地保护管理机构能力建设，建立完善市、县（区）、乡镇（街道）、村（社区）四级管护联动网络，为湿地保护修复和管理提供有力保障。建立部门协调联动机制，加强配合、联动联治、联合执法，落实国家湿地保护修复各项制度，形成湿地保护修复合力，确保湿地保护修复目标任务全面完成。', '发挥政府投资的主导作用，探索通过财政贴息等方式引导社会参与，形成政府投资、社会融资、个人投入等多渠道投入机制。积极争取国家湿地保护修复项目和财政补助资金。各县（区）政府要加大地方财政湿地保护修复资金投入，将湿地保护修复资金纳入同级财政预算。', '（市财政局牵头，市自然资源局、生态环境局、农业农村局、水务局、六盘山林业局配合，各县（区）人民政府落实）。', '固原市人民政府对本行政区域内湿地保护恢复负总责。各县（区）人民政府对辖内湿地保护恢复负总责，将湿地面积、湿地率、湿地保护率、湿地生态状况等保护成效指标纳入本县（区）生态文明建设目标评价考核指标体系，开展自然资源资产负债表试点工作，推行领导干部自然资源资产离任审计，建立健全奖励机制和终身追责机制，按照《党政领导干部生态环境损害责任追究办法（试行）》落实奖罚措施。', '、生态环境局、水务局、农业农村局、统计局、六盘山林业局等单位配合，各县（区）人民政府落实）', '态环境、水务等主管部门要主动面向公众开展湿地科普宣传教育，广泛利用广播、电视、互联网和移动媒体等手段，普及湿地科普知识，提高公众对湿地价值和效益的认识，营造全社会关注湿地、保护湿地的良好氛围。抓好广大中小学生湿地保护知识教育，树立湿地保护意识。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>292</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>赵克志提升政治站位强化工作措施坚决打赢疫情防控阻击战坚决维护社会大局稳定</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2020-01-29</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202001/t20200129_1935027.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['赵克志：提升政治站位 强化工作措施 坚决打赢疫情防控阻击战 坚决维护社会大局稳定_固原市人民政府', '国务委员、公安部党委书记、部长赵克志28日在公安部应对新型冠状病毒感染肺炎疫情工作领导小组第一次会议暨全国公安机关视频会议上强调，要深入学习贯彻习近平总书记关于新型冠状病毒感染肺炎疫情防控工作的重要指示和中央应对新型冠状病毒感染肺炎疫情工作领导小组会议精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持把人民群众生命安全和身体健康放在第一位，把疫情防控作为当前最重要的工作、最紧迫的任务来抓，在各级党委和政府的领导下，提升政治站位，强化工作措施，严明战时纪律，扎实抓好防风险、护安全、战疫情、保稳定各项措施的落实，坚决把党中央的各项重大决策部署落到实处，坚决打赢疫情防控阻击战，坚决维护社会大局稳定。 赵克志指出—— 党中央高度重视近期新型冠状病毒感染肺炎疫情防控工作，习近平总书记多次作出重要指示、提出明确要求，为公安机关做好疫情防控和维护稳定工作指明了方向、提供了遵循。 目前，全国社会大局安全稳定，但疫情防控形势依然严峻复杂，疫情防控和维护稳定的任务艰巨繁重。各级公安机关要进一步提升政治站位，切实把思想和行动统一到习近平总书记重要指示精神和党中央重大决策部署上来，坚定信心、同舟共济，严阵以待、全力以赴，扎实抓好疫情防控和维护稳定各项工作措施的落实。 赵克志强调—— 各级公安机关要按照党中央的统一部署和要求，在当地党委和政府的领导下，迅速启动战时工作机制，充分发挥职能作用，积极配合卫生健康等部门，狠抓疫情防控和维护稳定各项措施的落实。 要增强政治敏锐性和政治鉴别力，依法打击各类借机造谣滋事、恶意污蔑攻击的不法行为，及时发现处置各类造谣、不实疫情信息，积极配合有关部门开展卫生防疫等正面教育引导，坚决防止公共卫生风险向社会稳定领域传导,坚决维护国家政治安全。 要全力配合有关部门做好疫情监测、排查、预警，以及感染患者收治和疑似病例及其密切接触者的核查隔离等工作，切实做到早发现、早报告、早隔离、早治疗，坚决防止疫情扩散蔓延。 要派出足够警力进驻各交通场站维护秩序，充分依托治安检查站、交警执法站和临时检查点，积极协助做好出入管控地区的人员、车辆、物品卫生检疫工作，并开辟绿色通道，优先保障救护车辆、防疫车辆和运送医护人员、药品器械、民生物资等车辆通行。对未经批准擅自设卡拦截、断路阻断交通等违法行为，要立即报告党委、政府，依法稳妥处置，维护正常交通秩序。 要加强机场、火车站、客运码头、边检口岸等人员进出管理，协助做好体温检测、筛查和口岸检疫等工作。要根据疫情形势发展变化，及时启动京津冀警务一体化和联防联控工作机制，筑牢首都安全屏障。 赵克志强调—— 要强化重点防控和社会面整体防控，重点地区公安机关要全面提升勤务等级，加强定点医疗机构、隔离场所等重点部位安保工作，指导相关单位强化治安管控和内部安全防范措施，全力维护医疗、隔离秩序。 要根据疫情发展态势，加大警力投入，强化显性用警，严格落实公安武警联勤巡逻机制和“1、3、5分钟”快速反应处置措施，切实提高见警率、管事率，增强震慑力、控制力，确保社会治安大局持续稳定。 要毫不动摇地坚持依法严打方针，严厉打击利用疫情哄抬物价、囤积居奇、趁火打劫等扰乱社会秩序的违法犯罪行为，严厉打击制售假劣药品、医疗器械、医用卫生材料和非法收购、运输、出售珍贵、濒危野生动物等违法犯罪行为，及时查处扰乱社会秩序、干扰疫情防控、妨害公务等违法犯罪行为。对疫情防控期间发生的严重违法犯罪案件，要组织精兵强将快侦快破，并及时予以曝光，形成强大震慑。 赵克志要求—— 要强化内部安全防护措施，加强公安机关办公场所和出入境、户政、车管等对外窗口单位安全管理和卫生防疫工作，严防发生聚集性疫情和安全问题。 要加强公安监管场所安全防护工作，坚决防止疫情在监管场所传播扩散。要加强基层一线民警防疫防护物品物资保障，积极争取有关部门支持，千方百计为一线执勤民警提供、配备必要的防护装备和后勤保障。 要组织力量抓紧编制防护宣传手册，及时配发一线执勤民警，教育帮助民警提高病毒防范意识、增强自身防护能力。 要关心关爱民警，积极帮助民警解决家庭困难，确保一线执勤民警无后顾之忧。一旦发现民警及家属受到感染情况，要全力帮助落实隔离、救治等措施。 赵克志强调—— 要牢固树立“疫情就是警情”的理念，切实提高抓落实的执行力，确保疫情防控和维护稳定各项措施落到实处。 要加强组织领导，省市县三级公安机关要尽快成立由主要负责同志任组长的领导小组，在当地党委和政府的统一领导下，全力抓好各项工作的推进落实。 各级领导干部特别是主要负责同志要坚守岗位、靠前指挥，勇于担当、敢于负责，切实为全警带好头、作表率。 要在这场严峻斗争实践中考察识别干部，激励引导广大党员干部在危难时刻挺身而出，自觉在疫情防控和维护稳定实践中接受考验。 要严明战时纪律，加强战时思想政治工作，坚持党建引领，强化正向激励，充分发挥党支部的战斗堡垒作用和党员的先锋模范作用。 要明确任务分工，压实岗位责任，强化督导检查，确保各项部署要求不折不扣落到实处。 要加强正面宣传，集中宣传广大公安民警忠于职守、无私奉献的感人事迹和在防风险、护安全、战疫情、保稳定中涌现出来的先进典型，进一步凝聚警心、激励斗志。 要强化应急处突，坚持底线思维，周密制定工作预案，安排充足警力值班备勤，全面强化值守应急，严格落实领导带班值班制度、重要情况请示报告制度和每日研判会商调度制度，确保各项工作高效有序运转。 公安部党委副书记、常务副部长王小洪主持会议，在京公安部党委委员出席会议。湖北、北京、广东、浙江、河南、重庆等地公安机关负责同志和公安部应对新型冠状病毒感染肺炎疫情工作领导小组相关职责工作组主要负责同志作了发言。部机关局级单位主要负责同志和中央纪委国家监委驻公安部纪检监察组、国家移民管理局有关负责同志在主会场参加会议。各省、自治区、直辖市公安厅局和新疆生产建设兵团公安局主要负责同志、领导班子成员，相关部门、警种主要负责同志在分会场参加会议。 连日来，公安部多次召开党委会、视频调度会研究部署疫情防控和维护社会稳定工作，向全国公安机关下发了紧急通知和工作方案。各地公安机关在党委和政府的统一领导下，迅速启动高等级勤务，全力以赴投入疫情防控和维护稳定工作。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>292</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>大陆居民往来台湾通行证和签注签发服务指南</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2019-03-04</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmtx/202109/t20210928_3052428.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['大陆居民同时申请往来台湾通行证和签注，或者持有效往来台湾通行证单独申请签注的，依据不同事由须具备相应条件：', '（一）团队旅游：参加国家旅游局指定的有经营赴台游业务资质的旅行社组织的赴台湾团队旅游。', '（二）个人旅游：开放赴台湾个人旅游城市的常住户口居民，或者符合国家移民管理局规定条件的非常住户口居民，申请赴台湾个人旅游。', '（三）探亲：探望在台湾定居、长期居住、就业、就学的亲属；尚未取得台湾居民身份的大陆配偶赴台团聚、居留。', '（五）应邀：经台办批准前往台湾从事科技、文化、体育、学术等交流活动，或者参加两岸事务性商谈、采访。', '（六）商务：经台办批准前往台湾进行考察、会议、谈判、履约、培训等商务活动，参加或参观展览等经贸交流活动。', '（七）学习：在教育部批准开放大陆学生赴台学习的省份参加本年度普通高校招生全国统一考试的高中毕业生，或在上述开放赴台就学省份且毕业于台湾主管部门承认学历的大陆高校的应届本科或硕士毕业生。', '申请人有《中华人民共和国出境入境管理法》第十二条、《中国公民往来台湾地区管理办法》第十二条规定情形的，不予批准签发往来台湾通行证和签注。', '3、申请人居民身份证原件。不满16周岁未办理居民身份证的可交验居民户口簿，现役的人民解放军军人、人民武装警察交验军人身份证明（军官证、士兵证或者警官证）；', '4、在非常住户口所在地申请往来台湾通行证的，还须按照国家移民管理局有关规定，提交符合在非常住户口所在地申请条件的证明材料，按规定向指定受理机构申请的情形除外。', '5、登记备案的国家工作人员、军人，应当提交本人所属单位或者上级主管单位按照干部管理权限出具的同意其办理出入境证件的函件，但持“赴台批件”申请赴台的除外。', '6、未满16周岁的申请人，还应交验监护关系证明（出生证明、户口簿等），交验监护人居民身份证原件；监护人委托他人陪同的，还须提交监护人委托书，交验被委托人的居民身份证原件。', '交验监护人居民身份证原件；监护人委托他人陪同的，还须提交监护人委托书，交验被委托人的居民身份证原件', '4、在非常住户口所在地申请前往台湾签注的，还须按照国家移民管理局有关规定，提交符合在非常住户口所在地申请条件的证明材料，但按规定向指定受理机构申请的情形除外；', '5、登记备案的国家工作人员、军人，应当提交本人所属单位或者上级主管单位按照干部管理权限出具的同意其办理出入境证件的函件，但持“赴台批件”申请赴台的除外；', '6、委托他人代为申请的，委托人应出具委托书，被委托人须交验本人居民身份证等身份证明原件；由单位代办的，应当提交单位公函，交验代办人居民身份证等身份证明原件。', '（1）赴台个人旅游、团队旅游的，免交与申请事由相应的证明材料；大陆居民赴台旅游组团社领队申请赴台团队旅游多次签注的，应当提交所在组团社出具的公函，交验赴台旅游领队证原件。', '（3）赴台定居的，交验相应事由的入台许可证明原件。大陆居民自行取得台湾居民身份后返回注销大陆户籍并申请赴台湾证件的，须交验台湾地区居民身份证原件和台湾地区户籍誊本。大陆居民与台湾居民在大陆所生子女申请赴台湾定居，在大陆未办理户籍登记的，还须交验本人《出生医学证明》，父母双方中作为大陆居民一方的居民身份证。', '（4）应邀赴台的，提交国务院台办或经授权的省、自治区、直辖市台办“赴台批件”原件，或经受理地省、自治区、直辖市台办盖章确认的复印件。', '（5）赴台进行商务活动的，提交国务院台办或经授权的省、自治区、直辖市台办的 “赴台立项批复”原件，或经受理地省、自治区、直辖市台办确认的复印件。', '（7）执行两岸直航航运任务的，提交国务院台办或经授权的省、自治区、直辖市台办的 “赴台批件”原件，或经省、自治区、直辖市台办确认的复印件。', '（8）赴台从事近海渔船船员劳务作业的，提交对台近海渔船船员劳务合作企业出具的函件原件。', '（9）赴台就医、奔丧、处理财产、诉讼等私人事务的，交验相应事由的入台许可证明原件。', '大陆居民申请往来台湾通行证和签注应由本人提出申请，但符合下列情形之一的，可按相应规定提出申请：', '（二）持有效往来台湾通行证，向原证件或原签注受理机构申请签注的（定居除外），可以委托他人代为申请。', '（四）执行两岸直航航运任务人员持有效往来台湾通行证申请乘务签注，可由所属公司代为申请。', '（五）大陆居民赴台旅游组团社领队持有效往来台湾通行证申请团队旅游签注，可由组团社代为申请。', '（六）大陆渔船船员从事对台近海渔工劳务作业，持有效往来台湾通行证申请签注，可由所属劳务合作企业代为申请。', '（一）申请人向国家移民管理局委托的县级以上公安机关出入境管理机构提交申请材料并按规定采集指纹信息；', '（二）受理机构对符合申请条件，申请材料齐全且符合法定形式的，向申请人出具受理回执；对申请材料不齐全或者不符合法定形式的，一次性告知申请人需要补正的全部内容；对不属于本部门职责范围或不符合受理要求的，不予受理，并向申请人说明理由。', '（三）审批机构进行审核，作出批准或者不予批准的决定。批准的，签发证件；不予批准的，审批机构向申请人出具《不予批准决定书》。', '1、申请条件。（1）往来台湾通行证有效期不足6个月，或者短于拟申请签注有效期的；（2）持证人身份信息发生变更的；（3）持本式往来台湾通行证换发电子往来台湾通行证的；（4）确需换发的其他情形。', '2、申请材料。除提交申请往来台湾通行证规定的申请材料外，还需提交原持有的往来台湾通行证。', '（一）公安出入境管理机构受理往来台湾通行证申请后，符合签发条件的应当在7个工作日内予以签发；单独受理前往台湾签注申请后，应当在7个工作日内予以签发。因所在地区交通不便等特殊情况，不能按期签发的，经省级公安机关出入境管理机构批准，签发时间可延长至20个工作日。', '（二）按照国家移民管理局有关规定，大陆居民在非常住户口所在地申请往来台湾通行证、前往台湾签注的，公安机关出入境管理机构应当在20日内予以签发。', '（三）大陆居民因奔丧、治疗紧急重症、探望危重病人、处理境外突发事件、出境参加紧急会议和谈判、签订合同及出国留学报到时间临近、行前证件遗失损毁或省级公安机关出入境管理机构认可的其他紧急事由急需申请往来台湾通行证和签注的，公安机关出入境管理机构应当按照急事急办原则，优先审批办理。', '《国家发展和改革委员会、财政部关于电信网码号资源占用费等部分行政事业性收费标准的通知》（发改价格〔2017〕1186号）', '往来台湾通行证有效期分为10年和5年两种：有效期为10年的往来台湾通行证签发给已满16周岁的大陆居民，有效期为5年的往来台湾通行证签发给未满16周岁的大陆居民。', '1、团队旅游签注（L）：赴台团队旅游游客可签发6个月一次有效签注；赴台旅游组团社领队可签发最长1年且不超过领队证有效期的多次有效签注。', '3、探亲签注（T）：根据入台许可期限和有效次数，依申请签发6个月一次有效签注，或1年、2年、3年多次有效签注。', '9、其他签注（Q）：赴台就医、访友、处理财产、奔丧、诉讼等事务，根据入台许可期限和有效次数签发6个月一次有效签注或1年多次有效签注；赴台从事近海渔船船员劳务作业的，依申请签发6个月一次有效签注或1年多次有效签注。', '批准签发的往来台湾通行证和签注，根据本人意愿由申请人到受理窗口现场领取，或者通过特快专递等方式送达。', '1、如实向行政机关提交有关材料和反映真实情况，并对其申请材料实质内容的真实性负责；', '大陆居民王某欲赴台湾参加学术交流研讨，到窗口说明了申请赴台事由，提交了申请表、照片、本人身份证件，未提交国务院台办及经授权台办的', '大陆居民赴台参加经济、科技、文化、教育、体育、学术等活动，应先向所在地政府台办提出申请，批准后持国务院台办或经授权台办的', '大陆居民李某与台湾居民结婚后居住在台湾，因持有的往来台湾通行证即将过期，将证件寄回大陆，委托其兄代为办理换发证件事宜。', '大陆居民何某是河北保定人，准备赴台个人旅游，向保定市公安局出入境管理机构申请赴台个人游签注。', '个。由于河北省保定市目前尚未列入赴台个人游城市，因此其公安机关出入境管理机构不能受理赴台个人游签注申请。', '前往台湾旅游、探亲、定居、学习、访友、处理财产和婚丧事宜，或者参加经济、科技、文化、体育、学术等活动的，可以向公安机关出入境管理机构申请往来台湾通行证件和前往台湾签注。', '答：申请赴台旅游，应填写《中国公民出入境证件申请表》、携带本人身份证及符合《出入境证件相片照相指引》的证件照片到户口所在地公安机关出入境管理机构申请办理往来台湾通行证和相应签注。赴台团队旅游应参加当地指定经营赴台旅游业务的旅行社组织的旅游团，赴台个人游可自行前往台湾地区，但均应在行前办妥台方有关入台证件。', '答：大陆居民赴台探亲首先要取得台湾出入境主管部门签发的相应事由的入台许可，之后向户籍地的公安机关出入境管理机构申请办理往来台湾通行证和探亲签注，提交本人申请表、照片、身份证原件，交验与探亲事由相应的入台许可证明原件。', '答：大陆居民申请赴台定居，应向户口所在地公安机关出入境管理机构提出申请，提交申请表、照片、身份证原件，交验台湾出入境主管部门签发的定居类入台许可证明原件。公安机关出入境管理机构批准后，向申请人出具注销户籍通知，申请人持注销户籍通知到户口登记机关注销户籍，然后凭户口登记机关出具的注销户籍证明到公安机关出入境管理机构领取往来台湾通行证和定居签注', '大陆居民自行取得台湾居民身份后返回注销大陆户籍并申请赴台证件的，按照赴台定居手续和要求办理，须交验台湾地区居民身份证原件，提交上述证件及台湾地区户籍誊本复印件。', '大陆居民赴台就学，应凭教育部批准开放大陆学生赴台学习的省份设区市以上台办出具的赴台学习证明原件，向户籍所在地公安机关出入境管理机构申请往来台湾通行证和学习签注，申请时还需提交本人申请表、照片、身份证原件。', '周岁的大陆居民办理往来台湾通行证不可以代办，必须由监护人或监护人委托他人陪同申请；根据监护人意见，可以不采集', '答：定居国外的中国公民来大陆后申请前往台湾，需向其暂住地公安机关出入境管理机构提出申请。申请人除按规定提交申请表和相应的事由证明材料外，还须交验本人有效的中华人民共和国护照或中华人民共和国旅行证、定居国外证明原件。', '九、往来台湾通行证有效期届满或者有其他需要换发证件的情形，如何申请换发证件？往来台湾通行证遗失、被盗抢等，如何申请补发证件？', '往来台湾通行证持证人有以下几种情形的，可以申请换发往来台湾通行证：一是证件有效期不足', '个月，或者短于拟申请签注有效期的；二是持证人身份信息发生变更的；三是持本式往来台湾通行证换发电子往来台湾通行证的；四是如证件磨损严重等影响证件使用等确需换发的其他情形。大陆居民申请换发往来台湾通行证应当按照申请往来台湾通行证的规定提交相关申请材料，还须提交原持有的往来台湾通行证。', '大陆居民往来台湾通行证发生遗失、被盗抢等情况，需要补发证件的，应由本人提出补发申请，需提交的申请材料与首次申请往来台湾通行证的规定相同。', '十、电子往来台湾通行证启用后，原来持有的本式往来台湾通行证还能继续使用吗？什么情况下可以换成电子往来台湾通行证？', '答：电子往来台湾通行证启用后，仍然有效的现行本式往来台湾通行证和贴纸签注可以继续使用，持有有效的本式通行证可以继续申办贴纸签注。根据自身需要，本式通行证的持证人可申请换发电子往来台湾通行证，卡式通行证收取证件工本费', '电子往来台湾通行证与本式往来台湾通行证有什么区别？电子往来台湾通行证可以自助通关吗？', '答：电子往来台湾通行证与现行证件相比在便捷性、耐用性、安全性等方面都有明显的提升。电子往来台湾通行证启用后，签发给已满', '年有效。电子往来台湾通行证内嵌非接触式集成电路芯片，存储持证人个人资料和证件、签注签发管理信息等，签注直接打印在证件背面，可重复擦写，留存指纹信息的持证人出入境时，可以按规定自助通关。', '大陆居民因奔丧、治疗紧急重症、探望危重病人、处理突发事件或省级公安机关出入境管理机构认可的其他紧急事由申请往来台湾通行证和签注的，公安机关出入境管理机构应当按照急事急办原则，优先审批办理。', '大陆居民在台湾地区发生往来台湾通行证过期、遗失、损毁、被盗抢等情形导致无有效出入境证件返回大陆的，以及在台湾出生的大陆居民子女返回大陆的，可通过两岸民间机构、台湾地区出入境管理机构或原受理申请的公安机关出入境管理机构向国家移民管理局提出申请，并提交拟入境的具体时间、所乘坐交通工具班次及入境口岸。经核实后，国家移民管理局通知拟入境口岸出入境管理机构签发一次有效的《中华人民共和国出入境通行证》，并通知拟入境口岸的边防检查机关协调有关航空（船舶）公司允许搭乘返回。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>292</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>中共固原市委员会关于自治区党委第一巡视组巡视固原市反馈问题整改落实情况的通报</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/202403/t20240315_4486338.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['中共固原市委员会关于自治区党委第一巡视组巡视固原市反馈问题整改落实情况的通报_固原市人民政府', '向固原市委反馈了巡视意见。根据《中国共产党巡视工作条例》和《中国共产党党内监督条例》有关规定，现将截止', '。市委常委会多次专题安排部署巡视整改工作，成立由市委主要领导任组长的领导小组，下设', '。统筹市县一体推进，制定下发《整改方案》，建立问题清单和整改台账，逐条明确牵头单位、整改措施和完成时限，对言顺书记在听取巡视情况汇报时点人点事问题和选人用人、意识形态', '一体推进当下改、根源治、长久立，针对个性问题，立行立改、迅速核查，及时整改到位；针对共性问题，找准病灶、建章立制，从源头上解决问题；针对违规违纪问题线索，依规依纪彻查处置，坚决不留死角。坚持以改促提，聚焦重点领域建立了一批长效机制，推动巡视整改工作成效转化为发展成果。', '。及时把巡视整改落实情况纳入年度效能目标管理考核，建立常态化督查督办、考核评价、追责问责制度，对牵头部门', '“一竿子插到底”开展全覆盖、驻在式督导，延伸抽查部分责任单位，对整改不力、工作不到位的单位点名通报，倒逼压实整改责任，加压驱动整改落实。', '“贯彻落实党的路线方针政策和党中央重大决策部署及自治区党委工作要求不到位，推进高质量发展有不足”的问题', '“学习贯彻习近平新时代中国特色社会主义思想和党的二十大及习近平总书记视察宁夏重要讲话指示批示精神不够深入”的问题', '1．针对“学习宣传习近平新时代中国特色社会主义思想和党的二十大精神不够扎实”等问题', '制定学习贯彻习近平新时代中国特色社会主义思想主题教育理论学习《工作方案》《研讨计划》等文件，举办党的二十大和自治区第十三次党代会研讨班，市委理论学习中心组带头学习17次、专题研讨9次，带动各级党组织开展学习研讨8700余场次。', '制定学习贯彻习近平新时代中国特色社会主义思想主题教育理论学习《工作方案》《研讨计划》等文件，举办党的二十大和自治区第十三次党代会研讨班，市委理论学习中心组带头学习', '组织市级领导前往基层联系点进行宣讲。组建主题教育宣讲团，开展各类宣讲活动7800余场次、受众38万人次。', '2．针对“学习贯彻习近平总书记视察固原时重要讲话精神有差距，冷凉蔬菜产业联农带农富农作用不强”等问题', '学习贯彻习近平总书记视察固原时重要讲话精神有差距，冷凉蔬菜产业联农带农富农作用不强', '制定印发了《关于进一步健全完善联农带农机制的通知》，成立了肉牛、马铃薯、冷凉蔬菜等7个联农带农促农增收工作专班，为农户提供就业岗位19.7万个，带动户均增收3.5万元。', '制定印发了《关于进一步健全完善联农带农机制的通知》，成立了肉牛、马铃薯、冷凉蔬菜等', '开展冷凉蔬菜联农带农专题调研，分析存在问题，提出建议措施。指导企业制定了拱棚辣椒生产技术规程和露地芹菜覆膜压沙穴播栽培技术规程。', '加强水环境排查和水质预警监测，实现主要河流水质自动监测和预警预报，城镇污水处理厂等重点废水企业达标排放。', '制定《工业园区工业企业规范取用水行为整改方案》，督促各县（区）对辖区内工业企业进行了全面排查，并建立管理台账。', '建立后备企业培育清单，跟进掌握培育企业项目建设和生产情况，督促符合条件企业及时入规纳统。', '紧盯煤炭、电力、化工三大支柱产业和雪川农业等年产值亿元以上重点企业，加大监测力度和调度频次，助力企业达产达效。', '持续加强R＆D统计工作，分级开展R＆D经费归集工作专项培训，不断提升R＆D归集水平。', '成立会计师事务所和律师事务所组成的评估组，对宁旅投资集团托管情况进行初核复核，出具并上报了《宁夏六盘山旅游集团有限公司托管第一个周期考核评估复核情况报告》，组织召开考核周期考核评估情况座谈会，现场反馈考核评估情况，并明确要求宁旅投资集团尽快反馈履约意向。聘请会计师事务所进驻六旅集团开展专项审计。', '制定《农产品加工业高质量实施方案》，改造升级农产品加工企业14家，培育申报国家和自治区级农业产业化龙头企业13家，全市农产品加工转化率达63％。', '支持融侨丰霖在原州区流转土地，带动农户增收；协调企业优先聘用本地务工人员，与各县（区）53家养殖场签订技术服务协议，给予养殖人员业务培训和技术服务。', '支持融侨丰霖在原州区流转土地，带动农户增收；协调企业优先聘用本地务工人员，与各县（区）', '深入雪川公司实地调研，详细了解马铃薯产业发展及企业龙头作用发挥情况，支持雪川农业拓展马铃薯原料生产基地，开发工业观光旅游', '县区修订县域《农村生活污水处理设施运行维护管理办法》，开展了农村生活污水集中处理设施运行排查整治专项行动，对建成投运的153座污水处理站进行检查，建立问题清单台账，推动问题整改。谋划实施农村生活污水治理项目11个，完成43个行政村污水治理，全市农村生活污水治理率达到22.57％。', '县区修订县域《农村生活污水处理设施运行维护管理办法》，开展了农村生活污水集中处理设施运行排查整治专项行动，对建成投运的', '座污水处理站进行检查，建立问题清单台账，推动问题整改。谋划实施农村生活污水治理项目', '印发《农村厕所问题分类整改工作方案》，加快推动问题厕所整改，建立了160个农村户厕后续运维服务站，实行农户付费购买或上门服务，服务了63％的改厕农户。', '组织市级领导带头到所在联系点开展宣讲，督促各部门（单位）在本单位、本领域、本行业以及所在帮扶村开展宣讲，累计开展宣讲809场次。', '组织市级领导带头到所在联系点开展宣讲，督促各部门（单位）在本单位、本领域、本行业以及所在帮扶村开展宣讲，累计开展宣讲', '明确了在城市园林养护、城市道路及基础设施维护等方面存在的权责不清的问题，固原市和原州区就推进城市管理方面事权和支出责任事项等工作，共同议定工作任务推进清单。', '五县（区）均已建成县域医共体信息平台，群众看病难问题逐步缓解。持续推进DIP医保支付方式改革，职工和居民医保住院医疗费用实际报销比例均高于全区平均水平。', '持续提升医疗服务质量，全面启动省级区域医疗中心建设项目，市人民医院通过三级甲等综合医院评审。', '开展卫生健康领域突出问题等5个专项治理行动，群众对医疗机构投诉率同比下降11％、满意度达到95％以上。', '建立学前教育补助经费投入长效机制，新建公办幼儿园6所，新增普惠性幼儿学位2700个', '制定《关于优化提升营商环境存在短板问题整改落实工作方案》《2023年全面优化营商环境推动民营经济高质量赶超式发展若干措施责任清单》，高效推进整改工作落实落细。', '年全面优化营商环境推动民营经济高质量赶超式发展若干措施责任清单》，高效推进整改工作落实落细。', '对照《固原市优秀企业家评选表彰办法》研究制定优秀企业家评选具体办法细则，经自治区党委、政府批复同意后开展评选表彰活动。', '对企业商贸促销活动审批情况进行排查和梳理，取消《临时性户外广告宣传备案证》，对开业庆典、门店氛围布置、促销活动等不再进行审批。', '召开全市宣传思想文化会议、市委常委会会议和意识形态工作联席会议，专题研究意识形态和宣传思想工作，对部门（单位）和县（区）开展意识形态专项检查，', '督促各级党委（党组）班子及班子成员将意识形态责任制落实情况列入民主生活会和年度述职报告。', '将意识形态工作作为市委巡察重要内容，开展五届市委第六轮巡察意识形态工作责任制落实情况专项检查。', '印发了招商引资项目引进协调推进《工作规则》《工作流程》等文件，构建全市招商引资项目论证、对接、研判、推进、签约、服务和督查考评工作体系。', '将贯彻落实《关于加强领导班子建设推进全面从严治党的决定》作为监督检查重要内容，通过监督检查并督促问题整改。', '“一把手”五不直接分管、末位表态、离任审计等监督制度，严格执行领导班子议事决策规则。', '督促提醒市委、市政府班子成员全部与分管部门负责人开展谈心谈话。督促市人大常委会党组、市人民医院党委分别召开了专题民主生活会。', '年固原市全面从严治党党风廉政建设和反腐败工作主要任务分工方案》，对推进措施实施清单化管理。', '年政治监督要点》，跟进监督党中央和区市党委重大决策部署落实情况，对部门（单位）、乡镇、行政村进行了监督检查。', '“两个市”建设、耕地保护、粮食安全等，严肃查处在乡村振兴、安全生产等领域履行职责不到位问题。', '印发《固原市纪委监委内设机构及派驻（出）机构考核办法》，将派驻（出）纪检监察组参加', '市直机关纪工委按规定将党纪处分决定备案监督情况，向市纪委监委和市直机关工委报备，并长期坚持。', '印发《固原市本级行政事业单位差旅费管理办法（暂行）》等制度规定，对差旅费报销作了进一步规范。', '坚决治理文山会海情况，制定印发《全市纠治形式主义官僚主义专项整治突出问题整改方案》，建立健全制度机制', '“四风”问题，召开市反腐败案件查处协调领导小组会，建立联络员制度，对公安交警部门移送的酒驾醉驾问题线索优先处置。', '由自治区第四巡回督导组和市委主题教育领导小组办公室分别对市四套班子专题民主生活会和市直各部门（单位）、各县（区）处级以上领导班子民主生活会进行督促指导。', '市四套班子分别召开主题教育专题民主生活会，督导组列席指导，开展批评有辣味，真讲问题、讲真问题，达到预期目的。', '1次理论水平测试。结合市管领导班子和领导干部2023年度考核工作，对市管处级领导干部全覆盖开展理论水平测试。', '开展市委管理领导班子和领导干部专题调研暨政治素质考察工作，全面掌握领导班子整体结构、运行情况和优化方向。', '“互学互查互鉴互促”活动，召开市属国有企业党建工作推进会，组织国有企业通过亮晒比促，提升基层党建工作水平、增强“三重一大”等制度落实规范性。', '对拟提拔任用的处科级干部从严把关，认真审核研判，坚决杜绝提拔任用年限不够的干部。对缺乏基层工作经历的市直机关干部，有计划的通过到乡镇挂职、担任驻村', '认真落实市直部门（单位）四级书记抓党建责任清单和党组（党委）成员联系党支部责任清单及', '制度，结合基层党组织评星定级和年度考核，对党建工作进行全覆盖督查，推动机关党建责任压实、工作落实。', '常态化督查机制，并由市教育工委牵头成立督导组，三次下沉各县（区）、各学校（园）开展全覆盖督导检查。', '将全市非公经济组织和社会组织党组织书记及党务工作者示范培训项目纳入年度党员干部教育培训计划', '一些干部思想保守，内生动力不足，抢机遇争项目抓发展意识不强，工作按部就班，敷衍塞责，应付了事', '严格贯彻落实中央推进领导干部能上能下规定和自治区实施细则，重点解决干部能力不强、作风不实、不担当不作为、工作不在状态等不适宜担任现职干部', '“上轮巡视、审计、中央环保督察等监督发现问题整改不够彻底，个别问题还在整改中”的问题', '制定整改方案，细化整改措施，推动政府隐性债务过高、市政府贷款垫付有关费用等问题整改取得阶段性成果。', '印发《固原市地方储备粮管理办法（试行）》，实施市粮食应急保障中心消防水池及泵房建设项目，促进粮食购销领域管理整体提升。', '制定分年度消化暂付款计划，开展专项督察，健全地方政府性债务统计监测、风险预警等制度，', '推动财政未按规定清理借垫款、多报和漏报拖欠中小企业账款、清理退还保证金不到位等问题按期整改到位。', '实施西苑新村基础设施整治工程，对西苑新村未接通排水管网的用户新建敷设管网0.16公里，对250户居民的现有排水管网进行清淤疏通，并对该区域破损路面采取铺设河沙、平整压实等措施，方便市民出行。', '户居民的现有排水管网进行清淤疏通，并对该区域破损路面采取铺设河沙、平整压实等措施，方便市民出行。', '持续深入学习贯彻习近平总书记关于巡视工作的重要指示精神，不折不扣落实党中央和自治区党委关于巡视整改工作的部署要求，扎实', '“后半篇文章”，紧紧围绕需要长期整改、巩固提升的问题，健全完善行之有效、切实管用长效机制，持续推动整改落实常态化、长效化，更好把整改成效转化为认知成果、工作成果和实践成果']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>292</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>固原市年上半年就业形势分析</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018-07-08</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/201901/t20190103_1240693.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['全市就业创业工作按照市委、政府的决策部署，紧扣全市就业扶贫总体要求，坚持就业优先工作方针，落实更加积极就业政策，以推动实现更高质量和更充分就业为目标，大力推进', '农村劳动力转移就业，积极开展职业技能培训提升，不断促进重点困难群体就业，积极鼓励创业带动就业。', '闽侯劳务协作会议，各县(区)均与福建对口协作县(区)签订意向性劳务合作协议，挂牌成立隆德', '闽侯劳务协作工作站，西吉县职业中学与福州、厦门重点企业和职业技术学院建立长期校企合作、校校合作关系。开展用工企业', '多名农村劳动力在家门口实现就业，农村劳动力就近就地转移就业比重增大。培训劳务经纪人(中介组织负责人)', '挥劳务经纪人(中介组织)在提高劳务组织化程度中的引领作用，春季万人转移就业行动成效明显。预计上半年转移就业收入占农民人均可支配收入的', '人取得职业资格证书、掌握一门致富技能。狠抓扩面工作，送技能进企业、进种养基地，原州区将农村实用技术培训班办到“冷凉蔬菜”基地，彭阳县委派培训机构到宁夏天元锰业有限公司开展岗前培训，引导职业技能培训更适应产业升级和企业岗位需求。', '人取得职业资格证书、掌握一门致富技能。狠抓扩面工作，送技能进企业、进种养基地，原州区将农村实用技术培训班办到', '积极开展就业援助月活动，全市走访就业困难人员和零就业家庭1478户，登记认定未就业困难人员588人，帮助439名就业困难人员实现就业。落实离校未就业高校毕业生尤其是特殊困难毕业生帮扶措施，发放高校毕业生求职创业补贴', '名就业困难人员实现就业。落实离校未就业高校毕业生尤其是特殊困难毕业生帮扶措施，发放高校毕业生求职创业补贴', '上半年，全市就业创业工作虽然取得了阶段性成效，但也存在一些问题和不足，与上级组织和群众期盼还有一定的差距。', '全市规模以上企业少，小微企业工资待遇偏低，吸纳就业能力不强，用人单位招工难与务工人员就地就近找活难并存。', '劳动力技能培训与产业发展、就业市场需求衔接精准度不够高，培训层次低，主打品牌不够突出，', '一是下一步全市就业形势总体平稳，城镇新增就业、城镇登记失业人员等指标和上年基本持平，但企业成本上升、工资', '认真宣传贯彻自治区援企稳岗、创业担保贷款贴息、灵活就业人员社保补贴、高校毕业生创业补贴和求职补贴、失业保险补贴等扶持政策，促进各项扶持政策落地生根。统筹做好大学生、复转军人、零就业家庭、农村贫困建档立卡户等就业工作，安置高校毕业生', '加强与用工单位对接协调，引导用人单位用工招聘公正、公平、公开、透明，切实做到以人为本，尊重求职者的平等就业权。', '继续推进城乡劳动力特别是农村贫困建档立卡劳动力就业情况统计核查，年底前实现实名动态管理。加强驻外劳务机构管理', '活动，围绕培训对象信息精准、特色品牌打造精准、培训组织实施精准，大规模开展育婴师、家政服务、中式烹调、电焊工等职业技能培训，引导贫困劳动力接受新理念、学习新技能。大力支持企业职工岗位技能提升培训，开展对产业工人的岗前、岗上技能培训。紧盯', '充实、稳定乡(镇)、村劳务信息员队伍，加强信息平台建设，提高服务能力，及时准确统计、更新本区域劳动力资源和就业创业状况，为农村劳动力实现就业创业提供便利、精准服务。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>292</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>固原市年脱贫攻坚工作要点</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202101/t20210107_2564950.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的十九届四中全会、中央经济工作会议和习近平总书记视察宁夏时的重要讲话精神，全面落实自治区党委十二届八次、九次全会精神，市委四届', '全国、全区脱贫攻坚工作会议精神，紧扣脱贫攻坚和全面小康目标任务，以脱贫攻坚统领经济社会发展全局，按照中央和自治区打赢脱贫攻坚战总体部署，以及市委四届六次全会', '闽宁协作、金融扶贫、“两个带头人”工程、产业扶贫、易地扶贫搬迁、消费扶贫、激发内生动力', '持续发力防松劲，严把标准防闯关，巩固成果防返贫，查损补失、查漏补缺、查短补齐、查弱补强，', '全市上下必须围绕打赢脱贫攻坚这一关键之战、决胜之举，一鼓作气、乘势而上，保持攻坚态势，强化攻坚责任，', '紧盯剩余贫困人口，对病残老特殊贫困群体，组织实施好健康扶贫、残疾人扶贫、养老保险社会保障三大工程，进一步完善综合保障体系；对完全和部分丧失劳动能力且无法依靠产业帮扶脱贫的贫困人口提供兜底保障，确保实现“两不愁三保障”目标；对', '紧盯剩余贫困人口，对病残老特殊贫困群体，组织实施好健康扶贫、残疾人扶贫、养老保险社会保障三大工程，进一步完善综合保障体系；对完全和部分丧失劳动能力且无法依靠产业帮扶脱贫的贫困人口提供兜底保障，确保实现', '聚焦“20项清零行动”，全面补齐296个行政村脱贫发展短板；聚焦58个深度贫困村，全面提升脱贫退出质量；聚焦“三类特殊贫困群体”，精准实施“社保保障+产业扶持”“双兜底”；聚焦“两不愁三保障”，严格标准程序，确保剩余贫困人口精准脱贫；聚焦“三率一度”标准，确保高质量退出贫困县序列。', '。要把当下脱贫与长远发展结合起来，坚决防止疲劳症、急躁症，严格落实“四个不摘”要求，持续发力、接续用力、继续努力，保持政策的连续性、稳定性，持续开展“回头看”，查漏补缺，强基固本。', '坚持“脱贫不脱政策、脱贫不脱责任、脱贫不脱帮扶、脱贫不脱监管”，对已脱贫退出的贫困县、贫困村和贫困人口保持现有政策总体稳定。紧盯贫困户脱贫“两不愁三保障”和“一收入”标准，持续巩固提升脱贫户脱贫成效；紧盯贫困村脱贫出列标准，持续巩固提升已脱贫出列村基础设施建设、公共服务水平、产业培育发展、村集体经济收入等薄弱短板；紧盯贫困县脱贫摘帽“三率一度”目标，督导原州、隆德、泾源、彭阳四个县（区）做到工作力度只增不减、资金投入只增不减、政策支持只增不减、帮扶力度只增不减。强化建档立卡动态调整机制，完善信息服务功能，做好贫困监测和建档立卡数据衔接；充分发挥扶贫数据共享平台作用，加强信息数据对比分析，确保扶贫政策有序衔接。', '标准，持续巩固提升脱贫户脱贫成效；紧盯贫困村脱贫出列标准，持续巩固提升已脱贫出列村基础设施建设、公共服务水平、产业培育发展、村集体经济收入等薄弱短板；紧盯贫困县脱贫摘帽', '目标，督导原州、隆德、泾源、彭阳四个县（区）做到工作力度只增不减、资金投入只增不减、政策支持只增不减、帮扶力度只增不减。强化建档立卡动态调整机制，完善信息服务功能，做好贫困监测和建档立卡数据衔接；充分发挥扶贫数据共享平台作用，加强信息数据对比分析，确保扶贫政策有序衔接。', '以改善条件为基础，持续加大投入力度，不断改善发展条件，完善基础设施，实施农村人饮巩固提升工程，', '加强贫困村生态建设，推进农村环境整治、“厕所革命”、垃圾处理等，美化农村环境，优化人居环境。以建设20个美丽示范村牵引农村环境综合整治“五清二改一绿化”工程，建设卫生厕所3万座。', '完善深化农村党建“三大三强”行动和“两个带头人”工程长效机制，严格落实党建基本制度，建立整治和防范“村霸”问题长效机制，持续整顿软弱涣散村党组织，结合打赢疫情防控阻击战，深化完善“双评双定”机制，促进党组织和党员发挥作用，着力提升基层党组织的政治领导力、思想引领力、群众组织力和社会号召力。全面落实村党组织书记县级党委备案管理和村干部县级联审制度，开展村党组织带头人队伍优化提升行动，加强选育管用，提升整体素质。加强村级后备干部队伍建设，每个村培养储备2-3名优秀后备干部。管好用好驻村第一书记和工作队，督促发挥好“五大员”作用，落实《全市第一书记和驻村工作队疫情防控工作任务清单》，让脱贫攻坚工作队成为疫情防控工作队。实施贫困村集体经济薄弱村发展提升计划，建立健全壮大村集体经济和启动资金风险防范机制，实现贫困村集体经济收入达到5万元以上，为脱贫攻坚夯实基础、提供保障。', '机制，促进党组织和党员发挥作用，着力提升基层党组织的政治领导力、思想引领力、群众组织力和社会号召力。全面落实村党组织书记县级党委备案管理和村干部县级联审制度，开展村党组织带头人队伍优化提升行动，加强选育管用，提升整体素质。加强村级后备干部队伍建设，每个村培养储备', '作用，落实《全市第一书记和驻村工作队疫情防控工作任务清单》，让脱贫攻坚工作队成为疫情防控工作队。实施贫困村集体经济薄弱村发展提升计划，建立健全壮大村集体经济和启动资金风险防范机制，实现贫困村集体经济收入达到', '聚焦巩固提升脱贫质量，认真贯彻落实“三防”（防松劲、防闯关、防返贫）的总体要求，查找损失、漏洞、短板、弱项。', '对照影响脱贫质量的因素，结合“三落实”（责任落实、政策落实、工作落实）、“三精准”（精准识别、精准帮扶、精准退出）和“三保障”（义务教育有保障、基本医疗有保障、住房安全有保障）落实情况，逐乡、逐村、逐户扎实开展“四查四补”（查损补失、', '（义务教育有保障、基本医疗有保障、住房安全有保障）落实情况，逐乡、逐村、逐户扎实开展', '）工作，查找漏评错退、死角盲区，查找疫情给企业、群众、项目造成的损失，拿出有效应对策略、应对措施、应对办法，把损失补回来；对照“两不愁三保障”标准，堵塞漏洞、补上缺项；紧扣全面建成小康社会，查找和补齐公服务、基础设施等方面的短板；根据农民增收情况，补强薄弱环节，把产业做强，提高群众增收富能力。', '）工作，查找漏评错退、死角盲区，查找疫情给企业、群众、项目造成的损失，拿出有效应对策略、应对措施、应对办法，把损失补回来；对照', '标准，堵塞漏洞、补上缺项；紧扣全面建成小康社会，查找和补齐公服务、基础设施等方面的短板；根据农民增收情况，补强薄弱环节，把产业做强，提高群众增收富能力。', '对所有摘帽县进行一次全面普查，重点围绕脱贫结果的真实性和准确性，调查贫困人口“两不愁三保障”实现情况、获得帮扶情况、参与脱贫攻坚项目情况等，解决好收入略高于建档立卡户的群体政策支持、贫困村和非贫困村不平衡等问题，', '实现情况、获得帮扶情况、参与脱贫攻坚项目情况等，解决好收入略高于建档立卡户的群体政策支持、贫困村和非贫困村不平衡等问题，', '认真贯彻落实自治区扶贫开发领导小组办公室《关于建立脱贫不稳定人口与边缘易致贫人口防止返贫致贫监测预警和动态帮扶机制的指导意见》，', '重视解决收入略高于建档立卡贫困户的群体缺乏政策支持问题，及时掌握全市已脱贫建档立卡户和非贫困户因病、因灾、因突发事故导致易返贫致贫的基本信息，', '继续在金融扶贫、“两个带头人”工程、产业扶贫、闽宁协作、易地扶贫搬迁、消费扶贫、激发内生动力等方面做好示范，争创全国脱贫攻坚示范市。', '工程、产业扶贫、闽宁协作、易地扶贫搬迁、消费扶贫、激发内生动力等方面做好示范，争创全国脱贫攻坚示范市。', '认真落实扶贫小额信贷等政策，确保扶贫小额信贷规模、覆盖率和户均贷款保持基本稳定，实现符合条件、有贷款意愿的贫困户应贷尽贷，为建档立卡户发放扶贫小额信贷12.3亿元，建立金融扶贫示范村100个，规范扶贫小额信贷管理，严格控制贷款逾期、户贷企用和用于非生产性支出，防范和化解风险', '认真落实扶贫小额信贷等政策，确保扶贫小额信贷规模、覆盖率和户均贷款保持基本稳定，实现符合条件、有贷款意愿的贫困户应贷尽贷，为建档立卡户发放扶贫小额信贷', '个，规范扶贫小额信贷管理，严格控制贷款逾期、户贷企用和用于非生产性支出，防范和化解风险', '在稳定大病补充医疗保险、家庭成员意外伤害保险的基础上，加大优势特色产业保险产品创新和推广力度，', '以完善深化农村党建“三大三强”行动和“两个带头人”工程为抓手，创新正向激励机制，牢牢抓住政策支持、领导包抓、示范带动等关键，完善选拔培育、转化提升、减贫带贫和外力助推等机制，培育农村致富带头人1480人，不断壮大农村致富带头人队伍，带动群众共同增收致富。开展农村致富带头人“双提升”行动，加强对农村致富带头人的思想教育和政治引领，注重对党员致富带头人政治表现的考察，着力提升农村致富带头人的致富带富能力和“二合一”带头人的比例。', '工程为抓手，创新正向激励机制，牢牢抓住政策支持、领导包抓、示范带动等关键，完善选拔培育、转化提升、减贫带贫和外力助推等机制，培育农村致富带头人', '行动，加强对农村致富带头人的思想教育和政治引领，注重对党员致富带头人政治表现的考察，着力提升农村致富带头人的致富带富能力和', '积极推动贫困地区农村资源变资产、资金变股金、农民变股东改革，实施贫困地区集体经济薄弱村发展提升计划，支持贫困村整合集体资源、资产、资金等要素，通过带头人带领发展集体资源型经济、集体服务型经济、创新集体资金经营模式等方式，发展壮大村集体经济，解决“空壳村”，通过资产收益扶贫促进农民增收', '积极推动贫困地区农村资源变资产、资金变股金、农民变股东改革，实施贫困地区集体经济薄弱村发展提升计划，支持贫困村整合集体资源、资产、资金等要素，通过带头人带领发展集体资源型经济、集体服务型经济、创新集体资金经营模式等方式，发展壮大村集体经济，解决', '“有土”扶贫要因地制宜，加快提高农业产业化服务水平，实现全产业链、全价值链增收致富；', '稳步建立企业、合作组织和农户双赢的利益联结机制，让农户跟着企业走、企业跟着市场走。种植“宁夏菜心”5万亩、小杂粮（油料）', '稳步建立企业、合作组织和农户双赢的利益联结机制，让农户跟着企业走、企业跟着市场走。种植', '“离土”扶贫要因人制宜，加快提高农民组织化程度，让农民离开得有尊严、有保障、能致富。', '结合实际发展需求，抓好“扶贫车间”建设，积极培育乡村旅游新业态，不断提高就近吸引劳动力就业的能力。', '突出产业合作，共同建好闽宁扶贫产业园、扶贫车间、劳务基地，扩大消费扶贫和劳务输出规模，实现产业合作互利共赢。', '构建多层次帮扶体系，推进“携手奔小康”行动向贫困村延伸，进一步实化细化县之间、乡镇之间、行政村之间结对帮扶措施，做好闽宁示范村提质增效工作，巩固提升闽宁示范村', '行动向贫困村延伸，进一步实化细化县之间、乡镇之间、行政村之间结对帮扶措施，做好闽宁示范村提质增效工作，巩固提升闽宁示范村', '坚持联席推进、结对帮扶、产业带动、互学互助、社会参与的协作机制，加强高层互访交流，', '鼓励支持各类企业和社会组织参与，在商贸流通、教科文卫、人才劳务等方面深入合作，力促闽宁协作上台阶上水平。', '，集中力量抓好移民区产业发展、就业服务和社会管理。积极培育并依托新型经营主体，完善带贫减贫机制，大力发展特色优势产业，积极引进劳动密集型企业，因地制定宜建设扶贫车间，设立扶贫岗位，帮助搬迁群众就业创业', '实现稳得住、管得好、逐步能致富。落实好政策性移民社会保障、户籍迁转、乡村治理和公共服务等政策，', '依托闽宁对口扶贫协作、中央单位定点扶贫和民营企业“百企帮百村”，持续推进社会购买促进行动、销售渠道畅通行动、供给质量提升行动、休闲旅游提升行动，动员全社会扩大对我市农产品和服务消费、拓宽农产品流通和销售渠道，推动我市', '，持续推进社会购买促进行动、销售渠道畅通行动、供给质量提升行动、休闲旅游提升行动，动员全社会扩大对我市农产品和服务消费、拓宽农产品流通和销售渠道，推动我市', '深入实施消费扶贫项目，以消费端市场端引领生产端，创新完善农产品产销对接机制，完善县乡村物流体系建设，支持各类企业与贫困村户建立长期稳定的产销关系，采取灵活多样的消费方式，促进实现贫困群众增收。', '利用福建六盘山特产馆将枸杞、蜂蜜、杂粮等六盘山地区农特产品推向东南沿海的销售市场。', '通过发挥新时代文明实践中心、驻村第一书记的作用，有针对地扶思想、扶思路、扶技术，让', '加强民风建设，推进易风移俗，大力塑造乡村德治秩序，加快推进农村社会治安防控体系建设，严厉打击涉黑涉恶、黄赌毒、盗拐骗等违法犯罪，用法律定纷止争，让群众在和谐环境中看到希望。', '固原的脱贫攻坚历程是中国减贫的一个缩影，彰显了中国共产党领导的政治优势、中国特色社会主义制度的巨大优越性、国家治理体系的强大生机活力。固原是国内国际关注的焦点，要以展示成果、推广经验、宣传典型、外树形象为目的，系统总结脱贫攻坚工作，建好外宣基地，讲好固原故事，对内激发动力，对外接受检阅。', '，围绕以脱贫攻坚统揽经济社会发展全局的做法和脱贫攻坚对全市经济发展的推进作用，从专项扶贫、行业扶贫和社会扶贫三个方面，全面系统总结全市脱贫攻坚工作成功经验和取得的显著成效。从普通群众到市县乡村干部中，全方面挖掘和选树全市脱贫先进典型人物和典型经验，在市内外各级传统媒体和新媒体上进行大力宣传，激发和调动广大干部群众的积极性、主动性、创造性，营造打好精准脱贫攻坚战的浓厚氛围。', '邀请专业团队制作一部全面反映固原脱贫攻坚成就的电视宣传片，布设固原脱贫攻坚成就展厅，通过影像、图片等形式，高水平、全方位、系统性展示新中国成立70年来，特别是党的十八大以来全市脱贫攻坚取得的巨大成就。同时，在全市选择具有代表性的典型和亮点基地，确定好观摩路线，供国内外、区内外领导、专家参观交流学习，对外展示全市扶贫成就。', '邀请专业团队制作一部全面反映固原脱贫攻坚成就的电视宣传片，布设固原脱贫攻坚成就展厅，通过影像、图片等形式，高水平、全方位、系统性展示新中国成立', '年来，特别是党的十八大以来全市脱贫攻坚取得的巨大成就。同时，在全市选择具有代表性的典型和亮点基地，确定好观摩路线，供国内外、区内外领导、专家参观交流学习，对外展示全市扶贫成就。', '将全市脱贫攻坚中涌现出的一批精准扶贫精准脱贫的典型，认真筛选出具有代表性和创新性，可在全区、全国可示范推广和借鉴的典型案例，', '大力进行推广，学经验、学方法，开拓思路，结合实际大胆创新，在脱贫攻坚和乡村振兴实践中不断取得新的成绩、创造新的经验，为全市打赢脱贫攻坚战和经济社会发展做出新的贡献。', '坚持全面、权威、系统、专业、科学的原则，注重可靠性、简明性、可读性、实用性，以图文并茂的形式，深度整理挖掘，编撰一部聚焦固原扶贫，激发可持续发展的', '紧紧围绕脱贫攻坚伟大实践，在“五个一批”文艺精品创作中，扶持出版一批讲述脱贫故事的文学文艺丛书、举办一批展示脱贫成就的文化艺术展览、编排一批反映脱贫攻坚生活的文艺节目、创作一批记录脱贫攻坚历程的影视戏曲剧本、拍摄一批宣传脱贫攻坚典型的视频作品，向全国宣传展示固原的脱贫成果。', '文艺精品创作中，扶持出版一批讲述脱贫故事的文学文艺丛书、举办一批展示脱贫成就的文化艺术展览、编排一批反映脱贫攻坚生活的文艺节目、创作一批记录脱贫攻坚历程的影视戏曲剧本、拍摄一批宣传脱贫攻坚典型的视频作品，向全国宣传展示固原的脱贫成果。', '脱贫攻坚是全面建成小康社会的重中之重，是今年必须完成的终期大考。要坚持精准方略不动摇，拧紧思想，聚焦重点、保证质量，全市总动员，发起总攻势，啃下硬骨头，拔掉“山中寨”、消灭薄弱点，确保如期完成、获得全胜。', '脱贫攻坚是全面建成小康社会的重中之重，是今年必须完成的终期大考。要坚持精准方略不动摇，拧紧思想，聚焦重点、保证质量，全市总动员，发起总攻势，啃下硬骨头，拔掉', '剩余脱贫任务虽然数量不多，但都是历经多轮攻坚都没有啃下的硬骨头，必须拿出决战决胜的态度和举措，确保全部如期脱贫。西吉县纳入自治区督战范围，原州区9个村纳入县级督战，由市上9名厅级和原州区9名县级领导督战。', '剩余脱贫任务虽然数量不多，但都是历经多轮攻坚都没有啃下的硬骨头，必须拿出决战决胜的态度和举措，确保全部如期脱贫。西吉县纳入自治区督战范围，原州区', '深入学习贯彻习近平总书记关于扶贫工作的重要论述，牢固树立“四个意识”，坚决做到“两个维护”，不忘初心、牢记使命，进一步增强脱贫攻坚的政治责任、增强贯彻精准方略的行动自觉、增强凝聚脱贫攻坚的强大力量，以对党、对人民、对历史高度负责的态度，用心用情用力推进脱贫攻坚。', '，不忘初心、牢记使命，进一步增强脱贫攻坚的政治责任、增强贯彻精准方略的行动自觉、增强凝聚脱贫攻坚的强大力量，以对党、对人民、对历史高度负责的态度，用心用情用力推进脱贫攻坚。', '严格落实“中央统筹、省负总责、市县抓落实”的工作机制，强化党政一把手负总责的责任制，落实市县乡村书记的主体责任，遍访贫困对象行动实现全覆盖。进一步压紧靠实县（区）脱贫攻坚主体责任，部门协调责任、乡村主力责任、驻村帮扶责任，筑牢整体联动、密切配合、合力推进的攻坚格局，以责任落实推动全市上下持之以恒抓扶贫、真刀真枪促脱贫。', '的工作机制，强化党政一把手负总责的责任制，落实市县乡村书记的主体责任，遍访贫困对象行动实现全覆盖。进一步压紧靠实县（区）脱贫攻坚主体责任，部门协调责任、乡村主力责任、驻村帮扶责任，筑牢整体联动、密切配合、合力推进的攻坚格局，以责任落实推动全市上下持之以恒抓扶贫、真刀真枪促脱贫。', '要紧盯重点工作、难点工作，加强督促指导，对工作难度大的乡村，对影响脱贫的突出问题，特别是“两不愁三保障”方面的问题实施挂牌督战，持续压实责任，整合帮扶资源，强化攻坚措施，确保逐一对帐销号。', '要紧盯重点工作、难点工作，加强督促指导，对工作难度大的乡村，对影响脱贫的突出问题，特别是', '方面的问题实施挂牌督战，持续压实责任，整合帮扶资源，强化攻坚措施，确保逐一对帐销号。', '。巩固扩大“不忘初心、牢记使命”主题教育成果，加强脱贫攻坚干部作风建设，持续开展扶贫领域腐败和作风问题专项治理，巩固“基层减负年”成果，克服形式主义、官僚主义问题，减轻基层负担。加强基层干部能力建设，开展扶贫干部分级分类培训，着力提高思想认识，提高实际工作能力，培育懂扶贫、会帮扶、作风硬的扶贫干部队伍。', '主题教育成果，加强脱贫攻坚干部作风建设，持续开展扶贫领域腐败和作风问题专项治理，巩固', '成果，克服形式主义、官僚主义问题，减轻基层负担。加强基层干部能力建设，开展扶贫干部分级分类培训，着力提高思想认识，提高实际工作能力，培育懂扶贫、会帮扶、作风硬的扶贫干部队伍。', '打赢固原脱贫攻坚战对宁夏及至全国具有十分重要的意义。从中央和自治区的要求看，从面临的任务看，从存在的问题看，决不能有大功告成、大势已定的自满情绪，更不能有松口气、歇歇脚的懈怠情绪，必须持续发力，须臾不能松劲。', '严把贫困退出关，务求取得不含水分、实实在在，经得起检验、经得起曝光的脱贫成果，确保脱贫成果得到人民认可、经得起历史检验。', '紧盯“两不愁三保障”突出问题找差距、补短板、强弱项，保质保量，坚决防止侥幸“闯关”、投机“攻关”、应付过关。', '既不能虚假脱贫、降低标准、影响成色，也不能脱离实际、拔高标准、吊高胃口，严禁擅自调高标准或者盲目扩大范围，必须咬定标准、把准尺度，找差距、补短板、强弱项，确保脱贫质量。', '找准自身“软肋”、盯住自身“痛处”，聚焦深度贫困村、三类特殊人群和重点问题，靶心不移、焦点不散、力度不减，逐村逐户逐项“回炉”起底。全面排查扶贫政策落实情况，坚决攻克堡垒。', '，聚焦深度贫困村、三类特殊人群和重点问题，靶心不移、焦点不散、力度不减，逐村逐户逐项', '坚持问题导向，紧扣“两不愁三保障”标准，把交办问题整改与自查问题整改、个性问题整改与共性问题整改、当下问题整改与长期问题整改结合起来，把中央巡视反馈问题和各类考核评估、督查巡查、审计检查等发现问题一体整改、一体落实，实行清单式管理、项目化推进，做到问题不查清不放过、整改不到位不放过、工作不见效不放过，确保高标准高质量完成整改任务，推动问题彻底解决。', '标准，把交办问题整改与自查问题整改、个性问题整改与共性问题整改、当下问题整改与长期问题整改结合起来，把中央巡视反馈问题和各类考核评估、督查巡查、审计检查等发现问题一体整改、一体落实，实行清单式管理、项目化推进，做到问题不查清不放过、整改不到位不放过、工作不见效不放过，确保高标准高质量完成整改任务，推动问题彻底解决。', '打赢脱贫攻坚战是前提，巩固脱贫成果是基础，解决相对贫困是长期任务。要认真调查研究，探索建立解决相对贫困长效机制。坚持以党的十九届四中全会为遵循，按照区、市党委、政府的部署要求，围绕“坚持和巩固什么、完善和发展什么、遵守和执行什么”， 坚持精准方略不动摇，把脱贫攻坚系列政策与建立长效机制衔接起来，把脱贫攻坚与乡村振兴衔接起来，把消除绝对贫困与解决相对贫困衔接起来，更加注重产业发展，更加注重投入保障，更加注重公共服务保障，更加注重生态环境和基础设施支撑，更加注重社会动员体系建设，更加注重激发群众内生动力，更加注重加强组织领导，着力构建更加完善有效的制度保障体系。', '打赢脱贫攻坚战是前提，巩固脱贫成果是基础，解决相对贫困是长期任务。要认真调查研究，探索建立解决相对贫困长效机制。坚持以党的十九届四中全会为遵循，按照区、市党委、政府的部署要求，围绕', '， 坚持精准方略不动摇，把脱贫攻坚系列政策与建立长效机制衔接起来，把脱贫攻坚与乡村振兴衔接起来，把消除绝对贫困与解决相对贫困衔接起来，更加注重产业发展，更加注重投入保障，更加注重公共服务保障，更加注重生态环境和基础设施支撑，更加注重社会动员体系建设，更加注重激发群众内生动力，更加注重加强组织领导，着力构建更加完善有效的制度保障体系。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>292</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市深化医药卫生体制改革年重点工作任务的通知</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2016-12-07</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384600.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市深化医药卫生体制改革2016年重点工作任务》的通知_固原市人民政府', '固原市人民政府办公室关于印发《固原市深化医药卫生体制改革2016年重点工作任务》的通知', '《固原市深化医药卫生体制改革2016年重点工作任务》已经市人民政府同意，现印发给你们，请结合实际，认真组织实施。', '2016年是“十三五”开局之年，也是全面落实国家和自治区深化医药卫生体制改革的关键之年。按照《宁夏回族自治区深化医药卫生体制改革2016年重点工作任务》(宁政办发〔2016〕89号)要求，今年，我市深化医改的重点任务是全面贯彻落实党的十八大和十八届三中、四中、五中全会精神，以开展城市公立医院综合改革试点为契机，以深化公立医院改革为主线，创新体制机制，推进医疗、医保、医药三医联动，切实增强改革的整体性、系统性和协同性，在公立医院改革、分级诊疗、医保支付方式改革、药品集中招标采购、医疗服务能力等方面取得新突破。', '1.全面落实县级公立医院综合改革配套政策，进一步深化县级公立医院管理体制、运行机制、补偿机制、监管机制和医保支付制度等方面的改革，建立公立医院运行新机制。加强对各县政策落实情况的督导检查。(市卫计局牵头，各县(区)政府、市发改委、财政局、人社局配合)', '2.制定《固原市城市公立医院综合改革实施方案》，实现同步推进城市公立医院综合改革全覆盖。(市卫计局、原州区政府负责)', '3.同步推进公立中医医院综合改革，制定实施差别化的价格调整、绩效考核等政策，建立维护公益性、突出中医药特色优势的公立中医医院运行新机制。(市卫计局牵头，各县(区)政府、财政局、人社局、发改委配合)', '4.开展公立医院综合改革效果评价工作，建立评价结果与财政补助资金拨付挂钩机制。(市卫计局牵头，各县(区)政府、市发改委、财政局、人社局配合)', '5.推行全面预算管理制度，加强成本控制，规范支出和结余管理，提升资金使用效率。推动三级公立医院落实总会计师制度。(市卫计局牵头，各县(区)政府、市财政局配合)', '1.市、县分别制定并实施医疗卫生资源配置标准 (医疗卫生服务体系规划)、区域卫生规划、县域医疗卫生服务体系规划。(市卫计局牵头，各县(区)政府、市发改委、财政局配合)', '2.全面落实政府对公立医院投入责任，保障符合区域卫生规划的公立医院基本建设和设备购置、重点学科发展、人才培养、离退休人员费用和政策性亏损补贴等投入。(市财政局牵头，各县(区)政府、市发改委配合)', '1.加大政策性亏损的补助，对公立医院取消药品加成后减少的收入，通过调整医疗服务价格、加大政府投入、降低医院运行成本等方式予以补偿。(市财政局牵头，各县(区)、市发改委、人社局、卫计局配合)', '2.改革财政补助方式，按照定项补助要求，将基本支出补助改为项目支出补助，合理确定项目支出的内容和金额，并与公立医院绩效评价结果挂钩(市财政局牵头，各县(区)政府、市发改委、卫计局配合)。', '1.全面取消城市公立医院药品加成，同步调整部分医疗服务项目价格。对因取消药品加成减少的收入予以补偿。建立医疗服务价格动态调整机制，根据人员工资变动、耗材价格变动等及时、动态调整公立医院医疗服务价格。(市发改委牵头，原州区政府、市人社局、财政厅、卫计局配合)', '2.按照“腾空间、调结构、保衔接”的步骤理顺医疗服务价格。通过集中采购、医保控费、规范诊疗行为等降低药品、器械、耗材等费用，严格控制不合理检查检验费用，为调整医疗服务价格腾出空间;分步调整医疗服务价格，调整的部分按规定纳入医保支付范围;加强医疗服务价格、医保支付、医疗控费、分级诊疗等政策的统筹衔接，确保医疗机构发展可持续、医保基金可承受、总体上不增加群众负担。(市卫计局牵头，各县(区)政府、市发改委、人社局配合)', '3.加强对区、市医疗服务价格调整政策的督导检查，巩固公立医院取消药品加成的改革成果。(卫计局牵头，各县(区)政府、市发改委、人社局、财政局配合)', '1.建立健全市公立医院综合性绩效评价指标体系，引入第三方开展绩效评价。(市卫计局牵头，各县(区)政府、市财政局、人社局、发改委配合)', '2.健全院长选拔任用制度，推动实现院长职业化、专业化，建立院长培训认证、任期目标责任考核和相应的激励约束机制。(市卫计局牵头，各县(区)政府、市编办、人社局配合)', '1.创新编制管理方式。县级公立医院实行人员总量管理，逐步实行编制备案制。鼓励开展城市公立医院编制管理改革试点。(市编办牵头，各县(区)政府、市人社局、卫计局配合)', '2.完善符合医疗卫生行业特点的人事制度。纳入人员总量管理人员，在岗位设置、收入分配、职称评定、管理使用等方面，享受统一待遇。完善符合医疗卫生行业特点的岗位设置、岗位聘用管理制度和公开招聘制度。对医院紧缺人才、高层次人才，由医院采取考察的方式直接招聘，结果实行备案制。(市人社局牵头，各县(区)政府、市编办、卫计局配合)', '3.建立符合医疗卫生行业特点的薪酬制度。完善公立医院绩效工资总量核定办法，建立与岗位职责、工作业绩、实际贡献紧密联系的分配激励机制，逐步提高医务人员收入待遇，调动医务人员工作积极性。(市人社局牵头，各县(区)政府、市卫计局、财政局配合)', '1.各级卫生计生行政部门和医疗机构要严格落实“十排队”和“四个排队”，将评估结果作为对医疗机构考核和对医务人员奖惩的重要依据。各级卫生计生行政部门要严格控制医疗费用不合理增长，医疗费用总量增幅和门诊次均费用、住院人均费用增幅逐步降低。(市卫计局、各县(区)政府负责)', '2.推进支付方式改革，完善医保费用监测体系，加强对医务人员医疗行为的监管。(市人社局牵头，市卫计局配合)', '3.加强督促检查，定期对各地医疗费用控制情况进行排名公示。(市卫计局牵头，市财政局、人社局、发改委配合)', '1.进一步落实改善医疗服务行动计划。重点做好预约诊疗、日间手术、信息推送、结算服务、药事服务、急诊急救、优质护理等工作。三级医院全面实施预约诊疗，提升医疗服务水平，改善就医感受，增强人民群众获得感。城市三级医院全面推进日间手术，不断扩大日间手术病种范围。(市卫计局牵头，各县(区)政府、市人社局、发改委配合)', '2.实施健康扶贫工程，保障贫困人口享有基本医疗卫生服务。建立健全医疗纠纷预防调解机制，依法保护医患双方合法权益，努力构建和谐医患关系。(市卫计局牵头，各县(区)政府、市司法局、残联配合)', '3.为符合条件的公立医院医务人员就近提供公租房保障，具体条件和办法由市、县级以上人民政府制定。(市住建局牵头，各县(区)政府、市发改委、财政局、国土资源局、卫计局配合)', '1.合并二、三级医疗机构药品使用目录，将三级药品目录全部下沉到二级医疗机构使用;将医保范围内的部分非基本药物下沉到基层医疗机构使用，引导慢性病患者到基层就诊，建立二、三级综合医院与基层医疗卫生机构可衔接的用药机制。实行签约慢性病患者“常处方”政策。(市卫计局牵头，各县(区)政府、市人社局、发改委、配合)', '2.建立动态管理机制，对下沉基层的药品目录进行调整完善，切实保障基层临床用药需求。(市卫计局牵头，各县(区)政府、市人社局、发改委配合)', '1.组建家庭医生服务团队，全面开展家庭医生签约服务，优先覆盖高血压、糖尿病等慢性病患者。城市家庭医生签约服务覆盖率达到15%以上，重点人群服务覆盖率达到30%以上。(市卫计局牵头，各县(区)政府、市人社局、财政局配合)', '2.明确签约服务内涵和标准，设立家庭医生签约服务收费项目，签约服务费用由医保基金、基本公共卫生服务经费和签约居民个人分担。(市卫计局牵头，各县(区)政府、市人社局、财政局、发改委配合)', '1.继续加强基层医疗卫生机构和县级医院能力建设。(市卫计局牵头，各县(区)政府、市发改委、财政局配合)', '2.围绕县外转出率较高的病种，加强适宜技术的推广工作。(市卫计局牵头，各县(区)政府、市科技局配合)', '3.进一步完善基层医疗机构绩效工资制度，可按照财务制度规定在核定的收支结余中提取职工福利基金和奖励基金。(市人社局牵头，各县(区)政府、市财政局、卫计局配合)', '4.落实基层医疗机构核定任务、核定收支、绩效考核补助的财务管理办法，加强绩效考核。(市财政局牵头，各县(区)政府、市卫计局、人社局配合)', '1.规范医疗联合体建设。积极推动城市三级、二级医院和社区卫生服务机构组成医疗联合体，大力推进县乡村医疗卫生服务一体化管理。(市卫计局负责，各县(区)政府配合)', '2.完善不同级别医疗机构的医保差异化支付政策，适当拉开不同级别医疗机构的起付线和支付比例差距，对医疗机构落实功能定位、患者合理选择就医机构形成有效的激励引导。(市人社局负责，各县(区)政府配合)', '3.落实职称评定“凡晋必下”制度，建立二、三级医院专家下基层坐诊岗位补贴制度，促进优质医疗资源下沉，增强基层医疗卫生服务能力。(市卫计局牵头，各县(区)政府、市人社局、财政局配合)', '4.规范临床路径管理。扩大临床路径覆盖面，提高管理质量。力争全部三级医院、80%以上的二级医院开展临床路径管理工作。(市卫计局负责，各县(区)政府配合)', '5.明确常见病出入标准和双向转诊规范，落实二、三级综合医院功能定位，明确医疗服务能力标准。推动急慢分治。(市卫计局负责，各县(区)政府配合)', '1.城乡居民医保人均政府补助标准提高到 472 元，人均个人缴费相应增加。新增筹资主要用于提高基本医疗保障水平，并加大对城乡居民大病保险的支持力度。(市财政局、人社局分别负责，各县(区)政府配合)', '2.基本医疗保险参保率稳定在 95%以上。城乡居民医保政策范围内住院费用报销比例稳定在 75%左右。结合医保基金预算管理全面推进付费总额控制。加快建立健全基本医疗保险稳定可持续的筹资和报销比例调整机制。(市人社局负责，各县(区)政府配合)', '1.合理确定合规医疗费用范围，完善城乡居民大病保险药品、诊疗服务项目和医用耗材合规目录，进一步减轻大病患者负担。(市人社局负责，各县(区)政府配合)', '2.建立大病保险收支结余和政策性亏损的动态调整机制。(市人社局牵头，各县(区)政府、市财政局、卫计局配合)', '3.规范大病保险经办业务，加强监督检查和考核评估，落实承办主体责任。(中国人保财险固原分公司负责)', '4.完善医疗救助和疾病救助制度，逐步提高救助水平，有效防止群众因病致贫、因病返贫。(市民政局、卫计局分别负责，各县(区)政府配合)', '1.全市所有基层医疗机构推广门诊医疗费用总额按人头包干预付制改革。完善门诊大病支付政策，支持开展日间手术。(市人社局牵头，各县(区)政府、市卫计局、财政局配合)', '2.县级以上公立医院推广住院医疗费用总额包干预付制或按病种分值付费方式为主的改革，强化医保支付的杠杆调节和监督管理作用。(市人社局牵头，各县(区)政府、市卫计局、财政局配合)', '3.落实区内基本医疗保险异地就医即时结算制度，加快推进跨省异地就医结算衔接工作。(市人社局负责)', '1.加强基本药物集中采购和配送管理。建立短缺基本药物应急采购制度，动态监控基本药物供应情况。(市卫计局牵头，市工信局配合)', '2.加强基本药物使用管理。基层医疗卫生机构全部配备使用基本药物，二、三级医疗机构优先选择使用基本药物，基本药物使用金额占比分别不低于本单位药品使用总金额的50%和25%。扩大基本药物覆盖面，鼓励和探索非政府办医疗机构配备使用基本药物。(市卫计局牵头，各县(区)政府、市人社局配合)', '1.继续做好药品集中采购工作。完成药品招标采购工作，开展直接挂网采购药品评审和采购工作。积极探索跨区域联合采购。(市卫计局负责，市公共资源交易中心配合)', '2.开展高值医用耗材集中采购工作。按照全区统一医用耗材使用目录，统一挂网采购医用耗材，统一医用耗材挂网价格，医疗机构和医用耗材生产经营企业必须通过宁夏药品(医用耗材)集中采购网进行采购。(市卫计局牵头，市公共资源交易中心、市场监管局配合)', '3.推行药品(医用耗材)流通配送“两票制”管理。规范中标药品(医用耗材)生产流通秩序，推行流通配送“两票制”管理，鼓励“一票制”。加强监督检查力度，规范药品(医用耗材)配送企业票据管理。(市卫计局牵头，市商务局、市场监管局配合)', '1.进一步完善药品价格形成机制。强化药品价格行为监管，健全药品价格监测体系，依法查处价格欺诈和垄断行为，切实维护药品市场价格秩序。(市发改委负责，各县(区)政府配合)', '2.采取多种形式推进医药分开，禁止医院限制处方外流，患者可自主选择在医院门诊药房或凭处方到零售药店购药。(市卫计局、人社局分别负责，各县(区)政府配合)', '1.完善药品生产质量管理规范和药品经营管理规范政策，并严格监督实施。开展药品集中采购、统一配送和申购使用的监督检查。(市市场监管局、卫计局分别负责，各县(区)政府配合)', '2.强化短缺药品供应保障和预警，建立多部门会商联动机制，完善短缺药品信息报送制度。建立以基本药物为重点的临床用药综合评价体系。(市卫计局负责，各县(区)政府配合)', '3.强化药品质量监管，推动建立药品出厂价格信息可追溯机制，综合施策降低药品虚高价格。推动药品生产流通企业优化整合，规范药品流通秩序。(市市场监管局牵头，各县(区)政府、市工信局、发改委、卫计局配合)', '(一)健全医药卫生监管法律体系。健全综合监管工作机制。加强事中事后监管，组织开展经常性督导检查。加强医疗质量监管，强化医疗服务收费和价格监督检查。(市卫计局牵头，各县(区)政府、市政府法制办、市场监管局、发改委配合)', '1.严厉打击各种形式的非法行医，加强对民营医疗机构的监管，严肃查处违法违规行为，及时向社会公布有关情况。(市卫计局负责，各县(区)政府配合)', '2.加快推动医药卫生行业信用体系建设，促进各类医疗卫生机构依法执业。(市卫计局负责，各县(区)政府配合)', '(一)继续加强以全科医生为重点的基层卫生人才培养。完善农村订单定向免费医学生就业、履约管理等相关政策。继续做好免费医学本科生的招生录取培养工作和就业安置工作。(市卫计局牵头，各县(区)政府、市教育局、人社局配合)', '(二)继续组织实施住院医师规范化培训。完成年度规范化 培训住院医师招收工作，重点向儿科、精神医学、康复医学等紧缺专业倾斜。强化住院医师规范化培训基地内涵建设与动态管理。(市卫计局牵头，各县(区)政府、市教育局、财政局配合)', '(三)研究制定基层卫生专业技术人员职称评审的实施细则。(市人社局牵头，各县(区)政府、市卫计局配合)', '(四)继续实施省内外合作人才培养。落实与北京、上海、福建等省市和区内三甲医院的合作协议，重点抓好人才培养项目。拓展合作范围，开展津宁、甘宁、陕宁、蒙宁医疗卫生人才培养交流合作。(市卫计局牵头，各县(区)政府、市财政局、教育局配合)', '(一)提高基本公共卫生服务补助标准。人均基本公共卫生服务经费财政补助标准提高到45元。新增部分重点用于高血压、糖尿病等慢性病的预防和管理。(市卫计局牵头，各县(区)政府、市财政局配合)', '1.落实专业公共卫生机构对基层医疗卫生机构实施基本公共卫生服务的业务管理与指导。(市卫计局负责，各县(区)政府配合)', '2.加强对落实国家和自治区相关政策及重点项目的绩效考核，完善考核方式，强化县级考核，实行考核结果与经费拨付挂钩。加强项目进展监测评价工作，完善项目资金管理和支付方式，按照服务数量和质量拨付资金。对基本公共卫生服务项目实施情况进行综合督查评估。(市卫计局牵头，各县(区)政府、市财政局配合)', '1.继续实施好妇幼健康行动计划等重大公共卫生服务项目和免费孕前优生健康检查项目。做好流动人口健康促进工作。(市卫计局负责，各县(区)政府配合)', '2.落实健康宁夏行动规划，深入开展八大行动，实施好健康素养促进项目。做好城乡居民普惠性体检、干部体检，建立健康档案，开展健康咨询管理。(市卫计局牵头，各县(区)政府、市人社局配合)', '(一)加快市县两级人口健康信息平台和相关业务信息系统建设。建设“卫生云”总平台、区域电子病历、区域 PACS, 并实现具备条件的业务应用信息系统与云平台的互联互通。实现乡镇卫生院和社区卫生服务中心基层卫生信息系统全覆盖。完成全市 80%以上二、三级综合公立医院与“卫生云”总平台的数据对接。整合实现电子健康档案和电子病历的连续记录，并在不同级别、不同类别具备条件的医疗卫生机构间实现信息授权共享使用。(市卫计局牵头，各县(区)政府、市发改委、财政局、工信局配合)', '(二)完善远程医疗服务建设。实现远程医疗服务系统与区内外相关医院远程系统的对接，建成全市远程医疗服务专家资源库，覆盖市级医院 3 家、县(区)级医院 8 家、乡镇卫生院72家，同时接入区外国家级优质专家资源，形成“国家—自治区—市—县—乡”五级远程医疗服务架构。(市卫计局牵头，各县(区)政府、市发改委、财政局、工信局配合)', '(三)推进健康医疗大数据应用试点。整合健康管理及医疗信息资源，在具备条件的医疗机构推行预约诊疗、线上支付，并通过区级平台统筹全区在线预约挂号号源管理。通过健康服务门户、手机APP 实现检查检验结果等信息在线查询和基础健康管理等服务。(市卫计局牵头，各县(区)政府、市发改委、财政局、工信局配合)', '1.鼓励社会资本举办高技术、高水平、有特色的医疗服务机构和专科医疗机构，鼓励社会资本在农村、边远地区、城乡结合部、新建城市新区等医疗卫生资源相对薄弱的地区举办医疗机构。(市卫计局负责，各县(区)政府配合)', '2.实现民营医疗机构在人才培养、重点学科建设、职称晋升等方面与公立医疗机构享受同等政策。进一步完善针对民营医疗机构在土地使用、税收价格、医保协议管理、财政支持等方面的优惠政策。(市国土资源局、地税局、财政局、人社局分别负责，各县(区)政府配合)', '(二)落实推进医疗卫生和养老服务相结合政策。促进医疗卫生资源与养老服务的紧密对接，提升老年人养老和医疗服务的效率、能力和质量，实现老有所养、病有所医。(市卫计局牵头，各县(区)政府、市民政局、发改委、财政局、人社局配合)', '(三)大力发展中医药健康服务产业。推动中医药国际交流和服务贸易，加快发展医药健康服务。(市卫计局牵头，各县(区)政府、市发改委配合)', '(一)加强组织领导，协同推进改革。进一步加强市、县(区)人民政府对医改工作的领导，强化医改办的组织机构建设，赋予应有的行政职能，配齐配强人员，使其更好的开展协调工作，为推进医改工作提供保障。进一步强化各部门间的联动和地方上下的层级联动，增强改革的整体性、系统性和协同性，形成统筹推进医改的工作合力(市卫计局牵头，各县(区)政府、市医改领导小组各成员单位配合)。', '(二)总结经验做法，统筹推进实施。围绕国家和自治区深化医改的重大决策部署，学习借鉴第一批综合医改试点省(区)的经验，总结我市前一阶段医改试点的成功做法，坚持顶层设计，突出政策导向，统筹医保、医药、医疗各项政策，并做好与国家和自治区医改政策紧密衔接，形成政策叠加效应。(市卫计局牵头，各县(区)政府、市编办、人社局、财政局、发改委、市场监管局配合)', '(三)加强监督考核，强化宣传引导。建立健全工作推进机制，完善监督考核办法，加大工作督查力度，建立动态监测、定期通报制度，以通报、约谈、督导等多种形式督促医改各项工作任务的落实。采取多种形式，广泛宣传解读政策，积极引导社会预期，及时回应社会关切，为深化改革营造良好舆论氛围。大规模开展医改政策培训，不断提高各级管理人员和医务人员的政策水平和执行能力。(市卫计局牵头，各县(区)政府配合)']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>292</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>固原市乡村振兴局年上半年工作总结</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202207/t20220705_3599203.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['今年以来，固原市乡村振兴系统深入学习贯彻习近平总书记关于“三农”工作重要论述和视察宁夏重要讲话精神，坚决贯彻落实市委、市政府的各项决策部署，坚持“四个不摘”，聚焦“稳经济、保增长、守底线、抓发展、促振兴”，加强顶层设计、完善工作机制，强化统筹协调、开展督导检查，凝聚力量全力组织推动巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作扎实开展，取得了明显成效，2021年10月1日至2022年5月31日，全市脱贫人口人均纯收入10063.5元，是2021年度全市脱贫人口人均纯收入10891.4元的92.4％，达到2022年度预计收入12525.1元的80.3％。', '始终把巩固拓展脱贫攻坚成果放在突出位置，坚决守住不发生规模性返贫的底线，推动巩固衔接重点工作任务落实落细。', '坚持常态化查漏补缺，扎实开展“月排查、月报告、常态管、动态帮”防返贫动态监测和精准帮扶工作，推动农户自主申报、基层干部排查、部门筛查预警互为补充、相互协同的监测预警机制持续落实。对全市“三保障”和饮水安全保障情况及时', '认真谋划闽宁协作项目，共争取闽宁帮扶资金2.915亿元，实施帮扶项目114个。截止目前，两省市、县共开展互访交流7次114人，其中固原市及五县（区）赴福建考察学习4次26人，共结成学校、医院、乡镇、村等帮扶对子288对。抓好劳务协作和人才交流，举办劳务培训17场次培训550人，向福建“点对点”输出劳动力2477人，其中脱贫劳动力1442人，与去年相比新增535人，其中脱贫劳动力203人。福建省选派科技、教育、卫生等人才158人来固开展帮扶工作。持续开展消费帮扶，销售固原特色农产品2.9亿元。启动建设闽宁乡村振兴示范村15个，计划投资1.9亿元，其中闽宁资金4455万元。积极对接中央和国家5个定点帮扶单位，投入帮扶资金7134.6万元，实施帮扶项目64个。“万企兴万村”行动正式启动，安排固原市71个企业帮扶73个村。组织660个帮扶单位、807个第一书记和1377名驻村工作队员开展帮扶工作，“调换召回”年龄偏大、身体患病等驻村干部587名。新一轮驻村干部工作队选派以来，市、县（区）集中培训5800余人次，每年投入工作保障经费4500余万元；驻村工作队协调落实项目资金1.6亿元，推动74.4％的村创建为党建工作示范村，排查化解矛盾纠纷730余起，解决群众急难愁盼问题1300余件。', '结合工作实际，从领导机构调整、包抓责任落实、动态监测帮扶、加强督导考评4个方面，进一步健全完善工作机制，推动工作责任落实。制定了《关于调整固原市实施乡村振兴战略工作领导小组和工作专班成员的通知》《关于调整全市乡村振兴工作部分包抓领导的通知》《固原市健全防止返贫致贫动态监测和精准帮扶管理办法》《固原市巩固拓展脱贫攻坚成果同乡村振兴有效衔接动态督导考评工作方案》等文件。持续完善“领导包抓＋专班推进＋驻村帮扶”工作机制，明确包抓责任，推动工作落实。', '认真落实市委、市政府“天天抓、月月抓、年年抓”的要求，建立健全上下贯通、精准施策、一抓到底的巩固拓展脱贫攻坚成果同乡村振兴有效衔接组织管理体系。', '今年，市委常委会4次、政府常务会3次、市委农业农村工作领导小组会议3次、市实施乡村振兴战略工作领导小组会议1次，专题传达学习习近平总书记关于“三农”工作重要指示以及中央和区、市有关会议、文件精神，审议相关文件、研究部署落实巩固衔接工作。压实“领导包抓＋专班推进＋驻村帮扶”责任，由四套班子主要领导和市委副书记包抓5个县区，38名厅级领导和县（区）处级领导包抓62个乡镇，38名厅级领导包抓38个重点移民村（社区），部门（单位）、乡镇包抓807个村（社区），实现了市、县（区）、乡（镇）三级包抓责任，向行政村派驻帮扶部门和驻村工作队“三个”全覆盖。协调产业、组织等5个乡村振兴工作专班牵头单位和成员单位，落实工作责任，衔接推动乡村振兴工作。', '牵头制定印发《固原市2022年巩固拓展脱贫攻坚成果同乡村振兴有效衔接任务清单的通知》和《固原市实施“五大行动”任务清单的通知》等文件，明确工作重点、工作任务和工作措施，督促协调县（区）和行业部门抓好工作落实。', '每季度末市四套班子分管领导带队，抽调部分市直部门（单位）负责同志和业务骨干组成督查组，围绕巩固衔接重点工作，深入五县（区）和部分市直重点部门（单位）开展督查2次；市委、市政府分管领导带队对国家考核评估问题整改情况开展1次专项督查。', '抓紧抓实反馈问题整改，对标2021年国家考核评估和自治区后评估反馈的问题，制定印发《固原市2021年度巩固拓展脱贫攻坚成果同乡村振兴有效衔接考核评估问题整改方案》，针对14类57条问题，制定113条整改措施，成立15个工作专班，厅级领导牵头抓整改；先后召开专题会、协调会和考核评估问题交办会等，持续压紧压实工作责任、落实落细工作任务，确保问题整改限期销号、落实到位。进一步对国家的38个和自治区的58个政策文件进行梳理汇总，制定《固原市巩固拓展脱贫攻坚成果同乡村振兴有效衔接问题大排查大整改工作方案》，梳理了24类100条政策标准和目标任务，明确排查内容和整改方向，梳理各行业部门巩固衔接政策，明确责任单位，紧盯政策落实落地，开展大排查大起底，推动整改工作上台阶上水平。目前，市直部门（单位）完成26条，正在整改31条，完成率45.6％；原州区完成45条，正在整改11条，完成率80.4％；西吉县完成27条，正在整改30条，完成率47.4％；隆德县完成32条，正在整改25条，完成率56.1％；泾源县完成19条，正在整改38条，完成率33.3％；彭阳县完成28条，正在整改29条，完成率49.1％。', '。乡村两级对防返贫动态监测、巩固脱贫攻坚成果等方面的政策研究掌握的还不够深入；个别驻村干部对巩固衔接政策学习不全面、不透彻，对工作责任不清楚，缺少对工作的思考。危房改造各县（区）进展还不平衡，个别户供水水压不足。', '监测帮扶还不够精准，全市部分行政村没有三类监测对象，部分监测对象一户一策帮扶方案针对性不强，措施落实不及时，有6个村返贫风险率高于2％（国家标准不高于3％）。今年新增低保对象纳入“三类人员”占比依然较低，全市平均不足30％。', '小额信贷贷款进度缓慢，低于自治区平均水平，贷款覆盖率为57.31％，远低于脱贫攻坚期的75％，逾期额度逐月上升，逾期率逐年增加，泾源县贷款进度较慢，西吉县逾期额度较高。', '项目库存减少，资金规模总体不大，储备不足，项目库建设还存在重视不够，操作不规范，未按程序和要求储备项目，部分项目论证不充分。中央单位定点帮扶项目整体工作较为滞后，项目前期谋划不到位、实施进展较为缓慢。', '帮扶车间整体运行效率不高，市场占有率低，主要依靠订单生产，且大多数为传统低端加工产业，与我市特色优势产业配套关联度不强，同质化现象较为普遍。县（区）对帮扶车间运营管理措施不实、办法不多、重视不够，服务保障不及时不全面；困难群众到帮扶车间就业的积极性有所下降。', '个别乡镇对2021年度考核评估反馈的问题缺乏深入研究部署，没有对57个问题一一核对，存在缩小认领的情况；个别村对问题整改存在盲目整改的现象，针对性、精确度不高。五县（区）整改工作进展不平衡，泾源县整改进度较慢，仅完成19个。', '全面贯彻落实党的二十大和自治区第十三次党代会精神，围绕市委、市政府重点工作，聚焦“守底线、抓发展、促振兴”，坚决打赢打好翻身仗，推进巩固成果上台阶上水平。', '认真组织学习宣传党的二十大和自治区第十三次党代会精神，积极配合市委农办研究制定固原市加快建设乡村全面振兴样板市工作相关文件。坚决抓好巩固成果守底、产业延链富民、人才入乡强农、文化浸润乡村、产业赋能乡村、党建引领乡村“六项行动”，落细三类人员的动态监测帮扶，推动联农带农机制全面落实，着力培养乡村振兴各类人才，注重打造文化兴盛沃土，持续开展农村人居环境整治和厕所革命，深化农村党建“一抓两整”示范创建，在产业兴旺上提水平、生态宜居上树标杆、乡风文明上走在前、治理有效上创经验、生活富裕上见成效。', '持续抓好网格化监测帮扶、链条化责任落实、常态化督查考评“三项机制”，确保不发生规模性返贫。优化流程、缩短时间、宽进严出，完善以农户自主申报、基层干部排查、部门筛查纵向到县、乡、村、户，以部门预警、信息共享等互为补充、相互协同横向到行业单位的网格化监测机制，精准识别三类监测对象，做到“应纳尽纳”，防止“体外循环”。创新考核方式，以平时督导、抽查暗访、阶段性调度为绩效考评主要依据，全面落实巩固拓展脱贫攻坚成果同乡村振兴有效衔接的督导调度工作，推动工作提质增效。', '紧盯衔接资金安排率、项目开工率和资金支付率，抓监督提质效，督促各县（区）对开工缓慢的项目及时督办，规范管理、加快进度，严格按照衔接资金使用管理办法和拨付程序加快支付进度。持续做好信贷需求排查工作，加大乡村两级信用协会的贷款推荐力度，对符合条件、有贷款需求的对象应贷尽贷；坚持逾期贷款清收和到期还款提醒“两手抓”，持续开展不良贷款清收，坚决守住不发生系统性区域性风险底线。加大培训力度，加快项目库建设，精准谋划项目，确保项目库储备数量、质量和资金规模。加强帮扶车间运行管理，重点协调解决水、电、暖等生产要素方面存在的困难问题，及时兑现落实用工补贴、优惠电价等扶持政策。', '坚定不移抓好移民致富，协调配合抓好居民收入、教育质量、健康水平、文明素养和社会服务重点工作。强化产业扶持，加大政策、资金倾斜力度，在移民安置区积极培育龙头企业、合作社等经营主体，发挥好示范带动作用。深入实施移民务工就业三年推进计划，健全有组织劳务输出工作机制，通过稳岗补贴、交通补贴、企业吸纳劳务移民就业补助等多种方式做好劳务移民就业创业工作。积极配合做好闽宁对口帮扶协作第26次联席会议期间相关工作，认真组织落实议定事项；加快组织实施中央定点帮扶单位确定的帮扶项目。持续深入开展感恩教育、认同教育和法治教育，引导群众转观念、破旧俗、立新风。不断', '把问题整改作为当前的一项重大政治任务，较真碰硬抓落实，将问题整改情况纳入固原市2022年实施乡村振兴战略综合考评内容，坚持月分析、月研判、月调度。督促各县（区）和行业部门紧盯反馈的突出问题和提出的整改意见，建立台账、对账销号，整改完成一项、认定一项、销号一项，认真抓好问题整改落实，确保反馈问题清零见底。以问题整改为抓手，举一反三、穷尽问题，切实抓实抓细自查自纠问题整改，既解决点上的问题，又补好面上的漏洞，整体落实推进。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>292</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>年度固原市教育局本级部门决算</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2018-09-19</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gsgg/201809/t20180919_1067279.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['（一）贯彻实施有关法律、法规、规章，执行国家教育改革与发展的方针、政策以及区、市党委、政府的重要决定和部署；研究起草有关教育的政府法规草案，研究拟定教育改革发展和加强党建工作的政策，并监督实施。', '（二）统筹规划、协调、指导教育领域综合改革工作，研究提出全市教育改革发展战略，编制教育事业发展规划，并指导协调实施；统筹规划和宏观管理基础教育、职业教育等工作，会同有关部门制定实施各级各类学校的设置标准；指导县（区）教育工作；负责教育基本信息的统计、分析和发布。', '（三）贯彻执行中央和区、市党委关于加强学校党建和思想政治工作的方针、政策；指导市直各级各类学校党的建设工作、思想政治工作、精神文明建设和德育工作；协助市委组织部做好市', '（四）承担推进义务教育均衡发展和促进教育公平的责任。负责全市义务教育的宏观指导与协调，指导普通高中教育、学前教育和特殊教育工作，制定基础教育教学基本要求和教学基本文件；组织实施基础教育国家课程教材计划，审定基础教育地方课程教材，全面实施素质教育；研究提出市', '（五）负责统筹规划职业教育发展，组织、指导职业教育办学体制改革、师资队伍管理改革、教育教学改革、课程教材建设工作，组织实施中等职业教育专业设置、教学指导文件和教学评估标准；加快建立健全政府主导、行业指导、企业参与的办学机制，推动职业教育适应经济发展方式转变和产业结构调整。', '（六）统筹管理教育经费，参与拟订教育经费筹措、教育拨款、教育基建投资的政策；监测教育经费的筹措和使用情况；管理区内外对市教育援助和教育贷款；督促检查县（区）对教育的财政拨款工作，参与教育经费的审计监督', '（七）指导少数民族教育工作；指导各级各类学校的体育、卫生、艺术教育及国防教育工作；配合有关部门做好学校周边综合治理，负责指导各级各类学校安全维稳工作', '（八）指导全市各级各类学校教师管理、培训以及教育系统师资队伍建设，按照规定指导组织实施教师资格认定；规划指导各级各类学校师德建设工作；承担教育系列专业技术职务聘任工作；指导师资队伍培养、开发、引进、交流工作；负责市直各教育机构编制、人员的调配、劳资管理、绩效考核等工作', '（九）规划并指导全市各级各类学校的教学研究和教育科研，统筹实施各类中高等学历教育的招生考试工作，制定各级各类学校学生资助、助学金相关政策并监督实施', '（十）归口管理全市教育系统对外交流与合作工作；负责出国留学、出境考察人员报批工作。', '教育局机关内设六个机构，分别为：办公室、人事与师资科、基础与民族教育科、职业与成人教育科、体育卫生艺术教育科、发展规划与财务科。', '注：本表反映部门本年度一般公共预算财政拨款和政府性基金预算财政拨款的总收支和年末结余结转情况，数据取自财决01-1表', '注：本表反映部门本年度一般公共预算财政拨款基本支出情况，按经济分类填列到款级科目，数据取自财决08-1表', '注：本表反映部门本年度一般公共预算财政拨款基本支出情况，按经济分类填列到款级科目，数据取自财决', '年度预算数为“三公”经费年初预算数，决算数是包括当年财政拨款预算和以前年度结转结余资金安排的实际支出，数据取自CS05表。', '注：本表反映部门本年度政府性基金预算财政拨款收入支出及结转结余情况,数据取自财决09表', '上级财政项目拨款未纳入年初预算，人均工资增加追加预算拨款；节能环保（类）支出826500元为上级财政项目拨款，未纳入年初预算；城乡社区（类）支出41476元为后期本级财政追加拨款；', '16年度1-5月退休费在本单位发放，6-12月在社保局发放，本年度退休费全部在社保局发放。', '公务接待费支出减少的主要原因为严格执行八项规定，按照上级规定执行接待标准，接待费用明显减少。', '与部门决算中行政单位和参照公务员法管理事业单位一般公共预算财政拨款基本支出中公用经费之和保持一致）', '1、营养改善计划：“农村义务教育学生营养改善计划”简称“营养改善计划”，是从2011年秋季学期起，中央在集中连片特殊困难地区(以下简称连片特困地区)启动农村(不含县城，下同)义务教育学生营养改善计划试点工作。连片特困地区的具体范围按照《中国农村扶贫开发纲要(2011--2012年)》和有关文件规定确定。我市实施范围为：原州区、西吉县、隆德县、泾源县、彭阳县。营养改善计划的学校按照（全年扣除寒暑假及法定公休日）年度学生在校200天给每个小学生每天4.6元伙食补助，初中生和特殊教育学校学生每天5.6元伙食补助标准。要求学校早餐提供1个熟鸡蛋，午餐提供一顿安全、营养、卫生的午餐。', '2、义务教育保障机制：全面免除义务教育阶段学生学杂费、国家课程教科书费和统一规定的教辅材料费，对寄宿生给予生活费补助，简称“三免一补”，资金由中央和自治区按比例承担。', '3、学前和高中生均奖补机制：自治区从2016年起，建立了学前和普通高中生均公用经费奖补制度，对达到自治区规定的生均公用经费基准定额的市、县（区）公办幼儿园和普通高中进行公用经费奖补，奖补资金由自治区承担。建立奖补的目的就是在不提高公办幼儿园和普通高中收费标准加重百姓负担的基础上，满足幼儿园和普通高中教育教学任务正常运转。', '4、三区人才支持计划教师专项计划：简称“三区人才计划”。根据《教育部等五部门关于印发&lt;边远贫困地区、边疆民族地区和革命老区人才支持计划教师专项计划实施方案&gt;的通知》（教民[2012]6号）要求，自治区教育厅会同自治区党委组织部、财政厅、人社厅和扶贫办等五部门制定了《关于贯彻落实国家五部门“边远贫困地区、边疆民族地区和革命老区支持计划教师专项计划”的实施方案》，每年选派一定数量的幼儿园、中小学（含普通高中）和中等职业学校教师到宁南山区和移民点（既宁夏贫困地区、民族地区和革命老区）支教一年；每年为宁南山区和移民点培训一定数量的幼儿园、中小学和中等职业学校的骨干教师和紧缺专业教师。通过选派支教教师和培训当地教师，加快宁南山区和川区移民吊庄点教师队伍建设，推动山川普及学前教育、义务教育均衡发展、普及高中阶段教育、大力发展中等职业教育。', '5、特岗教师：是通过公开招聘高校毕业生到农村学校任教，引导和鼓励高校毕业生从事农村义务教育工作，创新农村学校教师的补充机制，逐步解决农村学校师资总量不足和结构不合理等问题，提高农村教师队伍的整体素质，促进城乡教育均衡发展。', '6、“全面改善薄弱学校办学条件项目”：贯彻落实党的十八大和十八届三中全会精神，按照均衡发展九年义务教育的要求，统筹规划，突出重点，因地制宜，循序渐进，加强科学化精细化管理，着力提高资金使用绩效，全面改善薄弱学校基本办学条件，深入推进义务教育学校标准化建设，整体提升义务教育发展水平。', '7、学前教育发展专项：为贯彻落实《宁夏中长期教育改革与发展纲要（2010-2020年）》,依据《宁夏回族自治区教育事业发展“十三五”规划》（宁政发〔2017〕28号）、《宁夏教育精准扶贫“十三五”行动方案》（宁教发〔2017〕65号），努力扩大学前教育规模，补齐农村学前教育短板，我区重点推进学前教育资源向农村行政村延伸，全区农村适龄儿童基本接受学前教育，2018-2020年实施幼儿园建设项目，农村常住人口在1500人以上的行政村实现学前教育资源全覆盖，补充建设贫困县县镇幼儿园，提高贫困县学前教育三年毛入园率。2018-2020年实施目标任务，建设幼儿园456所，建筑面积558360平方米，并为当年建设幼儿园配备教学设备及教玩具，通过项目的实施，新增幼儿学位5.7个。', '8、高效课堂：是坚持以学生发展为本，把先进的教育理念、教学方法、教学资源融入到课堂教学中，培养学生良好的学习习惯、自主合作探究能力和实践创新精神的现代课堂教学新模式。构建高效课堂，对推动教育内涵发展、促进公平、提高质量和实现人人成长成才具有重要意义。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>292</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发宁夏固原市林业碳汇试点建设实施方案年的通知</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/202311/t20231123_4360133.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《宁夏固原市林业碳汇试点建设实施方案（2023－2025年）》的通知_固原市人民政府', '固原市人民政府办公室关于印发《宁夏固原市林业碳汇试点建设实施方案（2023－2025年）》的通知', '目标战略，提高林草应对气候变化调节能力，按照《中央办公厅、国务院办公厅关于建立健全生态产品价值实现机制的意见》《宁夏回族自治区碳达峰实施方案》《宁夏关于完整准确全面贯彻新发展理念做好碳达峰碳中和工作的实施意见》《宁夏回族自治区关于深入推进山林权改革加快植绿增绿护绿步伐的实施意见》《国家林业和草原局办公室关于组织申报林业碳汇试点市（县）建设项目的通知》要求，结合《宁夏林草湿生态系统碳汇提升行动方案（', '）年》《固原市关于深入推进山林权改革加快植绿增绿护绿步伐的实施方案》，为扎实做好固原市全国林业碳汇试点建设，特制定本方案。', '六盘山地处黄土高原中西部，青藏高原和黄土高原交汇带，黄河上中游过渡区域，是《黄河保护法》、国家', '，生态保护和提升碳汇能力的意义重大。近年来，森林覆盖率和草原综合植被盖度逐年向好，区域气候调节、生态改善、水源保障、水土保持、增汇固碳等作用日益凸显。', '根据《宁夏回族自治区全区和各县林草碳汇计量评估报告》，固原市林地、草地、湿地面积约占全市国土面积的', '万亩，通过人工造林、未成林抚育提升、退化林改造等森林经营措施，森林面积仍有较大增长潜力。现有林地中，乔木林主要分布在原州区南部和隆德县、泾源县、彭阳县，六盘山沿线及泾源县东部地区；灌木林广泛分布在原州区、西吉县、泾源县的六盘山外围和彭阳县西部。乔木林地和灌木林地是开展森林质量精准提升主要区域，通过现有林改培、退化林改造，巩固提升碳汇能力；未成林地分布在原州区东北部和西南部、西吉县北部、隆德县东南部、泾源县东部和彭阳县北部，是需要加强抚育管护，促进未成林地向有林地转化，持续增加碳汇储量的主要区域。草地主要分布在原州区和西吉县，分别占全市草地总面积的', '；草地类型以干草原、草甸草原、山地草甸、灌丛草甸为主，牧草种类多样，草原生态状况持续好转。', '固原市优势树种主要有华北落叶松、油松、云杉、樟子松、华山松、刺槐、新疆杨、桦树、榆树、辽东栎等，其中油松、云杉、华山松、桦木等固碳能力强，稳定性好，抗逆性强。依托详实的林草资源本底，实施未成林抚育提升、退化林改造和森林质量精准提升等重大工程，将进一步扩大固原市林草资源总量，提升森林质量、生态系统稳定性和碳汇能力，对实现', '以来，固原市进一步加大生态保护修复力度，实施的三北防护林、天然林保护、退耕还林还草、降雨量', '宁夏推行山林权改革，对固原市林业碳汇试点具有重要意义，为碳汇项目开发奠定了坚实基础。', '万元，建立了林业经营主体可进可退的经营机制。固原市公共资源交易中心林权交易系统正式上线运行，实现集体林地经营权挂网交易。推行', '等新模式，引进龙头企业、培育合作社等经营主体，实现所有权、承包权、经营权三权分置，夯实了植绿增绿护绿基础。固原市彭阳县首创', '。泾源县借助闽宁协作平台，积极与福建省厦门市海沧区建立合作，推进闽宁合作碳汇林项目落地，对实施区域碳中和项目及碳汇交易将发挥示范和带动作用。', '，发展林草碳汇优势较大。但目前，全市林草碳汇资源优势有待进一步发挥，一是树种优势没有得到充分发挥。造林树种选择以传统的杨、柳、榆、槐为主，对碳汇能力较强的乡土优势树种应用较少，林分结构单一，碳汇能力弱、群落结构不稳定。二是林业碳汇相关技术标准尚不完善，可供开发林业碳汇的区域范围和规模数量有待优化厘清。', '林业碳汇市场准入机制尚不健全；宁夏林草碳汇资源感知平台正在建设，林业碳汇计量监测示范和应用衔接存在困难；碳汇计量监测、项目开发、市场交易等专业人才和熟悉林业碳汇、懂金融和市场的复合性人才短缺。', '生态建设和管护投入成本高，经济效益偏低、回收期长，生态产品价值实现机制不完善，生态价值转化途径不多。山林权改革颁发（换发）林权类不动产证率不高、金融单位和林草生产经营者参与积极性不高、龙头企业引进难度大、森林资源资产评估法规和相应管理办法不健全、技术力量薄弱等。', '深入学习贯彻党的二十大精神和习近平总书记视察宁夏重要讲话和重要指示批示精神，全面落实党中央、国务院关于碳达峰碳中和重大战略决策部署、自治区第十三次党代会和固原市委五届五次六次七次全会精神，坚持绿水青山就是金山银山和森林是水库、钱库、粮库、碳库理念，坚持', '的定位，坚守保护生态和可持续发展两条底线，保持绿色低碳发展的战略定力。充分发挥林业碳汇资源优势，积极开展林业碳汇计量监测示范和应用，进一步丰富生态产品价值实现路径，为建设黄河流域生态保护和高质量发展先行区美丽新固原作出示范样板。', '——坚持科学布局，分类施策。尊重自然、顺应自然，按照固原林草资源实际状况和分布特点，科学布局，精准提升。各县（区）因地制宜，分类施策，确定符合自身实际的林业碳汇试点建设目标任务，着力提高林业碳汇能力。', '坚持科学布局，分类施策。尊重自然、顺应自然，按照固原林草资源实际状况和分布特点，科学布局，精准提升。各县（区）因地制宜，分类施策，确定符合自身实际的林业碳汇试点建设目标任务，着力提高林业碳汇能力。', '——坚持统筹推进，重点突破。系统开展林业碳汇建设项目与碳汇交易，绿色低碳与发展碳汇经济等，稳妥有序开展林草碳汇试点工作，统筹推进固碳、增汇、增效。', '坚持统筹推进，重点突破。系统开展林业碳汇建设项目与碳汇交易，绿色低碳与发展碳汇经济等，稳妥有序开展林草碳汇试点工作，统筹推进固碳、增汇、增效。', '——坚持机制创新，示范引领。遵循国家现行标准，充分吸纳全国和宁夏碳汇监测成果，突出示范应用和成果推广，坚持机制创新、技术创新、模式创新，推进碳汇开发应用。', '坚持机制创新，示范引领。遵循国家现行标准，充分吸纳全国和宁夏碳汇监测成果，突出示范应用和成果推广，坚持机制创新、技术创新、模式创新，推进碳汇开发应用。', '——坚持政府引导，市场发力。建立“政府引导、部门协作、共同参与”碳汇试点市建设的工作机制，强化政策引领，发挥市场作用，建立经营大户、企业等经营主体和社会资本参与碳汇试点建设的机制。', '碳汇试点市建设的工作机制，强化政策引领，发挥市场作用，建立经营大户、企业等经营主体和社会资本参与碳汇试点建设的机制。', '坚持系统观念，发挥优势，强化支撑，以夯实林业碳汇资源基础、开展碳汇计量监测示范和应用、探索生态产品价值实现机制、构建', '年时间探索形成西北地区可复制可推广的林业碳汇发展典型模式，打造林业碳汇交易、林业碳汇计量监测示范应用、生态产品价值实现', '——发挥林业碳汇资源优势。加大对碳汇能力较强树种的推广和使用力度，优化树种结构、林分结构；摸清固原市林草资源家底，借助“宁夏林草碳汇感知平台”，按照有关林业碳汇方法学要求，梳理全市可供开发林业碳汇的区域范围和规模数量，实现林草碳汇资源动态管理。做好资源储备、地块储备，为温室气体清单编制、碳汇效益核算、林业碳汇项目开发、林业碳汇交易等奠定基础。', '发挥林业碳汇资源优势。加大对碳汇能力较强树种的推广和使用力度，优化树种结构、林分结构；摸清固原市林草资源家底，借助', '，按照有关林业碳汇方法学要求，梳理全市可供开发林业碳汇的区域范围和规模数量，实现林草碳汇资源动态管理。做好资源储备、地块储备，为温室气体清单编制、碳汇效益核算、林业碳汇项目开发、林业碳汇交易等奠定基础。', '——强化生态系统碳汇基础支撑。准确掌握固原市森林生态系统碳储量现状、变化和空间分布，以小班尺度为测算精度，做好固原市林草资源碳汇监测，完成固原市林业碳储量、碳汇量与增汇潜力测算与评估，建立健全固原市林业碳汇计量监测体系，细化碳汇计量监测底数，建立碳汇项目储备库，设立碳账户，推动碳汇项目交易；设立司法绿碳基地，构建“司法+碳汇补偿”机制；加强林业碳汇人才培养，引进专业人才，扩大交流合作，培养一批本土碳汇人才。', '强化生态系统碳汇基础支撑。准确掌握固原市森林生态系统碳储量现状、变化和空间分布，以小班尺度为测算精度，做好固原市林草资源碳汇监测，完成固原市林业碳储量、碳汇量与增汇潜力测算与评估，建立健全固原市林业碳汇计量监测体系，细化碳汇计量监测底数，建立碳汇项目储备库，设立碳账户，推动碳汇项目交易；设立司法绿碳基地，构建', '——实现生态产品价值转化。深化跨区域碳汇林项目合作模式，通过发行“林业碳票”、碳排放权交易、林业碳汇项目开发等途径，将林业碳汇资源转化为林业碳汇产品，实现碳汇交易；探索“森林险+碳汇贷”绿色金融模式，建立市场化交易机制，引导和鼓励社会资本参与试点建设，丰富生态产品价值转化路径，提供可推广、可复制的生态产品价值实现机制。', '、碳排放权交易、林业碳汇项目开发等途径，将林业碳汇资源转化为林业碳汇产品，实现碳汇交易；探索', '绿色金融模式，建立市场化交易机制，引导和鼓励社会资本参与试点建设，丰富生态产品价值转化路径，提供可推广、可复制的生态产品价值实现机制。', '在固原市主要优势群落树种、乡土树种及已驯化的造林乔木树种中，按照碳汇效率、固碳能效、碳封存和造林可行性等碳汇属性量化评价，筛选并发布固原市碳汇推荐树种，包括华北落叶松、云杉、油松、华山松、樟子松、刺槐、白桦、红桦、辽东栎、旱柳、榆树、河北杨、新疆杨、山杏、山桃、沙棘、柠条、柽柳等，提高水源涵养林、水土保持林、生态经济林等新造林碳汇能力。在保障森林生态系统稳定、树种结构合理的前提下，加大对企业、合作社、农户等经营主体使用碳汇推荐树种的宣传引导力度，倡导优先栽植碳汇能力强的树种。（详见表', '国际通用规则和方法学，利用固原市国土资源三调和森林资源“一张图”数据，结合造林绿化项目验收成果，统计', '具有抗旱、耐寒特性，适合固原市气候、土壤等环境条件，生长势、抗逆性都很强，在固原经过自然长期选择，适应性非常强，对当地的病虫害和灾害性气候等恶劣环境具有较强的适应能力和抵御能力，同时乡土树种还具有安全稳定性，在自然生态系统中乡土树种已经形成了稳定的生态群落。', '山桃、沙棘、柠条、柽柳、绣线菊、卫矛、栓翅卫矛、水栒子、紫丁香，黄刺玫、天目琼花，香荚蒾、聚花荚蒾、金花忍冬、珍珠梅', '以此为基础，细化分类，科学认定，划定碳汇试点的重点区域和优势区域，结合计量监测，将项目地块和规模分类入库备案，评估、预测碳汇量和碳储量，强化资源储备。', '以宁夏林草湿综合监测和宁夏林草碳汇资源感知平台为基础，利用自治区林草碳汇计量监测方法和模型，结合遥感监测和地面碳库调查，在固原市全域开展小班级别的碳储量和碳汇量计算，细化碳汇计量监测底数。在宁夏林草碳汇资源感知平台开发各县（区）林草碳汇监测模块，为碳汇产品开发、碳汇交易、碳汇项目储备等实际应用奠定基础。', '在宁夏林草碳汇资源感知平台的基础上建立碳汇项目储备库，各县（区）在碳汇项目储备库备案的项目地块需满足国家发展改革委备案的方法学要求，依托固原碳汇计量监测底数，结合碳汇造林项目方法学和森林经营碳汇项目方法学的项目布局，将项目地块对标', '开发流程进行设计，通过项目文件设计、项目审定、项目备案、项目实施与监测、减排量核查与核证、减排量签发等程序后，所产生的碳汇按规定进入碳市场交易。该储备库的建设将为碳汇项目开发、碳汇交易等提供基础支撑。', '在宁夏林草碳汇资源感知平台的基础上建立政府、企业、个人三个级别的碳账户，构建政府与企业、个人分层级、多功能碳账户体系，开展碳账户应用场景示范。其中：在林业碳汇领域政府碳账户侧重于林业资源及其碳储量、碳汇量统计分析、碳账户监管等应用场景；企业碳账户侧重于企业开发林业碳汇项目用于碳汇交易全过程服务；个人碳账户侧重于个人林权开发的林业碳汇项目用于碳汇交易全过程服务。细化各级碳账户应用场景清单，重点服务区域碳中和、碳普惠、碳金融等应用，为碳汇项目的开发管理积累经验。', '经市人民政府授权，市国资委履行出资人职责的国有独资公司宁夏六盘山生态产业有限责任公司作为固原市林业碳汇项目交易主体单位，具体负责碳汇项目从开发到交易全过程运营管理。各县（区）利用宁夏林草碳汇计量监测计算方法和模型，将碳汇项目', '，实现碳汇资源、开发地块、项目进展一屏展示，计算并生成碳汇核算报告。对各县（区）计算出的碳汇项目碳汇量，采取', '的方式，通过协议转让和单项竞价，推动碳汇项目交易，促进生态价值转化。以实现资金流向透明化，企业管理简捷化，按照收支两条线路径，降低政府举债风险。', '对资源权属清晰、有经营主体参与、效益能够持续发挥的林业资源，合理定价，引导流转和入市交易。', '亩，加强碳汇储备林后期抚育管理，采取补植、中幼林抚育管护、退化林分修复等措施，保证林相整齐，提高活立木量；加强森林有害生物防治，提升碳汇林碳汇能力，打造跨区域合作建设碳汇林示范，为固原市开展碳汇林建设提供样板。', '按照市域内可供开发林业碳汇资源分布和规模，试点建设期内，根据国家发展改革委批准备案的方法学要求的林地为项目地块，以原州区、西吉县、彭阳县为试点推行碳汇造林项目方法学林业', '——强化制度设计，科学“制票”。针对林业碳票开发对象、计量方法、交易方法、适用市场等，制定出台《固原市林业碳票碳减排量计量方法》，对权属清晰的林地、林木，经第三方机构监测核算、专家审查、林业主管部门审定、生态环境主管部门备案，签发林业“碳票”，赋予交易、质押、兑现、抵消等权能。', '。针对林业碳票开发对象、计量方法、交易方法、适用市场等，制定出台《固原市林业碳票碳减排量计量方法》，对权属清晰的林地、林木，经第三方机构监测核算、专家审查、林业主管部门审定、生态环境主管部门备案，签发林业', '——多方协作联动，合规“管票”。联合市发改委、生态环境、金融工作局等监管部门，制定出台《固原市林业碳票管理办法》《固原市林业碳票交易服务合作协议》等，明确碳票用途、规范碳票制发、从严审慎管理，对林业碳票的制发、登记、流转、质押、抵消、管理和监督等进行规范，明确部门职责、理清工作流程，为林业碳票项目开发和交易提供保障。', '。联合市发改委、生态环境、金融工作局等监管部门，制定出台《固原市林业碳票管理办法》《固原市林业碳票交易服务合作协议》等，明确碳票用途、规范碳票制发、从严审慎管理，对林业碳票的制发、登记、流转、质押、抵消、管理和监督等进行规范，明确部门职责、理清工作流程，为林业碳票项目开发和交易提供保障。', '——共享多元效益，赋能“发票”。突出碳票可流转、可收储、可授信、可质押、可保险的功能特点，将宁夏六盘山生态产业有限责任公司作为固原市主体发票共享平台，全市各单位、林场、企业和个人将所拥有的林木资源统一在该平台上进行登记备案托管，平台按照碳票签发流程，在获得主管部门签发的林业“碳票”后，向各被托管单位、林场、企业和个人统一发票。', '。突出碳票可流转、可收储、可授信、可质押、可保险的功能特点，将宁夏六盘山生态产业有限责任公司作为固原市主体发票共享平台，全市各单位、林场、企业和个人将所拥有的林木资源统一在该平台上进行登记备案托管，平台按照碳票签发流程，在获得主管部门签发的林业', '——丰富场景应用，多元“用票”。围绕抵消碳排放权、金融支持、低碳生活等各个方面协同发力，依托现有公共资源交易平台，鼓励采取协议转让、单向竞价或者其他符合国家规定的交易方式流转碳票。推动企业或个人按年度购买林业碳票，鼓励企业优先购买“碳票”。全市林业碳汇交易统一由宁夏六盘山生态产业有限责任公司代理交易，根据交易的碳汇量相应的向单位、林场、企业或个人回购碳票，实现生态价值转化。', '。围绕抵消碳排放权、金融支持、低碳生活等各个方面协同发力，依托现有公共资源交易平台，鼓励采取协议转让、单向竞价或者其他符合国家规定的交易方式流转碳票。推动企业或个人按年度购买林业碳票，鼓励企业优先购买', '。全市林业碳汇交易统一由宁夏六盘山生态产业有限责任公司代理交易，根据交易的碳汇量相应的向单位、林场、企业或个人回购碳票，实现生态价值转化。', '模式，为碳汇林提供质押贷款，拓宽增绿护绿融资渠道。鼓励金融机构开发碳资产抵质押融资、碳汇预期收益权质押、碳金融结构性存款、碳债券、碳基金等绿色金融产品，推动林草碳汇资源变资产、资产变资金。为后期全市推广', '梳理自愿减排量企业的名单，积极对接引入，鼓励企业投资建设碳汇林。对企业投资建设的碳汇林，按照国家发展改革委批准备案的方法学要求进行项目备案入库，并定期开展计量监测，由第三方进行项目认证审核，确定可交易的碳汇量。着力打造点对点区内和跨省林业碳汇交易试点，争做宁夏碳汇交易排头兵。按照试点先行，稳步推行的方式，', '在此基础上根据国家、自治区政策出台和地方实际情况，逐步在全市推行开展碳汇交易，推动生态产品价值实现。', '的林业金融服务机制，降低山林权融资抵押、担保贷款门槛，提高经营主体营林护林积极性。引导社会资本以市场化方式进山入林参与生态建设，培育生态经济产业龙头企业及多种新型经营主体，在确权颁证全覆盖和厘清林业碳汇底数基础上，针对资源权属明确、碳汇计量清晰、有经营主体参与、效益能够持续发挥的林业资源，在全市探索构建', '模式，充分发挥林业碳汇、林下经济、林果林药及森林康养等多种效益，成熟一宗，流转一宗，交易一宗', '机制模式，制定出台《关于在刑事犯罪案件中开展司法修复森林碳汇补偿机制的工作方案（试行）》《关于在生态环境刑事案件中开展生态修复适用林业碳汇赔偿机制的工作方案（试行）》，为全市推广构建', '，有效解决破坏森林资源的刑事犯罪案件无法或不便原地开展生态修复的问题，保证森林生态系统碳库安全、优化林分树种和空间结构、促使森林质量提升和森林生态服务功能持续增强。', '争取国家、自治区林业和草原局指导支持，邀请中国林业科学研究院、国家林业和草原局产业发展规划院、国家林业和草原局林草调查规划院、宁夏林业调查规划院、宁夏农林科学院固原分院、六盘山产业技术创新研究院等院所作为科技支撑单位，组建林业碳汇专家咨询团队，指导林业碳汇试点工作，研究解决林业碳汇技术问题，开展林业碳汇区域计量监测、碳账户建设、推动碳汇交易、碳汇项目入库等方面培训。建立本地林业碳汇方面的专家和一批碳汇技术服务复合型人才库。大力引进林业碳汇、金融等领域人才，建立专家型团队。通过', '名本土专技人员到区外高等院校研修学习，考察外省碳汇林建设、碳账户建立、碳排放交易等先进模式、技术、理念及经验；每年在固原市举办林业碳汇方面培训班', '试点建设实行地方政府行政首长负责制。成立固原市林业碳汇试点建设工作领导小组（详见附件', '），组长由市人民政府市长担任，副组长由分管副市长担任，成员单位包括市委组织部、宣传部、市中级人民法院、发展改革委、财政局、科学技术局、人力资源和社会保障局、林业和草原局、生态环境局、水务局、农业农村局、商务和投资促进局、市场监督管理局、金融工作局、六盘山林业局、林业草原发展服务中心、公共资源交易中心和各县（区）人民政府。领导小组办公室设在市林业和草原局，办公室主任由市林业和草原局负责同志兼任，常务副主任由林业草原发展服务中心负责同志兼任。主要负责林业碳汇试点建设政策制定，协调解决试点工作推进中的重大事项，统筹组织、协调、推进试点工作。各县（区）成立相应的碳汇试点工作推进领导小组，负责推进林业碳汇试点工作。', '，做好碳汇林项目和小班级别碳储量、碳汇量前期准备工作和摸底调查；做好优势碳汇树种选择工作，梳理林业碳汇开发区域，计量监测筛选可开发林业碳汇规模数量等；落实司法', '碳汇补偿机制前期准备工作，试点推行林业碳票、开展碳汇交易；明确组织领导，制定相关扶持政策，优化推进机制。', '年，加强数据采集，开展补充调查，减少数据误差；编制林业碳汇计量评估报告和林业碳汇潜力评价报告，编制监测数据计算成果报告；深化宁夏林草碳汇资源感知平台衍生应用；持续做好林业碳汇开发区域评估，计量监测可开发林业碳汇规模数量；初步建立碳汇交易项目储备库，全面开展示范和交流合作。', '年，扩大本地碳汇技术服务复合型人才交流合作；完成试点示范应用成果报告；分级建立碳账户，推动碳汇项目交易；形成生态产品价值实现机制，试行', '机制；完善做好林业碳汇开发区域评估，计量监测可开发林业碳汇规模数量工作，完成效益评估。（详见附件', '试点建设以中央基本建设项目资金、中央财政林业专项资金、林业改革发展资金、政策性银行贷款为主，需筹集资金规模为', '万元，用于梳理统计可供开发的林业碳汇的区域和规模、深化闽宁碳汇林合作模式和建立司法绿碳基地约占总投资规模的', '机制出台管理机制、探索生态产品价值实现机制、培养本地碳汇人才、宣传引导等，约占总投资规模的', '充分利用新闻、广播、互联网等各类媒体，通过科普、公益、文化、集市等多种渠道，多层次、多形式开展林业碳汇知识、碳汇惠民、碳达峰、碳中和、应对气候变化、生态文明建设等知识和政策宣传。让广大干部和群众完整、准确理解碳达峰、碳中和，激励社会各界积极投身林业碳汇行动，提高全民绿色低碳、降碳意识，营造良好的社会氛围。', '万亩，主要分布在张易、开城、头营、炭山、寨科、官厅、河川、彭堡、中河等乡镇及叠叠沟、红庄、青石嘴等林场；未成林补植补造共', '万亩，主要分布在张易、开城、头营、寨科、官厅、河川、彭堡等乡镇及叠叠沟、红庄、青石嘴等林场；退化林改造共', '万亩，主要分布在张易、开城、头营、炭山、寨科、官厅、河川、彭堡、中河等乡镇及叠叠沟、红庄、青石嘴等林场。', '万亩；主要分布在头营、官厅、寨科、中河、河川、三营、张易、开城、彭堡、马渠、炭山、黄铎堡等乡镇及禅塔山、赵千户、马东山、西海子、红庄、叠叠沟、石岘子等林场。', '万亩，主要分布在河川、寨科、官厅、炭山、头营、开城、三营、彭堡、黄铎堡等乡镇及马渠、古树、水沟、石岘子、红庄、东马场、青石、东岳山等林场。', '万亩，主要分布在古雁办、官厅、开城、彭堡、三营、炭山、头营、寨科、张易、黄铎堡等乡镇及红庄、马东山、马渠、沈河、西海子、赵千户、叠叠沟、东马场、东岳山等林场。', '万亩，主要分布在炭山、开城、寨科、头营、三营、官厅、张易、黄铎堡等乡镇及马渠、叠叠沟、赵千户、沈河、西海子、红庄、古树、东马场、东岳山、蝉塔山等林场。', '万亩，主要分布在开城、官厅、头营、炭山、寨科、张易、南关办等乡镇及西海子、水沟、石岘子、沈河、青石、叠叠沟、古树、马渠、红庄等林场。', '万亩，主要分布在官厅、开城、三营、炭山、头营、寨科、张易等乡镇及石岘子、沈河、青石、马渠、红庄等林场。', '万亩，主要分布在沙沟、白崖、王民、硝河、将台、什字、兴隆、西滩等乡镇；未成林补植补造共', '万亩，主要分布在白崖、王民、马莲、西滩、硝河、将台、什字、兴隆等乡镇；退化林改造共', '万亩，主要分布在白崖、红耀、王民、将台、马莲、西滩、硝河、将台、什字、兴隆等乡镇。', '万亩，主要分布在沙沟、白崖、火石寨、王民、西滩、吉强、硝河、将台、什字、兴隆等乡镇；退化林改造共', '万亩，主要分布在白崖、沙沟、红耀、王民、将台、马莲、西滩、硝河、将台、什字、兴隆等乡镇。', '、好水、观庄、陈靳、凤岭、温堡、张程、沙塘、奠安、联财、神林等乡镇；未成林补植补造共', '万亩，主要分布在山河、好水、观庄、凤岭、城关、陈靳、温堡、张程、杨河、沙塘、联财、神林、好水、凤岭等乡镇；退化林改造共', '万亩，主要分布在好水、杨河、张程、凤岭、城关、沙塘、神林、联财、温堡等乡镇及金华、盘龙山、堡子山、神林南山等林场。', '万亩，主要分布在陈靳、城关、奠安、凤岭、沙塘、山河、温堡、张程等乡镇；未成林抚育提升及退化林改造共', '万亩，主要分布在陈靳、城关、奠安、凤岭、沙塘、山河、神林、温堡、张程等乡镇；森林抚育共', '万亩，主要分布在陈靳、城关、奠安、凤岭、观庄、好水、联财、沙塘、山河、神林、温堡、杨河、张程等', '万亩，分布在陈靳、城关、奠安、凤岭、观庄、好水、联财、沙塘、神林、温堡、杨河、张程', '万亩，主要分布在陈靳、城关、奠安、凤岭、观庄、好水、联财、沙塘、山河、神林、温堡、张程等', '万亩，分布在陈靳、城关、奠安、凤岭、观庄、好水、联财、沙塘、神林、温堡、杨河、张程、山河', '万亩主要分布在六盘山、大湾、香水、兴盛、泾河源、新民、黄花等乡镇；未成林抚育提升及退化林改造共', '万亩主要分布在六盘山、大湾、香水、兴盛、泾河源、新民、黄花等乡镇；未成林抚育提升退化林改造共', '万亩，主要分布在六盘山、大湾、香水、兴盛、泾河源、新民、黄花等乡镇；未成林抚育提升及退化林改造共', '大湾乡、六盘山镇、香水镇、黄花乡、泾河源镇、兴盛乡、新民乡、大湾乡苏堡村、泾河源镇东峡村、新民乡先进村', '万亩，主要分布在古城、新集、孟塬、草庙、冯庄、小岔、交岔、罗洼、王洼、白阳、城阳、新集等乡镇；未成林补植补造共', '万亩，主要分布在古城、新集、孟塬、草庙、冯庄、小岔、交岔、罗洼、王洼、白阳、城阳等乡镇；退化林改造共', '万亩，主要分布在古城、新集、孟塬、草庙、冯庄、小岔、交岔、罗洼、王洼、白阳、城阳等乡镇。', '万亩，主要分布在白阳、冯庄、古城、王洼、交岔、孟塬等乡镇及草庙、茹河、小园子等林场；未成林抚育提升及退化林改造共', '万亩，主要分布在县白阳、草庙、城阳、冯庄、古城、交岔、罗洼、孟塬、王洼、小岔等乡镇及草庙、茹河、小园子等林场；生态经济林共', '万亩，主要分布在罗洼、交岔、王洼、小岔、冯庄、草庙、白阳、古城、城阳、红河等乡镇及草庙、茹河等林场；未成林抚育提升及退化林改造共', '万亩，主要分布在交岔、王洼、小岔、冯庄、草庙、白阳、孟塬等乡镇草庙林场、小园子林场等林场；退化林改造共', '万亩，主要分布在交岔、王洼、小岔、冯庄、草庙、白阳、孟塬等乡镇及草庙、小园子等林场；未成林抚育提升共', '万亩，主要分布在在交岔、王洼、小岔、冯庄、草庙、白阳、孟塬等乡镇及草庙、小园子等林场。', '构建管理机制，组建领导成员，明确工作任务，沟通协调各个部门统筹推进试点建设内容落地', '。对照温室气体清单编制、碳汇效益核算、林业碳汇交易和生态产品价值实现等需求，结合计量监测，将项目地块和规模分类入库，评估、预测碳汇量和碳储量，强化资源储备。将项目划分小班实施工程，编制存档全部工程建设过程资料，为碳汇项目入库备案打下基础。做好工程结束项目验收工作，同时对碳汇量进行定期计量监测。编制碳汇计量监测报告和碳汇潜力分析报告', '交易。通过企业投资，进行碳汇林建设。将建设的碳汇林项目备案入库，定期计量监测碳汇，计算碳汇量，依托交易平台，开', '推进山林权改革，集中林地进行规模化建设管理，碳汇集中监测计量备案入库；通过林地流转，引导鼓励社会资本参与到试点建设', '，委托专业机构完成替代修复工作，有效解决破坏森林资源的刑事犯罪案件无法或不便原地开展生态修复的问题。', '充分利用新闻、广播、互联网等各类媒体，通过科普、公益、文化、集市等各种渠道，多层次、多形式开展林草碳汇知识、碳汇惠民、碳达峰、碳中和、应对气候变化、生态文明建设等知识和政策宣传', '为推进固原市林业碳汇试点建设，成立固原市林业碳汇试点市建设工作领导小组，组成如下：', '领导小组办公室设在市林业和草原局，负责国家林业碳汇试点建设，协调解决试点工作推进中的有关事项，办公室主任由杨生智同志兼任，常务副主任由郑小义同志兼任。', '市财政局：负责做好林业碳汇试点资金保障，会同相关部门积极争取省级以上资金，拓展林业投融资平台，监督资金使用和绩效评价等工作。', '市林业和草原局：推进和指导林业碳汇开发项目区划勘界，土地和林地流转、登记、确权，建设区基础设施建设所需土地的审批等工作；负责制定专业化人才引进标准和条件；负责提供林业碳汇开发项目实施所需资料和数据，督促县区加快林业碳汇项目开发建设，协调碳汇经营开发主体企业与各林业权属单位签署碳汇开发委托协议，做好项目实施的全过程跟踪指导，承担领导小组办公室的日常工作。', '市生态环境局：负责协助推进林业碳汇开发项目前期环境评估工作，协调协调自治区环境厅转报中国核证自愿减排量（', '市农业农村局：负责项目建设区农村人居环境整治、引导农民参与林业碳汇试点建设，共享碳汇普惠成果等工作。', '市商务和投资促进局：负责鼓励和引导全市各领域特别是服务行业的企业、商家参与建立林草碳普惠机制。', '市金融工作局：负责绿色金融改革创新工作，推动全市金融机构创新，推出碳汇相关金融产品，引导金融机构扩大信贷投放，加强在林业碳汇金融领域的支持。', '六盘山林业局：负责六盘山自然保护区森林碳汇巩固与经营，配合做好林业碳汇计量监测体系建设和林草碳汇计量监测新技术研发。', '市林业草原发展服务中心：负责提供林业碳汇试点工程建设技术服务，负责提供林业碳汇开发项目实施所需资料和数据，配合市林业和草原局做好全市林业碳汇试点建设工作。', '各县（区）人民政府：落实领导小组部署的任务，负责碳汇建设项目的具体实施，提供配套资金、人员等方面保障。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>292</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>央视财经专访宁夏回族自治区副主席固原市市长马汉成金融扶贫活水激励产业发展</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/202009/t20200927_2244604.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['央视财经专访宁夏回族自治区副主席、固原市市长马汉成：金融扶贫活水激励产业发展_固原市人民政府', '9月25日，中央广播电视总台财经节目中心大型融媒体行动《走村直播看脱贫》来到了宁夏回族自治区固原市的西吉县涵江村。涵江村目前户户养牛，户均养殖7头牛以上、人均近2头，实现了“养殖一年、当年脱贫”的目标，2019年涵江村人均收入达到近万元。涵江村以前叫“烂泥滩村”，这一得名正因为村里道路极差，遇到雨雪天村民们都出不了村。而现在全村的主路都变成了硬化路并且还通了客车，方便村民出行。昨日，央视财经记者专访宁夏回族自治区副主席固原市市长马汉成，在谈到推进脱贫攻坚过程中的感悟与收获时，马汉成提到：①立足当地资源禀赋，大力发展肉牛养殖；②应贷尽贷、愿贷尽贷，金融扶贫活水激励产业发展；③闽宁协作是东西协作的典范，为脱贫上加速器；④移民搬迁解决“一方水土难养一方人”的困境。 央视财经记者 白玥：这两天我们在涵江村走访过程中，了解到当地脱贫现在正进入到关键阶段，我知道您也经常来这个村子考察调研，从我们这两天的走访中，感觉当地现在最主要的是产业上的发展，也就是种植玉米和养牛。您认为产业扶贫对一个地区的脱贫来说有哪些重要作用呢？', '宁夏回族自治区副主席 马汉成：非常感谢中央电视台对宁夏、对固原、对西吉的关心，产业是我们贫穷的根源。涵江村过去的自然条件很艰苦，曾经叫烂泥滩。这几年在闽宁协作，福建莆田的涵江区结对帮扶当中才改名为涵江村。实际上有两层意思，一是人们对这种协作的肯定，第二是因为涵江的帮扶让这个地方的产业有了很好的发展。涵江村得益于种养业的发展，但更多的是由于福建的帮扶，把我们的优势产业、特色产业，对标上东部的发达市场，所以产业要发展，不仅要聚焦当地的特色和优势，更多的是我们的产品要对标市场，对标大市场，让我们的好产品卖上好价钱。 涵江村的产业发展，也是我们固原市624个贫困村、全宁夏1100个贫困村产业发展的缩影。实际上我们每一个村都有特色产业，在宁夏，包括固原在内，我们立足当地的自然条件、资源禀赋以及老百姓的技术能力，还有土地的支撑，大部分做得是肉牛养殖。我们过去是以种植为主，现在我们调整结构，既有好的特色种植，更有好的养殖。下一步我们还有链条更长，价值更高的加工业，实际上走的是一二三产业融合的线路。 产业要发展好，三个因素很重要。第一个，立足当地，做好规划非常重要。第二个立足特色，延长链条很关键。第三个对标市场，发展品牌非常重要。这三个因素要做好，还有两个保障因素，一个保障因素是能人带动或者合作社引领，再大一点就是龙头企业的支撑和保障。还有一个因素就是技术，我们现在发展产业，从最前端种的品种，养的品种都是不一样的。好的农业，尤其是种养业，是种出来的，是养出来的，所以这个品种非常重要。 第二个支撑就是金融，金融对产业的发展，无论是在放大规模，还是推动机制建立上，以及跟大的合作社、企业合作方面都起到非常大的作用。像现在我们这个村的发展，每户平均能养8到9头牛，人均两头，就得益于扶贫小额信贷，国家在三年内贴息，每户户均都贷到5万块钱，有金融的活水激励，才能把我们的产业规模放大。 央视财经记者 白玥：在金融扶持上现在有各种各样的方式，因为大家需要的资金和需要的方式也都不一样，金融扶贫也是我们很重要的一个政策，从全局来讲您认为还有哪些政策可以增加，或者现在利用好的政策？ 宁夏回族自治区副主席 马汉成：这一轮的扶贫造血能力增强，一个主要的因素得益于金融扶贫的进入，第一个能把贷钱、还钱、挣钱的意识培养起来；第二个，能把老百姓的发展意识和诚信意识培养起来。截止到今年的上半年，宁夏已经为60万建档立卡户带来近300亿的贷款，户均5万块钱，我们实现了应贷尽贷、愿贷尽贷，基本上覆盖率达到80%。这两年有些老百姓已经有了自我发展能力，他也不再贷款了。之前我们的最高覆盖率达到85%，所以正因为这样，这几年在宁夏的发展当中，我们形成了盐池模式，固原蔡川经验等好的做法，这两个都得到了中央领导，还有中央新闻媒体的宣传和报道，能形成模式、形成经验，说明金融在这个地方的发展已经形成了机制，已经深得广大老百姓的拥护和支持，也同时反映出我们的金融部门广泛、深度地参与到脱贫攻坚当中。 我觉得金融工作在现在的发展当中有两个问题，第一个就是规模的适度放大，国家在现行的每户5万块钱以内是贴息的。我觉得下一步可以把规模放大，增加的规模，根据发展产业的特点和需要，一个是要延长期限，第二个要增加规模。增加的这一块可以不贴息。 第二是市场化推动，金融政策有必要发展普惠金融，让更多的农村父老乡亲们、兄弟姐妹们享用，现在这一块覆盖度是不够的，我们好多非建档立卡户也想发展，但是得不到贷款。所以我觉得在下一步我们在乡村振兴当中，或者在我们产业政策的接续当中，金融扶贫的政策还是要发展普惠金融，让更多的老百姓从中受益。 央视财经记者 白玥：像您刚才也提到了，我们除了自身的发展，还需要一些外力，比如说东部和西部的结合是很好的方式，而在咱们宁夏就是闽宁结合，现在的经验和亮点有哪些呢？ 宁夏回族自治区副主席 马汉成：说起闽宁协作，我们确确实实非常感恩习近平总书记，感谢福建人民。1997年中央作出决定以后，习近平总书记亲自部署，亲自推动，亲自领导闽宁协作。24年来结出了丰硕的成果。福建人民对宁夏的关怀，可以用真情实意、真金白银来形容，省级、市县以及社会投资近30亿元，已经有5700家福建籍的企业或者商户，在宁夏大地上发展，正因为他们的进入，对我们的产业，解决我们的就业，让我们很多老百姓的脱贫，上了加速器。 闽宁协作已经上升为我们国家东西协作的一个典范。我觉得第一个经验就是高位推动，两省区的领导每年都把中央的决策部署，把习近平总书记过去确定的方针政策都在两地落实，每年都互动，要么我们到福建去，要么福建到宁夏来，联席会议结束以后，两地还要深层次的分管领导，市县领导、县区领导以及甚至一些乡镇，还有对接落实。第二个就是产业对接，主要是两块，一个是技术，福建的科研团队，深层进入到我们固原的乡间，进村入户，还有一个龙头企业进入，所以我们这几年发展当中，我们比如一些扶贫车间，60%都是由福建的帮助建立起来。福建的企业，福建的工商户来进入到固原来去经营，然后由他们去带领，让我们当地的老百姓学经验、学技术、学理念。还有一个人才的流动，这24年来，福建一共派了11批185名工作人员，我们宁夏也是派了19批325人去到福建去学习，其中今年中宣部把闽宁对口协作，援宁工作群体授予时代楷模。这其中有4位跟我共事8年，在他们的身上展现出吃苦耐劳、爱拼会赢的精神。正因为两地这种协作，我们过去单一的政府推动帮助现在进入到产业、技术、人才、医疗、教育等全方位的合作。所以现在闽宁两地就是一家亲，我开玩笑说，那边有武夷山，我们这有六盘山，所以两座高山都产生了人间奇迹。所以现在说起福建，我们到福建去，福建把我们都当亲人一样对待，福建人到我们这儿也感到非常的亲切。 最近我们闽宁协作第二十四次联席会议以后，我们的张柱书记又带队去，我们的一些干部，还有我们一些企业，在福建去对接。这次会议上，宁夏的陈润儿书记也提出了更高的要求。福建的于伟国书记表态，福建帮宁夏的有5个市，每一个市你无论通过什么形式，国有的、民营的、个人的，要在这些县建一个支撑地方发展的产业项目。所以这些都让我们非常鼓舞。所以闽宁协作现在不仅在固原大地上开花结果，在福建也有我们固原很多的人，近5万人在那里长期从业、安家落户、扎根福建。所以两地合作是非常的广阔。而且习近平总书记对两地的这种合作，这种机制，这种模式给予了充分的肯定。2016年的7月份，在宁夏召开东西部协作会议。实际上在新时代，把这种模式、这种机制、这种经验在全国各地放大推广，让更多的人受益。 央视财经记者 白玥：我们知道涵江村现在还是靠着山里的发展，但还有一些通过移民搬迁而走出贫困的，那么移民搬迁这块现在宁夏是怎么做的？ 宁夏回族自治区副主席 马汉成：宁夏实际上穷就是山大、沟深、水少，这是自然面貌。但同时对固原来讲，人多、县穷、县域经济发展能力弱，因为固原对我们宁夏来讲，有9个国定贫困县，占所有市县的41%，9个贫困县的面积，再加上我们重点乡镇的话，面积要占76%左右，而且我们的地方的贫困深度，像固原，建档立卡之初是35.2万人，所以贫困深度也是非常深。 所以我们这个地方是贫困面广、程度深，扶贫的任重、成本高。移民搬迁，就是我们要解决一方水土难养一方人的问题，我们的措施就是减人强基础。宁夏的移民搬迁在我们国家走的是比较早的，而且这项工作得到了党中央国务院国家有关部门的大力支持。上个世纪80年代初，经过五轮搬迁，尤其是进入到新世纪以后，通过实施，“十二五”中南部地区生态移民和“十三五”易地扶贫搬迁移民，我们全宁夏目前通过政策性移民搬迁，搬了127万人，还有自发移民40万人。所以正因为这样，他们搬出去以后，才给我们今天做绿水青山带来了空间，也给我们发展种草养畜带来了空间。所以我觉得宁夏的移民搬迁，首先是解决了挪穷窝的问题。第二个解决了生态修复的问题。 第三个是让这个地方发展产业增强承载能力。第四个是改变城乡面貌。我说我们这个地方的经验就是一张蓝图绘到底，把不适合的地方的人，要搬到靠近路、有水的地方，大家上学、就医从业都比较方便，这就是一张蓝图绘到底。第二是一任接着一任干。这些年来，每一个5年我们都有移民搬迁任务，截止到十三五，我们基本上解决完了。 第三个是我们坚定走致富一条路，帮了不是目的，更多的是要解决产业就业，让他们搬得出、稳得住、能致富。所以今天在宁夏大地上见证的，比如说曾经的闽宁村现在变成闽宁镇，这是习近平总书记1997年来固原决定的事情。当初的闽宁村是一个干沙滩，经过几十年的发展，现在有6个行政村，变成了金沙滩。1997年搬过去的人贫困发生率是90%，去年这个地方的贫困发生率降到0.2%，收入从当初的4000多块钱，去年变成了13970块钱。现在无论是产业、就业、社会融入工作，都比较到位。所以习近平总书记在今年再次视察宁夏的时候，说“我对宁夏有感情，我和宁夏有缘分”，讲的就是这段情缘，这一段情怀。所以闽宁镇，包括固原，就是宁夏很多移民搬迁脱贫的一个缩影。 我们移民的方式大体上有两类，一个就是政策性移民，包括生态移民，包括劳务移民。 第二个自发移民，老百姓自发地走出去，到城市，到别的地方创业。 移民搬迁即是贯彻习近平总书记五个一批当中的一个举措，但更多的经过多少年发展，对贫困地方来讲，我觉得是一条经验。说句内心话，贫困它有历史渊源，固原，我们曾经“苦瘠甲天下”。现在经过在党中央的关怀下，在习近平总书记精准扶贫精准脱贫方略的指引下，举全党之力来去做这项工作，像在西吉大地上，现在有中央的企业，有地方的部门，厅级干部来帮扶，也有一般干部来帮扶。所以这就是我们国家在共产党领导下的社会主义制度的优越性。移民搬迁就是体现了这个优越性。我觉得从根本上讲就是挪了穷窝，拔了穷根，走上了脱贫致富的小康路。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>292</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>国家卫健委等就疫情防控工作答记者问实录</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2020-01-26</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202001/t20200126_1933619.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['国务院新闻办公室于2020年1月26日（星期日）下午3时举行新闻发布会，国家卫生健康委员会主任、党组书记马晓伟，副主任李斌，工业和信息化部副部长王江平，交通运输部副部长刘小明等部门负责人介绍新型冠状病毒感染的肺炎疫情联防联控工作有关情况，并答记者问。', '女士们、先生们，记者朋友们，下午好。欢迎大家出席国务院新闻办新闻发布会。近日，新型冠状病毒感染的肺炎疫情受到媒体高度关注，人民群众特别是武汉人民的生命安全和身体健康牵动着我们每一个人的心。今天我们请来了国家卫生健康委员会主任、党组书记马晓伟先生，副主任李斌先生，工业和信息化部副部长王江平先生，交通运输部副部长刘小明先生，请他们为大家介绍新型冠状病毒感染的肺炎疫情联防联控工作有关情况，并回答大家的提问。', '各位媒体朋友们，大家好。新型冠状病毒感染肺炎疫情发生以来，党中央、国务院高度重视，习近平总书记非常关心疫情的发展和患者的救治情况，多次作出重要指示和批示。昨天，大年初一，习近平总书记主持召开了中央政治局常务会议，听取了疫情防控工作的汇报。会议决定，党中央成立应对疫情工作领导小组，全面加强防控工作，并向湖北等疫情严重地区派出指导组。这对于凝聚各方力量、统一行动，夺取防控工作的胜利，具有十分重大的意义。李克强总理主持召开国务院常务会议，部署按照“乙类传染病、甲类管理”依法开展疫情防控工作。国务院副总理孙春兰同志多次研究疫情，并前往武汉查看情况，部署工作。国家卫生健康委会同联防联控机制的成员单位，在党中央、国务院的坚强领导下，迅速行动，协调联动，按照属地管理的原则，落实各项防控措施。主要做了以下几方面的工作，向媒体朋友做个通报：', '一是开展疾病溯源和技术指导。组织专家在较短的时间内查明病原，疫情发现一周多时间初步判定了新型冠状病毒，随后印制了诊疗指南、应急监测、流行病学调查处置、采样技术等方案，组织研究开发了诊断试剂盒，经过评估向医疗机构配发，全面提升医疗机构及时发现病例的能力。', '三是加强全国面上的疫情防控工作。目前全国有30个省启动了突发公共卫生事件的一级响应。制定落实社区的防控措施，实行网格化、地毯式管理，对于来自武汉人员实施健康跟踪管理服务，做好各地有武汉旅行史人员的健康管理。推广北京市、河北省等防控经验，及早发现病例。免费办理航空、铁路、公路、水路旅客退票，暂停旅行社团旅游活动。控制举办大型活动，减少人员聚集，发布旅游、家庭、公共场所、公共交通工具、居家观察等6方面公众预防指南，落实重点场所和密闭交通工具的通风、消毒、测体温等措施，严防通过交通工具传播疫情。同时，加强野生动物的市场管控。', '四是全力以赴救治患者。及时修订了诊疗方案，向社会公布全国县级以上定点医院、发热门诊的名单。加强医疗救治，严格按照“集中患者、集中专家、集中资源、集中救治”的原则，注重中西医结合，对重症病例实行“一人一案”，最大限度减少死亡病例。落实患者救助的补助政策，确保任何一个人不因费用问题影响治疗。', '五是加紧开展科研攻关。成立国家科研攻关专家组，启动实施应急项目，坚持问题导向，着力在病毒溯源、药品筛选、中医药防治、重症救治、疫苗研发领域开展科技攻关工作。', '六是做好宣传解读。每天上午八点前，由国家卫生健康委统一发布前一天的疫情数据，组织专家做好解读，向社会普及疫情防范知识。', '七是深化交流合作。向世界卫生组织及时通报疫情情况以及分享技术信息，分享部分毒株的全基因组序列，世界卫生组织总干事谭德塞感谢中国政府，认为体现了中国在全球卫生领域的领导作用。邀请世界卫生组织专家到武汉访问，安排港澳台专家到武汉进行实地考察，世界卫生组织经过评估，宣布暂时不将疫情确定为“国际关注的突发公共卫生事件”。', '目前，疫情防控正处于关键期。专家认为，春节一周期间是“大隔离、大消毒”发挥作用的最佳窗口期，也是武汉以外地区遏制疫情蔓延的关键时期。接下来，我们将在中央应对疫情工作领导小组领导下，把疫情防控作为头等大事，分类指导、精准施策、依法科学防治。', '专家认为，春节一周期间是“大隔离、大消毒”发挥作用的最佳窗口期，也是武汉以外地区遏制疫情蔓延的关键时期。', '一是要紧紧盯住武汉。督促湖北省和武汉市依法采取最严格的防控措施，严格密切接触者居家隔离，减少群众各种聚集性活动，及时发现病例、疑似病症进行隔离，严防死守，坚决遏制疫情蔓延势头。', '二是紧盯全国。全面动员，全面部署，全面加强，做好社区防控，严格管理15日内从武汉流入各省份人员。发挥社区街道作用，确保追踪到人、登记在册、社区管理、上门观察，发现疫情，立即转运至有条件的医疗机构进行隔离。这里，着重要强调加强农村地区疫情防控工作，充分发挥乡镇卫生院和县医院的作用，加强乡镇一级地方政府的领导，坚决防止疫情在农村蔓延。', '发挥社区街道作用，确保追踪到人、登记在册、社区管理、上门观察，发现疫情，立即转运至有条件的医疗机构进行隔离。', '三是全力加强病例救治。将重症病例集中到各地综合力量最强的医院，或由当地综合力量强的医院整建制派出呼吸科的专家，24小时全天候值守。开展中西医结合，尽最大努力减少重症和死亡病例。湖北省尤其是武汉市医务人员长期奋战在一线，全力救治患者，控制疫情，付出了艰苦的努力，表现出了大爱无疆的崇高精神。今明两天，我们将再派出12支1600多人的队伍，疫情防控急需的物资，有关部门正在加紧协调，确保及时足额到位。', '今明两天，我们将再派出12支1600多人的队伍，疫情防控急需的物资，有关部门正在加紧协调，确保及时足额到位。', '疫情就是命令，防控就是责任。我们将全力以赴做好防控工作，充分发挥中国特色社会主义的制度优势，运用我们多年积累的防控重大公共卫生事件的经验，充分依靠广大医务工作者和人民群众打一场疫情防控的人民战争，我们有信心，有决心，也有能力取得疫情防控的胜利。', '昨天中央政治局常委会就疫情防控作出了很多重要的部署，下一步这些部署我们应该如何具体去落实，有哪些措施？谢谢。', '“一分部署，九分落实”，切实把中央关于疫情防控的各项措施落到实处是控制疫情蔓延、取得防控攻坚战胜利的关键。', '一是要充分发挥我们的制度优势，机制优势。党中央决定成立应对疫情工作领导小组，在中央政治局常委会领导下开展工作。同时，向湖北疫情严重的地区派出指导组。我们还有许多部门组成的联防联控机制，这种领导体制有利于全国统筹、军地统筹，调动全国各方面医疗资源和物资，确保防控工作所需，全力以赴密切合作。', '二是要进一步落实属地责任。特别是强化地方各级党委政府的责任。落实属地责任，既是中央的要求，也是《传染病防治法》等法律的规定，更是当前防控工作的需要。据我们了解，各省普遍建立了由党委政府主要负责同志挂帅的领导体制和多部门参与的联防联控机制。', '三是加强对各地防控工作的指导。卫生健康委已对全国各省份防控工作进行了第一轮全覆盖的督导，督查各项防控措施的落实。国务院联防联控工作机制有关部门下一步还将视情况开展督导。同时，我们将向各省陆续派出工作组，指导地方开展防控工作。特别强调的是，疫情发生以来，广大医务工作人员付出了艰苦的劳动，武汉等交通管制地区的广大市民积极配合防控措施，为进一步控制疫情扩散创造了条件。我们相信，有习近平同志为核心的党中央的坚强领导，有全国人民作为坚强后盾，我们一定能打赢疫情防控阻击战。', '我做一下补充介绍。昨天中央政治局常委会召开会议以后，交通运输部高度重视，认真贯彻落实习近平总书记、李克强总理就防疫工作的重要指示，连夜进行了学习，贯彻落实和部署。疫情就是命令，防控就是责任，从22日到25日，交通运输部传堂同志、小鹏同志连续召开了六次防控机制的工作会，多次用视频调度的方式和各地交通运输部门加强调度，特别是和湖北、武汉交通运输部门工作的调度。重点有几方面工作，可以向大家报告一下：', '我们及时开展了防控部署。1月21日，交通运输部启动了防控新型冠状病毒感染的肺炎疫情的二级应急响应，建立了交通运输部的联防联控机制，连夜进行了部署，因地制宜地对汽车、船舶等交通工具和车站、码头、高速公路服务区这些场所进行通风、消毒和旅客体温的检测等相关措施。当前，疫情的防控同时又叠加春运的保障工作，我们也希望广大出行者能够积极加强自我防护，科学安排好行程，自觉配合检查和隔离工作。大家共同努力，我相信我们一定能够打赢这场攻坚战。', '疫情发生后，工信部党组十分重视，我们的任务就是牵头做好防控物资保障工作。因为正值春节放假时期，防控物资供需矛盾非常突出，我们采取了几项措施强化保障工作。', '五是千方百计保证武汉防控物资的需求。从23日以来，我们收到了武汉方面四批物资的需求清单，大致是四大类20多个品种，大部分物资供应能够满足需要，但是像防护服、口罩这一类的物资需求显得十分突出。大家都知道，中国是生产大国，但是因为春节放假，我们的生产能力没有发挥出来，通过这段时间的努力，复工复产面达到了40%，但是像防护服这样的产品仍然难以满足需求。湖北省给我们提供的需求清单，大致是每天10万件医用防护服，一个月是300万件。但是，符合中国标准的产能许可的只有40家企业，分布在14个省，总的生产能力每天只有3万套，供求矛盾非常突出。', '另外，我们确实也有一部分出口的生产能力，大约是每天5万套的生产能力，但是没有中国标准的许可，转换到国内销售还需要一点时间。', '下一步，我们要千方百计保证疫区的需要，我们了解到武汉医院缺物资，我们物资保障组的同志们寝食难安，十分揪心。下一步，我们要采取更多的措施，千方百计保证武汉的需求。第一，要动用中央储备来保证疫区的需要。第二，要千方百计复工复产，把现在的产能从40%迅速提高。第三，要推动出口标准和中国标准的衔接，使符合欧盟标准、美国标准的出口产品能够在中国的一些领域中可以使用。最后，我们要加强国际合作。事实上我们已经推动国际采购来解决国内的需要，我就补充这么多。', '第三，要推动出口标准和中国标准的衔接，使符合欧盟标准、美国标准的出口产品能够在中国的一些领域中可以使用。', '我有两个问题，第一是关于交通限制的问题。我们知道，有一些中国的城市已经开始实施公共交通以及城际交通等方面的限制措施，我想问的是，这样的限制措施是否会推广到全国？第二是关于新型冠状病毒肺炎疫情的严重程度，这一次的疫情是否将会比SARS更加严重，死亡率和感染率是否会更胜于SARS？', '关于您所关心的问题，实际上涉及到我们目前所采取的措施，交通相关的管理是一个方面。现在我们采取的措施是根据疫情形势的需要，不断进行调整，而且这些调整都是依法依规进行的。目前这些措施都是最为严厉的措施，无论从国际上来看，还是从国内来看，都是基于实际抗击传染病过程中所积累的经验采取的措施。这些措施如果能够得以实施，专家估计，疫情扩散的势头有望得到遏制，流行的强度也会减弱，流行的高峰也将会延迟，为下一阶段更有效的防控争取时间。', '目前这些措施都是最为严厉的措施，无论从国际上来看，还是从国内来看，都是基于实际抗击传染病过程中所积累的经验采取的措施。', '疫情扩散的势头有望得到遏制，流行的强度也会减弱，流行的高峰也将会延迟，为下一阶段更有效的防控争取时间。', '另外，你关注的关于病毒的问题，实际上也涉及到疫情下一步发展的问题。对此我们高度关注。从我们的认识来讲，这个疾病是一种新发的疾病，人类对它的认识还是有限的，对疾病可能的变化还不清楚，疫情进展的情况还不完全掌控在我们手中，我们会根据疫情的不断变化，不断调整政策，完善措施，落实各项防控要求。这样，我们才能够有充分的准备，不断提高我们的能力来应对疫情变化，有效达到防控目标，控制疫情。', '我再补充回答一下法新社记者的提问。您的提问非常好。因为交通运输，特别是交通工具是可能传播病毒的一个途径，一些地方和城市对交通工具、交通运输的方式有所限制，这是必要的，可以有效地通过这种方式来阻断病毒传播的通道。', '我想各位记者可能都关注到了，比如昨天北京对长途客运暂缓恢复运行，原来北京长途客运初一到初四是停运的，从初五开始恢复，现在暂缓了这项工作。同时大家可能注意到，上海有一条地铁和苏州相通，今天下午的1点不再往江苏方向通行。目的是守土有责，阻隔病毒传染的渠道。我们觉得这些措施还是很有效的，中国有一句古话，“鞋合不合脚，自己最知道”。各地党委政府在统筹安排自身措施的时候，都会因地制宜采取措施。', '大家也关注到，从交通运输部门来说，除了刚才介绍的一些情况，我们对长途客运、民航、铁路分别都有一些部署，一方面要落实交通工具的通风、消毒，在一些场站设置留观室，测到体温异常的，要在留观室进一步监测，确有必要的由卫健部门统一进行安排。', '有一点，我需要和大家说明，部分城市采取了一些措施，并不影响整个城市的运行，老百姓合理的出行是能够保障的，重点物资的运输是能够保障的，老百姓生活物资也是优先保障的。', '大家可能也注意到，为了减少人员流动，铁路、民航、道路交通第一时间实行免退票费政策，原来仅仅针对进出武汉，后来扩展到全国，体现了政府更好地关心老百姓的出行。谢谢。', '这次疫情发生以来，我国的科学家，特别是病毒学家做了大量的工作，在疫情发生一周以后就从病人样本当中分离出了新型冠状病毒，并且找到了病原体。从基因测序情况来看，新型冠状病毒同SARS病毒和MERS病毒相比是不同的新型毒株，在冠状病毒的家族当中，增加了一个新的成员。从临床流行病学的资料情况来看，初步了解到，这个病毒初期可能从野生动物到人类，现在逐步开始适应在人类身上生存，并进入到人传人的时期，从现在临床病例来看，有一部分重症病例，也有一部分轻症病例，病毒已经开始在人间进行传播。根据近期的临床资料来看，病毒的传播力似乎有所增强，病毒的毒性和致病力还需要依据更多临床资料进行分析。', '从现在来看，疫情传播的速度比较快，给防控工作带来了一些挑战和压力。专家预判，现在疫情进入比较严峻复杂的时期，武汉的防控工作采取的措施对控制疫情发挥着重要作用。从全国面上工作来看，疫情还处于早期散发阶段。现在全国采取了更加有力的措施，这些措施应该能够以更低的成本、更快的速度控制住疫情，取得这次防控工作的最后胜利。', '请问为何武汉出现了300多例肺炎患者政府就开始“封城”，官方是否存在瞒报实际患病人数和疑似患者数据？请问目前武汉实际感染人数到底有多少？谢谢。', '武汉的实际感染人数，在卫生健康委网站上已经发布，我再给大家通报一下。我委接到湖北省卫生健康委报告，截至1月25日24时，湖北省武汉市累计报告了618例确诊病例，其中出院40例，现在住院533例，死亡45例。住院病例中还有140例重症病例，湖北省武汉市还报告现有疑似病例112例。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>292</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>固原市教育体育局关于印发固原市教育体育局行政权力清单的通知</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202004/t20200402_2009667.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['按照《关于做好政府部门权责清单调整工作的通知》（固编办发〔2019〕36号）要求，对照《自治区教育厅权力清单指导目录》和《自治区体育系统权力清单指导目录》，对市教育体育局行政权力事项进行了规范和完善', '第十三条第一款 中小学教师资格由县级以上地方人民政府教育行政部门认定。中等专业学校、技工学校的教师资格由县级以上地方人民政府教育行政部门组织有关主管部门认定。', '第十三条 幼儿园、小学和初级中学教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门认定。高级中学教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门审查后，报上一级教育行政部门认定。中等职业学校教师资格和中等职业学校实习指导教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门审查后，报上一级教育行政部门认定或者组织有关部门认定。', '第十六条 自治区教育厅负责全区各级各类学校教师资格认定的指导、协调和管理工作。按照属地化原则，以申请人户籍或工作单位所在地为依据，地（市）教育局（教委）负责本辖区高级中学教师资格、中等职业学校（含实习指导）教师资格的认定和管理；县（市、区）教育局（教委）负责本辖区幼儿园、小学和初级中学教师资格的认定和管理。', '第十一条 凡年满六周岁的儿童，其父母或者其他法定监护人应当送其入学接受并完成义务教育；条件不具备的地区的儿童，可以推迟到七周岁。', '适龄儿童、少年因身体状况需要延缓入学或者休学的，其父母或者其他法定监护人应当提出申请，由当地乡镇人民政府或者县级人民政府教育行政部门批准。', '第十九条 学生休学由父母或其他监护人提出书面申请，学校审核同意后，通过电子学籍系统报学籍主管部门登记。复学时，学校应及时办理相关手续。', '《教育部办公厅关于进一步规范中小学生学籍管理相关问题处理的通知》（教基一厅〔2016〕2号）', '第七条 学生因入学、休学、复学、转学、退学等原因使学籍信息发生变化及学籍进行转接或学生毕业（结业、肄业）时，学校应及时维护电子学籍系统中的有关信息，并将证明材料归入学校学籍档案和学生学籍档案。各级教育行政部门的学籍主管部门应及时通过电子学籍系统对学校学籍档案和学生学籍变动信息进行更新、合办并向上级教育行政部门呈报。', '第十五条 学校或者校车服务提供者申请取得校车使用许可，应当向县级或者设区的市级人民政府教育行政部门提交书面申请和证明其符合本条例第十四条规定条件的材料。教育行政部门应当自收到申请材料之日起3个工作日内，分别送同级公安机关交通管理部门、交通运输部门征求意见，公安机关交通管理部门和交通运输部门应当在3个工作日内回复意见。教育行政部门应当自收到回复意见之日起5个工作日内提出审查意见，报本级人民政府。本级人民政府决定批准的，由公安机关交通管理部门发给校车标牌，并在机动车行驶证上签注校车类型和核载人数；不予批准的，书面说明理由。', '【国务院决定】《国务院对确需保留的行政审批项目设定行政许可的决定》（2004年国务院令第412号）', '附件第336项：举办健身气功活动及设立站点审批（实施机关：县级以上人民政府体育行政主管部门）。', '第十一条第三款 省（区、市）内举办的健身气功活动，经具有相应管辖权限的体育行政部门批准；跨地区的健身气功活动，经所跨地区共同的上一级体育行政部门批准。', '第三十二条 企业、个体工商户经营高危险性体育项目的，应当符合下列条件，并向县级以上地方人民政府体育主管部门提出申请：', '县级以上地方人民政府体育主管部门应当自收到申请之日起30日内进行实地核查，做出批准或者不予批准的决定。批准的，应当发给许可证；不予批准的，应当书面通知申请人并说明理由。', '国务院体育主管部门应当会同有关部门制定、调整高危险性体育项目目录，经国务院批准后予以公布。', '【规范性文件】《自治区人民政府关于第九批取消和调整行政审批项目等事项的决定》（宁政发〔2013〕84号）', '附件1目录第69项 经营高危险性体育项目许可，下放到设区的市和县级人民政府体育行政主管部门。', '【法律】《中华人民共和国体育法》（1995年中华人民共和国主席令第五十五号公布，根据 2009年中华人民共和国主席令第十八号修改）', '第四十六条 任何组织和个人不得侵占、破坏公共体育设施。因特殊情况需要临时占用体育设施的，必须经体育行政部门和建设规划部门批准，并及时归还。', '第十四条 临时占用公共体育场地的，必须经所在地县级以上人民政府体育行政主管部门批准，并缴纳占用费。', '附件1目录第70项：临时占用体育场地、设施审批，下放到设区的市和县级人民政府体育行政主管部门。', '第七十五条 违反国家有关规定，举办学校或者其他教育机构的，由教育行政部门或者其他有关行政部门予以撤销；有违法所得的，没收违法所得；对直接负责的主管人员和其他直接责任人员，依法给予处分。', '由县级以上人民政府教育行政部门、人力资源社会保障行政部门或者其他有关部门责令限期改正，并予以警告；有违法所', '得的， 退还所收费用后没收违法所得；情节严重的，责令停止招生、吊销办学许可证；构成犯罪的，依法追究刑事责任：', '第六十四条 违反国家有关规定擅自举办民办学校的，由所在地县级以上地方人民政府教育行政部门或者人力资源社会保障行政部门会同同级公安、民政或者工商行政管理等有关部门责令停止办学、退还所收费用，并对举办者处违法所得一倍以上五倍以下罚款；构成违反治安管理行为的，由公安机关依法给予治安管理处罚；构成犯罪的，依法追究刑事责任。', '第十二条 违反法律、法规和国家有关规定举办学校或其他教育机构的，由教育行政部门予以撤销；有违法所得的，没收违法所得。', '社会力量举办的教育机构，举办者虚假出资或者在教育机构成立后抽逃出资的，由审批的教育行政部门责令改正；拒不改正的，处以应出资金额或者抽逃资金额两倍以下、最高不超过十万元的罚款；情节严重的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。', '第十五条 社会力量举办的学校或者其他教育机构不确定各类人员的工资福利开支占经常办学费用的比例或者不按照确定的比例执行的，或者将积累用于分配或者校外投资的，由审批的教育行政部门责令改正，并可给予警告；情节严重或者拒不改正的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。', '第十六条 社会力量举办的学校或者其他教育机构管理混乱，教学质量低下，造成恶劣影响的，由审批的教育行政部门限期整顿，并可给予警告；情节严重或经整顿后仍达不到要求的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。', '第八十二条第一款 学校或者其他教育机构违反本法规定，颁发学位证书、学历证书或者其他学业证书的，由教育行政部门或者其他有关行政部门宣布证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、颁发证书资格；对直接负责的主管人员和其他直接责任人员，依法给予处分。', '第十七条 学校或其他教育机构违反法律、行政法规的规定，颁发学位、学历或者其他学业证书的，由教育行政部门宣布该证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，取消其颁发证书的资格。', '对辖区内学校或者其他教育机构违反教育法规定颁发学历证书或者其他学业证书的，由教育行政部门或者其他有关行政部门宣布证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、颁发证书资格', '被撤销教师资格的，自撤销之日起５年内不得重新申请认定教师资格，其教师资格证书由县级以上人民政府教育行政部门收缴。', '第二十六条 按照《教师资格条例》应当被撤销教师资格者，由县级以上人民政府教育行政部门按教师资格认定权限会同原发证机关撤销资格，收缴证书，归档备案。被撤销教师资格者自撤销之日起5年内不得重新取得教师资格。', '第二十七条 对使用假资格证书的，一经查实，按弄虚作假、骗取教师资格处理，5年内不得申请认定教师资格，由教育行政部门没收假证书。对变造、买卖教师资格证书的，依法追究法律责任。', '第十八条 教师有下列情形之一的，由教育行政部门给予撤销教师资格、自撤销之日起五年内不得重新申请认定教师资格的处罚：', '第七十六条 学校或者其他教育机构违反国家有关规定招收学生的，由教育行政部门或者其他有关行政部门责令退回招收的学生，退还所收费用；对学校、其他教育机构给予警告，可以处违法所得五倍以下罚款；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、吊销办学许可证；对直接负责的主管人员和其他直接责任人员，依法给予处分；构成犯罪的，依法追究刑事责任。', '第七十七条 在招收学生工作中徇私舞弊的，由教育行政部门或者其他有关行政部门责令退回招收的人员；对直接负责的主管人员和其他直接责任人员，依法给予处分；构成犯罪的，依法追究刑事责任。', '对辖区内学校或者其他教育机构违反国家有关规定招收学生的，责令退回招收的学生，退还所收费用；对学校、其他教育机构给予警告，可以处违法所得五倍以下罚款；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、吊销办学许可证。', '第二十二条 地方语言文字工作部门和其他有关部门，管理和监督本行政区域内的国家通用语言文字的使用。', '第二十七条 违反本法规定，干涉他人学习和使用国家通用语言文字的，由有关行政管理部门责令限期改正，并予以警告。', '第五十六条第三款 国家机关工作人员和教科书审查人员参与或者变相参与教科书编写的，由县级以上人民政府或者其教育行政部门根据职责权限责令限期改正，依法给予行政处分；有违法所得的，没收违法所得。', '第三十一条 对违反本办法第八条第一款的，由上级或同级教育行政部门给予通报批评并责令其退出。', '对本辖区内国家机关工作人员和教科书审查人员参与或者变相参与教科书编写的，责令限期改正，有违法所得的，没收违法所得。', '国家教育委员会主管全国的幼儿园管理工作；地方各级人民政府的教育行政部门，主管本行政辖区内的幼儿园管理工作。', '第二十七条 违反本条例，具有下列情形之一的幼儿园，由教育行政部门视情节轻重，给予限期整顿、停止招生、停止办园的行政处罚：', '（二）园舍、设施不符合国家卫生标准、安全标准，妨害幼儿身体健康或者威胁幼儿生命安全的；', '第二十八条 违反本条例，具有下列情形之一的单位或者个人，由教育行政部门对直接责任人员给予警告、罚款的行政处罚，或者由教育行政部门建议有关部门对责任人员给予行政处分：', '第二十二条 凡违反《条例》和本办法，有下列行为之一的幼儿园，由县（市、区）教育行政部门责令限期改正或者停止招生、停止办园：', '第二十三条 凡违反《条例》和本办法，有下列行为之一的单位和个人，由县（市、区）教育行政部门对直接责任人员给予行政处罚，或者建议有关部门给予行政处分：', '（六）在幼儿园附近设置有危险、有污染或者影响幼儿园采光的建筑设施的，责令限期拆除，并处以罚款；', '（七）对危险园舍不采取有效措施的，给予行政处分，并通报批评，限期改正，逾期不改正的，责令停止招生。', '前款所列行为的罚款数额，由县（市、区）人民政府规定。违反《治安管理处罚条例》的，由公安机关依法处理；构成犯罪的，由司法机关依法追究刑事责任。', '对违反《幼儿园管理条例》规定的幼儿园，由主管教育行政部门责令限期改正或者停止招生、停止办园。', '第三十六条 拒绝或者妨碍学校卫生监督员依照本条例实施卫生监督的，由卫生行政部门对直接责任单位或者个人给予警告。情节严重的，可以建议教育行政部门给予行政处分或者处以二百元以下的罚款。', '对拒绝或妨碍学校卫生监督员依条例监督，情节严重的，可以由同级卫生行政部门建议教育行政部门给予行政处分或者处以二百元以下的罚款。', '任何健身气功站点或健身气功功法名称均不得使用宗教用语，或以个人名字命名，或冠以“中国”、“中华”、“亚洲”、“世界”、“宇宙”以及类似字样。', '从事健身气功活动，不得进行愚昧迷信或神化个人的宣传，不得扰乱社会秩序、损害他人身体健康，不得借机聚敛钱财。不得举办“带功报告”、“会功”、“弘法”、“贯顶”及其他类似活动。不得销售未经国家指定机构审查、出版的健身气功类图书、音像制品和电子出版物；不得出售“信息物”。', '违反本办法第六条和第十五条规定的，由体育行政部门配合公安机关等有关部门予以取缔或查处。违反治安管理行为的，依照《中华人民共和国治安管理处罚法》予以处罚；构成犯罪的，依法追究刑事责任。', '违反本办法规定，擅自举办健身气功活动，或擅自设立健身气功站点的，由体育行政部门配合公安机关等有关部门予以取缔，并由公安机关根据《群众性文化体育活动治安管理办法》的规定进行处罚。', '对擅自经营高危险性体育项目，取得许可证后不再符合规定条件仍经营高危险性体育项目行为的处罚', '第三十六条 未经批准，擅自经营高危险性体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第三十七条 高危险性体育项目经营者取得许可证后，不再符合本条例规定条件仍经营该体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第二十七条 未经县级以上地方人民政府体育主管部门批准，擅自经营高危险性体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第二十八条 经营者取得许可证后，不再符合本办法规定条件仍经营该体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令限期改正；有违法所得的，没收违法所得；违法所得不足', '对擅自经营高危险性体育项目，取得许可证后不再符合规定条件仍经营高危险性体育项目的进行处罚', '第二十五条 经营者对体育执法人员依法履行监督检查职责，应当予以配合，不得拒绝、阻挠。', '第三十条 违反本办法第二十五条规定，由县级以上地方人民政府体育主管部门责令改正，处', '第二十一条 经营者应当将许可证、安全生产岗位责任制、安全操作规程、体育设施、设备、器材的使用说明及安全检查等制度、社会体育指导人员和救助人员名录及照片张贴于经营场所的醒目位置。', '第二十二条 经营者应当就高危险性体育项目可能危及消费者安全的事项和对参与者年龄、身体、技术的特殊要求，在经营场所中做出真实说明和明确警示，并采取措施防止危害发生。', '第二十三条 经营者应当按照相关规定做好体育设施、设备、器材的维护保养及定期检测，保证其能够安全、正常使用。', '第二十四条 经营者应当保证经营期间具有不低于规定数量的社会体育指导人员和救助人员。社会体育指导人员和救助人员应当持证上岗，并佩戴能标明其身份的醒目标识。', '第二十九条 违反本办法第二十一条、第二十二条、第二十三条、第二十四条规定，由县级以上地方人民政府体育主管部门责令限期改正，逾期未改正的，处', '第三十一条 公共文化体育设施管理单位，有下列行为之一的，由文化行政主管部门、体育行政主管部门依据各自职责责令限期改正，没收违法所得，违法所得', '第二十八条 对违反本条例，侵占、破坏学校体育场地、器材、设备的单位或者个人，由当地人民政府或者教育行政部门令其限期清退和修复场地、赔偿或者修复器材、设备。', '对违反本条例，侵占、破坏学校体育场地、器材、设备的单位或者个人，由当地教育行政部门令其限期清退和修复场地或者修复器材、设备', '第四十四条 义务教育经费投入实行国务院和地方各级人民政府根据职责共同负担，省、自治区、直辖市人民政府负责统筹落实的体制。农村义务教育所需经费，由各级人民政府根据国务院的规定分项目、按比例分担。', '【规范性文件】《国务院关于进一步完善城乡义务教育经费保障机制的通知》（国发〔2015〕67号）', '（一）统一城乡义务教育“两免一补”政策。对城乡义务教育学生免除学杂费、免费提供教科书，对家庭经济困难寄宿生补助生活费（统称“两免一补”）。民办学校学生免除学杂费标准按照中央确定的生均公用经费基准定额执行。免费教科书资金，国家规定课程由中央全额承担（含出版发行少数民族文字教材亏损补贴），地方课程由地方承担。家庭经济困难寄宿生生活费补助资金由中央和地方按照5', '对义务教育阶段所有学生免费提供教科书,对义务教育阶段公办寄宿制学校寄宿学生补助生活费。', '第三十八条 国家、社会对符合入学条件、家庭经济困难的儿童、少年、青年，提供各种形式的资助。', '学前一年教育资助实行以政府投入为主，学校、企事业单位、社会团体及慈善爱心人士积极参与的制度。从2012年春季学期开始，先行在固原市、原州区、盐池县等10个市、县（区）开展试点。', '资助对象县级以上教育行政部门批准设立的公办及普惠性民办幼儿园学前一年在园家庭经济困难儿童、孤儿和残疾儿童等（年龄满5周岁）。', '【规范性文件】《自治区教育厅 自治区财政厅关于扩大全区学前教育资助范围的通知》（宁教学〔2015〕224号）', '在总结开展学前一年教育资助制度试点工作的基础上，将资助范围扩大到全区县级以上教育行政部门审批设立，实施学前教育的公办和普惠性民办幼儿园学前二年在园家庭困难儿童。', '第六条 普通高中国家助学金平均资助标准为每生每年2000元，用于资助家庭经济困难学生的学习和生活费用开支，具体标准由各地结合实际在1000元-3000元范围内确定，可以分为2-3档。', '某省份中央财政应承担的国家助学金=该省份普通高中学生人数×资助面×资助标准×中央财政分担比例。', '第八条 自治区财政厅、教育厅在收到中央资金文件30日内，将国家助学金预算下达各市、县（区）财政、教育部门。各市、县（区）财政、教育部门负责将国家助学金分配名额和预算逐级下达到所属普通高中。', '（一）全面掌握学校安全工作状况，制定学校安全工作考核目标，加强对学校安全工作的检查指导，督促学校建立健全并落实安全管理制度；', '（二）建立安全工作责任制和事故责任追究制，及时消除安全隐患，指导学校妥善处理学生伤害事故；', '（三）及时了解学校安全教育情况，组织学校有针对性地开展学生安全教育，不断提高教育实效；', '（五）协调政府其他相关职能部门共同做好学校安全管理工作，协助当地人民政府组织对学校安全事故的救援和调查处理。', '第二十二条 各级教育行政部门应当负责监督、评估和指导幼儿园的保育、教育工作，组织培训幼儿园的师资，审定、考核幼儿园教师的资格，并协助卫生行政部门检查和指导幼儿园的卫生保健工作，会同建设行政部门制定幼儿园园舍、设施的标准。', '第十八条 各级教育行政部门应当把学校卫生工作纳入学校工作计划，作为考评学校工作的一项内容。', '第二十三条 各级教育行政部门应当健全学校体育管理机构，加强对学校体育工作的指导和检查。', '学校体育工作应当作为考核学校工作的一项基本内容。普通中小学校的体育工作应当列入督导计划。', '（2010年教育部令第30号修正）第三十条 各级教育行政部门及学校所属的卫生保健机构具有对学校食堂及学生集体用餐的业务指导和检查督促的职责，应定期深入学校食堂进行业务指导和检查督促。', '教育行政部门应当将国防教育列入工作计划，加强对学校国防教育的组织、指导和监督，并对学校国防教育工作定期进行考核。', '自治区教育厅 国家开发银行宁夏回族自治区分行关于印发我区生源地信用助学贷款工作考核暂行办法的通知', '第八条 由自治区教育厅组织，会同有关部门的人员组成考核小组，采取实地考察、查阅资料、召开座谈会，在结合日常工作记录的基础上进行评议等方式进行考核。', '自治区人民政府批转自治区财政厅教育厅关于扩大中等职业教育免学费政策范围进一步完善国家助学金制度意见的通知', '四、（一）自治区财政、发展改革、教育、人力资源社会保障等部门要加强督促检查，指导和协调各地认真做好扩大中等职业教育免学费政策范围和完善国家助学金制度的工作，推进中等职业教育办学模式改革。', '三、（二）要加强监督检查，对于挤占挪用资金、弄虚作假套取资金等行为，按照《财政违法行为处罚处分条例》（国务院令第427号）等有关规定，严肃追究直接责任人和相关领导的责任。', '五、（四）各级教育、监察、财政、审计、价格等有关部门要齐抓共管，加强对义务教育经费保障机制资金使用管理，学校收费等情况的监督检查。', '（财教〔2011〕410号）三、（三）各级财政、教育部门要与审计、监察等有关部门密切合作，齐抓共管，加强学前教育资助政策落实情况的监督检查。', '（四）加快发展学前教育。……到2020年，自治区级示范园达到160所以上。教育督导部门要加强对学前教育的督导，建立学前教育质量科学评价体系。', '【规范性文件】《自治区教育厅关于印发&lt;宁夏回族自治区幼儿园分类评定验收标准（修订）&gt;的通知》（宁教基〔201', '一、关于幼儿园分类评定验收职责及程序。自治区教育厅负责自治区级示范幼儿园的评估和复验；地级市教育行政部门负责自治区级示范园的申报和一类幼儿园的评估和复验；县（市、区）级教育行政部门负责二、三类幼儿园的评估和一类幼儿园的申报工作。幼儿园在对照《标准》进行自评并拟定申报类别后，在县（市、区）教育行政部门组织专家评审的基础上，将评审结果逐级上报。', '第一条 各市、县（区）教育行政部门对申报的民办幼儿园进行检查，评估，严格把关，达到申报条件的，可以确定为普惠性民办幼儿园，评定结果报教育厅基础教育处备案。', '第九条 总局授予各省级体育行政部门、新疆生产建设兵团体育局、总参军训部军事体育训练局、总政宣传部文化体育局一级运动员、二级运动员、三级运动员审批权。', '第十条 各省级体育行政部门根据实际情况，可以将二级运动员、三级运动员审批权授予本行政区域内地市级体育行政部门，可以将三级运动员审批权授予本行政区域内县级体育行政部门。', '第十七条 三级裁判员技术等级认证标准：年满18周岁中国公民，具备高中以上学历，能够掌握和运用本项目竞赛规则和裁判法，经培训并考核合格者。', '周岁中国公民，具备高中以上学历，能够掌握和运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第十八条 二级裁判员技术等级认证标准：具有一定的裁判工作经验；任本项目三级裁判员满一定年限，能够掌握和正确运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第十九条 一级裁判员技术等级认证标准：具备担任省级体育竞赛裁判员的经历，任本项目二级裁判员满一定年限，能够掌握和准确运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第二十三条 各全国单项协会、各省、自治区、直辖市政府体育主管部门或同级地方单项协会可根据本项目、本地区开展裁判员技术等级认证的条件，组织一级（含）以下的裁判员技术等级认证等工作。', '第十一条第二款 国家实行社会体育指导员技术等级制度。社会体育指导员对社会体育活动进行指导。', '第十四条 各级体育主管部门或经批准的协会按照社会体育指导员技术等级标准，批准授予相应等级社会体育指导员称号：……（三）省级体育主管部门或经批准的全国性协会批准授予一级社会体育指导员技术等级称号；……', '第三十三条 教师在教育教学、培养人才、科学研究、教学改革、学校建设、社会服务、勤工俭学等方面成绩优异的，由所在学校予以表彰、奖励。', '【地方性法规】宁夏回族自治区实施《中华人民共和国教师法》办法（2001年1月11日宁夏回族自治区第八届人民代表大会常务委员会公告公布）', '第十一条 各级人民政府及其有关行政部门应当对优秀教师给予表彰和奖励。对有突出贡献的教师，依照国家和自治区有关规定授予荣誉称号或者给予政府特殊津贴。', '教龄满三十年以上的男性教师和满二十五年以上的女性教师，从教师岗位上退休时，由自治区教育行政部门授予终身从事教育荣誉证书。', '社会组织或者公民对教师进行褒奖的，应当事先征求所在地的县（市、区）教育行政部门或者学校的意见。', '各级人民政府及其有关行政部门应当对优秀教师给予表彰和奖励。对有突出贡献的教师，依照国家和自治区有关规定授予荣誉称号或者给予政府特殊津贴。', '第十条 对在义务教育实施工作中做出突出贡献的社会组织和个人，各级人民政府及其有关部门按照有关规定给予表彰、奖励。', '第二十一条 凡符合《条例》要求，在改善幼儿园办园条件，或者从事幼儿园管理及保育、教育工作取得显著成绩的单位和个人，由各级教育行政部门和有关部门给予奖励。', '对民办教育突出贡献组织或个人的表彰奖励、对向民办学校捐赠财产的公民、法人或者其他组织的表彰', '第四十五条 县级以上各级人民政府可以设立专项资金，用于资助民办学校的发展，奖励和表彰有突出贡献的集体和个人。', '第四十八条 民办学校依照国家有关法律、法规，可以接受公民、法人或者其他组织的捐赠。国家对向民办学校捐赠财产的公民、法人或者其他组织按照有关规定给予税收优惠，并予以表彰。', '第三十一条 有下列事迹之一的单位和个人，由各级人民政府或者教育行政主管部门给予表彰和奖励：（一）认真执行本条例，在民族教育工作中成绩显著的；（二）自愿捐资助学，支持民族教育发展成绩突出的；（三）长期从事民族教育事业，贡献突出的。', '第十一条 国家和社会对在国防教育工作中作出突出贡献的组织和个人，采取各种形式给予表彰和奖励。', '第19条 各级学生军训工作领导机构要全面掌握本区域学生军训工作情况，及时表彰和奖励在学校军训工作中取得突出成绩的单位和个人。', '第六十条 教育、公安、司法行政、建设、交通、文化、卫生、工商、质检、新闻出版等部门，对在学校安全工作中成绩显著或者做出突出贡献的单位和个人，应当视情况联合或者分别给予表彰、奖励。', '第二十六条 对在学校体育工作中成绩显著的单位和个人，各级教育、体育行政部门或者学校应当给予表彰、奖励。', '第三十一条 对在学校卫生工作中成绩显著的单位或者个人，各级教育、卫生行政部门和学校应当给予表彰、奖励。', '第十七条 教育行政部门和学校对于在学校艺术教育工作中取得突出成绩的单位和个人，应当给予表彰和奖励。', '【规范性文件】《关于改进和加强我区普通中学评选表彰三好学生、优秀学生干部的意见》（宁教普发〔1992〕127号）', '第三十九条 教师对学校或者其他教育机构侵犯其合法权益的，或者对学校或者其他教育机构作出的处理不服的，可以向教育行政部门提出申诉，教育行政部门应当在接到申诉的三十日内，作出处理。', '第二十五条 教师对学校或者其他教育机构侵犯其合法权益的行为，可以向教育行政部门提出申诉。', '（四）对学校给予的处分不服向有关部门提出申诉，对学校、教师侵犯其人身权、财产权等合法权益，提出申诉或者依法提起诉讼；', '第六十二条 学生对复查决定有异议的，在接到学校复查决定书之日起15日内，可以向学校所在地省级教育行政部门提出书面申诉。', '省级教育行政部门应当在接到学生书面申诉之日起30个工作日内，对申诉人的问题给予处理并作出决定。', '第四十三条 民办学校侵犯受教育者的合法权益，受教育者及其亲属有权向教育行政部门和其他有关部门申诉，有关部门应当及时予以处理。', '对辖区内民办普通高中、民办中等职业学校侵犯受教育者的合法权益，受教育者及其亲属向自治区教育厅提出申诉的处理', '第十五条第一款 学生因户籍迁移、家庭搬迁或个人意愿等原因可以申请转学。转学由学生本人和监护人提出申请，经转出学校同意，再向转入学校提出转学申请，转入学校同意后办理转学手续。对跨省转学的学生，由转入、转出学校分别报所在市级和省级教育行政部门备案。', '第十九条 学生非正常死亡，学校应当及时报教育主管部门备案，教育主管部门逐级上报至省级教育行政部门备案。', '【规范性文件】《自治区人民政府办公厅转发教育厅等部门关于促进民办教育发展若干意见（试行）的通知》（宁政办发〔2011〕147号）', '深入开展依法治校示范学校创建活动。推进依法治校要立足学校需求,结合实际、分类指导、示范引领。不同层次、不同类型的学校要根据本纲要,结合自身特点和需要,制定本校依法治校的具体办法。地方各级教育行政部门要及时总结在依法治校实践中形成的典型经验与成功做法,完善对不同层次、类型学校依法治校的具体要求,分类实施指导。要进一步完善依法治校示范校的评价标准,将依法治校示范学校创建活动制度化、规范化,在国家和地方层面,开展依法治校示范学校创建活动,积极推广典型经验,推动各级各类学校依法治校水平的整体提高。', '【规范性文件】《教育部办公厅关于开展依法治校示范校创建活动的通知》（教政法厅〔2003〕4号）', '（二）各地根据实施方案和依法治校具体要求，开展本地区依法治校工作和创建本地区依法治校示范校。', '第三条第二款 省级教育行政部门负责本地区依法治校示范校创建工作的组织实施,按照依法治校示范校的基本要求,从本地区依法治校的先进校中推荐教育部依法治校示范校候选学校。', '第七十九条 考生在国家教育考试中有下列行为之一的,由组织考试的教育考试机构工作人员在考试现场采取必要措施予以制止并终止其继续参加考试；组织考试的教育考试机构可以取消其相关考试资格或者考试成绩；情节严重的,由教育行政部门责令停止参加相关国家教育考试一年以上三年以下；构成违反治安管理行为的,由公安机关依法给予治安管理处罚；构成犯罪的,依法追究刑事责任：（一）非法获取考试试题或者答案的；（二）携带或者使用考试作弊器材、资料的；（三）抄袭他人答案的；（四）让他人代替自己参加考试的；（五）其他以不正当手段获得考试成绩的作弊行为。', '第四条 国务院教育行政部门及地方各级人民政府教育行政部门负责全国或者本地区国家教育考试组织工作的管理与监督。', '承办国家教育考试的各级教育考试机构负责有关考试的具体实施,依据本办法,负责对考试违规行为的认定与处理。', '考生有第六条、第七条所列考试作弊行为之一的，其所报名参加考试的各阶段、各科成绩无效；参加高等教育自学考试的，当次考试各科成绩无效。', '有下列情形之一的，可以视情节轻重，同时给予暂停参加该项考试1至3年的处理；情节特别严重的，可以同时给予暂停参加各种国家教育考试1至3年的处理：', '参加高等教育自学考试的考生有前款严重作弊行为的，也可以给予延迟毕业时间1至3年的处理，延迟期间考试成绩无效。', '第十条 考生有第八条所列行为之一的,应当终止其继续参加本科目考试,其当次报名参加考试的各科成绩无效；考生及其他人员的行为违反《中华人民共和国治安管理处罚法》的,由公安机关进行处理；构成犯罪的,由司法机关依法追究刑事责任', '由组织考试的教育考试机构工作人员在考试现场采取必要措施予以制止并终止违法违规考生继续参加考试', '第四十一条 教育行政部门及有关部门依法对民办学校实行督导,建立民办学校信息公示和信用档案制度，促进提高办学质量；组织或者委托社会中介组织评估办学水平和教育质量,并将评估结果向社会公布。', '第三十二条 教育行政部门、劳动和社会保障行政部门应当加强对民办学校的日常监督,定期组织和委托社会中介组织评估民办学校办学水平和教育质量,并鼓励和支持民办学校开展教育教学研究工作,促进民办学校提高教育教学质量。 教育行政部门、劳动和社会保障行政部门对民办学校进行监督时,应当将监督的情况和处理结果予以记录,由监督人员签字后归档。公众有权查阅教育行政部门、劳动和社会保障行政部门的监督记录。', '第八条 人民政府教育督导机构对义务教育工作执行法律法规情况、教育教学质量以及义务教育均衡发展状况等进行督导,督导报告向社会公布。', '第二条第二款 教育督导包括以下内容：（一）县级以上人民政府对下级人民政府落实教育法律、法规、规章和国家教育方针、政策的督导；（二）县级以上地方人民政府对本行政区域内的学校和其他教育机构（以下统称学校）教育教学工作的督导。', '教育部、公安部、司法部、建设部、交通部、文化部、卫生部、国家工商行政管理总局、国家质量监督检验检疫总局、新闻出版总署令第23号', '第六条 评价的内容主要包括：省级人民政府贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为情况。', '【规范性文件】《自治区教育厅办公室关于印发宁夏回族自治区贯彻落实〈对省级人民政府履行教育职责的评价办法〉实施方案的通知》（宁政办发〔2017〕179号）', '自治区人民政府和各市、县（区）人民政府及其有关部门贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，完成教育重点工作任务情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为情况等。', '贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>292</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>为推进中国式现代化注入强大动力习近平总书记同出席年全国两会人大代表政协委员共商国是纪实</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202403/t20240312_4481520.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['为推进中国式现代化注入强大动力——习近平总书记同出席2024年全国两会人大代表、政协委员共商国是纪实_固原市人民政府', '为推进中国式现代化注入强大动力——习近平总书记同出席2024年全国两会人大代表、政协委员共商国是纪实', '新华社北京3月11日电 题：为推进中国式现代化注入强大动力——习近平总书记同出席2024年全国两会人大代表、政协委员共商国是纪实', '题：为推进中国式现代化注入强大动力——习近平总书记同出席2024年全国两会人大代表、政协委员共商国是纪实', '新中国75周年华诞，实现“十四五”规划目标任务的关键一年。与此同时，全国人民代表大会迎来成立70周年，人民政协迎来成立75周年。', '连日来，习近平总书记出席十四届全国人大二次会议和全国政协十四届二次会议，参加江苏代表团审议，出席解放军和武警部队代表团全体会议，看望民革、科技界、环境资源界委员并参加联组会，同大家深入交流，共商国是，就发展新质生产力、推动高质量发展等发表一系列重要讲话，为推进中国式现代化注入强大动力。', '新的发展阶段、新的发展实践，需要新的发展理论来指导。去年以来，党的创新理论又一次丰富发展——', '从在地方考察时首次提出“新质生产力”这一重大概念，到中央经济工作会议上作出重要部署，再到中央政治局集体学习进行系统阐述，习近平总书记以深邃的战略眼光和高度的理论自觉，深刻回答了“什么是新质生产力、为什么要发展新质生产力、怎样发展新质生产力”的重大问题。', '今年全国两会，习近平总书记三次到团组，三次谈及“新质生产力”，进一步阐释了发展新质生产力的方法论。', '天合光能股份有限公司董事长高纪凡代表发言时，他的另一个身份——光伏科学与技术国家重点实验室主任，引起了总书记的注意。', '“在常州和上海都有，我们是企业和大学联合建设，打通基础研究、前沿研究、应用研究。”高纪凡说。', '“光伏产业从国产化来看还有什么短板？”“现在和电网的衔接有什么问题吗？”总书记问得十分详细。', '高纪凡告诉总书记，他所在的企业20多年来专注自主创新，奋力抢占光伏领域技术高点。通过校企合作、产学研贯通，走高水平科技自立自强的道路，装备、原材料基本上实现国产可控。', '在习近平总书记看来，新质生产力“特点是创新，关键在质优，本质是先进生产力”。这其中，科技创新起主导作用，是发展新质生产力的核心要素。', '去年全国两会期间，习近平总书记参加江苏代表团审议时，赋予江苏“着力打造具有全球影响力的产业科技创新中心”的重要使命。', '这一次，总书记勉励江苏“加快打造具有国际竞争力的战略性新兴产业集群，使江苏成为发展新质生产力的重要阵地”。', '审议中，江苏省主要负责同志介绍了一年来这个东部经济大省高质量发展情况：全社会研发投入强度3.2%左右，工业战略性新兴产业、高新技术产业占比提高到41.3%和49.9%……', '“你们是制造业大省。全国经济总量126万亿，你们12.8万亿，正好十分之一，这个很厉害。江苏发展新质生产力具备良好的条件和能力。”习近平总书记说，“在好几次中央政治局会议上，我谈到经济发展，都点到广东、江苏等经济大省，我说你们不扛这个大梁，国家现代化是无法实现的。你们举足轻重，不可替代。”', '肯定成绩的同时，总书记又提出更高要求：“面对新一轮科技革命和产业变革，我们必须抢抓机遇，加大创新力度，培育壮大新兴产业，超前布局建设未来产业，完善现代化产业体系。”', '“当然，发展新质生产力不是要忽视、放弃传统产业，要防止一哄而上、泡沫化，也不要搞一种模式。”总书记话锋一转，道出了对发展新质生产力更深一层的考量。', '3月6日下午，北京友谊宾馆聚英厅里洋溢着民主团结求实奋进的氛围。习近平总书记同政协委员们共商国是，话题逐渐聚焦到“新质生产力”上。', '他结合工作经历，深有感触地说：“我国科研论文发明专利数量大，但落地转化少。我国企业专利转化还有较大空间。创新链与产业链‘相望难相见’，是阻碍新质生产力形成的卡点。”', '习近平总书记回应道：“过去研究和生产是‘两张皮’，现在科研成果转化率比过去高得多了，特别是企业自身直接研发形成成果转化，院校和企业形成共同体，这样的趋势、方向是对的，要快马加鞭，把激励、促进政策进一步抓好。”', '坚持实事求是，强调“各地要坚持从实际出发，先立后破、因地制宜、分类指导”；坚持深化改革，提出“着力打通束缚新质生产力发展的堵点卡点”；坚持科技创新，要求“掌握更多原创性、颠覆性科技创新成果，培育发展新质生产力的新动能”；在出席解放军和武警部队代表团全体会议时，要求“推动新质生产力同新质战斗力高效融合、双向拉动”……', '立足当前与长远、统筹区域和全局，习近平总书记进一步系统阐明发展新质生产力的理论和实践问题，为推动高质量发展、扎实推进中国式现代化领航定向。', '政协联组会上，听到北京首创生态环保集团黄绵松委员讲述的基层一线故事，习近平总书记插话追问。', '固原所在的西海固地区，“苦瘠甲天下”。无论在地方工作还是在中央工作，习近平同志都挂念着西海固，为这片土地的发展倾注了大量心血。', '黄绵松告诉总书记，在大家共同努力下，固原生态环境质量逐年改善，今年春节期间吸引世界各地游客42.8万人次，旅游收入达到2.15亿元，生态产品价值不断实现。', '“环保党中央一直很重视，特别是党的十八大以来有着飞速发展、巨大变化。”习近平总书记回忆起他小时候的北京城，“经常刮沙尘暴。春天戴口罩，摘下来一层灰。出门一天，家里地上一层土。”', '10年前，亚太经合组织（APEC）第二十二次领导人非正式会议在北京召开，美丽的蓝天令人心旷神怡。', '“那几天天气很好，当时有人问，这是‘APEC蓝’，能持久吗？我回答他们，这并不是短暂的蓝天，几年后它将是永久的蓝。”说起当年这个细节，习近平总书记的语气变得十分坚定。', '党的十八大以来，我国生态环境保护发生历史性、转折性、全局性变化。新时代的伟大变革，写在天更蓝、山更绿、水更清的美丽画卷中。', '从来之不易的成就谈到弥足珍贵的经验，习近平总书记强调：“风物长宜放眼量。不要光在那儿批评、指手画脚，而是真正行动，解决一点是一点。”“只要看到我们是在往前走着，就要保持定力。”', '习近平总书记首次来到这个界别，对委员们履职寄予厚望：“希望广大环境资源界委员在加强生态环境保护、以高水平保护支撑高质量发展上作出新贡献。”', '“以高水平保护支撑高质量发展”，体现了习近平总书记运用辩证法推动高质量发展的高超智慧。', '新征程上，以美丽中国建设全面推进人与自然和谐共生的现代化，处理好发展和保护的关系，以高质量发展推动高水平保护，迫切而重要。', '同样是来自环境资源界的胡松琴委员，在发言中表达了她对新污染物的担忧：“我国生态环境保护工作正在从‘雾霾’、‘黑臭’等感官指标治理，向具有长期性、隐蔽性危害的新污染物治理阶段发展。”', '“新污染物治理，这提的很及时，就是说要有治理的意识，让我们在这方面不至于落后。”总书记指出辩证看待、统筹处理新老问题的重要性，“有了新的问题，不能说前面的老问题还没处理完就可以歇歇手，要同步抓起来。人无远虑必有近忧，环境保护任重道远，还要继续抓好。”', '从“以高水平保护支撑高质量发展”到“统筹高质量发展和高水平安全”，从“夯实高质量发展的生态基础”到“拓展生态产品价值实现路径”，从“增强生态环保政策与宏观政策取向一致性”到“在发展中稳步提升民生保障水平”……统筹把握之际，取舍定夺之间，考验的是治国理政的强大定力和远见卓识。', '在江苏代表团，张家港市南丰镇永联村党委书记吴惠芳代表，带来了他在农村探索推动高质量发展和提升民生保障水平的思考与实践。', '这位从军25年的老兵，2005年脱下军装，通过自主择业到永联村工作。从此，建设共同富裕的幸福村成为了他的新“阵地”。', '“去年，永联村工农业总收入1616亿元，村集体经营性收入3.35亿元，村民人均纯收入7.3万元。村里企业发展起来后，我们通过明晰产权，让村民持有25%股权，去年村民人均二次分配1.7万元。”他向总书记一项项报告。', '“这个收入情况还是很厉害的。”习近平总书记高兴地说，“走共同富裕的乡村振兴道路，你们是先行者，要把这个路子蹚出来。要继续推进共同富裕，走中国式现代化道路。”', '面对在场的全国人大代表们，习近平总书记强调：“要坚持以人民为中心的发展思想，在发展中稳步提升民生保障水平，引导激励广大群众依靠自己的双手创造幸福生活。”', '面对习近平总书记，她的话语朴素有力：“工匠的‘匠’字就是在专业领域中对自己‘斤斤计较’一点，历经磨砺方能实现突破。”', '从业30多年，孙景南将焊接视为一门艺术，从学徒工成长为中国中车公司著名技能专家、外国专家眼中赫赫有名的“东方女焊神”。', '“你是大国工匠。”总书记向孙景南投去了赞许的目光，“大国工匠是我们中华民族大厦的基石、栋梁。新中国成立以后，我们一穷二白，从无到有，引进消化吸收再发展，自力更生艰苦奋斗，搞出一个独立自主的制造业基础。”', '总书记深情地说：“这一想啊，真是无比自豪。就拿交通来说，现在我国汽车产销量是全球最大的，新能源汽车是最好的，高速公路里程也是最长的，高铁走出去了，城市轨道交通也走出去了，轮船也走出去了，大飞机我们也造出来了，造船业的‘三大明珠’都造出来了……都是一步步往前走，不断地国产化，然后走在国际前头，并在不断突破。”', '“这里面很重要的就是工匠。光图纸设计得好还不行，最后要落实到焊工手里，没有世界顶级一流的水平，不可能做出最好的装备。所以，我们要实实在在地把职业教育搞好，要树立工匠精神，把第一线的大国工匠一批一批培养出来。这是顶梁柱，没有金刚钻，揽不了瓷器活。”总书记语重心长的一番话引发全场的共鸣。', '习近平总书记指出：“我们在弘扬工匠精神方面已经做得不错，但是远远不够，要给予他们相应的政治地位、社会地位和薪酬待遇，建立相应的激励机制。”', '2022年7月，习近平总书记给中国国家博物馆老专家的回信，让南京市博物总馆副馆长宋燕代表至今深受鼓舞。发言时，她讲述了南京市文博工作者守护文化遗产、传承中华文明、激发文化力量的故事。', '“南京的博物馆还是很有看头的，六朝古都，还有后面的明代、清代，东西还是很多的。博物馆很重要，我从小就爱看博物馆，小时候北京的博物馆我差不多都看过了。”习近平总书记亲切地对宋燕说。', '文脉悠长，积淀一个民族的底蕴。习近平总书记有感而发，希望广大群众特别是青少年多一些和博物馆的深度接触，进一步增强历史感。“要把博物馆事业搞好。博物馆建设要更完善、更成体系，同时发挥好博物馆的教育功能。”', '政协联组会上，来自民革的夏先鹏委员告诉总书记，中共十八大以来，以大陆巨大市场优势为坚实支撑，以两岸融合发展务实举措为政策支持，在新一轮科技革命与产业变革机遇下，两岸产业链供应链合作取得了长足发展。', '田红旗委员建议，加快建设两岸融合发展示范区，持续深化两岸各领域交流融合，推动两岸共同弘扬中华文化，促进两岸同胞心灵契合。', '习近平总书记希望民革在对台工作大局中进一步找准定位、发挥优势、积极作为，更好团结海内外、岛内外一切可以团结的爱国力量，不断壮大反“独”促统力量，共同推进祖国和平统一进程。', '展望新的征程，习近平总书记的话催人奋进：“要继续巩固和增强经济回升向好态势，提振全社会发展信心，党员干部首先要坚定信心、真抓实干。要抓住一切有利时机，利用一切有利条件，看准了就抓紧干，把各方面的干劲带起来。”']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>292</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>固原市教育体育局关于印发固原市教育体育局行政权力事项责任清单的通知</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/202004/t20200402_2009656.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['固原市教育体育局关于印发《固原市教育体育局行政权力事项责任清单》的通知_固原市人民政府', '按照《关于做好政府部门权责清单调整工作的通知》（固编办发〔2019〕36号）要求，对照《自治区教育厅责任清单汇总表》和《自治区体育局责任清单汇总表》，对市教育体育局行政权力事项责任清单进行了规范和完善', '第十三条第一款 中小学教师资格由县级以上地方人民政府教育行政部门认定。中等专业学校、技工学校的教师资格由县级以上地方人民政府教育行政部门组织有关主管部门认定。', '第十三条 幼儿园、小学和初级中学教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门认定。高级中学教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门审查后，报上一级教育行政部门认定。中等职业学校教师资格和中等职业学校实习指导教师资格，由申请人户籍所在地或者申请人任教学校所在地的县级人民政府教育行政部门审查后，报上一级教育行政部门认定或者组织有关部门认定。', '自治区教育厅负责全区各级各类学校教师资格认定的指导、协调和管理工作。按照属地化原则，以申请人户籍或工作单位所在地为依据，地（市）教育局（教委）负责本辖区高级中学教师资格、中等职业学校（含实习指导）教师资格的认定和管理；县（市、区）教育局（教委）负责本辖区幼儿园、小学和初级中学教师资格的认定和管理', '1.受理责任：公示依法应当公示的材料；一次性告知需要补正的材料；依法受理或不予受理（不予受理的应当告知理由）。', '3.决定责任：作出行政许可或者不予行政许可的决定，法定告知（不予许可的应当告知理由）。', '5．事后监管责任：建立实施监督检查的运行机制和管理制度，开展定期和不定期检查，依法采取相关处置措施。', '因不履行或不正确履行行政职责，有下列情形的，行政机关及相关工作人员应承担相应责任：', '1、对符合法定条件的许可申请不予受理、未依法公示材料、未一次告知需要补正内容、未依法说明不受理理由的；', '对不履行或不正确履行行政职责的行政机关及相关工作人员由上级行政机关或本级人民政府、监察机关、任免机关、政府法制机构，以下列方式追究其责任：', '1、给予受理人责令作出书面检查、批评教育、取消年度评比先进资格、暂扣行政执法证件、离岗培训、调离工作岗位、取消行政执法资格以及行政处分等责任追究；', '2、给予审核人和批准人诫勉谈话、责令限期整改、责令作出书面检查、责令公开道歉、取消年度评比先进资格、通报批评、责令停职反省或者责令辞职、建议免职以及行政处分等责任追究；', '第十一条 凡年满六周岁的儿童，其父母或者其他法定监护人应当送其入学接受并完成义务教育；条件不具备的地区的儿童，可以推迟到七周岁。', '适龄儿童、少年因身体状况需要延缓入学或者休学的，其父母或者其他法定监护人应当提出申请，由当地乡镇人民政府或者县级人民政府教育行政部门批准。', '第十九条 学生休学由父母或其他监护人提出书面申请，学校审核同意后，通过电子学籍系统报学籍主管部门登记。复学时，学校应及时办理相关手续。', '《教育部办公厅关于进一步规范中小学生学籍管理相关问题处理的通知》（教基一厅〔2016〕2号）全文引用。', '学生因入学、休学、复学、转学、退学等原因使学籍信息发生变化及学籍进行转接或学生毕业（结业、肄业）时，学校应及时维护电子学籍系统中的有关信息，并将证明材料归入学校学籍档案和学生学籍档案。各级教育行政部门的学籍主管部门应及时通过电子学籍系统对学校学籍档案和学生学籍变动信息进行更新、合办并向上级教育行政部门呈报。', '第十五条 学校或者校车服务提供者申请取得校车使用许可，应当向县级或者设区的市级人民政府教育行政部门提交书面申请和证明其符合本条例第十四条规定条件的材料。教育行政部门应当自收到申请材料之日起3个工作日内，分别送同级公安机关交通管理部门、交通运输部门征求意见，公安机关交通管理部门和交通运输部门应当在3个工作日内回复意见。教育行政部门应当自收到回复意见之日起5个工作日内提出审查意见，报本级人民政府。本级人民政府决定批准的，由公安机关交通管理部门发给校车标牌，并在机动车行驶证上签注校车类型和核载人数；不予批准的，书面说明理由。', '【国务院决定】《国务院对确需保留的行政审批项目设定行政许可的决定》（2004年国务院令第412号）', '附件第336项：举办健身气功活动及设立站点审批（实施机关：县级以上人民政府体育行政主管部门）。', '第十一条第三款 省（区、市）内举办的健身气功活动，经具有相应管辖权限的体育行政部门批准；跨地区的健身气功活动，经所跨地区共同的上一级体育行政部门批准。', '第三十二条 企业、个体工商户经营高危险性体育项目的，应当符合下列条件，并向县级以上地方人民政府体育主管部门提出申请：', '县级以上地方人民政府体育主管部门应当自收到申请之日起30日内进行实地核查，做出批准或者不予批准的决定。批准的，应当发给许可证；不予批准的，应当书面通知申请人并说明理由。', '国务院体育主管部门应当会同有关部门制定、调整高危险性体育项目目录，经国务院批准后予以公布。', '【规范性文件】《自治区人民政府关于第九批取消和调整行政审批项目等事项的决定》（宁政发〔2013〕84号）', '附件1目录第69项 经营高危险性体育项目许可，下放到设区的市和县级人民政府体育行政主管部门。', '【法律】《中华人民共和国体育法》（1995年中华人民共和国主席令第五十五号公布，根据 2009年中华人民共和国主席令第十八号修改）', '第四十六条 任何组织和个人不得侵占、破坏公共体育设施。因特殊情况需要临时占用体育设施的，必须经体育行政部门和建设规划部门批准，并及时归还。', '第十四条 临时占用公共体育场地的，必须经所在地县级以上人民政府体育行政主管部门批准，并缴纳占用费。', '附件1目录第70项：临时占用体育场地、设施审批，下放到设区的市和县级人民政府体育行政主管部门。', '第七十五条 违反国家有关规定，举办学校或者其他教育机构的，由教育行政部门或者其他有关行政部门予以撤销；有违法所得的，没收违法所得；对直接负责的主管人员和其他直接责任人员，依法给予处分', '【法律】《中华人民共和国民办教育促进法》（2016年修正）第六十二条 民办学校有下列行为之一的， 由县级以上人民政府教育行政部门、人力资源社会保障行政部门或者其他有关部门责令限期改正，并予以警告；有违法所得的， 退还所收费用后没收违法所得；情节严重的，责令停止招生、吊销办学许可证；构成犯罪的，依法追究刑事责任：', '（一）擅自分立、合并民办学校的（二）擅自改变民办学校名称、层次、类别和举办者的；（三）发布虚假招生简章或者广告，骗取钱财的；（四）非法颁发或者伪造学历证书、结业证书、培训证书、职业资格证书的；（五）管理混乱严重影响教育教学，产生恶劣社会影响的；（六）提交虚假证明文件或者采取其他欺诈手段隐瞒重要事实骗取办学许可证的；（七）伪造、变造、买卖、出租、出借办学许可证的；（八）恶意终止办学、抽逃资金或者挪用办学经费的。', '第六十四条 违反国家有关规定擅自举办民办学校的，由所在地县级以上地方人民政府教育行政部门或者人力资源社会保障行政部门会同同级公安、民政或者工商行政管理等有关部门责令停止办学、退还所收费用，并对举办者处违法所得一倍以上五倍以下罚款；构成违反治安管理行为的，由公安机关依法给予治安管理处罚；构成犯罪的，依法追究刑事责任。', '违反法律、法规和国家有关规定举办学校或其他教育机构的，由教育行政部门予以撤销；有违法所得的，没收违法所得。社会力量举办的教育机构，举办者虚假出资或者在教育机构成立后抽逃出资的，由审批的教育行政部门责令改正；拒不改正的，处以应出资金额或者抽逃资金额两倍以下、最高不超过十万元的罚款；情节严重的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。第十五条 社会力量举办的学校或者其他教育机构不确定各类人员的工资福利开支占经常办学费用的比例或者不按照比例执行的，或者将积累用于分配或者校外投资的，由审批的教育行政部门责令改正，并可给予警告；情节严重或者拒不改正的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。第十六条 社会力量举办的学校或者其他教育机构管理混乱，教学质量低下，造成恶劣影响的，由审批的教育行政部门限期整顿，并可给予警告；情节严重或经整顿后仍达不到要求的，由审批的教育行政部门给予责令停止招生、吊销办学许可证的处罚。', '对立案的案件，指定专人负责，及时组织调查取证，与当事人有直接利害关系的应当回避。执法人员不得少于两人，调查时应出示执法证件，允许当事人辩解陈述。', '对案件违法事实、证据、调查取证程序、法律适用、处罚种类和幅度、当事人陈述和申辩理由等方面进行审查，提出处理意见。', '在作出行政处罚决定前，应当书面告知当事人拟作出行政处罚决定的事实、理由及依据，并告知当事人依法享有陈述权、申辩权。符合听证条件的，告知有要求举行听证的权利。', '依法予以处罚的，制作行政处罚决定书，载明违法事实和证据、处罚依据和内容、救济途径以及听证情况等内容。', '对辖区内学校或者其他教育机构违反教育法规定颁发学历证书或者其他学业证书的，由教育行政部门或者其他有关行政部门宣布证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、颁发证书资格', '第八十二条第一款 学校或者其他教育机构违反本法规定，颁发学位证书、学历证书或者其他学业证书的，由教育行政部门或者其他有关行政部门宣布证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、颁发证书资格；对直接负责的主管人员和其他直接责任人员，依法给予处分。', '第十七条 学校或其他教育机构违反法律、行政法规的规定，颁发学位、学历或者其他学业证书的，由教育行政部门宣布该证书无效，责令收回或者予以没收；有违法所得的，没收违法所得；情节严重的，取消其颁发证书的资格。', '行政处罚决定书按法律规定的方式送达当事人。7.执行责任：监督当事人履行已经生效的行政处罚决定，当事人拒不履行的，申请人民法院强制执行', '被撤销教师资格的，自撤销之日起５年内不得重新申请认定教师资格，其教师资格证书由县级以上人民政府教育行政部门收缴。', '第二十六条 按照《教师资格条例》应当被撤销教师资格者，由县级以上人民政府教育行政部门按教师资格认定权限会同原发证机关撤销资格，收缴证书，归档备案。被撤销教师资格者自撤销之日起5年内不得重新取得教师资格。', '第二十七条 对使用假资格证书的，一经查实，按弄虚作假、骗取教师资格处理，5年内不得申请认定教师资格，由教育行政部门没收假证书。对变造、买卖教师资格证书的，依法追究法律责任。', '第十八条 教师有下列情形之一的，由教育行政部门给予撤销教师资格、自撤销之日起五年内不得重新申请认定教师资格的处罚：', '对辖区内学校或者其他教育机构违反国家有关规定招收学生的，责令退回招收的学生，退还所收费用；对学校、其他教育机构给予警告，可以处违法所得五倍以下罚款；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、吊销办学许可证。', '第七十六条 学校或者其他教育机构违反国家有关规定招收学生的，由教育行政部门或者其他有关行政部门责令退回招收的学生，退还所收费用；对学校、其他教育机构给予警告，可以处违法所得五倍以下罚款；情节严重的，责令停止相关招生资格一年以上三年以下，直至撤销招生资格、吊销办学许可证；对直接负责的主管人员和其他直接责任人员，依法给予处分；构成犯罪的，依法追究刑事责任。', '第七十七条 在招收学生工作中徇私舞弊的，由教育行政部门或者其他有关行政部门责令退回招收的人员；对直接负责的主管人员和其他直接责任人员，依法给予处分；构成犯罪的，依法追究刑事责任。', '第二十二条 地方语言文字工作部门和其他有关部门，管理和监督本行政区域内的国家通用语言文字的使用。', '第二十七条 违反本法规定，干涉他人学习和使用国家通用语言文字的，由有关行政管理部门责令限期改正，并予以警告。', '对本辖区内国家机关工作人员和教科书审查人员参与或者变相参与教科书编写的，责令限期改正，有违法所得的，没收违法所得。', '第五十六条第三款 国家机关工作人员和教科书审查人员参与或者变相参与教科书编写的，由县级以上人民政府或者其教育行政部门根据职责权限责令限期改正，依法给予行政处分；有违法所得的，没收违法所得。', '第三十一条 对违反本办法第八条第一款的，由上级或同级教育行政部门给予通报批评并责令其退出。', '对违反《幼儿园管理条例》规定的幼儿园，由主管教育行政部门责令限期改正或者停止招生、停止办园。', '国家教育委员会主管全国的幼儿园管理工作；地方各级人民政府的教育行政部门，主管本行政辖区内的幼儿园管理工作。', '第二十七条 违反本条例，具有下列情形之一的幼儿园，由教育行政部门视情节轻重，给予限期整顿、停止招生、停止办园的行政处罚：', '（二）园舍、设施不符合国家卫生标准、安全标准，妨害幼儿身体健康或者威胁幼儿生命安全的；（三）教育内容和方法违背幼儿教育规律，损害幼儿身心健康的。', '第二十八条 违反本条例，具有下列情形之一的单位或者个人，由教育行政部门对直接责任人员给予警告、罚款的行政处罚，或者由教育行政部门建议有关部门对责任人员给予行政处分：', '第二十二条 凡违反《条例》和本办法，有下列行为之一的幼儿园，由县（市、区）教育行政部门责令限期改正或者停止招生、停止办园：', '第二十三条 凡违反《条例》和本办法，有下列行为之一的单位和个人，由县（市、区）教育行政部门对直接责任人员给予行政处罚，或者建议有关部门给予行政处分：', '（六）在幼儿园附近设置有危险、有污染或者影响幼儿园采光的建筑设施的，责令限期拆除，并处以罚款；', '（七）对危险园舍不采取有效措施的，给予行政处分，并通报批评，限期改正，逾期不改正的，责令停止招生。', '前款所列行为的罚款数额，由县（市、区）人民政府规定。违反《治安管理处罚条例》的，由公安机关依法处理；构成犯罪的，由司法机关依法追究刑事责任。', '对拒绝或妨碍学校卫生监督员依条例监督，情节严重的，可以由同级卫生行政部门建议教育行政部门给予行政处分或者处以二百元以下的罚款。', '第三十六条 拒绝或者妨碍学校卫生监督员依照本条例实施卫生监督的，由卫生行政部门对直接责任单位或者个人给予警告。情节严重的，可以建议教育行政部门给予行政处分或者处以二百元以下的罚款。', '任何健身气功站点或健身气功功法名称均不得使用宗教用语，或以个人名字命名，或冠以“中国”、“中华”、“亚洲”、“世界”、“宇宙”以及类似字样。', '从事健身气功活动，不得进行愚昧迷信或神化个人的宣传，不得扰乱社会秩序、损害他人身体健康，不得借机聚敛钱财。不得举办“带功报告”、“会功”、“弘法”、“贯顶”及其他类似活动。不得销售未经国家指定机构审查、出版的健身气功类图书、音像制品和电子出版物；不得出售“信息物”。', '违反本办法第六条和第十五条规定的，由体育行政部门配合公安机关等有关部门予以取缔或查处。违反治安管理行为的，依照《中华人民共和国治安管理处罚法》予以处罚；构成犯罪的，依法追究刑事责任。', '违反本办法规定，擅自举办健身气功活动，或擅自设立健身气功站点的，由体育行政部门配合公安机关等有关部门予以取缔，并由公安机关根据《群众性文化体育活动治安管理办法》的规定进行处罚。', '对擅自经营高危险性体育项目，取得许可证后不再符合规定条件仍经营高危险性体育项目行为的处罚', '第三十六条 未经批准，擅自经营高危险性体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第三十七条 高危险性体育项目经营者取得许可证后，不再符合本条例规定条件仍经营该体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第二十七条 未经县级以上地方人民政府体育主管部门批准，擅自经营高危险性体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令改正；有违法所得的，没收违法所得；违法所得不足', '第二十八条 经营者取得许可证后，不再符合本办法规定条件仍经营该体育项目的，由县级以上地方人民政府体育主管部门按照管理权限责令限期改正；有违法所得的，没收违法所得；违法所得不足', '第二十五条 经营者对体育执法人员依法履行监督检查职责，应当予以配合，不得拒绝、阻挠。', '第三十条 违反本办法第二十五条规定，由县级以上地方人民政府体育主管部门责令改正，处', '第二十一条 经营者应当将许可证、安全生产岗位责任制、安全操作规程、体育设施、设备、器材的使用说明及安全检查等制度、社会体育指导人员和救助人员名录及照片张贴于经营场所的醒目位置。', '第二十二条 经营者应当就高危险性体育项目可能危及消费者安全的事项和对参与者年龄、身体、技术的特殊要求，在经营场所中做出真实说明和明确警示，并采取措施防止危害发生。', '第二十三条 经营者应当按照相关规定做好体育设施、设备、器材的维护保养及定期检测，保证其能够安全、正常使用。', '第二十四条 经营者应当保证经营期间具有不低于规定数量的社会体育指导人员和救助人员。社会体育指导人员和救助人员应当持证上岗，并佩戴能标明其身份的醒目标识。', '第二十九条 违反本办法第二十一条、第二十二条、第二十三条、第二十四条规定，由县级以上地方人民政府体育主管部门责令限期改正，逾期未改正的，处', '第三十一条 公共文化体育设施管理单位，有下列行为之一的，由文化行政主管部门、体育行政主管部门依据各自职责责令限期改正，没收违法所得，违法所得', '对违反本条例，侵占、破坏学校体育场地、器材、设备的单位或者个人，由当地教育行政部门令其限期清退和修复场地或者修复器材、设备', '第二十八条 对违反本条例，侵占、破坏学校体育场地、器材、设备的单位或者个人，由当地人民政府或者教育行政部门令其限期清退和修复场地、赔偿或者修复器材、设备。', '充分听取当事人的意见，对当事人提出的事实、理由和证据，应当进行记录、复核，无正当理由的，向行政机关负责人报告并经批准作出强制执行决定，送达行政强制执行决定书；根据中止和终结执行的适用情形，作出中止或终结执行决定。', '单位或个人在规定期限内履行了义务的，将查封、扣押物品予以退还单位或个人；单位或个人逾期未履行义务的，依法代为治理，费用由违法单位或者个人承担。', '在采取查封、扣押措施中玩忽职守、滥用职权的；5.在采取查封、扣押措施中泄漏单位或个人情况的；', '对义务教育阶段所有学生免费提供教科书,对义务教育阶段公办寄宿制学校寄宿学生补助生活费。', '第四十四条 义务教育经费投入实行国务院和地方各级人民政府根据职责共同负担，省、自治区、直辖市人民政府负责统筹落实的体制。农村义务教育所需经费，由各级人民政府根据国务院的规定分项目、按比例分担。', '【规范性文件】《国务院关于进一步完善城乡义务教育经费保障机制的通知》（国发〔2015〕67号）', '（一）统一城乡义务教育“两免一补”政策。对城乡义务教育学生免除学杂费、免费提供教科书，对家庭经济困难寄宿生补助生活费（统称“两免一补”）。民办学校学生免除学杂费标准按照中央确定的生均公用经费基准定额执行。免费教科书资金，国家规定课程由中央全额承担（含出版发行少数民族文字教材亏损补贴），地方课程由地方承担。家庭经济困难寄宿生生活费补助资金由中央和地方按照5', '1、受理责任：依法受理或不予受理，并一次性告知不予受理理由或需补充提供的相关材料目录。', '3、决定责任：对符合条件的，在申请书上签署办理意见，现场予以告之后续办事事宜。对不符合条件的，解释说明。', '第三十八条 国家、社会对符合入学条件、家庭经济困难的儿童、少年、青年，提供各种形式的资助。', '学前一年教育资助实行以政府投入为主，学校、企事业单位、社会团体及慈善爱心人士积极参与的制度。从2012年春季学期开始，先行在固原市、原州区、盐池县等10个市、县（区）开展试点。', '资助对象县级以上教育行政部门批准设立的公办及普惠性民办幼儿园学前一年在园家庭经济困难儿童、孤儿和残疾儿童等（年龄满5周岁）。', '【规范性文件】《自治区教育厅 自治区财政厅关于扩大全区学前教育资助范围的通知》（宁教学〔2015〕224号）', '在总结开展学前一年教育资助制度试点工作的基础上，将资助范围扩大到全区县级以上教育行政部门审批设立，实施学前教育的公办和普惠性民办幼儿园学前二年在园家庭困难儿童。', '第六条 普通高中国家助学金平均资助标准为每生每年2000元，用于资助家庭经济困难学生的学习和生活费用开支，具体标准由各地结合实际在1000元-3000元范围内确定，可以分为2-3档。', '某省份中央财政应承担的国家助学金=该省份普通高中学生人数×资助面×资助标准×中央财政分担比例。', '第八条 自治区财政厅、教育厅在收到中央资金文件30日内，将国家助学金预算下达各市、县（区）财政、教育部门。各市、县（区）财政、教育部门负责将国家助学金分配名额和预算逐级下达到所属普通高中。', '（一）全面掌握学校安全工作状况，制定学校安全工作考核目标，加强对学校安全工作的检查指导，督促学校建立健全并落实安全管理制度；', '（二）建立安全工作责任制和事故责任追究制，及时消除安全隐患，指导学校妥善处理学生伤害事故；', '（三）及时了解学校安全教育情况，组织学校有针对性地开展学生安全教育，不断提高教育实效；', '（五）协调政府其他相关职能部门共同做好学校安全管理工作，协助当地人民政府组织对学校安全事故的救援和调查处理。', '1.检查责任：公布抽查事项目录，随机抽取被检查对象、随机选派检查人员，进行监督检查。', '第二十二条 各级教育行政部门应当负责监督、评估和指导幼儿园的保育、教育工作，组织培训幼儿园的师资，审定、考核幼儿园教师的资格，并协助卫生行政部门检查和指导幼儿园的卫生保健工作，会同建设行政部门制定幼儿园园舍、设施的标准。', '第十八条 各级教育行政部门应当把学校卫生工作纳入学校工作计划，作为考评学校工作的一项内容。', '第二十三条 各级教育行政部门应当健全学校体育管理机构，加强对学校体育工作的指导和检查。', '学校体育工作应当作为考核学校工作的一项基本内容。普通中小学校的体育工作应当列入督导计划。', '第三十条 各级教育行政部门及学校所属的卫生保健机构具有对学校食堂及学生集体用餐的业务指导和检查督促的职责，应定期深入学校食堂进行业务指导和检查督促。', '教育行政部门应当将国防教育列入工作计划，加强对学校国防教育的组织、指导和监督，并对学校国防教育工作定期进行考核。', '自治区教育厅 国家开发银行宁夏回族自治区分行关于印发我区生源地信用助学贷款工作考核暂行办法的通知', '第八条 由自治区教育厅组织，会同有关部门的人员组成考核小组，采取实地考察、查阅资料、召开座谈会，在结合日常工作记录的基础上进行评议等方式进行考核。', '自治区人民政府批转自治区财政厅教育厅关于扩大中等职业教育免学费政策范围进一步完善国家助学金制度意见的通知', '四、（一）自治区财政、发展改革、教育、人力资源社会保障等部门要加强督促检查，指导和协调各地认真做好扩大中等职业教育免学费政策范围和完善国家助学金制度的工作，推进中等职业教育办学模式改革。', '三、（二）要加强监督检查，对于挤占挪用资金、弄虚作假套取资金等行为，按照《财政违法行为处罚处分条例》（国务院令第427号）等有关规定，严肃追究直接责任人和相关领导的责任。', '五、（四）各级教育、监察、财政、审计、价格等有关部门要齐抓共管，加强对义务教育经费保障机制资金使用管理，学校收费等情况的监督检查。', '（财教〔2011〕410号）三、（三）各级财政、教育部门要与审计、监察等有关部门密切合作，齐抓共管，加强学前教育资助政策落实情况的监督检查。', '（四）加快发展学前教育。……到2020年，自治区级示范园达到160所以上。教育督导部门要加强对学前教育的督导，建立学前教育质量科学评价体系。', '【规范性文件】《自治区教育厅关于印发&lt;宁夏回族自治区幼儿园分类评定验收标准（修订）&gt;的通知》（宁教基〔201', '一、关于幼儿园分类评定验收职责及程序。自治区教育厅负责自治区级示范幼儿园的评估和复验；地级市教育行政部门负责自治区级示范园的申报和一类幼儿园的评估和复验；县（市、区）级教育行政部门负责二、三类幼儿园的评估和一类幼儿园的申报工作。幼儿园在对照《标准》进行自评并拟定申报类别后，在县（市、区）教育行政部门组织专家评审的基础上，将评审结果逐级上报。', '1.受理责任：收到申请材料后，按照相关规定及时作出受理或不予受理的决定，不予受理的将申请材料退还申请人并说明原因。', '2.审查责任：组织人员按要求全面审核有关材料，符合初步要求的，成立专家组进行实地评估。', '3.决定责任：按照相关规定做出申请人是否通过确认的决定；不符合要求的，应当书面通知申请人。', '第一条 各市、县（区）教育行政部门对申报的民办幼儿园进行检查，评估，严格把关，达到申报条件的，可以确定为普惠性民办幼儿园，评定结果报教育厅基础教育处备案。', '类幼儿园并颁发证书，信息公开。5.事后监管责任：加强日常监督检查，发现存在问题的，依法进行处理。', '第九条 总局授予各省级体育行政部门、新疆生产建设兵团体育局、总参军训部军事体育训练局、总政宣传部文化体育局一级运动员、二级运动员、三级运动员审批权。', '第十条 各省级体育行政部门根据实际情况，可以将二级运动员、三级运动员审批权授予本行政区域内地市级体育行政部门，可以将三级运动员审批权授予本行政区域内县级体育行政部门。', '1.受理阶段责任：公示应当提交的材料；一次性告知其应当补足的全部材料；依法受理或不予受理，', '4、送达阶段责任：送达文书并将授予二级运动员的信息在“国家运动员技术等级综合查询系统”上公布，由运动员自行打印。', '审核部门或审批单位工作人员违反本办法规定，有下列情形之一的，由授权单位责令改正；情节严重的，工作人员所在单位对直接负责人员和负有领导责任的主管人员依法给予处分：', '未说明不受理等级称号申请或不授予等级称号理由的； （三）未按规定程序或期限完成审核或审批工作的；', '第十七条 三级裁判员技术等级认证标准：年满18周岁中国公民，具备高中以上学历，能够掌握和运用本项目竞赛规则和裁判法，经培训并考核合格者。', '周岁中国公民，具备高中以上学历，能够掌握和运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第十八条 二级裁判员技术等级认证标准：具有一定的裁判工作经验；任本项目三级裁判员满一定年限，能够掌握和正确运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第十九条 一级裁判员技术等级认证标准：具备担任省级体育竞赛裁判员的经历，任本项目二级裁判员满一定年限，能够掌握和准确运用本项目竞赛规则和裁判法，经培训并考核合格者。', '第二十三条 各全国单项协会、各省、自治区、直辖市政府体育主管部门或同级地方单项协会可根据本项目、本地区开展裁判员技术等级认证的条件，组织一级（含）以下的裁判员技术等级认证等工作。', '1、受理阶段责任：公示应当提交的材料；一次性告知其应当补足的全部材料；依法受理或不予受理，', '1.未按照相关规定履行审查义务，对应当认定的不予认定，或者对不应认定而予以认定的；', '第十一条第二款 国家实行社会体育指导员技术等级制度。社会体育指导员对社会体育活动进行指导。', '第十四条 各级体育主管部门或经批准的协会按照社会体育指导员技术等级标准，批准授予相应等级社会体育指导员称号：……（三）省级体育主管部门或经批准的全国性协会批准授予一级社会体育指导员技术等级称号；……', '第三十三条 教师在教育教学、培养人才、科学研究、教学改革、学校建设、社会服务、勤工俭学等方面成绩优异的，由所在学校予以表彰、奖励。', '【地方性法规】宁夏回族自治区实施《中华人民共和国教师法》办法（2001年1月11日宁夏回族自治区第八届人民代表大会常务委员会公告公布）', '第十一条 各级人民政府及其有关行政部门应当对优秀教师给予表彰和奖励。对有突出贡献的教师，依照国家和自治区有关规定授予荣誉称号或者给予政府特殊津贴。', '教龄满三十年以上的男性教师和满二十五年以上的女性教师，从教师岗位上退休时，由自治区教育行政部门授予终身从事教育荣誉证书。', '社会组织或者公民对教师进行褒奖的，应当事先征求所在地的县（市、区）教育行政部门或者学校的意见。鼓励社会组织或者公民向依法成立的教师奖励基金组织捐助资金。', '各级人民政府及其有关行政部门应当对优秀教师给予表彰和奖励。对有突出贡献的教师，依照国家和自治区有关规定授予荣誉称号或者给予政府特殊津贴。', '1．制定方案责任：在征求县（区）教育行政部门、学校及其他相关部门意见基础上，科学制定评选方案。', '2.组织推荐责任：严格按照评选方案规定的条件、程序，组织推荐工作，对评选对象进行初审。', '3．审核公示责任：组织评审委员会对符合条件的推荐对象进行审核、评议，做出审核决定，依法公示。', '第二十一条 凡符合《条例》要求，在改善幼儿园办园条件，或者从事幼儿园管理及保育、教育工作取得显著成绩的单位和个人，由各级教育行政部门和有关部门给予奖励。', '对民办教育突出贡献组织或个人的表彰奖励、对向民办学校捐赠财产的公民、法人或者其他组织的表彰', '第四十五条 县级以上各级人民政府可以设立专项资金，用于资助民办学校的发展，奖励和表彰有突出贡献的集体和个人。', '第四十八条 民办学校依照国家有关法律、法规，可以接受公民、法人或者其他组织的捐赠。国家对向民办学校捐赠财产的公民、法人或者其他组织按照有关规定给予税收优惠，并予以表彰。', '第三十一条 有下列事迹之一的单位和个人，由各级人民政府或者教育行政主管部门给予表彰和奖励：', '第十一条 国家和社会对在国防教育工作中作出突出贡献的组织和个人，采取各种形式给予表彰和奖励。', '第19条 各级学生军训工作领导机构要全面掌握本区域学生军训工作情况，及时表彰和奖励在学校军训工作中取得突出成绩的单位和个人。', '第六十条 教育、公安、司法行政、建设、交通、文化、卫生、工商、质检、新闻出版等部门，对在学校安全工作中成绩显著或者做出突出贡献的单位和个人，应当视情况联合或者分别给予表彰、奖励。', '第二十六条 对在学校体育工作中成绩显著的单位和个人，各级教育、体育行政部门或者学校应当给予表彰、奖励。', '第三十一条 对在学校卫生工作中成绩显著的单位或者个人，各级教育、卫生行政部门和学校应当给予表彰、奖励。', '第十七条 教育行政部门和学校对于在学校艺术教育工作中取得突出成绩的单位和个人，应当给予表彰和奖励。', '【规范性文件】《关于改进和加强我区普通中学评选表彰三好学生、优秀学生干部的意见》（宁教普发〔1992〕127号）', '第三十九条 教师对学校或者其他教育机构侵犯其合法权益的，或者对学校或者其他教育机构作出的处理不服的，可以向教育行政部门提出申诉，教育行政部门应当在接到申诉的三十日内，作出处理。', '第二十五条 教师对学校或者其他教育机构侵犯其合法权益的行为，可以向教育行政部门提出申诉。', '受理责任：收到申请材料后，按照相关规定及时作出受理或不予受理的决定，不予受理的将申请材料退还申请人并说明原因。', '2.审理责任：通知申请人及对方当事人，并要求对方当事人在规定的期限内提交答辩书及有关证据材料；收到答辩书后，对争议的事实、证据材料进行审查。针对疑问情况或经当事人请求，举行公开听证，由当事人双方当面陈述、辩论、举证、质证，以查明案情。', '审理责任：通知申请人及对方当事人，并要求对方当事人在规定的期限内提交答辩书及有关证据材料；收到答辩书后，对争议的事实、证据材料进行审查。针对疑问情况或经当事人请求，举行公开听证，由当事人双方当面陈述、辩论、举证、质证，以查明案情。', '3.裁决责任：根据事实和法律、法规做出裁决，制作并向双方当事人送达裁决书（说明裁决的理由和依据，并告知当事人能否向法院起诉的权利及行使诉权的期限等）。', '裁决责任：根据事实和法律、法规做出裁决，制作并向双方当事人送达裁决书（说明裁决的理由和依据，并告知当事人能否向法院起诉的权利及行使诉权的期限等）。', '1.对符合法定条件的申诉不予受理、未一次告知需要补正内容、未依法说明不受理理由的；', '（四）对学校给予的处分不服向有关部门提出申诉，对学校、教师侵犯其人身权、财产权等合法权益，提出申诉或者依法提起诉讼；', '第六十二条 学生对复查决定有异议的，在接到学校复查决定书之日起15日内，可以向学校所在地省级教育行政部门提出书面申诉。', '省级教育行政部门应当在接到学生书面申诉之日起30个工作日内，对申诉人的问题给予处理并作出决定。', '对辖区内民办普通高中、民办中等职业学校侵犯受教育者的合法权益，受教育者及其亲属向自治区教育厅提出申诉的处理', '第四十三条 民办学校侵犯受教育者的合法权益，受教育者及其亲属有权向教育行政部门和其他有关部门申诉，有关部门应当及时予以处理。', '4．执行责任：裁决生效后，争议当事人应当自觉履行。5.其他违反法律法规规章文件规定的行为。', '第十五条第一款 学生因户籍迁移、家庭搬迁或个人意愿等原因可以申请转学。转学由学生本人和监护人提出申请，经转出学校同意，再向转入学校提出转学申请，转入学校同意后办理转学手续。对跨省转学的学生，由转入、转出学校分别报所在市级和省级教育行政部门备案。', '第十九条 学生非正常死亡，学校应当及时报教育主管部门备案，教育主管部门逐级上报至省级教育行政部门备案。', '1.收备责任：受理学校上报的的中职学生跨省转学或非正常死亡的信息，发现明显有误或依据不充分的告知修改后再报。', '收备责任：受理学校上报的的中职学生跨省转学或非正常死亡的信息，发现明显有误或依据不充分的告知修改后再报。', '【规范性文件】《自治区人民政府办公厅转发教育厅等部门关于促进民办教育发展若干意见（试行）的通知》（宁政办发〔2011〕147号）', '深入开展依法治校示范学校创建活动。推进依法治校要立足学校需求,结合实际、分类指导、示范引领。不同层次、不同类型的学校要根据本纲要,结合自身特点和需要,制定本校依法治校的具体办法。地方各级教育行政部门要及时总结在依法治校实践中形成的典型经验与成功做法,完善对不同层次、类型学校依法治校的具体要求,分类实施指导。要进一步完善依法治校示范校的评价标准,将依法治校示范学校创建活动制度化、规范化,在国家和地方层面,开展依法治校示范学校创建活动,积极推广典型经验,推动各级各类学校依法治校水平的整体提高。', '【规范性文件】《教育部办公厅关于开展依法治校示范校创建活动的通知》（教政法厅〔2003〕4号）', '（二）各地根据实施方案和依法治校具体要求，开展本地区依法治校工作和创建本地区依法治校示范校。', '第三条第二款 省级教育行政部门负责本地区依法治校示范校创建工作的组织实施,按照依法治校示范校的基本要求,从本地区依法治校的先进校中推荐教育部依法治校示范校候选学校。', '1．制定方案责任：在征求各县（区）教育行政部门、学校及其他相关部门意见基础上，科学制定评选方案。', '由组织考试的教育考试机构工作人员在考试现场采取必要措施予以制止并终止违法违规考生继续参加考试', '第七十九条 考生在国家教育考试中有下列行为之一的,由组织考试的教育考试机构工作人员在考试现场采取必要措施予以制止并终止其继续参加考试；组织考试的教育考试机构可以取消其相关考试资格或者考试成绩；情节严重的,由教育行政部门责令停止参加相关国家教育考试一年以上三年以下；构成违反治安管理行为的,由公安机关依法给予治安管理处罚；构成犯罪的,依法追究刑事责任：', '第四条 国务院教育行政部门及地方各级人民政府教育行政部门负责全国或者本地区国家教育考试组织工作的管理与监督。', '承办国家教育考试的各级教育考试机构负责有关考试的具体实施,依据本办法,负责对考试违规行为的认定与处理。', '考生有第六条、第七条所列考试作弊行为之一的，其所报名参加考试的各阶段、各科成绩无效；参加高等教育自学考试的，当次考试各科成绩无效。', '有下列情形之一的，可以视情节轻重，同时给予暂停参加该项考试1至3年的处理；情节特别严重的，可以同时给予暂停参加各种国家教育考试1至3年的处理：', '参加高等教育自学考试的考生有前款严重作弊行为的，也可以给予延迟毕业时间1至3年的处理，延迟期间考试成绩无效。', '考生有第八条所列行为之一的,应当终止其继续参加本科目考试,其当次报名参加考试的各科成绩无效；考生及其他人员的行为违反《中华人民共和国治安管理处罚法》的,由公安机关进行处理；构成犯罪的,由司法机关依法追究刑事责任', '第四十一条 教育行政部门及有关部门依法对民办学校实行督导,建立民办学校信息公示和信用档案制度，促进提高办学质量；组织或者委托社会中介组织评估办学水平和教育质量,并将评估结果向社会公布。', '第三十二条 教育行政部门、劳动和社会保障行政部门应当加强对民办学校的日常监督,定期组织和委托社会中介组织评估民办学校办学水平和教育质量,并鼓励和支持民办学校开展教育教学研究工作,促进民办学校提高教育教学质量。 教育行政部门、劳动和社会保障行政部门对民办学校进行监督时,应当将监督的情况和处理结果予以记录,由监督人员签字后归档。公众有权查阅教育行政部门、劳动和社会保障行政部门的监督记录。', '贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为', '第八条 人民政府教育督导机构对义务教育工作执行法律法规情况、教育教学质量以及义务教育均衡发展状况等进行督导,督导报告向社会公布。', '第二条第二款 教育督导包括以下内容：（一）县级以上人民政府对下级人民政府落实教育法律、法规、规章和国家教育方针、政策的督导；（二）县级以上地方人民政府对本行政区域内的学校和其他教育机构（以下统称学校）教育教学工作的督导。', '教育部、公安部、司法部、建设部、交通部、文化部、卫生部、国家工商行政管理总局、国家质量监督检验检疫总局、新闻出版总署令第23号', '第六条 评价的内容主要包括：省级人民政府贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为情况。', '【规范性文件】《自治区教育厅办公室关于印发宁夏回族自治区贯彻落实〈对省级人民政府履行教育职责的评价办法〉实施方案的通知》（宁政办发〔2017〕179号）', '自治区人民政府和各市、县（区）人民政府及其有关部门贯彻执行党的教育方针情况，落实教育法律、法规、规章和政策情况，完成教育重点工作任务情况，各级各类教育发展情况，统筹推进本行政区域教育工作情况，加强教育保障情况，学校规范办学行为情况等。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>292</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>中共固原市委办公室市人民政府办公室关于在全市各行各业各条战线广泛开展我身边的战疫模范推选活动的通知</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zfxxgkml/gyzzfgb/2018zfgb_42708/d5q/swbzfbwj_56402/202111/t20211129_3169738.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['中共固原市委办公室 市人民政府办公室关于在全市各行各业各条战线广泛开展 “我身边的战‘疫’模范”推选活动的通知_固原市人民政府', '中共固原市委办公室 市人民政府办公室关于在全市各行各业各条战线广泛开展 “我身边的战‘疫’模范”推选活动的通知', '各县（区）党委和人民政府，市委各部委办（局），市直各局委办，各人民团体、直属事业单位，中央、区属驻固各单位，各国有企业：', '推选活动，按照自治区党委办公厅、人民政府办公厅《关于在全区各行各业各条战线广泛开展', '疫情防控和经济社会发展的重要讲话和指示批示精神，通过层层推选典型、树立典型、宣传典型，以典型教育身边人、感动身边人、激励身边人，进一步弘扬时代风尚、鼓舞抗疫斗志、广泛凝聚力量，营造万众一心、共克时艰的浓厚社会氛围，为打赢疫情防控阻击战和全面小康决胜战努力奋斗。', '为全市疫情防控工作作出突出贡献的集体和个人（含疫情防控中的牺牲人员），主要分为以下', '参与医疗救治、疫情防控的医护人员、疾控人员，以及在疫情防控一线从事隔离留观、卡点检疫、村（社区）值班值守、人员排查起底、督促检查指导、社会治安维稳、新闻宣传报道等工作的单位和个人。', '在疫情防控中协助入户调查、社区值守、心理疏导、为居家隔离人员提供服务保障的志愿者、义工、社会工作者。', '在疫情防控中，提供医疗防护、生产生活、公共服务、社会运转等相关物资保障的单位和个人。', '为疫情防控作出贡献的社会团体、群众团体、行业协会，驻固部队、武警官兵、民兵预备役和退役军人，捐资捐物的单位和个人，自觉配合、主动参与、积极协助、事迹突出的各族各界群众。', '1.坚决贯彻执行党中央、国务院关于疫情防控的决策部署，认真落实区、市党委和政府工作要求，出色完成疫情防控任务，为取得疫情防控工作胜利作出突出贡献。', '坚决贯彻执行党中央、国务院关于疫情防控的决策部署，认真落实区、市党委和政府工作要求，出色完成疫情防控任务，为取得疫情防控工作胜利作出突出贡献。', '2.认真履行职责，严格按照自治区提出的“四个决不”“五个凡是”“三个全面”“四个实行”“十项措施”和市委、', '政府关于疫情防控等要求，迅速落实疫情防控有关措施，有效防止疫情扩散，在医疗救治、排查起底、隔离留观、值班值守、物资保障、维护稳定等方面作出突出贡献。', '3.领导重视、组织得力、积极动员、行动迅速，在组织、指挥、协调等方面发挥重要作用，落实落细严防严控、联防联控、群防群控措施，为控制新冠肺炎疫情扩散和传播作出突出贡献。', '领导重视、组织得力、积极动员、行动迅速，在组织、指挥、协调等方面发挥重要作用，落实落细严防严控、联防联控、群防群控措施，为控制新冠肺炎疫情扩散和传播作出突出贡献。', '1.坚决贯彻执行党中央、国务院关于疫情防控的决部署，认真落实自治区“四个决不”“五个凡是”“三个全面”“四个实行”“十项措施”和市委、', '政府关于疫情防控等要求，迅速落实疫情防控有关措施，在医疗救治、排查起底、隔离留观、值班值守、物资保障、维护稳定方面作出突出贡献。', '2.坚持把人民生命安全和身体健康放在第一位，积极投身疫情防控工作，坚守岗位、恪尽职守，临危不惧、奋勇争先，一心为民、勤奋工作，起模范带头作用。', '坚持把人民生命安全和身体健康放在第一位，积极投身疫情防控工作，坚守岗位、恪尽职守，临危不惧、奋勇争先，一心为民、勤奋工作，起模范带头作用。', '3.坚持在疫情防控工作一线，深入病区、疫区，为抢救病人，提高收治率、治愈率和降低感染率、病亡率，发现传染源、阻断传播途径、控制疫情扩散作出重要贡献。', '坚持在疫情防控工作一线，深入病区、疫区，为抢救病人，提高收治率、治愈率和降低感染率、病亡率，发现传染源、阻断传播途径、控制疫情扩散作出重要贡献。', '5.识大体、顺大局，自觉配合和服务疫情防控工作，积极宣传疫情防控知识，参与疫情防控管理，影响带动身边更多群众投身疫情防控。', '识大体、顺大局，自觉配合和服务疫情防控工作，积极宣传疫情防控知识，参与疫情防控管理，影响带动身边更多群众投身疫情防控。', '充分依靠各级党组织，发挥主管部门、行业组织作用，广泛发动群众参与推荐。按照条块结合、以块为主的原则，以县（区）、市直部门为单位，通过个人推荐、组织推荐，线上推荐、线下推荐，书面推荐、口头推荐等多种形式，开通推选电话、设置网络窗口，组织各行各业各条战线广泛推选，提出初步建议名单，报市上审核。各县（区）由县（区）', '由市直机关工委组织推选，中央、区属驻固各单位由市委组织部组织推选。推荐人选名单由市推选工作办公室统一梳理汇总上报。', '由市推选工作办公室牵头，组织全市各行业系统主管部门对推荐人选名单进行考察审核，按照结构比例、数量分布、分级分类提出正式建议人选。', '市委常委会暨应对新冠肺炎疫情工作领导小组会议研究确定向自治区报送人选和市级拟表彰人选，在固原日报等新闻媒体进行公示。', '进行表彰奖励。向自治区党委和政府推荐表彰奖励的同时，市委和政府将对市级模范集体和个人进行表彰奖励。县（区）参照区、市确定各自奖励办法，按照就高原则，同一表彰对象不重复表彰。对疫情防控工作中表现特别突出的先进典型，可及时进行表彰奖励。', '活动推选工作办公室，杨刚同志任办公室主任，李志达、余剑雄同志任副主任，市委办、政府办统筹协调，市委组织部牵头，抽调市纪委监委、市委宣传部、市直机关工委、公安局、人力资源', '社会保障局、卫生健康委、总工会等部门（单位）人员成立专班、集中开展工作。各县（区）、市直各部门（单位）要高度重视，结合实际建立相应工作机制，在切实抓好疫情防控工作的前提下，认真做好本地本部门（单位）推选工作。', '此次推选重在过程，不提前设定具体名额，突出业绩导向，以政治表现、工作实绩、先进事迹作为主要衡量标准，坚持少而精原则，优中选优，防止过多过滥，确保推选对象具有先进性、典型性和代表性。', '本着不限行业、不限职业、不限身份的原则，广泛发动群众，积极参与推选活动。推选对象要注重面向一线医护人员、疾控人员、公安民警、村（社区）干部群众。', '非疫情防控一线的处级以上单位和个人一般不参加推选，控制非疫情防控一线的领导干部推选表彰人数。', '加强对推选工作的监督检查，严肃纪律，杜绝暗箱操作，自觉接受各方监督。对推选工作中弄虚作假、谋取私利的违纪违法行为，要按照有关规定严肃处理。', '各县（区）、市直有关部门（单位）要及时发现、总结各行业各领域的先进典型、先进事迹，通过各种形式加大宣传力度，迅速掀起学习先进、宣传先进的热潮，用身边的典型教育、感动、激励身边的人，进一步激发正能量、弘扬真善美，为全面打赢疫情防控的人民战争、总体战、阻击战提供强大精神动力。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>292</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>市政协委员热议政府工作报告</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2016-12-17</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/gyyw/201612/t20161217_377863.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['12月16日，出席固原市政协四届一次会议的政协委员们列席市人大四届一次会议第一次全体会议，听取马汉成市长作的政府工作报告。在随后的分界别讨论中，委员们紧紧围绕经济发展、民生实事等话题积极发言，展开热烈讨论。', '中共、共青团、青联、工会、妇联、社会福利和社会保障界委员们一致表示，要切实发挥界别优势，围绕打赢脱贫攻坚战、全面建成小康社会这个中心任务，不断提高参政议政专业化、科学化水平，积极参与考察、调研等活动，在所熟知和擅长的领域着力做好支教助学、扶贫帮困等工作，为基层群众提供力所能及的帮助。同时要关注不同阶层利益诉求，积极履职，在凝心聚力上增添力量。市委常委、纪委书记纳冰说，要严格落实“三级备案、三级审核、一个平台监督”工作机制，用制度、科技手段来监督、治理腐败，从根本上加强涉农惠农资金的监管，全面加强党风廉政建设。', '经济界政协委员表示，马汉成市长所作的政府工作报告对上一届工作总结实事求是，对今后全市工作的目标任务制定切合实际、重点突出，催人奋进，进一步鼓足了全市上下打赢脱贫攻坚战的信心。作为政协委员，要做好自己的企业，遵纪守法，积极参与社会公益事业。不断加强学习，拓展知识面，积极建言献策，履行好政协委员职责。市委常委、副市长黄思明说，经济界政协委员大多是中小企业负责人，而中小企业要继续创新发展模式、拓展发展领域，从带动就业、带动税收等方面，推动地方经济发展。另外，中小企业要立足我市产业发展优势，选好项目，构建好的合作机制，搭建合作平台，打造属于固原的特色品牌。政协委员要积极建言献策，履职尽责，做好社情民意及提案工作，把与老百姓息息相关的民生问题、社会热点提出来，为地方经济社会发展贡献力量。', '科技、科学技术协会、农业界政协委员表示，马汉成市长所作的政府工作报告紧密联系固原实际，对过去工作的总结实事求是，对今后目标任务的制定切合实际、重点突出，具体措施切实可行，让人倍感振奋。大家将认真学习切实领会报告精神实质，进一步带头贯彻全国科技创新大会精神和自治区科技强区战略部署，紧紧围绕市第四次党代会、市委四届一次全会和市两会确定的中心工作，加快我市农业科技创新体系、科技成果转化体系建设，切实提高科技创新水平和科技成果转化应用。', '教育、体育、新闻出版、医药卫生界委员们表示，政府工作报告顺应民意，让大家非常振奋，在总结我市过去五年里所获成绩的同时，还指出了工作中存在的问题，并明确了今后发展的目标和方向，实实在在为百姓解决民生问题。作为政协委员，要立足岗位，结合工作实际认真履职，为我市教育、体育、新闻出版、医药卫生事业的发展谏真言、献良策。市委常委、组织部部长景瑜说，要发挥各类人才支撑作用，加大体制机制改革，吸引更多人才来我市工作。解决我市现存的问题，要着力于人才培养，打破编制管理的束缚，实现同工同酬，调动人才工作积极性，要发挥现有人才的积极作用，尊重用人单位选人用人的主体作用，政府部门和用人单位共同解决提出的问题和需求，推动我市人才工作创新发展。', '工商联、文化艺术界委员表示，听取了今年的政府工作报告很是感慨。在经济下行，形势错综复杂的情况下，我市仍然取得了主要经济指标增幅连续四年居全区前列的成绩，来之不易，难能可贵。应该为市委、市政府以及每一位建设者们点赞。整个报告求真务实，文风朴实，很接地气，通篇用数据说话，30多页的报告既总结了过去五年的工作，还对未来五年的工作进行了科学规划，目标清晰，安排细致实在，紧紧围绕脱贫攻坚这一主题，将地区生产总值年均增长8%，经济发展、居民收入增速高于全区作为发展目标，体现了政府科学布局的能力和勇于担当的气魄，让大家对未来五年充满信心。委员们纷纷表示相信在市委、市政府的坚强领导下，聚全民之志，打赢脱贫攻坚战，与全区同步进入小康社会指日可待。', '民盟、民进、九三学社、无党派、社科界委员们认为，政府工作报告内容全面，文字简练而不简单，令人振奋，凝神聚气。把中央、自治区及市第四次党代会的精神具体化和常态化，并充分、到位地贯彻于通篇报告之中。着眼固原未来发展，立足固原实际，打造了未来五年固原经济社会发展的升级版，从思想上、文字上找准了我市脱贫攻坚和全面建成小康社会的制高点。报告中运用的大量数据成绩喜人，体现出市委、市政府所作工作的努力和为民情怀，也体现出对固原人民脱贫攻坚奔小康，为固原人民谋幸福的魄力、信心、决心和实干精神。', '散居少数民族、宗教、特邀界委员们认为，马汉成市长所作的政府工作报告语言精炼，内容详实，与民生息息相关。报告全面总结过去，科学部署未来，是先进执政理念的直接体现。宗教界要发挥优势，深入信教群众当中，积极宣传党的方针政策，为群众排忧解难，引导广大信教群众维护国家统一、民族团结和社会稳定。全体宗教界人士要团结在党中央周围，积极尽责履职，为全市如期完成脱贫攻坚目标和与全国全区同步进入小康社会贡献积极力量。市委常委、宣传部部长、统战部部长王正儒强调，市政协委员要始终高举爱党、爱国、爱教的旗帜，与全党同心同向，坚持国家至上和“五个认同”;要牢牢把握宗教的中国化方向，要开阔视野，提高参政议政的能力，为市委、市政府科学决策提供依据;要密切联系群众，深入基层，发挥主动服务的作用，为全市经济社会发展积极建言献策。马玉芳委员说，听了马汉成市长的政府工作报告，很受鼓舞、很受启发。市政协人才济济、精英荟萃，政协委员在今后的工作中要按照马汉成市长的讲话要求，有计划、有步骤地干好每一项工作，做到听党话、跟党走、为民说话;当好委员、担当履职;率先垂范、维护和谐;尽职尽责、为民服务。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>292</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市开展国家新型城镇化综合试点工作方案年的通知</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2015-04-27</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/201708/t20170808_384262.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市开展国家新型城镇化综合试点工作方案（2014—2017年）》的通知_固原市人民政府', '固原市人民政府办公室关于印发《固原市开展国家新型城镇化综合试点工作方案（2014—2017年）》的通知', '《固原市开展国家新型城镇化综合试点工作方案(2014—2017年)》已经市人民政府研究同意，并报请国家发改委等11部委原则同意，现予以印发，请认真抓好落实。', '根据国家11部委《国家新型城镇化综合试点总体实施方案》精神，为扎实稳妥推进固原市新型城镇化综合试点工作，促进全市经济社会良好健康发展，特制定此方案。', '全面贯彻落实党的十八大、十八届三中全会、四中全会和中央、区、市城镇化工作会议精神，坚持以人的城镇化为核心，以提升质量为关键，紧紧围绕农业转移人口市民化成本分担机制、多元化投融资机制、农村宅基地制度、城镇化发展体制等方面，大胆探索、勇于创新、试点先行，努力走出一条城乡统筹、产城融合、四化同步、符合固原实际的新型城镇化道路，切实把固原建设成为宁南区域中心城市、西部地区生态园林和文化旅游城市。', '——坚持统筹推进，促进和谐发展。科学引导人口有序转移，优先转移已在城镇就业居住的农业人口，积极转移已进城就业没有居所的农业人口，合理转移外来从业人员，确保人口转移与城镇基础设施、公共服务、社会保障协调发展。', '——坚持规划引领，促进有序发展。坚持城乡规划与土地利用总体规划、国民经济发展规划相结合，严格控制城镇建设用地规模，合理控制城镇乡村开发建设边界，提高国土空间利用效率，不断优化城镇发展布局。', '——坚持深化改革，促进创新发展。鼓励探索创新，凝聚共识，深化重点领域和关键环节改革，破除体制机制障碍，实现重点突破，努力形成有利于产业和人口集聚，有利于新型城镇化健康有序推进的体制机制和政策环境。', '——坚持四化同步，促进统筹发展。推动信息化深度融合、工业化和城镇化良性互动、城镇化和农业现代化相互协调，形成以工促农、以城带乡、工农互惠、城乡一体的长效机制。', '——坚持绿色生态，促进持续发展。把生态文明理念融入新型城镇化全过程，强化生态控制，推进绿色发展、循环发展。坚持预防为主、保护优先，努力实现城乡生态保护一体化。', '按照“一年起步、两年打基础、三年见成效”的要求，以规划为龙头，以生态为依托，以文化为灵魂，着力构建中心城市、大县城、中心镇、美丽村庄“四位一体”的城镇体系。加强基础设施建设，加大产业支撑，强化城镇化管理，城镇建设管理水平明显提升。深化城镇化体制机制改革，推进农业转移人口市民化，初步形成覆盖城乡居民的公共服务体系和社会保障体系。探索建立政府、企业、社会、个人市民化成本分担机制，改革完善农村土地经营管理制度，建立多元化可持续的城镇化投融资机制，解决农民进城融资能力和城镇化建设资金瓶颈问题。到2017年，常住人口城镇化率达到50%，户籍人口城镇化率达到40%;到2020年，常住人口城镇化率达到60%，户籍人口城镇化率达到52%。', '一是建立由政府分担为主、企业和个人分担为辅的农业转移人口市民化成本分担和财政转移支付同农业转移人口市民化挂钩机制。政府主要承担农业转移人口市民化在义务教育、劳动就业、基本养老、基本医疗卫生、保障性住房以及市政设施等方面的公共成本;企业要落实农民工与城镇职工同工同酬制度，加大职工技能培训投入，依法为农民工缴纳职工养老、医疗、失业、生育等社会保险费用;个人要按照规定承担相关费用，积极参加城镇社会保险、职业教育和技能培训等，提升融入城镇社会能力。二是按改革要求调整户口迁移政策，建立居住证制度，以居住证为载体享受基本公共服务。三是健全完善产业发展支撑体系，集聚发展盐化工产业、煤电油等能源产业、特色农产品加工业和战略性新型产业“四大产业”，加快中铝固原煤电铝一体化项目进程;推广“华林模式”，鼓励农民加快土地流转、利用土地入股，组建农民合作社，扶持联户经营、专业大户、家庭农场规模经营，引导更多农民进入农产品生产、加工、运输、销售、经营等领域;立足“两山一寨”、“两馆一园”，大力发展文化旅游产业。四是建立进城镇农民社会保障机制，对农村转移人口符合最低生活保障条件的，可申请享受城镇居民最低生活保障。进城镇落户的农民，随迁子女按规定享受与城镇同等基本公共教育待遇。建立农村与城镇养老保险接续转移机制，深化医药卫生体制改革，全面推行先住院后付费诊疗服务，完善农村特困群体救助制度，对因病造成生活困难的低保对象，提高医疗救助水平。进城镇落户农民在失业登记、求职登记、困难家庭援助登记、职业介绍、权益保障等方面，与城镇居民实行统一政策、统一服务。启动实施“百万农民素质培训工程”和“全民技能振兴工程”，扩大培训规模，提高劳动者技能，使每一个农民工都能至少得到一次免费的基本职业技能培训。五是建立进城镇农民住房保障机制，加快推进公租房及棚户区改造建设，建立健全农民工保障性住房准入制度，完善进入退出办法，实行动态管理;建立住房补贴制度，对符合条件、首次购买商品住宅房所缴纳的契税和印花税给予适当返还补助;将稳定的农民工纳入住房公积金制度覆盖范围，对农民工购房、租房给予支持。', '一是探索发行地方债，把政府性债务纳入全口径预算管理，制定《固原市地方债管理办法》，编制公开透明的城市政府资产负债表，建立健全地方债发行管理制度，通过发债等多种方式拓宽城市建设融资渠道。二是探索组建投融资公司，实行“非禁即入”政策，将环卫、地下管网、污水处理、燃气城市公共服务等实行PPP、BOT等模式建设运营，也可通过拍卖冠名权等方式吸引社会资本进入固原城市建设领域。三是加快推进农村金融改革，积极发展村镇银行、农村资金互助社和小额贷款公司等新型金融机构，鼓励各金融机构设立县(区)分支机构，扩大城镇建设信贷支持规模;支持建立农村产权评估、抵押担保等公司，探索开展农村土地使用权、经营权等抵押担保贷款，开展农村土地承包经营权、经营性建设用地使用权、小型农田水利基础设施使用权、林权等产权交易，加快推进农村资源向资本转变。', '一是强化对农村宅基地规范管理。制定农村宅基地用地和居民点人均建设用地控制管理办法和标准，把土地开发和有市场前景的产业发展结合起来，建立和实施农村宅基地和房屋不动产登记制度，建成农村宅基地信息数据库，建立农民宅基地有偿退出机制，退出用地指标优先用于美丽乡村建设，节余的指标在全市有偿调剂使用。二是建立利用农村宅基地抵押、担保银行贷款以及农村承包地经营流转等的实现形式和途径，通过出让、租赁、转让、出租等方式，将闲置资源变现为农民财产性收益，保障进城人员农村财产权益。建立宅基地有偿使用和退出机制，最大限度、最持久地增加土地效益。三是探索“三旧改造”成功经验和办法，建立村镇与城市人民政府参与统一规划、共同建设工作机制。四是出台集体土地及房屋征收办法，探索建立农村集体土地科学合理的补偿机制，保障集体土地所有权人权益。', '一是实行“多规融合”，按照城乡一体、全域管控、部门协作的要求，编制城乡总体规划，统筹衔接经济社会发展规划和土地利用总体规划。二是对原州区三营、泾源县六盘山镇实行“撤镇设区”试点，对原州区张易镇、西吉县将台乡、隆德县沙塘镇、泾源县泾河源镇、彭阳县古城镇开展“扩权强镇”试点，按照财权与事权相匹配原则，赋予乡镇财政收支权、行政审批管理权、计划单列权、规划建设管理等权限。三是积极稳妥地推进乡镇区划调整，结合宁夏空间发展规划和生态移民、农村危房危窑改造的实施，促进资源向中心镇配置，增强中心镇集聚发展的能力，引导农民进入中心镇居住、务工、创业。 四是实行“村改居”工作，坚持原农村集体经济组织资产产权权属不变、原村民享受的农村优惠政策不变的原则，对基础设施完善、公共服务健全、人口规模集中，人均耕地面积较低且不从事农业劳动、不以农业收入作为主要生活来源的行政村，实行“村改居”，按城市社区管理模式进行管理，推进农村城镇化发展格局。', '一是实施园林绿化水系工程，建成“四大主题公园、四条生态山脉、四大水库湿地”。二是加强保障性住房建设，力争用3-5年时间解决城市中低收入家庭住房困难。三是持续开展城乡环境卫生综合整治，探索实行车辆数控化管理、经营场所人性化管理、城市保洁机械化管理机制。四是强化农村社区战略基点作用，沿清水河、葫芦河、渝河、泾河、茹河流域布局建设功能互补、设施完善、环境优美的新农村，推动农村城镇化、农业现代化、农民市民化。', '(一)试点申报阶段。2014年7月至12月，根据国家试点工作任务，制定总体实施方案，积极申报并争取国家部委批复同意列为国家新型城镇化综合试点地区。', '(二)前期准备阶段。2015年1月至6月，根据国家批复的总体方案要求，成立组织机构，细化试点工作方案，制定户籍管理、农业转移人口市民化成本分担机制、投融资管理体制、行政管理体制等重点领域改革措施，报自治区审批。', '(三)组织实施阶段。2015年6月至2016年6月，按照自治区批复的各项改革措施和细化方案，选择试点乡镇先期推进户籍、土地、投融资、社会保障、镇村管理等方面的改革，完善城镇基础设施和公共服务设施，着力增强城镇综合功能和人口、产业吸纳能力，为试点工作开好头、起好步、积累经验。', '(四)全面推广阶段。2016年7月至2017年6月，在全市推广试点乡镇所取得的成功经验和成果，完善试点内容，全面推进试点各项改革政策措施的落实。', '(五)总结评估阶段。2017年7月至12月，组织评估和检查新型城镇化改革工作成效，总结经验，进一步完善提高，接受中央和自治区的总结评估。', '1、成立组织机构，强化组织领导。成立固原市开展国家新型城镇化综合试点工作领导小组，研究和协调解决试点过程中的重大问题。建立工作例会制度，确保按时完成试点各项目标、任务。形成领导小组及其办公室统筹全局、市直部门横向联动、县(区)政府纵向贯通、共同推进的工作格局。', '2、开展调查研究，完善试点方案。根据试点工作任务和内容，组织专门人员开展调查研究，摸清城镇化要素发展现状、运行情况。组织人员外出学习考察，找准试点工作的切入点、关键点，充实完善试点方案，有效指导试点工作顺利推进。', '3、加强系统研究，强化智力支撑。建立固原市新型城镇化专家委员会，设置城镇化专业人才培训基地，强化推进城镇化专业队伍建设，加强对新型城镇化建设论证，支持试点前期项目研究，包括重大战略研究、重大项目前期研究和实施方案研究，为试点工作提供有力的智力支持，确保城镇化项目的科学性、有效性。', '4、加强组织管理，落实经费保障。市财政安排专项资金，用于支持试点工作所需研讨、观摩、培训及设备等，为试点工作提供经费保障。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>292</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>关于印发公务接待管理制度等制度的通知</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2018-06-06</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/bmwi/201806/t20180606_796161.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['现将《固原市文化体育新闻出版广电局公务接待管理制度》《固原市文化体育新闻出版广电局预算管理、收支业务管理、财产管理、政府采购管理、差旅费开支和财务审批制度》《固原市文化体育新闻出版广电局合同管理制度（试行）》《固原市文化体育新闻出版广电局干部职工考勤、请销假、值班制度》予以印发，请对照要求，抓好落实。', '为规范局机关公务接待工作，坚持勤俭节约，严禁超标准公务接待，现根据自治区党委办公厅、政府办公厅《关于党政机关国内公务接待有关事项的通知》和自治区党委办公厅、政府办公厅《党政机关区内公务接待管理办法》等有关规定，结合我局工作实际，特制定本制度。', '公务接待严格执行接待审批、餐票结算、接待报销公示等制度，实行集中管理、对口接待、申报审批、厉行节约、反对铺张浪费、严格标准的原则。', '加强公务外出计划管理，科学安排和严格控制外出的时间、内容、路线、人员数量，禁止没有特别需要的一般性学习交流、考察调研，禁止以各种名义和方式变相旅游。公务外出，确需外地部门或单位接待的，应向接待单位发出公函，告知内容、行程和人员。', '公务接待活动严格控制接待范围，因公来我局的上级厅局领导及各处室工作人员、外省市对口业务部门领导及相关人员为接待范围，被接待单位应发公函，告知内容、行程和人员。', '严格接待审批制度，凡需接待的，必须经局长审批同意方可接待，未经批准不得擅自安排接待。', '公务活动需要就餐时，参与接待的业务科室凭公函(通知)办理审批手续，无公函的公务活动和来访人员一律不予接待。局办公室对能够合并的公务接待统筹安排，严格控制公务接待范围，不得用公款报销或者支付应由个人负担的费用。严格按照有关规定及标准用餐，不得超标准，不得提供香烟和酒水，不得使用私人会所、高消费餐饮场所。', '严格控制陪餐人数，接待对象在10人以内的，陪餐人数不得超过3人;超过10人的，不得超过接待对象人数的三分之一。公务活动结束后，参与接待的主办科室应如实填写接待清单，并由相关负责人审签。', '严格执行上级有关差旅费、会议费的管理规定。接待对象一般在指定的接待场所安排住宿，住宿费由接待对象支付。局机关工作人员因公出差，不得超标准住宿。', '接待经费报销凭据必须齐全，实行公务卡支付和实行“一票四单会签”制度，凭正式发票、刷卡凭证、《公务接待审批单》、被接待对象单位公务活动公函或电话通知单、接待费用结算清单，经经办人、证明人、审核人、分管领导和主要负责人签字后方可报销。审核人要严格把关，凡超出审批标准和接待范围的接待费一律不得报销。', '为进一步提高单位管理水平、严肃和规范财经秩序、有效防范舞弊和预防腐败、推进服务型政府建设，根据中央八项规定精神、财政部《行政事业单位内部控制规范（试行）》与区市有关规定，结合我局实际，特制定我局内部控制有关制度。', '1、局财务室负责局本级预算编制具体工作，局属各单位财务人员负责本单位预算编制具体工作。', '3、局财务室根据资料汇总形成本部门基本支出和项目支出预算初稿，提交局务会议审议后，上报市财政局。', '6、根据《固原市本级推进预决算信息公开工作方案》要求，通过市政府网站向社会公开单位预决算情况，接受社会监督。', '7、财务室应督促各科室不得随意调整和追加预算。对确需要进行预算调整和追加的，必须按照预算管理的相关规定办理预算调整和追加。', '8、公用经费预算和项目支出预算中涉及政府采购的部分，除按政府采购预算管理要求编制政府采购预算外，在预算批复下达后还应按季度编制政府采购执行计划，并按政府采购管理规定执行。', '9、单位在预算执行过程中应加强预算绩效跟踪管理。对纳入预算绩效管理的项目，应根据项目预算执行情况，由项目负责科室会同财务室及其它相关科室，同步开展预算绩效跟踪，及时将预算执行和跟踪情况向分管领导和财政室提供，并按预算绩效管理及跟踪相关规定办理。', '10、财务室应根据预算执行结果登记完整、核对无误的账簿记录和会计核算资料编制决算报表等，及时上报决算资料，对单位部门决算数据的真实性、完整性、准确性负责，并按规定公开本部门决算，接受财政、审计部门和上级部门的检查，承担相应责任。', '11、应做到部门决算与部门预算相互衔接和范围的一致性，确保决算报表和会计账簿账表一致，和财务报表数据相匹配。', '12、决算编审完成后，其用款科室应当会同财务室等科室，依据预算绩效目标和决算数据，对纳入预算绩效管理的项目组织开展项目绩效评价，并将绩效评价结果形成正式报告后报财政部门备案。按规定需要公开的应及时公开项目绩效评价信息，接受社会公众监督。', '1、收支管理内控目标：合理保证单位经济活动合法合规、资金安全和使用、财务信息真实完整、预防腐败，提高公共服务的效率和效果。', '2、局务会是本单位收支业务管理的决策部门，负责决定本单位收支业务等事项，局属各单位负责决定本单位收支业务等事项。涉及“三重一大”事项，应根据有关规定办理。', '3、局财务室是收支业务管理的牵头部门和资金最终归集部门。负责制定、修改完善我局财务收支管理办法，合理设置支出业务流程，确保不相容岗位相互分离。负责具体收支业务及会计核算。', '4、各科室和局属各单位是收支业务的执行部门，应根据相关管理制度和支出业务流程执行支出业务，履行相应职责，对所涉及的经济活动的真实性负责,支持配合财务室工作。', '5、有收入任务的局属单位所有收入及时缴入区级国库或财政专户，各项收入应及时入账，不得设置账外账，严禁收款不入账，设立“小金库”。', '6、支出业务控制目标：各项支出符合国家相关法律法规的规定；各项支出的开支范围和标准参照国家或本市、本区规定的标准执行；各项支出符合规定的程序与范围，审批手续完备；各项支出真实合理，支出的效率和效果良好；各项支出核算正确，相关财务信息真实完整。', '7、基本支出必须符合国家或本市、区规定的范围和标准，各发票或收据等原始凭证必须要素齐全。基本工资、津贴补贴、绩效考核奖、公积金等发放标准凭人事部门按照有关规定发出的书面通知发放。社会保障费凭社保机构出具的缴款通知书办理费用支出事宜。其他基本支出按局机关财务审批制度规定办理支出手续。', '8、项目支出须实行经费使用事前审批，未经事前审批不得办理借款及支付报销手续。各科室和局属各单位根据年初预算，在支出业务发生前或项目活动启动前，向财务室提出事前审批申请，财务室根据年初预算进行预审，审核内容与预算是否匹配，计划支出是否超过预算。再由相关科室提交分管领导对业务事项进行审核，最后交单位负责人审批。', '10、收支使用情况，根据《固原市本级推进预决算信息公开工作方案》要求，通过市政府网站向社会公开，接受社会监督。', '1、固定资产是指使用年限在一年以上，单位价值在规定起点以上，并在使用过程中基本保持其实物形态不变的物质资料。其范围为:', '(1)一般设备单价在200元以上，业务专用设备单价在500元以上，使用时间在一年以上财产，均属固定资产。', '(2)单价虽不足200元，但使用时间在一年以上的大批同类财产，如桌、椅等也属固定资产。', '2、固定资产包括：文广局及所属各单位利用财政补助收入、上级补助收入、事业收入、经营服务收入或其他收入购置的固定资产以及通过捐赠、调拨等形式取得的固定资产。固定资产分类为：', '(2)专用设备：包括各种采编设备、制作设备、传输设备、技术系统内使用的供配电设备、仪器仪表、体育器材等。', '1、由使用单位向局办公室提出详细采购申请报告。该报告应包括拟采购设备、物资的用途几名称、数量、规格、型号、技术指标、性能要求、参考价格等；经分管领导审核，最后报局长审核后，局务会议研究决定采购内容和方式。', '2、设备物资管理部门要对所采购的设备、物资认真组织验收比填制设备物资验收单，使用单位须填写领用单。属于固定资产的设备和物资，要按照固定资产管理规定进行管理。', '4、局机关需增加办公设备，由使用科室提出申请，办公室汇总并提出计划或建议，财务审核预算资金，经局务会议批准后，由办公室履行有关采购程序。', '6、固定资产批准购置更新的，由专业部门会同相关人员共同拆封验收鉴定，有关设备的使用说明与资料，由专业部门保存，会同固定资产管理人员填写固定资产卡一式3份，财务室2份，专业部门留1份。', '7、凡属基本建设竣工交付使用的房屋及附属设备，根据工作决算向固定资产管理人员提供房屋总造价、面积、结构、间数建立固定资产卡片一式3份，财务室按卡片内容登记入帐。', '1、办公室是固定资产管理的综合部门，负责本单位固定资产的记录、核算和监督工作。办理固定资产增减变动财务手续，保管单位固定资产卡片，保证帐、物、卡三相符，定期对单位固定资产进行清查。', '2、各科室是固定资产归口管理单位，负责本科室固定资产的使用、保管，固定资产的购建、调拨等按局里规定的审批权限和手续制度办理。', '3、使用部门要对本部门的固定资产进行定期检查、检验、检修，做好日常维护保养工作，使之经常保持完好可用状态；对技术性较高的仪器设备，应制定操作规程、使用、维护、保养和交接班制度，设置和填写运行记录（即管理台帐）。', '4、使用部门因工作任务变化等情况引起的闲置多余固定资产，应及时交回财务管理部门，不得积压，以便调剂或调拨；使用部门无权自行调拨给其他部门使用。', '5、使用过程中因责任事故造成损失或损坏的，查明原因酌情由责任人员负责全部或部分赔偿。', '凡技术改造、项目建设、产权变更、投资经营等重大固定资产处置事项，需按规定履行手续；未经批准不得随意处置。', '凡属以上条件之一的，可由各科室提出申请报告，经专业部门鉴定后，经局里批准后上报市财政局批准核销后，由财务人员作固定资产帐务处理销帐。', '4、凡一次性采购物资价值5万元（含5万元）至10万元的，由该单位提出采购计划，报请分管副局长同意后，按规定程序办理；凡一次性采购价值10万元以上（含10万元）的，必须由分管领导提交局务会议研究，确定同意后按规定程序办理。', '5、凡是采购列入政府采购目录的物资以及土地矿权出让、国有（集体）产权转让等公共资源交易行为，按照有关规定，集中到市公共资源交易服务中心组织实施，任何个人不得直接决定和从事大宗物资采购事宜。', '1、本着勤俭节约、从紧必需的原则，规范差旅费管理，按照《固原市本级行政事业单位工作人员差旅费开支暂行规定》执行。', '4、工作人员出差按照规定职务级别乘坐交通工具，未按规定职务级别乘坐交通工具的超支部分一律由个人自理。', '7、出差人员住宿费标准按照市财政有关规定执行，不得超标准，超支部分一律由个人承担。', '8、工作人员因公出差期间伙食补助费用按规定标准定额补助，包干使用，超支部分个人自理。', '9、工作人员出差期间，要严格执行中央和区市有关规定，不得以开会、考察、学习、培训、研讨、招商、参展、党建活动等名义变相、绕道公款旅游，不得违反规定用公款支付请客、送礼、游览费用。', '10、工作人员出差结束后应当及时办理报销手续。差旅费报销时由财务室审核把关，依据出差审批单、公函或电话通知单、机票、车（船）票、住宿费发票等凭证在规定标准内报销相关费用。', '2、凡5000元以下开支由经手人、办理科室、财务、分管业务副局长、分管财务副局长审签报支。', '3、凡5000元以上至10000元以下开支由经手人、办理科室、财务、分管业务副局长、分管财务副局长、局长审签报支。', '4、凡10000元以上开支先经局务会（党组会）研究同意，由经手人、办理科室、财务、分管业务副局长、分管财务副局长、局长审签报支。', '5、提交局务会议或党组会会议集体研究的支出事项，形成会议纪要，由财务室作为支出依据并存档。', '为规范我局机关合同管理，预防和减少合同纠纷，依法维护国家利益和社会公共利益，根据《中华人民共和国合同法》及其他有关法规的规定，结合我局实际，制定本制度。', '本制度所称机关合同，是指我局各科室、单位在行政管理、公共服务以及民事经济活动中，以固原市文化体育新闻出版广电局名义作为一方当事人订立涉及国有资产、财政资金使用和公共资源利用的合同，适用本制度。', '我局合同的订立和履行，应当遵循合法、审慎、公平、诚信的原则，以保障财政资金和国有资产的安全。', '（一）调查。订立合同前，应当对合同对方当事人的资产、资质、信用、履约能力等情况进行核实，并充分考虑自身的履约能力；', '（二）谈判。合同标的额较大或法律关系较复杂的合同，应当由业务分管领导和具有相应技术、经济、法律知识的人员组成谈判小组，负责合同谈判；', '（三）起草。根据谈判结果和有关法律、行政法规的规定，由负责具体履行合同的有关科室、单位拟定合同文本，做到标的明确、内容齐全、条款完备、责任明确、用语规范严密；', '（四）审查。拟签订的合同文本至少在正式签字5日前应由具体实施业务科室牵头会同局法律顾问进行审查。事项重大的，应当经局长办公会议或局务会议集体讨论研究决定。', '（五）签订。合同文本应当由单位主要负责人或者其委托的人员签订，并加盖单位公章或者合同专用章。', '合同内容涉及国家秘密和商业秘密的，应当就有关保密条款作出约定，并按照法律法规规定采取必要的保密措施。', '相关科室订立合同时，除严格把握合同形式和内容外，必须认真审查、确认合同另一方当事人的主体资格、资信情况和履约能力，必要时可以委托专业机构进行评估。', '局相关科室申请合同合法性审查时，应当向局聘法律顾问提供下列材料（纸质和电子文本各一套）', '相关科室应当根据合法性审查意见对合同文本进行修改后方可按有关程序报局领导签字或盖章，并正式签订合同。', '合法性审查终结但未正式签订合同，合同当事人变更实质性内容或订立补充合同的，应当重新进行合法性审查。', '合同管理实施合同备案制度。合同订立后，相关科室应当在3个工作日内将正式文本及相关资料送办公室备案。', '合同签订后，有关科室、单位应当严格按照约定诚实、全面地履行合同，并及时对履行过程中出现的问题进行处理。合同签订后或履行过程中需要签订补充协议或者变更合同的，应当按照前述程序办理。', '出现下列情形之一的，负责具体履行合同的相关科室、单位应当及时向局长和分管副局长汇报，采取措施应对合同风险的发生：', '负责具体履行合同的有关科室、单位应当将合同文本草拟稿、生效合同文本、法制机构合法性审查意见、会议研究情况等订立和履行合同过程中获取或形成的相关材料立案归档。', '负责具体履行合同的有关科室应当将本年生效合同目录及订立、履行、争议等统计表和情况小结在本年的11月底前，报送局办公室。', '负责具体履行合同的有关科室应当将本年生效合同目录及订立、履行、争议等统计表和情况小结在本年的', '在合同订立、履行、争议处理中，因违反规定造成重大经济损失或者其他严重后果的，应当依法追究有关人员的行政责任；涉嫌犯罪的，移送司法机关依法追究刑事责任。', '为加强劳动和工作纪律，进一步改进工作作风、切实提高工作效率，保证各项工作有效开展，使考勤和请销假管理工作制度化、规范化，根据国家、自治区和市委、市政府有关政策规定，结合实际，特制定本办法。', '1、全体干部必须严格遵守工作纪律和作息时间，按时上下班，不迟到，不早退，不无故缺勤。', '2、考勤工作由办公室负责，实行本人签到制，严禁代签，按月统计汇总。上班后10分钟内未签到者为迟到，下班前20分钟离岗为早退，严禁代签。开会、集体活动由办公室负责点名考核，无故缺席者按旷工论处。', '3、考勤采取签到和在岗抽查相结合的办法，考勤结果作为个人岗位目标考核重要参数之一。迟到、早退4次视为旷工半天。', '1、局长请假或因公出差，按照市委、市政府有关规定执行；副局长、局属事业单位负责人请假或因公出差，由局长批准。', '2、各科室主任（科长）请假或因公出差，须书面申请，一天以内由分管领导批准，1天以上由局长批准。', '3、一般工作人员有事、因病请假需要填写《请假条》，履行请假手续。1天以内由科室主任（科长）签字批准。2天以内经科室主任（科长）和分管领导签注意见，报局长批准。3天以上（含3天）经科室主任（科长）、分管副局长逐级审批后，报局长批准。请假手续须由请假人送办公室备案，请假期满须由本人及时销假。', '4、职工若遇特殊情况不能事先履行请假手续时，需在当日之内采用一定方式按程序口头请假，在3日之内补办请假手续。需要续假，则须重新办理请假手续。', '（2）病假超过二个月以上按国务院《关于国家机关工作人员病假期间生活待遇的规定》（国发〔1981〕52号）文件规定执行，一年病事假期限一般掌握在8天以内。', '（3）因病、因事均须预先请假，因故不能预先请假的，需及时通过电话告知，并于事后补填《请假条》。', '（2）单位职工请事假、病假（不包括婚假、产假、丧假）从核定的年休假中充抵。如果请事假、病假天数超过核定年休假天数，则不再享受当年公休假，并在下一年内不再安排年休假；如果请事假、病假天数未超过核定的年休假天数，则按照充抵后剩余的天数休假。', '（3）年休假由各科室根据本部门的工作实际情况，在不影响工作的前提下，错时、合理安排工作人员休假，不跨年度使用。', '其中产前可以休假15天；难产的，增加产假15天；生育多胞胎的，每多生育1个婴儿，可增加产假15天。并给予其配偶25天护理假；产假和护理假视同出勤，工资、奖金照发。', '3、值班人员应认真负责，做好值班记录并及时向带班领导报告有关情况，重大事项应按规定上报。', '1、考勤情况登记及考勤工作的监督检查、统计汇总和情况通报由办公室负责，要本着严肃认真、实事求是的原则监督实施。', '2、考勤情况每月公布通报一次，次月前五个工作日内予以公布，接受监督。如有异议，自公布之日起二日内将情况反馈办公室，逾期视为认可。', '3、工作人员的考勤情况作为日常绩效考核及年终考核的一项重要依据，给予客观公正的评价。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>292</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>擘画巩固衔接新蓝图书写乡村振兴新答卷</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202304/t20230412_4028268.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['党的二十大报告对巩固拓展脱贫攻坚成果、全面推进乡村振兴提出了新的目标任务，为做好“三农”工作提供了强大的思想武器和科学的行动指南。固原市乡村振兴局深入学习宣传贯彻党的二十大精神，围绕加快建设乡村全面振兴样板市的目标任务，以强硬作风全面推动重点工作高质高效落实。', '坚持把“守住不发生规模性返贫底线”放在突出重要位置，坚决把来之不易的脱贫攻坚成果巩固住、拓展好。', '建立监测、帮扶、责任、考核“四项机制”，对重点人群和特殊群体实行“八必访”，对风险户实行“一键预警”，确保早发现、早干预、早帮扶。', '大力实施城乡居民收入提升行动，落实“促农增收15条”和自治区“应对疫情影响巩固脱贫成果27条”等措施，衔接资金用于产业占比', '以国家2021年度巩固拓展脱贫攻坚成果同乡村振兴有效衔接成效考核和自治区督查反馈的14类57个问题为重点，建立“一类问题一名包抓领导、一个牵头部门、一个工作班组、一套整改方案（清单）”的整改推进机制', '梳理汇总了24类100条政策标准和目标任务，成立15个整改工作专班，建立整改台账和问题清单、任务清单、责任清单，全力推进整改工作落实落细落地见效', '个整改工作专班，建立整改台账和问题清单、任务清单、责任清单，全力推进整改工作落实落细落地见效', '推进了整体工作提升。截至2022年12月底，反馈问题已全部完成整改并长期坚持，隆德县挂牌督办按程序验收摘牌，并报中央农办、国家乡村振兴局备案。', '月底，反馈问题已全部完成整改并长期坚持，隆德县挂牌督办按程序验收摘牌，并报中央农办、国家乡村振兴局备案。', '把促进脱贫县加快发展作为主攻方向，着力抓重点、补短板、强弱项，动员全社会力量参与，不断缩小发展差距。', '落实投资7.63亿元，实施产业培育、就业帮扶、基础设施、公共服务、人居环境等项目474个。培育移民专业合作社37家，建设“出户入园”园区29个，发放小额信贷1.82亿元。建立“政府引导＋劳务组织带动＋群众自发”就业模式和常态化“五清”排查机制，举办各类培训班109期，通过精准培训实现就业1406人，组织开展劳务输出1.45万人，发放稳岗补贴655.8万元，开发公益性岗位805个；在千人以上重点移民安置村（社区）设立就业服务站26个，培育劳务经纪人103人。2023年全市计划实施产业、就业、基础设施等八类项目1045个投资5.8亿元', '国家5个定点帮扶单位，充分发挥自身优势，开展产业帮扶促增收，教育帮扶提素质，人才培训强能力，招商引资增活力等专项行动，投入帮扶资金0.71亿元，实施帮扶项目81个。', '个定点帮扶单位，充分发挥自身优势，开展产业帮扶促增收，教育帮扶提素质，人才培训强能力，招商引资增活力等专项行动，投入帮扶资金', '引导各类社会力量参与巩固成果衔接乡村振兴工作，通过工会、团委、妇联、工商联、红十字会和慈善总会等单位动员社会团体和爱心人士捐物捐款271.6万元，在西吉县召开了宁夏“万企兴万村”推进会，引导71个企业帮扶73个村，投入各类帮扶资金300余万元。', '引导各类社会力量参与巩固成果衔接乡村振兴工作，通过工会、团委、妇联、工商联、红十字会和慈善总会等单位动员社会团体和爱心人士捐物捐款', '制定印发《固原市乡村建设行动实施方案》，建立乡村建设项目库，开展乡村建设信息数据采集，统筹推进乡村建设“183”重点任务落实。2022年新建（改）农村公路214公里，自然村通硬化路率96％以上；改造农村危房695户，抗震宜居住房726户；新建及改造农村电网1335公里；推动5G网络向农村公共场所延伸。签约紧缺学科公费师范生91名，聘用安排特岗教师30名；创成国家推荐标准乡镇卫生院2个和基本标准乡镇卫生院17个；低保对象等困难人群参保44.79万人，参保率100％。打造人居环境整治示范村108个，农村垃圾治理率、污水治理率分别达到90％和39.77％。新改造农村户厕1.42万户，农村卫生厕所覆盖率50％以上。', '制定印发《固原市乡村建设行动实施方案》，建立乡村建设项目库，开展乡村建设信息数据采集，统筹推进乡村建设', '推动“1＋1＋3”党建引领基层治理工作机制有效落实，持续深化“一抓两整”示范县乡创建行动，全面推进“55124”基层社会治理模式和村干部队伍“源泉工程”。调处化解各类矛盾纠纷5571件，调解成功率95.2％。全市党建工作示范村、示范乡镇创建率分别达到74.4％和61.3％，“一村一策”整顿软弱涣散村党组织30个。乡村振兴主题培训乡村干部、驻村干部1.8万人次。大力推广“积分制”“清单制”，持续开展移风易俗，高价彩礼、厚葬薄养等陈规陋习得到有效遏制。', '坚持城乡融合发展，加快形成财政优先保障、金融重点倾斜、社会资本参与的多元投入格局。优化小额信贷政策，']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>292</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>市人社局五项措施推动高校毕业生就业确保大学习大讨论大宣传大实践活动取得实效</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2022-10-26</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/bmdt/202210/t20221026_3816392.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['市人社局“五项措施”推动高校毕业生就业确保“大学习大讨论大宣传大实践”活动取得实效_固原市人民政府', '市人社局“五项措施”推动高校毕业生就业确保“大学习大讨论大宣传大实践”活动取得实效', '市人社局将开展好习近平总书记视察宁夏重要讲话和重要指示批示精神“大学习、大讨论、大宣传、大实践”活动作为一项政治任务，以“五项举措”扎实推动高校毕业生就业工作，促进人力资源和社会保障工作“赶超式”发展。截至目前，全市接收离校未就业高校毕业生4767人中已就业2620人，全市离校未就业高校毕业生就业率56.5％，同期增长9.1个百分点。', '一是扩大政策宣传促就业。市、县（区）结合实际，坚持“线上线下、系统内外、城市乡村”三个结合，通过发放传单、派送清单、平台发布、直播解读等渠道，加强高校毕业生就业政策特别是新出台《固原市高校毕业生就业创业工作实施方案》的宣传，不断提高政策知晓率和参与度。抢抓全市重点工程建设项目开工时机，组织人员深入市、县（区）360多家企业，解读政策内容、补贴标准、申办流程，把企业需求摸清楚，为企业算清明白账。组织开展政策宣传、招聘服务、就业指导、创业服务、职业培训、困难帮扶“六进校园”活动，在宁夏师范学院举办了高校毕业生就业创业政策宣讲暨优秀青年代表经验分享会，加大优秀青年的创业经历、典型事迹、发展成果的宣传力度，满足毕业生多层次、精准化的服务需求。近期，市人社局在《固原日报》《固原党建网》、宁夏公共招聘网等媒介刊登《青春新赛道道 就业新航程－－致2022届高校毕业生的一封信》，向高校毕业生公开各项服务内容，发出回固原就业创业、发展成长的号召。', '二是抓好政策招录保就业。认真做好公务员、事业单位工作人员等政策性岗位的考（招）录工作，积极对接组织、编办等部门，适当放宽招聘年龄、学历、专业等条件，吸引更多高校毕业生能参与考试。全面提速公务员招录、事业单位招聘、“三支一扶”招募等工作，目前公务员考录、事业单位招聘已完成面试、体检、考察等工作，9月底考录（招聘）人员上岗。同时抓好653个高校毕业生公岗指标的管理使用，配合实施了城乡社区、学前教师、乡村医生、司法协理等319人的基层服务专项计划，9月底新招募人员将实现上岗，配合市公安局公开招聘公安辅警265个。', '三是举办招聘活动扩就业。对接宁夏师范学院组织毕业生响应高校毕业生就业服务平台、国家公共招聘网、国家人才网、“就业在线”、“24365”资讯等招聘服务，广泛动员毕业生通过网络招聘选择合适岗位。对接国有企业、民营企业、中小微企业等用人单位，建立跨区域信息互通共享机制，采取综合专场、特色专场、行业专场交替进行的方式，累计开展线上线下招聘活动237场次，提供各类岗位2.23万个，3.6万人次参加，达成就业意向1368人次。包车护送912名高校毕业生赴银川参加了宁夏宝丰集团专场招聘会，与企业单位面对面开展交流，精准选择匹配工作岗位。彭阳县统筹谋划实施数字经济产业，引进数据外包企业入驻，积极承接国内数据外包产业转移，1300余名高校毕业生和社会青年入职并正式顶岗上线。', '四是推进服务攻坚帮扶就业。将自治区移交的离校未就业高校毕业生数据，第一时间分配到县（区），组织人员开展人员摸排工作，摸清其就业状态、学历专业、求职意向和服务需求等信息，为离校未就业高校毕业生建立实名服务台账。进一步完善“1311”就业服务，对有就业意愿的毕业生提供1次职业指导、3次岗位推介、1次职业培训机会、1次就业见习机会，千方百计促进高校毕业生就业。加快推进毕业生就业政策网上办，引导毕业生通过宁夏公共招聘网和“宁夏公共招聘”微信公众号，线上办理求职登记、岗位查询、投递简历和档案查询等手续，实现求职就业服务“不见面”办理。对脱贫家庭、低保家庭、零就业家庭、残疾等困难毕业生，提早做好信息衔接，做实帮扶台账，开展“一对一”就业援助，优先提供服务，优先推荐岗位。同时，针对毕业生就业创业需要，对有创业意愿的毕业生开展有针对性的创业培训53人，为52名高校毕业生发放创业担保贷款1245万元，积极组织参加技能培训，吸引更多的高校毕业生来固创业创新。', '五是落实优惠政策稳就业。督促县（区）设立咨询电话，加强“三支一扶”、实习见习人员管理，县（区）政策落实数据同时报送中心备查，全面促进高校毕业生就业创业的社会保险、就业见习、求职创业等补贴政策落实。截至8月底，全市累计发放“三支一扶”补贴5002.95万元、机关事业单位实习基本补贴671.43万元、青年就业见习补贴243.955万元。为1841名高校毕业生开展职业指导，对303人开展职业技能培训，为46名困难高校毕业生安置公益性岗位。全市接受高校毕业生档案9954份，为1840人转出人事档案。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>292</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>百年梦圆照此心以习近平同志为核心的党中央引领全面建成小康社会纪实</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/xwzx/tttj/202107/t20210705_2912286.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['百年梦圆照此心——以习近平同志为核心的党中央引领全面建成小康社会纪实_固原市人民政府', '中国共产党百年华诞之际，中华民族迎来又一个历史时刻——如期实现全面建成小康社会奋斗目标。', '从党的建立到新中国成立，再到推进改革开放，一百年来，中国共产党坚守为中国人民谋幸福、为中华民族谋复兴的初心使命，紧紧依靠人民，攻坚克难，创造了一个又一个彪炳史册的人间奇迹。', '新时代砥砺奋进。党的十八大以来，以习近平同志为核心的党中央接续奋斗，把人民对美好生活的向往作为奋斗目标，团结带领全党全国各族人民，夺取全面建成小康社会决胜阶段的伟大胜利。', '千年梦想，百年梦圆，书写了人类发展史上的伟大奇迹，铸就了中华民族伟大复兴的不朽丰碑。', '不负使命的历史担当——接过历史的接力棒，确保如期全面建成小康社会，踏出中华民族伟大复兴的关键一步', '2012年11月，习近平总书记在这里作出“到中国共产党成立100年时全面建成小康社会的目标一定能实现”的郑重宣示。', '上海，兴业路老石库门。今年6月3日，中共一大纪念馆开馆，建党时期珍贵文物得以集中展示。', '2017年10月，党的十九大闭幕不久，习近平总书记专程前往一大会址，向全党发出“不忘初心、牢记使命、永远奋斗”的号召。', '从石库门到天安门，我们党百年来所付出的一切努力、进行的一切斗争、作出的一切牺牲，都是为了人民幸福和民族复兴。', '改革开放之初，邓小平同志提出建设小康社会和现代化建设“三步走”战略构想。经过全党全国人民共同奋斗，解决人民温饱问题、人民生活总体上达到小康水平两个目标提前实现。', '“到2020年全面建成小康社会，实现第一个百年奋斗目标，是我们党向人民、向历史作出的庄严承诺。”习近平总书记把全面建成小康社会放在中国梦的大格局中加以谋划和布局。', '从“决定性阶段”到“决胜期”，这个时跨本世纪头20年的奋斗历程到了一鼓作气向终点冲刺的历史时刻。', '建设一个什么样的小康社会，如何建成小康社会？习近平总书记作出一系列重要论述，深刻回答了全面建成小康社会面临的一系列重大理论和实践问题。', '在全面小康的实现标准上，总书记要求在坚持以经济建设为中心的同时，全面推进经济建设、政治建设、文化建设、社会建设、生态文明建设，促进现代化建设各个环节、各个方面协调发展；', '在全面小康的覆盖面上，总书记强调全面建成小康社会“覆盖的领域要全面”“覆盖的人口要全面”“覆盖的区域要全面”；', '在全面小康与经济发展的关系上，总书记指出“进入全面建成小康社会决胜阶段，不是新一轮大干快上”“不是一个‘数字游戏’或‘速度游戏’，而是一个实实在在的目标”“要考虑更长远时期的发展要求”。', '习近平总书记的重要论述根据国内外形势新变化，顺应我国经济社会新发展和广大人民群众新期待，为全面建成小康社会指明了前进方向，提供了根本遵循。', '“‘十三五’规划作为全面建成小康社会的收官规划，必须紧紧扭住全面建成小康社会存在的短板，在补齐短板上多用力。”', '2015年10月，党的十八届五中全会召开，习近平总书记在作“十三五”规划建议说明时强调。', '面对全面小康目标，既有农村贫困人口脱贫这一突出短板，也有社会事业发展、生态环境保护、民生保障等方面存在的一些明显短板。', '“如果到2020年我们在总量和速度上完成了目标，但发展不平衡、不协调、不可持续问题更加严重，短板更加突出，就算不上真正实现了目标，即使最后宣布实现了，也无法得到人民群众和国际社会认可。”习近平总书记谆谆告诫。', '“十三五”规划建议提出创新、协调、绿色、开放、共享的发展理念。以实现高质量发展为导向，落实新发展理念贯穿“十三五”经济社会发展全过程。', '从党的十八届三中全会部署推进全面深化改革，到党的十八届四中全会部署推进全面依法治国；从党的十九大提出坚决打好防范化解重大风险、精准脱贫、污染防治的攻坚战，到党的十九届四中全会部署推进国家治理体系和治理能力现代化…', '2014年11月，习近平总书记在福建考察调研，提出“协调推进全面建成小康社会、全面深化改革、全面推进依法治国进程”。', '立足全面建成小康社会的引领地位，以习近平同志为核心的党中央协调推进“四个全面”战略布局，强化全面从严治党的根本保证。', '习近平总书记指出：“党坚强有力，党同人民保持血肉联系，国家就繁荣稳定，人民就幸福安康。”', '五级书记抓扶贫，向脱贫攻坚主战场选派驻村工作队、第一书记和驻村干部；面对突如其来的严重疫情，党中央统揽全局、果断决策，第一时间实施集中统一领导；在财经、网络和信息化、国家安全等事关全面小康的关键领域，建立党领导的协调机制……我们党不断提高领导发展的能力和水平，确保全面建成小康社会各项任务落到实处。', '国内生产总值突破100万亿元，人均国内生产总值突破1万美元，形成世界最大规模中等收入群体；', '人民生活水平显著提高，建成世界规模最大的社会保障体系，基本医疗保险覆盖超过13亿人，基本养老保险覆盖近10亿人……', '攻坚克难的伟大实践——坚持以人民为中心，集中力量坚决打赢打好三大攻坚战，让全面建成小康社会惠及全体人民', '河南南阳，丹江口水库。今年“七一”前夕，习近平总书记来到这里，专题调研南水北调中线工程建设运行和库区移民安置等情况。', '在淅川县九重镇邹庄村，习近平总书记走进移民户邹新曾家。通过种田、务工和电商直播，这家的日子红红火火。', '总书记接过土坯房老照片端详：“移民之后，乡亲们10年收入提高了3.6倍，这是我们欣慰的地方。”', '习近平总书记深情地说：“我们党的一百年多不容易、多么艰难，但有一条，这个党建起来就是为了老百姓。人民就是江山。共产党打江山、守江山，守的是什么？就是守人民的心啊。”', '“我们不能一边宣布实现了全面建成小康社会目标，另一边还有几千万人口生活在扶贫标准线以下。”习近平总书记把脱贫攻坚看作全面建成小康社会的底线任务和标志性指标。', '以革命老区阜平为起点，50多次调研扶贫工作，走遍14个集中连片特困地区，先后7次主持召开中央扶贫工作座谈会……习近平总书记把脱贫攻坚摆在治国理政的突出位置，亲自挂帅、亲自出征、亲自督战。', '做到“六个精准”，实施“五个一批”，解决扶持谁、谁来扶、怎么扶、如何退问题，实现“两不愁三保障”，实行扶贫和扶志扶智相结合……习近平总书记对脱贫攻坚工作作出一系列重要论述和重大部署，推动走出了一条中国特色减贫道路。', '2016年春天，一张四川昭觉县阿土列尔村十几名小孩背着沉重的书包循着藤梯奋力攀爬的照片引发关注，“悬崖村”的名字不胫而走。', '2017年3月8日，习近平总书记在全国两会期间参加四川代表团的审议时，专门提起“悬崖村”村民出行难的问题。', '“去年媒体报道了凉山州的‘悬崖村’，看到村民和孩子们常年在悬崖上爬藤条，上山下山安全得不到保证，看了以后心情还是很沉重的，也很揪心。前不久又看到材料说当地已经建了新的铁梯，这样心里又感觉到松了一下。”', '2018年春节前夕，习近平总书记来到昭觉县看望贫困群众，了解到村里不仅建了新的钢梯，村民收入也有较大提高，连连说“让人不再揪心了，我看了感到很高兴”。', '总书记动情地说：“我们搞社会主义就是要让人民群众过上幸福美好的生活，全面建成小康社会一个民族、一个家庭、一个人都不能少。”', '2020年5月，阿土列尔村84户老乡下悬崖，上电梯，住进易地扶贫搬迁安置点，翻越了“贫困大山”。', '2021年2月25日，习近平总书记在全国脱贫攻坚总结表彰大会上庄严宣告：现行标准下9899万农村贫困人口全部脱贫，832个贫困县全部摘帽，12.8万个贫困村全部出列，区域性整体贫困得到解决，完成了消除绝对贫困的艰巨任务，创造了又一个彪炳史册的人间奇迹。', '“环境就是民生，青山就是美丽，蓝天也是幸福”“良好生态环境是最公平的公共产品，是最普惠的民生福祉”……', '党的十八大以来，以习近平同志为核心的党中央把生态文明建设摆在全局工作的突出位置，开展了一系列根本性、开创性、长远性工作，打响污染防治攻坚战，决心之大、力度之大、成效之大前所未有。', '习近平总书记指出：“青海最大的价值在生态、最大的责任在生态、最大的潜力也在生态，必须把生态文明建设放在突出位置来抓，尊重自然、顺应自然、保护自然，筑牢国家生态安全屏障，实现经济效益、社会效益、生态效益相统一。”', '“共抓大保护、不搞大开发。”2016年以来，习近平总书记亲自部署和推动长江经济带发展，连续深入长江上、中、下游，三次主持召开专题座谈会，明确提出把修复长江生态环境摆在压倒性位置。', '5年间，沿江11个省市推进生态环境整治，促进经济社会发展全面绿色转型，长江经济带生态环境发生转折性变化，大江两岸焕发新颜。', '放眼全国，一份绿色答卷可圈可点：2020年，全国地级及以上城市空气质量优良天数比率达到87%，地表水Ⅰ至Ⅲ类水质断面比例5年间由66%上升至83.4%；河长制、湖长制全面建立，以国家公园为主体的自然保护地体系加快建立，一系列重大生态工程深入推进，一块块生态环境的短板正在补上。', '习近平总书记强调：“中华民族伟大复兴绝不是轻轻松松、顺顺当当就能实现的，我们越发展壮大，遇到的阻力和压力就会越大，面临的外部风险就会越多。”', '妥善应对经济领域可能出现的重大风险，完善金融安全防线和风险应急处置机制，完善共建共治共享的社会治理制度，保障国家粮食安全……', '党的十八大以来，面对复杂多变的国际形势和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央坚持底线思维，统筹发展和安全，增强忧患意识，提高防控能力，着力防范化解重大风险，不断战胜全面小康前进道路上各种艰难险阻。', '从农村的厕所革命到城市的垃圾分类，从防治“小眼镜”到减轻学生作业负担和校外培训负担，从加强食品安全到狠刹浪费之风，习近平总书记把一件件民生小事当成大事，持续推动。', '从个人所得税改革迈出实质性步伐，到药品集中带量采购常态化制度化，再到推动城乡基本公共服务均等化，改革发展成果更多更公平惠及全体人民。', '覆盖全面的总体推进——着眼更长远时期的发展要求，实现“两个一百年”奋斗目标有机衔接，为全面建设社会主义现代化国家奠定坚实基础', '作为社会主义现代化道路上的一个阶段性目标，全面建成小康社会成色如何事关第二个百年奋斗目标能否开好局、起好步。', '习近平总书记指出：“全面建成小康社会，强调的不仅是‘小康’，而且更重要的也是更难做到的是‘全面’。”', '进入新时代，我国社会主要矛盾转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。全面建成小康社会，既要物质满足，也要精神充盈。', '2014年10月15日，习近平总书记主持召开文艺工作座谈会。“没有中华文化繁荣兴盛，就没有中华民族伟大复兴。”习近平总书记这样强调坚定文化自信对建设社会主义文化强国的重要性。', '今年4月，习近平总书记在广西考察期间来到广西民族博物馆，参观壮族文化展。“我到地方考察，都会抽时间到博物馆走一走、看一看，目的是更好了解一个地方的历史文化沿革。”习近平总书记说。', '从公共文化服务日益完善到文化活动百花齐放，从榜样力量的引领到时代新风的弘扬，从提升文明素养到壮大志愿服务，中国人民在文化的滋养中展现新的精神风貌，迸发磅礴的奋进力量。', '2020年5月，被誉为“新时代人民权利宣言书”的民法典刚刚诞生，中央政治局就以“切实实施民法典”为主题举行了集体学习。', '“要讲清楚，实施好民法典是坚持以人民为中心、保障人民权益实现和发展的必然要求。”习近平总书记进行了深刻阐述。', '随着全面依法治国深入实施，法治为全面建成小康社会提供有力保障，公平正义得以彰显，群众安全感大幅提升。', '实施就业优先战略，推动义务教育优质均衡发展，构建覆盖全民的基本公共服务体系……在公平正义阳光的照耀下，人人享有人生出彩的机会。', '2020年初，面对突如其来的新冠肺炎疫情，我国经受了一场艰苦卓绝的历史大考，付出巨大努力，取得抗击新冠肺炎疫情斗争重大战略成果。', '习近平总书记高度重视巩固疫情防控成果、构建强大公共卫生体系、全面推进健康中国建设，亲自审定了疾控体系改革方案。', '近年来，我国着力完善公共卫生体系，全面推开公立医院综合改革，推进药品集中采购和使用。', '走进四川成都市郫都区战旗村，小桥流水、树木葱郁，宽敞整洁的柏油路纵横交错，白墙青瓦的川西民居错落有致，古色古香的“乡村十八坊”游客如织。', '2018年2月12日，习近平总书记来到这里，在“精彩战旗”特色产业在线服务大厅仔细观看了“互联网+共享农业”互动种养平台，鼓励村民用好互联网、打开产销路子。在“唐昌布鞋”展示台前，村民热情地拿起一双布鞋想送给总书记，习近平笑着说：“我花钱买一双！”', '总书记对乡亲们说，中国有13亿多人口，吃饭问题始终要靠自己解决，无论城镇化怎么发展都会有几亿农村人口，我们不能一面有繁荣的城市，一面却是落后甚至衰落的乡村。', '2013年12月召开的中央城镇化工作会议提出，要以人为本，推进以人为核心的城镇化。', '党的十八大以来，以习近平同志为核心的党中央推进以人为核心的新型城镇化，深化户籍制度改革，加快推进农业转移人口市民化，提前完成1亿非户籍人口在城市落户目标，我国常住人口城镇化率超过60%。', '与此同时，农村社会事业短板正逐步补齐，建立起统一的城乡居民基本医疗和基本养老保险制度，农村居民人均可支配收入增速快于城镇居民收入，城乡差距进一步缩小。', '2018年9月，习近平总书记用4天时间，行程两千公里，跨越东北三省，实地了解东北振兴情况。', '从推进京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展，到推动黄河流域生态保护和高质量发展，再到高标准、高质量建设雄安新区，一个个新增长极正在中国版图上崛起。', '今年5月28日，在一场事关国家科技创新发展大计的会议上，习近平总书记为“科技自立自强”加上了一个重要定语——“高水平”。', '上天下海的科学探测实现重大突破，“奋斗者”号等一批国之重器惊艳亮相，量子信息等前沿领域取得一系列原创成果，“复兴号”高铁投入运营，5G成功商用，人工智能加快应用……以创新为第一动力，我国进入高质量发展阶段。', '看转型升级，大力推进供给侧结构性改革，我国经济结构逐步优化，服务业增加值占国内生产总值比重持续上升，新产业、新业态、新模式喷涌而出，消费升级方兴未艾。', '看开放步伐，自由贸易试验区不断扩容，海南自由贸易港建设加快推动，创办中国国际进口博览会、中国国际消费品博览会，与“一带一路”沿线国家经贸交往日趋活跃。', '习近平总书记强调：“高质量发展不只是一个经济要求，而是对经济社会发展方方面面的总要求；不是只对经济发达地区的要求，而是所有地区发展都必须贯彻的要求；不是一时一事的要求，而是必须长期坚持的要求。”', '全面建成小康社会的中国，是创新中国、活力中国，是美丽中国、开放中国，是风雨无阻向前进的中国。', '全面建设社会主义现代化国家新征程上，在以习近平同志为核心的党中央坚强领导下，中国人民意气风发、斗志昂扬，向着第二个百年奋斗目标、向着中华民族伟大复兴阔步向前。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>292</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>固原市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>固原市人民政府办公室关于印发固原市贯彻落实自治区目标责任清单的通知</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.nxgy.gov.cn/zwgk/zcwj/qtwj/jgzn_35170/202309/t20230905_4251401.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['固原市人民政府办公室关于印发《固原市贯彻落实自治区&lt;扩大有效投资百日攻坚工作方案&gt;目标责任清单》的通知_固原市人民政府', '固原市人民政府办公室关于印发《固原市贯彻落实自治区&lt;扩大有效投资百日攻坚工作方案&gt;目标责任清单》的通知', '目标责任清单》印发给你们，请认真细化本地区本部门（单位）百日攻坚工作任务，列出清单，建立台账，抓好贯彻落实。', '各县（区）、市直各部门（单位）要切实强化扩大有效投资的责任担当、推进机制，抢时间、抓进度、保质量，逐级明确责任、逐项细化量化、层层压实任务，大抓项目、抓大项目、抓高质量项目，全力以赴推进项目建设。三季度末全市固定资产投资增长', '个重点项目、中央预算内投资项目、自治区统筹资金项目、上级各专项资金项目和各县（区）重点项目，要按照', '各县（区）、市直各部门（单位）主要负责同志要把抓项目摆在更加突出位置，亲自带头抓调度、抓协调、抓督查，及时掌握项目进展情况、主动协调解决具体问题，重点围绕提高项目落地率、投资完成率、资金支付率等反映工作效果的指标，完善措施、扎实推进，确保项目谋划储备、招商引资、完成投资、建设进度、协调服务等工作取得实效。项目建设责任部门（单位）要认真履行本行业领域固定资产投资和项目建设牵头职责，主动协调、服务、推动项目建设。要依法依规开展项目统计入库，建立发展改革、行政审批、统计部门信息共享机制。统计部门要加强指导，组织项目单位统计人员做好针对性实务性培训，如实准确填报数据。', '市发展改革委要会同有关部门（单位）从严从实抓好项目建设督导检查，实地督导项目谋划储备、批复执行、建设进度和投资完成情况，以清单化管理确保每个环节扎实有效推进。政府督查室要协同发展改革、统计等部门，将百日攻坚工作推进情况纳入全年扩大有效投资绩效考核，与全年效能目标管理考核挂钩，鼓励先进鞭策后进，树立鲜明结果导向。', '实现区域增长提量。各县（区）全面发力，完成投资时序进度缓慢的县（区）、市直部门（单位）补上欠账，三季度末原州区固定资产投资增长', '实现招引落地提档。全力推动自治区党政代表团赴上海、浙江、江苏学习考察签约项目落地，提高签约合同项目实际到位资金率。三季度末，各县（区）招商引资项目落地率达到', '建立项目储备长效机制，更新全市重大项目储备库，形成谋划入库、前期推进、开工建设、竣工投产、储备展望', '紧盯黄河流域生态保护和高质量发展先行区以及宁夏副中心城市建设等重大任务，聚焦市委、市政府明确的重点工作，由市发展改革委会同财政部门及相关行业主管部门，结合财政收支状况和财政可承受能力，加强项目谋划储备，力争更多产业升级和基础设施补短板项目纳入国家', '、生态环保、环境治理等领域，谋划一批战略性、前瞻性、全局性的重大项目，积极争取政策、资金、项目方面的支持。强化上下联动、横向协', '以城市更新为发力点，围绕危旧房屋、老旧小区、城中村、低效或者闲置用地、老旧街区、历史文化街区，接续谋划储备一批老旧小区改造、棚户区改造、城市集中供热、', '活动。强化项目调度机制，一旬一调度，一月一通报，靠前发力、精准调度、动态监测。强化行业部门监管机制，协调做好本行业项目监管、政策扶持、要素保障、跟踪服务等工作。', '坚持目标导向，按照时间节点倒排工期，压茬推进项目投资时序进度，对上半年投资完成率低于', '的各类项目，清单化明确推进计划和具体时间节点，确保按时序进度推进，完成年度投资目标任务。', '一步加快中央预算内投资项目、自治区预算内统筹投资项目、地方政府专项债券项目、政策性开发性金融工具项目的建设进度，三季度实现', '依法依规做好项目统计入库、投资数据纳统工作，开展统计针对性、实务性培训，全面客观真实反映项目投资情况。', '紧盯能源领域投资，对清洁能源项目、电网升级改造等项目排出时间表、路线图。开工建设六盘山电厂', '线苋麻湾至杨庄段公路工程，争取更多厅返投资；加快农村公路建设，积极扩大地方交通投资、力促交通基础设施投资实现正增长。', '等重大水利项目建设，形成更多实物工作量，力争水利基础设施厅返投资降幅收窄。加快病险水库除险加固、农村供水保障等地方水利项目建设进度', '紧盯房地产领域投资，协调解决房地产项目建设存在的问题，加快中悦浩海中房玺悦台商住开发项目、浩海基业光耀和玺商住、东海公园里等项目建设进度；督促尚书府、丽景湾等项目统计入库。', '各级投资项目审批、自然资源、生态环境、住房城乡建设、水务等部门要加快办理项目审批核准备案、用地、规划许可、环评、水保、能评、施工许可等审批手续，重点项目开辟绿色通道。', '亩年度单列安排计划指标，项目用地从预审开始到选址、报批、供地等环节全程跟进、点对点服务，做到项目建设和产业发展用地需求应保尽保。', '模式，增强财政金融工具的引导撬动作用。落实投贷联动试点合作机制，通过投资在线审批监管平台将民间投资项目、重大项目信息共享至银行金融机构，引导银行加大融资支持力度。', '算力产业大会、第六届中阿博览会、宁夏冷凉蔬菜节暨全国知名蔬菜销售商走进宁夏活动等重大机遇，在大数据、数字经济、能源、科技、农业等领域签订一批合作项目。', '个项目，全力推动协议项目转化为合同项目，尽快完成选址、用地、建设方案编制，力促项目尽快开工建设，尽早形成投资实物量。', '活动专项督查，通过晒成绩、比干劲、促发展，在全市营造大抓发展、抓大发展、抓高质量发展的良好氛围。', '市发展改革委进一步强化旬调度、月通报等机制，梳理需协调解决问题清单，及时协调解决项目推进问题。', '贯彻落实《固原市政府投资管理办法（试行）》《关于进一步加强投资项目全流程管理的通知》，规范履行项目审批程序，在前期工作阶段进一步加强工程质量管理，落实项目决策咨询评估制度和', '压实项目建设、施工、监理单位的安全生产责任，做到安全责任到位、安全培训到位、安全管理到位。常态化开展作业现场安全生产监督巡察力度，及时排查风险隐患，切实做到不留死角、不留盲区，确保从源头上防范化解安全风险。', '各县（区）、各责任单位要采取切实可行措施，列出任务清单、建立工作台账，明确工作标准、进度安排，逐项细化量化、逐项推进落实，确保各项工作扎实开展。各县（区）要牢牢压实属地责任，把落实工作抓实抓细，全力扩大有效投资进度，完成三季度及年度目标任务。', '按照固原市人民政府办公室《关于印发固原市项目建设协调推进机制的通知》要求，各级行业主管、要素保障等部门，对重大项目，开辟绿色通道、特事特办、会商联办、容缺办理、限时办理。', '原则，全力做好中央预算内投资、自治区预算内统筹投资以及上级转移支付的争取，撬动更多社会投资，引导优化项目资源配置。加快中', '“扩大有效投资百日攻坚”活动推进情况纳入全年扩大有效投资重大项目考核，综合考量投资增速、建筑安装工程投资、资金争取、项目推进、投产达效等多个方面。将上半年、三季度扩大有效投资考核与全年效能目标管理考核挂钩，鼓励先进鞭策后进，树立鲜明结果导向。', '活动推进情况纳入全年扩大有效投资重大项目考核，综合考量投资增速、建筑安装工程投资、资金争取、项目推进、投产达效等多个方面。将上半年、三季度扩大有效投资考核与全年效能目标管理考核挂钩，鼓励先进鞭策后进，树立鲜明结果导向。']</t>
         </is>
